--- a/assets/cost_sheet.xlsx
+++ b/assets/cost_sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/56c9449150e6bc49/Documentos/FEARP/Intercambio/spendure_app/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="8_{697955BF-7644-43E6-B102-A5718628249A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3D921415-07EC-4485-A956-FEDA348557EB}"/>
+  <xr:revisionPtr revIDLastSave="449" documentId="8_{697955BF-7644-43E6-B102-A5718628249A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C061E4B2-964D-4E02-BE96-AB0632B91450}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{3A902579-E7D0-4425-859E-D7B710BECD9D}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="lists" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">table!$C$1:$C$71</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">table!$C$1:$C$122</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="133">
   <si>
     <t>Data</t>
   </si>
@@ -285,9 +285,6 @@
     <t>Café Figueires</t>
   </si>
   <si>
-    <t>Hotel + Passagem Zaragoça</t>
-  </si>
-  <si>
     <t>Março</t>
   </si>
   <si>
@@ -324,10 +321,124 @@
     <t>Paris</t>
   </si>
   <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>Hotel+Passagem</t>
+    <t>Vida Mona Sl</t>
+  </si>
+  <si>
+    <t>Remédios garganta</t>
+  </si>
+  <si>
+    <t>Figueires</t>
+  </si>
+  <si>
+    <t>Zaragoza</t>
+  </si>
+  <si>
+    <t>Roma</t>
+  </si>
+  <si>
+    <t>Dolomitas</t>
+  </si>
+  <si>
+    <t>Aribnb dolomitas</t>
+  </si>
+  <si>
+    <t>Ida</t>
+  </si>
+  <si>
+    <t>Baobab</t>
+  </si>
+  <si>
+    <t>Modu Coreano</t>
+  </si>
+  <si>
+    <t>Compá Panini</t>
+  </si>
+  <si>
+    <t>Morango Chocolate</t>
+  </si>
+  <si>
+    <t>100 montaditos + Surena</t>
+  </si>
+  <si>
+    <t>KFC</t>
+  </si>
+  <si>
+    <t>Vegetalia Paella</t>
+  </si>
+  <si>
+    <t>Café 365</t>
+  </si>
+  <si>
+    <t>100 montaditos</t>
+  </si>
+  <si>
+    <t>Hostel</t>
+  </si>
+  <si>
+    <t>Molho tomate + coca</t>
+  </si>
+  <si>
+    <t>Aerobus</t>
+  </si>
+  <si>
+    <t>Sakura</t>
+  </si>
+  <si>
+    <t>Totoro</t>
+  </si>
+  <si>
+    <t>Vera Café</t>
+  </si>
+  <si>
+    <t>Volta</t>
+  </si>
+  <si>
+    <t>Pans Company</t>
+  </si>
+  <si>
+    <t>Taxi</t>
+  </si>
+  <si>
+    <t>Kamado</t>
+  </si>
+  <si>
+    <t>Forte</t>
+  </si>
+  <si>
+    <t>El Champi</t>
+  </si>
+  <si>
+    <t>Taberna Tapas</t>
+  </si>
+  <si>
+    <t>Sobremesa</t>
+  </si>
+  <si>
+    <t>Ham Burguer</t>
+  </si>
+  <si>
+    <t>Panini INA</t>
+  </si>
+  <si>
+    <t>Paki chiclete agua</t>
+  </si>
+  <si>
+    <t>Ying Bin Jiu Lou</t>
+  </si>
+  <si>
+    <t>El Cubo</t>
+  </si>
+  <si>
+    <t>Bershka Blusinha</t>
+  </si>
+  <si>
+    <t>Passagem Milão</t>
+  </si>
+  <si>
+    <t>Hotel</t>
+  </si>
+  <si>
+    <t>Trem</t>
   </si>
 </sst>
 </file>
@@ -403,7 +514,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -411,6 +522,8 @@
     <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -751,10 +864,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73D03841-840F-48EF-840B-36FDA2E59E7D}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:I71"/>
+  <dimension ref="A1:I122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F80" sqref="F80"/>
+      <selection activeCell="J75" sqref="J75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -762,7 +875,7 @@
     <col min="1" max="1" width="10.08984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.7265625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.54296875" customWidth="1"/>
+    <col min="5" max="5" width="17.6328125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24.90625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.6328125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.1796875" bestFit="1" customWidth="1"/>
@@ -780,10 +893,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>89</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>90</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>3</v>
@@ -898,7 +1011,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>45659</v>
       </c>
@@ -1098,7 +1211,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>45662</v>
       </c>
@@ -1109,10 +1222,10 @@
         <v>29</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>30</v>
@@ -1425,7 +1538,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>45668</v>
       </c>
@@ -1775,7 +1888,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>45677</v>
       </c>
@@ -1785,8 +1898,12 @@
       <c r="C41" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
+      <c r="D41" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="F41" s="2" t="s">
         <v>58</v>
       </c>
@@ -2250,7 +2367,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>45687</v>
       </c>
@@ -2375,7 +2492,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="65" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>45689</v>
       </c>
@@ -2386,10 +2503,10 @@
         <v>29</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>75</v>
@@ -2454,7 +2571,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="68" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>45689</v>
       </c>
@@ -2464,8 +2581,12 @@
       <c r="C68" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D68" s="2"/>
-      <c r="E68" s="2"/>
+      <c r="D68" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="F68" s="2" t="s">
         <v>79</v>
       </c>
@@ -2504,7 +2625,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="70" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>45690</v>
       </c>
@@ -2515,16 +2636,16 @@
         <v>29</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>81</v>
+        <v>131</v>
       </c>
       <c r="G70" s="3">
-        <v>238.24</v>
+        <v>180.5</v>
       </c>
       <c r="H70" s="2" t="s">
         <v>22</v>
@@ -2558,11 +2679,1356 @@
         <v>11</v>
       </c>
     </row>
+    <row r="72" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="7">
+        <v>45690</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G72" s="3">
+        <v>7</v>
+      </c>
+      <c r="H72" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I72" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="7">
+        <v>45691</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G73" s="8">
+        <v>5.29</v>
+      </c>
+      <c r="H73" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I73" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="7">
+        <v>45691</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G74" s="3">
+        <v>4</v>
+      </c>
+      <c r="H74" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I74" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A75" s="1">
+        <v>45690</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D75" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G75" s="3">
+        <v>54</v>
+      </c>
+      <c r="H75" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I75" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A76" s="7">
+        <v>45695</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D76" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E76" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G76" s="3">
+        <v>28.42</v>
+      </c>
+      <c r="H76" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I76" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A77" s="7">
+        <v>45696</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D77" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E77" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G77" s="3">
+        <v>112.25</v>
+      </c>
+      <c r="H77" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I77" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A78" s="7">
+        <v>45696</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D78" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E78" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G78" s="3">
+        <v>31.15</v>
+      </c>
+      <c r="H78" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I78" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="7">
+        <v>45702</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G79" s="3">
+        <v>16</v>
+      </c>
+      <c r="H79" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I79" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="7">
+        <v>45703</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G80" s="3">
+        <v>13.75</v>
+      </c>
+      <c r="H80" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I80" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="7">
+        <v>45703</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G81" s="3">
+        <v>7</v>
+      </c>
+      <c r="H81" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I81" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="7">
+        <v>45703</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G82" s="3">
+        <v>7.9</v>
+      </c>
+      <c r="H82" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I82" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="7">
+        <v>45704</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G83" s="3">
+        <v>14.25</v>
+      </c>
+      <c r="H83" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I83" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="7">
+        <v>45704</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G84" s="3">
+        <v>14.9</v>
+      </c>
+      <c r="H84" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I84" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="7">
+        <v>45704</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G85" s="3">
+        <v>3.4</v>
+      </c>
+      <c r="H85" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I85" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="7">
+        <v>45704</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G86" s="3">
+        <v>0.99</v>
+      </c>
+      <c r="H86" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I86" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="7">
+        <v>45704</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G87" s="3">
+        <v>11.6</v>
+      </c>
+      <c r="H87" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I87" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A88" s="7">
+        <v>45704</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C88" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D88" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E88" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="F88" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="G88" s="3">
+        <v>83.92</v>
+      </c>
+      <c r="H88" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I88" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="7">
+        <v>45704</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G89" s="8">
+        <v>3.95</v>
+      </c>
+      <c r="H89" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I89" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="7">
+        <v>45705</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C90" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G90" s="3">
+        <v>7.25</v>
+      </c>
+      <c r="H90" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I90" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="7">
+        <v>45692</v>
+      </c>
+      <c r="B91" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C91" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="3">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="H91" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I91" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="7">
+        <v>45692</v>
+      </c>
+      <c r="B92" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C92" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G92" s="3">
+        <v>16.989999999999998</v>
+      </c>
+      <c r="H92" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I92" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="7">
+        <v>45693</v>
+      </c>
+      <c r="B93" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C93" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="G93" s="3">
+        <v>23.2</v>
+      </c>
+      <c r="H93" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I93" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="7">
+        <v>45693</v>
+      </c>
+      <c r="B94" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C94" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G94" s="3">
+        <v>2.6</v>
+      </c>
+      <c r="H94" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I94" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="7">
+        <v>45694</v>
+      </c>
+      <c r="B95" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C95" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G95" s="3">
+        <v>13</v>
+      </c>
+      <c r="H95" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I95" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A96" s="7">
+        <v>45695</v>
+      </c>
+      <c r="B96" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C96" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D96" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E96" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G96" s="3">
+        <v>23.21</v>
+      </c>
+      <c r="H96" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I96" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="7">
+        <v>45695</v>
+      </c>
+      <c r="B97" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C97" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G97" s="3">
+        <v>11.7</v>
+      </c>
+      <c r="H97" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I97" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A98" s="7">
+        <v>45695</v>
+      </c>
+      <c r="B98" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C98" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D98" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E98" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="G98" s="3">
+        <v>6.55</v>
+      </c>
+      <c r="H98" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I98" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A99" s="7">
+        <v>45695</v>
+      </c>
+      <c r="B99" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C99" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D99" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E99" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="G99" s="3">
+        <v>8</v>
+      </c>
+      <c r="H99" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I99" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A100" s="7">
+        <v>45696</v>
+      </c>
+      <c r="B100" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C100" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D100" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="E100" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G100" s="3">
+        <v>4</v>
+      </c>
+      <c r="H100" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I100" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A101" s="7">
+        <v>45696</v>
+      </c>
+      <c r="B101" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C101" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D101" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E101" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G101" s="3">
+        <v>2.8</v>
+      </c>
+      <c r="H101" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I101" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A102" s="7">
+        <v>45696</v>
+      </c>
+      <c r="B102" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C102" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D102" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E102" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G102" s="3">
+        <v>12</v>
+      </c>
+      <c r="H102" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I102" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A103" s="7">
+        <v>45696</v>
+      </c>
+      <c r="B103" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C103" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D103" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E103" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G103" s="3">
+        <v>1.75</v>
+      </c>
+      <c r="H103" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I103" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A104" s="7">
+        <v>45697</v>
+      </c>
+      <c r="B104" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C104" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D104" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E104" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G104" s="3">
+        <v>2.8</v>
+      </c>
+      <c r="H104" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I104" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A105" s="7">
+        <v>45697</v>
+      </c>
+      <c r="B105" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C105" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D105" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E105" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G105" s="3">
+        <v>3.1</v>
+      </c>
+      <c r="H105" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I105" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A106" s="7">
+        <v>45697</v>
+      </c>
+      <c r="B106" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C106" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D106" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E106" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G106" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="H106" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I106" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A107" s="7">
+        <v>45697</v>
+      </c>
+      <c r="B107" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C107" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D107" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E107" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G107" s="3">
+        <v>16</v>
+      </c>
+      <c r="H107" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I107" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A108" s="7">
+        <v>45698</v>
+      </c>
+      <c r="B108" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C108" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D108" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E108" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="G108" s="3">
+        <v>5.4</v>
+      </c>
+      <c r="H108" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I108" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A109" s="7">
+        <v>45698</v>
+      </c>
+      <c r="B109" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C109" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G109" s="3">
+        <v>29</v>
+      </c>
+      <c r="H109" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I109" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A110" s="7">
+        <v>45698</v>
+      </c>
+      <c r="B110" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C110" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G110" s="3">
+        <v>8.43</v>
+      </c>
+      <c r="H110" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I110" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A111" s="7">
+        <v>45698</v>
+      </c>
+      <c r="B111" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C111" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G111" s="3">
+        <v>3.95</v>
+      </c>
+      <c r="H111" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I111" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A112" s="7">
+        <v>45698</v>
+      </c>
+      <c r="B112" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C112" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G112" s="3">
+        <v>5.9</v>
+      </c>
+      <c r="H112" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I112" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A113" s="7">
+        <v>45698</v>
+      </c>
+      <c r="B113" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C113" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G113" s="3">
+        <v>2</v>
+      </c>
+      <c r="H113" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I113" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A114" s="7">
+        <v>45699</v>
+      </c>
+      <c r="B114" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C114" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G114" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="H114" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I114" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A115" s="7">
+        <v>45699</v>
+      </c>
+      <c r="B115" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C115" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D115" s="8"/>
+      <c r="E115" s="8"/>
+      <c r="F115" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G115" s="3">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="H115" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I115" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A116" s="7">
+        <v>45699</v>
+      </c>
+      <c r="B116" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C116" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D116" s="8"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G116" s="3">
+        <v>7.7</v>
+      </c>
+      <c r="H116" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I116" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A117" s="7">
+        <v>45700</v>
+      </c>
+      <c r="B117" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C117" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D117" s="8"/>
+      <c r="E117" s="8"/>
+      <c r="F117" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G117" s="3">
+        <v>5</v>
+      </c>
+      <c r="H117" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I117" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A118" s="7">
+        <v>45700</v>
+      </c>
+      <c r="B118" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C118" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D118" s="8"/>
+      <c r="E118" s="8"/>
+      <c r="F118" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G118" s="3">
+        <v>2.6</v>
+      </c>
+      <c r="H118" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I118" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A119" s="7">
+        <v>45700</v>
+      </c>
+      <c r="B119" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C119" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D119" s="8"/>
+      <c r="E119" s="8"/>
+      <c r="F119" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G119" s="3">
+        <v>12.4</v>
+      </c>
+      <c r="H119" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I119" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A120" s="7">
+        <v>45700</v>
+      </c>
+      <c r="B120" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C120" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D120" s="8"/>
+      <c r="E120" s="8"/>
+      <c r="F120" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G120" s="3">
+        <v>10.09</v>
+      </c>
+      <c r="H120" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I120" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A121" s="7">
+        <v>45701</v>
+      </c>
+      <c r="B121" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C121" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D121" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E121" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G121" s="3">
+        <v>51</v>
+      </c>
+      <c r="H121" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I121" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A122" s="7">
+        <v>45701</v>
+      </c>
+      <c r="B122" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C122" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D122" s="8"/>
+      <c r="E122" s="8"/>
+      <c r="F122" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G122" s="3">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="H122" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I122" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="C1:C71" xr:uid="{73D03841-840F-48EF-840B-36FDA2E59E7D}">
+  <autoFilter ref="C1:C122" xr:uid="{73D03841-840F-48EF-840B-36FDA2E59E7D}">
     <filterColumn colId="0">
       <filters>
-        <filter val="Telefone"/>
+        <filter val="Viagem"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -2656,7 +4122,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
@@ -2670,7 +4136,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -2679,12 +4145,12 @@
         <v>23</v>
       </c>
       <c r="F4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B5" t="s">
         <v>39</v>
@@ -2698,13 +4164,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -2720,7 +4186,7 @@
         <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
@@ -2736,12 +4202,12 @@
         <v>72</v>
       </c>
       <c r="C10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/assets/cost_sheet.xlsx
+++ b/assets/cost_sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/56c9449150e6bc49/Documentos/FEARP/Intercambio/spendure_app/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="449" documentId="8_{697955BF-7644-43E6-B102-A5718628249A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C061E4B2-964D-4E02-BE96-AB0632B91450}"/>
+  <xr:revisionPtr revIDLastSave="607" documentId="8_{697955BF-7644-43E6-B102-A5718628249A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E2B7F01E-756C-43BE-9AE6-C7E86DA916D8}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{3A902579-E7D0-4425-859E-D7B710BECD9D}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="lists" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">table!$C$1:$C$122</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">table!$A$1:$I$137</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="144">
   <si>
     <t>Data</t>
   </si>
@@ -267,178 +267,211 @@
     <t>Fevereiro</t>
   </si>
   <si>
+    <t>Dinheiro</t>
+  </si>
+  <si>
+    <t>Cachecol AleHop</t>
+  </si>
+  <si>
+    <t>Buffala Figueires</t>
+  </si>
+  <si>
+    <t>Café Figueires</t>
+  </si>
+  <si>
+    <t>Março</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abril </t>
+  </si>
+  <si>
+    <t>Transferência</t>
+  </si>
+  <si>
+    <t>Maio</t>
+  </si>
+  <si>
+    <t>Junho</t>
+  </si>
+  <si>
+    <t>Passagem</t>
+  </si>
+  <si>
+    <t>Hospedagem</t>
+  </si>
+  <si>
+    <t>Categoria-Viagem</t>
+  </si>
+  <si>
+    <t>Destino-Viagem</t>
+  </si>
+  <si>
+    <t>Passeio</t>
+  </si>
+  <si>
+    <t>Transporte na cidade</t>
+  </si>
+  <si>
+    <t>Paris</t>
+  </si>
+  <si>
+    <t>Vida Mona Sl</t>
+  </si>
+  <si>
+    <t>Remédios garganta</t>
+  </si>
+  <si>
+    <t>Figueires</t>
+  </si>
+  <si>
+    <t>Zaragoza</t>
+  </si>
+  <si>
+    <t>Roma</t>
+  </si>
+  <si>
+    <t>Dolomitas</t>
+  </si>
+  <si>
+    <t>Aribnb dolomitas</t>
+  </si>
+  <si>
+    <t>Ida</t>
+  </si>
+  <si>
+    <t>Baobab</t>
+  </si>
+  <si>
+    <t>Modu Coreano</t>
+  </si>
+  <si>
+    <t>Compá Panini</t>
+  </si>
+  <si>
+    <t>Morango Chocolate</t>
+  </si>
+  <si>
+    <t>100 montaditos + Surena</t>
+  </si>
+  <si>
+    <t>KFC</t>
+  </si>
+  <si>
+    <t>Vegetalia Paella</t>
+  </si>
+  <si>
+    <t>Café 365</t>
+  </si>
+  <si>
+    <t>100 montaditos</t>
+  </si>
+  <si>
+    <t>Hostel</t>
+  </si>
+  <si>
+    <t>Molho tomate + coca</t>
+  </si>
+  <si>
+    <t>Aerobus</t>
+  </si>
+  <si>
+    <t>Sakura</t>
+  </si>
+  <si>
+    <t>Totoro</t>
+  </si>
+  <si>
+    <t>Vera Café</t>
+  </si>
+  <si>
+    <t>Volta</t>
+  </si>
+  <si>
+    <t>Pans Company</t>
+  </si>
+  <si>
+    <t>Taxi</t>
+  </si>
+  <si>
+    <t>Kamado</t>
+  </si>
+  <si>
+    <t>Forte</t>
+  </si>
+  <si>
+    <t>El Champi</t>
+  </si>
+  <si>
+    <t>Taberna Tapas</t>
+  </si>
+  <si>
+    <t>Sobremesa</t>
+  </si>
+  <si>
+    <t>Ham Burguer</t>
+  </si>
+  <si>
+    <t>Panini INA</t>
+  </si>
+  <si>
+    <t>Paki chiclete agua</t>
+  </si>
+  <si>
+    <t>Ying Bin Jiu Lou</t>
+  </si>
+  <si>
+    <t>El Cubo</t>
+  </si>
+  <si>
+    <t>Bershka Blusinha</t>
+  </si>
+  <si>
+    <t>Passagem Milão</t>
+  </si>
+  <si>
+    <t>Hotel</t>
+  </si>
+  <si>
+    <t>Trem</t>
+  </si>
+  <si>
+    <t>Madrid</t>
+  </si>
+  <si>
+    <t>McGlovo</t>
+  </si>
+  <si>
+    <t>Jaqueta UNIQLO</t>
+  </si>
+  <si>
+    <t>Hamburguer</t>
+  </si>
+  <si>
+    <t>Cinema</t>
+  </si>
+  <si>
+    <t>Daytrip</t>
+  </si>
+  <si>
+    <t>Pirineus</t>
+  </si>
+  <si>
+    <t>Churros Glovo</t>
+  </si>
+  <si>
+    <t>Paki</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Café </t>
+  </si>
+  <si>
+    <t>Daytrips</t>
+  </si>
+  <si>
     <t>Daytrip Figueires</t>
   </si>
   <si>
-    <t>Dinheiro</t>
-  </si>
-  <si>
-    <t>Cachecol AleHop</t>
-  </si>
-  <si>
-    <t>Buffala Figueires</t>
-  </si>
-  <si>
-    <t>Lembrancinha Museu</t>
-  </si>
-  <si>
-    <t>Café Figueires</t>
-  </si>
-  <si>
-    <t>Março</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abril </t>
-  </si>
-  <si>
-    <t>Transferência</t>
-  </si>
-  <si>
-    <t>Maio</t>
-  </si>
-  <si>
-    <t>Junho</t>
-  </si>
-  <si>
-    <t>Passagem</t>
-  </si>
-  <si>
-    <t>Hospedagem</t>
-  </si>
-  <si>
-    <t>Categoria-Viagem</t>
-  </si>
-  <si>
-    <t>Destino-Viagem</t>
-  </si>
-  <si>
-    <t>Passeio</t>
-  </si>
-  <si>
-    <t>Transporte na cidade</t>
-  </si>
-  <si>
-    <t>Paris</t>
-  </si>
-  <si>
-    <t>Vida Mona Sl</t>
-  </si>
-  <si>
-    <t>Remédios garganta</t>
-  </si>
-  <si>
-    <t>Figueires</t>
-  </si>
-  <si>
-    <t>Zaragoza</t>
-  </si>
-  <si>
-    <t>Roma</t>
-  </si>
-  <si>
-    <t>Dolomitas</t>
-  </si>
-  <si>
-    <t>Aribnb dolomitas</t>
-  </si>
-  <si>
-    <t>Ida</t>
-  </si>
-  <si>
-    <t>Baobab</t>
-  </si>
-  <si>
-    <t>Modu Coreano</t>
-  </si>
-  <si>
-    <t>Compá Panini</t>
-  </si>
-  <si>
-    <t>Morango Chocolate</t>
-  </si>
-  <si>
-    <t>100 montaditos + Surena</t>
-  </si>
-  <si>
-    <t>KFC</t>
-  </si>
-  <si>
-    <t>Vegetalia Paella</t>
-  </si>
-  <si>
-    <t>Café 365</t>
-  </si>
-  <si>
-    <t>100 montaditos</t>
-  </si>
-  <si>
-    <t>Hostel</t>
-  </si>
-  <si>
-    <t>Molho tomate + coca</t>
-  </si>
-  <si>
-    <t>Aerobus</t>
-  </si>
-  <si>
-    <t>Sakura</t>
-  </si>
-  <si>
-    <t>Totoro</t>
-  </si>
-  <si>
-    <t>Vera Café</t>
-  </si>
-  <si>
-    <t>Volta</t>
-  </si>
-  <si>
-    <t>Pans Company</t>
-  </si>
-  <si>
-    <t>Taxi</t>
-  </si>
-  <si>
-    <t>Kamado</t>
-  </si>
-  <si>
-    <t>Forte</t>
-  </si>
-  <si>
-    <t>El Champi</t>
-  </si>
-  <si>
-    <t>Taberna Tapas</t>
-  </si>
-  <si>
-    <t>Sobremesa</t>
-  </si>
-  <si>
-    <t>Ham Burguer</t>
-  </si>
-  <si>
-    <t>Panini INA</t>
-  </si>
-  <si>
-    <t>Paki chiclete agua</t>
-  </si>
-  <si>
-    <t>Ying Bin Jiu Lou</t>
-  </si>
-  <si>
-    <t>El Cubo</t>
-  </si>
-  <si>
-    <t>Bershka Blusinha</t>
-  </si>
-  <si>
-    <t>Passagem Milão</t>
-  </si>
-  <si>
-    <t>Hotel</t>
-  </si>
-  <si>
-    <t>Trem</t>
+    <t>Lembrancinha Museu Figueires</t>
   </si>
 </sst>
 </file>
@@ -514,7 +547,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -524,6 +557,8 @@
     <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -864,10 +899,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73D03841-840F-48EF-840B-36FDA2E59E7D}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:I122"/>
+  <dimension ref="A1:I176"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J75" sqref="J75"/>
+    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
+      <selection activeCell="L107" sqref="L107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -877,7 +912,7 @@
     <col min="4" max="4" width="15.54296875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.6328125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24.90625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6328125" style="10" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.1796875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.36328125" bestFit="1" customWidth="1"/>
   </cols>
@@ -893,10 +928,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>3</v>
@@ -911,7 +946,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>45657</v>
       </c>
@@ -936,7 +971,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>45659</v>
       </c>
@@ -961,7 +996,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>45659</v>
       </c>
@@ -986,7 +1021,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>45659</v>
       </c>
@@ -1011,7 +1046,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>45659</v>
       </c>
@@ -1036,7 +1071,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>45659</v>
       </c>
@@ -1111,7 +1146,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>45660</v>
       </c>
@@ -1136,7 +1171,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>45660</v>
       </c>
@@ -1161,7 +1196,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>45661</v>
       </c>
@@ -1186,7 +1221,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>45661</v>
       </c>
@@ -1211,7 +1246,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>45662</v>
       </c>
@@ -1222,10 +1257,10 @@
         <v>29</v>
       </c>
       <c r="D14" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>30</v>
@@ -1240,7 +1275,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>45662</v>
       </c>
@@ -1265,7 +1300,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>45663</v>
       </c>
@@ -1290,7 +1325,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>45663</v>
       </c>
@@ -1315,7 +1350,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>45663</v>
       </c>
@@ -1340,7 +1375,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>45664</v>
       </c>
@@ -1365,7 +1400,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>45664</v>
       </c>
@@ -1390,7 +1425,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>45664</v>
       </c>
@@ -1415,7 +1450,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>45666</v>
       </c>
@@ -1438,7 +1473,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>45666</v>
       </c>
@@ -1463,7 +1498,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>45667</v>
       </c>
@@ -1488,7 +1523,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>45667</v>
       </c>
@@ -1513,7 +1548,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>45668</v>
       </c>
@@ -1538,7 +1573,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>45668</v>
       </c>
@@ -1563,7 +1598,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>45668</v>
       </c>
@@ -1588,7 +1623,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>45668</v>
       </c>
@@ -1663,7 +1698,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>45669</v>
       </c>
@@ -1688,7 +1723,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>45670</v>
       </c>
@@ -1713,7 +1748,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>45670</v>
       </c>
@@ -1738,7 +1773,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>45670</v>
       </c>
@@ -1763,7 +1798,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>45671</v>
       </c>
@@ -1788,7 +1823,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>45672</v>
       </c>
@@ -1813,7 +1848,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>45674</v>
       </c>
@@ -1838,7 +1873,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>45676</v>
       </c>
@@ -1863,7 +1898,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>45676</v>
       </c>
@@ -1888,7 +1923,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>45677</v>
       </c>
@@ -1899,7 +1934,7 @@
         <v>29</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>58</v>
@@ -1917,7 +1952,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>45677</v>
       </c>
@@ -1942,7 +1977,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="43" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>45677</v>
       </c>
@@ -1967,7 +2002,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>45678</v>
       </c>
@@ -1992,7 +2027,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>45678</v>
       </c>
@@ -2017,7 +2052,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>45678</v>
       </c>
@@ -2042,7 +2077,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>45679</v>
       </c>
@@ -2092,7 +2127,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>45681</v>
       </c>
@@ -2117,7 +2152,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>45681</v>
       </c>
@@ -2142,7 +2177,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>45681</v>
       </c>
@@ -2167,7 +2202,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>45681</v>
       </c>
@@ -2217,7 +2252,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>45683</v>
       </c>
@@ -2292,7 +2327,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>45685</v>
       </c>
@@ -2342,7 +2377,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>45687</v>
       </c>
@@ -2367,7 +2402,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="60" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>45687</v>
       </c>
@@ -2442,7 +2477,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="63" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>45688</v>
       </c>
@@ -2467,7 +2502,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="64" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>45688</v>
       </c>
@@ -2492,7 +2527,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>45689</v>
       </c>
@@ -2503,13 +2538,13 @@
         <v>29</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>95</v>
+        <v>141</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>75</v>
+        <v>142</v>
       </c>
       <c r="G65" s="3">
         <v>27</v>
@@ -2518,7 +2553,7 @@
         <v>22</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="66" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
@@ -2534,7 +2569,7 @@
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
       <c r="F66" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G66" s="3">
         <v>5</v>
@@ -2559,7 +2594,7 @@
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
       <c r="F67" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G67" s="3">
         <v>8.8000000000000007</v>
@@ -2571,7 +2606,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>45689</v>
       </c>
@@ -2579,16 +2614,12 @@
         <v>74</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>95</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
       <c r="F68" s="2" t="s">
-        <v>79</v>
+        <v>143</v>
       </c>
       <c r="G68" s="3">
         <v>4.9000000000000004</v>
@@ -2613,7 +2644,7 @@
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
       <c r="F69" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G69" s="3">
         <v>2</v>
@@ -2625,7 +2656,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>45690</v>
       </c>
@@ -2636,13 +2667,13 @@
         <v>29</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G70" s="3">
         <v>180.5</v>
@@ -2654,7 +2685,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="71" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>45690</v>
       </c>
@@ -2679,7 +2710,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="72" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" s="7">
         <v>45690</v>
       </c>
@@ -2692,7 +2723,7 @@
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G72" s="3">
         <v>7</v>
@@ -2705,31 +2736,35 @@
       </c>
     </row>
     <row r="73" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="7">
-        <v>45691</v>
-      </c>
-      <c r="B73" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C73" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D73" s="8"/>
-      <c r="E73" s="8"/>
+      <c r="A73" s="1">
+        <v>45690</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D73" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>94</v>
+      </c>
       <c r="F73" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="G73" s="8">
-        <v>5.29</v>
+        <v>130</v>
+      </c>
+      <c r="G73" s="3">
+        <v>54</v>
       </c>
       <c r="H73" s="8" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="I73" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="74" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" s="7">
         <v>45691</v>
       </c>
@@ -2737,47 +2772,43 @@
         <v>74</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G74" s="9">
+        <v>5.29</v>
+      </c>
+      <c r="H74" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I74" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A75" s="7">
+        <v>45691</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="G74" s="3">
+      <c r="G75" s="3">
         <v>4</v>
       </c>
-      <c r="H74" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="I74" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A75" s="1">
-        <v>45690</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D75" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="G75" s="3">
-        <v>54</v>
-      </c>
       <c r="H75" s="8" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="I75" s="8" t="s">
         <v>11</v>
@@ -2785,161 +2816,151 @@
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" s="7">
-        <v>45695</v>
+        <v>45692</v>
       </c>
       <c r="B76" s="8" t="s">
         <v>74</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D76" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="E76" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>100</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
       <c r="G76" s="3">
-        <v>28.42</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="H76" s="8" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="I76" s="8" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" s="7">
-        <v>45696</v>
+        <v>45692</v>
       </c>
       <c r="B77" s="8" t="s">
         <v>74</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D77" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="E77" s="8" t="s">
-        <v>98</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
       <c r="F77" s="2" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="G77" s="3">
-        <v>112.25</v>
+        <v>16.989999999999998</v>
       </c>
       <c r="H77" s="8" t="s">
         <v>22</v>
       </c>
       <c r="I77" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A78" s="7">
-        <v>45696</v>
+        <v>45693</v>
       </c>
       <c r="B78" s="8" t="s">
         <v>74</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D78" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E78" s="8" t="s">
-        <v>96</v>
-      </c>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
       <c r="F78" s="2" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="G78" s="3">
-        <v>31.15</v>
+        <v>23.2</v>
       </c>
       <c r="H78" s="8" t="s">
         <v>22</v>
       </c>
       <c r="I78" s="8" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
     </row>
     <row r="79" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A79" s="7">
-        <v>45702</v>
+        <v>45693</v>
       </c>
       <c r="B79" s="8" t="s">
         <v>74</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
-      <c r="F79" s="8" t="s">
-        <v>102</v>
+      <c r="F79" s="2" t="s">
+        <v>113</v>
       </c>
       <c r="G79" s="3">
-        <v>16</v>
+        <v>2.6</v>
       </c>
       <c r="H79" s="8" t="s">
         <v>22</v>
       </c>
       <c r="I79" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80" s="7">
-        <v>45703</v>
+        <v>45694</v>
       </c>
       <c r="B80" s="8" t="s">
         <v>74</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="2" t="s">
-        <v>103</v>
+        <v>59</v>
       </c>
       <c r="G80" s="3">
-        <v>13.75</v>
+        <v>13</v>
       </c>
       <c r="H80" s="8" t="s">
         <v>10</v>
       </c>
       <c r="I80" s="8" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
     </row>
     <row r="81" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A81" s="7">
-        <v>45703</v>
+        <v>45695</v>
       </c>
       <c r="B81" s="8" t="s">
         <v>74</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D81" s="8"/>
-      <c r="E81" s="8"/>
+        <v>29</v>
+      </c>
+      <c r="D81" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E81" s="8" t="s">
+        <v>95</v>
+      </c>
       <c r="F81" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="G81" s="3">
-        <v>7</v>
+        <v>28.42</v>
       </c>
       <c r="H81" s="8" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="I81" s="8" t="s">
         <v>11</v>
@@ -2947,124 +2968,140 @@
     </row>
     <row r="82" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A82" s="7">
-        <v>45703</v>
+        <v>45695</v>
       </c>
       <c r="B82" s="8" t="s">
         <v>74</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D82" s="8"/>
-      <c r="E82" s="8"/>
+        <v>29</v>
+      </c>
+      <c r="D82" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E82" s="8" t="s">
+        <v>95</v>
+      </c>
       <c r="F82" s="2" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="G82" s="3">
-        <v>7.9</v>
+        <v>23.21</v>
       </c>
       <c r="H82" s="8" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="I82" s="8" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
     </row>
     <row r="83" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A83" s="7">
-        <v>45704</v>
+        <v>45695</v>
       </c>
       <c r="B83" s="8" t="s">
         <v>74</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D83" s="8"/>
-      <c r="E83" s="8"/>
+        <v>29</v>
+      </c>
+      <c r="D83" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E83" s="8" t="s">
+        <v>94</v>
+      </c>
       <c r="F83" s="2" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="G83" s="3">
-        <v>14.25</v>
+        <v>6.55</v>
       </c>
       <c r="H83" s="8" t="s">
         <v>22</v>
       </c>
       <c r="I83" s="8" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
     </row>
     <row r="84" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A84" s="7">
-        <v>45704</v>
+        <v>45695</v>
       </c>
       <c r="B84" s="8" t="s">
         <v>74</v>
       </c>
       <c r="C84" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D84" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D84" s="8"/>
-      <c r="E84" s="8"/>
+      <c r="E84" s="8" t="s">
+        <v>94</v>
+      </c>
       <c r="F84" s="2" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="G84" s="3">
-        <v>14.9</v>
+        <v>8</v>
       </c>
       <c r="H84" s="8" t="s">
         <v>22</v>
       </c>
       <c r="I84" s="8" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
     </row>
     <row r="85" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A85" s="7">
-        <v>45704</v>
+        <v>45695</v>
       </c>
       <c r="B85" s="8" t="s">
         <v>74</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="2" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="G85" s="3">
-        <v>3.4</v>
+        <v>11.7</v>
       </c>
       <c r="H85" s="8" t="s">
         <v>22</v>
       </c>
       <c r="I85" s="8" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
     </row>
     <row r="86" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A86" s="7">
-        <v>45704</v>
+        <v>45696</v>
       </c>
       <c r="B86" s="8" t="s">
         <v>74</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D86" s="8"/>
-      <c r="E86" s="8"/>
+        <v>29</v>
+      </c>
+      <c r="D86" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E86" s="8" t="s">
+        <v>96</v>
+      </c>
       <c r="F86" s="2" t="s">
-        <v>28</v>
+        <v>97</v>
       </c>
       <c r="G86" s="3">
-        <v>0.99</v>
+        <v>112.25</v>
       </c>
       <c r="H86" s="8" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="I86" s="8" t="s">
         <v>11</v>
@@ -3072,21 +3109,25 @@
     </row>
     <row r="87" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A87" s="7">
-        <v>45704</v>
+        <v>45696</v>
       </c>
       <c r="B87" s="8" t="s">
         <v>74</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D87" s="8"/>
-      <c r="E87" s="8"/>
+        <v>29</v>
+      </c>
+      <c r="D87" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E87" s="8" t="s">
+        <v>94</v>
+      </c>
       <c r="F87" s="2" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="G87" s="3">
-        <v>11.6</v>
+        <v>31.15</v>
       </c>
       <c r="H87" s="8" t="s">
         <v>22</v>
@@ -3095,9 +3136,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A88" s="7">
-        <v>45704</v>
+        <v>45696</v>
       </c>
       <c r="B88" s="8" t="s">
         <v>74</v>
@@ -3106,92 +3147,106 @@
         <v>29</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E88" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="F88" s="8" t="s">
-        <v>110</v>
+        <v>94</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="G88" s="3">
-        <v>83.92</v>
+        <v>4</v>
       </c>
       <c r="H88" s="8" t="s">
         <v>22</v>
       </c>
       <c r="I88" s="8" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
     </row>
     <row r="89" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A89" s="7">
-        <v>45704</v>
+        <v>45696</v>
       </c>
       <c r="B89" s="8" t="s">
         <v>74</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D89" s="8"/>
-      <c r="E89" s="8"/>
+        <v>29</v>
+      </c>
+      <c r="D89" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E89" s="8" t="s">
+        <v>94</v>
+      </c>
       <c r="F89" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="G89" s="8">
-        <v>3.95</v>
+        <v>119</v>
+      </c>
+      <c r="G89" s="3">
+        <v>2.8</v>
       </c>
       <c r="H89" s="8" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="I89" s="8" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
     </row>
     <row r="90" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A90" s="7">
-        <v>45705</v>
+        <v>45696</v>
       </c>
       <c r="B90" s="8" t="s">
         <v>74</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D90" s="8"/>
-      <c r="E90" s="8"/>
+        <v>29</v>
+      </c>
+      <c r="D90" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E90" s="8" t="s">
+        <v>94</v>
+      </c>
       <c r="F90" s="2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="G90" s="3">
-        <v>7.25</v>
+        <v>12</v>
       </c>
       <c r="H90" s="8" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="I90" s="8" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
     </row>
     <row r="91" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A91" s="7">
-        <v>45692</v>
+        <v>45696</v>
       </c>
       <c r="B91" s="8" t="s">
         <v>74</v>
       </c>
       <c r="C91" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D91" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D91" s="8"/>
-      <c r="E91" s="8"/>
-      <c r="F91" s="8"/>
+      <c r="E91" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="G91" s="3">
-        <v>2.2999999999999998</v>
+        <v>1.75</v>
       </c>
       <c r="H91" s="8" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="I91" s="8" t="s">
         <v>55</v>
@@ -3199,24 +3254,28 @@
     </row>
     <row r="92" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A92" s="7">
-        <v>45692</v>
+        <v>45697</v>
       </c>
       <c r="B92" s="8" t="s">
         <v>74</v>
       </c>
       <c r="C92" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D92" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D92" s="8"/>
-      <c r="E92" s="8"/>
+      <c r="E92" s="8" t="s">
+        <v>94</v>
+      </c>
       <c r="F92" s="2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="G92" s="3">
-        <v>16.989999999999998</v>
+        <v>2.8</v>
       </c>
       <c r="H92" s="8" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="I92" s="8" t="s">
         <v>55</v>
@@ -3224,21 +3283,25 @@
     </row>
     <row r="93" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A93" s="7">
-        <v>45693</v>
+        <v>45697</v>
       </c>
       <c r="B93" s="8" t="s">
         <v>74</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D93" s="8"/>
-      <c r="E93" s="8"/>
+        <v>29</v>
+      </c>
+      <c r="D93" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E93" s="8" t="s">
+        <v>94</v>
+      </c>
       <c r="F93" s="2" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="G93" s="3">
-        <v>23.2</v>
+        <v>3.1</v>
       </c>
       <c r="H93" s="8" t="s">
         <v>22</v>
@@ -3249,21 +3312,25 @@
     </row>
     <row r="94" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A94" s="7">
-        <v>45693</v>
+        <v>45697</v>
       </c>
       <c r="B94" s="8" t="s">
         <v>74</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D94" s="8"/>
-      <c r="E94" s="8"/>
+        <v>29</v>
+      </c>
+      <c r="D94" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E94" s="8" t="s">
+        <v>94</v>
+      </c>
       <c r="F94" s="2" t="s">
-        <v>115</v>
+        <v>28</v>
       </c>
       <c r="G94" s="3">
-        <v>2.6</v>
+        <v>1.2</v>
       </c>
       <c r="H94" s="8" t="s">
         <v>22</v>
@@ -3272,23 +3339,27 @@
         <v>55</v>
       </c>
     </row>
-    <row r="95" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A95" s="7">
-        <v>45694</v>
+        <v>45697</v>
       </c>
       <c r="B95" s="8" t="s">
         <v>74</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D95" s="8"/>
-      <c r="E95" s="8"/>
+        <v>29</v>
+      </c>
+      <c r="D95" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E95" s="8" t="s">
+        <v>94</v>
+      </c>
       <c r="F95" s="2" t="s">
-        <v>59</v>
+        <v>122</v>
       </c>
       <c r="G95" s="3">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H95" s="8" t="s">
         <v>10</v>
@@ -3297,9 +3368,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A96" s="7">
-        <v>45695</v>
+        <v>45698</v>
       </c>
       <c r="B96" s="8" t="s">
         <v>74</v>
@@ -3308,16 +3379,16 @@
         <v>29</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E96" s="8" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>116</v>
       </c>
       <c r="G96" s="3">
-        <v>23.21</v>
+        <v>5.4</v>
       </c>
       <c r="H96" s="8" t="s">
         <v>22</v>
@@ -3326,26 +3397,26 @@
         <v>55</v>
       </c>
     </row>
-    <row r="97" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A97" s="7">
-        <v>45695</v>
+        <v>45698</v>
       </c>
       <c r="B97" s="8" t="s">
         <v>74</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="2" t="s">
-        <v>117</v>
+        <v>59</v>
       </c>
       <c r="G97" s="3">
-        <v>11.7</v>
+        <v>29</v>
       </c>
       <c r="H97" s="8" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="I97" s="8" t="s">
         <v>55</v>
@@ -3353,28 +3424,24 @@
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A98" s="7">
-        <v>45695</v>
+        <v>45698</v>
       </c>
       <c r="B98" s="8" t="s">
         <v>74</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D98" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="E98" s="8" t="s">
-        <v>96</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
       <c r="F98" s="2" t="s">
-        <v>118</v>
+        <v>60</v>
       </c>
       <c r="G98" s="3">
-        <v>6.55</v>
+        <v>8.43</v>
       </c>
       <c r="H98" s="8" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="I98" s="8" t="s">
         <v>55</v>
@@ -3382,28 +3449,24 @@
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A99" s="7">
-        <v>45695</v>
+        <v>45698</v>
       </c>
       <c r="B99" s="8" t="s">
         <v>74</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D99" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E99" s="8" t="s">
-        <v>96</v>
-      </c>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
       <c r="F99" s="2" t="s">
-        <v>119</v>
+        <v>45</v>
       </c>
       <c r="G99" s="3">
-        <v>8</v>
+        <v>3.95</v>
       </c>
       <c r="H99" s="8" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="I99" s="8" t="s">
         <v>55</v>
@@ -3411,28 +3474,24 @@
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A100" s="7">
-        <v>45696</v>
+        <v>45698</v>
       </c>
       <c r="B100" s="8" t="s">
         <v>74</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D100" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="E100" s="8" t="s">
-        <v>96</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
       <c r="F100" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="G100" s="3">
-        <v>4</v>
+        <v>5.9</v>
       </c>
       <c r="H100" s="8" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="I100" s="8" t="s">
         <v>55</v>
@@ -3440,28 +3499,24 @@
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A101" s="7">
-        <v>45696</v>
+        <v>45698</v>
       </c>
       <c r="B101" s="8" t="s">
         <v>74</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D101" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E101" s="8" t="s">
-        <v>96</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
       <c r="F101" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="G101" s="3">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="H101" s="8" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="I101" s="8" t="s">
         <v>55</v>
@@ -3469,54 +3524,46 @@
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A102" s="7">
-        <v>45696</v>
+        <v>45699</v>
       </c>
       <c r="B102" s="8" t="s">
         <v>74</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D102" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E102" s="8" t="s">
-        <v>96</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
       <c r="F102" s="2" t="s">
-        <v>122</v>
+        <v>32</v>
       </c>
       <c r="G102" s="3">
-        <v>12</v>
+        <v>4.7</v>
       </c>
       <c r="H102" s="8" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="I102" s="8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A103" s="7">
-        <v>45696</v>
+        <v>45699</v>
       </c>
       <c r="B103" s="8" t="s">
         <v>74</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D103" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E103" s="8" t="s">
-        <v>96</v>
-      </c>
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
       <c r="F103" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G103" s="3">
-        <v>1.75</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="H103" s="8" t="s">
         <v>22</v>
@@ -3525,27 +3572,23 @@
         <v>55</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A104" s="7">
-        <v>45697</v>
+        <v>45699</v>
       </c>
       <c r="B104" s="8" t="s">
         <v>74</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D104" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E104" s="8" t="s">
-        <v>96</v>
-      </c>
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
       <c r="F104" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="G104" s="3">
-        <v>2.8</v>
+        <v>7.7</v>
       </c>
       <c r="H104" s="8" t="s">
         <v>22</v>
@@ -3554,27 +3597,23 @@
         <v>55</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A105" s="7">
-        <v>45697</v>
+        <v>45700</v>
       </c>
       <c r="B105" s="8" t="s">
         <v>74</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D105" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E105" s="8" t="s">
-        <v>96</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
       <c r="F105" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="G105" s="3">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="H105" s="8" t="s">
         <v>22</v>
@@ -3585,28 +3624,24 @@
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A106" s="7">
-        <v>45697</v>
+        <v>45700</v>
       </c>
       <c r="B106" s="8" t="s">
         <v>74</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D106" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E106" s="8" t="s">
-        <v>96</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
       <c r="F106" s="2" t="s">
-        <v>28</v>
+        <v>115</v>
       </c>
       <c r="G106" s="3">
-        <v>1.2</v>
+        <v>2.6</v>
       </c>
       <c r="H106" s="8" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="I106" s="8" t="s">
         <v>55</v>
@@ -3614,25 +3649,21 @@
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A107" s="7">
-        <v>45697</v>
+        <v>45700</v>
       </c>
       <c r="B107" s="8" t="s">
         <v>74</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D107" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E107" s="8" t="s">
-        <v>96</v>
-      </c>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
       <c r="F107" s="2" t="s">
-        <v>124</v>
+        <v>41</v>
       </c>
       <c r="G107" s="3">
-        <v>16</v>
+        <v>12.4</v>
       </c>
       <c r="H107" s="8" t="s">
         <v>10</v>
@@ -3641,27 +3672,23 @@
         <v>55</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A108" s="7">
-        <v>45698</v>
+        <v>45700</v>
       </c>
       <c r="B108" s="8" t="s">
         <v>74</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D108" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="E108" s="8" t="s">
-        <v>96</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
       <c r="F108" s="2" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="G108" s="3">
-        <v>5.4</v>
+        <v>10.09</v>
       </c>
       <c r="H108" s="8" t="s">
         <v>22</v>
@@ -3672,24 +3699,28 @@
     </row>
     <row r="109" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A109" s="7">
-        <v>45698</v>
+        <v>45701</v>
       </c>
       <c r="B109" s="8" t="s">
         <v>74</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D109" s="8"/>
-      <c r="E109" s="8"/>
+        <v>29</v>
+      </c>
+      <c r="D109" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E109" s="8" t="s">
+        <v>96</v>
+      </c>
       <c r="F109" s="2" t="s">
-        <v>59</v>
+        <v>128</v>
       </c>
       <c r="G109" s="3">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="H109" s="8" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="I109" s="8" t="s">
         <v>55</v>
@@ -3697,24 +3728,24 @@
     </row>
     <row r="110" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A110" s="7">
-        <v>45698</v>
+        <v>45701</v>
       </c>
       <c r="B110" s="8" t="s">
         <v>74</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="2" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="G110" s="3">
-        <v>8.43</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="H110" s="8" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="I110" s="8" t="s">
         <v>55</v>
@@ -3722,7 +3753,7 @@
     </row>
     <row r="111" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A111" s="7">
-        <v>45698</v>
+        <v>45702</v>
       </c>
       <c r="B111" s="8" t="s">
         <v>74</v>
@@ -3732,22 +3763,22 @@
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
-      <c r="F111" s="2" t="s">
-        <v>45</v>
+      <c r="F111" s="8" t="s">
+        <v>100</v>
       </c>
       <c r="G111" s="3">
-        <v>3.95</v>
+        <v>16</v>
       </c>
       <c r="H111" s="8" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="I111" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A112" s="7">
-        <v>45698</v>
+        <v>45703</v>
       </c>
       <c r="B112" s="8" t="s">
         <v>74</v>
@@ -3758,96 +3789,96 @@
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="2" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="G112" s="3">
-        <v>5.9</v>
+        <v>13.75</v>
       </c>
       <c r="H112" s="8" t="s">
         <v>10</v>
       </c>
       <c r="I112" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A113" s="7">
-        <v>45698</v>
+        <v>45703</v>
       </c>
       <c r="B113" s="8" t="s">
         <v>74</v>
       </c>
       <c r="C113" s="8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="2" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="G113" s="3">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H113" s="8" t="s">
         <v>10</v>
       </c>
       <c r="I113" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A114" s="7">
-        <v>45699</v>
+        <v>45703</v>
       </c>
       <c r="B114" s="8" t="s">
         <v>74</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="2" t="s">
-        <v>32</v>
+        <v>103</v>
       </c>
       <c r="G114" s="3">
-        <v>4.7</v>
+        <v>7.9</v>
       </c>
       <c r="H114" s="8" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="I114" s="8" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
     </row>
     <row r="115" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A115" s="7">
-        <v>45699</v>
+        <v>45704</v>
       </c>
       <c r="B115" s="8" t="s">
         <v>74</v>
       </c>
       <c r="C115" s="8" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="2" t="s">
-        <v>42</v>
+        <v>104</v>
       </c>
       <c r="G115" s="3">
-        <v>4.9000000000000004</v>
+        <v>14.25</v>
       </c>
       <c r="H115" s="8" t="s">
         <v>22</v>
       </c>
       <c r="I115" s="8" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
     </row>
     <row r="116" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A116" s="7">
-        <v>45699</v>
+        <v>45704</v>
       </c>
       <c r="B116" s="8" t="s">
         <v>74</v>
@@ -3858,121 +3889,121 @@
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="2" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="G116" s="3">
-        <v>7.7</v>
+        <v>14.9</v>
       </c>
       <c r="H116" s="8" t="s">
         <v>22</v>
       </c>
       <c r="I116" s="8" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
     </row>
     <row r="117" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A117" s="7">
-        <v>45700</v>
+        <v>45704</v>
       </c>
       <c r="B117" s="8" t="s">
         <v>74</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="2" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="G117" s="3">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="H117" s="8" t="s">
         <v>22</v>
       </c>
       <c r="I117" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A118" s="7">
-        <v>45700</v>
+        <v>45704</v>
       </c>
       <c r="B118" s="8" t="s">
         <v>74</v>
       </c>
       <c r="C118" s="8" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="2" t="s">
-        <v>117</v>
+        <v>28</v>
       </c>
       <c r="G118" s="3">
-        <v>2.6</v>
+        <v>0.99</v>
       </c>
       <c r="H118" s="8" t="s">
         <v>10</v>
       </c>
       <c r="I118" s="8" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
     </row>
     <row r="119" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A119" s="7">
-        <v>45700</v>
+        <v>45704</v>
       </c>
       <c r="B119" s="8" t="s">
         <v>74</v>
       </c>
       <c r="C119" s="8" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="2" t="s">
-        <v>41</v>
+        <v>107</v>
       </c>
       <c r="G119" s="3">
-        <v>12.4</v>
+        <v>11.6</v>
       </c>
       <c r="H119" s="8" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="I119" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A120" s="7">
-        <v>45700</v>
+        <v>45704</v>
       </c>
       <c r="B120" s="8" t="s">
         <v>74</v>
       </c>
       <c r="C120" s="8" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="G120" s="3">
-        <v>10.09</v>
+        <v>109</v>
+      </c>
+      <c r="G120" s="9">
+        <v>3.95</v>
       </c>
       <c r="H120" s="8" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="I120" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A121" s="7">
-        <v>45701</v>
+        <v>45704</v>
       </c>
       <c r="B121" s="8" t="s">
         <v>74</v>
@@ -3981,61 +4012,876 @@
         <v>29</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E121" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F121" s="2" t="s">
-        <v>130</v>
+        <v>95</v>
+      </c>
+      <c r="F121" s="8" t="s">
+        <v>108</v>
       </c>
       <c r="G121" s="3">
-        <v>51</v>
+        <v>83.92</v>
       </c>
       <c r="H121" s="8" t="s">
         <v>22</v>
       </c>
       <c r="I121" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A122" s="7">
-        <v>45701</v>
+        <v>45705</v>
       </c>
       <c r="B122" s="8" t="s">
         <v>74</v>
       </c>
       <c r="C122" s="8" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="2" t="s">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="G122" s="3">
-        <v>4.9000000000000004</v>
+        <v>7.25</v>
       </c>
       <c r="H122" s="8" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="I122" s="8" t="s">
-        <v>55</v>
-      </c>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A123" s="7">
+        <v>45706</v>
+      </c>
+      <c r="B123" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C123" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D123" s="8"/>
+      <c r="E123" s="8"/>
+      <c r="F123" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="G123" s="9">
+        <v>49.13</v>
+      </c>
+      <c r="H123" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I123" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A124" s="7">
+        <v>45707</v>
+      </c>
+      <c r="B124" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C124" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D124" s="8"/>
+      <c r="E124" s="8"/>
+      <c r="F124" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="G124" s="9">
+        <v>10.5</v>
+      </c>
+      <c r="H124" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I124" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A125" s="7">
+        <v>45707</v>
+      </c>
+      <c r="B125" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C125" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D125" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E125" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="F125" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="G125" s="9">
+        <v>89.28</v>
+      </c>
+      <c r="H125" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I125" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A126" s="7">
+        <v>45708</v>
+      </c>
+      <c r="B126" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C126" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D126" s="8"/>
+      <c r="E126" s="8"/>
+      <c r="F126" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="G126" s="9">
+        <v>8</v>
+      </c>
+      <c r="H126" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I126" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A127" s="7">
+        <v>45708</v>
+      </c>
+      <c r="B127" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C127" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D127" s="8"/>
+      <c r="E127" s="8"/>
+      <c r="F127" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="G127" s="9">
+        <v>9.93</v>
+      </c>
+      <c r="H127" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I127" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A128" s="7">
+        <v>45709</v>
+      </c>
+      <c r="B128" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C128" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D128" s="8"/>
+      <c r="E128" s="8"/>
+      <c r="F128" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="G128" s="9">
+        <v>100.1</v>
+      </c>
+      <c r="H128" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I128" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A129" s="7">
+        <v>45709</v>
+      </c>
+      <c r="B129" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C129" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D129" s="8"/>
+      <c r="E129" s="8"/>
+      <c r="F129" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="G129" s="9">
+        <v>11.5</v>
+      </c>
+      <c r="H129" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I129" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A130" s="7">
+        <v>45709</v>
+      </c>
+      <c r="B130" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C130" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D130" s="8"/>
+      <c r="E130" s="8"/>
+      <c r="F130" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="G130" s="9">
+        <v>10</v>
+      </c>
+      <c r="H130" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I130" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A131" s="7">
+        <v>45710</v>
+      </c>
+      <c r="B131" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C131" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D131" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="E131" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="F131" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="G131" s="9">
+        <v>26</v>
+      </c>
+      <c r="H131" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I131" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A132" s="7">
+        <v>45710</v>
+      </c>
+      <c r="B132" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C132" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D132" s="8"/>
+      <c r="E132" s="8"/>
+      <c r="F132" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="G132" s="9">
+        <v>10.5</v>
+      </c>
+      <c r="H132" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I132" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A133" s="7">
+        <v>45710</v>
+      </c>
+      <c r="B133" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C133" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D133" s="8"/>
+      <c r="E133" s="8"/>
+      <c r="F133" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="G133" s="9">
+        <v>12.7</v>
+      </c>
+      <c r="H133" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I133" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A134" s="7">
+        <v>45710</v>
+      </c>
+      <c r="B134" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C134" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D134" s="8"/>
+      <c r="E134" s="8"/>
+      <c r="F134" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="G134" s="9">
+        <v>3.3</v>
+      </c>
+      <c r="H134" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I134" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A135" s="7">
+        <v>45710</v>
+      </c>
+      <c r="B135" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C135" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D135" s="8"/>
+      <c r="E135" s="8"/>
+      <c r="F135" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="G135" s="9">
+        <v>1.6</v>
+      </c>
+      <c r="H135" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I135" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A136" s="7">
+        <v>45711</v>
+      </c>
+      <c r="B136" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C136" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D136" s="8"/>
+      <c r="E136" s="8"/>
+      <c r="F136" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="G136" s="9">
+        <v>45.91</v>
+      </c>
+      <c r="H136" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I136" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A137" s="7">
+        <v>45711</v>
+      </c>
+      <c r="B137" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C137" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D137" s="8"/>
+      <c r="E137" s="8"/>
+      <c r="F137" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G137" s="9">
+        <v>11.27</v>
+      </c>
+      <c r="H137" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I137" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A138" s="8"/>
+      <c r="B138" s="8"/>
+      <c r="C138" s="8"/>
+      <c r="D138" s="8"/>
+      <c r="E138" s="8"/>
+      <c r="F138" s="8"/>
+      <c r="G138" s="9"/>
+      <c r="H138" s="8"/>
+      <c r="I138" s="8"/>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A139" s="8"/>
+      <c r="B139" s="8"/>
+      <c r="C139" s="8"/>
+      <c r="D139" s="8"/>
+      <c r="E139" s="8"/>
+      <c r="F139" s="8"/>
+      <c r="G139" s="9"/>
+      <c r="H139" s="8"/>
+      <c r="I139" s="8"/>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A140" s="8"/>
+      <c r="B140" s="8"/>
+      <c r="C140" s="8"/>
+      <c r="D140" s="8"/>
+      <c r="E140" s="8"/>
+      <c r="F140" s="8"/>
+      <c r="G140" s="9"/>
+      <c r="H140" s="8"/>
+      <c r="I140" s="8"/>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A141" s="8"/>
+      <c r="B141" s="8"/>
+      <c r="C141" s="8"/>
+      <c r="D141" s="8"/>
+      <c r="E141" s="8"/>
+      <c r="F141" s="8"/>
+      <c r="G141" s="9"/>
+      <c r="H141" s="8"/>
+      <c r="I141" s="8"/>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A142" s="8"/>
+      <c r="B142" s="8"/>
+      <c r="C142" s="8"/>
+      <c r="D142" s="8"/>
+      <c r="E142" s="8"/>
+      <c r="F142" s="8"/>
+      <c r="G142" s="9"/>
+      <c r="H142" s="8"/>
+      <c r="I142" s="8"/>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A143" s="8"/>
+      <c r="B143" s="8"/>
+      <c r="C143" s="8"/>
+      <c r="D143" s="8"/>
+      <c r="E143" s="8"/>
+      <c r="F143" s="8"/>
+      <c r="G143" s="9"/>
+      <c r="H143" s="8"/>
+      <c r="I143" s="8"/>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A144" s="8"/>
+      <c r="B144" s="8"/>
+      <c r="C144" s="8"/>
+      <c r="D144" s="8"/>
+      <c r="E144" s="8"/>
+      <c r="F144" s="8"/>
+      <c r="G144" s="9"/>
+      <c r="H144" s="8"/>
+      <c r="I144" s="8"/>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A145" s="8"/>
+      <c r="B145" s="8"/>
+      <c r="C145" s="8"/>
+      <c r="D145" s="8"/>
+      <c r="E145" s="8"/>
+      <c r="F145" s="8"/>
+      <c r="G145" s="9"/>
+      <c r="H145" s="8"/>
+      <c r="I145" s="8"/>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A146" s="8"/>
+      <c r="B146" s="8"/>
+      <c r="C146" s="8"/>
+      <c r="D146" s="8"/>
+      <c r="E146" s="8"/>
+      <c r="F146" s="8"/>
+      <c r="G146" s="9"/>
+      <c r="H146" s="8"/>
+      <c r="I146" s="8"/>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A147" s="8"/>
+      <c r="B147" s="8"/>
+      <c r="C147" s="8"/>
+      <c r="D147" s="8"/>
+      <c r="E147" s="8"/>
+      <c r="F147" s="8"/>
+      <c r="G147" s="9"/>
+      <c r="H147" s="8"/>
+      <c r="I147" s="8"/>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A148" s="8"/>
+      <c r="B148" s="8"/>
+      <c r="C148" s="8"/>
+      <c r="D148" s="8"/>
+      <c r="E148" s="8"/>
+      <c r="F148" s="8"/>
+      <c r="G148" s="9"/>
+      <c r="H148" s="8"/>
+      <c r="I148" s="8"/>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A149" s="8"/>
+      <c r="B149" s="8"/>
+      <c r="C149" s="8"/>
+      <c r="D149" s="8"/>
+      <c r="E149" s="8"/>
+      <c r="F149" s="8"/>
+      <c r="G149" s="9"/>
+      <c r="H149" s="8"/>
+      <c r="I149" s="8"/>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A150" s="8"/>
+      <c r="B150" s="8"/>
+      <c r="C150" s="8"/>
+      <c r="D150" s="8"/>
+      <c r="E150" s="8"/>
+      <c r="F150" s="8"/>
+      <c r="G150" s="9"/>
+      <c r="H150" s="8"/>
+      <c r="I150" s="8"/>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A151" s="8"/>
+      <c r="B151" s="8"/>
+      <c r="C151" s="8"/>
+      <c r="D151" s="8"/>
+      <c r="E151" s="8"/>
+      <c r="F151" s="8"/>
+      <c r="G151" s="9"/>
+      <c r="H151" s="8"/>
+      <c r="I151" s="8"/>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A152" s="8"/>
+      <c r="B152" s="8"/>
+      <c r="C152" s="8"/>
+      <c r="D152" s="8"/>
+      <c r="E152" s="8"/>
+      <c r="F152" s="8"/>
+      <c r="G152" s="9"/>
+      <c r="H152" s="8"/>
+      <c r="I152" s="8"/>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A153" s="8"/>
+      <c r="B153" s="8"/>
+      <c r="C153" s="8"/>
+      <c r="D153" s="8"/>
+      <c r="E153" s="8"/>
+      <c r="F153" s="8"/>
+      <c r="G153" s="9"/>
+      <c r="H153" s="8"/>
+      <c r="I153" s="8"/>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A154" s="8"/>
+      <c r="B154" s="8"/>
+      <c r="C154" s="8"/>
+      <c r="D154" s="8"/>
+      <c r="E154" s="8"/>
+      <c r="F154" s="8"/>
+      <c r="G154" s="9"/>
+      <c r="H154" s="8"/>
+      <c r="I154" s="8"/>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A155" s="8"/>
+      <c r="B155" s="8"/>
+      <c r="C155" s="8"/>
+      <c r="D155" s="8"/>
+      <c r="E155" s="8"/>
+      <c r="F155" s="8"/>
+      <c r="G155" s="9"/>
+      <c r="H155" s="8"/>
+      <c r="I155" s="8"/>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A156" s="8"/>
+      <c r="B156" s="8"/>
+      <c r="C156" s="8"/>
+      <c r="D156" s="8"/>
+      <c r="E156" s="8"/>
+      <c r="F156" s="8"/>
+      <c r="G156" s="9"/>
+      <c r="H156" s="8"/>
+      <c r="I156" s="8"/>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A157" s="8"/>
+      <c r="B157" s="8"/>
+      <c r="C157" s="8"/>
+      <c r="D157" s="8"/>
+      <c r="E157" s="8"/>
+      <c r="F157" s="8"/>
+      <c r="G157" s="9"/>
+      <c r="H157" s="8"/>
+      <c r="I157" s="8"/>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A158" s="8"/>
+      <c r="B158" s="8"/>
+      <c r="C158" s="8"/>
+      <c r="D158" s="8"/>
+      <c r="E158" s="8"/>
+      <c r="F158" s="8"/>
+      <c r="G158" s="9"/>
+      <c r="H158" s="8"/>
+      <c r="I158" s="8"/>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A159" s="8"/>
+      <c r="B159" s="8"/>
+      <c r="C159" s="8"/>
+      <c r="D159" s="8"/>
+      <c r="E159" s="8"/>
+      <c r="F159" s="8"/>
+      <c r="G159" s="9"/>
+      <c r="H159" s="8"/>
+      <c r="I159" s="8"/>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A160" s="8"/>
+      <c r="B160" s="8"/>
+      <c r="C160" s="8"/>
+      <c r="D160" s="8"/>
+      <c r="E160" s="8"/>
+      <c r="F160" s="8"/>
+      <c r="G160" s="9"/>
+      <c r="H160" s="8"/>
+      <c r="I160" s="8"/>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A161" s="8"/>
+      <c r="B161" s="8"/>
+      <c r="C161" s="8"/>
+      <c r="D161" s="8"/>
+      <c r="E161" s="8"/>
+      <c r="F161" s="8"/>
+      <c r="G161" s="9"/>
+      <c r="H161" s="8"/>
+      <c r="I161" s="8"/>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A162" s="8"/>
+      <c r="B162" s="8"/>
+      <c r="C162" s="8"/>
+      <c r="D162" s="8"/>
+      <c r="E162" s="8"/>
+      <c r="F162" s="8"/>
+      <c r="G162" s="9"/>
+      <c r="H162" s="8"/>
+      <c r="I162" s="8"/>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A163" s="8"/>
+      <c r="B163" s="8"/>
+      <c r="C163" s="8"/>
+      <c r="D163" s="8"/>
+      <c r="E163" s="8"/>
+      <c r="F163" s="8"/>
+      <c r="G163" s="9"/>
+      <c r="H163" s="8"/>
+      <c r="I163" s="8"/>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A164" s="8"/>
+      <c r="B164" s="8"/>
+      <c r="C164" s="8"/>
+      <c r="D164" s="8"/>
+      <c r="E164" s="8"/>
+      <c r="F164" s="8"/>
+      <c r="G164" s="9"/>
+      <c r="H164" s="8"/>
+      <c r="I164" s="8"/>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A165" s="8"/>
+      <c r="B165" s="8"/>
+      <c r="C165" s="8"/>
+      <c r="D165" s="8"/>
+      <c r="E165" s="8"/>
+      <c r="F165" s="8"/>
+      <c r="G165" s="9"/>
+      <c r="H165" s="8"/>
+      <c r="I165" s="8"/>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A166" s="8"/>
+      <c r="B166" s="8"/>
+      <c r="C166" s="8"/>
+      <c r="D166" s="8"/>
+      <c r="E166" s="8"/>
+      <c r="F166" s="8"/>
+      <c r="G166" s="9"/>
+      <c r="H166" s="8"/>
+      <c r="I166" s="8"/>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A167" s="8"/>
+      <c r="B167" s="8"/>
+      <c r="C167" s="8"/>
+      <c r="D167" s="8"/>
+      <c r="E167" s="8"/>
+      <c r="F167" s="8"/>
+      <c r="G167" s="9"/>
+      <c r="H167" s="8"/>
+      <c r="I167" s="8"/>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A168" s="8"/>
+      <c r="B168" s="8"/>
+      <c r="C168" s="8"/>
+      <c r="D168" s="8"/>
+      <c r="E168" s="8"/>
+      <c r="F168" s="8"/>
+      <c r="G168" s="9"/>
+      <c r="H168" s="8"/>
+      <c r="I168" s="8"/>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A169" s="8"/>
+      <c r="B169" s="8"/>
+      <c r="C169" s="8"/>
+      <c r="D169" s="8"/>
+      <c r="E169" s="8"/>
+      <c r="F169" s="8"/>
+      <c r="G169" s="9"/>
+      <c r="H169" s="8"/>
+      <c r="I169" s="8"/>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A170" s="8"/>
+      <c r="B170" s="8"/>
+      <c r="C170" s="8"/>
+      <c r="D170" s="8"/>
+      <c r="E170" s="8"/>
+      <c r="F170" s="8"/>
+      <c r="G170" s="9"/>
+      <c r="H170" s="8"/>
+      <c r="I170" s="8"/>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A171" s="8"/>
+      <c r="B171" s="8"/>
+      <c r="C171" s="8"/>
+      <c r="D171" s="8"/>
+      <c r="E171" s="8"/>
+      <c r="F171" s="8"/>
+      <c r="G171" s="9"/>
+      <c r="H171" s="8"/>
+      <c r="I171" s="8"/>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A172" s="8"/>
+      <c r="B172" s="8"/>
+      <c r="C172" s="8"/>
+      <c r="D172" s="8"/>
+      <c r="E172" s="8"/>
+      <c r="F172" s="8"/>
+      <c r="G172" s="9"/>
+      <c r="H172" s="8"/>
+      <c r="I172" s="8"/>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A173" s="8"/>
+      <c r="B173" s="8"/>
+      <c r="C173" s="8"/>
+      <c r="D173" s="8"/>
+      <c r="E173" s="8"/>
+      <c r="F173" s="8"/>
+      <c r="G173" s="9"/>
+      <c r="H173" s="8"/>
+      <c r="I173" s="8"/>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A174" s="8"/>
+      <c r="B174" s="8"/>
+      <c r="C174" s="8"/>
+      <c r="D174" s="8"/>
+      <c r="E174" s="8"/>
+      <c r="F174" s="8"/>
+      <c r="G174" s="9"/>
+      <c r="H174" s="8"/>
+      <c r="I174" s="8"/>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A175" s="8"/>
+      <c r="B175" s="8"/>
+      <c r="C175" s="8"/>
+      <c r="D175" s="8"/>
+      <c r="E175" s="8"/>
+      <c r="F175" s="8"/>
+      <c r="G175" s="9"/>
+      <c r="H175" s="8"/>
+      <c r="I175" s="8"/>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A176" s="8"/>
+      <c r="B176" s="8"/>
+      <c r="C176" s="8"/>
+      <c r="D176" s="8"/>
+      <c r="E176" s="8"/>
+      <c r="F176" s="8"/>
+      <c r="G176" s="9"/>
+      <c r="H176" s="8"/>
+      <c r="I176" s="8"/>
     </row>
   </sheetData>
-  <autoFilter ref="C1:C122" xr:uid="{73D03841-840F-48EF-840B-36FDA2E59E7D}">
-    <filterColumn colId="0">
+  <autoFilter ref="A1:I137" xr:uid="{73D03841-840F-48EF-840B-36FDA2E59E7D}">
+    <filterColumn colId="7">
       <filters>
-        <filter val="Viagem"/>
+        <filter val="Pais"/>
       </filters>
     </filterColumn>
   </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I176">
+    <sortCondition ref="A109:A176"/>
+  </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="7">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{77508706-FF64-4936-A3A6-4F0639AF6AF4}">
           <x14:formula1>
             <xm:f>lists!$A$1:$A$6</xm:f>
@@ -4046,25 +4892,37 @@
           <x14:formula1>
             <xm:f>lists!$B$1:$B$10</xm:f>
           </x14:formula1>
-          <xm:sqref>C1:C1048576</xm:sqref>
+          <xm:sqref>C1 C131:C1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{790B5306-A74C-4E52-BB85-C4249CF769EB}">
           <x14:formula1>
             <xm:f>lists!$C$1:$C$11</xm:f>
           </x14:formula1>
-          <xm:sqref>D1:D1048576</xm:sqref>
+          <xm:sqref>D1:D13</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E87165FA-15D3-4B9C-BFC7-CBABAFD0C4D5}">
           <x14:formula1>
             <xm:f>lists!$E$1:$E$2</xm:f>
           </x14:formula1>
-          <xm:sqref>H1:H1048576</xm:sqref>
+          <xm:sqref>H2:H1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{36F38C8B-ABA6-4EEA-BDBB-A848DE72EEB6}">
           <x14:formula1>
             <xm:f>lists!$F$1:$F$5</xm:f>
           </x14:formula1>
           <xm:sqref>I1:I1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{04942904-3FBB-45D7-9BF4-EBBEB52C8780}">
+          <x14:formula1>
+            <xm:f>lists!$B$1:$B$11</xm:f>
+          </x14:formula1>
+          <xm:sqref>C2:C130</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3CE41949-4710-47B6-986D-722B16D67FA2}">
+          <x14:formula1>
+            <xm:f>lists!$C$1:$C$20</xm:f>
+          </x14:formula1>
+          <xm:sqref>D14:D1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4074,10 +4932,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC5E67EC-B32E-4681-965C-F9E878D12BA4}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4122,7 +4980,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
@@ -4131,12 +4989,12 @@
         <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -4145,12 +5003,12 @@
         <v>23</v>
       </c>
       <c r="F4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B5" t="s">
         <v>39</v>
@@ -4164,13 +5022,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -4186,7 +5044,7 @@
         <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
@@ -4202,12 +5060,30 @@
         <v>72</v>
       </c>
       <c r="C10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
+        <v>88</v>
+      </c>
       <c r="C11" t="s">
-        <v>90</v>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C12" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C13" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C14" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/assets/cost_sheet.xlsx
+++ b/assets/cost_sheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/56c9449150e6bc49/Documentos/FEARP/Intercambio/spendure_app/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="607" documentId="8_{697955BF-7644-43E6-B102-A5718628249A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E2B7F01E-756C-43BE-9AE6-C7E86DA916D8}"/>
+  <xr:revisionPtr revIDLastSave="1130" documentId="8_{697955BF-7644-43E6-B102-A5718628249A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4D724744-9F81-4CA9-A563-538259064534}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{3A902579-E7D0-4425-859E-D7B710BECD9D}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="lists" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">table!$A$1:$I$137</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">table!$A$1:$I$161</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1145" uniqueCount="183">
   <si>
     <t>Data</t>
   </si>
@@ -472,6 +472,123 @@
   </si>
   <si>
     <t>Lembrancinha Museu Figueires</t>
+  </si>
+  <si>
+    <t>Cafeteria Faculdade</t>
+  </si>
+  <si>
+    <t>Academia</t>
+  </si>
+  <si>
+    <t>Mercadinho</t>
+  </si>
+  <si>
+    <t>Mi Casa</t>
+  </si>
+  <si>
+    <t>Vodafone</t>
+  </si>
+  <si>
+    <t>Passagem de Volta</t>
+  </si>
+  <si>
+    <t>Metrô</t>
+  </si>
+  <si>
+    <t>Enroladinho salsicha</t>
+  </si>
+  <si>
+    <t>Café Mc Donalds</t>
+  </si>
+  <si>
+    <t>Korean Chicken (+Armaan)</t>
+  </si>
+  <si>
+    <t>Dunkin Donuts</t>
+  </si>
+  <si>
+    <t>Burrito</t>
+  </si>
+  <si>
+    <t>Palácio Real</t>
+  </si>
+  <si>
+    <t>Mc Donalds</t>
+  </si>
+  <si>
+    <t>Manioca</t>
+  </si>
+  <si>
+    <t>Suíça</t>
+  </si>
+  <si>
+    <t>Passagens</t>
+  </si>
+  <si>
+    <t>Sitges</t>
+  </si>
+  <si>
+    <t>Salgado</t>
+  </si>
+  <si>
+    <t>Drinks</t>
+  </si>
+  <si>
+    <t>Uber de volta</t>
+  </si>
+  <si>
+    <t>Transferência Babá</t>
+  </si>
+  <si>
+    <t>Drink</t>
+  </si>
+  <si>
+    <t>Trem do aeroporto</t>
+  </si>
+  <si>
+    <t>Panini</t>
+  </si>
+  <si>
+    <t>Sorvete</t>
+  </si>
+  <si>
+    <t>Brechó</t>
+  </si>
+  <si>
+    <t>Mattarello</t>
+  </si>
+  <si>
+    <t>Coliseu</t>
+  </si>
+  <si>
+    <t>Pizza</t>
+  </si>
+  <si>
+    <t>Panteão</t>
+  </si>
+  <si>
+    <t>Crepe</t>
+  </si>
+  <si>
+    <t>Carbonara</t>
+  </si>
+  <si>
+    <t>Café da manhã</t>
+  </si>
+  <si>
+    <t>Almoço Pastaciutta</t>
+  </si>
+  <si>
+    <t>Ônibus</t>
+  </si>
+  <si>
+    <t>Lembrancinha Carol</t>
+  </si>
+  <si>
+    <t>Museu Vaticano</t>
+  </si>
+  <si>
+    <t>Passagem metro</t>
   </si>
 </sst>
 </file>
@@ -519,7 +636,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -542,12 +659,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -559,9 +687,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Moeda" xfId="1" builtinId="4"/>
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -582,7 +712,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -898,11 +1028,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73D03841-840F-48EF-840B-36FDA2E59E7D}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:I176"/>
+  <dimension ref="A1:I646"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
-      <selection activeCell="L107" sqref="L107"/>
+    <sheetView tabSelected="1" topLeftCell="A180" workbookViewId="0">
+      <selection activeCell="G191" sqref="G191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1096,7 +1225,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>45660</v>
       </c>
@@ -1121,7 +1250,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>45660</v>
       </c>
@@ -1246,7 +1375,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>45662</v>
       </c>
@@ -1648,7 +1777,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>45669</v>
       </c>
@@ -1673,7 +1802,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>45669</v>
       </c>
@@ -1923,7 +2052,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>45677</v>
       </c>
@@ -2102,7 +2231,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>45680</v>
       </c>
@@ -2227,7 +2356,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>45682</v>
       </c>
@@ -2277,7 +2406,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>45684</v>
       </c>
@@ -2302,7 +2431,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>45684</v>
       </c>
@@ -2352,7 +2481,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>45687</v>
       </c>
@@ -2427,7 +2556,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="61" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>45688</v>
       </c>
@@ -2452,7 +2581,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="62" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>45688</v>
       </c>
@@ -2527,7 +2656,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="65" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>45689</v>
       </c>
@@ -2556,7 +2685,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="66" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>45689</v>
       </c>
@@ -2581,7 +2710,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="67" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>45689</v>
       </c>
@@ -2606,7 +2735,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="68" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>45689</v>
       </c>
@@ -2631,7 +2760,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="69" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>45689</v>
       </c>
@@ -2656,7 +2785,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="70" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>45690</v>
       </c>
@@ -2735,7 +2864,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="73" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>45690</v>
       </c>
@@ -2862,7 +2991,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="78" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78" s="7">
         <v>45693</v>
       </c>
@@ -2887,7 +3016,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="79" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79" s="7">
         <v>45693</v>
       </c>
@@ -2937,7 +3066,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="81" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A81" s="7">
         <v>45695</v>
       </c>
@@ -2966,7 +3095,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="82" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82" s="7">
         <v>45695</v>
       </c>
@@ -2995,7 +3124,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="83" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A83" s="7">
         <v>45695</v>
       </c>
@@ -3024,7 +3153,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="84" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A84" s="7">
         <v>45695</v>
       </c>
@@ -3053,7 +3182,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="85" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A85" s="7">
         <v>45695</v>
       </c>
@@ -3078,7 +3207,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="86" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A86" s="7">
         <v>45696</v>
       </c>
@@ -3107,7 +3236,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="87" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A87" s="7">
         <v>45696</v>
       </c>
@@ -3136,7 +3265,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="88" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A88" s="7">
         <v>45696</v>
       </c>
@@ -3165,7 +3294,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="89" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A89" s="7">
         <v>45696</v>
       </c>
@@ -3194,7 +3323,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="90" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A90" s="7">
         <v>45696</v>
       </c>
@@ -3223,7 +3352,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="91" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A91" s="7">
         <v>45696</v>
       </c>
@@ -3252,7 +3381,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="92" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A92" s="7">
         <v>45697</v>
       </c>
@@ -3281,7 +3410,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="93" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A93" s="7">
         <v>45697</v>
       </c>
@@ -3310,7 +3439,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="94" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A94" s="7">
         <v>45697</v>
       </c>
@@ -3368,7 +3497,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="96" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A96" s="7">
         <v>45698</v>
       </c>
@@ -3547,7 +3676,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="103" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A103" s="7">
         <v>45699</v>
       </c>
@@ -3572,7 +3701,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="104" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A104" s="7">
         <v>45699</v>
       </c>
@@ -3597,7 +3726,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="105" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A105" s="7">
         <v>45700</v>
       </c>
@@ -3672,7 +3801,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="108" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A108" s="7">
         <v>45700</v>
       </c>
@@ -3697,7 +3826,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="109" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A109" s="7">
         <v>45701</v>
       </c>
@@ -3726,7 +3855,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="110" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A110" s="7">
         <v>45701</v>
       </c>
@@ -3751,7 +3880,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="111" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A111" s="7">
         <v>45702</v>
       </c>
@@ -3851,7 +3980,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="115" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A115" s="7">
         <v>45704</v>
       </c>
@@ -3876,7 +4005,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="116" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A116" s="7">
         <v>45704</v>
       </c>
@@ -3901,7 +4030,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="117" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A117" s="7">
         <v>45704</v>
       </c>
@@ -3951,7 +4080,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="119" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A119" s="7">
         <v>45704</v>
       </c>
@@ -4001,7 +4130,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="121" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A121" s="7">
         <v>45704</v>
       </c>
@@ -4080,7 +4209,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="124" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A124" s="7">
         <v>45707</v>
       </c>
@@ -4105,7 +4234,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="125" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A125" s="7">
         <v>45707</v>
       </c>
@@ -4259,7 +4388,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="131" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A131" s="7">
         <v>45710</v>
       </c>
@@ -4288,7 +4417,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="132" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A132" s="7">
         <v>45710</v>
       </c>
@@ -4439,442 +4568,6584 @@
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A138" s="8"/>
-      <c r="B138" s="8"/>
-      <c r="C138" s="8"/>
+      <c r="A138" s="7">
+        <v>45712</v>
+      </c>
+      <c r="B138" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C138" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="D138" s="8"/>
       <c r="E138" s="8"/>
-      <c r="F138" s="8"/>
-      <c r="G138" s="9"/>
-      <c r="H138" s="8"/>
-      <c r="I138" s="8"/>
+      <c r="F138" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="G138" s="9">
+        <v>45.91</v>
+      </c>
+      <c r="H138" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I138" s="8" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A139" s="8"/>
-      <c r="B139" s="8"/>
-      <c r="C139" s="8"/>
+      <c r="A139" s="7">
+        <v>45712</v>
+      </c>
+      <c r="B139" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C139" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="D139" s="8"/>
       <c r="E139" s="8"/>
-      <c r="F139" s="8"/>
-      <c r="G139" s="9"/>
-      <c r="H139" s="8"/>
-      <c r="I139" s="8"/>
+      <c r="F139" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G139" s="9">
+        <v>11.27</v>
+      </c>
+      <c r="H139" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I139" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A140" s="8"/>
-      <c r="B140" s="8"/>
-      <c r="C140" s="8"/>
+      <c r="A140" s="7">
+        <v>45712</v>
+      </c>
+      <c r="B140" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C140" s="8" t="s">
+        <v>39</v>
+      </c>
       <c r="D140" s="8"/>
       <c r="E140" s="8"/>
-      <c r="F140" s="8"/>
-      <c r="G140" s="9"/>
-      <c r="H140" s="8"/>
-      <c r="I140" s="8"/>
+      <c r="F140" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="G140" s="9">
+        <v>3.85</v>
+      </c>
+      <c r="H140" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I140" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A141" s="8"/>
-      <c r="B141" s="8"/>
-      <c r="C141" s="8"/>
+      <c r="A141" s="7">
+        <v>45712</v>
+      </c>
+      <c r="B141" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C141" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="D141" s="8"/>
       <c r="E141" s="8"/>
-      <c r="F141" s="8"/>
-      <c r="G141" s="9"/>
-      <c r="H141" s="8"/>
-      <c r="I141" s="8"/>
+      <c r="F141" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="G141" s="9">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="H141" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I141" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A142" s="8"/>
-      <c r="B142" s="8"/>
-      <c r="C142" s="8"/>
+      <c r="A142" s="7">
+        <v>45713</v>
+      </c>
+      <c r="B142" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C142" s="8" t="s">
+        <v>145</v>
+      </c>
       <c r="D142" s="8"/>
       <c r="E142" s="8"/>
-      <c r="F142" s="8"/>
-      <c r="G142" s="9"/>
-      <c r="H142" s="8"/>
-      <c r="I142" s="8"/>
+      <c r="F142" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="G142" s="9">
+        <v>46.81</v>
+      </c>
+      <c r="H142" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I142" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A143" s="8"/>
-      <c r="B143" s="8"/>
-      <c r="C143" s="8"/>
+      <c r="A143" s="7">
+        <v>45713</v>
+      </c>
+      <c r="B143" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C143" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="D143" s="8"/>
       <c r="E143" s="8"/>
-      <c r="F143" s="8"/>
-      <c r="G143" s="9"/>
-      <c r="H143" s="8"/>
-      <c r="I143" s="8"/>
+      <c r="F143" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="G143" s="9">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="H143" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I143" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A144" s="8"/>
-      <c r="B144" s="8"/>
-      <c r="C144" s="8"/>
+      <c r="A144" s="7">
+        <v>45714</v>
+      </c>
+      <c r="B144" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C144" s="8" t="s">
+        <v>39</v>
+      </c>
       <c r="D144" s="8"/>
       <c r="E144" s="8"/>
-      <c r="F144" s="8"/>
-      <c r="G144" s="9"/>
-      <c r="H144" s="8"/>
-      <c r="I144" s="8"/>
+      <c r="F144" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G144" s="9">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="H144" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I144" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A145" s="8"/>
-      <c r="B145" s="8"/>
-      <c r="C145" s="8"/>
+      <c r="A145" s="7">
+        <v>45715</v>
+      </c>
+      <c r="B145" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C145" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="D145" s="8"/>
       <c r="E145" s="8"/>
-      <c r="F145" s="8"/>
-      <c r="G145" s="9"/>
-      <c r="H145" s="8"/>
-      <c r="I145" s="8"/>
+      <c r="F145" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="G145" s="9">
+        <v>14.3</v>
+      </c>
+      <c r="H145" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I145" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A146" s="8"/>
-      <c r="B146" s="8"/>
-      <c r="C146" s="8"/>
+      <c r="A146" s="7">
+        <v>45715</v>
+      </c>
+      <c r="B146" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C146" s="8" t="s">
+        <v>17</v>
+      </c>
       <c r="D146" s="8"/>
       <c r="E146" s="8"/>
-      <c r="F146" s="8"/>
-      <c r="G146" s="9"/>
-      <c r="H146" s="8"/>
-      <c r="I146" s="8"/>
+      <c r="F146" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="G146" s="9">
+        <v>10</v>
+      </c>
+      <c r="H146" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I146" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A147" s="8"/>
-      <c r="B147" s="8"/>
-      <c r="C147" s="8"/>
-      <c r="D147" s="8"/>
-      <c r="E147" s="8"/>
-      <c r="F147" s="8"/>
-      <c r="G147" s="9"/>
-      <c r="H147" s="8"/>
-      <c r="I147" s="8"/>
+      <c r="A147" s="7">
+        <v>45716</v>
+      </c>
+      <c r="B147" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C147" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D147" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E147" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F147" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="G147" s="9">
+        <v>22.4</v>
+      </c>
+      <c r="H147" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I147" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A148" s="8"/>
-      <c r="B148" s="8"/>
-      <c r="C148" s="8"/>
-      <c r="D148" s="8"/>
-      <c r="E148" s="8"/>
-      <c r="F148" s="8"/>
-      <c r="G148" s="9"/>
-      <c r="H148" s="8"/>
-      <c r="I148" s="8"/>
+      <c r="A148" s="7">
+        <v>45716</v>
+      </c>
+      <c r="B148" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C148" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D148" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E148" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="F148" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="G148" s="9">
+        <v>8.6</v>
+      </c>
+      <c r="H148" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I148" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A149" s="8"/>
-      <c r="B149" s="8"/>
-      <c r="C149" s="8"/>
-      <c r="D149" s="8"/>
-      <c r="E149" s="8"/>
-      <c r="F149" s="8"/>
-      <c r="G149" s="9"/>
-      <c r="H149" s="8"/>
-      <c r="I149" s="8"/>
+      <c r="A149" s="7">
+        <v>45716</v>
+      </c>
+      <c r="B149" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C149" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D149" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E149" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="F149" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="G149" s="9">
+        <v>6.5</v>
+      </c>
+      <c r="H149" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I149" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A150" s="8"/>
-      <c r="B150" s="8"/>
-      <c r="C150" s="8"/>
-      <c r="D150" s="8"/>
-      <c r="E150" s="8"/>
-      <c r="F150" s="8"/>
-      <c r="G150" s="9"/>
-      <c r="H150" s="8"/>
-      <c r="I150" s="8"/>
+      <c r="A150" s="7">
+        <v>45716</v>
+      </c>
+      <c r="B150" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C150" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D150" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E150" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="F150" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="G150" s="9">
+        <v>2.11</v>
+      </c>
+      <c r="H150" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I150" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A151" s="8"/>
-      <c r="B151" s="8"/>
-      <c r="C151" s="8"/>
-      <c r="D151" s="8"/>
-      <c r="E151" s="8"/>
-      <c r="F151" s="8"/>
-      <c r="G151" s="9"/>
-      <c r="H151" s="8"/>
-      <c r="I151" s="8"/>
+      <c r="A151" s="7">
+        <v>45716</v>
+      </c>
+      <c r="B151" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C151" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D151" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E151" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="F151" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="G151" s="9">
+        <v>36.9</v>
+      </c>
+      <c r="H151" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I151" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A152" s="8"/>
-      <c r="B152" s="8"/>
-      <c r="C152" s="8"/>
-      <c r="D152" s="8"/>
-      <c r="E152" s="8"/>
-      <c r="F152" s="8"/>
-      <c r="G152" s="9"/>
-      <c r="H152" s="8"/>
-      <c r="I152" s="8"/>
+      <c r="A152" s="7">
+        <v>45716</v>
+      </c>
+      <c r="B152" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C152" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D152" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E152" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="F152" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="G152" s="9">
+        <v>9.1</v>
+      </c>
+      <c r="H152" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I152" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A153" s="8"/>
-      <c r="B153" s="8"/>
-      <c r="C153" s="8"/>
-      <c r="D153" s="8"/>
-      <c r="E153" s="8"/>
-      <c r="F153" s="8"/>
-      <c r="G153" s="9"/>
-      <c r="H153" s="8"/>
-      <c r="I153" s="8"/>
+      <c r="A153" s="7">
+        <v>45717</v>
+      </c>
+      <c r="B153" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C153" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D153" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E153" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="F153" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="G153" s="9">
+        <v>15.4</v>
+      </c>
+      <c r="H153" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I153" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A154" s="8"/>
-      <c r="B154" s="8"/>
-      <c r="C154" s="8"/>
-      <c r="D154" s="8"/>
-      <c r="E154" s="8"/>
-      <c r="F154" s="8"/>
-      <c r="G154" s="9"/>
-      <c r="H154" s="8"/>
-      <c r="I154" s="8"/>
+      <c r="A154" s="7">
+        <v>45717</v>
+      </c>
+      <c r="B154" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C154" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D154" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="E154" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="F154" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="G154" s="9">
+        <v>7</v>
+      </c>
+      <c r="H154" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I154" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A155" s="8"/>
-      <c r="B155" s="8"/>
-      <c r="C155" s="8"/>
-      <c r="D155" s="8"/>
-      <c r="E155" s="8"/>
-      <c r="F155" s="8"/>
-      <c r="G155" s="9"/>
-      <c r="H155" s="8"/>
-      <c r="I155" s="8"/>
+      <c r="A155" s="7">
+        <v>45717</v>
+      </c>
+      <c r="B155" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C155" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D155" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E155" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="F155" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G155" s="9">
+        <v>5.9</v>
+      </c>
+      <c r="H155" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I155" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A156" s="8"/>
-      <c r="B156" s="8"/>
-      <c r="C156" s="8"/>
-      <c r="D156" s="8"/>
-      <c r="E156" s="8"/>
-      <c r="F156" s="8"/>
-      <c r="G156" s="9"/>
-      <c r="H156" s="8"/>
-      <c r="I156" s="8"/>
+      <c r="A156" s="7">
+        <v>45717</v>
+      </c>
+      <c r="B156" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C156" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D156" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E156" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="F156" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G156" s="9">
+        <v>5</v>
+      </c>
+      <c r="H156" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I156" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A157" s="8"/>
-      <c r="B157" s="8"/>
-      <c r="C157" s="8"/>
+      <c r="A157" s="7">
+        <v>45718</v>
+      </c>
+      <c r="B157" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C157" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="D157" s="8"/>
       <c r="E157" s="8"/>
-      <c r="F157" s="8"/>
-      <c r="G157" s="9"/>
-      <c r="H157" s="8"/>
-      <c r="I157" s="8"/>
+      <c r="F157" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G157" s="9">
+        <v>10.210000000000001</v>
+      </c>
+      <c r="H157" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I157" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A158" s="8"/>
-      <c r="B158" s="8"/>
-      <c r="C158" s="8"/>
+      <c r="A158" s="7">
+        <v>45718</v>
+      </c>
+      <c r="B158" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C158" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="D158" s="8"/>
       <c r="E158" s="8"/>
-      <c r="F158" s="8"/>
-      <c r="G158" s="9"/>
-      <c r="H158" s="8"/>
-      <c r="I158" s="8"/>
+      <c r="F158" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="G158" s="9">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="H158" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I158" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A159" s="8"/>
-      <c r="B159" s="8"/>
-      <c r="C159" s="8"/>
-      <c r="D159" s="8"/>
-      <c r="E159" s="8"/>
-      <c r="F159" s="8"/>
-      <c r="G159" s="9"/>
-      <c r="H159" s="8"/>
-      <c r="I159" s="8"/>
+      <c r="A159" s="7">
+        <v>45719</v>
+      </c>
+      <c r="B159" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C159" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D159" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E159" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="F159" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="G159" s="12">
+        <v>76.680000000000007</v>
+      </c>
+      <c r="H159" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I159" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A160" s="8"/>
-      <c r="B160" s="8"/>
-      <c r="C160" s="8"/>
+      <c r="A160" s="7">
+        <v>45719</v>
+      </c>
+      <c r="B160" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C160" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="D160" s="8"/>
       <c r="E160" s="8"/>
-      <c r="F160" s="8"/>
-      <c r="G160" s="9"/>
-      <c r="H160" s="8"/>
-      <c r="I160" s="8"/>
+      <c r="F160" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G160" s="9">
+        <v>7.16</v>
+      </c>
+      <c r="H160" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I160" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A161" s="8"/>
-      <c r="B161" s="8"/>
-      <c r="C161" s="8"/>
-      <c r="D161" s="8"/>
-      <c r="E161" s="8"/>
-      <c r="F161" s="8"/>
-      <c r="G161" s="9"/>
-      <c r="H161" s="8"/>
-      <c r="I161" s="8"/>
+      <c r="A161" s="7">
+        <v>45720</v>
+      </c>
+      <c r="B161" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C161" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D161" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E161" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="F161" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="G161" s="9">
+        <v>6.2</v>
+      </c>
+      <c r="H161" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I161" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A162" s="8"/>
-      <c r="B162" s="8"/>
-      <c r="C162" s="8"/>
-      <c r="D162" s="8"/>
-      <c r="E162" s="8"/>
-      <c r="F162" s="8"/>
-      <c r="G162" s="9"/>
-      <c r="H162" s="8"/>
-      <c r="I162" s="8"/>
+      <c r="A162" s="7">
+        <v>45720</v>
+      </c>
+      <c r="B162" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C162" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D162" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E162" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="F162" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="G162" s="9">
+        <v>41.2</v>
+      </c>
+      <c r="H162" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I162" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A163" s="8"/>
-      <c r="B163" s="8"/>
-      <c r="C163" s="8"/>
-      <c r="D163" s="8"/>
-      <c r="E163" s="8"/>
-      <c r="F163" s="8"/>
-      <c r="G163" s="9"/>
-      <c r="H163" s="8"/>
-      <c r="I163" s="8"/>
+      <c r="A163" s="7">
+        <v>45721</v>
+      </c>
+      <c r="B163" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C163" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D163" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E163" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="F163" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="G163" s="9">
+        <v>18.75</v>
+      </c>
+      <c r="H163" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I163" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A164" s="8"/>
-      <c r="B164" s="8"/>
-      <c r="C164" s="8"/>
+      <c r="A164" s="7">
+        <v>45721</v>
+      </c>
+      <c r="B164" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C164" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="D164" s="8"/>
       <c r="E164" s="8"/>
-      <c r="F164" s="8"/>
-      <c r="G164" s="9"/>
-      <c r="H164" s="8"/>
-      <c r="I164" s="8"/>
+      <c r="F164" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="G164" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="H164" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I164" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A165" s="8"/>
-      <c r="B165" s="8"/>
-      <c r="C165" s="8"/>
+      <c r="A165" s="7">
+        <v>45721</v>
+      </c>
+      <c r="B165" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C165" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="D165" s="8"/>
       <c r="E165" s="8"/>
-      <c r="F165" s="8"/>
-      <c r="G165" s="9"/>
-      <c r="H165" s="8"/>
-      <c r="I165" s="8"/>
+      <c r="F165" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="G165" s="9">
+        <v>7.68</v>
+      </c>
+      <c r="H165" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I165" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A166" s="8"/>
-      <c r="B166" s="8"/>
-      <c r="C166" s="8"/>
+      <c r="A166" s="7">
+        <v>45722</v>
+      </c>
+      <c r="B166" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C166" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="D166" s="8"/>
       <c r="E166" s="8"/>
-      <c r="F166" s="8"/>
-      <c r="G166" s="9"/>
-      <c r="H166" s="8"/>
-      <c r="I166" s="8"/>
+      <c r="F166" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="G166" s="9">
+        <v>17.649999999999999</v>
+      </c>
+      <c r="H166" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I166" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A167" s="8"/>
-      <c r="B167" s="8"/>
-      <c r="C167" s="8"/>
+      <c r="A167" s="7">
+        <v>45722</v>
+      </c>
+      <c r="B167" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C167" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="D167" s="8"/>
       <c r="E167" s="8"/>
-      <c r="F167" s="8"/>
-      <c r="G167" s="9"/>
-      <c r="H167" s="8"/>
-      <c r="I167" s="8"/>
+      <c r="F167" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="G167" s="9">
+        <v>29.12</v>
+      </c>
+      <c r="H167" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I167" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A168" s="8"/>
-      <c r="B168" s="8"/>
-      <c r="C168" s="8"/>
+      <c r="A168" s="7">
+        <v>45722</v>
+      </c>
+      <c r="B168" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C168" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="D168" s="8"/>
       <c r="E168" s="8"/>
-      <c r="F168" s="8"/>
-      <c r="G168" s="9"/>
-      <c r="H168" s="8"/>
-      <c r="I168" s="8"/>
+      <c r="F168" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="G168" s="9">
+        <v>5</v>
+      </c>
+      <c r="H168" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I168" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A169" s="8"/>
-      <c r="B169" s="8"/>
-      <c r="C169" s="8"/>
+      <c r="A169" s="7">
+        <v>45723</v>
+      </c>
+      <c r="B169" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C169" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="D169" s="8"/>
       <c r="E169" s="8"/>
-      <c r="F169" s="8"/>
-      <c r="G169" s="9"/>
-      <c r="H169" s="8"/>
-      <c r="I169" s="8"/>
+      <c r="F169" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="G169" s="9">
+        <v>6</v>
+      </c>
+      <c r="H169" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I169" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A170" s="8"/>
-      <c r="B170" s="8"/>
-      <c r="C170" s="8"/>
+      <c r="A170" s="7">
+        <v>45723</v>
+      </c>
+      <c r="B170" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C170" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="D170" s="8"/>
       <c r="E170" s="8"/>
-      <c r="F170" s="8"/>
-      <c r="G170" s="9"/>
-      <c r="H170" s="8"/>
-      <c r="I170" s="8"/>
+      <c r="F170" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G170" s="9">
+        <v>12.16</v>
+      </c>
+      <c r="H170" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I170" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A171" s="8"/>
-      <c r="B171" s="8"/>
-      <c r="C171" s="8"/>
-      <c r="D171" s="8"/>
-      <c r="E171" s="8"/>
-      <c r="F171" s="8"/>
-      <c r="G171" s="9"/>
-      <c r="H171" s="8"/>
-      <c r="I171" s="8"/>
+      <c r="A171" s="7">
+        <v>45724</v>
+      </c>
+      <c r="B171" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C171" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D171" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E171" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F171" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G171" s="9">
+        <v>11.11</v>
+      </c>
+      <c r="H171" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I171" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A172" s="8"/>
-      <c r="B172" s="8"/>
-      <c r="C172" s="8"/>
-      <c r="D172" s="8"/>
-      <c r="E172" s="8"/>
-      <c r="F172" s="8"/>
-      <c r="G172" s="9"/>
-      <c r="H172" s="8"/>
-      <c r="I172" s="8"/>
+      <c r="A172" s="7">
+        <v>45724</v>
+      </c>
+      <c r="B172" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C172" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D172" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E172" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F172" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="G172" s="9">
+        <v>28</v>
+      </c>
+      <c r="H172" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I172" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A173" s="8"/>
-      <c r="B173" s="8"/>
-      <c r="C173" s="8"/>
-      <c r="D173" s="8"/>
-      <c r="E173" s="8"/>
-      <c r="F173" s="8"/>
-      <c r="G173" s="9"/>
-      <c r="H173" s="8"/>
-      <c r="I173" s="8"/>
+      <c r="A173" s="7">
+        <v>45724</v>
+      </c>
+      <c r="B173" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C173" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D173" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E173" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F173" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G173" s="9">
+        <v>1.2</v>
+      </c>
+      <c r="H173" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I173" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A174" s="8"/>
-      <c r="B174" s="8"/>
-      <c r="C174" s="8"/>
-      <c r="D174" s="8"/>
-      <c r="E174" s="8"/>
-      <c r="F174" s="8"/>
-      <c r="G174" s="9"/>
-      <c r="H174" s="8"/>
-      <c r="I174" s="8"/>
+      <c r="A174" s="7">
+        <v>45724</v>
+      </c>
+      <c r="B174" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C174" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D174" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E174" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F174" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="G174" s="9">
+        <v>12</v>
+      </c>
+      <c r="H174" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I174" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A175" s="8"/>
-      <c r="B175" s="8"/>
-      <c r="C175" s="8"/>
-      <c r="D175" s="8"/>
-      <c r="E175" s="8"/>
-      <c r="F175" s="8"/>
-      <c r="G175" s="9"/>
-      <c r="H175" s="8"/>
-      <c r="I175" s="8"/>
+      <c r="A175" s="7">
+        <v>45724</v>
+      </c>
+      <c r="B175" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C175" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D175" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E175" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F175" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="G175" s="9">
+        <v>4.5</v>
+      </c>
+      <c r="H175" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I175" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A176" s="8"/>
-      <c r="B176" s="8"/>
-      <c r="C176" s="8"/>
-      <c r="D176" s="8"/>
-      <c r="E176" s="8"/>
-      <c r="F176" s="8"/>
-      <c r="G176" s="9"/>
-      <c r="H176" s="8"/>
-      <c r="I176" s="8"/>
+      <c r="A176" s="7">
+        <v>45724</v>
+      </c>
+      <c r="B176" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C176" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D176" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E176" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F176" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="G176" s="9">
+        <v>11</v>
+      </c>
+      <c r="H176" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I176" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A177" s="7">
+        <v>45725</v>
+      </c>
+      <c r="B177" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C177" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D177" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E177" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F177" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G177" s="9">
+        <v>4</v>
+      </c>
+      <c r="H177" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I177" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A178" s="7">
+        <v>45725</v>
+      </c>
+      <c r="B178" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C178" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D178" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E178" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F178" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="G178" s="9">
+        <v>15</v>
+      </c>
+      <c r="H178" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I178" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A179" s="7">
+        <v>45725</v>
+      </c>
+      <c r="B179" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C179" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D179" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E179" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F179" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="G179" s="9">
+        <v>19.5</v>
+      </c>
+      <c r="H179" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I179" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A180" s="7">
+        <v>45725</v>
+      </c>
+      <c r="B180" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C180" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D180" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="E180" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F180" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="G180" s="9">
+        <v>18</v>
+      </c>
+      <c r="H180" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I180" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A181" s="7">
+        <v>45725</v>
+      </c>
+      <c r="B181" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C181" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D181" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E181" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F181" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="G181" s="9">
+        <v>12.5</v>
+      </c>
+      <c r="H181" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I181" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A182" s="7">
+        <v>45725</v>
+      </c>
+      <c r="B182" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C182" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D182" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E182" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F182" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="G182" s="9">
+        <v>10</v>
+      </c>
+      <c r="H182" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I182" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A183" s="7">
+        <v>45726</v>
+      </c>
+      <c r="B183" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C183" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D183" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="E183" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F183" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="G183" s="9">
+        <v>2</v>
+      </c>
+      <c r="H183" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I183" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A184" s="7">
+        <v>45726</v>
+      </c>
+      <c r="B184" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C184" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D184" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E184" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F184" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="G184" s="9">
+        <v>5</v>
+      </c>
+      <c r="H184" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I184" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A185" s="7">
+        <v>45726</v>
+      </c>
+      <c r="B185" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C185" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D185" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E185" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F185" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="G185" s="9">
+        <v>13.5</v>
+      </c>
+      <c r="H185" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I185" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A186" s="7">
+        <v>45726</v>
+      </c>
+      <c r="B186" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C186" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D186" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E186" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F186" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="G186" s="9">
+        <v>3</v>
+      </c>
+      <c r="H186" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I186" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A187" s="7">
+        <v>45726</v>
+      </c>
+      <c r="B187" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C187" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D187" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E187" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F187" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="G187" s="9">
+        <v>17</v>
+      </c>
+      <c r="H187" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I187" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A188" s="7">
+        <v>45727</v>
+      </c>
+      <c r="B188" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C188" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D188" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E188" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F188" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="G188" s="9">
+        <v>5.2</v>
+      </c>
+      <c r="H188" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I188" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A189" s="7">
+        <v>45727</v>
+      </c>
+      <c r="B189" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C189" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D189" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E189" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F189" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="G189" s="9">
+        <v>10</v>
+      </c>
+      <c r="H189" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I189" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A190" s="7">
+        <v>45727</v>
+      </c>
+      <c r="B190" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C190" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D190" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E190" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F190" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="G190" s="9">
+        <v>4</v>
+      </c>
+      <c r="H190" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I190" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A191" s="7">
+        <v>45727</v>
+      </c>
+      <c r="B191" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C191" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D191" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="E191" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F191" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="G191" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="H191" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I191" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A192" s="7">
+        <v>45727</v>
+      </c>
+      <c r="B192" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C192" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D192" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E192" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F192" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="G192" s="9">
+        <v>21</v>
+      </c>
+      <c r="H192" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I192" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A193" s="7">
+        <v>45727</v>
+      </c>
+      <c r="B193" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C193" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D193" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E193" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F193" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="G193" s="9">
+        <v>2.75</v>
+      </c>
+      <c r="H193" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I193" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A194" s="7">
+        <v>45727</v>
+      </c>
+      <c r="B194" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C194" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D194" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E194" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F194" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G194" s="9">
+        <v>4.5</v>
+      </c>
+      <c r="H194" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I194" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A195" s="7">
+        <v>45728</v>
+      </c>
+      <c r="B195" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C195" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D195" s="8"/>
+      <c r="E195" s="8"/>
+      <c r="F195" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G195" s="9">
+        <v>12.26</v>
+      </c>
+      <c r="H195" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I195" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A196" s="7">
+        <v>45728</v>
+      </c>
+      <c r="B196" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C196" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D196" s="8"/>
+      <c r="E196" s="8"/>
+      <c r="F196" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="G196" s="9">
+        <v>31.66</v>
+      </c>
+      <c r="H196" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I196" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A197" s="8"/>
+      <c r="B197" s="8"/>
+      <c r="C197" s="8"/>
+      <c r="D197" s="8"/>
+      <c r="E197" s="8"/>
+      <c r="F197" s="8"/>
+      <c r="G197" s="9"/>
+      <c r="H197" s="8"/>
+      <c r="I197" s="8"/>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A198" s="8"/>
+      <c r="B198" s="8"/>
+      <c r="C198" s="8"/>
+      <c r="D198" s="8"/>
+      <c r="E198" s="8"/>
+      <c r="F198" s="8"/>
+      <c r="G198" s="9"/>
+      <c r="H198" s="8"/>
+      <c r="I198" s="8"/>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A199" s="8"/>
+      <c r="B199" s="8"/>
+      <c r="C199" s="8"/>
+      <c r="D199" s="8"/>
+      <c r="E199" s="8"/>
+      <c r="F199" s="8"/>
+      <c r="G199" s="9"/>
+      <c r="H199" s="8"/>
+      <c r="I199" s="8"/>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A200" s="8"/>
+      <c r="B200" s="8"/>
+      <c r="C200" s="8"/>
+      <c r="D200" s="8"/>
+      <c r="E200" s="8"/>
+      <c r="F200" s="8"/>
+      <c r="G200" s="9"/>
+      <c r="H200" s="8"/>
+      <c r="I200" s="8"/>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A201" s="8"/>
+      <c r="B201" s="8"/>
+      <c r="C201" s="8"/>
+      <c r="D201" s="8"/>
+      <c r="E201" s="8"/>
+      <c r="F201" s="8"/>
+      <c r="G201" s="9"/>
+      <c r="H201" s="8"/>
+      <c r="I201" s="8"/>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A202" s="8"/>
+      <c r="B202" s="8"/>
+      <c r="C202" s="8"/>
+      <c r="D202" s="8"/>
+      <c r="E202" s="8"/>
+      <c r="F202" s="8"/>
+      <c r="G202" s="9"/>
+      <c r="H202" s="8"/>
+      <c r="I202" s="8"/>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A203" s="8"/>
+      <c r="B203" s="8"/>
+      <c r="C203" s="8"/>
+      <c r="D203" s="8"/>
+      <c r="E203" s="8"/>
+      <c r="F203" s="8"/>
+      <c r="G203" s="9"/>
+      <c r="H203" s="8"/>
+      <c r="I203" s="8"/>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A204" s="8"/>
+      <c r="B204" s="8"/>
+      <c r="C204" s="8"/>
+      <c r="D204" s="8"/>
+      <c r="E204" s="8"/>
+      <c r="F204" s="8"/>
+      <c r="G204" s="9"/>
+      <c r="H204" s="8"/>
+      <c r="I204" s="8"/>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A205" s="8"/>
+      <c r="B205" s="8"/>
+      <c r="C205" s="8"/>
+      <c r="D205" s="8"/>
+      <c r="E205" s="8"/>
+      <c r="F205" s="8"/>
+      <c r="G205" s="9"/>
+      <c r="H205" s="8"/>
+      <c r="I205" s="8"/>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A206" s="8"/>
+      <c r="B206" s="8"/>
+      <c r="C206" s="8"/>
+      <c r="D206" s="8"/>
+      <c r="E206" s="8"/>
+      <c r="F206" s="8"/>
+      <c r="G206" s="9"/>
+      <c r="H206" s="8"/>
+      <c r="I206" s="8"/>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A207" s="8"/>
+      <c r="B207" s="8"/>
+      <c r="C207" s="8"/>
+      <c r="D207" s="8"/>
+      <c r="E207" s="8"/>
+      <c r="F207" s="8"/>
+      <c r="G207" s="9"/>
+      <c r="H207" s="8"/>
+      <c r="I207" s="8"/>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A208" s="8"/>
+      <c r="B208" s="8"/>
+      <c r="C208" s="8"/>
+      <c r="D208" s="8"/>
+      <c r="E208" s="8"/>
+      <c r="F208" s="8"/>
+      <c r="G208" s="9"/>
+      <c r="H208" s="8"/>
+      <c r="I208" s="8"/>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A209" s="8"/>
+      <c r="B209" s="8"/>
+      <c r="C209" s="8"/>
+      <c r="D209" s="8"/>
+      <c r="E209" s="8"/>
+      <c r="F209" s="8"/>
+      <c r="G209" s="9"/>
+      <c r="H209" s="8"/>
+      <c r="I209" s="8"/>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A210" s="8"/>
+      <c r="B210" s="8"/>
+      <c r="C210" s="8"/>
+      <c r="D210" s="8"/>
+      <c r="E210" s="8"/>
+      <c r="F210" s="8"/>
+      <c r="G210" s="9"/>
+      <c r="H210" s="8"/>
+      <c r="I210" s="8"/>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A211" s="8"/>
+      <c r="B211" s="8"/>
+      <c r="C211" s="8"/>
+      <c r="D211" s="8"/>
+      <c r="E211" s="8"/>
+      <c r="F211" s="8"/>
+      <c r="G211" s="9"/>
+      <c r="H211" s="8"/>
+      <c r="I211" s="8"/>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A212" s="8"/>
+      <c r="B212" s="8"/>
+      <c r="C212" s="8"/>
+      <c r="D212" s="8"/>
+      <c r="E212" s="8"/>
+      <c r="F212" s="8"/>
+      <c r="G212" s="9"/>
+      <c r="H212" s="8"/>
+      <c r="I212" s="8"/>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A213" s="8"/>
+      <c r="B213" s="8"/>
+      <c r="C213" s="8"/>
+      <c r="D213" s="8"/>
+      <c r="E213" s="8"/>
+      <c r="F213" s="8"/>
+      <c r="G213" s="9"/>
+      <c r="H213" s="8"/>
+      <c r="I213" s="8"/>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A214" s="8"/>
+      <c r="B214" s="8"/>
+      <c r="C214" s="8"/>
+      <c r="D214" s="8"/>
+      <c r="E214" s="8"/>
+      <c r="F214" s="8"/>
+      <c r="G214" s="9"/>
+      <c r="H214" s="8"/>
+      <c r="I214" s="8"/>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A215" s="8"/>
+      <c r="B215" s="8"/>
+      <c r="C215" s="8"/>
+      <c r="D215" s="8"/>
+      <c r="E215" s="8"/>
+      <c r="F215" s="8"/>
+      <c r="G215" s="9"/>
+      <c r="H215" s="8"/>
+      <c r="I215" s="8"/>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A216" s="8"/>
+      <c r="B216" s="8"/>
+      <c r="C216" s="8"/>
+      <c r="D216" s="8"/>
+      <c r="E216" s="8"/>
+      <c r="F216" s="8"/>
+      <c r="G216" s="9"/>
+      <c r="H216" s="8"/>
+      <c r="I216" s="8"/>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A217" s="8"/>
+      <c r="B217" s="8"/>
+      <c r="C217" s="8"/>
+      <c r="D217" s="8"/>
+      <c r="E217" s="8"/>
+      <c r="F217" s="8"/>
+      <c r="G217" s="9"/>
+      <c r="H217" s="8"/>
+      <c r="I217" s="8"/>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A218" s="8"/>
+      <c r="B218" s="8"/>
+      <c r="C218" s="8"/>
+      <c r="D218" s="8"/>
+      <c r="E218" s="8"/>
+      <c r="F218" s="8"/>
+      <c r="G218" s="9"/>
+      <c r="H218" s="8"/>
+      <c r="I218" s="8"/>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A219" s="8"/>
+      <c r="B219" s="8"/>
+      <c r="C219" s="8"/>
+      <c r="D219" s="8"/>
+      <c r="E219" s="8"/>
+      <c r="F219" s="8"/>
+      <c r="G219" s="9"/>
+      <c r="H219" s="8"/>
+      <c r="I219" s="8"/>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A220" s="8"/>
+      <c r="B220" s="8"/>
+      <c r="C220" s="8"/>
+      <c r="D220" s="8"/>
+      <c r="E220" s="8"/>
+      <c r="F220" s="8"/>
+      <c r="G220" s="9"/>
+      <c r="H220" s="8"/>
+      <c r="I220" s="8"/>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A221" s="8"/>
+      <c r="B221" s="8"/>
+      <c r="C221" s="8"/>
+      <c r="D221" s="8"/>
+      <c r="E221" s="8"/>
+      <c r="F221" s="8"/>
+      <c r="G221" s="9"/>
+      <c r="H221" s="8"/>
+      <c r="I221" s="8"/>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A222" s="8"/>
+      <c r="B222" s="8"/>
+      <c r="C222" s="8"/>
+      <c r="D222" s="8"/>
+      <c r="E222" s="8"/>
+      <c r="F222" s="8"/>
+      <c r="G222" s="9"/>
+      <c r="H222" s="8"/>
+      <c r="I222" s="8"/>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A223" s="8"/>
+      <c r="B223" s="8"/>
+      <c r="C223" s="8"/>
+      <c r="D223" s="8"/>
+      <c r="E223" s="8"/>
+      <c r="F223" s="8"/>
+      <c r="G223" s="9"/>
+      <c r="H223" s="8"/>
+      <c r="I223" s="8"/>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A224" s="8"/>
+      <c r="B224" s="8"/>
+      <c r="C224" s="8"/>
+      <c r="D224" s="8"/>
+      <c r="E224" s="8"/>
+      <c r="F224" s="8"/>
+      <c r="G224" s="9"/>
+      <c r="H224" s="8"/>
+      <c r="I224" s="8"/>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A225" s="8"/>
+      <c r="B225" s="8"/>
+      <c r="C225" s="8"/>
+      <c r="D225" s="8"/>
+      <c r="E225" s="8"/>
+      <c r="F225" s="8"/>
+      <c r="G225" s="9"/>
+      <c r="H225" s="8"/>
+      <c r="I225" s="8"/>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A226" s="8"/>
+      <c r="B226" s="8"/>
+      <c r="C226" s="8"/>
+      <c r="D226" s="8"/>
+      <c r="E226" s="8"/>
+      <c r="F226" s="8"/>
+      <c r="G226" s="9"/>
+      <c r="H226" s="8"/>
+      <c r="I226" s="8"/>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A227" s="8"/>
+      <c r="B227" s="8"/>
+      <c r="C227" s="8"/>
+      <c r="D227" s="8"/>
+      <c r="E227" s="8"/>
+      <c r="F227" s="8"/>
+      <c r="G227" s="9"/>
+      <c r="H227" s="8"/>
+      <c r="I227" s="8"/>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A228" s="8"/>
+      <c r="B228" s="8"/>
+      <c r="C228" s="8"/>
+      <c r="D228" s="8"/>
+      <c r="E228" s="8"/>
+      <c r="F228" s="8"/>
+      <c r="G228" s="9"/>
+      <c r="H228" s="8"/>
+      <c r="I228" s="8"/>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A229" s="8"/>
+      <c r="B229" s="8"/>
+      <c r="C229" s="8"/>
+      <c r="D229" s="8"/>
+      <c r="E229" s="8"/>
+      <c r="F229" s="8"/>
+      <c r="G229" s="9"/>
+      <c r="H229" s="8"/>
+      <c r="I229" s="8"/>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A230" s="8"/>
+      <c r="B230" s="8"/>
+      <c r="C230" s="8"/>
+      <c r="D230" s="8"/>
+      <c r="E230" s="8"/>
+      <c r="F230" s="8"/>
+      <c r="G230" s="9"/>
+      <c r="H230" s="8"/>
+      <c r="I230" s="8"/>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A231" s="8"/>
+      <c r="B231" s="8"/>
+      <c r="C231" s="8"/>
+      <c r="D231" s="8"/>
+      <c r="E231" s="8"/>
+      <c r="F231" s="8"/>
+      <c r="G231" s="9"/>
+      <c r="H231" s="8"/>
+      <c r="I231" s="8"/>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A232" s="8"/>
+      <c r="B232" s="8"/>
+      <c r="C232" s="8"/>
+      <c r="D232" s="8"/>
+      <c r="E232" s="8"/>
+      <c r="F232" s="8"/>
+      <c r="G232" s="9"/>
+      <c r="H232" s="8"/>
+      <c r="I232" s="8"/>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A233" s="8"/>
+      <c r="B233" s="8"/>
+      <c r="C233" s="8"/>
+      <c r="D233" s="8"/>
+      <c r="E233" s="8"/>
+      <c r="F233" s="8"/>
+      <c r="G233" s="9"/>
+      <c r="H233" s="8"/>
+      <c r="I233" s="8"/>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A234" s="8"/>
+      <c r="B234" s="8"/>
+      <c r="C234" s="8"/>
+      <c r="D234" s="8"/>
+      <c r="E234" s="8"/>
+      <c r="F234" s="8"/>
+      <c r="G234" s="9"/>
+      <c r="H234" s="8"/>
+      <c r="I234" s="8"/>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A235" s="8"/>
+      <c r="B235" s="8"/>
+      <c r="C235" s="8"/>
+      <c r="D235" s="8"/>
+      <c r="E235" s="8"/>
+      <c r="F235" s="8"/>
+      <c r="G235" s="9"/>
+      <c r="H235" s="8"/>
+      <c r="I235" s="8"/>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A236" s="8"/>
+      <c r="B236" s="8"/>
+      <c r="C236" s="8"/>
+      <c r="D236" s="8"/>
+      <c r="E236" s="8"/>
+      <c r="F236" s="8"/>
+      <c r="G236" s="9"/>
+      <c r="H236" s="8"/>
+      <c r="I236" s="8"/>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A237" s="8"/>
+      <c r="B237" s="8"/>
+      <c r="C237" s="8"/>
+      <c r="D237" s="8"/>
+      <c r="E237" s="8"/>
+      <c r="F237" s="8"/>
+      <c r="G237" s="9"/>
+      <c r="H237" s="8"/>
+      <c r="I237" s="8"/>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A238" s="8"/>
+      <c r="B238" s="8"/>
+      <c r="C238" s="8"/>
+      <c r="D238" s="8"/>
+      <c r="E238" s="8"/>
+      <c r="F238" s="8"/>
+      <c r="G238" s="9"/>
+      <c r="H238" s="8"/>
+      <c r="I238" s="8"/>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A239" s="8"/>
+      <c r="B239" s="8"/>
+      <c r="C239" s="8"/>
+      <c r="D239" s="8"/>
+      <c r="E239" s="8"/>
+      <c r="F239" s="8"/>
+      <c r="G239" s="9"/>
+      <c r="H239" s="8"/>
+      <c r="I239" s="8"/>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A240" s="8"/>
+      <c r="B240" s="8"/>
+      <c r="C240" s="8"/>
+      <c r="D240" s="8"/>
+      <c r="E240" s="8"/>
+      <c r="F240" s="8"/>
+      <c r="G240" s="9"/>
+      <c r="H240" s="8"/>
+      <c r="I240" s="8"/>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A241" s="8"/>
+      <c r="B241" s="8"/>
+      <c r="C241" s="8"/>
+      <c r="D241" s="8"/>
+      <c r="E241" s="8"/>
+      <c r="F241" s="8"/>
+      <c r="G241" s="9"/>
+      <c r="H241" s="8"/>
+      <c r="I241" s="8"/>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A242" s="8"/>
+      <c r="B242" s="8"/>
+      <c r="C242" s="8"/>
+      <c r="D242" s="8"/>
+      <c r="E242" s="8"/>
+      <c r="F242" s="8"/>
+      <c r="G242" s="9"/>
+      <c r="H242" s="8"/>
+      <c r="I242" s="8"/>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A243" s="8"/>
+      <c r="B243" s="8"/>
+      <c r="C243" s="8"/>
+      <c r="D243" s="8"/>
+      <c r="E243" s="8"/>
+      <c r="F243" s="8"/>
+      <c r="G243" s="9"/>
+      <c r="H243" s="8"/>
+      <c r="I243" s="8"/>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A244" s="8"/>
+      <c r="B244" s="8"/>
+      <c r="C244" s="8"/>
+      <c r="D244" s="8"/>
+      <c r="E244" s="8"/>
+      <c r="F244" s="8"/>
+      <c r="G244" s="9"/>
+      <c r="H244" s="8"/>
+      <c r="I244" s="8"/>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A245" s="8"/>
+      <c r="B245" s="8"/>
+      <c r="C245" s="8"/>
+      <c r="D245" s="8"/>
+      <c r="E245" s="8"/>
+      <c r="F245" s="8"/>
+      <c r="G245" s="9"/>
+      <c r="H245" s="8"/>
+      <c r="I245" s="8"/>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A246" s="8"/>
+      <c r="B246" s="8"/>
+      <c r="C246" s="8"/>
+      <c r="D246" s="8"/>
+      <c r="E246" s="8"/>
+      <c r="F246" s="8"/>
+      <c r="G246" s="9"/>
+      <c r="H246" s="8"/>
+      <c r="I246" s="8"/>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A247" s="8"/>
+      <c r="B247" s="8"/>
+      <c r="C247" s="8"/>
+      <c r="D247" s="8"/>
+      <c r="E247" s="8"/>
+      <c r="F247" s="8"/>
+      <c r="G247" s="9"/>
+      <c r="H247" s="8"/>
+      <c r="I247" s="8"/>
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A248" s="8"/>
+      <c r="B248" s="8"/>
+      <c r="C248" s="8"/>
+      <c r="D248" s="8"/>
+      <c r="E248" s="8"/>
+      <c r="F248" s="8"/>
+      <c r="G248" s="9"/>
+      <c r="H248" s="8"/>
+      <c r="I248" s="8"/>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A249" s="8"/>
+      <c r="B249" s="8"/>
+      <c r="C249" s="8"/>
+      <c r="D249" s="8"/>
+      <c r="E249" s="8"/>
+      <c r="F249" s="8"/>
+      <c r="G249" s="9"/>
+      <c r="H249" s="8"/>
+      <c r="I249" s="8"/>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A250" s="8"/>
+      <c r="B250" s="8"/>
+      <c r="C250" s="8"/>
+      <c r="D250" s="8"/>
+      <c r="E250" s="8"/>
+      <c r="F250" s="8"/>
+      <c r="G250" s="9"/>
+      <c r="H250" s="8"/>
+      <c r="I250" s="8"/>
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A251" s="8"/>
+      <c r="B251" s="8"/>
+      <c r="C251" s="8"/>
+      <c r="D251" s="8"/>
+      <c r="E251" s="8"/>
+      <c r="F251" s="8"/>
+      <c r="G251" s="9"/>
+      <c r="H251" s="8"/>
+      <c r="I251" s="8"/>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A252" s="8"/>
+      <c r="B252" s="8"/>
+      <c r="C252" s="8"/>
+      <c r="D252" s="8"/>
+      <c r="E252" s="8"/>
+      <c r="F252" s="8"/>
+      <c r="G252" s="9"/>
+      <c r="H252" s="8"/>
+      <c r="I252" s="8"/>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A253" s="8"/>
+      <c r="B253" s="8"/>
+      <c r="C253" s="8"/>
+      <c r="D253" s="8"/>
+      <c r="E253" s="8"/>
+      <c r="F253" s="8"/>
+      <c r="G253" s="9"/>
+      <c r="H253" s="8"/>
+      <c r="I253" s="8"/>
+    </row>
+    <row r="254" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A254" s="8"/>
+      <c r="B254" s="8"/>
+      <c r="C254" s="8"/>
+      <c r="D254" s="8"/>
+      <c r="E254" s="8"/>
+      <c r="F254" s="8"/>
+      <c r="G254" s="9"/>
+      <c r="H254" s="8"/>
+      <c r="I254" s="8"/>
+    </row>
+    <row r="255" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A255" s="8"/>
+      <c r="B255" s="8"/>
+      <c r="C255" s="8"/>
+      <c r="D255" s="8"/>
+      <c r="E255" s="8"/>
+      <c r="F255" s="8"/>
+      <c r="G255" s="9"/>
+      <c r="H255" s="8"/>
+      <c r="I255" s="8"/>
+    </row>
+    <row r="256" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A256" s="8"/>
+      <c r="B256" s="8"/>
+      <c r="C256" s="8"/>
+      <c r="D256" s="8"/>
+      <c r="E256" s="8"/>
+      <c r="F256" s="8"/>
+      <c r="G256" s="9"/>
+      <c r="H256" s="8"/>
+      <c r="I256" s="8"/>
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A257" s="8"/>
+      <c r="B257" s="8"/>
+      <c r="C257" s="8"/>
+      <c r="D257" s="8"/>
+      <c r="E257" s="8"/>
+      <c r="F257" s="8"/>
+      <c r="G257" s="9"/>
+      <c r="H257" s="8"/>
+      <c r="I257" s="8"/>
+    </row>
+    <row r="258" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A258" s="8"/>
+      <c r="B258" s="8"/>
+      <c r="C258" s="8"/>
+      <c r="D258" s="8"/>
+      <c r="E258" s="8"/>
+      <c r="F258" s="8"/>
+      <c r="G258" s="9"/>
+      <c r="H258" s="8"/>
+      <c r="I258" s="8"/>
+    </row>
+    <row r="259" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A259" s="8"/>
+      <c r="B259" s="8"/>
+      <c r="C259" s="8"/>
+      <c r="D259" s="8"/>
+      <c r="E259" s="8"/>
+      <c r="F259" s="8"/>
+      <c r="G259" s="9"/>
+      <c r="H259" s="8"/>
+      <c r="I259" s="8"/>
+    </row>
+    <row r="260" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A260" s="8"/>
+      <c r="B260" s="8"/>
+      <c r="C260" s="8"/>
+      <c r="D260" s="8"/>
+      <c r="E260" s="8"/>
+      <c r="F260" s="8"/>
+      <c r="G260" s="9"/>
+      <c r="H260" s="8"/>
+      <c r="I260" s="8"/>
+    </row>
+    <row r="261" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A261" s="8"/>
+      <c r="B261" s="8"/>
+      <c r="C261" s="8"/>
+      <c r="D261" s="8"/>
+      <c r="E261" s="8"/>
+      <c r="F261" s="8"/>
+      <c r="G261" s="9"/>
+      <c r="H261" s="8"/>
+      <c r="I261" s="8"/>
+    </row>
+    <row r="262" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A262" s="8"/>
+      <c r="B262" s="8"/>
+      <c r="C262" s="8"/>
+      <c r="D262" s="8"/>
+      <c r="E262" s="8"/>
+      <c r="F262" s="8"/>
+      <c r="G262" s="9"/>
+      <c r="H262" s="8"/>
+      <c r="I262" s="8"/>
+    </row>
+    <row r="263" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A263" s="8"/>
+      <c r="B263" s="8"/>
+      <c r="C263" s="8"/>
+      <c r="D263" s="8"/>
+      <c r="E263" s="8"/>
+      <c r="F263" s="8"/>
+      <c r="G263" s="9"/>
+      <c r="H263" s="8"/>
+      <c r="I263" s="8"/>
+    </row>
+    <row r="264" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A264" s="8"/>
+      <c r="B264" s="8"/>
+      <c r="C264" s="8"/>
+      <c r="D264" s="8"/>
+      <c r="E264" s="8"/>
+      <c r="F264" s="8"/>
+      <c r="G264" s="9"/>
+      <c r="H264" s="8"/>
+      <c r="I264" s="8"/>
+    </row>
+    <row r="265" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A265" s="8"/>
+      <c r="B265" s="8"/>
+      <c r="C265" s="8"/>
+      <c r="D265" s="8"/>
+      <c r="E265" s="8"/>
+      <c r="F265" s="8"/>
+      <c r="G265" s="9"/>
+      <c r="H265" s="8"/>
+      <c r="I265" s="8"/>
+    </row>
+    <row r="266" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A266" s="8"/>
+      <c r="B266" s="8"/>
+      <c r="C266" s="8"/>
+      <c r="D266" s="8"/>
+      <c r="E266" s="8"/>
+      <c r="F266" s="8"/>
+      <c r="G266" s="9"/>
+      <c r="H266" s="8"/>
+      <c r="I266" s="8"/>
+    </row>
+    <row r="267" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A267" s="8"/>
+      <c r="B267" s="8"/>
+      <c r="C267" s="8"/>
+      <c r="D267" s="8"/>
+      <c r="E267" s="8"/>
+      <c r="F267" s="8"/>
+      <c r="G267" s="9"/>
+      <c r="H267" s="8"/>
+      <c r="I267" s="8"/>
+    </row>
+    <row r="268" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A268" s="8"/>
+      <c r="B268" s="8"/>
+      <c r="C268" s="8"/>
+      <c r="D268" s="8"/>
+      <c r="E268" s="8"/>
+      <c r="F268" s="8"/>
+      <c r="G268" s="9"/>
+      <c r="H268" s="8"/>
+      <c r="I268" s="8"/>
+    </row>
+    <row r="269" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A269" s="8"/>
+      <c r="B269" s="8"/>
+      <c r="C269" s="8"/>
+      <c r="D269" s="8"/>
+      <c r="E269" s="8"/>
+      <c r="F269" s="8"/>
+      <c r="G269" s="9"/>
+      <c r="H269" s="8"/>
+      <c r="I269" s="8"/>
+    </row>
+    <row r="270" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A270" s="8"/>
+      <c r="B270" s="8"/>
+      <c r="C270" s="8"/>
+      <c r="D270" s="8"/>
+      <c r="E270" s="8"/>
+      <c r="F270" s="8"/>
+      <c r="G270" s="9"/>
+      <c r="H270" s="8"/>
+      <c r="I270" s="8"/>
+    </row>
+    <row r="271" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A271" s="8"/>
+      <c r="B271" s="8"/>
+      <c r="C271" s="8"/>
+      <c r="D271" s="8"/>
+      <c r="E271" s="8"/>
+      <c r="F271" s="8"/>
+      <c r="G271" s="9"/>
+      <c r="H271" s="8"/>
+      <c r="I271" s="8"/>
+    </row>
+    <row r="272" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A272" s="8"/>
+      <c r="B272" s="8"/>
+      <c r="C272" s="8"/>
+      <c r="D272" s="8"/>
+      <c r="E272" s="8"/>
+      <c r="F272" s="8"/>
+      <c r="G272" s="9"/>
+      <c r="H272" s="8"/>
+      <c r="I272" s="8"/>
+    </row>
+    <row r="273" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A273" s="8"/>
+      <c r="B273" s="8"/>
+      <c r="C273" s="8"/>
+      <c r="D273" s="8"/>
+      <c r="E273" s="8"/>
+      <c r="F273" s="8"/>
+      <c r="G273" s="9"/>
+      <c r="H273" s="8"/>
+      <c r="I273" s="8"/>
+    </row>
+    <row r="274" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A274" s="8"/>
+      <c r="B274" s="8"/>
+      <c r="C274" s="8"/>
+      <c r="D274" s="8"/>
+      <c r="E274" s="8"/>
+      <c r="F274" s="8"/>
+      <c r="G274" s="9"/>
+      <c r="H274" s="8"/>
+      <c r="I274" s="8"/>
+    </row>
+    <row r="275" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A275" s="8"/>
+      <c r="B275" s="8"/>
+      <c r="C275" s="8"/>
+      <c r="D275" s="8"/>
+      <c r="E275" s="8"/>
+      <c r="F275" s="8"/>
+      <c r="G275" s="9"/>
+      <c r="H275" s="8"/>
+      <c r="I275" s="8"/>
+    </row>
+    <row r="276" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A276" s="8"/>
+      <c r="B276" s="8"/>
+      <c r="C276" s="8"/>
+      <c r="D276" s="8"/>
+      <c r="E276" s="8"/>
+      <c r="F276" s="8"/>
+      <c r="G276" s="9"/>
+      <c r="H276" s="8"/>
+      <c r="I276" s="8"/>
+    </row>
+    <row r="277" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A277" s="8"/>
+      <c r="B277" s="8"/>
+      <c r="C277" s="8"/>
+      <c r="D277" s="8"/>
+      <c r="E277" s="8"/>
+      <c r="F277" s="8"/>
+      <c r="G277" s="9"/>
+      <c r="H277" s="8"/>
+      <c r="I277" s="8"/>
+    </row>
+    <row r="278" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A278" s="8"/>
+      <c r="B278" s="8"/>
+      <c r="C278" s="8"/>
+      <c r="D278" s="8"/>
+      <c r="E278" s="8"/>
+      <c r="F278" s="8"/>
+      <c r="G278" s="9"/>
+      <c r="H278" s="8"/>
+      <c r="I278" s="8"/>
+    </row>
+    <row r="279" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A279" s="8"/>
+      <c r="B279" s="8"/>
+      <c r="C279" s="8"/>
+      <c r="D279" s="8"/>
+      <c r="E279" s="8"/>
+      <c r="F279" s="8"/>
+      <c r="G279" s="9"/>
+      <c r="H279" s="8"/>
+      <c r="I279" s="8"/>
+    </row>
+    <row r="280" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A280" s="8"/>
+      <c r="B280" s="8"/>
+      <c r="C280" s="8"/>
+      <c r="D280" s="8"/>
+      <c r="E280" s="8"/>
+      <c r="F280" s="8"/>
+      <c r="G280" s="9"/>
+      <c r="H280" s="8"/>
+      <c r="I280" s="8"/>
+    </row>
+    <row r="281" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A281" s="8"/>
+      <c r="B281" s="8"/>
+      <c r="C281" s="8"/>
+      <c r="D281" s="8"/>
+      <c r="E281" s="8"/>
+      <c r="F281" s="8"/>
+      <c r="G281" s="9"/>
+      <c r="H281" s="8"/>
+      <c r="I281" s="8"/>
+    </row>
+    <row r="282" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A282" s="8"/>
+      <c r="B282" s="8"/>
+      <c r="C282" s="8"/>
+      <c r="D282" s="8"/>
+      <c r="E282" s="8"/>
+      <c r="F282" s="8"/>
+      <c r="G282" s="9"/>
+      <c r="H282" s="8"/>
+      <c r="I282" s="8"/>
+    </row>
+    <row r="283" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A283" s="8"/>
+      <c r="B283" s="8"/>
+      <c r="C283" s="8"/>
+      <c r="D283" s="8"/>
+      <c r="E283" s="8"/>
+      <c r="F283" s="8"/>
+      <c r="G283" s="9"/>
+      <c r="H283" s="8"/>
+      <c r="I283" s="8"/>
+    </row>
+    <row r="284" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A284" s="8"/>
+      <c r="B284" s="8"/>
+      <c r="C284" s="8"/>
+      <c r="D284" s="8"/>
+      <c r="E284" s="8"/>
+      <c r="F284" s="8"/>
+      <c r="G284" s="9"/>
+      <c r="H284" s="8"/>
+      <c r="I284" s="8"/>
+    </row>
+    <row r="285" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A285" s="8"/>
+      <c r="B285" s="8"/>
+      <c r="C285" s="8"/>
+      <c r="D285" s="8"/>
+      <c r="E285" s="8"/>
+      <c r="F285" s="8"/>
+      <c r="G285" s="9"/>
+      <c r="H285" s="8"/>
+      <c r="I285" s="8"/>
+    </row>
+    <row r="286" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A286" s="8"/>
+      <c r="B286" s="8"/>
+      <c r="C286" s="8"/>
+      <c r="D286" s="8"/>
+      <c r="E286" s="8"/>
+      <c r="F286" s="8"/>
+      <c r="G286" s="9"/>
+      <c r="H286" s="8"/>
+      <c r="I286" s="8"/>
+    </row>
+    <row r="287" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A287" s="8"/>
+      <c r="B287" s="8"/>
+      <c r="C287" s="8"/>
+      <c r="D287" s="8"/>
+      <c r="E287" s="8"/>
+      <c r="F287" s="8"/>
+      <c r="G287" s="9"/>
+      <c r="H287" s="8"/>
+      <c r="I287" s="8"/>
+    </row>
+    <row r="288" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A288" s="8"/>
+      <c r="B288" s="8"/>
+      <c r="C288" s="8"/>
+      <c r="D288" s="8"/>
+      <c r="E288" s="8"/>
+      <c r="F288" s="8"/>
+      <c r="G288" s="9"/>
+      <c r="H288" s="8"/>
+      <c r="I288" s="8"/>
+    </row>
+    <row r="289" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A289" s="8"/>
+      <c r="B289" s="8"/>
+      <c r="C289" s="8"/>
+      <c r="D289" s="8"/>
+      <c r="E289" s="8"/>
+      <c r="F289" s="8"/>
+      <c r="G289" s="9"/>
+      <c r="H289" s="8"/>
+      <c r="I289" s="8"/>
+    </row>
+    <row r="290" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A290" s="8"/>
+      <c r="B290" s="8"/>
+      <c r="C290" s="8"/>
+      <c r="D290" s="8"/>
+      <c r="E290" s="8"/>
+      <c r="F290" s="8"/>
+      <c r="G290" s="9"/>
+      <c r="H290" s="8"/>
+      <c r="I290" s="8"/>
+    </row>
+    <row r="291" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A291" s="8"/>
+      <c r="B291" s="8"/>
+      <c r="C291" s="8"/>
+      <c r="D291" s="8"/>
+      <c r="E291" s="8"/>
+      <c r="F291" s="8"/>
+      <c r="G291" s="9"/>
+      <c r="H291" s="8"/>
+      <c r="I291" s="8"/>
+    </row>
+    <row r="292" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A292" s="8"/>
+      <c r="B292" s="8"/>
+      <c r="C292" s="8"/>
+      <c r="D292" s="8"/>
+      <c r="E292" s="8"/>
+      <c r="F292" s="8"/>
+      <c r="G292" s="9"/>
+      <c r="H292" s="8"/>
+      <c r="I292" s="8"/>
+    </row>
+    <row r="293" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A293" s="8"/>
+      <c r="B293" s="8"/>
+      <c r="C293" s="8"/>
+      <c r="D293" s="8"/>
+      <c r="E293" s="8"/>
+      <c r="F293" s="8"/>
+      <c r="G293" s="9"/>
+      <c r="H293" s="8"/>
+      <c r="I293" s="8"/>
+    </row>
+    <row r="294" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A294" s="8"/>
+      <c r="B294" s="8"/>
+      <c r="C294" s="8"/>
+      <c r="D294" s="8"/>
+      <c r="E294" s="8"/>
+      <c r="F294" s="8"/>
+      <c r="G294" s="9"/>
+      <c r="H294" s="8"/>
+      <c r="I294" s="8"/>
+    </row>
+    <row r="295" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A295" s="8"/>
+      <c r="B295" s="8"/>
+      <c r="C295" s="8"/>
+      <c r="D295" s="8"/>
+      <c r="E295" s="8"/>
+      <c r="F295" s="8"/>
+      <c r="G295" s="9"/>
+      <c r="H295" s="8"/>
+      <c r="I295" s="8"/>
+    </row>
+    <row r="296" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A296" s="8"/>
+      <c r="B296" s="8"/>
+      <c r="C296" s="8"/>
+      <c r="D296" s="8"/>
+      <c r="E296" s="8"/>
+      <c r="F296" s="8"/>
+      <c r="G296" s="9"/>
+      <c r="H296" s="8"/>
+      <c r="I296" s="8"/>
+    </row>
+    <row r="297" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A297" s="8"/>
+      <c r="B297" s="8"/>
+      <c r="C297" s="8"/>
+      <c r="D297" s="8"/>
+      <c r="E297" s="8"/>
+      <c r="F297" s="8"/>
+      <c r="G297" s="9"/>
+      <c r="H297" s="8"/>
+      <c r="I297" s="8"/>
+    </row>
+    <row r="298" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A298" s="8"/>
+      <c r="B298" s="8"/>
+      <c r="C298" s="8"/>
+      <c r="D298" s="8"/>
+      <c r="E298" s="8"/>
+      <c r="F298" s="8"/>
+      <c r="G298" s="9"/>
+      <c r="H298" s="8"/>
+      <c r="I298" s="8"/>
+    </row>
+    <row r="299" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A299" s="8"/>
+      <c r="B299" s="8"/>
+      <c r="C299" s="8"/>
+      <c r="D299" s="8"/>
+      <c r="E299" s="8"/>
+      <c r="F299" s="8"/>
+      <c r="G299" s="9"/>
+      <c r="H299" s="8"/>
+      <c r="I299" s="8"/>
+    </row>
+    <row r="300" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A300" s="8"/>
+      <c r="B300" s="8"/>
+      <c r="C300" s="8"/>
+      <c r="D300" s="8"/>
+      <c r="E300" s="8"/>
+      <c r="F300" s="8"/>
+      <c r="G300" s="9"/>
+      <c r="H300" s="8"/>
+      <c r="I300" s="8"/>
+    </row>
+    <row r="301" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A301" s="8"/>
+      <c r="B301" s="8"/>
+      <c r="C301" s="8"/>
+      <c r="D301" s="8"/>
+      <c r="E301" s="8"/>
+      <c r="F301" s="8"/>
+      <c r="G301" s="9"/>
+      <c r="H301" s="8"/>
+      <c r="I301" s="8"/>
+    </row>
+    <row r="302" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A302" s="8"/>
+      <c r="B302" s="8"/>
+      <c r="C302" s="8"/>
+      <c r="D302" s="8"/>
+      <c r="E302" s="8"/>
+      <c r="F302" s="8"/>
+      <c r="G302" s="9"/>
+      <c r="H302" s="8"/>
+      <c r="I302" s="8"/>
+    </row>
+    <row r="303" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A303" s="8"/>
+      <c r="B303" s="8"/>
+      <c r="C303" s="8"/>
+      <c r="D303" s="8"/>
+      <c r="E303" s="8"/>
+      <c r="F303" s="8"/>
+      <c r="G303" s="9"/>
+      <c r="H303" s="8"/>
+      <c r="I303" s="8"/>
+    </row>
+    <row r="304" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A304" s="8"/>
+      <c r="B304" s="8"/>
+      <c r="C304" s="8"/>
+      <c r="D304" s="8"/>
+      <c r="E304" s="8"/>
+      <c r="F304" s="8"/>
+      <c r="G304" s="9"/>
+      <c r="H304" s="8"/>
+      <c r="I304" s="8"/>
+    </row>
+    <row r="305" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A305" s="8"/>
+      <c r="B305" s="8"/>
+      <c r="C305" s="8"/>
+      <c r="D305" s="8"/>
+      <c r="E305" s="8"/>
+      <c r="F305" s="8"/>
+      <c r="G305" s="9"/>
+      <c r="H305" s="8"/>
+      <c r="I305" s="8"/>
+    </row>
+    <row r="306" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A306" s="8"/>
+      <c r="B306" s="8"/>
+      <c r="C306" s="8"/>
+      <c r="D306" s="8"/>
+      <c r="E306" s="8"/>
+      <c r="F306" s="8"/>
+      <c r="G306" s="9"/>
+      <c r="H306" s="8"/>
+      <c r="I306" s="8"/>
+    </row>
+    <row r="307" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A307" s="8"/>
+      <c r="B307" s="8"/>
+      <c r="C307" s="8"/>
+      <c r="D307" s="8"/>
+      <c r="E307" s="8"/>
+      <c r="F307" s="8"/>
+      <c r="G307" s="9"/>
+      <c r="H307" s="8"/>
+      <c r="I307" s="8"/>
+    </row>
+    <row r="308" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A308" s="8"/>
+      <c r="B308" s="8"/>
+      <c r="C308" s="8"/>
+      <c r="D308" s="8"/>
+      <c r="E308" s="8"/>
+      <c r="F308" s="8"/>
+      <c r="G308" s="9"/>
+      <c r="H308" s="8"/>
+      <c r="I308" s="8"/>
+    </row>
+    <row r="309" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A309" s="8"/>
+      <c r="B309" s="8"/>
+      <c r="C309" s="8"/>
+      <c r="D309" s="8"/>
+      <c r="E309" s="8"/>
+      <c r="F309" s="8"/>
+      <c r="G309" s="9"/>
+      <c r="H309" s="8"/>
+      <c r="I309" s="8"/>
+    </row>
+    <row r="310" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A310" s="8"/>
+      <c r="B310" s="8"/>
+      <c r="C310" s="8"/>
+      <c r="D310" s="8"/>
+      <c r="E310" s="8"/>
+      <c r="F310" s="8"/>
+      <c r="G310" s="9"/>
+      <c r="H310" s="8"/>
+      <c r="I310" s="8"/>
+    </row>
+    <row r="311" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A311" s="8"/>
+      <c r="B311" s="8"/>
+      <c r="C311" s="8"/>
+      <c r="D311" s="8"/>
+      <c r="E311" s="8"/>
+      <c r="F311" s="8"/>
+      <c r="G311" s="9"/>
+      <c r="H311" s="8"/>
+      <c r="I311" s="8"/>
+    </row>
+    <row r="312" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A312" s="8"/>
+      <c r="B312" s="8"/>
+      <c r="C312" s="8"/>
+      <c r="D312" s="8"/>
+      <c r="E312" s="8"/>
+      <c r="F312" s="8"/>
+      <c r="G312" s="9"/>
+      <c r="H312" s="8"/>
+      <c r="I312" s="8"/>
+    </row>
+    <row r="313" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A313" s="8"/>
+      <c r="B313" s="8"/>
+      <c r="C313" s="8"/>
+      <c r="D313" s="8"/>
+      <c r="E313" s="8"/>
+      <c r="F313" s="8"/>
+      <c r="G313" s="9"/>
+      <c r="H313" s="8"/>
+      <c r="I313" s="8"/>
+    </row>
+    <row r="314" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A314" s="8"/>
+      <c r="B314" s="8"/>
+      <c r="C314" s="8"/>
+      <c r="D314" s="8"/>
+      <c r="E314" s="8"/>
+      <c r="F314" s="8"/>
+      <c r="G314" s="9"/>
+      <c r="H314" s="8"/>
+      <c r="I314" s="8"/>
+    </row>
+    <row r="315" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A315" s="8"/>
+      <c r="B315" s="8"/>
+      <c r="C315" s="8"/>
+      <c r="D315" s="8"/>
+      <c r="E315" s="8"/>
+      <c r="F315" s="8"/>
+      <c r="G315" s="9"/>
+      <c r="H315" s="8"/>
+      <c r="I315" s="8"/>
+    </row>
+    <row r="316" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A316" s="8"/>
+      <c r="B316" s="8"/>
+      <c r="C316" s="8"/>
+      <c r="D316" s="8"/>
+      <c r="E316" s="8"/>
+      <c r="F316" s="8"/>
+      <c r="G316" s="9"/>
+      <c r="H316" s="8"/>
+      <c r="I316" s="8"/>
+    </row>
+    <row r="317" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A317" s="8"/>
+      <c r="B317" s="8"/>
+      <c r="C317" s="8"/>
+      <c r="D317" s="8"/>
+      <c r="E317" s="8"/>
+      <c r="F317" s="8"/>
+      <c r="G317" s="9"/>
+      <c r="H317" s="8"/>
+      <c r="I317" s="8"/>
+    </row>
+    <row r="318" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A318" s="8"/>
+      <c r="B318" s="8"/>
+      <c r="C318" s="8"/>
+      <c r="D318" s="8"/>
+      <c r="E318" s="8"/>
+      <c r="F318" s="8"/>
+      <c r="G318" s="9"/>
+      <c r="H318" s="8"/>
+      <c r="I318" s="8"/>
+    </row>
+    <row r="319" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A319" s="8"/>
+      <c r="B319" s="8"/>
+      <c r="C319" s="8"/>
+      <c r="D319" s="8"/>
+      <c r="E319" s="8"/>
+      <c r="F319" s="8"/>
+      <c r="G319" s="9"/>
+      <c r="H319" s="8"/>
+      <c r="I319" s="8"/>
+    </row>
+    <row r="320" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A320" s="8"/>
+      <c r="B320" s="8"/>
+      <c r="C320" s="8"/>
+      <c r="D320" s="8"/>
+      <c r="E320" s="8"/>
+      <c r="F320" s="8"/>
+      <c r="G320" s="9"/>
+      <c r="H320" s="8"/>
+      <c r="I320" s="8"/>
+    </row>
+    <row r="321" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A321" s="8"/>
+      <c r="B321" s="8"/>
+      <c r="C321" s="8"/>
+      <c r="D321" s="8"/>
+      <c r="E321" s="8"/>
+      <c r="F321" s="8"/>
+      <c r="G321" s="9"/>
+      <c r="H321" s="8"/>
+      <c r="I321" s="8"/>
+    </row>
+    <row r="322" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A322" s="8"/>
+      <c r="B322" s="8"/>
+      <c r="C322" s="8"/>
+      <c r="D322" s="8"/>
+      <c r="E322" s="8"/>
+      <c r="F322" s="8"/>
+      <c r="G322" s="9"/>
+      <c r="H322" s="8"/>
+      <c r="I322" s="8"/>
+    </row>
+    <row r="323" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A323" s="8"/>
+      <c r="B323" s="8"/>
+      <c r="C323" s="8"/>
+      <c r="D323" s="8"/>
+      <c r="E323" s="8"/>
+      <c r="F323" s="8"/>
+      <c r="G323" s="9"/>
+      <c r="H323" s="8"/>
+      <c r="I323" s="8"/>
+    </row>
+    <row r="324" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A324" s="8"/>
+      <c r="B324" s="8"/>
+      <c r="C324" s="8"/>
+      <c r="D324" s="8"/>
+      <c r="E324" s="8"/>
+      <c r="F324" s="8"/>
+      <c r="G324" s="9"/>
+      <c r="H324" s="8"/>
+      <c r="I324" s="8"/>
+    </row>
+    <row r="325" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A325" s="8"/>
+      <c r="B325" s="8"/>
+      <c r="C325" s="8"/>
+      <c r="D325" s="8"/>
+      <c r="E325" s="8"/>
+      <c r="F325" s="8"/>
+      <c r="G325" s="9"/>
+      <c r="H325" s="8"/>
+      <c r="I325" s="8"/>
+    </row>
+    <row r="326" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A326" s="8"/>
+      <c r="B326" s="8"/>
+      <c r="C326" s="8"/>
+      <c r="D326" s="8"/>
+      <c r="E326" s="8"/>
+      <c r="F326" s="8"/>
+      <c r="G326" s="9"/>
+      <c r="H326" s="8"/>
+      <c r="I326" s="8"/>
+    </row>
+    <row r="327" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A327" s="8"/>
+      <c r="B327" s="8"/>
+      <c r="C327" s="8"/>
+      <c r="D327" s="8"/>
+      <c r="E327" s="8"/>
+      <c r="F327" s="8"/>
+      <c r="G327" s="9"/>
+      <c r="H327" s="8"/>
+      <c r="I327" s="8"/>
+    </row>
+    <row r="328" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A328" s="8"/>
+      <c r="B328" s="8"/>
+      <c r="C328" s="8"/>
+      <c r="D328" s="8"/>
+      <c r="E328" s="8"/>
+      <c r="F328" s="8"/>
+      <c r="G328" s="9"/>
+      <c r="H328" s="8"/>
+      <c r="I328" s="8"/>
+    </row>
+    <row r="329" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A329" s="8"/>
+      <c r="B329" s="8"/>
+      <c r="C329" s="8"/>
+      <c r="D329" s="8"/>
+      <c r="E329" s="8"/>
+      <c r="F329" s="8"/>
+      <c r="G329" s="9"/>
+      <c r="H329" s="8"/>
+      <c r="I329" s="8"/>
+    </row>
+    <row r="330" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A330" s="8"/>
+      <c r="B330" s="8"/>
+      <c r="C330" s="8"/>
+      <c r="D330" s="8"/>
+      <c r="E330" s="8"/>
+      <c r="F330" s="8"/>
+      <c r="G330" s="9"/>
+      <c r="H330" s="8"/>
+      <c r="I330" s="8"/>
+    </row>
+    <row r="331" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A331" s="8"/>
+      <c r="B331" s="8"/>
+      <c r="C331" s="8"/>
+      <c r="D331" s="8"/>
+      <c r="E331" s="8"/>
+      <c r="F331" s="8"/>
+      <c r="G331" s="9"/>
+      <c r="H331" s="8"/>
+      <c r="I331" s="8"/>
+    </row>
+    <row r="332" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A332" s="8"/>
+      <c r="B332" s="8"/>
+      <c r="C332" s="8"/>
+      <c r="D332" s="8"/>
+      <c r="E332" s="8"/>
+      <c r="F332" s="8"/>
+      <c r="G332" s="9"/>
+      <c r="H332" s="8"/>
+      <c r="I332" s="8"/>
+    </row>
+    <row r="333" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A333" s="8"/>
+      <c r="B333" s="8"/>
+      <c r="C333" s="8"/>
+      <c r="D333" s="8"/>
+      <c r="E333" s="8"/>
+      <c r="F333" s="8"/>
+      <c r="G333" s="9"/>
+      <c r="H333" s="8"/>
+      <c r="I333" s="8"/>
+    </row>
+    <row r="334" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A334" s="8"/>
+      <c r="B334" s="8"/>
+      <c r="C334" s="8"/>
+      <c r="D334" s="8"/>
+      <c r="E334" s="8"/>
+      <c r="F334" s="8"/>
+      <c r="G334" s="9"/>
+      <c r="H334" s="8"/>
+      <c r="I334" s="8"/>
+    </row>
+    <row r="335" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A335" s="8"/>
+      <c r="B335" s="8"/>
+      <c r="C335" s="8"/>
+      <c r="D335" s="8"/>
+      <c r="E335" s="8"/>
+      <c r="F335" s="8"/>
+      <c r="G335" s="9"/>
+      <c r="H335" s="8"/>
+      <c r="I335" s="8"/>
+    </row>
+    <row r="336" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A336" s="8"/>
+      <c r="B336" s="8"/>
+      <c r="C336" s="8"/>
+      <c r="D336" s="8"/>
+      <c r="E336" s="8"/>
+      <c r="F336" s="8"/>
+      <c r="G336" s="9"/>
+      <c r="H336" s="8"/>
+      <c r="I336" s="8"/>
+    </row>
+    <row r="337" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A337" s="8"/>
+      <c r="B337" s="8"/>
+      <c r="C337" s="8"/>
+      <c r="D337" s="8"/>
+      <c r="E337" s="8"/>
+      <c r="F337" s="8"/>
+      <c r="G337" s="9"/>
+      <c r="H337" s="8"/>
+      <c r="I337" s="8"/>
+    </row>
+    <row r="338" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A338" s="8"/>
+      <c r="B338" s="8"/>
+      <c r="C338" s="8"/>
+      <c r="D338" s="8"/>
+      <c r="E338" s="8"/>
+      <c r="F338" s="8"/>
+      <c r="G338" s="9"/>
+      <c r="H338" s="8"/>
+      <c r="I338" s="8"/>
+    </row>
+    <row r="339" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A339" s="8"/>
+      <c r="B339" s="8"/>
+      <c r="C339" s="8"/>
+      <c r="D339" s="8"/>
+      <c r="E339" s="8"/>
+      <c r="F339" s="8"/>
+      <c r="G339" s="9"/>
+      <c r="H339" s="8"/>
+      <c r="I339" s="8"/>
+    </row>
+    <row r="340" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A340" s="8"/>
+      <c r="B340" s="8"/>
+      <c r="C340" s="8"/>
+      <c r="D340" s="8"/>
+      <c r="E340" s="8"/>
+      <c r="F340" s="8"/>
+      <c r="G340" s="9"/>
+      <c r="H340" s="8"/>
+      <c r="I340" s="8"/>
+    </row>
+    <row r="341" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A341" s="8"/>
+      <c r="B341" s="8"/>
+      <c r="C341" s="8"/>
+      <c r="D341" s="8"/>
+      <c r="E341" s="8"/>
+      <c r="F341" s="8"/>
+      <c r="G341" s="9"/>
+      <c r="H341" s="8"/>
+      <c r="I341" s="8"/>
+    </row>
+    <row r="342" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A342" s="8"/>
+      <c r="B342" s="8"/>
+      <c r="C342" s="8"/>
+      <c r="D342" s="8"/>
+      <c r="E342" s="8"/>
+      <c r="F342" s="8"/>
+      <c r="G342" s="9"/>
+      <c r="H342" s="8"/>
+      <c r="I342" s="8"/>
+    </row>
+    <row r="343" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A343" s="8"/>
+      <c r="B343" s="8"/>
+      <c r="C343" s="8"/>
+      <c r="D343" s="8"/>
+      <c r="E343" s="8"/>
+      <c r="F343" s="8"/>
+      <c r="G343" s="9"/>
+      <c r="H343" s="8"/>
+      <c r="I343" s="8"/>
+    </row>
+    <row r="344" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A344" s="8"/>
+      <c r="B344" s="8"/>
+      <c r="C344" s="8"/>
+      <c r="D344" s="8"/>
+      <c r="E344" s="8"/>
+      <c r="F344" s="8"/>
+      <c r="G344" s="9"/>
+      <c r="H344" s="8"/>
+      <c r="I344" s="8"/>
+    </row>
+    <row r="345" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A345" s="8"/>
+      <c r="B345" s="8"/>
+      <c r="C345" s="8"/>
+      <c r="D345" s="8"/>
+      <c r="E345" s="8"/>
+      <c r="F345" s="8"/>
+      <c r="G345" s="9"/>
+      <c r="H345" s="8"/>
+      <c r="I345" s="8"/>
+    </row>
+    <row r="346" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A346" s="8"/>
+      <c r="B346" s="8"/>
+      <c r="C346" s="8"/>
+      <c r="D346" s="8"/>
+      <c r="E346" s="8"/>
+      <c r="F346" s="8"/>
+      <c r="G346" s="9"/>
+      <c r="H346" s="8"/>
+      <c r="I346" s="8"/>
+    </row>
+    <row r="347" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A347" s="8"/>
+      <c r="B347" s="8"/>
+      <c r="C347" s="8"/>
+      <c r="D347" s="8"/>
+      <c r="E347" s="8"/>
+      <c r="F347" s="8"/>
+      <c r="G347" s="9"/>
+      <c r="H347" s="8"/>
+      <c r="I347" s="8"/>
+    </row>
+    <row r="348" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A348" s="8"/>
+      <c r="B348" s="8"/>
+      <c r="C348" s="8"/>
+      <c r="D348" s="8"/>
+      <c r="E348" s="8"/>
+      <c r="F348" s="8"/>
+      <c r="G348" s="9"/>
+      <c r="H348" s="8"/>
+      <c r="I348" s="8"/>
+    </row>
+    <row r="349" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A349" s="8"/>
+      <c r="B349" s="8"/>
+      <c r="C349" s="8"/>
+      <c r="D349" s="8"/>
+      <c r="E349" s="8"/>
+      <c r="F349" s="8"/>
+      <c r="G349" s="9"/>
+      <c r="H349" s="8"/>
+      <c r="I349" s="8"/>
+    </row>
+    <row r="350" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A350" s="8"/>
+      <c r="B350" s="8"/>
+      <c r="C350" s="8"/>
+      <c r="D350" s="8"/>
+      <c r="E350" s="8"/>
+      <c r="F350" s="8"/>
+      <c r="G350" s="9"/>
+      <c r="H350" s="8"/>
+      <c r="I350" s="8"/>
+    </row>
+    <row r="351" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A351" s="8"/>
+      <c r="B351" s="8"/>
+      <c r="C351" s="8"/>
+      <c r="D351" s="8"/>
+      <c r="E351" s="8"/>
+      <c r="F351" s="8"/>
+      <c r="G351" s="9"/>
+      <c r="H351" s="8"/>
+      <c r="I351" s="8"/>
+    </row>
+    <row r="352" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A352" s="8"/>
+      <c r="B352" s="8"/>
+      <c r="C352" s="8"/>
+      <c r="D352" s="8"/>
+      <c r="E352" s="8"/>
+      <c r="F352" s="8"/>
+      <c r="G352" s="9"/>
+      <c r="H352" s="8"/>
+      <c r="I352" s="8"/>
+    </row>
+    <row r="353" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A353" s="8"/>
+      <c r="B353" s="8"/>
+      <c r="C353" s="8"/>
+      <c r="D353" s="8"/>
+      <c r="E353" s="8"/>
+      <c r="F353" s="8"/>
+      <c r="G353" s="9"/>
+      <c r="H353" s="8"/>
+      <c r="I353" s="8"/>
+    </row>
+    <row r="354" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A354" s="8"/>
+      <c r="B354" s="8"/>
+      <c r="C354" s="8"/>
+      <c r="D354" s="8"/>
+      <c r="E354" s="8"/>
+      <c r="F354" s="8"/>
+      <c r="G354" s="9"/>
+      <c r="H354" s="8"/>
+      <c r="I354" s="8"/>
+    </row>
+    <row r="355" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A355" s="8"/>
+      <c r="B355" s="8"/>
+      <c r="C355" s="8"/>
+      <c r="D355" s="8"/>
+      <c r="E355" s="8"/>
+      <c r="F355" s="8"/>
+      <c r="G355" s="9"/>
+      <c r="H355" s="8"/>
+      <c r="I355" s="8"/>
+    </row>
+    <row r="356" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A356" s="8"/>
+      <c r="B356" s="8"/>
+      <c r="C356" s="8"/>
+      <c r="D356" s="8"/>
+      <c r="E356" s="8"/>
+      <c r="F356" s="8"/>
+      <c r="G356" s="9"/>
+      <c r="H356" s="8"/>
+      <c r="I356" s="8"/>
+    </row>
+    <row r="357" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A357" s="8"/>
+      <c r="B357" s="8"/>
+      <c r="C357" s="8"/>
+      <c r="D357" s="8"/>
+      <c r="E357" s="8"/>
+      <c r="F357" s="8"/>
+      <c r="G357" s="9"/>
+      <c r="H357" s="8"/>
+      <c r="I357" s="8"/>
+    </row>
+    <row r="358" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A358" s="8"/>
+      <c r="B358" s="8"/>
+      <c r="C358" s="8"/>
+      <c r="D358" s="8"/>
+      <c r="E358" s="8"/>
+      <c r="F358" s="8"/>
+      <c r="G358" s="9"/>
+      <c r="H358" s="8"/>
+      <c r="I358" s="8"/>
+    </row>
+    <row r="359" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A359" s="8"/>
+      <c r="B359" s="8"/>
+      <c r="C359" s="8"/>
+      <c r="D359" s="8"/>
+      <c r="E359" s="8"/>
+      <c r="F359" s="8"/>
+      <c r="G359" s="9"/>
+      <c r="H359" s="8"/>
+      <c r="I359" s="8"/>
+    </row>
+    <row r="360" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A360" s="8"/>
+      <c r="B360" s="8"/>
+      <c r="C360" s="8"/>
+      <c r="D360" s="8"/>
+      <c r="E360" s="8"/>
+      <c r="F360" s="8"/>
+      <c r="G360" s="9"/>
+      <c r="H360" s="8"/>
+      <c r="I360" s="8"/>
+    </row>
+    <row r="361" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A361" s="8"/>
+      <c r="B361" s="8"/>
+      <c r="C361" s="8"/>
+      <c r="D361" s="8"/>
+      <c r="E361" s="8"/>
+      <c r="F361" s="8"/>
+      <c r="G361" s="9"/>
+      <c r="H361" s="8"/>
+      <c r="I361" s="8"/>
+    </row>
+    <row r="362" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A362" s="8"/>
+      <c r="B362" s="8"/>
+      <c r="C362" s="8"/>
+      <c r="D362" s="8"/>
+      <c r="E362" s="8"/>
+      <c r="F362" s="8"/>
+      <c r="G362" s="9"/>
+      <c r="H362" s="8"/>
+      <c r="I362" s="8"/>
+    </row>
+    <row r="363" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A363" s="8"/>
+      <c r="B363" s="8"/>
+      <c r="C363" s="8"/>
+      <c r="D363" s="8"/>
+      <c r="E363" s="8"/>
+      <c r="F363" s="8"/>
+      <c r="G363" s="9"/>
+      <c r="H363" s="8"/>
+      <c r="I363" s="8"/>
+    </row>
+    <row r="364" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A364" s="8"/>
+      <c r="B364" s="8"/>
+      <c r="C364" s="8"/>
+      <c r="D364" s="8"/>
+      <c r="E364" s="8"/>
+      <c r="F364" s="8"/>
+      <c r="G364" s="9"/>
+      <c r="H364" s="8"/>
+      <c r="I364" s="8"/>
+    </row>
+    <row r="365" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A365" s="8"/>
+      <c r="B365" s="8"/>
+      <c r="C365" s="8"/>
+      <c r="D365" s="8"/>
+      <c r="E365" s="8"/>
+      <c r="F365" s="8"/>
+      <c r="G365" s="9"/>
+      <c r="H365" s="8"/>
+      <c r="I365" s="8"/>
+    </row>
+    <row r="366" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A366" s="8"/>
+      <c r="B366" s="8"/>
+      <c r="C366" s="8"/>
+      <c r="D366" s="8"/>
+      <c r="E366" s="8"/>
+      <c r="F366" s="8"/>
+      <c r="G366" s="9"/>
+      <c r="H366" s="8"/>
+      <c r="I366" s="8"/>
+    </row>
+    <row r="367" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A367" s="8"/>
+      <c r="B367" s="8"/>
+      <c r="C367" s="8"/>
+      <c r="D367" s="8"/>
+      <c r="E367" s="8"/>
+      <c r="F367" s="8"/>
+      <c r="G367" s="9"/>
+      <c r="H367" s="8"/>
+      <c r="I367" s="8"/>
+    </row>
+    <row r="368" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A368" s="8"/>
+      <c r="B368" s="8"/>
+      <c r="C368" s="8"/>
+      <c r="D368" s="8"/>
+      <c r="E368" s="8"/>
+      <c r="F368" s="8"/>
+      <c r="G368" s="9"/>
+      <c r="H368" s="8"/>
+      <c r="I368" s="8"/>
+    </row>
+    <row r="369" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A369" s="8"/>
+      <c r="B369" s="8"/>
+      <c r="C369" s="8"/>
+      <c r="D369" s="8"/>
+      <c r="E369" s="8"/>
+      <c r="F369" s="8"/>
+      <c r="G369" s="9"/>
+      <c r="H369" s="8"/>
+      <c r="I369" s="8"/>
+    </row>
+    <row r="370" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A370" s="8"/>
+      <c r="B370" s="8"/>
+      <c r="C370" s="8"/>
+      <c r="D370" s="8"/>
+      <c r="E370" s="8"/>
+      <c r="F370" s="8"/>
+      <c r="G370" s="9"/>
+      <c r="H370" s="8"/>
+      <c r="I370" s="8"/>
+    </row>
+    <row r="371" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A371" s="8"/>
+      <c r="B371" s="8"/>
+      <c r="C371" s="8"/>
+      <c r="D371" s="8"/>
+      <c r="E371" s="8"/>
+      <c r="F371" s="8"/>
+      <c r="G371" s="9"/>
+      <c r="H371" s="8"/>
+      <c r="I371" s="8"/>
+    </row>
+    <row r="372" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A372" s="8"/>
+      <c r="B372" s="8"/>
+      <c r="C372" s="8"/>
+      <c r="D372" s="8"/>
+      <c r="E372" s="8"/>
+      <c r="F372" s="8"/>
+      <c r="G372" s="9"/>
+      <c r="H372" s="8"/>
+      <c r="I372" s="8"/>
+    </row>
+    <row r="373" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A373" s="8"/>
+      <c r="B373" s="8"/>
+      <c r="C373" s="8"/>
+      <c r="D373" s="8"/>
+      <c r="E373" s="8"/>
+      <c r="F373" s="8"/>
+      <c r="G373" s="9"/>
+      <c r="H373" s="8"/>
+      <c r="I373" s="8"/>
+    </row>
+    <row r="374" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A374" s="8"/>
+      <c r="B374" s="8"/>
+      <c r="C374" s="8"/>
+      <c r="D374" s="8"/>
+      <c r="E374" s="8"/>
+      <c r="F374" s="8"/>
+      <c r="G374" s="9"/>
+      <c r="H374" s="8"/>
+      <c r="I374" s="8"/>
+    </row>
+    <row r="375" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A375" s="8"/>
+      <c r="B375" s="8"/>
+      <c r="C375" s="8"/>
+      <c r="D375" s="8"/>
+      <c r="E375" s="8"/>
+      <c r="F375" s="8"/>
+      <c r="G375" s="9"/>
+      <c r="H375" s="8"/>
+      <c r="I375" s="8"/>
+    </row>
+    <row r="376" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A376" s="8"/>
+      <c r="B376" s="8"/>
+      <c r="C376" s="8"/>
+      <c r="D376" s="8"/>
+      <c r="E376" s="8"/>
+      <c r="F376" s="8"/>
+      <c r="G376" s="9"/>
+      <c r="H376" s="8"/>
+      <c r="I376" s="8"/>
+    </row>
+    <row r="377" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A377" s="8"/>
+      <c r="B377" s="8"/>
+      <c r="C377" s="8"/>
+      <c r="D377" s="8"/>
+      <c r="E377" s="8"/>
+      <c r="F377" s="8"/>
+      <c r="G377" s="9"/>
+      <c r="H377" s="8"/>
+      <c r="I377" s="8"/>
+    </row>
+    <row r="378" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A378" s="8"/>
+      <c r="B378" s="8"/>
+      <c r="C378" s="8"/>
+      <c r="D378" s="8"/>
+      <c r="E378" s="8"/>
+      <c r="F378" s="8"/>
+      <c r="G378" s="9"/>
+      <c r="H378" s="8"/>
+      <c r="I378" s="8"/>
+    </row>
+    <row r="379" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A379" s="8"/>
+      <c r="B379" s="8"/>
+      <c r="C379" s="8"/>
+      <c r="D379" s="8"/>
+      <c r="E379" s="8"/>
+      <c r="F379" s="8"/>
+      <c r="G379" s="9"/>
+      <c r="H379" s="8"/>
+      <c r="I379" s="8"/>
+    </row>
+    <row r="380" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A380" s="8"/>
+      <c r="B380" s="8"/>
+      <c r="C380" s="8"/>
+      <c r="D380" s="8"/>
+      <c r="E380" s="8"/>
+      <c r="F380" s="8"/>
+      <c r="G380" s="9"/>
+      <c r="H380" s="8"/>
+      <c r="I380" s="8"/>
+    </row>
+    <row r="381" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A381" s="8"/>
+      <c r="B381" s="8"/>
+      <c r="C381" s="8"/>
+      <c r="D381" s="8"/>
+      <c r="E381" s="8"/>
+      <c r="F381" s="8"/>
+      <c r="G381" s="9"/>
+      <c r="H381" s="8"/>
+      <c r="I381" s="8"/>
+    </row>
+    <row r="382" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A382" s="8"/>
+      <c r="B382" s="8"/>
+      <c r="C382" s="8"/>
+      <c r="D382" s="8"/>
+      <c r="E382" s="8"/>
+      <c r="F382" s="8"/>
+      <c r="G382" s="9"/>
+      <c r="H382" s="8"/>
+      <c r="I382" s="8"/>
+    </row>
+    <row r="383" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A383" s="8"/>
+      <c r="B383" s="8"/>
+      <c r="C383" s="8"/>
+      <c r="D383" s="8"/>
+      <c r="E383" s="8"/>
+      <c r="F383" s="8"/>
+      <c r="G383" s="9"/>
+      <c r="H383" s="8"/>
+      <c r="I383" s="8"/>
+    </row>
+    <row r="384" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A384" s="8"/>
+      <c r="B384" s="8"/>
+      <c r="C384" s="8"/>
+      <c r="D384" s="8"/>
+      <c r="E384" s="8"/>
+      <c r="F384" s="8"/>
+      <c r="G384" s="9"/>
+      <c r="H384" s="8"/>
+      <c r="I384" s="8"/>
+    </row>
+    <row r="385" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A385" s="8"/>
+      <c r="B385" s="8"/>
+      <c r="C385" s="8"/>
+      <c r="D385" s="8"/>
+      <c r="E385" s="8"/>
+      <c r="F385" s="8"/>
+      <c r="G385" s="9"/>
+      <c r="H385" s="8"/>
+      <c r="I385" s="8"/>
+    </row>
+    <row r="386" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A386" s="8"/>
+      <c r="B386" s="8"/>
+      <c r="C386" s="8"/>
+      <c r="D386" s="8"/>
+      <c r="E386" s="8"/>
+      <c r="F386" s="8"/>
+      <c r="G386" s="9"/>
+      <c r="H386" s="8"/>
+      <c r="I386" s="8"/>
+    </row>
+    <row r="387" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A387" s="8"/>
+      <c r="B387" s="8"/>
+      <c r="C387" s="8"/>
+      <c r="D387" s="8"/>
+      <c r="E387" s="8"/>
+      <c r="F387" s="8"/>
+      <c r="G387" s="9"/>
+      <c r="H387" s="8"/>
+      <c r="I387" s="8"/>
+    </row>
+    <row r="388" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A388" s="8"/>
+      <c r="B388" s="8"/>
+      <c r="C388" s="8"/>
+      <c r="D388" s="8"/>
+      <c r="E388" s="8"/>
+      <c r="F388" s="8"/>
+      <c r="G388" s="9"/>
+      <c r="H388" s="8"/>
+      <c r="I388" s="8"/>
+    </row>
+    <row r="389" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A389" s="8"/>
+      <c r="B389" s="8"/>
+      <c r="C389" s="8"/>
+      <c r="D389" s="8"/>
+      <c r="E389" s="8"/>
+      <c r="F389" s="8"/>
+      <c r="G389" s="9"/>
+      <c r="H389" s="8"/>
+      <c r="I389" s="8"/>
+    </row>
+    <row r="390" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A390" s="8"/>
+      <c r="B390" s="8"/>
+      <c r="C390" s="8"/>
+      <c r="D390" s="8"/>
+      <c r="E390" s="8"/>
+      <c r="F390" s="8"/>
+      <c r="G390" s="9"/>
+      <c r="H390" s="8"/>
+      <c r="I390" s="8"/>
+    </row>
+    <row r="391" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A391" s="8"/>
+      <c r="B391" s="8"/>
+      <c r="C391" s="8"/>
+      <c r="D391" s="8"/>
+      <c r="E391" s="8"/>
+      <c r="F391" s="8"/>
+      <c r="G391" s="9"/>
+      <c r="H391" s="8"/>
+      <c r="I391" s="8"/>
+    </row>
+    <row r="392" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A392" s="8"/>
+      <c r="B392" s="8"/>
+      <c r="C392" s="8"/>
+      <c r="D392" s="8"/>
+      <c r="E392" s="8"/>
+      <c r="F392" s="8"/>
+      <c r="G392" s="9"/>
+      <c r="H392" s="8"/>
+      <c r="I392" s="8"/>
+    </row>
+    <row r="393" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A393" s="8"/>
+      <c r="B393" s="8"/>
+      <c r="C393" s="8"/>
+      <c r="D393" s="8"/>
+      <c r="E393" s="8"/>
+      <c r="F393" s="8"/>
+      <c r="G393" s="9"/>
+      <c r="H393" s="8"/>
+      <c r="I393" s="8"/>
+    </row>
+    <row r="394" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A394" s="8"/>
+      <c r="B394" s="8"/>
+      <c r="C394" s="8"/>
+      <c r="D394" s="8"/>
+      <c r="E394" s="8"/>
+      <c r="F394" s="8"/>
+      <c r="G394" s="9"/>
+      <c r="H394" s="8"/>
+      <c r="I394" s="8"/>
+    </row>
+    <row r="395" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A395" s="8"/>
+      <c r="B395" s="8"/>
+      <c r="C395" s="8"/>
+      <c r="D395" s="8"/>
+      <c r="E395" s="8"/>
+      <c r="F395" s="8"/>
+      <c r="G395" s="9"/>
+      <c r="H395" s="8"/>
+      <c r="I395" s="8"/>
+    </row>
+    <row r="396" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A396" s="8"/>
+      <c r="B396" s="8"/>
+      <c r="C396" s="8"/>
+      <c r="D396" s="8"/>
+      <c r="E396" s="8"/>
+      <c r="F396" s="8"/>
+      <c r="G396" s="9"/>
+      <c r="H396" s="8"/>
+      <c r="I396" s="8"/>
+    </row>
+    <row r="397" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A397" s="8"/>
+      <c r="B397" s="8"/>
+      <c r="C397" s="8"/>
+      <c r="D397" s="8"/>
+      <c r="E397" s="8"/>
+      <c r="F397" s="8"/>
+      <c r="G397" s="9"/>
+      <c r="H397" s="8"/>
+      <c r="I397" s="8"/>
+    </row>
+    <row r="398" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A398" s="8"/>
+      <c r="B398" s="8"/>
+      <c r="C398" s="8"/>
+      <c r="D398" s="8"/>
+      <c r="E398" s="8"/>
+      <c r="F398" s="8"/>
+      <c r="G398" s="9"/>
+      <c r="H398" s="8"/>
+      <c r="I398" s="8"/>
+    </row>
+    <row r="399" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A399" s="8"/>
+      <c r="B399" s="8"/>
+      <c r="C399" s="8"/>
+      <c r="D399" s="8"/>
+      <c r="E399" s="8"/>
+      <c r="F399" s="8"/>
+      <c r="G399" s="9"/>
+      <c r="H399" s="8"/>
+      <c r="I399" s="8"/>
+    </row>
+    <row r="400" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A400" s="8"/>
+      <c r="B400" s="8"/>
+      <c r="C400" s="8"/>
+      <c r="D400" s="8"/>
+      <c r="E400" s="8"/>
+      <c r="F400" s="8"/>
+      <c r="G400" s="9"/>
+      <c r="H400" s="8"/>
+      <c r="I400" s="8"/>
+    </row>
+    <row r="401" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A401" s="8"/>
+      <c r="B401" s="8"/>
+      <c r="C401" s="8"/>
+      <c r="D401" s="8"/>
+      <c r="E401" s="8"/>
+      <c r="F401" s="8"/>
+      <c r="G401" s="9"/>
+      <c r="H401" s="8"/>
+      <c r="I401" s="8"/>
+    </row>
+    <row r="402" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A402" s="8"/>
+      <c r="B402" s="8"/>
+      <c r="C402" s="8"/>
+      <c r="D402" s="8"/>
+      <c r="E402" s="8"/>
+      <c r="F402" s="8"/>
+      <c r="G402" s="9"/>
+      <c r="H402" s="8"/>
+      <c r="I402" s="8"/>
+    </row>
+    <row r="403" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A403" s="8"/>
+      <c r="B403" s="8"/>
+      <c r="C403" s="8"/>
+      <c r="D403" s="8"/>
+      <c r="E403" s="8"/>
+      <c r="F403" s="8"/>
+      <c r="G403" s="9"/>
+      <c r="H403" s="8"/>
+      <c r="I403" s="8"/>
+    </row>
+    <row r="404" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A404" s="8"/>
+      <c r="B404" s="8"/>
+      <c r="C404" s="8"/>
+      <c r="D404" s="8"/>
+      <c r="E404" s="8"/>
+      <c r="F404" s="8"/>
+      <c r="G404" s="9"/>
+      <c r="H404" s="8"/>
+      <c r="I404" s="8"/>
+    </row>
+    <row r="405" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A405" s="8"/>
+      <c r="B405" s="8"/>
+      <c r="C405" s="8"/>
+      <c r="D405" s="8"/>
+      <c r="E405" s="8"/>
+      <c r="F405" s="8"/>
+      <c r="G405" s="9"/>
+      <c r="H405" s="8"/>
+      <c r="I405" s="8"/>
+    </row>
+    <row r="406" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A406" s="8"/>
+      <c r="B406" s="8"/>
+      <c r="C406" s="8"/>
+      <c r="D406" s="8"/>
+      <c r="E406" s="8"/>
+      <c r="F406" s="8"/>
+      <c r="G406" s="9"/>
+      <c r="H406" s="8"/>
+      <c r="I406" s="8"/>
+    </row>
+    <row r="407" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A407" s="8"/>
+      <c r="B407" s="8"/>
+      <c r="C407" s="8"/>
+      <c r="D407" s="8"/>
+      <c r="E407" s="8"/>
+      <c r="F407" s="8"/>
+      <c r="G407" s="9"/>
+      <c r="H407" s="8"/>
+      <c r="I407" s="8"/>
+    </row>
+    <row r="408" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A408" s="8"/>
+      <c r="B408" s="8"/>
+      <c r="C408" s="8"/>
+      <c r="D408" s="8"/>
+      <c r="E408" s="8"/>
+      <c r="F408" s="8"/>
+      <c r="G408" s="9"/>
+      <c r="H408" s="8"/>
+      <c r="I408" s="8"/>
+    </row>
+    <row r="409" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A409" s="8"/>
+      <c r="B409" s="8"/>
+      <c r="C409" s="8"/>
+      <c r="D409" s="8"/>
+      <c r="E409" s="8"/>
+      <c r="F409" s="8"/>
+      <c r="G409" s="9"/>
+      <c r="H409" s="8"/>
+      <c r="I409" s="8"/>
+    </row>
+    <row r="410" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A410" s="8"/>
+      <c r="B410" s="8"/>
+      <c r="C410" s="8"/>
+      <c r="D410" s="8"/>
+      <c r="E410" s="8"/>
+      <c r="F410" s="8"/>
+      <c r="G410" s="9"/>
+      <c r="H410" s="8"/>
+      <c r="I410" s="8"/>
+    </row>
+    <row r="411" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A411" s="8"/>
+      <c r="B411" s="8"/>
+      <c r="C411" s="8"/>
+      <c r="D411" s="8"/>
+      <c r="E411" s="8"/>
+      <c r="F411" s="8"/>
+      <c r="G411" s="9"/>
+      <c r="H411" s="8"/>
+      <c r="I411" s="8"/>
+    </row>
+    <row r="412" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A412" s="8"/>
+      <c r="B412" s="8"/>
+      <c r="C412" s="8"/>
+      <c r="D412" s="8"/>
+      <c r="E412" s="8"/>
+      <c r="F412" s="8"/>
+      <c r="G412" s="9"/>
+      <c r="H412" s="8"/>
+      <c r="I412" s="8"/>
+    </row>
+    <row r="413" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A413" s="8"/>
+      <c r="B413" s="8"/>
+      <c r="C413" s="8"/>
+      <c r="D413" s="8"/>
+      <c r="E413" s="8"/>
+      <c r="F413" s="8"/>
+      <c r="G413" s="9"/>
+      <c r="H413" s="8"/>
+      <c r="I413" s="8"/>
+    </row>
+    <row r="414" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A414" s="8"/>
+      <c r="B414" s="8"/>
+      <c r="C414" s="8"/>
+      <c r="D414" s="8"/>
+      <c r="E414" s="8"/>
+      <c r="F414" s="8"/>
+      <c r="G414" s="9"/>
+      <c r="H414" s="8"/>
+      <c r="I414" s="8"/>
+    </row>
+    <row r="415" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A415" s="8"/>
+      <c r="B415" s="8"/>
+      <c r="C415" s="8"/>
+      <c r="D415" s="8"/>
+      <c r="E415" s="8"/>
+      <c r="F415" s="8"/>
+      <c r="G415" s="9"/>
+      <c r="H415" s="8"/>
+      <c r="I415" s="8"/>
+    </row>
+    <row r="416" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A416" s="8"/>
+      <c r="B416" s="8"/>
+      <c r="C416" s="8"/>
+      <c r="D416" s="8"/>
+      <c r="E416" s="8"/>
+      <c r="F416" s="8"/>
+      <c r="G416" s="9"/>
+      <c r="H416" s="8"/>
+      <c r="I416" s="8"/>
+    </row>
+    <row r="417" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A417" s="8"/>
+      <c r="B417" s="8"/>
+      <c r="C417" s="8"/>
+      <c r="D417" s="8"/>
+      <c r="E417" s="8"/>
+      <c r="F417" s="8"/>
+      <c r="G417" s="9"/>
+      <c r="H417" s="8"/>
+      <c r="I417" s="8"/>
+    </row>
+    <row r="418" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A418" s="8"/>
+      <c r="B418" s="8"/>
+      <c r="C418" s="8"/>
+      <c r="D418" s="8"/>
+      <c r="E418" s="8"/>
+      <c r="F418" s="8"/>
+      <c r="G418" s="9"/>
+      <c r="H418" s="8"/>
+      <c r="I418" s="8"/>
+    </row>
+    <row r="419" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A419" s="8"/>
+      <c r="B419" s="8"/>
+      <c r="C419" s="8"/>
+      <c r="D419" s="8"/>
+      <c r="E419" s="8"/>
+      <c r="F419" s="8"/>
+      <c r="G419" s="9"/>
+      <c r="H419" s="8"/>
+      <c r="I419" s="8"/>
+    </row>
+    <row r="420" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A420" s="8"/>
+      <c r="B420" s="8"/>
+      <c r="C420" s="8"/>
+      <c r="D420" s="8"/>
+      <c r="E420" s="8"/>
+      <c r="F420" s="8"/>
+      <c r="G420" s="9"/>
+      <c r="H420" s="8"/>
+      <c r="I420" s="8"/>
+    </row>
+    <row r="421" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A421" s="8"/>
+      <c r="B421" s="8"/>
+      <c r="C421" s="8"/>
+      <c r="D421" s="8"/>
+      <c r="E421" s="8"/>
+      <c r="F421" s="8"/>
+      <c r="G421" s="9"/>
+      <c r="H421" s="8"/>
+      <c r="I421" s="8"/>
+    </row>
+    <row r="422" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A422" s="8"/>
+      <c r="B422" s="8"/>
+      <c r="C422" s="8"/>
+      <c r="D422" s="8"/>
+      <c r="E422" s="8"/>
+      <c r="F422" s="8"/>
+      <c r="G422" s="9"/>
+      <c r="H422" s="8"/>
+      <c r="I422" s="8"/>
+    </row>
+    <row r="423" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A423" s="8"/>
+      <c r="B423" s="8"/>
+      <c r="C423" s="8"/>
+      <c r="D423" s="8"/>
+      <c r="E423" s="8"/>
+      <c r="F423" s="8"/>
+      <c r="G423" s="9"/>
+      <c r="H423" s="8"/>
+      <c r="I423" s="8"/>
+    </row>
+    <row r="424" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A424" s="8"/>
+      <c r="B424" s="8"/>
+      <c r="C424" s="8"/>
+      <c r="D424" s="8"/>
+      <c r="E424" s="8"/>
+      <c r="F424" s="8"/>
+      <c r="G424" s="9"/>
+      <c r="H424" s="8"/>
+      <c r="I424" s="8"/>
+    </row>
+    <row r="425" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A425" s="8"/>
+      <c r="B425" s="8"/>
+      <c r="C425" s="8"/>
+      <c r="D425" s="8"/>
+      <c r="E425" s="8"/>
+      <c r="F425" s="8"/>
+      <c r="G425" s="9"/>
+      <c r="H425" s="8"/>
+      <c r="I425" s="8"/>
+    </row>
+    <row r="426" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A426" s="8"/>
+      <c r="B426" s="8"/>
+      <c r="C426" s="8"/>
+      <c r="D426" s="8"/>
+      <c r="E426" s="8"/>
+      <c r="F426" s="8"/>
+      <c r="G426" s="9"/>
+      <c r="H426" s="8"/>
+      <c r="I426" s="8"/>
+    </row>
+    <row r="427" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A427" s="8"/>
+      <c r="B427" s="8"/>
+      <c r="C427" s="8"/>
+      <c r="D427" s="8"/>
+      <c r="E427" s="8"/>
+      <c r="F427" s="8"/>
+      <c r="G427" s="9"/>
+      <c r="H427" s="8"/>
+      <c r="I427" s="8"/>
+    </row>
+    <row r="428" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A428" s="8"/>
+      <c r="B428" s="8"/>
+      <c r="C428" s="8"/>
+      <c r="D428" s="8"/>
+      <c r="E428" s="8"/>
+      <c r="F428" s="8"/>
+      <c r="G428" s="9"/>
+      <c r="H428" s="8"/>
+      <c r="I428" s="8"/>
+    </row>
+    <row r="429" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A429" s="8"/>
+      <c r="B429" s="8"/>
+      <c r="C429" s="8"/>
+      <c r="D429" s="8"/>
+      <c r="E429" s="8"/>
+      <c r="F429" s="8"/>
+      <c r="G429" s="9"/>
+      <c r="H429" s="8"/>
+      <c r="I429" s="8"/>
+    </row>
+    <row r="430" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A430" s="8"/>
+      <c r="B430" s="8"/>
+      <c r="C430" s="8"/>
+      <c r="D430" s="8"/>
+      <c r="E430" s="8"/>
+      <c r="F430" s="8"/>
+      <c r="G430" s="9"/>
+      <c r="H430" s="8"/>
+      <c r="I430" s="8"/>
+    </row>
+    <row r="431" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A431" s="8"/>
+      <c r="B431" s="8"/>
+      <c r="C431" s="8"/>
+      <c r="D431" s="8"/>
+      <c r="E431" s="8"/>
+      <c r="F431" s="8"/>
+      <c r="G431" s="9"/>
+      <c r="H431" s="8"/>
+      <c r="I431" s="8"/>
+    </row>
+    <row r="432" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A432" s="8"/>
+      <c r="B432" s="8"/>
+      <c r="C432" s="8"/>
+      <c r="D432" s="8"/>
+      <c r="E432" s="8"/>
+      <c r="F432" s="8"/>
+      <c r="G432" s="9"/>
+      <c r="H432" s="8"/>
+      <c r="I432" s="8"/>
+    </row>
+    <row r="433" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A433" s="8"/>
+      <c r="B433" s="8"/>
+      <c r="C433" s="8"/>
+      <c r="D433" s="8"/>
+      <c r="E433" s="8"/>
+      <c r="F433" s="8"/>
+      <c r="G433" s="9"/>
+      <c r="H433" s="8"/>
+      <c r="I433" s="8"/>
+    </row>
+    <row r="434" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A434" s="8"/>
+      <c r="B434" s="8"/>
+      <c r="C434" s="8"/>
+      <c r="D434" s="8"/>
+      <c r="E434" s="8"/>
+      <c r="F434" s="8"/>
+      <c r="G434" s="9"/>
+      <c r="H434" s="8"/>
+      <c r="I434" s="8"/>
+    </row>
+    <row r="435" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A435" s="8"/>
+      <c r="B435" s="8"/>
+      <c r="C435" s="8"/>
+      <c r="D435" s="8"/>
+      <c r="E435" s="8"/>
+      <c r="F435" s="8"/>
+      <c r="G435" s="9"/>
+      <c r="H435" s="8"/>
+      <c r="I435" s="8"/>
+    </row>
+    <row r="436" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A436" s="8"/>
+      <c r="B436" s="8"/>
+      <c r="C436" s="8"/>
+      <c r="D436" s="8"/>
+      <c r="E436" s="8"/>
+      <c r="F436" s="8"/>
+      <c r="G436" s="9"/>
+      <c r="H436" s="8"/>
+      <c r="I436" s="8"/>
+    </row>
+    <row r="437" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A437" s="8"/>
+      <c r="B437" s="8"/>
+      <c r="C437" s="8"/>
+      <c r="D437" s="8"/>
+      <c r="E437" s="8"/>
+      <c r="F437" s="8"/>
+      <c r="G437" s="9"/>
+      <c r="H437" s="8"/>
+      <c r="I437" s="8"/>
+    </row>
+    <row r="438" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A438" s="8"/>
+      <c r="B438" s="8"/>
+      <c r="C438" s="8"/>
+      <c r="D438" s="8"/>
+      <c r="E438" s="8"/>
+      <c r="F438" s="8"/>
+      <c r="G438" s="9"/>
+      <c r="H438" s="8"/>
+      <c r="I438" s="8"/>
+    </row>
+    <row r="439" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A439" s="8"/>
+      <c r="B439" s="8"/>
+      <c r="C439" s="8"/>
+      <c r="D439" s="8"/>
+      <c r="E439" s="8"/>
+      <c r="F439" s="8"/>
+      <c r="G439" s="9"/>
+      <c r="H439" s="8"/>
+      <c r="I439" s="8"/>
+    </row>
+    <row r="440" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A440" s="8"/>
+      <c r="B440" s="8"/>
+      <c r="C440" s="8"/>
+      <c r="D440" s="8"/>
+      <c r="E440" s="8"/>
+      <c r="F440" s="8"/>
+      <c r="G440" s="9"/>
+      <c r="H440" s="8"/>
+      <c r="I440" s="8"/>
+    </row>
+    <row r="441" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A441" s="8"/>
+      <c r="B441" s="8"/>
+      <c r="C441" s="8"/>
+      <c r="D441" s="8"/>
+      <c r="E441" s="8"/>
+      <c r="F441" s="8"/>
+      <c r="G441" s="9"/>
+      <c r="H441" s="8"/>
+      <c r="I441" s="8"/>
+    </row>
+    <row r="442" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A442" s="8"/>
+      <c r="B442" s="8"/>
+      <c r="C442" s="8"/>
+      <c r="D442" s="8"/>
+      <c r="E442" s="8"/>
+      <c r="F442" s="8"/>
+      <c r="G442" s="9"/>
+      <c r="H442" s="8"/>
+      <c r="I442" s="8"/>
+    </row>
+    <row r="443" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A443" s="8"/>
+      <c r="B443" s="8"/>
+      <c r="C443" s="8"/>
+      <c r="D443" s="8"/>
+      <c r="E443" s="8"/>
+      <c r="F443" s="8"/>
+      <c r="G443" s="9"/>
+      <c r="H443" s="8"/>
+      <c r="I443" s="8"/>
+    </row>
+    <row r="444" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A444" s="8"/>
+      <c r="B444" s="8"/>
+      <c r="C444" s="8"/>
+      <c r="D444" s="8"/>
+      <c r="E444" s="8"/>
+      <c r="F444" s="8"/>
+      <c r="G444" s="9"/>
+      <c r="H444" s="8"/>
+      <c r="I444" s="8"/>
+    </row>
+    <row r="445" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A445" s="8"/>
+      <c r="B445" s="8"/>
+      <c r="C445" s="8"/>
+      <c r="D445" s="8"/>
+      <c r="E445" s="8"/>
+      <c r="F445" s="8"/>
+      <c r="G445" s="9"/>
+      <c r="H445" s="8"/>
+      <c r="I445" s="8"/>
+    </row>
+    <row r="446" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A446" s="8"/>
+      <c r="B446" s="8"/>
+      <c r="C446" s="8"/>
+      <c r="D446" s="8"/>
+      <c r="E446" s="8"/>
+      <c r="F446" s="8"/>
+      <c r="G446" s="9"/>
+      <c r="H446" s="8"/>
+      <c r="I446" s="8"/>
+    </row>
+    <row r="447" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A447" s="8"/>
+      <c r="B447" s="8"/>
+      <c r="C447" s="8"/>
+      <c r="D447" s="8"/>
+      <c r="E447" s="8"/>
+      <c r="F447" s="8"/>
+      <c r="G447" s="9"/>
+      <c r="H447" s="8"/>
+      <c r="I447" s="8"/>
+    </row>
+    <row r="448" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A448" s="8"/>
+      <c r="B448" s="8"/>
+      <c r="C448" s="8"/>
+      <c r="D448" s="8"/>
+      <c r="E448" s="8"/>
+      <c r="F448" s="8"/>
+      <c r="G448" s="9"/>
+      <c r="H448" s="8"/>
+      <c r="I448" s="8"/>
+    </row>
+    <row r="449" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A449" s="8"/>
+      <c r="B449" s="8"/>
+      <c r="C449" s="8"/>
+      <c r="D449" s="8"/>
+      <c r="E449" s="8"/>
+      <c r="F449" s="8"/>
+      <c r="G449" s="9"/>
+      <c r="H449" s="8"/>
+      <c r="I449" s="8"/>
+    </row>
+    <row r="450" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A450" s="8"/>
+      <c r="B450" s="8"/>
+      <c r="C450" s="8"/>
+      <c r="D450" s="8"/>
+      <c r="E450" s="8"/>
+      <c r="F450" s="8"/>
+      <c r="G450" s="9"/>
+      <c r="H450" s="8"/>
+      <c r="I450" s="8"/>
+    </row>
+    <row r="451" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A451" s="8"/>
+      <c r="B451" s="8"/>
+      <c r="C451" s="8"/>
+      <c r="D451" s="8"/>
+      <c r="E451" s="8"/>
+      <c r="F451" s="8"/>
+      <c r="G451" s="9"/>
+      <c r="H451" s="8"/>
+      <c r="I451" s="8"/>
+    </row>
+    <row r="452" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A452" s="8"/>
+      <c r="B452" s="8"/>
+      <c r="C452" s="8"/>
+      <c r="D452" s="8"/>
+      <c r="E452" s="8"/>
+      <c r="F452" s="8"/>
+      <c r="G452" s="9"/>
+      <c r="H452" s="8"/>
+      <c r="I452" s="8"/>
+    </row>
+    <row r="453" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A453" s="8"/>
+      <c r="B453" s="8"/>
+      <c r="C453" s="8"/>
+      <c r="D453" s="8"/>
+      <c r="E453" s="8"/>
+      <c r="F453" s="8"/>
+      <c r="G453" s="9"/>
+      <c r="H453" s="8"/>
+      <c r="I453" s="8"/>
+    </row>
+    <row r="454" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A454" s="8"/>
+      <c r="B454" s="8"/>
+      <c r="C454" s="8"/>
+      <c r="D454" s="8"/>
+      <c r="E454" s="8"/>
+      <c r="F454" s="8"/>
+      <c r="G454" s="9"/>
+      <c r="H454" s="8"/>
+      <c r="I454" s="8"/>
+    </row>
+    <row r="455" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A455" s="8"/>
+      <c r="B455" s="8"/>
+      <c r="C455" s="8"/>
+      <c r="D455" s="8"/>
+      <c r="E455" s="8"/>
+      <c r="F455" s="8"/>
+      <c r="G455" s="9"/>
+      <c r="H455" s="8"/>
+      <c r="I455" s="8"/>
+    </row>
+    <row r="456" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A456" s="8"/>
+      <c r="B456" s="8"/>
+      <c r="C456" s="8"/>
+      <c r="D456" s="8"/>
+      <c r="E456" s="8"/>
+      <c r="F456" s="8"/>
+      <c r="G456" s="9"/>
+      <c r="H456" s="8"/>
+      <c r="I456" s="8"/>
+    </row>
+    <row r="457" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A457" s="8"/>
+      <c r="B457" s="8"/>
+      <c r="C457" s="8"/>
+      <c r="D457" s="8"/>
+      <c r="E457" s="8"/>
+      <c r="F457" s="8"/>
+      <c r="G457" s="9"/>
+      <c r="H457" s="8"/>
+      <c r="I457" s="8"/>
+    </row>
+    <row r="458" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A458" s="8"/>
+      <c r="B458" s="8"/>
+      <c r="C458" s="8"/>
+      <c r="D458" s="8"/>
+      <c r="E458" s="8"/>
+      <c r="F458" s="8"/>
+      <c r="G458" s="9"/>
+      <c r="H458" s="8"/>
+      <c r="I458" s="8"/>
+    </row>
+    <row r="459" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A459" s="8"/>
+      <c r="B459" s="8"/>
+      <c r="C459" s="8"/>
+      <c r="D459" s="8"/>
+      <c r="E459" s="8"/>
+      <c r="F459" s="8"/>
+      <c r="G459" s="9"/>
+      <c r="H459" s="8"/>
+      <c r="I459" s="8"/>
+    </row>
+    <row r="460" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A460" s="8"/>
+      <c r="B460" s="8"/>
+      <c r="C460" s="8"/>
+      <c r="D460" s="8"/>
+      <c r="E460" s="8"/>
+      <c r="F460" s="8"/>
+      <c r="G460" s="9"/>
+      <c r="H460" s="8"/>
+      <c r="I460" s="8"/>
+    </row>
+    <row r="461" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A461" s="8"/>
+      <c r="B461" s="8"/>
+      <c r="C461" s="8"/>
+      <c r="D461" s="8"/>
+      <c r="E461" s="8"/>
+      <c r="F461" s="8"/>
+      <c r="G461" s="9"/>
+      <c r="H461" s="8"/>
+      <c r="I461" s="8"/>
+    </row>
+    <row r="462" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A462" s="8"/>
+      <c r="B462" s="8"/>
+      <c r="C462" s="8"/>
+      <c r="D462" s="8"/>
+      <c r="E462" s="8"/>
+      <c r="F462" s="8"/>
+      <c r="G462" s="9"/>
+      <c r="H462" s="8"/>
+      <c r="I462" s="8"/>
+    </row>
+    <row r="463" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A463" s="8"/>
+      <c r="B463" s="8"/>
+      <c r="C463" s="8"/>
+      <c r="D463" s="8"/>
+      <c r="E463" s="8"/>
+      <c r="F463" s="8"/>
+      <c r="G463" s="9"/>
+      <c r="H463" s="8"/>
+      <c r="I463" s="8"/>
+    </row>
+    <row r="464" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A464" s="8"/>
+      <c r="B464" s="8"/>
+      <c r="C464" s="8"/>
+      <c r="D464" s="8"/>
+      <c r="E464" s="8"/>
+      <c r="F464" s="8"/>
+      <c r="G464" s="9"/>
+      <c r="H464" s="8"/>
+      <c r="I464" s="8"/>
+    </row>
+    <row r="465" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A465" s="8"/>
+      <c r="B465" s="8"/>
+      <c r="C465" s="8"/>
+      <c r="D465" s="8"/>
+      <c r="E465" s="8"/>
+      <c r="F465" s="8"/>
+      <c r="G465" s="9"/>
+      <c r="H465" s="8"/>
+      <c r="I465" s="8"/>
+    </row>
+    <row r="466" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A466" s="8"/>
+      <c r="B466" s="8"/>
+      <c r="C466" s="8"/>
+      <c r="D466" s="8"/>
+      <c r="E466" s="8"/>
+      <c r="F466" s="8"/>
+      <c r="G466" s="9"/>
+      <c r="H466" s="8"/>
+      <c r="I466" s="8"/>
+    </row>
+    <row r="467" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A467" s="8"/>
+      <c r="B467" s="8"/>
+      <c r="C467" s="8"/>
+      <c r="D467" s="8"/>
+      <c r="E467" s="8"/>
+      <c r="F467" s="8"/>
+      <c r="G467" s="9"/>
+      <c r="H467" s="8"/>
+      <c r="I467" s="8"/>
+    </row>
+    <row r="468" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A468" s="8"/>
+      <c r="B468" s="8"/>
+      <c r="C468" s="8"/>
+      <c r="D468" s="8"/>
+      <c r="E468" s="8"/>
+      <c r="F468" s="8"/>
+      <c r="G468" s="9"/>
+      <c r="H468" s="8"/>
+      <c r="I468" s="8"/>
+    </row>
+    <row r="469" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A469" s="8"/>
+      <c r="B469" s="8"/>
+      <c r="C469" s="8"/>
+      <c r="D469" s="8"/>
+      <c r="E469" s="8"/>
+      <c r="F469" s="8"/>
+      <c r="G469" s="9"/>
+      <c r="H469" s="8"/>
+      <c r="I469" s="8"/>
+    </row>
+    <row r="470" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A470" s="8"/>
+      <c r="B470" s="8"/>
+      <c r="C470" s="8"/>
+      <c r="D470" s="8"/>
+      <c r="E470" s="8"/>
+      <c r="F470" s="8"/>
+      <c r="G470" s="9"/>
+      <c r="H470" s="8"/>
+      <c r="I470" s="8"/>
+    </row>
+    <row r="471" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A471" s="8"/>
+      <c r="B471" s="8"/>
+      <c r="C471" s="8"/>
+      <c r="D471" s="8"/>
+      <c r="E471" s="8"/>
+      <c r="F471" s="8"/>
+      <c r="G471" s="9"/>
+      <c r="H471" s="8"/>
+      <c r="I471" s="8"/>
+    </row>
+    <row r="472" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A472" s="8"/>
+      <c r="B472" s="8"/>
+      <c r="C472" s="8"/>
+      <c r="D472" s="8"/>
+      <c r="E472" s="8"/>
+      <c r="F472" s="8"/>
+      <c r="G472" s="9"/>
+      <c r="H472" s="8"/>
+      <c r="I472" s="8"/>
+    </row>
+    <row r="473" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A473" s="8"/>
+      <c r="B473" s="8"/>
+      <c r="C473" s="8"/>
+      <c r="D473" s="8"/>
+      <c r="E473" s="8"/>
+      <c r="F473" s="8"/>
+      <c r="G473" s="9"/>
+      <c r="H473" s="8"/>
+      <c r="I473" s="8"/>
+    </row>
+    <row r="474" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A474" s="8"/>
+      <c r="B474" s="8"/>
+      <c r="C474" s="8"/>
+      <c r="D474" s="8"/>
+      <c r="E474" s="8"/>
+      <c r="F474" s="8"/>
+      <c r="G474" s="9"/>
+      <c r="H474" s="8"/>
+      <c r="I474" s="8"/>
+    </row>
+    <row r="475" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A475" s="8"/>
+      <c r="B475" s="8"/>
+      <c r="C475" s="8"/>
+      <c r="D475" s="8"/>
+      <c r="E475" s="8"/>
+      <c r="F475" s="8"/>
+      <c r="G475" s="9"/>
+      <c r="H475" s="8"/>
+      <c r="I475" s="8"/>
+    </row>
+    <row r="476" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A476" s="8"/>
+      <c r="B476" s="8"/>
+      <c r="C476" s="8"/>
+      <c r="D476" s="8"/>
+      <c r="E476" s="8"/>
+      <c r="F476" s="8"/>
+      <c r="G476" s="9"/>
+      <c r="H476" s="8"/>
+      <c r="I476" s="8"/>
+    </row>
+    <row r="477" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A477" s="8"/>
+      <c r="B477" s="8"/>
+      <c r="C477" s="8"/>
+      <c r="D477" s="8"/>
+      <c r="E477" s="8"/>
+      <c r="F477" s="8"/>
+      <c r="G477" s="9"/>
+      <c r="H477" s="8"/>
+      <c r="I477" s="8"/>
+    </row>
+    <row r="478" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A478" s="8"/>
+      <c r="B478" s="8"/>
+      <c r="C478" s="8"/>
+      <c r="D478" s="8"/>
+      <c r="E478" s="8"/>
+      <c r="F478" s="8"/>
+      <c r="G478" s="9"/>
+      <c r="H478" s="8"/>
+      <c r="I478" s="8"/>
+    </row>
+    <row r="479" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A479" s="8"/>
+      <c r="B479" s="8"/>
+      <c r="C479" s="8"/>
+      <c r="D479" s="8"/>
+      <c r="E479" s="8"/>
+      <c r="F479" s="8"/>
+      <c r="G479" s="9"/>
+      <c r="H479" s="8"/>
+      <c r="I479" s="8"/>
+    </row>
+    <row r="480" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A480" s="8"/>
+      <c r="B480" s="8"/>
+      <c r="C480" s="8"/>
+      <c r="D480" s="8"/>
+      <c r="E480" s="8"/>
+      <c r="F480" s="8"/>
+      <c r="G480" s="9"/>
+      <c r="H480" s="8"/>
+      <c r="I480" s="8"/>
+    </row>
+    <row r="481" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A481" s="8"/>
+      <c r="B481" s="8"/>
+      <c r="C481" s="8"/>
+      <c r="D481" s="8"/>
+      <c r="E481" s="8"/>
+      <c r="F481" s="8"/>
+      <c r="G481" s="9"/>
+      <c r="H481" s="8"/>
+      <c r="I481" s="8"/>
+    </row>
+    <row r="482" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A482" s="8"/>
+      <c r="B482" s="8"/>
+      <c r="C482" s="8"/>
+      <c r="D482" s="8"/>
+      <c r="E482" s="8"/>
+      <c r="F482" s="8"/>
+      <c r="G482" s="9"/>
+      <c r="H482" s="8"/>
+      <c r="I482" s="8"/>
+    </row>
+    <row r="483" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A483" s="8"/>
+      <c r="B483" s="8"/>
+      <c r="C483" s="8"/>
+      <c r="D483" s="8"/>
+      <c r="E483" s="8"/>
+      <c r="F483" s="8"/>
+      <c r="G483" s="9"/>
+      <c r="H483" s="8"/>
+      <c r="I483" s="8"/>
+    </row>
+    <row r="484" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A484" s="8"/>
+      <c r="B484" s="8"/>
+      <c r="C484" s="8"/>
+      <c r="D484" s="8"/>
+      <c r="E484" s="8"/>
+      <c r="F484" s="8"/>
+      <c r="G484" s="9"/>
+      <c r="H484" s="8"/>
+      <c r="I484" s="8"/>
+    </row>
+    <row r="485" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A485" s="8"/>
+      <c r="B485" s="8"/>
+      <c r="C485" s="8"/>
+      <c r="D485" s="8"/>
+      <c r="E485" s="8"/>
+      <c r="F485" s="8"/>
+      <c r="G485" s="9"/>
+      <c r="H485" s="8"/>
+      <c r="I485" s="8"/>
+    </row>
+    <row r="486" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A486" s="8"/>
+      <c r="B486" s="8"/>
+      <c r="C486" s="8"/>
+      <c r="D486" s="8"/>
+      <c r="E486" s="8"/>
+      <c r="F486" s="8"/>
+      <c r="G486" s="9"/>
+      <c r="H486" s="8"/>
+      <c r="I486" s="8"/>
+    </row>
+    <row r="487" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A487" s="8"/>
+      <c r="B487" s="8"/>
+      <c r="C487" s="8"/>
+      <c r="D487" s="8"/>
+      <c r="E487" s="8"/>
+      <c r="F487" s="8"/>
+      <c r="G487" s="9"/>
+      <c r="H487" s="8"/>
+      <c r="I487" s="8"/>
+    </row>
+    <row r="488" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A488" s="8"/>
+      <c r="B488" s="8"/>
+      <c r="C488" s="8"/>
+      <c r="D488" s="8"/>
+      <c r="E488" s="8"/>
+      <c r="F488" s="8"/>
+      <c r="G488" s="9"/>
+      <c r="H488" s="8"/>
+      <c r="I488" s="8"/>
+    </row>
+    <row r="489" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A489" s="8"/>
+      <c r="B489" s="8"/>
+      <c r="C489" s="8"/>
+      <c r="D489" s="8"/>
+      <c r="E489" s="8"/>
+      <c r="F489" s="8"/>
+      <c r="G489" s="9"/>
+      <c r="H489" s="8"/>
+      <c r="I489" s="8"/>
+    </row>
+    <row r="490" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A490" s="8"/>
+      <c r="B490" s="8"/>
+      <c r="C490" s="8"/>
+      <c r="D490" s="8"/>
+      <c r="E490" s="8"/>
+      <c r="F490" s="8"/>
+      <c r="G490" s="9"/>
+      <c r="H490" s="8"/>
+      <c r="I490" s="8"/>
+    </row>
+    <row r="491" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A491" s="8"/>
+      <c r="B491" s="8"/>
+      <c r="C491" s="8"/>
+      <c r="D491" s="8"/>
+      <c r="E491" s="8"/>
+      <c r="F491" s="8"/>
+      <c r="G491" s="9"/>
+      <c r="H491" s="8"/>
+      <c r="I491" s="8"/>
+    </row>
+    <row r="492" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A492" s="8"/>
+      <c r="B492" s="8"/>
+      <c r="C492" s="8"/>
+      <c r="D492" s="8"/>
+      <c r="E492" s="8"/>
+      <c r="F492" s="8"/>
+      <c r="G492" s="9"/>
+      <c r="H492" s="8"/>
+      <c r="I492" s="8"/>
+    </row>
+    <row r="493" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A493" s="8"/>
+      <c r="B493" s="8"/>
+      <c r="C493" s="8"/>
+      <c r="D493" s="8"/>
+      <c r="E493" s="8"/>
+      <c r="F493" s="8"/>
+      <c r="G493" s="9"/>
+      <c r="H493" s="8"/>
+      <c r="I493" s="8"/>
+    </row>
+    <row r="494" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A494" s="8"/>
+      <c r="B494" s="8"/>
+      <c r="C494" s="8"/>
+      <c r="D494" s="8"/>
+      <c r="E494" s="8"/>
+      <c r="F494" s="8"/>
+      <c r="G494" s="9"/>
+      <c r="H494" s="8"/>
+      <c r="I494" s="8"/>
+    </row>
+    <row r="495" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A495" s="8"/>
+      <c r="B495" s="8"/>
+      <c r="C495" s="8"/>
+      <c r="D495" s="8"/>
+      <c r="E495" s="8"/>
+      <c r="F495" s="8"/>
+      <c r="G495" s="9"/>
+      <c r="H495" s="8"/>
+      <c r="I495" s="8"/>
+    </row>
+    <row r="496" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A496" s="8"/>
+      <c r="B496" s="8"/>
+      <c r="C496" s="8"/>
+      <c r="D496" s="8"/>
+      <c r="E496" s="8"/>
+      <c r="F496" s="8"/>
+      <c r="G496" s="9"/>
+      <c r="H496" s="8"/>
+      <c r="I496" s="8"/>
+    </row>
+    <row r="497" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A497" s="8"/>
+      <c r="B497" s="8"/>
+      <c r="C497" s="8"/>
+      <c r="D497" s="8"/>
+      <c r="E497" s="8"/>
+      <c r="F497" s="8"/>
+      <c r="G497" s="9"/>
+      <c r="H497" s="8"/>
+      <c r="I497" s="8"/>
+    </row>
+    <row r="498" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A498" s="8"/>
+      <c r="B498" s="8"/>
+      <c r="C498" s="8"/>
+      <c r="D498" s="8"/>
+      <c r="E498" s="8"/>
+      <c r="F498" s="8"/>
+      <c r="G498" s="9"/>
+      <c r="H498" s="8"/>
+      <c r="I498" s="8"/>
+    </row>
+    <row r="499" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A499" s="8"/>
+      <c r="B499" s="8"/>
+      <c r="C499" s="8"/>
+      <c r="D499" s="8"/>
+      <c r="E499" s="8"/>
+      <c r="F499" s="8"/>
+      <c r="G499" s="9"/>
+      <c r="H499" s="8"/>
+      <c r="I499" s="8"/>
+    </row>
+    <row r="500" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A500" s="8"/>
+      <c r="B500" s="8"/>
+      <c r="C500" s="8"/>
+      <c r="D500" s="8"/>
+      <c r="E500" s="8"/>
+      <c r="F500" s="8"/>
+      <c r="G500" s="9"/>
+      <c r="H500" s="8"/>
+      <c r="I500" s="8"/>
+    </row>
+    <row r="501" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A501" s="8"/>
+      <c r="B501" s="8"/>
+      <c r="C501" s="8"/>
+      <c r="D501" s="8"/>
+      <c r="E501" s="8"/>
+      <c r="F501" s="8"/>
+      <c r="G501" s="9"/>
+      <c r="H501" s="8"/>
+      <c r="I501" s="8"/>
+    </row>
+    <row r="502" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A502" s="8"/>
+      <c r="B502" s="8"/>
+      <c r="C502" s="8"/>
+      <c r="D502" s="8"/>
+      <c r="E502" s="8"/>
+      <c r="F502" s="8"/>
+      <c r="G502" s="9"/>
+      <c r="H502" s="8"/>
+      <c r="I502" s="8"/>
+    </row>
+    <row r="503" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A503" s="8"/>
+      <c r="B503" s="8"/>
+      <c r="C503" s="8"/>
+      <c r="D503" s="8"/>
+      <c r="E503" s="8"/>
+      <c r="F503" s="8"/>
+      <c r="G503" s="9"/>
+      <c r="H503" s="8"/>
+      <c r="I503" s="8"/>
+    </row>
+    <row r="504" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A504" s="8"/>
+      <c r="B504" s="8"/>
+      <c r="C504" s="8"/>
+      <c r="D504" s="8"/>
+      <c r="E504" s="8"/>
+      <c r="F504" s="8"/>
+      <c r="G504" s="9"/>
+      <c r="H504" s="8"/>
+      <c r="I504" s="8"/>
+    </row>
+    <row r="505" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A505" s="8"/>
+      <c r="B505" s="8"/>
+      <c r="C505" s="8"/>
+      <c r="D505" s="8"/>
+      <c r="E505" s="8"/>
+      <c r="F505" s="8"/>
+      <c r="G505" s="9"/>
+      <c r="H505" s="8"/>
+      <c r="I505" s="8"/>
+    </row>
+    <row r="506" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A506" s="8"/>
+      <c r="B506" s="8"/>
+      <c r="C506" s="8"/>
+      <c r="D506" s="8"/>
+      <c r="E506" s="8"/>
+      <c r="F506" s="8"/>
+      <c r="G506" s="9"/>
+      <c r="H506" s="8"/>
+      <c r="I506" s="8"/>
+    </row>
+    <row r="507" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A507" s="8"/>
+      <c r="B507" s="8"/>
+      <c r="C507" s="8"/>
+      <c r="D507" s="8"/>
+      <c r="E507" s="8"/>
+      <c r="F507" s="8"/>
+      <c r="G507" s="9"/>
+      <c r="H507" s="8"/>
+      <c r="I507" s="8"/>
+    </row>
+    <row r="508" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A508" s="8"/>
+      <c r="B508" s="8"/>
+      <c r="C508" s="8"/>
+      <c r="D508" s="8"/>
+      <c r="E508" s="8"/>
+      <c r="F508" s="8"/>
+      <c r="G508" s="9"/>
+      <c r="H508" s="8"/>
+      <c r="I508" s="8"/>
+    </row>
+    <row r="509" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A509" s="8"/>
+      <c r="B509" s="8"/>
+      <c r="C509" s="8"/>
+      <c r="D509" s="8"/>
+      <c r="E509" s="8"/>
+      <c r="F509" s="8"/>
+      <c r="G509" s="9"/>
+      <c r="H509" s="8"/>
+      <c r="I509" s="8"/>
+    </row>
+    <row r="510" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A510" s="8"/>
+      <c r="B510" s="8"/>
+      <c r="C510" s="8"/>
+      <c r="D510" s="8"/>
+      <c r="E510" s="8"/>
+      <c r="F510" s="8"/>
+      <c r="G510" s="9"/>
+      <c r="H510" s="8"/>
+      <c r="I510" s="8"/>
+    </row>
+    <row r="511" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A511" s="8"/>
+      <c r="B511" s="8"/>
+      <c r="C511" s="8"/>
+      <c r="D511" s="8"/>
+      <c r="E511" s="8"/>
+      <c r="F511" s="8"/>
+      <c r="G511" s="9"/>
+      <c r="H511" s="8"/>
+      <c r="I511" s="8"/>
+    </row>
+    <row r="512" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A512" s="8"/>
+      <c r="B512" s="8"/>
+      <c r="C512" s="8"/>
+      <c r="D512" s="8"/>
+      <c r="E512" s="8"/>
+      <c r="F512" s="8"/>
+      <c r="G512" s="9"/>
+      <c r="H512" s="8"/>
+      <c r="I512" s="8"/>
+    </row>
+    <row r="513" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A513" s="8"/>
+      <c r="B513" s="8"/>
+      <c r="C513" s="8"/>
+      <c r="D513" s="8"/>
+      <c r="E513" s="8"/>
+      <c r="F513" s="8"/>
+      <c r="G513" s="9"/>
+      <c r="H513" s="8"/>
+      <c r="I513" s="8"/>
+    </row>
+    <row r="514" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A514" s="8"/>
+      <c r="B514" s="8"/>
+      <c r="C514" s="8"/>
+      <c r="D514" s="8"/>
+      <c r="E514" s="8"/>
+      <c r="F514" s="8"/>
+      <c r="G514" s="9"/>
+      <c r="H514" s="8"/>
+      <c r="I514" s="8"/>
+    </row>
+    <row r="515" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A515" s="8"/>
+      <c r="B515" s="8"/>
+      <c r="C515" s="8"/>
+      <c r="D515" s="8"/>
+      <c r="E515" s="8"/>
+      <c r="F515" s="8"/>
+      <c r="G515" s="9"/>
+      <c r="H515" s="8"/>
+      <c r="I515" s="8"/>
+    </row>
+    <row r="516" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A516" s="8"/>
+      <c r="B516" s="8"/>
+      <c r="C516" s="8"/>
+      <c r="D516" s="8"/>
+      <c r="E516" s="8"/>
+      <c r="F516" s="8"/>
+      <c r="G516" s="9"/>
+      <c r="H516" s="8"/>
+      <c r="I516" s="8"/>
+    </row>
+    <row r="517" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A517" s="8"/>
+      <c r="B517" s="8"/>
+      <c r="C517" s="8"/>
+      <c r="D517" s="8"/>
+      <c r="E517" s="8"/>
+      <c r="F517" s="8"/>
+      <c r="G517" s="9"/>
+      <c r="H517" s="8"/>
+      <c r="I517" s="8"/>
+    </row>
+    <row r="518" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A518" s="8"/>
+      <c r="B518" s="8"/>
+      <c r="C518" s="8"/>
+      <c r="D518" s="8"/>
+      <c r="E518" s="8"/>
+      <c r="F518" s="8"/>
+      <c r="G518" s="9"/>
+      <c r="H518" s="8"/>
+      <c r="I518" s="8"/>
+    </row>
+    <row r="519" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A519" s="8"/>
+      <c r="B519" s="8"/>
+      <c r="C519" s="8"/>
+      <c r="D519" s="8"/>
+      <c r="E519" s="8"/>
+      <c r="F519" s="8"/>
+      <c r="G519" s="9"/>
+      <c r="H519" s="8"/>
+      <c r="I519" s="8"/>
+    </row>
+    <row r="520" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A520" s="8"/>
+      <c r="B520" s="8"/>
+      <c r="C520" s="8"/>
+      <c r="D520" s="8"/>
+      <c r="E520" s="8"/>
+      <c r="F520" s="8"/>
+      <c r="G520" s="9"/>
+      <c r="H520" s="8"/>
+      <c r="I520" s="8"/>
+    </row>
+    <row r="521" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A521" s="8"/>
+      <c r="B521" s="8"/>
+      <c r="C521" s="8"/>
+      <c r="D521" s="8"/>
+      <c r="E521" s="8"/>
+      <c r="F521" s="8"/>
+      <c r="G521" s="9"/>
+      <c r="H521" s="8"/>
+      <c r="I521" s="8"/>
+    </row>
+    <row r="522" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A522" s="8"/>
+      <c r="B522" s="8"/>
+      <c r="C522" s="8"/>
+      <c r="D522" s="8"/>
+      <c r="E522" s="8"/>
+      <c r="F522" s="8"/>
+      <c r="G522" s="9"/>
+      <c r="H522" s="8"/>
+      <c r="I522" s="8"/>
+    </row>
+    <row r="523" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A523" s="8"/>
+      <c r="B523" s="8"/>
+      <c r="C523" s="8"/>
+      <c r="D523" s="8"/>
+      <c r="E523" s="8"/>
+      <c r="F523" s="8"/>
+      <c r="G523" s="9"/>
+      <c r="H523" s="8"/>
+      <c r="I523" s="8"/>
+    </row>
+    <row r="524" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A524" s="8"/>
+      <c r="B524" s="8"/>
+      <c r="C524" s="8"/>
+      <c r="D524" s="8"/>
+      <c r="E524" s="8"/>
+      <c r="F524" s="8"/>
+      <c r="G524" s="9"/>
+      <c r="H524" s="8"/>
+      <c r="I524" s="8"/>
+    </row>
+    <row r="525" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A525" s="8"/>
+      <c r="B525" s="8"/>
+      <c r="C525" s="8"/>
+      <c r="D525" s="8"/>
+      <c r="E525" s="8"/>
+      <c r="F525" s="8"/>
+      <c r="G525" s="9"/>
+      <c r="H525" s="8"/>
+      <c r="I525" s="8"/>
+    </row>
+    <row r="526" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A526" s="8"/>
+      <c r="B526" s="8"/>
+      <c r="C526" s="8"/>
+      <c r="D526" s="8"/>
+      <c r="E526" s="8"/>
+      <c r="F526" s="8"/>
+      <c r="G526" s="9"/>
+      <c r="H526" s="8"/>
+      <c r="I526" s="8"/>
+    </row>
+    <row r="527" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A527" s="8"/>
+      <c r="B527" s="8"/>
+      <c r="C527" s="8"/>
+      <c r="D527" s="8"/>
+      <c r="E527" s="8"/>
+      <c r="F527" s="8"/>
+      <c r="G527" s="9"/>
+      <c r="H527" s="8"/>
+      <c r="I527" s="8"/>
+    </row>
+    <row r="528" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A528" s="8"/>
+      <c r="B528" s="8"/>
+      <c r="C528" s="8"/>
+      <c r="D528" s="8"/>
+      <c r="E528" s="8"/>
+      <c r="F528" s="8"/>
+      <c r="G528" s="9"/>
+      <c r="H528" s="8"/>
+      <c r="I528" s="8"/>
+    </row>
+    <row r="529" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A529" s="8"/>
+      <c r="B529" s="8"/>
+      <c r="C529" s="8"/>
+      <c r="D529" s="8"/>
+      <c r="E529" s="8"/>
+      <c r="F529" s="8"/>
+      <c r="G529" s="9"/>
+      <c r="H529" s="8"/>
+      <c r="I529" s="8"/>
+    </row>
+    <row r="530" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A530" s="8"/>
+      <c r="B530" s="8"/>
+      <c r="C530" s="8"/>
+      <c r="D530" s="8"/>
+      <c r="E530" s="8"/>
+      <c r="F530" s="8"/>
+      <c r="G530" s="9"/>
+      <c r="H530" s="8"/>
+      <c r="I530" s="8"/>
+    </row>
+    <row r="531" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A531" s="8"/>
+      <c r="B531" s="8"/>
+      <c r="C531" s="8"/>
+      <c r="D531" s="8"/>
+      <c r="E531" s="8"/>
+      <c r="F531" s="8"/>
+      <c r="G531" s="9"/>
+      <c r="H531" s="8"/>
+      <c r="I531" s="8"/>
+    </row>
+    <row r="532" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A532" s="8"/>
+      <c r="B532" s="8"/>
+      <c r="C532" s="8"/>
+      <c r="D532" s="8"/>
+      <c r="E532" s="8"/>
+      <c r="F532" s="8"/>
+      <c r="G532" s="9"/>
+      <c r="H532" s="8"/>
+      <c r="I532" s="8"/>
+    </row>
+    <row r="533" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A533" s="8"/>
+      <c r="B533" s="8"/>
+      <c r="C533" s="8"/>
+      <c r="D533" s="8"/>
+      <c r="E533" s="8"/>
+      <c r="F533" s="8"/>
+      <c r="G533" s="9"/>
+      <c r="H533" s="8"/>
+      <c r="I533" s="8"/>
+    </row>
+    <row r="534" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A534" s="8"/>
+      <c r="B534" s="8"/>
+      <c r="C534" s="8"/>
+      <c r="D534" s="8"/>
+      <c r="E534" s="8"/>
+      <c r="F534" s="8"/>
+      <c r="G534" s="9"/>
+      <c r="H534" s="8"/>
+      <c r="I534" s="8"/>
+    </row>
+    <row r="535" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A535" s="8"/>
+      <c r="B535" s="8"/>
+      <c r="C535" s="8"/>
+      <c r="D535" s="8"/>
+      <c r="E535" s="8"/>
+      <c r="F535" s="8"/>
+      <c r="G535" s="9"/>
+      <c r="H535" s="8"/>
+      <c r="I535" s="8"/>
+    </row>
+    <row r="536" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A536" s="8"/>
+      <c r="B536" s="8"/>
+      <c r="C536" s="8"/>
+      <c r="D536" s="8"/>
+      <c r="E536" s="8"/>
+      <c r="F536" s="8"/>
+      <c r="G536" s="9"/>
+      <c r="H536" s="8"/>
+      <c r="I536" s="8"/>
+    </row>
+    <row r="537" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A537" s="8"/>
+      <c r="B537" s="8"/>
+      <c r="C537" s="8"/>
+      <c r="D537" s="8"/>
+      <c r="E537" s="8"/>
+      <c r="F537" s="8"/>
+      <c r="G537" s="9"/>
+      <c r="H537" s="8"/>
+      <c r="I537" s="8"/>
+    </row>
+    <row r="538" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A538" s="8"/>
+      <c r="B538" s="8"/>
+      <c r="C538" s="8"/>
+      <c r="D538" s="8"/>
+      <c r="E538" s="8"/>
+      <c r="F538" s="8"/>
+      <c r="G538" s="9"/>
+      <c r="H538" s="8"/>
+      <c r="I538" s="8"/>
+    </row>
+    <row r="539" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A539" s="8"/>
+      <c r="B539" s="8"/>
+      <c r="C539" s="8"/>
+      <c r="D539" s="8"/>
+      <c r="E539" s="8"/>
+      <c r="F539" s="8"/>
+      <c r="G539" s="9"/>
+      <c r="H539" s="8"/>
+      <c r="I539" s="8"/>
+    </row>
+    <row r="540" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A540" s="8"/>
+      <c r="B540" s="8"/>
+      <c r="C540" s="8"/>
+      <c r="D540" s="8"/>
+      <c r="E540" s="8"/>
+      <c r="F540" s="8"/>
+      <c r="G540" s="9"/>
+      <c r="H540" s="8"/>
+      <c r="I540" s="8"/>
+    </row>
+    <row r="541" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A541" s="8"/>
+      <c r="B541" s="8"/>
+      <c r="C541" s="8"/>
+      <c r="D541" s="8"/>
+      <c r="E541" s="8"/>
+      <c r="F541" s="8"/>
+      <c r="G541" s="9"/>
+      <c r="H541" s="8"/>
+      <c r="I541" s="8"/>
+    </row>
+    <row r="542" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A542" s="8"/>
+      <c r="B542" s="8"/>
+      <c r="C542" s="8"/>
+      <c r="D542" s="8"/>
+      <c r="E542" s="8"/>
+      <c r="F542" s="8"/>
+      <c r="G542" s="9"/>
+      <c r="H542" s="8"/>
+      <c r="I542" s="8"/>
+    </row>
+    <row r="543" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A543" s="8"/>
+      <c r="B543" s="8"/>
+      <c r="C543" s="8"/>
+      <c r="D543" s="8"/>
+      <c r="E543" s="8"/>
+      <c r="F543" s="8"/>
+      <c r="G543" s="9"/>
+      <c r="H543" s="8"/>
+      <c r="I543" s="8"/>
+    </row>
+    <row r="544" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A544" s="8"/>
+      <c r="B544" s="8"/>
+      <c r="C544" s="8"/>
+      <c r="D544" s="8"/>
+      <c r="E544" s="8"/>
+      <c r="F544" s="8"/>
+      <c r="G544" s="9"/>
+      <c r="H544" s="8"/>
+      <c r="I544" s="8"/>
+    </row>
+    <row r="545" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A545" s="8"/>
+      <c r="B545" s="8"/>
+      <c r="C545" s="8"/>
+      <c r="D545" s="8"/>
+      <c r="E545" s="8"/>
+      <c r="F545" s="8"/>
+      <c r="G545" s="9"/>
+      <c r="H545" s="8"/>
+      <c r="I545" s="8"/>
+    </row>
+    <row r="546" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A546" s="8"/>
+      <c r="B546" s="8"/>
+      <c r="C546" s="8"/>
+      <c r="D546" s="8"/>
+      <c r="E546" s="8"/>
+      <c r="F546" s="8"/>
+      <c r="G546" s="9"/>
+      <c r="H546" s="8"/>
+      <c r="I546" s="8"/>
+    </row>
+    <row r="547" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A547" s="8"/>
+      <c r="B547" s="8"/>
+      <c r="C547" s="8"/>
+      <c r="D547" s="8"/>
+      <c r="E547" s="8"/>
+      <c r="F547" s="8"/>
+      <c r="G547" s="9"/>
+      <c r="H547" s="8"/>
+      <c r="I547" s="8"/>
+    </row>
+    <row r="548" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A548" s="8"/>
+      <c r="B548" s="8"/>
+      <c r="C548" s="8"/>
+      <c r="D548" s="8"/>
+      <c r="E548" s="8"/>
+      <c r="F548" s="8"/>
+      <c r="G548" s="9"/>
+      <c r="H548" s="8"/>
+      <c r="I548" s="8"/>
+    </row>
+    <row r="549" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A549" s="8"/>
+      <c r="B549" s="8"/>
+      <c r="C549" s="8"/>
+      <c r="D549" s="8"/>
+      <c r="E549" s="8"/>
+      <c r="F549" s="8"/>
+      <c r="G549" s="9"/>
+      <c r="H549" s="8"/>
+      <c r="I549" s="8"/>
+    </row>
+    <row r="550" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A550" s="8"/>
+      <c r="B550" s="8"/>
+      <c r="C550" s="8"/>
+      <c r="D550" s="8"/>
+      <c r="E550" s="8"/>
+      <c r="F550" s="8"/>
+      <c r="G550" s="9"/>
+      <c r="H550" s="8"/>
+      <c r="I550" s="8"/>
+    </row>
+    <row r="551" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A551" s="8"/>
+      <c r="B551" s="8"/>
+      <c r="C551" s="8"/>
+      <c r="D551" s="8"/>
+      <c r="E551" s="8"/>
+      <c r="F551" s="8"/>
+      <c r="G551" s="9"/>
+      <c r="H551" s="8"/>
+      <c r="I551" s="8"/>
+    </row>
+    <row r="552" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A552" s="8"/>
+      <c r="B552" s="8"/>
+      <c r="C552" s="8"/>
+      <c r="D552" s="8"/>
+      <c r="E552" s="8"/>
+      <c r="F552" s="8"/>
+      <c r="G552" s="9"/>
+      <c r="H552" s="8"/>
+      <c r="I552" s="8"/>
+    </row>
+    <row r="553" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A553" s="8"/>
+      <c r="B553" s="8"/>
+      <c r="C553" s="8"/>
+      <c r="D553" s="8"/>
+      <c r="E553" s="8"/>
+      <c r="F553" s="8"/>
+      <c r="G553" s="9"/>
+      <c r="H553" s="8"/>
+      <c r="I553" s="8"/>
+    </row>
+    <row r="554" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A554" s="8"/>
+      <c r="B554" s="8"/>
+      <c r="C554" s="8"/>
+      <c r="D554" s="8"/>
+      <c r="E554" s="8"/>
+      <c r="F554" s="8"/>
+      <c r="G554" s="9"/>
+      <c r="H554" s="8"/>
+      <c r="I554" s="8"/>
+    </row>
+    <row r="555" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A555" s="8"/>
+      <c r="B555" s="8"/>
+      <c r="C555" s="8"/>
+      <c r="D555" s="8"/>
+      <c r="E555" s="8"/>
+      <c r="F555" s="8"/>
+      <c r="G555" s="9"/>
+      <c r="H555" s="8"/>
+      <c r="I555" s="8"/>
+    </row>
+    <row r="556" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A556" s="8"/>
+      <c r="B556" s="8"/>
+      <c r="C556" s="8"/>
+      <c r="D556" s="8"/>
+      <c r="E556" s="8"/>
+      <c r="F556" s="8"/>
+      <c r="G556" s="9"/>
+      <c r="H556" s="8"/>
+      <c r="I556" s="8"/>
+    </row>
+    <row r="557" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A557" s="8"/>
+      <c r="B557" s="8"/>
+      <c r="C557" s="8"/>
+      <c r="D557" s="8"/>
+      <c r="E557" s="8"/>
+      <c r="F557" s="8"/>
+      <c r="G557" s="9"/>
+      <c r="H557" s="8"/>
+      <c r="I557" s="8"/>
+    </row>
+    <row r="558" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A558" s="8"/>
+      <c r="B558" s="8"/>
+      <c r="C558" s="8"/>
+      <c r="D558" s="8"/>
+      <c r="E558" s="8"/>
+      <c r="F558" s="8"/>
+      <c r="G558" s="9"/>
+      <c r="H558" s="8"/>
+      <c r="I558" s="8"/>
+    </row>
+    <row r="559" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A559" s="8"/>
+      <c r="B559" s="8"/>
+      <c r="C559" s="8"/>
+      <c r="D559" s="8"/>
+      <c r="E559" s="8"/>
+      <c r="F559" s="8"/>
+      <c r="G559" s="9"/>
+      <c r="H559" s="8"/>
+      <c r="I559" s="8"/>
+    </row>
+    <row r="560" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A560" s="8"/>
+      <c r="B560" s="8"/>
+      <c r="C560" s="8"/>
+      <c r="D560" s="8"/>
+      <c r="E560" s="8"/>
+      <c r="F560" s="8"/>
+      <c r="G560" s="9"/>
+      <c r="H560" s="8"/>
+      <c r="I560" s="8"/>
+    </row>
+    <row r="561" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A561" s="8"/>
+      <c r="B561" s="8"/>
+      <c r="C561" s="8"/>
+      <c r="D561" s="8"/>
+      <c r="E561" s="8"/>
+      <c r="F561" s="8"/>
+      <c r="G561" s="9"/>
+      <c r="H561" s="8"/>
+      <c r="I561" s="8"/>
+    </row>
+    <row r="562" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A562" s="8"/>
+      <c r="B562" s="8"/>
+      <c r="C562" s="8"/>
+      <c r="D562" s="8"/>
+      <c r="E562" s="8"/>
+      <c r="F562" s="8"/>
+      <c r="G562" s="9"/>
+      <c r="H562" s="8"/>
+      <c r="I562" s="8"/>
+    </row>
+    <row r="563" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A563" s="8"/>
+      <c r="B563" s="8"/>
+      <c r="C563" s="8"/>
+      <c r="D563" s="8"/>
+      <c r="E563" s="8"/>
+      <c r="F563" s="8"/>
+      <c r="G563" s="9"/>
+      <c r="H563" s="8"/>
+      <c r="I563" s="8"/>
+    </row>
+    <row r="564" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A564" s="8"/>
+      <c r="B564" s="8"/>
+      <c r="C564" s="8"/>
+      <c r="D564" s="8"/>
+      <c r="E564" s="8"/>
+      <c r="F564" s="8"/>
+      <c r="G564" s="9"/>
+      <c r="H564" s="8"/>
+      <c r="I564" s="8"/>
+    </row>
+    <row r="565" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A565" s="8"/>
+      <c r="B565" s="8"/>
+      <c r="C565" s="8"/>
+      <c r="D565" s="8"/>
+      <c r="E565" s="8"/>
+      <c r="F565" s="8"/>
+      <c r="G565" s="9"/>
+      <c r="H565" s="8"/>
+      <c r="I565" s="8"/>
+    </row>
+    <row r="566" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A566" s="8"/>
+      <c r="B566" s="8"/>
+      <c r="C566" s="8"/>
+      <c r="D566" s="8"/>
+      <c r="E566" s="8"/>
+      <c r="F566" s="8"/>
+      <c r="G566" s="9"/>
+      <c r="H566" s="8"/>
+      <c r="I566" s="8"/>
+    </row>
+    <row r="567" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A567" s="8"/>
+      <c r="B567" s="8"/>
+      <c r="C567" s="8"/>
+      <c r="D567" s="8"/>
+      <c r="E567" s="8"/>
+      <c r="F567" s="8"/>
+      <c r="G567" s="9"/>
+      <c r="H567" s="8"/>
+      <c r="I567" s="8"/>
+    </row>
+    <row r="568" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A568" s="8"/>
+      <c r="B568" s="8"/>
+      <c r="C568" s="8"/>
+      <c r="D568" s="8"/>
+      <c r="E568" s="8"/>
+      <c r="F568" s="8"/>
+      <c r="G568" s="9"/>
+      <c r="H568" s="8"/>
+      <c r="I568" s="8"/>
+    </row>
+    <row r="569" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A569" s="8"/>
+      <c r="B569" s="8"/>
+      <c r="C569" s="8"/>
+      <c r="D569" s="8"/>
+      <c r="E569" s="8"/>
+      <c r="F569" s="8"/>
+      <c r="G569" s="9"/>
+      <c r="H569" s="8"/>
+      <c r="I569" s="8"/>
+    </row>
+    <row r="570" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A570" s="8"/>
+      <c r="B570" s="8"/>
+      <c r="C570" s="8"/>
+      <c r="D570" s="8"/>
+      <c r="E570" s="8"/>
+      <c r="F570" s="8"/>
+      <c r="G570" s="9"/>
+      <c r="H570" s="8"/>
+      <c r="I570" s="8"/>
+    </row>
+    <row r="571" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A571" s="8"/>
+      <c r="B571" s="8"/>
+      <c r="C571" s="8"/>
+      <c r="D571" s="8"/>
+      <c r="E571" s="8"/>
+      <c r="F571" s="8"/>
+      <c r="G571" s="9"/>
+      <c r="H571" s="8"/>
+      <c r="I571" s="8"/>
+    </row>
+    <row r="572" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A572" s="8"/>
+      <c r="B572" s="8"/>
+      <c r="C572" s="8"/>
+      <c r="D572" s="8"/>
+      <c r="E572" s="8"/>
+      <c r="F572" s="8"/>
+      <c r="G572" s="9"/>
+      <c r="H572" s="8"/>
+      <c r="I572" s="8"/>
+    </row>
+    <row r="573" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A573" s="8"/>
+      <c r="B573" s="8"/>
+      <c r="C573" s="8"/>
+      <c r="D573" s="8"/>
+      <c r="E573" s="8"/>
+      <c r="F573" s="8"/>
+      <c r="G573" s="9"/>
+      <c r="H573" s="8"/>
+      <c r="I573" s="8"/>
+    </row>
+    <row r="574" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A574" s="8"/>
+      <c r="B574" s="8"/>
+      <c r="C574" s="8"/>
+      <c r="D574" s="8"/>
+      <c r="E574" s="8"/>
+      <c r="F574" s="8"/>
+      <c r="G574" s="9"/>
+      <c r="H574" s="8"/>
+      <c r="I574" s="8"/>
+    </row>
+    <row r="575" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A575" s="8"/>
+      <c r="B575" s="8"/>
+      <c r="C575" s="8"/>
+      <c r="D575" s="8"/>
+      <c r="E575" s="8"/>
+      <c r="F575" s="8"/>
+      <c r="G575" s="9"/>
+      <c r="H575" s="8"/>
+      <c r="I575" s="8"/>
+    </row>
+    <row r="576" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A576" s="8"/>
+      <c r="B576" s="8"/>
+      <c r="C576" s="8"/>
+      <c r="D576" s="8"/>
+      <c r="E576" s="8"/>
+      <c r="F576" s="8"/>
+      <c r="G576" s="9"/>
+      <c r="H576" s="8"/>
+      <c r="I576" s="8"/>
+    </row>
+    <row r="577" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A577" s="8"/>
+      <c r="B577" s="8"/>
+      <c r="C577" s="8"/>
+      <c r="D577" s="8"/>
+      <c r="E577" s="8"/>
+      <c r="F577" s="8"/>
+      <c r="G577" s="9"/>
+      <c r="H577" s="8"/>
+      <c r="I577" s="8"/>
+    </row>
+    <row r="578" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A578" s="8"/>
+      <c r="B578" s="8"/>
+      <c r="C578" s="8"/>
+      <c r="D578" s="8"/>
+      <c r="E578" s="8"/>
+      <c r="F578" s="8"/>
+      <c r="G578" s="9"/>
+      <c r="H578" s="8"/>
+      <c r="I578" s="8"/>
+    </row>
+    <row r="579" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A579" s="8"/>
+      <c r="B579" s="8"/>
+      <c r="C579" s="8"/>
+      <c r="D579" s="8"/>
+      <c r="E579" s="8"/>
+      <c r="F579" s="8"/>
+      <c r="G579" s="9"/>
+      <c r="H579" s="8"/>
+      <c r="I579" s="8"/>
+    </row>
+    <row r="580" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A580" s="8"/>
+      <c r="B580" s="8"/>
+      <c r="C580" s="8"/>
+      <c r="D580" s="8"/>
+      <c r="E580" s="8"/>
+      <c r="F580" s="8"/>
+      <c r="G580" s="9"/>
+      <c r="H580" s="8"/>
+      <c r="I580" s="8"/>
+    </row>
+    <row r="581" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A581" s="8"/>
+      <c r="B581" s="8"/>
+      <c r="C581" s="8"/>
+      <c r="D581" s="8"/>
+      <c r="E581" s="8"/>
+      <c r="F581" s="8"/>
+      <c r="G581" s="9"/>
+      <c r="H581" s="8"/>
+      <c r="I581" s="8"/>
+    </row>
+    <row r="582" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A582" s="8"/>
+      <c r="B582" s="8"/>
+      <c r="C582" s="8"/>
+      <c r="D582" s="8"/>
+      <c r="E582" s="8"/>
+      <c r="F582" s="8"/>
+      <c r="G582" s="9"/>
+      <c r="H582" s="8"/>
+      <c r="I582" s="8"/>
+    </row>
+    <row r="583" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A583" s="8"/>
+      <c r="B583" s="8"/>
+      <c r="C583" s="8"/>
+      <c r="D583" s="8"/>
+      <c r="E583" s="8"/>
+      <c r="F583" s="8"/>
+      <c r="G583" s="9"/>
+      <c r="H583" s="8"/>
+      <c r="I583" s="8"/>
+    </row>
+    <row r="584" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A584" s="8"/>
+      <c r="B584" s="8"/>
+      <c r="C584" s="8"/>
+      <c r="D584" s="8"/>
+      <c r="E584" s="8"/>
+      <c r="F584" s="8"/>
+      <c r="G584" s="9"/>
+      <c r="H584" s="8"/>
+      <c r="I584" s="8"/>
+    </row>
+    <row r="585" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A585" s="8"/>
+      <c r="B585" s="8"/>
+      <c r="C585" s="8"/>
+      <c r="D585" s="8"/>
+      <c r="E585" s="8"/>
+      <c r="F585" s="8"/>
+      <c r="G585" s="9"/>
+      <c r="H585" s="8"/>
+      <c r="I585" s="8"/>
+    </row>
+    <row r="586" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A586" s="8"/>
+      <c r="B586" s="8"/>
+      <c r="C586" s="8"/>
+      <c r="D586" s="8"/>
+      <c r="E586" s="8"/>
+      <c r="F586" s="8"/>
+      <c r="G586" s="9"/>
+      <c r="H586" s="8"/>
+      <c r="I586" s="8"/>
+    </row>
+    <row r="587" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A587" s="8"/>
+      <c r="B587" s="8"/>
+      <c r="C587" s="8"/>
+      <c r="D587" s="8"/>
+      <c r="E587" s="8"/>
+      <c r="F587" s="8"/>
+      <c r="G587" s="9"/>
+      <c r="H587" s="8"/>
+      <c r="I587" s="8"/>
+    </row>
+    <row r="588" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A588" s="8"/>
+      <c r="B588" s="8"/>
+      <c r="C588" s="8"/>
+      <c r="D588" s="8"/>
+      <c r="E588" s="8"/>
+      <c r="F588" s="8"/>
+      <c r="G588" s="9"/>
+      <c r="H588" s="8"/>
+      <c r="I588" s="8"/>
+    </row>
+    <row r="589" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A589" s="8"/>
+      <c r="B589" s="8"/>
+      <c r="C589" s="8"/>
+      <c r="D589" s="8"/>
+      <c r="E589" s="8"/>
+      <c r="F589" s="8"/>
+      <c r="G589" s="9"/>
+      <c r="H589" s="8"/>
+      <c r="I589" s="8"/>
+    </row>
+    <row r="590" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A590" s="8"/>
+      <c r="B590" s="8"/>
+      <c r="C590" s="8"/>
+      <c r="D590" s="8"/>
+      <c r="E590" s="8"/>
+      <c r="F590" s="8"/>
+      <c r="G590" s="9"/>
+      <c r="H590" s="8"/>
+      <c r="I590" s="8"/>
+    </row>
+    <row r="591" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A591" s="8"/>
+      <c r="B591" s="8"/>
+      <c r="C591" s="8"/>
+      <c r="D591" s="8"/>
+      <c r="E591" s="8"/>
+      <c r="F591" s="8"/>
+      <c r="G591" s="9"/>
+      <c r="H591" s="8"/>
+      <c r="I591" s="8"/>
+    </row>
+    <row r="592" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A592" s="8"/>
+      <c r="B592" s="8"/>
+      <c r="C592" s="8"/>
+      <c r="D592" s="8"/>
+      <c r="E592" s="8"/>
+      <c r="F592" s="8"/>
+      <c r="G592" s="9"/>
+      <c r="H592" s="8"/>
+      <c r="I592" s="8"/>
+    </row>
+    <row r="593" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A593" s="8"/>
+      <c r="B593" s="8"/>
+      <c r="C593" s="8"/>
+      <c r="D593" s="8"/>
+      <c r="E593" s="8"/>
+      <c r="F593" s="8"/>
+      <c r="G593" s="9"/>
+      <c r="H593" s="8"/>
+      <c r="I593" s="8"/>
+    </row>
+    <row r="594" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A594" s="8"/>
+      <c r="B594" s="8"/>
+      <c r="C594" s="8"/>
+      <c r="D594" s="8"/>
+      <c r="E594" s="8"/>
+      <c r="F594" s="8"/>
+      <c r="G594" s="9"/>
+      <c r="H594" s="8"/>
+      <c r="I594" s="8"/>
+    </row>
+    <row r="595" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A595" s="8"/>
+      <c r="B595" s="8"/>
+      <c r="C595" s="8"/>
+      <c r="D595" s="8"/>
+      <c r="E595" s="8"/>
+      <c r="F595" s="8"/>
+      <c r="G595" s="9"/>
+      <c r="H595" s="8"/>
+      <c r="I595" s="8"/>
+    </row>
+    <row r="596" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A596" s="8"/>
+      <c r="B596" s="8"/>
+      <c r="C596" s="8"/>
+      <c r="D596" s="8"/>
+      <c r="E596" s="8"/>
+      <c r="F596" s="8"/>
+      <c r="G596" s="9"/>
+      <c r="H596" s="8"/>
+      <c r="I596" s="8"/>
+    </row>
+    <row r="597" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A597" s="8"/>
+      <c r="B597" s="8"/>
+      <c r="C597" s="8"/>
+      <c r="D597" s="8"/>
+      <c r="E597" s="8"/>
+      <c r="F597" s="8"/>
+      <c r="G597" s="9"/>
+      <c r="H597" s="8"/>
+      <c r="I597" s="8"/>
+    </row>
+    <row r="598" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A598" s="8"/>
+      <c r="B598" s="8"/>
+      <c r="C598" s="8"/>
+      <c r="D598" s="8"/>
+      <c r="E598" s="8"/>
+      <c r="F598" s="8"/>
+      <c r="G598" s="9"/>
+      <c r="H598" s="8"/>
+      <c r="I598" s="8"/>
+    </row>
+    <row r="599" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A599" s="8"/>
+      <c r="B599" s="8"/>
+      <c r="C599" s="8"/>
+      <c r="D599" s="8"/>
+      <c r="E599" s="8"/>
+      <c r="F599" s="8"/>
+      <c r="G599" s="9"/>
+      <c r="H599" s="8"/>
+      <c r="I599" s="8"/>
+    </row>
+    <row r="600" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A600" s="8"/>
+      <c r="B600" s="8"/>
+      <c r="C600" s="8"/>
+      <c r="D600" s="8"/>
+      <c r="E600" s="8"/>
+      <c r="F600" s="8"/>
+      <c r="G600" s="9"/>
+      <c r="H600" s="8"/>
+      <c r="I600" s="8"/>
+    </row>
+    <row r="601" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A601" s="8"/>
+      <c r="B601" s="8"/>
+      <c r="C601" s="8"/>
+      <c r="D601" s="8"/>
+      <c r="E601" s="8"/>
+      <c r="F601" s="8"/>
+      <c r="G601" s="9"/>
+      <c r="H601" s="8"/>
+      <c r="I601" s="8"/>
+    </row>
+    <row r="602" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A602" s="8"/>
+      <c r="B602" s="8"/>
+      <c r="C602" s="8"/>
+      <c r="D602" s="8"/>
+      <c r="E602" s="8"/>
+      <c r="F602" s="8"/>
+      <c r="G602" s="9"/>
+      <c r="H602" s="8"/>
+      <c r="I602" s="8"/>
+    </row>
+    <row r="603" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A603" s="8"/>
+      <c r="B603" s="8"/>
+      <c r="C603" s="8"/>
+      <c r="D603" s="8"/>
+      <c r="E603" s="8"/>
+      <c r="F603" s="8"/>
+      <c r="G603" s="9"/>
+      <c r="H603" s="8"/>
+      <c r="I603" s="8"/>
+    </row>
+    <row r="604" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A604" s="8"/>
+      <c r="B604" s="8"/>
+      <c r="C604" s="8"/>
+      <c r="D604" s="8"/>
+      <c r="E604" s="8"/>
+      <c r="F604" s="8"/>
+      <c r="G604" s="9"/>
+      <c r="H604" s="8"/>
+      <c r="I604" s="8"/>
+    </row>
+    <row r="605" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A605" s="8"/>
+      <c r="B605" s="8"/>
+      <c r="C605" s="8"/>
+      <c r="D605" s="8"/>
+      <c r="E605" s="8"/>
+      <c r="F605" s="8"/>
+      <c r="G605" s="9"/>
+      <c r="H605" s="8"/>
+      <c r="I605" s="8"/>
+    </row>
+    <row r="606" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A606" s="8"/>
+      <c r="B606" s="8"/>
+      <c r="C606" s="8"/>
+      <c r="D606" s="8"/>
+      <c r="E606" s="8"/>
+      <c r="F606" s="8"/>
+      <c r="G606" s="9"/>
+      <c r="H606" s="8"/>
+      <c r="I606" s="8"/>
+    </row>
+    <row r="607" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A607" s="8"/>
+      <c r="B607" s="8"/>
+      <c r="C607" s="8"/>
+      <c r="D607" s="8"/>
+      <c r="E607" s="8"/>
+      <c r="F607" s="8"/>
+      <c r="G607" s="9"/>
+      <c r="H607" s="8"/>
+      <c r="I607" s="8"/>
+    </row>
+    <row r="608" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A608" s="8"/>
+      <c r="B608" s="8"/>
+      <c r="C608" s="8"/>
+      <c r="D608" s="8"/>
+      <c r="E608" s="8"/>
+      <c r="F608" s="8"/>
+      <c r="G608" s="9"/>
+      <c r="H608" s="8"/>
+      <c r="I608" s="8"/>
+    </row>
+    <row r="609" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A609" s="8"/>
+      <c r="B609" s="8"/>
+      <c r="C609" s="8"/>
+      <c r="D609" s="8"/>
+      <c r="E609" s="8"/>
+      <c r="F609" s="8"/>
+      <c r="G609" s="9"/>
+      <c r="H609" s="8"/>
+      <c r="I609" s="8"/>
+    </row>
+    <row r="610" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A610" s="8"/>
+      <c r="B610" s="8"/>
+      <c r="C610" s="8"/>
+      <c r="D610" s="8"/>
+      <c r="E610" s="8"/>
+      <c r="F610" s="8"/>
+      <c r="G610" s="9"/>
+      <c r="H610" s="8"/>
+      <c r="I610" s="8"/>
+    </row>
+    <row r="611" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A611" s="8"/>
+      <c r="B611" s="8"/>
+      <c r="C611" s="8"/>
+      <c r="D611" s="8"/>
+      <c r="E611" s="8"/>
+      <c r="F611" s="8"/>
+      <c r="G611" s="9"/>
+      <c r="H611" s="8"/>
+      <c r="I611" s="8"/>
+    </row>
+    <row r="612" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A612" s="8"/>
+      <c r="B612" s="8"/>
+      <c r="C612" s="8"/>
+      <c r="D612" s="8"/>
+      <c r="E612" s="8"/>
+      <c r="F612" s="8"/>
+      <c r="G612" s="9"/>
+      <c r="H612" s="8"/>
+      <c r="I612" s="8"/>
+    </row>
+    <row r="613" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A613" s="8"/>
+      <c r="B613" s="8"/>
+      <c r="C613" s="8"/>
+      <c r="D613" s="8"/>
+      <c r="E613" s="8"/>
+      <c r="F613" s="8"/>
+      <c r="G613" s="9"/>
+      <c r="H613" s="8"/>
+      <c r="I613" s="8"/>
+    </row>
+    <row r="614" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A614" s="8"/>
+      <c r="B614" s="8"/>
+      <c r="C614" s="8"/>
+      <c r="D614" s="8"/>
+      <c r="E614" s="8"/>
+      <c r="F614" s="8"/>
+      <c r="G614" s="9"/>
+      <c r="H614" s="8"/>
+      <c r="I614" s="8"/>
+    </row>
+    <row r="615" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A615" s="8"/>
+      <c r="B615" s="8"/>
+      <c r="C615" s="8"/>
+      <c r="D615" s="8"/>
+      <c r="E615" s="8"/>
+      <c r="F615" s="8"/>
+      <c r="G615" s="9"/>
+      <c r="H615" s="8"/>
+      <c r="I615" s="8"/>
+    </row>
+    <row r="616" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A616" s="8"/>
+      <c r="B616" s="8"/>
+      <c r="C616" s="8"/>
+      <c r="D616" s="8"/>
+      <c r="E616" s="8"/>
+      <c r="F616" s="8"/>
+      <c r="G616" s="9"/>
+      <c r="H616" s="8"/>
+      <c r="I616" s="8"/>
+    </row>
+    <row r="617" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A617" s="8"/>
+      <c r="B617" s="8"/>
+      <c r="C617" s="8"/>
+      <c r="D617" s="8"/>
+      <c r="E617" s="8"/>
+      <c r="F617" s="8"/>
+      <c r="G617" s="9"/>
+      <c r="H617" s="8"/>
+      <c r="I617" s="8"/>
+    </row>
+    <row r="618" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A618" s="8"/>
+      <c r="B618" s="8"/>
+      <c r="C618" s="8"/>
+      <c r="D618" s="8"/>
+      <c r="E618" s="8"/>
+      <c r="F618" s="8"/>
+      <c r="G618" s="9"/>
+      <c r="H618" s="8"/>
+      <c r="I618" s="8"/>
+    </row>
+    <row r="619" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A619" s="8"/>
+      <c r="B619" s="8"/>
+      <c r="C619" s="8"/>
+      <c r="D619" s="8"/>
+      <c r="E619" s="8"/>
+      <c r="F619" s="8"/>
+      <c r="G619" s="9"/>
+      <c r="H619" s="8"/>
+      <c r="I619" s="8"/>
+    </row>
+    <row r="620" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A620" s="8"/>
+      <c r="B620" s="8"/>
+      <c r="C620" s="8"/>
+      <c r="D620" s="8"/>
+      <c r="E620" s="8"/>
+      <c r="F620" s="8"/>
+      <c r="G620" s="9"/>
+      <c r="H620" s="8"/>
+      <c r="I620" s="8"/>
+    </row>
+    <row r="621" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A621" s="8"/>
+      <c r="B621" s="8"/>
+      <c r="C621" s="8"/>
+      <c r="D621" s="8"/>
+      <c r="E621" s="8"/>
+      <c r="F621" s="8"/>
+      <c r="G621" s="9"/>
+      <c r="H621" s="8"/>
+      <c r="I621" s="8"/>
+    </row>
+    <row r="622" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A622" s="8"/>
+      <c r="B622" s="8"/>
+      <c r="C622" s="8"/>
+      <c r="D622" s="8"/>
+      <c r="E622" s="8"/>
+      <c r="F622" s="8"/>
+      <c r="G622" s="9"/>
+      <c r="H622" s="8"/>
+      <c r="I622" s="8"/>
+    </row>
+    <row r="623" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A623" s="8"/>
+      <c r="B623" s="8"/>
+      <c r="C623" s="8"/>
+      <c r="D623" s="8"/>
+      <c r="E623" s="8"/>
+      <c r="F623" s="8"/>
+      <c r="G623" s="9"/>
+      <c r="H623" s="8"/>
+      <c r="I623" s="8"/>
+    </row>
+    <row r="624" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A624" s="8"/>
+      <c r="B624" s="8"/>
+      <c r="C624" s="8"/>
+      <c r="D624" s="8"/>
+      <c r="E624" s="8"/>
+      <c r="F624" s="8"/>
+      <c r="G624" s="9"/>
+      <c r="H624" s="8"/>
+      <c r="I624" s="8"/>
+    </row>
+    <row r="625" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A625" s="8"/>
+      <c r="B625" s="8"/>
+      <c r="C625" s="8"/>
+      <c r="D625" s="8"/>
+      <c r="E625" s="8"/>
+      <c r="F625" s="8"/>
+      <c r="G625" s="9"/>
+      <c r="H625" s="8"/>
+      <c r="I625" s="8"/>
+    </row>
+    <row r="626" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A626" s="8"/>
+      <c r="B626" s="8"/>
+      <c r="C626" s="8"/>
+      <c r="D626" s="8"/>
+      <c r="E626" s="8"/>
+      <c r="F626" s="8"/>
+      <c r="G626" s="9"/>
+      <c r="H626" s="8"/>
+      <c r="I626" s="8"/>
+    </row>
+    <row r="627" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A627" s="8"/>
+      <c r="B627" s="8"/>
+      <c r="C627" s="8"/>
+      <c r="D627" s="8"/>
+      <c r="E627" s="8"/>
+      <c r="F627" s="8"/>
+      <c r="G627" s="9"/>
+      <c r="H627" s="8"/>
+      <c r="I627" s="8"/>
+    </row>
+    <row r="628" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A628" s="8"/>
+      <c r="B628" s="8"/>
+      <c r="C628" s="8"/>
+      <c r="D628" s="8"/>
+      <c r="E628" s="8"/>
+      <c r="F628" s="8"/>
+      <c r="G628" s="9"/>
+      <c r="H628" s="8"/>
+      <c r="I628" s="8"/>
+    </row>
+    <row r="629" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A629" s="8"/>
+      <c r="B629" s="8"/>
+      <c r="C629" s="8"/>
+      <c r="D629" s="8"/>
+      <c r="E629" s="8"/>
+      <c r="F629" s="8"/>
+      <c r="G629" s="9"/>
+      <c r="H629" s="8"/>
+      <c r="I629" s="8"/>
+    </row>
+    <row r="630" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A630" s="8"/>
+      <c r="B630" s="8"/>
+      <c r="C630" s="8"/>
+      <c r="D630" s="8"/>
+      <c r="E630" s="8"/>
+      <c r="F630" s="8"/>
+      <c r="G630" s="9"/>
+      <c r="H630" s="8"/>
+      <c r="I630" s="8"/>
+    </row>
+    <row r="631" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A631" s="8"/>
+      <c r="B631" s="8"/>
+      <c r="C631" s="8"/>
+      <c r="D631" s="8"/>
+      <c r="E631" s="8"/>
+      <c r="F631" s="8"/>
+      <c r="G631" s="9"/>
+      <c r="H631" s="8"/>
+      <c r="I631" s="8"/>
+    </row>
+    <row r="632" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A632" s="8"/>
+      <c r="B632" s="8"/>
+      <c r="C632" s="8"/>
+      <c r="D632" s="8"/>
+      <c r="E632" s="8"/>
+      <c r="F632" s="8"/>
+      <c r="G632" s="9"/>
+      <c r="H632" s="8"/>
+      <c r="I632" s="8"/>
+    </row>
+    <row r="633" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A633" s="8"/>
+      <c r="B633" s="8"/>
+      <c r="C633" s="8"/>
+      <c r="D633" s="8"/>
+      <c r="E633" s="8"/>
+      <c r="F633" s="8"/>
+      <c r="G633" s="9"/>
+      <c r="H633" s="8"/>
+      <c r="I633" s="8"/>
+    </row>
+    <row r="634" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A634" s="8"/>
+      <c r="B634" s="8"/>
+      <c r="C634" s="8"/>
+      <c r="D634" s="8"/>
+      <c r="E634" s="8"/>
+      <c r="F634" s="8"/>
+      <c r="G634" s="9"/>
+      <c r="H634" s="8"/>
+      <c r="I634" s="8"/>
+    </row>
+    <row r="635" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A635" s="8"/>
+      <c r="B635" s="8"/>
+      <c r="C635" s="8"/>
+      <c r="D635" s="8"/>
+      <c r="E635" s="8"/>
+      <c r="F635" s="8"/>
+      <c r="G635" s="9"/>
+      <c r="H635" s="8"/>
+      <c r="I635" s="8"/>
+    </row>
+    <row r="636" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A636" s="8"/>
+      <c r="B636" s="8"/>
+      <c r="C636" s="8"/>
+      <c r="D636" s="8"/>
+      <c r="E636" s="8"/>
+      <c r="F636" s="8"/>
+      <c r="G636" s="9"/>
+      <c r="H636" s="8"/>
+      <c r="I636" s="8"/>
+    </row>
+    <row r="637" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A637" s="8"/>
+      <c r="B637" s="8"/>
+      <c r="C637" s="8"/>
+      <c r="D637" s="8"/>
+      <c r="E637" s="8"/>
+      <c r="F637" s="8"/>
+      <c r="G637" s="9"/>
+      <c r="H637" s="8"/>
+      <c r="I637" s="8"/>
+    </row>
+    <row r="638" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A638" s="8"/>
+      <c r="B638" s="8"/>
+      <c r="C638" s="8"/>
+      <c r="D638" s="8"/>
+      <c r="E638" s="8"/>
+      <c r="F638" s="8"/>
+      <c r="G638" s="9"/>
+      <c r="H638" s="8"/>
+      <c r="I638" s="8"/>
+    </row>
+    <row r="639" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A639" s="8"/>
+      <c r="B639" s="8"/>
+      <c r="C639" s="8"/>
+      <c r="D639" s="8"/>
+      <c r="E639" s="8"/>
+      <c r="F639" s="8"/>
+      <c r="G639" s="9"/>
+      <c r="H639" s="8"/>
+      <c r="I639" s="8"/>
+    </row>
+    <row r="640" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A640" s="8"/>
+      <c r="B640" s="8"/>
+      <c r="C640" s="8"/>
+      <c r="D640" s="8"/>
+      <c r="E640" s="8"/>
+      <c r="F640" s="8"/>
+      <c r="G640" s="9"/>
+      <c r="H640" s="8"/>
+      <c r="I640" s="8"/>
+    </row>
+    <row r="641" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A641" s="8"/>
+      <c r="B641" s="8"/>
+      <c r="C641" s="8"/>
+      <c r="D641" s="8"/>
+      <c r="E641" s="8"/>
+      <c r="F641" s="8"/>
+      <c r="G641" s="9"/>
+      <c r="H641" s="8"/>
+      <c r="I641" s="8"/>
+    </row>
+    <row r="642" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A642" s="8"/>
+      <c r="B642" s="8"/>
+      <c r="C642" s="8"/>
+      <c r="D642" s="8"/>
+      <c r="E642" s="8"/>
+      <c r="F642" s="8"/>
+      <c r="G642" s="9"/>
+      <c r="H642" s="8"/>
+      <c r="I642" s="8"/>
+    </row>
+    <row r="643" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A643" s="8"/>
+      <c r="B643" s="8"/>
+      <c r="C643" s="8"/>
+      <c r="D643" s="8"/>
+      <c r="E643" s="8"/>
+      <c r="F643" s="8"/>
+      <c r="G643" s="9"/>
+      <c r="H643" s="8"/>
+      <c r="I643" s="8"/>
+    </row>
+    <row r="644" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A644" s="8"/>
+      <c r="B644" s="8"/>
+      <c r="C644" s="8"/>
+      <c r="D644" s="8"/>
+      <c r="E644" s="8"/>
+      <c r="F644" s="8"/>
+      <c r="G644" s="9"/>
+      <c r="H644" s="8"/>
+      <c r="I644" s="8"/>
+    </row>
+    <row r="645" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A645" s="8"/>
+      <c r="B645" s="8"/>
+      <c r="C645" s="8"/>
+      <c r="D645" s="8"/>
+      <c r="E645" s="8"/>
+      <c r="F645" s="8"/>
+      <c r="G645" s="9"/>
+      <c r="H645" s="8"/>
+      <c r="I645" s="8"/>
+    </row>
+    <row r="646" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A646" s="8"/>
+      <c r="B646" s="8"/>
+      <c r="C646" s="8"/>
+      <c r="D646" s="8"/>
+      <c r="E646" s="8"/>
+      <c r="F646" s="8"/>
+      <c r="G646" s="9"/>
+      <c r="H646" s="8"/>
+      <c r="I646" s="8"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I137" xr:uid="{73D03841-840F-48EF-840B-36FDA2E59E7D}">
-    <filterColumn colId="7">
-      <filters>
-        <filter val="Pais"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:I161" xr:uid="{73D03841-840F-48EF-840B-36FDA2E59E7D}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I176">
     <sortCondition ref="A109:A176"/>
   </sortState>
@@ -4886,19 +11157,19 @@
           <x14:formula1>
             <xm:f>lists!$A$1:$A$6</xm:f>
           </x14:formula1>
-          <xm:sqref>B1:B1048576</xm:sqref>
+          <xm:sqref>B2:B1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D06842C6-7F73-430C-B7C3-BAA238D3189E}">
           <x14:formula1>
             <xm:f>lists!$B$1:$B$10</xm:f>
           </x14:formula1>
-          <xm:sqref>C1 C131:C1048576</xm:sqref>
+          <xm:sqref>C177:C1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{790B5306-A74C-4E52-BB85-C4249CF769EB}">
           <x14:formula1>
             <xm:f>lists!$C$1:$C$11</xm:f>
           </x14:formula1>
-          <xm:sqref>D1:D13</xm:sqref>
+          <xm:sqref>D2:D13</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E87165FA-15D3-4B9C-BFC7-CBABAFD0C4D5}">
           <x14:formula1>
@@ -4910,19 +11181,19 @@
           <x14:formula1>
             <xm:f>lists!$F$1:$F$5</xm:f>
           </x14:formula1>
-          <xm:sqref>I1:I1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{04942904-3FBB-45D7-9BF4-EBBEB52C8780}">
-          <x14:formula1>
-            <xm:f>lists!$B$1:$B$11</xm:f>
-          </x14:formula1>
-          <xm:sqref>C2:C130</xm:sqref>
+          <xm:sqref>I2:I1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3CE41949-4710-47B6-986D-722B16D67FA2}">
           <x14:formula1>
             <xm:f>lists!$C$1:$C$20</xm:f>
           </x14:formula1>
           <xm:sqref>D14:D1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C6EC821F-027F-404E-9E36-EF42A08CC57F}">
+          <x14:formula1>
+            <xm:f>lists!$B$1:$B$15</xm:f>
+          </x14:formula1>
+          <xm:sqref>C2:C176</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4935,7 +11206,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5072,6 +11343,9 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
+        <v>145</v>
+      </c>
       <c r="C12" t="s">
         <v>136</v>
       </c>

--- a/assets/cost_sheet.xlsx
+++ b/assets/cost_sheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/56c9449150e6bc49/Documentos/FEARP/Intercambio/spendure_app/assets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/56C9449150E6BC49/Documentos/FEARP/Intercambio/spendure_app/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1130" documentId="8_{697955BF-7644-43E6-B102-A5718628249A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4D724744-9F81-4CA9-A563-538259064534}"/>
+  <xr:revisionPtr revIDLastSave="1469" documentId="8_{697955BF-7644-43E6-B102-A5718628249A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{01F5E6A2-577C-4ACB-BC31-E27C2C985B56}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{3A902579-E7D0-4425-859E-D7B710BECD9D}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1145" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1379" uniqueCount="208">
   <si>
     <t>Data</t>
   </si>
@@ -330,9 +330,6 @@
     <t>Roma</t>
   </si>
   <si>
-    <t>Dolomitas</t>
-  </si>
-  <si>
     <t>Aribnb dolomitas</t>
   </si>
   <si>
@@ -589,6 +586,84 @@
   </si>
   <si>
     <t>Passagem metro</t>
+  </si>
+  <si>
+    <t>Transferência João</t>
+  </si>
+  <si>
+    <t>Metro</t>
+  </si>
+  <si>
+    <t>Boné Polo</t>
+  </si>
+  <si>
+    <t>Carrefour</t>
+  </si>
+  <si>
+    <t>Mochila Viagem</t>
+  </si>
+  <si>
+    <t>Tênis Trilha</t>
+  </si>
+  <si>
+    <t>Calça Columbia</t>
+  </si>
+  <si>
+    <t>Calça Levis</t>
+  </si>
+  <si>
+    <t>Café Mensana (+Armaan)</t>
+  </si>
+  <si>
+    <t>Janta Aeroporto</t>
+  </si>
+  <si>
+    <t>Bar Suíca</t>
+  </si>
+  <si>
+    <t>Chocolate Laderach</t>
+  </si>
+  <si>
+    <t>Lyon</t>
+  </si>
+  <si>
+    <t>Mensal Glovo</t>
+  </si>
+  <si>
+    <t>Café Aeroporto</t>
+  </si>
+  <si>
+    <t>Almoço + Bebidas</t>
+  </si>
+  <si>
+    <t>Protetor Labial</t>
+  </si>
+  <si>
+    <t>Kapadokya</t>
+  </si>
+  <si>
+    <t>Airbnb Milão</t>
+  </si>
+  <si>
+    <t>Dolomitas + Milão</t>
+  </si>
+  <si>
+    <t>Sushi</t>
+  </si>
+  <si>
+    <t>Café Faculdade</t>
+  </si>
+  <si>
+    <t>Metro 2o trimestre</t>
+  </si>
+  <si>
+    <t>Snack 55</t>
+  </si>
+  <si>
+    <t>The Moon</t>
+  </si>
+  <si>
+    <t>Passagem Bolzano Milão</t>
   </si>
 </sst>
 </file>
@@ -687,7 +762,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -705,10 +780,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1030,8 +1101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73D03841-840F-48EF-840B-36FDA2E59E7D}">
   <dimension ref="A1:I646"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A180" workbookViewId="0">
-      <selection activeCell="G191" sqref="G191"/>
+    <sheetView tabSelected="1" topLeftCell="A221" workbookViewId="0">
+      <selection activeCell="J238" sqref="J238"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2670,10 +2741,10 @@
         <v>93</v>
       </c>
       <c r="E65" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F65" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>142</v>
       </c>
       <c r="G65" s="3">
         <v>27</v>
@@ -2748,7 +2819,7 @@
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
       <c r="F68" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G68" s="3">
         <v>4.9000000000000004</v>
@@ -2802,7 +2873,7 @@
         <v>94</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G70" s="3">
         <v>180.5</v>
@@ -2881,7 +2952,7 @@
         <v>94</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G73" s="3">
         <v>54</v>
@@ -2979,7 +3050,7 @@
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G77" s="3">
         <v>16.989999999999998</v>
@@ -3004,7 +3075,7 @@
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G78" s="3">
         <v>23.2</v>
@@ -3029,7 +3100,7 @@
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G79" s="3">
         <v>2.6</v>
@@ -3083,7 +3154,7 @@
         <v>95</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G81" s="3">
         <v>28.42</v>
@@ -3112,7 +3183,7 @@
         <v>95</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G82" s="3">
         <v>23.21</v>
@@ -3141,7 +3212,7 @@
         <v>94</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G83" s="3">
         <v>6.55</v>
@@ -3170,7 +3241,7 @@
         <v>94</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G84" s="3">
         <v>8</v>
@@ -3195,7 +3266,7 @@
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G85" s="3">
         <v>11.7</v>
@@ -3221,10 +3292,10 @@
         <v>85</v>
       </c>
       <c r="E86" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="F86" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>97</v>
       </c>
       <c r="G86" s="3">
         <v>112.25</v>
@@ -3253,7 +3324,7 @@
         <v>94</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G87" s="3">
         <v>31.15</v>
@@ -3282,7 +3353,7 @@
         <v>94</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G88" s="3">
         <v>4</v>
@@ -3311,7 +3382,7 @@
         <v>94</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G89" s="3">
         <v>2.8</v>
@@ -3340,7 +3411,7 @@
         <v>94</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G90" s="3">
         <v>12</v>
@@ -3398,7 +3469,7 @@
         <v>94</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G92" s="3">
         <v>2.8</v>
@@ -3427,7 +3498,7 @@
         <v>94</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G93" s="3">
         <v>3.1</v>
@@ -3485,7 +3556,7 @@
         <v>94</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G95" s="3">
         <v>16</v>
@@ -3514,7 +3585,7 @@
         <v>94</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G96" s="3">
         <v>5.4</v>
@@ -3614,7 +3685,7 @@
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G100" s="3">
         <v>5.9</v>
@@ -3639,7 +3710,7 @@
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G101" s="3">
         <v>2</v>
@@ -3714,7 +3785,7 @@
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G104" s="3">
         <v>7.7</v>
@@ -3739,7 +3810,7 @@
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G105" s="3">
         <v>5</v>
@@ -3764,7 +3835,7 @@
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G106" s="3">
         <v>2.6</v>
@@ -3814,7 +3885,7 @@
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G108" s="3">
         <v>10.09</v>
@@ -3840,10 +3911,10 @@
         <v>84</v>
       </c>
       <c r="E109" s="8" t="s">
-        <v>96</v>
+        <v>201</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G109" s="3">
         <v>51</v>
@@ -3893,7 +3964,7 @@
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G111" s="3">
         <v>16</v>
@@ -3918,7 +3989,7 @@
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G112" s="3">
         <v>13.75</v>
@@ -3943,7 +4014,7 @@
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G113" s="3">
         <v>7</v>
@@ -3968,7 +4039,7 @@
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G114" s="3">
         <v>7.9</v>
@@ -3993,7 +4064,7 @@
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G115" s="3">
         <v>14.25</v>
@@ -4018,7 +4089,7 @@
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G116" s="3">
         <v>14.9</v>
@@ -4043,7 +4114,7 @@
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G117" s="3">
         <v>3.4</v>
@@ -4093,7 +4164,7 @@
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G119" s="3">
         <v>11.6</v>
@@ -4118,7 +4189,7 @@
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G120" s="9">
         <v>3.95</v>
@@ -4147,7 +4218,7 @@
         <v>95</v>
       </c>
       <c r="F121" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G121" s="3">
         <v>83.92</v>
@@ -4172,7 +4243,7 @@
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G122" s="3">
         <v>7.25</v>
@@ -4222,7 +4293,7 @@
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G124" s="9">
         <v>10.5</v>
@@ -4248,10 +4319,10 @@
         <v>84</v>
       </c>
       <c r="E125" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F125" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G125" s="9">
         <v>89.28</v>
@@ -4276,7 +4347,7 @@
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G126" s="9">
         <v>8</v>
@@ -4301,7 +4372,7 @@
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G127" s="9">
         <v>9.93</v>
@@ -4326,7 +4397,7 @@
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G128" s="9">
         <v>100.1</v>
@@ -4351,7 +4422,7 @@
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G129" s="9">
         <v>11.5</v>
@@ -4376,7 +4447,7 @@
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G130" s="9">
         <v>10</v>
@@ -4399,13 +4470,13 @@
         <v>29</v>
       </c>
       <c r="D131" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E131" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F131" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G131" s="9">
         <v>26</v>
@@ -4430,7 +4501,7 @@
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G132" s="9">
         <v>10.5</v>
@@ -4455,7 +4526,7 @@
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
       <c r="F133" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G133" s="9">
         <v>12.7</v>
@@ -4480,7 +4551,7 @@
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
       <c r="F134" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G134" s="9">
         <v>3.3</v>
@@ -4505,7 +4576,7 @@
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
       <c r="F135" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G135" s="9">
         <v>1.6</v>
@@ -4630,7 +4701,7 @@
       <c r="D140" s="8"/>
       <c r="E140" s="8"/>
       <c r="F140" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G140" s="9">
         <v>3.85</v>
@@ -4655,7 +4726,7 @@
       <c r="D141" s="8"/>
       <c r="E141" s="8"/>
       <c r="F141" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G141" s="9">
         <v>9.3000000000000007</v>
@@ -4675,12 +4746,12 @@
         <v>74</v>
       </c>
       <c r="C142" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D142" s="8"/>
       <c r="E142" s="8"/>
       <c r="F142" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G142" s="9">
         <v>46.81</v>
@@ -4705,7 +4776,7 @@
       <c r="D143" s="8"/>
       <c r="E143" s="8"/>
       <c r="F143" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G143" s="9">
         <v>4.8899999999999997</v>
@@ -4755,7 +4826,7 @@
       <c r="D145" s="8"/>
       <c r="E145" s="8"/>
       <c r="F145" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G145" s="9">
         <v>14.3</v>
@@ -4780,7 +4851,7 @@
       <c r="D146" s="8"/>
       <c r="E146" s="8"/>
       <c r="F146" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G146" s="9">
         <v>10</v>
@@ -4809,7 +4880,7 @@
         <v>95</v>
       </c>
       <c r="F147" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G147" s="9">
         <v>22.4</v>
@@ -4835,10 +4906,10 @@
         <v>84</v>
       </c>
       <c r="E148" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F148" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G148" s="9">
         <v>8.6</v>
@@ -4864,10 +4935,10 @@
         <v>15</v>
       </c>
       <c r="E149" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F149" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G149" s="9">
         <v>6.5</v>
@@ -4893,10 +4964,10 @@
         <v>39</v>
       </c>
       <c r="E150" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F150" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G150" s="9">
         <v>2.11</v>
@@ -4922,10 +4993,10 @@
         <v>15</v>
       </c>
       <c r="E151" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F151" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G151" s="9">
         <v>36.9</v>
@@ -4951,10 +5022,10 @@
         <v>39</v>
       </c>
       <c r="E152" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F152" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G152" s="9">
         <v>9.1</v>
@@ -4980,10 +5051,10 @@
         <v>15</v>
       </c>
       <c r="E153" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F153" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G153" s="9">
         <v>15.4</v>
@@ -5009,10 +5080,10 @@
         <v>88</v>
       </c>
       <c r="E154" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F154" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G154" s="9">
         <v>7</v>
@@ -5038,7 +5109,7 @@
         <v>39</v>
       </c>
       <c r="E155" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F155" s="8" t="s">
         <v>39</v>
@@ -5067,7 +5138,7 @@
         <v>39</v>
       </c>
       <c r="E156" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F156" s="8" t="s">
         <v>39</v>
@@ -5095,7 +5166,7 @@
       <c r="D157" s="8"/>
       <c r="E157" s="8"/>
       <c r="F157" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G157" s="9">
         <v>10.210000000000001</v>
@@ -5120,7 +5191,7 @@
       <c r="D158" s="8"/>
       <c r="E158" s="8"/>
       <c r="F158" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G158" s="9">
         <v>17.399999999999999</v>
@@ -5146,10 +5217,10 @@
         <v>84</v>
       </c>
       <c r="E159" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="F159" s="11" t="s">
         <v>159</v>
-      </c>
-      <c r="F159" s="11" t="s">
-        <v>160</v>
       </c>
       <c r="G159" s="12">
         <v>76.680000000000007</v>
@@ -5200,10 +5271,10 @@
         <v>39</v>
       </c>
       <c r="E161" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="F161" s="8" t="s">
         <v>161</v>
-      </c>
-      <c r="F161" s="8" t="s">
-        <v>162</v>
       </c>
       <c r="G161" s="9">
         <v>6.2</v>
@@ -5229,10 +5300,10 @@
         <v>23</v>
       </c>
       <c r="E162" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F162" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G162" s="9">
         <v>41.2</v>
@@ -5258,10 +5329,10 @@
         <v>84</v>
       </c>
       <c r="E163" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F163" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G163" s="9">
         <v>18.75</v>
@@ -5286,7 +5357,7 @@
       <c r="D164" s="8"/>
       <c r="E164" s="8"/>
       <c r="F164" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G164" s="9">
         <v>2.5</v>
@@ -5336,7 +5407,7 @@
       <c r="D166" s="8"/>
       <c r="E166" s="8"/>
       <c r="F166" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G166" s="9">
         <v>17.649999999999999</v>
@@ -5386,7 +5457,7 @@
       <c r="D168" s="8"/>
       <c r="E168" s="8"/>
       <c r="F168" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G168" s="9">
         <v>5</v>
@@ -5411,7 +5482,7 @@
       <c r="D169" s="8"/>
       <c r="E169" s="8"/>
       <c r="F169" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G169" s="9">
         <v>6</v>
@@ -5436,7 +5507,7 @@
       <c r="D170" s="8"/>
       <c r="E170" s="8"/>
       <c r="F170" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G170" s="9">
         <v>12.16</v>
@@ -5465,7 +5536,7 @@
         <v>95</v>
       </c>
       <c r="F171" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G171" s="9">
         <v>11.11</v>
@@ -5494,7 +5565,7 @@
         <v>95</v>
       </c>
       <c r="F172" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G172" s="9">
         <v>28</v>
@@ -5552,7 +5623,7 @@
         <v>95</v>
       </c>
       <c r="F174" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G174" s="9">
         <v>12</v>
@@ -5581,7 +5652,7 @@
         <v>95</v>
       </c>
       <c r="F175" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G175" s="9">
         <v>4.5</v>
@@ -5610,7 +5681,7 @@
         <v>95</v>
       </c>
       <c r="F176" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G176" s="9">
         <v>11</v>
@@ -5668,7 +5739,7 @@
         <v>95</v>
       </c>
       <c r="F178" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G178" s="9">
         <v>15</v>
@@ -5697,7 +5768,7 @@
         <v>95</v>
       </c>
       <c r="F179" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G179" s="9">
         <v>19.5</v>
@@ -5726,7 +5797,7 @@
         <v>95</v>
       </c>
       <c r="F180" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G180" s="9">
         <v>18</v>
@@ -5755,7 +5826,7 @@
         <v>95</v>
       </c>
       <c r="F181" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G181" s="9">
         <v>12.5</v>
@@ -5784,7 +5855,7 @@
         <v>95</v>
       </c>
       <c r="F182" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G182" s="9">
         <v>10</v>
@@ -5813,7 +5884,7 @@
         <v>95</v>
       </c>
       <c r="F183" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G183" s="9">
         <v>2</v>
@@ -5842,7 +5913,7 @@
         <v>95</v>
       </c>
       <c r="F184" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G184" s="9">
         <v>5</v>
@@ -5871,7 +5942,7 @@
         <v>95</v>
       </c>
       <c r="F185" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G185" s="9">
         <v>13.5</v>
@@ -5900,7 +5971,7 @@
         <v>95</v>
       </c>
       <c r="F186" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G186" s="9">
         <v>3</v>
@@ -5929,7 +6000,7 @@
         <v>95</v>
       </c>
       <c r="F187" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G187" s="9">
         <v>17</v>
@@ -5958,7 +6029,7 @@
         <v>95</v>
       </c>
       <c r="F188" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G188" s="9">
         <v>5.2</v>
@@ -5987,7 +6058,7 @@
         <v>95</v>
       </c>
       <c r="F189" s="8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G189" s="9">
         <v>10</v>
@@ -6016,7 +6087,7 @@
         <v>95</v>
       </c>
       <c r="F190" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G190" s="9">
         <v>4</v>
@@ -6045,7 +6116,7 @@
         <v>95</v>
       </c>
       <c r="F191" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G191" s="9">
         <v>1.5</v>
@@ -6074,7 +6145,7 @@
         <v>95</v>
       </c>
       <c r="F192" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G192" s="9">
         <v>21</v>
@@ -6103,7 +6174,7 @@
         <v>95</v>
       </c>
       <c r="F193" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G193" s="9">
         <v>2.75</v>
@@ -6157,7 +6228,7 @@
       <c r="D195" s="8"/>
       <c r="E195" s="8"/>
       <c r="F195" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G195" s="9">
         <v>12.26</v>
@@ -6195,466 +6266,1102 @@
       </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A197" s="8"/>
-      <c r="B197" s="8"/>
-      <c r="C197" s="8"/>
-      <c r="D197" s="8"/>
-      <c r="E197" s="8"/>
-      <c r="F197" s="8"/>
-      <c r="G197" s="9"/>
-      <c r="H197" s="8"/>
-      <c r="I197" s="8"/>
+      <c r="A197" s="7">
+        <v>45729</v>
+      </c>
+      <c r="B197" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C197" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D197" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E197" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F197" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="G197" s="9">
+        <v>9.65</v>
+      </c>
+      <c r="H197" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I197" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A198" s="8"/>
-      <c r="B198" s="8"/>
-      <c r="C198" s="8"/>
-      <c r="D198" s="8"/>
-      <c r="E198" s="8"/>
-      <c r="F198" s="8"/>
-      <c r="G198" s="9"/>
-      <c r="H198" s="8"/>
-      <c r="I198" s="8"/>
+      <c r="A198" s="7">
+        <v>45729</v>
+      </c>
+      <c r="B198" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C198" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D198" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E198" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F198" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="G198" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="H198" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I198" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A199" s="8"/>
-      <c r="B199" s="8"/>
-      <c r="C199" s="8"/>
+      <c r="A199" s="7">
+        <v>45791</v>
+      </c>
+      <c r="B199" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C199" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="D199" s="8"/>
       <c r="E199" s="8"/>
-      <c r="F199" s="8"/>
-      <c r="G199" s="9"/>
-      <c r="H199" s="8"/>
-      <c r="I199" s="8"/>
+      <c r="F199" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="G199" s="9">
+        <v>17.52</v>
+      </c>
+      <c r="H199" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I199" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A200" s="8"/>
-      <c r="B200" s="8"/>
-      <c r="C200" s="8"/>
+      <c r="A200" s="7">
+        <v>45791</v>
+      </c>
+      <c r="B200" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C200" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="D200" s="8"/>
       <c r="E200" s="8"/>
-      <c r="F200" s="8"/>
-      <c r="G200" s="9"/>
-      <c r="H200" s="8"/>
-      <c r="I200" s="8"/>
+      <c r="F200" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="G200" s="9">
+        <v>6.14</v>
+      </c>
+      <c r="H200" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I200" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A201" s="8"/>
-      <c r="B201" s="8"/>
-      <c r="C201" s="8"/>
+      <c r="A201" s="7">
+        <v>45792</v>
+      </c>
+      <c r="B201" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C201" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="D201" s="8"/>
       <c r="E201" s="8"/>
-      <c r="F201" s="8"/>
-      <c r="G201" s="9"/>
-      <c r="H201" s="8"/>
-      <c r="I201" s="8"/>
+      <c r="F201" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="G201" s="9">
+        <v>35</v>
+      </c>
+      <c r="H201" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I201" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A202" s="8"/>
-      <c r="B202" s="8"/>
-      <c r="C202" s="8"/>
+      <c r="A202" s="7">
+        <v>45792</v>
+      </c>
+      <c r="B202" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C202" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="D202" s="8"/>
       <c r="E202" s="8"/>
-      <c r="F202" s="8"/>
-      <c r="G202" s="9"/>
-      <c r="H202" s="8"/>
-      <c r="I202" s="8"/>
+      <c r="F202" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="G202" s="9">
+        <v>8</v>
+      </c>
+      <c r="H202" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I202" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A203" s="8"/>
-      <c r="B203" s="8"/>
-      <c r="C203" s="8"/>
+      <c r="A203" s="7">
+        <v>45732</v>
+      </c>
+      <c r="B203" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C203" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="D203" s="8"/>
       <c r="E203" s="8"/>
-      <c r="F203" s="8"/>
-      <c r="G203" s="9"/>
-      <c r="H203" s="8"/>
-      <c r="I203" s="8"/>
+      <c r="F203" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="G203" s="9">
+        <v>22.2</v>
+      </c>
+      <c r="H203" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I203" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A204" s="8"/>
-      <c r="B204" s="8"/>
-      <c r="C204" s="8"/>
+      <c r="A204" s="7">
+        <v>45732</v>
+      </c>
+      <c r="B204" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C204" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="D204" s="8"/>
       <c r="E204" s="8"/>
-      <c r="F204" s="8"/>
-      <c r="G204" s="9"/>
-      <c r="H204" s="8"/>
-      <c r="I204" s="8"/>
+      <c r="F204" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="G204" s="9">
+        <v>61.25</v>
+      </c>
+      <c r="H204" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I204" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A205" s="8"/>
-      <c r="B205" s="8"/>
-      <c r="C205" s="8"/>
+      <c r="A205" s="7">
+        <v>45732</v>
+      </c>
+      <c r="B205" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C205" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="D205" s="8"/>
       <c r="E205" s="8"/>
-      <c r="F205" s="8"/>
-      <c r="G205" s="9"/>
-      <c r="H205" s="8"/>
-      <c r="I205" s="8"/>
+      <c r="F205" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="G205" s="9">
+        <v>59.99</v>
+      </c>
+      <c r="H205" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I205" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A206" s="8"/>
-      <c r="B206" s="8"/>
-      <c r="C206" s="8"/>
+      <c r="A206" s="7">
+        <v>45732</v>
+      </c>
+      <c r="B206" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C206" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="D206" s="8"/>
       <c r="E206" s="8"/>
-      <c r="F206" s="8"/>
-      <c r="G206" s="9"/>
-      <c r="H206" s="8"/>
-      <c r="I206" s="8"/>
+      <c r="F206" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="G206" s="9">
+        <v>70.599999999999994</v>
+      </c>
+      <c r="H206" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I206" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A207" s="8"/>
-      <c r="B207" s="8"/>
-      <c r="C207" s="8"/>
+      <c r="A207" s="7">
+        <v>45732</v>
+      </c>
+      <c r="B207" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C207" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="D207" s="8"/>
       <c r="E207" s="8"/>
-      <c r="F207" s="8"/>
-      <c r="G207" s="9"/>
-      <c r="H207" s="8"/>
-      <c r="I207" s="8"/>
+      <c r="F207" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="G207" s="9">
+        <v>16.059999999999999</v>
+      </c>
+      <c r="H207" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I207" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A208" s="8"/>
-      <c r="B208" s="8"/>
-      <c r="C208" s="8"/>
+      <c r="A208" s="7">
+        <v>45733</v>
+      </c>
+      <c r="B208" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C208" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="D208" s="8"/>
       <c r="E208" s="8"/>
-      <c r="F208" s="8"/>
-      <c r="G208" s="9"/>
-      <c r="H208" s="8"/>
-      <c r="I208" s="8"/>
+      <c r="F208" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="G208" s="9">
+        <v>27.61</v>
+      </c>
+      <c r="H208" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I208" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A209" s="8"/>
-      <c r="B209" s="8"/>
-      <c r="C209" s="8"/>
+      <c r="A209" s="7">
+        <v>45735</v>
+      </c>
+      <c r="B209" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C209" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="D209" s="8"/>
       <c r="E209" s="8"/>
-      <c r="F209" s="8"/>
-      <c r="G209" s="9"/>
-      <c r="H209" s="8"/>
-      <c r="I209" s="8"/>
+      <c r="F209" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="G209" s="9">
+        <v>25.8</v>
+      </c>
+      <c r="H209" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I209" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A210" s="8"/>
-      <c r="B210" s="8"/>
-      <c r="C210" s="8"/>
+      <c r="A210" s="7">
+        <v>45735</v>
+      </c>
+      <c r="B210" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C210" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="D210" s="8"/>
       <c r="E210" s="8"/>
-      <c r="F210" s="8"/>
-      <c r="G210" s="9"/>
-      <c r="H210" s="8"/>
-      <c r="I210" s="8"/>
+      <c r="F210" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="G210" s="9">
+        <v>11.9</v>
+      </c>
+      <c r="H210" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I210" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A211" s="8"/>
-      <c r="B211" s="8"/>
-      <c r="C211" s="8"/>
-      <c r="D211" s="8"/>
-      <c r="E211" s="8"/>
-      <c r="F211" s="8"/>
-      <c r="G211" s="9"/>
-      <c r="H211" s="8"/>
-      <c r="I211" s="8"/>
+      <c r="A211" s="7">
+        <v>45736</v>
+      </c>
+      <c r="B211" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C211" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D211" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E211" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="F211" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G211" s="9">
+        <v>6.9</v>
+      </c>
+      <c r="H211" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I211" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A212" s="8"/>
-      <c r="B212" s="8"/>
-      <c r="C212" s="8"/>
-      <c r="D212" s="8"/>
-      <c r="E212" s="8"/>
-      <c r="F212" s="8"/>
-      <c r="G212" s="9"/>
-      <c r="H212" s="8"/>
-      <c r="I212" s="8"/>
+      <c r="A212" s="7">
+        <v>45736</v>
+      </c>
+      <c r="B212" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C212" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D212" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E212" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="F212" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="G212" s="9">
+        <v>29</v>
+      </c>
+      <c r="H212" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I212" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A213" s="8"/>
-      <c r="B213" s="8"/>
-      <c r="C213" s="8"/>
-      <c r="D213" s="8"/>
-      <c r="E213" s="8"/>
-      <c r="F213" s="8"/>
-      <c r="G213" s="9"/>
-      <c r="H213" s="8"/>
-      <c r="I213" s="8"/>
+      <c r="A213" s="7">
+        <v>45736</v>
+      </c>
+      <c r="B213" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C213" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D213" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E213" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="F213" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="G213" s="9">
+        <v>8.9</v>
+      </c>
+      <c r="H213" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I213" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A214" s="8"/>
-      <c r="B214" s="8"/>
-      <c r="C214" s="8"/>
-      <c r="D214" s="8"/>
-      <c r="E214" s="8"/>
-      <c r="F214" s="8"/>
-      <c r="G214" s="9"/>
-      <c r="H214" s="8"/>
-      <c r="I214" s="8"/>
+      <c r="A214" s="7">
+        <v>45737</v>
+      </c>
+      <c r="B214" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C214" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D214" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E214" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="F214" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G214" s="9">
+        <v>9</v>
+      </c>
+      <c r="H214" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I214" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A215" s="8"/>
-      <c r="B215" s="8"/>
-      <c r="C215" s="8"/>
-      <c r="D215" s="8"/>
-      <c r="E215" s="8"/>
-      <c r="F215" s="8"/>
-      <c r="G215" s="9"/>
-      <c r="H215" s="8"/>
-      <c r="I215" s="8"/>
+      <c r="A215" s="7">
+        <v>45737</v>
+      </c>
+      <c r="B215" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C215" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D215" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E215" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="F215" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G215" s="9">
+        <v>12.25</v>
+      </c>
+      <c r="H215" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I215" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A216" s="8"/>
-      <c r="B216" s="8"/>
-      <c r="C216" s="8"/>
-      <c r="D216" s="8"/>
-      <c r="E216" s="8"/>
-      <c r="F216" s="8"/>
-      <c r="G216" s="9"/>
-      <c r="H216" s="8"/>
-      <c r="I216" s="8"/>
+      <c r="A216" s="7">
+        <v>45738</v>
+      </c>
+      <c r="B216" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C216" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D216" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E216" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="F216" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="G216" s="9">
+        <v>6.8</v>
+      </c>
+      <c r="H216" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I216" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A217" s="8"/>
-      <c r="B217" s="8"/>
-      <c r="C217" s="8"/>
+      <c r="A217" s="7">
+        <v>45738</v>
+      </c>
+      <c r="B217" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C217" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="D217" s="8"/>
       <c r="E217" s="8"/>
-      <c r="F217" s="8"/>
-      <c r="G217" s="9"/>
-      <c r="H217" s="8"/>
-      <c r="I217" s="8"/>
+      <c r="F217" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="G217" s="9">
+        <v>7.99</v>
+      </c>
+      <c r="H217" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I217" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A218" s="8"/>
-      <c r="B218" s="8"/>
-      <c r="C218" s="8"/>
+      <c r="A218" s="7">
+        <v>45739</v>
+      </c>
+      <c r="B218" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C218" s="8" t="s">
+        <v>17</v>
+      </c>
       <c r="D218" s="8"/>
       <c r="E218" s="8"/>
-      <c r="F218" s="8"/>
-      <c r="G218" s="9"/>
-      <c r="H218" s="8"/>
-      <c r="I218" s="8"/>
+      <c r="F218" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="G218" s="9">
+        <v>10</v>
+      </c>
+      <c r="H218" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I218" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A219" s="8"/>
-      <c r="B219" s="8"/>
-      <c r="C219" s="8"/>
-      <c r="D219" s="8"/>
-      <c r="E219" s="8"/>
-      <c r="F219" s="8"/>
-      <c r="G219" s="9"/>
-      <c r="H219" s="8"/>
-      <c r="I219" s="8"/>
+      <c r="A219" s="7">
+        <v>45740</v>
+      </c>
+      <c r="B219" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C219" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D219" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E219" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="F219" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="G219" s="9">
+        <v>9.1</v>
+      </c>
+      <c r="H219" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I219" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A220" s="8"/>
-      <c r="B220" s="8"/>
-      <c r="C220" s="8"/>
-      <c r="D220" s="8"/>
-      <c r="E220" s="8"/>
-      <c r="F220" s="8"/>
-      <c r="G220" s="9"/>
-      <c r="H220" s="8"/>
-      <c r="I220" s="8"/>
+      <c r="A220" s="7">
+        <v>45740</v>
+      </c>
+      <c r="B220" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C220" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D220" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E220" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="F220" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="G220" s="9">
+        <v>18.2</v>
+      </c>
+      <c r="H220" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I220" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A221" s="8"/>
-      <c r="B221" s="8"/>
-      <c r="C221" s="8"/>
+      <c r="A221" s="7">
+        <v>45741</v>
+      </c>
+      <c r="B221" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C221" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="D221" s="8"/>
       <c r="E221" s="8"/>
-      <c r="F221" s="8"/>
-      <c r="G221" s="9"/>
-      <c r="H221" s="8"/>
-      <c r="I221" s="8"/>
+      <c r="F221" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="G221" s="9">
+        <v>25.62</v>
+      </c>
+      <c r="H221" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I221" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A222" s="8"/>
-      <c r="B222" s="8"/>
-      <c r="C222" s="8"/>
+      <c r="A222" s="7">
+        <v>45742</v>
+      </c>
+      <c r="B222" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C222" s="8" t="s">
+        <v>72</v>
+      </c>
       <c r="D222" s="8"/>
       <c r="E222" s="8"/>
-      <c r="F222" s="8"/>
-      <c r="G222" s="9"/>
-      <c r="H222" s="8"/>
-      <c r="I222" s="8"/>
+      <c r="F222" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="G222" s="9">
+        <v>3.99</v>
+      </c>
+      <c r="H222" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I222" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A223" s="8"/>
-      <c r="B223" s="8"/>
-      <c r="C223" s="8"/>
+      <c r="A223" s="7">
+        <v>45742</v>
+      </c>
+      <c r="B223" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C223" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="D223" s="8"/>
       <c r="E223" s="8"/>
-      <c r="F223" s="8"/>
-      <c r="G223" s="9"/>
-      <c r="H223" s="8"/>
-      <c r="I223" s="8"/>
+      <c r="F223" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G223" s="9">
+        <v>13.05</v>
+      </c>
+      <c r="H223" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I223" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A224" s="8"/>
-      <c r="B224" s="8"/>
-      <c r="C224" s="8"/>
+      <c r="A224" s="7">
+        <v>45743</v>
+      </c>
+      <c r="B224" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C224" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="D224" s="8"/>
       <c r="E224" s="8"/>
-      <c r="F224" s="8"/>
-      <c r="G224" s="9"/>
-      <c r="H224" s="8"/>
-      <c r="I224" s="8"/>
+      <c r="F224" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="G224" s="9">
+        <v>5.9</v>
+      </c>
+      <c r="H224" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I224" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A225" s="8"/>
-      <c r="B225" s="8"/>
-      <c r="C225" s="8"/>
+      <c r="A225" s="7">
+        <v>45743</v>
+      </c>
+      <c r="B225" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C225" s="8" t="s">
+        <v>39</v>
+      </c>
       <c r="D225" s="8"/>
       <c r="E225" s="8"/>
-      <c r="F225" s="8"/>
-      <c r="G225" s="9"/>
-      <c r="H225" s="8"/>
-      <c r="I225" s="8"/>
+      <c r="F225" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="G225" s="9">
+        <v>7.15</v>
+      </c>
+      <c r="H225" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I225" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A226" s="8"/>
-      <c r="B226" s="8"/>
-      <c r="C226" s="8"/>
+      <c r="A226" s="7">
+        <v>45744</v>
+      </c>
+      <c r="B226" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C226" s="8" t="s">
+        <v>39</v>
+      </c>
       <c r="D226" s="8"/>
       <c r="E226" s="8"/>
-      <c r="F226" s="8"/>
-      <c r="G226" s="9"/>
-      <c r="H226" s="8"/>
-      <c r="I226" s="8"/>
+      <c r="F226" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G226" s="9">
+        <v>5.3</v>
+      </c>
+      <c r="H226" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I226" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A227" s="8"/>
-      <c r="B227" s="8"/>
-      <c r="C227" s="8"/>
+      <c r="A227" s="7">
+        <v>45746</v>
+      </c>
+      <c r="B227" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C227" s="8" t="s">
+        <v>39</v>
+      </c>
       <c r="D227" s="8"/>
       <c r="E227" s="8"/>
-      <c r="F227" s="8"/>
-      <c r="G227" s="9"/>
-      <c r="H227" s="8"/>
-      <c r="I227" s="8"/>
+      <c r="F227" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G227" s="9">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="H227" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I227" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A228" s="8"/>
-      <c r="B228" s="8"/>
-      <c r="C228" s="8"/>
+      <c r="A228" s="7">
+        <v>45747</v>
+      </c>
+      <c r="B228" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C228" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="D228" s="8"/>
       <c r="E228" s="8"/>
-      <c r="F228" s="8"/>
-      <c r="G228" s="9"/>
-      <c r="H228" s="8"/>
-      <c r="I228" s="8"/>
+      <c r="F228" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G228" s="9">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="H228" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I228" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A229" s="8"/>
-      <c r="B229" s="8"/>
-      <c r="C229" s="8"/>
-      <c r="D229" s="8"/>
-      <c r="E229" s="8"/>
-      <c r="F229" s="8"/>
-      <c r="G229" s="9"/>
-      <c r="H229" s="8"/>
-      <c r="I229" s="8"/>
+      <c r="A229" s="7">
+        <v>45747</v>
+      </c>
+      <c r="B229" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C229" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D229" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E229" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="F229" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="G229" s="9">
+        <v>109.6</v>
+      </c>
+      <c r="H229" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I229" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A230" s="8"/>
-      <c r="B230" s="8"/>
-      <c r="C230" s="8"/>
+      <c r="A230" s="7">
+        <v>45747</v>
+      </c>
+      <c r="B230" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C230" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="D230" s="8"/>
       <c r="E230" s="8"/>
-      <c r="F230" s="8"/>
-      <c r="G230" s="9"/>
-      <c r="H230" s="8"/>
-      <c r="I230" s="8"/>
+      <c r="F230" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="G230" s="9">
+        <v>22.4</v>
+      </c>
+      <c r="H230" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I230" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A231" s="8"/>
-      <c r="B231" s="8"/>
-      <c r="C231" s="8"/>
+      <c r="A231" s="7">
+        <v>45748</v>
+      </c>
+      <c r="B231" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C231" s="8" t="s">
+        <v>144</v>
+      </c>
       <c r="D231" s="8"/>
       <c r="E231" s="8"/>
-      <c r="F231" s="8"/>
-      <c r="G231" s="9"/>
-      <c r="H231" s="8"/>
-      <c r="I231" s="8"/>
+      <c r="F231" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="G231" s="9">
+        <v>34.520000000000003</v>
+      </c>
+      <c r="H231" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I231" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A232" s="8"/>
-      <c r="B232" s="8"/>
-      <c r="C232" s="8"/>
+      <c r="A232" s="7">
+        <v>45748</v>
+      </c>
+      <c r="B232" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C232" s="8" t="s">
+        <v>39</v>
+      </c>
       <c r="D232" s="8"/>
       <c r="E232" s="8"/>
-      <c r="F232" s="8"/>
-      <c r="G232" s="9"/>
-      <c r="H232" s="8"/>
-      <c r="I232" s="8"/>
+      <c r="F232" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="G232" s="9">
+        <v>3.85</v>
+      </c>
+      <c r="H232" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I232" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A233" s="8"/>
-      <c r="B233" s="8"/>
-      <c r="C233" s="8"/>
+      <c r="A233" s="7">
+        <v>45748</v>
+      </c>
+      <c r="B233" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C233" s="8" t="s">
+        <v>8</v>
+      </c>
       <c r="D233" s="8"/>
       <c r="E233" s="8"/>
-      <c r="F233" s="8"/>
-      <c r="G233" s="9"/>
-      <c r="H233" s="8"/>
-      <c r="I233" s="8"/>
+      <c r="F233" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="G233" s="9">
+        <v>44</v>
+      </c>
+      <c r="H233" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I233" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A234" s="8"/>
-      <c r="B234" s="8"/>
-      <c r="C234" s="8"/>
+      <c r="A234" s="7">
+        <v>45748</v>
+      </c>
+      <c r="B234" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C234" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="D234" s="8"/>
       <c r="E234" s="8"/>
-      <c r="F234" s="8"/>
-      <c r="G234" s="9"/>
-      <c r="H234" s="8"/>
-      <c r="I234" s="8"/>
+      <c r="F234" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="G234" s="9">
+        <v>33</v>
+      </c>
+      <c r="H234" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I234" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A235" s="8"/>
-      <c r="B235" s="8"/>
-      <c r="C235" s="8"/>
+      <c r="A235" s="7">
+        <v>45748</v>
+      </c>
+      <c r="B235" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C235" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="D235" s="8"/>
       <c r="E235" s="8"/>
-      <c r="F235" s="8"/>
-      <c r="G235" s="9"/>
-      <c r="H235" s="8"/>
-      <c r="I235" s="8"/>
+      <c r="F235" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="G235" s="9">
+        <v>10</v>
+      </c>
+      <c r="H235" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I235" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A236" s="8"/>
-      <c r="B236" s="8"/>
-      <c r="C236" s="8"/>
+      <c r="A236" s="7">
+        <v>45749</v>
+      </c>
+      <c r="B236" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C236" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="D236" s="8"/>
       <c r="E236" s="8"/>
-      <c r="F236" s="8"/>
-      <c r="G236" s="9"/>
-      <c r="H236" s="8"/>
-      <c r="I236" s="8"/>
+      <c r="F236" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="G236" s="9">
+        <v>7.5</v>
+      </c>
+      <c r="H236" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I236" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A237" s="8"/>
-      <c r="B237" s="8"/>
-      <c r="C237" s="8"/>
-      <c r="D237" s="8"/>
-      <c r="E237" s="8"/>
-      <c r="F237" s="8"/>
-      <c r="G237" s="9"/>
-      <c r="H237" s="8"/>
-      <c r="I237" s="8"/>
+      <c r="A237" s="7">
+        <v>45749</v>
+      </c>
+      <c r="B237" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C237" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D237" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E237" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="F237" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="G237" s="9">
+        <v>16.48</v>
+      </c>
+      <c r="H237" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I237" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A238" s="8"/>
-      <c r="B238" s="8"/>
-      <c r="C238" s="8"/>
+      <c r="A238" s="7">
+        <v>45749</v>
+      </c>
+      <c r="B238" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C238" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="D238" s="8"/>
       <c r="E238" s="8"/>
-      <c r="F238" s="8"/>
-      <c r="G238" s="9"/>
-      <c r="H238" s="8"/>
-      <c r="I238" s="8"/>
+      <c r="F238" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G238" s="9">
+        <v>4.2</v>
+      </c>
+      <c r="H238" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I238" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A239" s="8"/>
@@ -11152,18 +11859,12 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="7">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{77508706-FF64-4936-A3A6-4F0639AF6AF4}">
           <x14:formula1>
             <xm:f>lists!$A$1:$A$6</xm:f>
           </x14:formula1>
           <xm:sqref>B2:B1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D06842C6-7F73-430C-B7C3-BAA238D3189E}">
-          <x14:formula1>
-            <xm:f>lists!$B$1:$B$10</xm:f>
-          </x14:formula1>
-          <xm:sqref>C177:C1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{790B5306-A74C-4E52-BB85-C4249CF769EB}">
           <x14:formula1>
@@ -11189,11 +11890,11 @@
           </x14:formula1>
           <xm:sqref>D14:D1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C6EC821F-027F-404E-9E36-EF42A08CC57F}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{EC6B74CE-B609-4C11-B79F-16F56872A0FD}">
           <x14:formula1>
-            <xm:f>lists!$B$1:$B$15</xm:f>
+            <xm:f>lists!$B$1:$B$18</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C176</xm:sqref>
+          <xm:sqref>C1:C1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -11344,15 +12045,15 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">

--- a/assets/cost_sheet.xlsx
+++ b/assets/cost_sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/56C9449150E6BC49/Documentos/FEARP/Intercambio/spendure_app/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1469" documentId="8_{697955BF-7644-43E6-B102-A5718628249A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{01F5E6A2-577C-4ACB-BC31-E27C2C985B56}"/>
+  <xr:revisionPtr revIDLastSave="1473" documentId="8_{697955BF-7644-43E6-B102-A5718628249A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EA41ED2A-0EB3-4E86-B188-2F27635224C3}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{3A902579-E7D0-4425-859E-D7B710BECD9D}"/>
   </bookViews>
@@ -780,6 +780,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1101,8 +1105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73D03841-840F-48EF-840B-36FDA2E59E7D}">
   <dimension ref="A1:I646"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A221" workbookViewId="0">
-      <selection activeCell="J238" sqref="J238"/>
+    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6325,7 +6329,7 @@
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A199" s="7">
-        <v>45791</v>
+        <v>45730</v>
       </c>
       <c r="B199" s="8" t="s">
         <v>79</v>
@@ -6350,7 +6354,7 @@
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A200" s="7">
-        <v>45791</v>
+        <v>45730</v>
       </c>
       <c r="B200" s="8" t="s">
         <v>79</v>
@@ -6375,7 +6379,7 @@
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A201" s="7">
-        <v>45792</v>
+        <v>45731</v>
       </c>
       <c r="B201" s="8" t="s">
         <v>79</v>
@@ -6400,7 +6404,7 @@
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A202" s="7">
-        <v>45792</v>
+        <v>45731</v>
       </c>
       <c r="B202" s="8" t="s">
         <v>79</v>

--- a/assets/cost_sheet.xlsx
+++ b/assets/cost_sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/56C9449150E6BC49/Documentos/FEARP/Intercambio/spendure_app/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1473" documentId="8_{697955BF-7644-43E6-B102-A5718628249A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EA41ED2A-0EB3-4E86-B188-2F27635224C3}"/>
+  <xr:revisionPtr revIDLastSave="1475" documentId="8_{697955BF-7644-43E6-B102-A5718628249A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DB408131-3A79-48DE-BBE3-5D3FBC8A21F5}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{3A902579-E7D0-4425-859E-D7B710BECD9D}"/>
   </bookViews>
@@ -1105,8 +1105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73D03841-840F-48EF-840B-36FDA2E59E7D}">
   <dimension ref="A1:I646"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
+      <selection activeCell="I208" sqref="I208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6571,7 +6571,7 @@
         <v>27.61</v>
       </c>
       <c r="H208" s="8" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="I208" s="8" t="s">
         <v>11</v>
@@ -7157,7 +7157,7 @@
         <v>22.4</v>
       </c>
       <c r="H230" s="8" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="I230" s="8" t="s">
         <v>11</v>

--- a/assets/cost_sheet.xlsx
+++ b/assets/cost_sheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/56C9449150E6BC49/Documentos/FEARP/Intercambio/spendure_app/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1475" documentId="8_{697955BF-7644-43E6-B102-A5718628249A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DB408131-3A79-48DE-BBE3-5D3FBC8A21F5}"/>
+  <xr:revisionPtr revIDLastSave="1519" documentId="8_{697955BF-7644-43E6-B102-A5718628249A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{16182895-BB9A-4AF5-9E92-66CD4B8E29D4}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{3A902579-E7D0-4425-859E-D7B710BECD9D}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="lists" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">table!$A$1:$I$161</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">table!$A$1:$I$238</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -282,9 +282,6 @@
     <t>Março</t>
   </si>
   <si>
-    <t xml:space="preserve">Abril </t>
-  </si>
-  <si>
     <t>Transferência</t>
   </si>
   <si>
@@ -664,6 +661,9 @@
   </si>
   <si>
     <t>Passagem Bolzano Milão</t>
+  </si>
+  <si>
+    <t>Abril</t>
   </si>
 </sst>
 </file>
@@ -674,7 +674,7 @@
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-[$€-2]\ * #,##0.00_-;\-[$€-2]\ * #,##0.00_-;_-[$€-2]\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -692,6 +692,12 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -780,10 +786,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1105,8 +1107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73D03841-840F-48EF-840B-36FDA2E59E7D}">
   <dimension ref="A1:I646"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
-      <selection activeCell="I208" sqref="I208"/>
+    <sheetView tabSelected="1" topLeftCell="A226" workbookViewId="0">
+      <selection activeCell="B239" sqref="B239"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1132,10 +1134,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>86</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>87</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>3</v>
@@ -1419,7 +1421,7 @@
         <v>8.4</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>11</v>
@@ -1461,10 +1463,10 @@
         <v>29</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>30</v>
@@ -1648,7 +1650,7 @@
         <v>6.5</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>11</v>
@@ -1771,7 +1773,7 @@
         <v>12.5</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>11</v>
@@ -1896,7 +1898,7 @@
         <v>11.55</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="I31" s="2" t="s">
         <v>11</v>
@@ -2138,7 +2140,7 @@
         <v>29</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>58</v>
@@ -2225,7 +2227,7 @@
         <v>9.9</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="I44" s="2" t="s">
         <v>11</v>
@@ -2325,7 +2327,7 @@
         <v>12.98</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="I48" s="2" t="s">
         <v>11</v>
@@ -2350,7 +2352,7 @@
         <v>2</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="I49" s="2" t="s">
         <v>11</v>
@@ -2450,7 +2452,7 @@
         <v>7.85</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="I53" s="2" t="s">
         <v>11</v>
@@ -2742,13 +2744,13 @@
         <v>29</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E65" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F65" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>141</v>
       </c>
       <c r="G65" s="3">
         <v>27</v>
@@ -2818,12 +2820,12 @@
         <v>74</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
       <c r="F68" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G68" s="3">
         <v>4.9000000000000004</v>
@@ -2871,13 +2873,13 @@
         <v>29</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G70" s="3">
         <v>180.5</v>
@@ -2927,13 +2929,13 @@
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G72" s="3">
         <v>7</v>
       </c>
       <c r="H72" s="8" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="I72" s="8" t="s">
         <v>11</v>
@@ -2950,13 +2952,13 @@
         <v>29</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G73" s="3">
         <v>54</v>
@@ -2981,7 +2983,7 @@
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G74" s="9">
         <v>5.29</v>
@@ -3035,7 +3037,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="H76" s="8" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="I76" s="8" t="s">
         <v>55</v>
@@ -3054,7 +3056,7 @@
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G77" s="3">
         <v>16.989999999999998</v>
@@ -3079,7 +3081,7 @@
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G78" s="3">
         <v>23.2</v>
@@ -3104,7 +3106,7 @@
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G79" s="3">
         <v>2.6</v>
@@ -3152,13 +3154,13 @@
         <v>29</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E81" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G81" s="3">
         <v>28.42</v>
@@ -3181,13 +3183,13 @@
         <v>29</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E82" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G82" s="3">
         <v>23.21</v>
@@ -3210,13 +3212,13 @@
         <v>29</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E83" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G83" s="3">
         <v>6.55</v>
@@ -3242,10 +3244,10 @@
         <v>15</v>
       </c>
       <c r="E84" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G84" s="3">
         <v>8</v>
@@ -3270,7 +3272,7 @@
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G85" s="3">
         <v>11.7</v>
@@ -3293,13 +3295,13 @@
         <v>29</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E86" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G86" s="3">
         <v>112.25</v>
@@ -3325,10 +3327,10 @@
         <v>15</v>
       </c>
       <c r="E87" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G87" s="3">
         <v>31.15</v>
@@ -3351,13 +3353,13 @@
         <v>29</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E88" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G88" s="3">
         <v>4</v>
@@ -3383,10 +3385,10 @@
         <v>15</v>
       </c>
       <c r="E89" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G89" s="3">
         <v>2.8</v>
@@ -3412,10 +3414,10 @@
         <v>15</v>
       </c>
       <c r="E90" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G90" s="3">
         <v>12</v>
@@ -3441,7 +3443,7 @@
         <v>39</v>
       </c>
       <c r="E91" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>39</v>
@@ -3470,10 +3472,10 @@
         <v>15</v>
       </c>
       <c r="E92" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G92" s="3">
         <v>2.8</v>
@@ -3499,10 +3501,10 @@
         <v>39</v>
       </c>
       <c r="E93" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G93" s="3">
         <v>3.1</v>
@@ -3528,7 +3530,7 @@
         <v>12</v>
       </c>
       <c r="E94" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>28</v>
@@ -3557,10 +3559,10 @@
         <v>15</v>
       </c>
       <c r="E95" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G95" s="3">
         <v>16</v>
@@ -3583,13 +3585,13 @@
         <v>29</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E96" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G96" s="3">
         <v>5.4</v>
@@ -3689,13 +3691,13 @@
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G100" s="3">
         <v>5.9</v>
       </c>
       <c r="H100" s="8" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="I100" s="8" t="s">
         <v>55</v>
@@ -3714,7 +3716,7 @@
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G101" s="3">
         <v>2</v>
@@ -3789,7 +3791,7 @@
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G104" s="3">
         <v>7.7</v>
@@ -3814,7 +3816,7 @@
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G105" s="3">
         <v>5</v>
@@ -3839,13 +3841,13 @@
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G106" s="3">
         <v>2.6</v>
       </c>
       <c r="H106" s="8" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="I106" s="8" t="s">
         <v>55</v>
@@ -3889,7 +3891,7 @@
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G108" s="3">
         <v>10.09</v>
@@ -3912,13 +3914,13 @@
         <v>29</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E109" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G109" s="3">
         <v>51</v>
@@ -3968,7 +3970,7 @@
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G111" s="3">
         <v>16</v>
@@ -3993,7 +3995,7 @@
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G112" s="3">
         <v>13.75</v>
@@ -4018,7 +4020,7 @@
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G113" s="3">
         <v>7</v>
@@ -4043,7 +4045,7 @@
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G114" s="3">
         <v>7.9</v>
@@ -4068,7 +4070,7 @@
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G115" s="3">
         <v>14.25</v>
@@ -4093,7 +4095,7 @@
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G116" s="3">
         <v>14.9</v>
@@ -4118,7 +4120,7 @@
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G117" s="3">
         <v>3.4</v>
@@ -4168,7 +4170,7 @@
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G119" s="3">
         <v>11.6</v>
@@ -4193,7 +4195,7 @@
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G120" s="9">
         <v>3.95</v>
@@ -4216,13 +4218,13 @@
         <v>29</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E121" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F121" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G121" s="3">
         <v>83.92</v>
@@ -4247,7 +4249,7 @@
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G122" s="3">
         <v>7.25</v>
@@ -4297,7 +4299,7 @@
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G124" s="9">
         <v>10.5</v>
@@ -4320,13 +4322,13 @@
         <v>29</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E125" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F125" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G125" s="9">
         <v>89.28</v>
@@ -4351,7 +4353,7 @@
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G126" s="9">
         <v>8</v>
@@ -4376,13 +4378,13 @@
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G127" s="9">
         <v>9.93</v>
       </c>
       <c r="H127" s="8" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="I127" s="8" t="s">
         <v>11</v>
@@ -4401,7 +4403,7 @@
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G128" s="9">
         <v>100.1</v>
@@ -4426,13 +4428,13 @@
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G129" s="9">
         <v>11.5</v>
       </c>
       <c r="H129" s="8" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="I129" s="8" t="s">
         <v>11</v>
@@ -4446,12 +4448,12 @@
         <v>74</v>
       </c>
       <c r="C130" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G130" s="9">
         <v>10</v>
@@ -4474,13 +4476,13 @@
         <v>29</v>
       </c>
       <c r="D131" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E131" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F131" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G131" s="9">
         <v>26</v>
@@ -4505,7 +4507,7 @@
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G132" s="9">
         <v>10.5</v>
@@ -4530,7 +4532,7 @@
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
       <c r="F133" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G133" s="9">
         <v>12.7</v>
@@ -4555,7 +4557,7 @@
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
       <c r="F134" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G134" s="9">
         <v>3.3</v>
@@ -4580,13 +4582,13 @@
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
       <c r="F135" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G135" s="9">
         <v>1.6</v>
       </c>
       <c r="H135" s="8" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="I135" s="8" t="s">
         <v>11</v>
@@ -4705,13 +4707,13 @@
       <c r="D140" s="8"/>
       <c r="E140" s="8"/>
       <c r="F140" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G140" s="9">
         <v>3.85</v>
       </c>
       <c r="H140" s="8" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="I140" s="8" t="s">
         <v>11</v>
@@ -4730,7 +4732,7 @@
       <c r="D141" s="8"/>
       <c r="E141" s="8"/>
       <c r="F141" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G141" s="9">
         <v>9.3000000000000007</v>
@@ -4750,12 +4752,12 @@
         <v>74</v>
       </c>
       <c r="C142" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D142" s="8"/>
       <c r="E142" s="8"/>
       <c r="F142" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G142" s="9">
         <v>46.81</v>
@@ -4780,7 +4782,7 @@
       <c r="D143" s="8"/>
       <c r="E143" s="8"/>
       <c r="F143" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G143" s="9">
         <v>4.8899999999999997</v>
@@ -4811,7 +4813,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="H144" s="8" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="I144" s="8" t="s">
         <v>11</v>
@@ -4830,7 +4832,7 @@
       <c r="D145" s="8"/>
       <c r="E145" s="8"/>
       <c r="F145" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G145" s="9">
         <v>14.3</v>
@@ -4855,7 +4857,7 @@
       <c r="D146" s="8"/>
       <c r="E146" s="8"/>
       <c r="F146" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G146" s="9">
         <v>10</v>
@@ -4878,13 +4880,13 @@
         <v>29</v>
       </c>
       <c r="D147" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E147" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F147" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G147" s="9">
         <v>22.4</v>
@@ -4907,13 +4909,13 @@
         <v>29</v>
       </c>
       <c r="D148" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E148" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F148" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G148" s="9">
         <v>8.6</v>
@@ -4939,10 +4941,10 @@
         <v>15</v>
       </c>
       <c r="E149" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F149" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G149" s="9">
         <v>6.5</v>
@@ -4968,10 +4970,10 @@
         <v>39</v>
       </c>
       <c r="E150" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F150" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G150" s="9">
         <v>2.11</v>
@@ -4997,10 +4999,10 @@
         <v>15</v>
       </c>
       <c r="E151" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F151" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G151" s="9">
         <v>36.9</v>
@@ -5026,10 +5028,10 @@
         <v>39</v>
       </c>
       <c r="E152" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F152" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G152" s="9">
         <v>9.1</v>
@@ -5055,10 +5057,10 @@
         <v>15</v>
       </c>
       <c r="E153" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F153" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G153" s="9">
         <v>15.4</v>
@@ -5081,13 +5083,13 @@
         <v>29</v>
       </c>
       <c r="D154" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E154" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F154" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G154" s="9">
         <v>7</v>
@@ -5113,7 +5115,7 @@
         <v>39</v>
       </c>
       <c r="E155" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F155" s="8" t="s">
         <v>39</v>
@@ -5142,7 +5144,7 @@
         <v>39</v>
       </c>
       <c r="E156" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F156" s="8" t="s">
         <v>39</v>
@@ -5170,7 +5172,7 @@
       <c r="D157" s="8"/>
       <c r="E157" s="8"/>
       <c r="F157" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G157" s="9">
         <v>10.210000000000001</v>
@@ -5195,7 +5197,7 @@
       <c r="D158" s="8"/>
       <c r="E158" s="8"/>
       <c r="F158" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G158" s="9">
         <v>17.399999999999999</v>
@@ -5218,13 +5220,13 @@
         <v>29</v>
       </c>
       <c r="D159" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E159" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="F159" s="11" t="s">
         <v>158</v>
-      </c>
-      <c r="F159" s="11" t="s">
-        <v>159</v>
       </c>
       <c r="G159" s="12">
         <v>76.680000000000007</v>
@@ -5275,10 +5277,10 @@
         <v>39</v>
       </c>
       <c r="E161" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="F161" s="8" t="s">
         <v>160</v>
-      </c>
-      <c r="F161" s="8" t="s">
-        <v>161</v>
       </c>
       <c r="G161" s="9">
         <v>6.2</v>
@@ -5304,10 +5306,10 @@
         <v>23</v>
       </c>
       <c r="E162" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F162" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G162" s="9">
         <v>41.2</v>
@@ -5330,13 +5332,13 @@
         <v>29</v>
       </c>
       <c r="D163" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E163" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F163" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G163" s="9">
         <v>18.75</v>
@@ -5361,7 +5363,7 @@
       <c r="D164" s="8"/>
       <c r="E164" s="8"/>
       <c r="F164" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G164" s="9">
         <v>2.5</v>
@@ -5411,7 +5413,7 @@
       <c r="D166" s="8"/>
       <c r="E166" s="8"/>
       <c r="F166" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G166" s="9">
         <v>17.649999999999999</v>
@@ -5461,7 +5463,7 @@
       <c r="D168" s="8"/>
       <c r="E168" s="8"/>
       <c r="F168" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G168" s="9">
         <v>5</v>
@@ -5486,7 +5488,7 @@
       <c r="D169" s="8"/>
       <c r="E169" s="8"/>
       <c r="F169" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G169" s="9">
         <v>6</v>
@@ -5511,7 +5513,7 @@
       <c r="D170" s="8"/>
       <c r="E170" s="8"/>
       <c r="F170" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G170" s="9">
         <v>12.16</v>
@@ -5537,10 +5539,10 @@
         <v>15</v>
       </c>
       <c r="E171" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F171" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G171" s="9">
         <v>11.11</v>
@@ -5563,13 +5565,13 @@
         <v>29</v>
       </c>
       <c r="D172" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E172" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F172" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G172" s="9">
         <v>28</v>
@@ -5595,7 +5597,7 @@
         <v>12</v>
       </c>
       <c r="E173" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F173" s="8" t="s">
         <v>28</v>
@@ -5624,10 +5626,10 @@
         <v>15</v>
       </c>
       <c r="E174" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F174" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G174" s="9">
         <v>12</v>
@@ -5653,10 +5655,10 @@
         <v>15</v>
       </c>
       <c r="E175" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F175" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G175" s="9">
         <v>4.5</v>
@@ -5682,10 +5684,10 @@
         <v>23</v>
       </c>
       <c r="E176" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F176" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G176" s="9">
         <v>11</v>
@@ -5711,7 +5713,7 @@
         <v>39</v>
       </c>
       <c r="E177" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F177" s="8" t="s">
         <v>39</v>
@@ -5740,10 +5742,10 @@
         <v>20</v>
       </c>
       <c r="E178" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F178" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G178" s="9">
         <v>15</v>
@@ -5769,10 +5771,10 @@
         <v>15</v>
       </c>
       <c r="E179" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F179" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G179" s="9">
         <v>19.5</v>
@@ -5795,13 +5797,13 @@
         <v>29</v>
       </c>
       <c r="D180" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E180" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F180" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G180" s="9">
         <v>18</v>
@@ -5827,10 +5829,10 @@
         <v>15</v>
       </c>
       <c r="E181" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F181" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G181" s="9">
         <v>12.5</v>
@@ -5856,10 +5858,10 @@
         <v>15</v>
       </c>
       <c r="E182" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F182" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G182" s="9">
         <v>10</v>
@@ -5882,13 +5884,13 @@
         <v>29</v>
       </c>
       <c r="D183" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E183" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F183" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G183" s="9">
         <v>2</v>
@@ -5914,10 +5916,10 @@
         <v>15</v>
       </c>
       <c r="E184" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F184" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G184" s="9">
         <v>5</v>
@@ -5943,10 +5945,10 @@
         <v>15</v>
       </c>
       <c r="E185" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F185" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G185" s="9">
         <v>13.5</v>
@@ -5972,10 +5974,10 @@
         <v>15</v>
       </c>
       <c r="E186" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F186" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G186" s="9">
         <v>3</v>
@@ -6001,10 +6003,10 @@
         <v>15</v>
       </c>
       <c r="E187" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F187" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G187" s="9">
         <v>17</v>
@@ -6030,10 +6032,10 @@
         <v>39</v>
       </c>
       <c r="E188" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F188" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G188" s="9">
         <v>5.2</v>
@@ -6059,10 +6061,10 @@
         <v>15</v>
       </c>
       <c r="E189" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F189" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G189" s="9">
         <v>10</v>
@@ -6085,13 +6087,13 @@
         <v>29</v>
       </c>
       <c r="D190" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E190" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F190" s="8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G190" s="9">
         <v>4</v>
@@ -6114,13 +6116,13 @@
         <v>29</v>
       </c>
       <c r="D191" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E191" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F191" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G191" s="9">
         <v>1.5</v>
@@ -6143,13 +6145,13 @@
         <v>29</v>
       </c>
       <c r="D192" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E192" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F192" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G192" s="9">
         <v>21</v>
@@ -6172,13 +6174,13 @@
         <v>29</v>
       </c>
       <c r="D193" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E193" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F193" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G193" s="9">
         <v>2.75</v>
@@ -6204,7 +6206,7 @@
         <v>39</v>
       </c>
       <c r="E194" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F194" s="8" t="s">
         <v>39</v>
@@ -6232,7 +6234,7 @@
       <c r="D195" s="8"/>
       <c r="E195" s="8"/>
       <c r="F195" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G195" s="9">
         <v>12.26</v>
@@ -6283,10 +6285,10 @@
         <v>15</v>
       </c>
       <c r="E197" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F197" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G197" s="9">
         <v>9.65</v>
@@ -6309,13 +6311,13 @@
         <v>29</v>
       </c>
       <c r="D198" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E198" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F198" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G198" s="9">
         <v>1.5</v>
@@ -6365,7 +6367,7 @@
       <c r="D200" s="8"/>
       <c r="E200" s="8"/>
       <c r="F200" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G200" s="9">
         <v>6.14</v>
@@ -6390,7 +6392,7 @@
       <c r="D201" s="8"/>
       <c r="E201" s="8"/>
       <c r="F201" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G201" s="9">
         <v>35</v>
@@ -6415,7 +6417,7 @@
       <c r="D202" s="8"/>
       <c r="E202" s="8"/>
       <c r="F202" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G202" s="9">
         <v>8</v>
@@ -6440,7 +6442,7 @@
       <c r="D203" s="8"/>
       <c r="E203" s="8"/>
       <c r="F203" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G203" s="9">
         <v>22.2</v>
@@ -6465,7 +6467,7 @@
       <c r="D204" s="8"/>
       <c r="E204" s="8"/>
       <c r="F204" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G204" s="9">
         <v>61.25</v>
@@ -6490,7 +6492,7 @@
       <c r="D205" s="8"/>
       <c r="E205" s="8"/>
       <c r="F205" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G205" s="9">
         <v>59.99</v>
@@ -6515,7 +6517,7 @@
       <c r="D206" s="8"/>
       <c r="E206" s="8"/>
       <c r="F206" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G206" s="9">
         <v>70.599999999999994</v>
@@ -6540,7 +6542,7 @@
       <c r="D207" s="8"/>
       <c r="E207" s="8"/>
       <c r="F207" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G207" s="9">
         <v>16.059999999999999</v>
@@ -6590,7 +6592,7 @@
       <c r="D209" s="8"/>
       <c r="E209" s="8"/>
       <c r="F209" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G209" s="9">
         <v>25.8</v>
@@ -6615,7 +6617,7 @@
       <c r="D210" s="8"/>
       <c r="E210" s="8"/>
       <c r="F210" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G210" s="9">
         <v>11.9</v>
@@ -6641,7 +6643,7 @@
         <v>39</v>
       </c>
       <c r="E211" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F211" s="8" t="s">
         <v>39</v>
@@ -6670,10 +6672,10 @@
         <v>23</v>
       </c>
       <c r="E212" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F212" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G212" s="9">
         <v>29</v>
@@ -6699,10 +6701,10 @@
         <v>39</v>
       </c>
       <c r="E213" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F213" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G213" s="9">
         <v>8.9</v>
@@ -6728,7 +6730,7 @@
         <v>39</v>
       </c>
       <c r="E214" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F214" s="8" t="s">
         <v>39</v>
@@ -6757,7 +6759,7 @@
         <v>12</v>
       </c>
       <c r="E215" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F215" s="8" t="s">
         <v>12</v>
@@ -6786,10 +6788,10 @@
         <v>15</v>
       </c>
       <c r="E216" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F216" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G216" s="9">
         <v>6.8</v>
@@ -6814,7 +6816,7 @@
       <c r="D217" s="8"/>
       <c r="E217" s="8"/>
       <c r="F217" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G217" s="9">
         <v>7.99</v>
@@ -6839,7 +6841,7 @@
       <c r="D218" s="8"/>
       <c r="E218" s="8"/>
       <c r="F218" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G218" s="9">
         <v>10</v>
@@ -6865,10 +6867,10 @@
         <v>39</v>
       </c>
       <c r="E219" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F219" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G219" s="9">
         <v>9.1</v>
@@ -6894,10 +6896,10 @@
         <v>12</v>
       </c>
       <c r="E220" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F220" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G220" s="9">
         <v>18.2</v>
@@ -6947,7 +6949,7 @@
       <c r="D222" s="8"/>
       <c r="E222" s="8"/>
       <c r="F222" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G222" s="9">
         <v>3.99</v>
@@ -6997,7 +6999,7 @@
       <c r="D224" s="8"/>
       <c r="E224" s="8"/>
       <c r="F224" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G224" s="9">
         <v>5.9</v>
@@ -7022,7 +7024,7 @@
       <c r="D225" s="8"/>
       <c r="E225" s="8"/>
       <c r="F225" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G225" s="9">
         <v>7.15</v>
@@ -7097,7 +7099,7 @@
       <c r="D228" s="8"/>
       <c r="E228" s="8"/>
       <c r="F228" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G228" s="9">
         <v>17.399999999999999</v>
@@ -7120,13 +7122,13 @@
         <v>29</v>
       </c>
       <c r="D229" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E229" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F229" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G229" s="9">
         <v>109.6</v>
@@ -7151,7 +7153,7 @@
       <c r="D230" s="8"/>
       <c r="E230" s="8"/>
       <c r="F230" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G230" s="9">
         <v>22.4</v>
@@ -7168,15 +7170,15 @@
         <v>45748</v>
       </c>
       <c r="B231" s="8" t="s">
-        <v>80</v>
+        <v>207</v>
       </c>
       <c r="C231" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D231" s="8"/>
       <c r="E231" s="8"/>
       <c r="F231" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G231" s="9">
         <v>34.520000000000003</v>
@@ -7193,7 +7195,7 @@
         <v>45748</v>
       </c>
       <c r="B232" s="8" t="s">
-        <v>80</v>
+        <v>207</v>
       </c>
       <c r="C232" s="8" t="s">
         <v>39</v>
@@ -7201,7 +7203,7 @@
       <c r="D232" s="8"/>
       <c r="E232" s="8"/>
       <c r="F232" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G232" s="9">
         <v>3.85</v>
@@ -7218,7 +7220,7 @@
         <v>45748</v>
       </c>
       <c r="B233" s="8" t="s">
-        <v>80</v>
+        <v>207</v>
       </c>
       <c r="C233" s="8" t="s">
         <v>8</v>
@@ -7226,7 +7228,7 @@
       <c r="D233" s="8"/>
       <c r="E233" s="8"/>
       <c r="F233" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G233" s="9">
         <v>44</v>
@@ -7243,7 +7245,7 @@
         <v>45748</v>
       </c>
       <c r="B234" s="8" t="s">
-        <v>80</v>
+        <v>207</v>
       </c>
       <c r="C234" s="8" t="s">
         <v>12</v>
@@ -7268,7 +7270,7 @@
         <v>45748</v>
       </c>
       <c r="B235" s="8" t="s">
-        <v>80</v>
+        <v>207</v>
       </c>
       <c r="C235" s="8" t="s">
         <v>23</v>
@@ -7276,7 +7278,7 @@
       <c r="D235" s="8"/>
       <c r="E235" s="8"/>
       <c r="F235" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G235" s="9">
         <v>10</v>
@@ -7293,7 +7295,7 @@
         <v>45749</v>
       </c>
       <c r="B236" s="8" t="s">
-        <v>80</v>
+        <v>207</v>
       </c>
       <c r="C236" s="8" t="s">
         <v>23</v>
@@ -7301,7 +7303,7 @@
       <c r="D236" s="8"/>
       <c r="E236" s="8"/>
       <c r="F236" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G236" s="9">
         <v>7.5</v>
@@ -7318,19 +7320,19 @@
         <v>45749</v>
       </c>
       <c r="B237" s="8" t="s">
-        <v>80</v>
+        <v>207</v>
       </c>
       <c r="C237" s="8" t="s">
         <v>29</v>
       </c>
       <c r="D237" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E237" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F237" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G237" s="9">
         <v>16.48</v>
@@ -7347,7 +7349,7 @@
         <v>45749</v>
       </c>
       <c r="B238" s="8" t="s">
-        <v>80</v>
+        <v>207</v>
       </c>
       <c r="C238" s="8" t="s">
         <v>23</v>
@@ -11856,10 +11858,11 @@
       <c r="I646" s="8"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I161" xr:uid="{73D03841-840F-48EF-840B-36FDA2E59E7D}"/>
+  <autoFilter ref="A1:I238" xr:uid="{73D03841-840F-48EF-840B-36FDA2E59E7D}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I176">
     <sortCondition ref="A109:A176"/>
   </sortState>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -11911,7 +11914,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11970,7 +11973,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>80</v>
+        <v>207</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -11979,12 +11982,12 @@
         <v>23</v>
       </c>
       <c r="F4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B5" t="s">
         <v>39</v>
@@ -11998,13 +12001,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -12020,7 +12023,7 @@
         <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
@@ -12036,33 +12039,33 @@
         <v>72</v>
       </c>
       <c r="C10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/assets/cost_sheet.xlsx
+++ b/assets/cost_sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/56C9449150E6BC49/Documentos/FEARP/Intercambio/spendure_app/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1519" documentId="8_{697955BF-7644-43E6-B102-A5718628249A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{16182895-BB9A-4AF5-9E92-66CD4B8E29D4}"/>
+  <xr:revisionPtr revIDLastSave="1521" documentId="8_{697955BF-7644-43E6-B102-A5718628249A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B76592F7-4DA2-42B5-88CA-9E2FB9A7D61B}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{3A902579-E7D0-4425-859E-D7B710BECD9D}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="lists" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">table!$A$1:$I$238</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">table!$A$1:$I$237</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1379" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1374" uniqueCount="208">
   <si>
     <t>Data</t>
   </si>
@@ -786,6 +786,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1105,10 +1109,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73D03841-840F-48EF-840B-36FDA2E59E7D}">
-  <dimension ref="A1:I646"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:I645"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A226" workbookViewId="0">
-      <selection activeCell="B239" sqref="B239"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1152,7 +1157,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>45657</v>
       </c>
@@ -1177,7 +1182,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>45659</v>
       </c>
@@ -1202,7 +1207,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>45659</v>
       </c>
@@ -1227,7 +1232,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>45659</v>
       </c>
@@ -1252,7 +1257,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>45659</v>
       </c>
@@ -1277,7 +1282,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>45659</v>
       </c>
@@ -1302,7 +1307,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>45660</v>
       </c>
@@ -1327,7 +1332,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>45660</v>
       </c>
@@ -1352,7 +1357,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>45660</v>
       </c>
@@ -1377,7 +1382,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>45660</v>
       </c>
@@ -1402,7 +1407,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>45661</v>
       </c>
@@ -1427,7 +1432,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>45661</v>
       </c>
@@ -1452,7 +1457,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>45662</v>
       </c>
@@ -1481,7 +1486,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>45662</v>
       </c>
@@ -1506,7 +1511,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>45663</v>
       </c>
@@ -1531,7 +1536,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>45663</v>
       </c>
@@ -1556,7 +1561,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>45663</v>
       </c>
@@ -1581,7 +1586,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>45664</v>
       </c>
@@ -1606,7 +1611,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>45664</v>
       </c>
@@ -1631,7 +1636,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>45664</v>
       </c>
@@ -1656,7 +1661,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>45666</v>
       </c>
@@ -1679,7 +1684,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>45666</v>
       </c>
@@ -1704,7 +1709,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>45667</v>
       </c>
@@ -1729,7 +1734,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>45667</v>
       </c>
@@ -1754,7 +1759,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>45668</v>
       </c>
@@ -1779,7 +1784,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>45668</v>
       </c>
@@ -1804,7 +1809,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>45668</v>
       </c>
@@ -1829,7 +1834,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>45668</v>
       </c>
@@ -1854,7 +1859,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>45669</v>
       </c>
@@ -1879,7 +1884,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>45669</v>
       </c>
@@ -1904,7 +1909,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>45669</v>
       </c>
@@ -1929,7 +1934,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>45670</v>
       </c>
@@ -1954,7 +1959,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>45670</v>
       </c>
@@ -1979,7 +1984,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>45670</v>
       </c>
@@ -2054,7 +2059,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>45674</v>
       </c>
@@ -2079,7 +2084,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>45676</v>
       </c>
@@ -2104,7 +2109,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>45676</v>
       </c>
@@ -2129,7 +2134,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>45677</v>
       </c>
@@ -2158,7 +2163,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>45677</v>
       </c>
@@ -2183,7 +2188,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>45677</v>
       </c>
@@ -2208,7 +2213,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>45678</v>
       </c>
@@ -2233,7 +2238,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>45678</v>
       </c>
@@ -2258,7 +2263,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>45678</v>
       </c>
@@ -2283,7 +2288,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>45679</v>
       </c>
@@ -2308,7 +2313,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>45680</v>
       </c>
@@ -2333,7 +2338,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>45681</v>
       </c>
@@ -2358,7 +2363,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>45681</v>
       </c>
@@ -2383,7 +2388,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>45681</v>
       </c>
@@ -2408,7 +2413,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>45681</v>
       </c>
@@ -2433,7 +2438,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>45682</v>
       </c>
@@ -2458,7 +2463,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>45683</v>
       </c>
@@ -2483,7 +2488,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>45684</v>
       </c>
@@ -2508,7 +2513,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>45684</v>
       </c>
@@ -2533,7 +2538,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>45685</v>
       </c>
@@ -2558,7 +2563,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>45687</v>
       </c>
@@ -2583,7 +2588,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>45687</v>
       </c>
@@ -2608,7 +2613,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>45687</v>
       </c>
@@ -2633,7 +2638,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>45688</v>
       </c>
@@ -2658,7 +2663,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>45688</v>
       </c>
@@ -2683,7 +2688,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>45688</v>
       </c>
@@ -2708,7 +2713,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>45688</v>
       </c>
@@ -2733,7 +2738,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>45689</v>
       </c>
@@ -2762,7 +2767,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>45689</v>
       </c>
@@ -2787,7 +2792,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>45689</v>
       </c>
@@ -2812,7 +2817,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>45689</v>
       </c>
@@ -2837,7 +2842,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>45689</v>
       </c>
@@ -2862,7 +2867,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>45690</v>
       </c>
@@ -2891,7 +2896,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>45690</v>
       </c>
@@ -2916,7 +2921,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72" s="7">
         <v>45690</v>
       </c>
@@ -2941,7 +2946,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>45690</v>
       </c>
@@ -2970,7 +2975,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A74" s="7">
         <v>45691</v>
       </c>
@@ -2995,7 +3000,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A75" s="7">
         <v>45691</v>
       </c>
@@ -3020,7 +3025,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A76" s="7">
         <v>45692</v>
       </c>
@@ -3043,7 +3048,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A77" s="7">
         <v>45692</v>
       </c>
@@ -3068,7 +3073,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A78" s="7">
         <v>45693</v>
       </c>
@@ -3093,7 +3098,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A79" s="7">
         <v>45693</v>
       </c>
@@ -3118,7 +3123,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A80" s="7">
         <v>45694</v>
       </c>
@@ -3143,7 +3148,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A81" s="7">
         <v>45695</v>
       </c>
@@ -3172,7 +3177,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A82" s="7">
         <v>45695</v>
       </c>
@@ -3201,7 +3206,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A83" s="7">
         <v>45695</v>
       </c>
@@ -3230,7 +3235,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A84" s="7">
         <v>45695</v>
       </c>
@@ -3259,7 +3264,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A85" s="7">
         <v>45695</v>
       </c>
@@ -3284,7 +3289,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A86" s="7">
         <v>45696</v>
       </c>
@@ -3313,7 +3318,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A87" s="7">
         <v>45696</v>
       </c>
@@ -3342,7 +3347,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A88" s="7">
         <v>45696</v>
       </c>
@@ -3371,7 +3376,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A89" s="7">
         <v>45696</v>
       </c>
@@ -3400,7 +3405,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A90" s="7">
         <v>45696</v>
       </c>
@@ -3429,7 +3434,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A91" s="7">
         <v>45696</v>
       </c>
@@ -3458,7 +3463,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A92" s="7">
         <v>45697</v>
       </c>
@@ -3487,7 +3492,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A93" s="7">
         <v>45697</v>
       </c>
@@ -3516,7 +3521,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A94" s="7">
         <v>45697</v>
       </c>
@@ -3545,7 +3550,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A95" s="7">
         <v>45697</v>
       </c>
@@ -3574,7 +3579,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A96" s="7">
         <v>45698</v>
       </c>
@@ -3603,7 +3608,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A97" s="7">
         <v>45698</v>
       </c>
@@ -3628,7 +3633,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A98" s="7">
         <v>45698</v>
       </c>
@@ -3653,7 +3658,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A99" s="7">
         <v>45698</v>
       </c>
@@ -3678,7 +3683,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A100" s="7">
         <v>45698</v>
       </c>
@@ -3703,7 +3708,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A101" s="7">
         <v>45698</v>
       </c>
@@ -3728,7 +3733,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A102" s="7">
         <v>45699</v>
       </c>
@@ -3753,7 +3758,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A103" s="7">
         <v>45699</v>
       </c>
@@ -3778,7 +3783,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A104" s="7">
         <v>45699</v>
       </c>
@@ -3803,7 +3808,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A105" s="7">
         <v>45700</v>
       </c>
@@ -3828,7 +3833,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A106" s="7">
         <v>45700</v>
       </c>
@@ -3853,7 +3858,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A107" s="7">
         <v>45700</v>
       </c>
@@ -3878,7 +3883,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A108" s="7">
         <v>45700</v>
       </c>
@@ -3903,7 +3908,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A109" s="7">
         <v>45701</v>
       </c>
@@ -3932,7 +3937,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A110" s="7">
         <v>45701</v>
       </c>
@@ -3957,7 +3962,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A111" s="7">
         <v>45702</v>
       </c>
@@ -3982,7 +3987,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A112" s="7">
         <v>45703</v>
       </c>
@@ -4007,7 +4012,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A113" s="7">
         <v>45703</v>
       </c>
@@ -4032,7 +4037,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A114" s="7">
         <v>45703</v>
       </c>
@@ -4057,7 +4062,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A115" s="7">
         <v>45704</v>
       </c>
@@ -4082,7 +4087,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A116" s="7">
         <v>45704</v>
       </c>
@@ -4107,7 +4112,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A117" s="7">
         <v>45704</v>
       </c>
@@ -4132,7 +4137,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A118" s="7">
         <v>45704</v>
       </c>
@@ -4157,7 +4162,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A119" s="7">
         <v>45704</v>
       </c>
@@ -4182,7 +4187,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A120" s="7">
         <v>45704</v>
       </c>
@@ -4207,7 +4212,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A121" s="7">
         <v>45704</v>
       </c>
@@ -4236,7 +4241,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A122" s="7">
         <v>45705</v>
       </c>
@@ -4261,7 +4266,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A123" s="7">
         <v>45706</v>
       </c>
@@ -4286,7 +4291,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A124" s="7">
         <v>45707</v>
       </c>
@@ -4311,7 +4316,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A125" s="7">
         <v>45707</v>
       </c>
@@ -4340,7 +4345,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A126" s="7">
         <v>45708</v>
       </c>
@@ -4365,7 +4370,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A127" s="7">
         <v>45708</v>
       </c>
@@ -4415,7 +4420,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A129" s="7">
         <v>45709</v>
       </c>
@@ -4440,7 +4445,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A130" s="7">
         <v>45709</v>
       </c>
@@ -4465,7 +4470,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A131" s="7">
         <v>45710</v>
       </c>
@@ -4494,7 +4499,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A132" s="7">
         <v>45710</v>
       </c>
@@ -4519,7 +4524,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A133" s="7">
         <v>45710</v>
       </c>
@@ -4544,7 +4549,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A134" s="7">
         <v>45710</v>
       </c>
@@ -4569,7 +4574,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A135" s="7">
         <v>45710</v>
       </c>
@@ -4619,7 +4624,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A137" s="7">
         <v>45711</v>
       </c>
@@ -4644,7 +4649,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A138" s="7">
         <v>45712</v>
       </c>
@@ -4652,24 +4657,24 @@
         <v>74</v>
       </c>
       <c r="C138" s="8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D138" s="8"/>
       <c r="E138" s="8"/>
       <c r="F138" s="8" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="G138" s="9">
-        <v>45.91</v>
+        <v>11.27</v>
       </c>
       <c r="H138" s="8" t="s">
         <v>10</v>
       </c>
       <c r="I138" s="8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A139" s="7">
         <v>45712</v>
       </c>
@@ -4677,24 +4682,24 @@
         <v>74</v>
       </c>
       <c r="C139" s="8" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="D139" s="8"/>
       <c r="E139" s="8"/>
       <c r="F139" s="8" t="s">
-        <v>15</v>
+        <v>142</v>
       </c>
       <c r="G139" s="9">
-        <v>11.27</v>
+        <v>3.85</v>
       </c>
       <c r="H139" s="8" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="I139" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A140" s="7">
         <v>45712</v>
       </c>
@@ -4702,40 +4707,40 @@
         <v>74</v>
       </c>
       <c r="C140" s="8" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="D140" s="8"/>
       <c r="E140" s="8"/>
       <c r="F140" s="8" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="G140" s="9">
-        <v>3.85</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="H140" s="8" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="I140" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A141" s="7">
-        <v>45712</v>
+        <v>45713</v>
       </c>
       <c r="B141" s="8" t="s">
         <v>74</v>
       </c>
       <c r="C141" s="8" t="s">
-        <v>15</v>
+        <v>143</v>
       </c>
       <c r="D141" s="8"/>
       <c r="E141" s="8"/>
       <c r="F141" s="8" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="G141" s="9">
-        <v>9.3000000000000007</v>
+        <v>46.81</v>
       </c>
       <c r="H141" s="8" t="s">
         <v>10</v>
@@ -4744,7 +4749,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A142" s="7">
         <v>45713</v>
       </c>
@@ -4752,15 +4757,15 @@
         <v>74</v>
       </c>
       <c r="C142" s="8" t="s">
-        <v>143</v>
+        <v>12</v>
       </c>
       <c r="D142" s="8"/>
       <c r="E142" s="8"/>
       <c r="F142" s="8" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G142" s="9">
-        <v>46.81</v>
+        <v>4.8899999999999997</v>
       </c>
       <c r="H142" s="8" t="s">
         <v>10</v>
@@ -4769,57 +4774,57 @@
         <v>11</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A143" s="7">
-        <v>45713</v>
+        <v>45714</v>
       </c>
       <c r="B143" s="8" t="s">
         <v>74</v>
       </c>
       <c r="C143" s="8" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="D143" s="8"/>
       <c r="E143" s="8"/>
       <c r="F143" s="8" t="s">
-        <v>144</v>
+        <v>39</v>
       </c>
       <c r="G143" s="9">
-        <v>4.8899999999999997</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="H143" s="8" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="I143" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A144" s="7">
-        <v>45714</v>
+        <v>45715</v>
       </c>
       <c r="B144" s="8" t="s">
         <v>74</v>
       </c>
       <c r="C144" s="8" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="D144" s="8"/>
       <c r="E144" s="8"/>
       <c r="F144" s="8" t="s">
-        <v>39</v>
+        <v>145</v>
       </c>
       <c r="G144" s="9">
-        <v>2.2999999999999998</v>
+        <v>14.3</v>
       </c>
       <c r="H144" s="8" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="I144" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A145" s="7">
         <v>45715</v>
       </c>
@@ -4827,15 +4832,15 @@
         <v>74</v>
       </c>
       <c r="C145" s="8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D145" s="8"/>
       <c r="E145" s="8"/>
       <c r="F145" s="8" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G145" s="9">
-        <v>14.3</v>
+        <v>10</v>
       </c>
       <c r="H145" s="8" t="s">
         <v>10</v>
@@ -4844,32 +4849,36 @@
         <v>11</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A146" s="7">
-        <v>45715</v>
+        <v>45716</v>
       </c>
       <c r="B146" s="8" t="s">
         <v>74</v>
       </c>
       <c r="C146" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D146" s="8"/>
-      <c r="E146" s="8"/>
+        <v>29</v>
+      </c>
+      <c r="D146" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E146" s="8" t="s">
+        <v>94</v>
+      </c>
       <c r="F146" s="8" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G146" s="9">
-        <v>10</v>
+        <v>22.4</v>
       </c>
       <c r="H146" s="8" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="I146" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A147" s="7">
         <v>45716</v>
       </c>
@@ -4883,13 +4892,13 @@
         <v>83</v>
       </c>
       <c r="E147" s="8" t="s">
-        <v>94</v>
+        <v>129</v>
       </c>
       <c r="F147" s="8" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G147" s="9">
-        <v>22.4</v>
+        <v>8.6</v>
       </c>
       <c r="H147" s="8" t="s">
         <v>22</v>
@@ -4898,7 +4907,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A148" s="7">
         <v>45716</v>
       </c>
@@ -4909,16 +4918,16 @@
         <v>29</v>
       </c>
       <c r="D148" s="8" t="s">
-        <v>83</v>
+        <v>15</v>
       </c>
       <c r="E148" s="8" t="s">
         <v>129</v>
       </c>
       <c r="F148" s="8" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G148" s="9">
-        <v>8.6</v>
+        <v>6.5</v>
       </c>
       <c r="H148" s="8" t="s">
         <v>22</v>
@@ -4927,7 +4936,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A149" s="7">
         <v>45716</v>
       </c>
@@ -4938,16 +4947,16 @@
         <v>29</v>
       </c>
       <c r="D149" s="8" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="E149" s="8" t="s">
         <v>129</v>
       </c>
       <c r="F149" s="8" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G149" s="9">
-        <v>6.5</v>
+        <v>2.11</v>
       </c>
       <c r="H149" s="8" t="s">
         <v>22</v>
@@ -4956,7 +4965,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A150" s="7">
         <v>45716</v>
       </c>
@@ -4967,16 +4976,16 @@
         <v>29</v>
       </c>
       <c r="D150" s="8" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="E150" s="8" t="s">
         <v>129</v>
       </c>
       <c r="F150" s="8" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G150" s="9">
-        <v>2.11</v>
+        <v>36.9</v>
       </c>
       <c r="H150" s="8" t="s">
         <v>22</v>
@@ -4985,7 +4994,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A151" s="7">
         <v>45716</v>
       </c>
@@ -4996,16 +5005,16 @@
         <v>29</v>
       </c>
       <c r="D151" s="8" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="E151" s="8" t="s">
         <v>129</v>
       </c>
       <c r="F151" s="8" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G151" s="9">
-        <v>36.9</v>
+        <v>9.1</v>
       </c>
       <c r="H151" s="8" t="s">
         <v>22</v>
@@ -5014,27 +5023,27 @@
         <v>11</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A152" s="7">
-        <v>45716</v>
+        <v>45717</v>
       </c>
       <c r="B152" s="8" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C152" s="8" t="s">
         <v>29</v>
       </c>
       <c r="D152" s="8" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="E152" s="8" t="s">
         <v>129</v>
       </c>
       <c r="F152" s="8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G152" s="9">
-        <v>9.1</v>
+        <v>15.4</v>
       </c>
       <c r="H152" s="8" t="s">
         <v>22</v>
@@ -5043,7 +5052,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A153" s="7">
         <v>45717</v>
       </c>
@@ -5054,16 +5063,16 @@
         <v>29</v>
       </c>
       <c r="D153" s="8" t="s">
-        <v>15</v>
+        <v>87</v>
       </c>
       <c r="E153" s="8" t="s">
         <v>129</v>
       </c>
       <c r="F153" s="8" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G153" s="9">
-        <v>15.4</v>
+        <v>7</v>
       </c>
       <c r="H153" s="8" t="s">
         <v>22</v>
@@ -5072,7 +5081,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A154" s="7">
         <v>45717</v>
       </c>
@@ -5083,16 +5092,16 @@
         <v>29</v>
       </c>
       <c r="D154" s="8" t="s">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="E154" s="8" t="s">
         <v>129</v>
       </c>
       <c r="F154" s="8" t="s">
-        <v>154</v>
+        <v>39</v>
       </c>
       <c r="G154" s="9">
-        <v>7</v>
+        <v>5.9</v>
       </c>
       <c r="H154" s="8" t="s">
         <v>22</v>
@@ -5101,7 +5110,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A155" s="7">
         <v>45717</v>
       </c>
@@ -5121,7 +5130,7 @@
         <v>39</v>
       </c>
       <c r="G155" s="9">
-        <v>5.9</v>
+        <v>5</v>
       </c>
       <c r="H155" s="8" t="s">
         <v>22</v>
@@ -5130,36 +5139,32 @@
         <v>11</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A156" s="7">
-        <v>45717</v>
+        <v>45718</v>
       </c>
       <c r="B156" s="8" t="s">
         <v>79</v>
       </c>
       <c r="C156" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D156" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E156" s="8" t="s">
-        <v>129</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D156" s="8"/>
+      <c r="E156" s="8"/>
       <c r="F156" s="8" t="s">
-        <v>39</v>
+        <v>155</v>
       </c>
       <c r="G156" s="9">
-        <v>5</v>
+        <v>10.210000000000001</v>
       </c>
       <c r="H156" s="8" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="I156" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A157" s="7">
         <v>45718</v>
       </c>
@@ -5172,10 +5177,10 @@
       <c r="D157" s="8"/>
       <c r="E157" s="8"/>
       <c r="F157" s="8" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G157" s="9">
-        <v>10.210000000000001</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="H157" s="8" t="s">
         <v>10</v>
@@ -5184,32 +5189,36 @@
         <v>11</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A158" s="7">
-        <v>45718</v>
+        <v>45719</v>
       </c>
       <c r="B158" s="8" t="s">
         <v>79</v>
       </c>
       <c r="C158" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D158" s="8"/>
-      <c r="E158" s="8"/>
-      <c r="F158" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="G158" s="9">
-        <v>17.399999999999999</v>
+        <v>29</v>
+      </c>
+      <c r="D158" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E158" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="F158" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="G158" s="12">
+        <v>76.680000000000007</v>
       </c>
       <c r="H158" s="8" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="I158" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A159" s="7">
         <v>45719</v>
       </c>
@@ -5217,53 +5226,53 @@
         <v>79</v>
       </c>
       <c r="C159" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D159" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="E159" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="F159" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="G159" s="12">
-        <v>76.680000000000007</v>
+        <v>12</v>
+      </c>
+      <c r="D159" s="8"/>
+      <c r="E159" s="8"/>
+      <c r="F159" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G159" s="9">
+        <v>7.16</v>
       </c>
       <c r="H159" s="8" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="I159" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A160" s="7">
-        <v>45719</v>
+        <v>45720</v>
       </c>
       <c r="B160" s="8" t="s">
         <v>79</v>
       </c>
       <c r="C160" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D160" s="8"/>
-      <c r="E160" s="8"/>
+        <v>29</v>
+      </c>
+      <c r="D160" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E160" s="8" t="s">
+        <v>159</v>
+      </c>
       <c r="F160" s="8" t="s">
-        <v>32</v>
+        <v>160</v>
       </c>
       <c r="G160" s="9">
-        <v>7.16</v>
+        <v>6.2</v>
       </c>
       <c r="H160" s="8" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="I160" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A161" s="7">
         <v>45720</v>
       </c>
@@ -5274,16 +5283,16 @@
         <v>29</v>
       </c>
       <c r="D161" s="8" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="E161" s="8" t="s">
         <v>159</v>
       </c>
       <c r="F161" s="8" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G161" s="9">
-        <v>6.2</v>
+        <v>41.2</v>
       </c>
       <c r="H161" s="8" t="s">
         <v>22</v>
@@ -5292,9 +5301,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A162" s="7">
-        <v>45720</v>
+        <v>45721</v>
       </c>
       <c r="B162" s="8" t="s">
         <v>79</v>
@@ -5303,16 +5312,16 @@
         <v>29</v>
       </c>
       <c r="D162" s="8" t="s">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="E162" s="8" t="s">
         <v>159</v>
       </c>
       <c r="F162" s="8" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G162" s="9">
-        <v>41.2</v>
+        <v>18.75</v>
       </c>
       <c r="H162" s="8" t="s">
         <v>22</v>
@@ -5321,7 +5330,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A163" s="7">
         <v>45721</v>
       </c>
@@ -5329,28 +5338,24 @@
         <v>79</v>
       </c>
       <c r="C163" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D163" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="E163" s="8" t="s">
-        <v>159</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="D163" s="8"/>
+      <c r="E163" s="8"/>
       <c r="F163" s="8" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="G163" s="9">
-        <v>18.75</v>
+        <v>2.5</v>
       </c>
       <c r="H163" s="8" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="I163" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A164" s="7">
         <v>45721</v>
       </c>
@@ -5363,10 +5368,10 @@
       <c r="D164" s="8"/>
       <c r="E164" s="8"/>
       <c r="F164" s="8" t="s">
-        <v>144</v>
+        <v>59</v>
       </c>
       <c r="G164" s="9">
-        <v>2.5</v>
+        <v>7.68</v>
       </c>
       <c r="H164" s="8" t="s">
         <v>10</v>
@@ -5375,32 +5380,32 @@
         <v>11</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A165" s="7">
-        <v>45721</v>
+        <v>45722</v>
       </c>
       <c r="B165" s="8" t="s">
         <v>79</v>
       </c>
       <c r="C165" s="8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D165" s="8"/>
       <c r="E165" s="8"/>
       <c r="F165" s="8" t="s">
-        <v>59</v>
+        <v>163</v>
       </c>
       <c r="G165" s="9">
-        <v>7.68</v>
+        <v>17.649999999999999</v>
       </c>
       <c r="H165" s="8" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="I165" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A166" s="7">
         <v>45722</v>
       </c>
@@ -5408,24 +5413,24 @@
         <v>79</v>
       </c>
       <c r="C166" s="8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D166" s="8"/>
       <c r="E166" s="8"/>
       <c r="F166" s="8" t="s">
-        <v>163</v>
+        <v>59</v>
       </c>
       <c r="G166" s="9">
-        <v>17.649999999999999</v>
+        <v>29.12</v>
       </c>
       <c r="H166" s="8" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="I166" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A167" s="7">
         <v>45722</v>
       </c>
@@ -5438,10 +5443,10 @@
       <c r="D167" s="8"/>
       <c r="E167" s="8"/>
       <c r="F167" s="8" t="s">
-        <v>59</v>
+        <v>144</v>
       </c>
       <c r="G167" s="9">
-        <v>29.12</v>
+        <v>5</v>
       </c>
       <c r="H167" s="8" t="s">
         <v>10</v>
@@ -5450,32 +5455,32 @@
         <v>11</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A168" s="7">
-        <v>45722</v>
+        <v>45723</v>
       </c>
       <c r="B168" s="8" t="s">
         <v>79</v>
       </c>
       <c r="C168" s="8" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D168" s="8"/>
       <c r="E168" s="8"/>
       <c r="F168" s="8" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="G168" s="9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H168" s="8" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="I168" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A169" s="7">
         <v>45723</v>
       </c>
@@ -5483,49 +5488,53 @@
         <v>79</v>
       </c>
       <c r="C169" s="8" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D169" s="8"/>
       <c r="E169" s="8"/>
       <c r="F169" s="8" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="G169" s="9">
-        <v>6</v>
+        <v>12.16</v>
       </c>
       <c r="H169" s="8" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="I169" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A170" s="7">
-        <v>45723</v>
+        <v>45724</v>
       </c>
       <c r="B170" s="8" t="s">
         <v>79</v>
       </c>
       <c r="C170" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D170" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D170" s="8"/>
-      <c r="E170" s="8"/>
+      <c r="E170" s="8" t="s">
+        <v>94</v>
+      </c>
       <c r="F170" s="8" t="s">
         <v>155</v>
       </c>
       <c r="G170" s="9">
-        <v>12.16</v>
+        <v>11.11</v>
       </c>
       <c r="H170" s="8" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="I170" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A171" s="7">
         <v>45724</v>
       </c>
@@ -5536,16 +5545,16 @@
         <v>29</v>
       </c>
       <c r="D171" s="8" t="s">
-        <v>15</v>
+        <v>83</v>
       </c>
       <c r="E171" s="8" t="s">
         <v>94</v>
       </c>
       <c r="F171" s="8" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="G171" s="9">
-        <v>11.11</v>
+        <v>28</v>
       </c>
       <c r="H171" s="8" t="s">
         <v>22</v>
@@ -5554,7 +5563,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A172" s="7">
         <v>45724</v>
       </c>
@@ -5565,16 +5574,16 @@
         <v>29</v>
       </c>
       <c r="D172" s="8" t="s">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="E172" s="8" t="s">
         <v>94</v>
       </c>
       <c r="F172" s="8" t="s">
-        <v>165</v>
+        <v>28</v>
       </c>
       <c r="G172" s="9">
-        <v>28</v>
+        <v>1.2</v>
       </c>
       <c r="H172" s="8" t="s">
         <v>22</v>
@@ -5583,7 +5592,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A173" s="7">
         <v>45724</v>
       </c>
@@ -5594,25 +5603,25 @@
         <v>29</v>
       </c>
       <c r="D173" s="8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E173" s="8" t="s">
         <v>94</v>
       </c>
       <c r="F173" s="8" t="s">
-        <v>28</v>
+        <v>166</v>
       </c>
       <c r="G173" s="9">
-        <v>1.2</v>
+        <v>12</v>
       </c>
       <c r="H173" s="8" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="I173" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A174" s="7">
         <v>45724</v>
       </c>
@@ -5629,10 +5638,10 @@
         <v>94</v>
       </c>
       <c r="F174" s="8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G174" s="9">
-        <v>12</v>
+        <v>4.5</v>
       </c>
       <c r="H174" s="8" t="s">
         <v>10</v>
@@ -5641,7 +5650,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A175" s="7">
         <v>45724</v>
       </c>
@@ -5652,27 +5661,27 @@
         <v>29</v>
       </c>
       <c r="D175" s="8" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E175" s="8" t="s">
         <v>94</v>
       </c>
       <c r="F175" s="8" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="G175" s="9">
-        <v>4.5</v>
+        <v>11</v>
       </c>
       <c r="H175" s="8" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="I175" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A176" s="7">
-        <v>45724</v>
+        <v>45725</v>
       </c>
       <c r="B176" s="8" t="s">
         <v>79</v>
@@ -5681,25 +5690,25 @@
         <v>29</v>
       </c>
       <c r="D176" s="8" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="E176" s="8" t="s">
         <v>94</v>
       </c>
       <c r="F176" s="8" t="s">
-        <v>161</v>
+        <v>39</v>
       </c>
       <c r="G176" s="9">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H176" s="8" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="I176" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A177" s="7">
         <v>45725</v>
       </c>
@@ -5710,25 +5719,25 @@
         <v>29</v>
       </c>
       <c r="D177" s="8" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="E177" s="8" t="s">
         <v>94</v>
       </c>
       <c r="F177" s="8" t="s">
-        <v>39</v>
+        <v>168</v>
       </c>
       <c r="G177" s="9">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="H177" s="8" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="I177" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A178" s="7">
         <v>45725</v>
       </c>
@@ -5739,16 +5748,16 @@
         <v>29</v>
       </c>
       <c r="D178" s="8" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E178" s="8" t="s">
         <v>94</v>
       </c>
       <c r="F178" s="8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G178" s="9">
-        <v>15</v>
+        <v>19.5</v>
       </c>
       <c r="H178" s="8" t="s">
         <v>22</v>
@@ -5757,7 +5766,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A179" s="7">
         <v>45725</v>
       </c>
@@ -5768,16 +5777,16 @@
         <v>29</v>
       </c>
       <c r="D179" s="8" t="s">
-        <v>15</v>
+        <v>87</v>
       </c>
       <c r="E179" s="8" t="s">
         <v>94</v>
       </c>
       <c r="F179" s="8" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G179" s="9">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="H179" s="8" t="s">
         <v>22</v>
@@ -5786,7 +5795,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A180" s="7">
         <v>45725</v>
       </c>
@@ -5797,16 +5806,16 @@
         <v>29</v>
       </c>
       <c r="D180" s="8" t="s">
-        <v>87</v>
+        <v>15</v>
       </c>
       <c r="E180" s="8" t="s">
         <v>94</v>
       </c>
       <c r="F180" s="8" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G180" s="9">
-        <v>18</v>
+        <v>12.5</v>
       </c>
       <c r="H180" s="8" t="s">
         <v>22</v>
@@ -5815,7 +5824,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A181" s="7">
         <v>45725</v>
       </c>
@@ -5832,10 +5841,10 @@
         <v>94</v>
       </c>
       <c r="F181" s="8" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="G181" s="9">
-        <v>12.5</v>
+        <v>10</v>
       </c>
       <c r="H181" s="8" t="s">
         <v>22</v>
@@ -5844,9 +5853,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A182" s="7">
-        <v>45725</v>
+        <v>45726</v>
       </c>
       <c r="B182" s="8" t="s">
         <v>79</v>
@@ -5855,16 +5864,16 @@
         <v>29</v>
       </c>
       <c r="D182" s="8" t="s">
-        <v>15</v>
+        <v>87</v>
       </c>
       <c r="E182" s="8" t="s">
         <v>94</v>
       </c>
       <c r="F182" s="8" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="G182" s="9">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H182" s="8" t="s">
         <v>22</v>
@@ -5873,7 +5882,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A183" s="7">
         <v>45726</v>
       </c>
@@ -5884,16 +5893,16 @@
         <v>29</v>
       </c>
       <c r="D183" s="8" t="s">
-        <v>87</v>
+        <v>15</v>
       </c>
       <c r="E183" s="8" t="s">
         <v>94</v>
       </c>
       <c r="F183" s="8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G183" s="9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H183" s="8" t="s">
         <v>22</v>
@@ -5902,7 +5911,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A184" s="7">
         <v>45726</v>
       </c>
@@ -5919,19 +5928,19 @@
         <v>94</v>
       </c>
       <c r="F184" s="8" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="G184" s="9">
-        <v>5</v>
+        <v>13.5</v>
       </c>
       <c r="H184" s="8" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="I184" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A185" s="7">
         <v>45726</v>
       </c>
@@ -5948,19 +5957,19 @@
         <v>94</v>
       </c>
       <c r="F185" s="8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G185" s="9">
-        <v>13.5</v>
+        <v>3</v>
       </c>
       <c r="H185" s="8" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="I185" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A186" s="7">
         <v>45726</v>
       </c>
@@ -5977,10 +5986,10 @@
         <v>94</v>
       </c>
       <c r="F186" s="8" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="G186" s="9">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="H186" s="8" t="s">
         <v>22</v>
@@ -5989,9 +5998,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A187" s="7">
-        <v>45726</v>
+        <v>45727</v>
       </c>
       <c r="B187" s="8" t="s">
         <v>79</v>
@@ -6000,25 +6009,25 @@
         <v>29</v>
       </c>
       <c r="D187" s="8" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="E187" s="8" t="s">
         <v>94</v>
       </c>
       <c r="F187" s="8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G187" s="9">
-        <v>17</v>
+        <v>5.2</v>
       </c>
       <c r="H187" s="8" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="I187" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A188" s="7">
         <v>45727</v>
       </c>
@@ -6029,16 +6038,16 @@
         <v>29</v>
       </c>
       <c r="D188" s="8" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="E188" s="8" t="s">
         <v>94</v>
       </c>
       <c r="F188" s="8" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G188" s="9">
-        <v>5.2</v>
+        <v>10</v>
       </c>
       <c r="H188" s="8" t="s">
         <v>10</v>
@@ -6047,7 +6056,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A189" s="7">
         <v>45727</v>
       </c>
@@ -6058,16 +6067,16 @@
         <v>29</v>
       </c>
       <c r="D189" s="8" t="s">
-        <v>15</v>
+        <v>83</v>
       </c>
       <c r="E189" s="8" t="s">
         <v>94</v>
       </c>
       <c r="F189" s="8" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G189" s="9">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H189" s="8" t="s">
         <v>10</v>
@@ -6076,7 +6085,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A190" s="7">
         <v>45727</v>
       </c>
@@ -6087,25 +6096,25 @@
         <v>29</v>
       </c>
       <c r="D190" s="8" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E190" s="8" t="s">
         <v>94</v>
       </c>
       <c r="F190" s="8" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G190" s="9">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="H190" s="8" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="I190" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A191" s="7">
         <v>45727</v>
       </c>
@@ -6116,16 +6125,16 @@
         <v>29</v>
       </c>
       <c r="D191" s="8" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E191" s="8" t="s">
         <v>94</v>
       </c>
       <c r="F191" s="8" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G191" s="9">
-        <v>1.5</v>
+        <v>21</v>
       </c>
       <c r="H191" s="8" t="s">
         <v>22</v>
@@ -6134,7 +6143,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A192" s="7">
         <v>45727</v>
       </c>
@@ -6151,10 +6160,10 @@
         <v>94</v>
       </c>
       <c r="F192" s="8" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G192" s="9">
-        <v>21</v>
+        <v>2.75</v>
       </c>
       <c r="H192" s="8" t="s">
         <v>22</v>
@@ -6163,7 +6172,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A193" s="7">
         <v>45727</v>
       </c>
@@ -6174,16 +6183,16 @@
         <v>29</v>
       </c>
       <c r="D193" s="8" t="s">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="E193" s="8" t="s">
         <v>94</v>
       </c>
       <c r="F193" s="8" t="s">
-        <v>180</v>
+        <v>39</v>
       </c>
       <c r="G193" s="9">
-        <v>2.75</v>
+        <v>4.5</v>
       </c>
       <c r="H193" s="8" t="s">
         <v>22</v>
@@ -6192,27 +6201,23 @@
         <v>11</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A194" s="7">
-        <v>45727</v>
+        <v>45728</v>
       </c>
       <c r="B194" s="8" t="s">
         <v>79</v>
       </c>
       <c r="C194" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D194" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E194" s="8" t="s">
-        <v>94</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D194" s="8"/>
+      <c r="E194" s="8"/>
       <c r="F194" s="8" t="s">
-        <v>39</v>
+        <v>155</v>
       </c>
       <c r="G194" s="9">
-        <v>4.5</v>
+        <v>12.26</v>
       </c>
       <c r="H194" s="8" t="s">
         <v>22</v>
@@ -6221,7 +6226,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A195" s="7">
         <v>45728</v>
       </c>
@@ -6229,49 +6234,53 @@
         <v>79</v>
       </c>
       <c r="C195" s="8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D195" s="8"/>
       <c r="E195" s="8"/>
       <c r="F195" s="8" t="s">
-        <v>155</v>
+        <v>59</v>
       </c>
       <c r="G195" s="9">
-        <v>12.26</v>
+        <v>31.66</v>
       </c>
       <c r="H195" s="8" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="I195" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A196" s="7">
-        <v>45728</v>
+        <v>45729</v>
       </c>
       <c r="B196" s="8" t="s">
         <v>79</v>
       </c>
       <c r="C196" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D196" s="8"/>
-      <c r="E196" s="8"/>
+        <v>29</v>
+      </c>
+      <c r="D196" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E196" s="8" t="s">
+        <v>94</v>
+      </c>
       <c r="F196" s="8" t="s">
-        <v>59</v>
+        <v>181</v>
       </c>
       <c r="G196" s="9">
-        <v>31.66</v>
+        <v>9.65</v>
       </c>
       <c r="H196" s="8" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="I196" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A197" s="7">
         <v>45729</v>
       </c>
@@ -6282,16 +6291,16 @@
         <v>29</v>
       </c>
       <c r="D197" s="8" t="s">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="E197" s="8" t="s">
         <v>94</v>
       </c>
       <c r="F197" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G197" s="9">
-        <v>9.65</v>
+        <v>1.5</v>
       </c>
       <c r="H197" s="8" t="s">
         <v>22</v>
@@ -6300,36 +6309,32 @@
         <v>11</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A198" s="7">
-        <v>45729</v>
+        <v>45730</v>
       </c>
       <c r="B198" s="8" t="s">
         <v>79</v>
       </c>
       <c r="C198" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D198" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="E198" s="8" t="s">
-        <v>94</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="D198" s="8"/>
+      <c r="E198" s="8"/>
       <c r="F198" s="8" t="s">
-        <v>182</v>
+        <v>59</v>
       </c>
       <c r="G198" s="9">
-        <v>1.5</v>
+        <v>17.52</v>
       </c>
       <c r="H198" s="8" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="I198" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A199" s="7">
         <v>45730</v>
       </c>
@@ -6342,10 +6347,10 @@
       <c r="D199" s="8"/>
       <c r="E199" s="8"/>
       <c r="F199" s="8" t="s">
-        <v>59</v>
+        <v>144</v>
       </c>
       <c r="G199" s="9">
-        <v>17.52</v>
+        <v>6.14</v>
       </c>
       <c r="H199" s="8" t="s">
         <v>10</v>
@@ -6354,32 +6359,32 @@
         <v>11</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A200" s="7">
-        <v>45730</v>
+        <v>45731</v>
       </c>
       <c r="B200" s="8" t="s">
         <v>79</v>
       </c>
       <c r="C200" s="8" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D200" s="8"/>
       <c r="E200" s="8"/>
       <c r="F200" s="8" t="s">
-        <v>144</v>
+        <v>183</v>
       </c>
       <c r="G200" s="9">
-        <v>6.14</v>
+        <v>35</v>
       </c>
       <c r="H200" s="8" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="I200" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A201" s="7">
         <v>45731</v>
       </c>
@@ -6387,40 +6392,40 @@
         <v>79</v>
       </c>
       <c r="C201" s="8" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D201" s="8"/>
       <c r="E201" s="8"/>
       <c r="F201" s="8" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G201" s="9">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="H201" s="8" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="I201" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A202" s="7">
-        <v>45731</v>
+        <v>45732</v>
       </c>
       <c r="B202" s="8" t="s">
         <v>79</v>
       </c>
       <c r="C202" s="8" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D202" s="8"/>
       <c r="E202" s="8"/>
       <c r="F202" s="8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G202" s="9">
-        <v>8</v>
+        <v>22.2</v>
       </c>
       <c r="H202" s="8" t="s">
         <v>10</v>
@@ -6429,7 +6434,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A203" s="7">
         <v>45732</v>
       </c>
@@ -6442,10 +6447,10 @@
       <c r="D203" s="8"/>
       <c r="E203" s="8"/>
       <c r="F203" s="8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G203" s="9">
-        <v>22.2</v>
+        <v>61.25</v>
       </c>
       <c r="H203" s="8" t="s">
         <v>10</v>
@@ -6454,7 +6459,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A204" s="7">
         <v>45732</v>
       </c>
@@ -6467,19 +6472,19 @@
       <c r="D204" s="8"/>
       <c r="E204" s="8"/>
       <c r="F204" s="8" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G204" s="9">
-        <v>61.25</v>
+        <v>59.99</v>
       </c>
       <c r="H204" s="8" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="I204" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A205" s="7">
         <v>45732</v>
       </c>
@@ -6492,10 +6497,10 @@
       <c r="D205" s="8"/>
       <c r="E205" s="8"/>
       <c r="F205" s="8" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G205" s="9">
-        <v>59.99</v>
+        <v>70.599999999999994</v>
       </c>
       <c r="H205" s="8" t="s">
         <v>22</v>
@@ -6504,7 +6509,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A206" s="7">
         <v>45732</v>
       </c>
@@ -6512,15 +6517,15 @@
         <v>79</v>
       </c>
       <c r="C206" s="8" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D206" s="8"/>
       <c r="E206" s="8"/>
       <c r="F206" s="8" t="s">
-        <v>188</v>
+        <v>155</v>
       </c>
       <c r="G206" s="9">
-        <v>70.599999999999994</v>
+        <v>16.059999999999999</v>
       </c>
       <c r="H206" s="8" t="s">
         <v>22</v>
@@ -6529,57 +6534,57 @@
         <v>11</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A207" s="7">
-        <v>45732</v>
+        <v>45733</v>
       </c>
       <c r="B207" s="8" t="s">
         <v>79</v>
       </c>
       <c r="C207" s="8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D207" s="8"/>
       <c r="E207" s="8"/>
       <c r="F207" s="8" t="s">
-        <v>155</v>
+        <v>59</v>
       </c>
       <c r="G207" s="9">
-        <v>16.059999999999999</v>
+        <v>27.61</v>
       </c>
       <c r="H207" s="8" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="I207" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A208" s="7">
-        <v>45733</v>
+        <v>45735</v>
       </c>
       <c r="B208" s="8" t="s">
         <v>79</v>
       </c>
       <c r="C208" s="8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D208" s="8"/>
       <c r="E208" s="8"/>
       <c r="F208" s="8" t="s">
-        <v>59</v>
+        <v>189</v>
       </c>
       <c r="G208" s="9">
-        <v>27.61</v>
+        <v>25.8</v>
       </c>
       <c r="H208" s="8" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="I208" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A209" s="7">
         <v>45735</v>
       </c>
@@ -6592,44 +6597,48 @@
       <c r="D209" s="8"/>
       <c r="E209" s="8"/>
       <c r="F209" s="8" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G209" s="9">
-        <v>25.8</v>
+        <v>11.9</v>
       </c>
       <c r="H209" s="8" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="I209" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A210" s="7">
-        <v>45735</v>
+        <v>45736</v>
       </c>
       <c r="B210" s="8" t="s">
         <v>79</v>
       </c>
       <c r="C210" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D210" s="8"/>
-      <c r="E210" s="8"/>
+        <v>29</v>
+      </c>
+      <c r="D210" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E210" s="8" t="s">
+        <v>157</v>
+      </c>
       <c r="F210" s="8" t="s">
-        <v>190</v>
+        <v>39</v>
       </c>
       <c r="G210" s="9">
-        <v>11.9</v>
+        <v>6.9</v>
       </c>
       <c r="H210" s="8" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="I210" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A211" s="7">
         <v>45736</v>
       </c>
@@ -6640,16 +6649,16 @@
         <v>29</v>
       </c>
       <c r="D211" s="8" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="E211" s="8" t="s">
         <v>157</v>
       </c>
       <c r="F211" s="8" t="s">
-        <v>39</v>
+        <v>191</v>
       </c>
       <c r="G211" s="9">
-        <v>6.9</v>
+        <v>29</v>
       </c>
       <c r="H211" s="8" t="s">
         <v>22</v>
@@ -6658,7 +6667,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A212" s="7">
         <v>45736</v>
       </c>
@@ -6669,16 +6678,16 @@
         <v>29</v>
       </c>
       <c r="D212" s="8" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="E212" s="8" t="s">
         <v>157</v>
       </c>
       <c r="F212" s="8" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G212" s="9">
-        <v>29</v>
+        <v>8.9</v>
       </c>
       <c r="H212" s="8" t="s">
         <v>22</v>
@@ -6687,9 +6696,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A213" s="7">
-        <v>45736</v>
+        <v>45737</v>
       </c>
       <c r="B213" s="8" t="s">
         <v>79</v>
@@ -6704,10 +6713,10 @@
         <v>157</v>
       </c>
       <c r="F213" s="8" t="s">
-        <v>192</v>
+        <v>39</v>
       </c>
       <c r="G213" s="9">
-        <v>8.9</v>
+        <v>9</v>
       </c>
       <c r="H213" s="8" t="s">
         <v>22</v>
@@ -6716,7 +6725,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A214" s="7">
         <v>45737</v>
       </c>
@@ -6727,16 +6736,16 @@
         <v>29</v>
       </c>
       <c r="D214" s="8" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="E214" s="8" t="s">
         <v>157</v>
       </c>
       <c r="F214" s="8" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="G214" s="9">
-        <v>9</v>
+        <v>12.25</v>
       </c>
       <c r="H214" s="8" t="s">
         <v>22</v>
@@ -6745,9 +6754,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A215" s="7">
-        <v>45737</v>
+        <v>45738</v>
       </c>
       <c r="B215" s="8" t="s">
         <v>79</v>
@@ -6756,16 +6765,16 @@
         <v>29</v>
       </c>
       <c r="D215" s="8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E215" s="8" t="s">
-        <v>157</v>
+        <v>193</v>
       </c>
       <c r="F215" s="8" t="s">
-        <v>12</v>
+        <v>155</v>
       </c>
       <c r="G215" s="9">
-        <v>12.25</v>
+        <v>6.8</v>
       </c>
       <c r="H215" s="8" t="s">
         <v>22</v>
@@ -6774,7 +6783,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A216" s="7">
         <v>45738</v>
       </c>
@@ -6782,19 +6791,15 @@
         <v>79</v>
       </c>
       <c r="C216" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D216" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E216" s="8" t="s">
-        <v>193</v>
-      </c>
+      <c r="D216" s="8"/>
+      <c r="E216" s="8"/>
       <c r="F216" s="8" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="G216" s="9">
-        <v>6.8</v>
+        <v>7.99</v>
       </c>
       <c r="H216" s="8" t="s">
         <v>22</v>
@@ -6803,57 +6808,61 @@
         <v>11</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A217" s="7">
-        <v>45738</v>
+        <v>45739</v>
       </c>
       <c r="B217" s="8" t="s">
         <v>79</v>
       </c>
       <c r="C217" s="8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D217" s="8"/>
       <c r="E217" s="8"/>
       <c r="F217" s="8" t="s">
-        <v>194</v>
+        <v>146</v>
       </c>
       <c r="G217" s="9">
-        <v>7.99</v>
+        <v>10</v>
       </c>
       <c r="H217" s="8" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="I217" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A218" s="7">
-        <v>45739</v>
+        <v>45740</v>
       </c>
       <c r="B218" s="8" t="s">
         <v>79</v>
       </c>
       <c r="C218" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D218" s="8"/>
-      <c r="E218" s="8"/>
+        <v>29</v>
+      </c>
+      <c r="D218" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E218" s="8" t="s">
+        <v>157</v>
+      </c>
       <c r="F218" s="8" t="s">
-        <v>146</v>
+        <v>195</v>
       </c>
       <c r="G218" s="9">
-        <v>10</v>
+        <v>9.1</v>
       </c>
       <c r="H218" s="8" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="I218" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A219" s="7">
         <v>45740</v>
       </c>
@@ -6864,16 +6873,16 @@
         <v>29</v>
       </c>
       <c r="D219" s="8" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="E219" s="8" t="s">
-        <v>157</v>
+        <v>193</v>
       </c>
       <c r="F219" s="8" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G219" s="9">
-        <v>9.1</v>
+        <v>18.2</v>
       </c>
       <c r="H219" s="8" t="s">
         <v>22</v>
@@ -6882,52 +6891,48 @@
         <v>11</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A220" s="7">
-        <v>45740</v>
+        <v>45741</v>
       </c>
       <c r="B220" s="8" t="s">
         <v>79</v>
       </c>
       <c r="C220" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D220" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E220" s="8" t="s">
-        <v>193</v>
-      </c>
+      <c r="D220" s="8"/>
+      <c r="E220" s="8"/>
       <c r="F220" s="8" t="s">
-        <v>196</v>
+        <v>59</v>
       </c>
       <c r="G220" s="9">
-        <v>18.2</v>
+        <v>25.62</v>
       </c>
       <c r="H220" s="8" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="I220" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A221" s="7">
-        <v>45741</v>
+        <v>45742</v>
       </c>
       <c r="B221" s="8" t="s">
         <v>79</v>
       </c>
       <c r="C221" s="8" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="D221" s="8"/>
       <c r="E221" s="8"/>
       <c r="F221" s="8" t="s">
-        <v>59</v>
+        <v>197</v>
       </c>
       <c r="G221" s="9">
-        <v>25.62</v>
+        <v>3.99</v>
       </c>
       <c r="H221" s="8" t="s">
         <v>10</v>
@@ -6936,7 +6941,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A222" s="7">
         <v>45742</v>
       </c>
@@ -6944,15 +6949,15 @@
         <v>79</v>
       </c>
       <c r="C222" s="8" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="D222" s="8"/>
       <c r="E222" s="8"/>
       <c r="F222" s="8" t="s">
-        <v>197</v>
+        <v>12</v>
       </c>
       <c r="G222" s="9">
-        <v>3.99</v>
+        <v>13.05</v>
       </c>
       <c r="H222" s="8" t="s">
         <v>10</v>
@@ -6961,23 +6966,23 @@
         <v>11</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A223" s="7">
-        <v>45742</v>
+        <v>45743</v>
       </c>
       <c r="B223" s="8" t="s">
         <v>79</v>
       </c>
       <c r="C223" s="8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D223" s="8"/>
       <c r="E223" s="8"/>
       <c r="F223" s="8" t="s">
-        <v>12</v>
+        <v>198</v>
       </c>
       <c r="G223" s="9">
-        <v>13.05</v>
+        <v>5.9</v>
       </c>
       <c r="H223" s="8" t="s">
         <v>10</v>
@@ -6986,7 +6991,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A224" s="7">
         <v>45743</v>
       </c>
@@ -6994,15 +6999,15 @@
         <v>79</v>
       </c>
       <c r="C224" s="8" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="D224" s="8"/>
       <c r="E224" s="8"/>
       <c r="F224" s="8" t="s">
-        <v>198</v>
+        <v>138</v>
       </c>
       <c r="G224" s="9">
-        <v>5.9</v>
+        <v>7.15</v>
       </c>
       <c r="H224" s="8" t="s">
         <v>10</v>
@@ -7011,9 +7016,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A225" s="7">
-        <v>45743</v>
+        <v>45744</v>
       </c>
       <c r="B225" s="8" t="s">
         <v>79</v>
@@ -7024,10 +7029,10 @@
       <c r="D225" s="8"/>
       <c r="E225" s="8"/>
       <c r="F225" s="8" t="s">
-        <v>138</v>
+        <v>39</v>
       </c>
       <c r="G225" s="9">
-        <v>7.15</v>
+        <v>5.3</v>
       </c>
       <c r="H225" s="8" t="s">
         <v>10</v>
@@ -7036,9 +7041,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A226" s="7">
-        <v>45744</v>
+        <v>45746</v>
       </c>
       <c r="B226" s="8" t="s">
         <v>79</v>
@@ -7052,7 +7057,7 @@
         <v>39</v>
       </c>
       <c r="G226" s="9">
-        <v>5.3</v>
+        <v>4.8499999999999996</v>
       </c>
       <c r="H226" s="8" t="s">
         <v>10</v>
@@ -7061,23 +7066,23 @@
         <v>11</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A227" s="7">
-        <v>45746</v>
+        <v>45747</v>
       </c>
       <c r="B227" s="8" t="s">
         <v>79</v>
       </c>
       <c r="C227" s="8" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="D227" s="8"/>
       <c r="E227" s="8"/>
       <c r="F227" s="8" t="s">
-        <v>39</v>
+        <v>156</v>
       </c>
       <c r="G227" s="9">
-        <v>4.8499999999999996</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="H227" s="8" t="s">
         <v>10</v>
@@ -7086,7 +7091,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A228" s="7">
         <v>45747</v>
       </c>
@@ -7094,24 +7099,28 @@
         <v>79</v>
       </c>
       <c r="C228" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D228" s="8"/>
-      <c r="E228" s="8"/>
+        <v>29</v>
+      </c>
+      <c r="D228" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E228" s="8" t="s">
+        <v>200</v>
+      </c>
       <c r="F228" s="8" t="s">
-        <v>156</v>
+        <v>199</v>
       </c>
       <c r="G228" s="9">
-        <v>17.399999999999999</v>
+        <v>109.6</v>
       </c>
       <c r="H228" s="8" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="I228" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A229" s="7">
         <v>45747</v>
       </c>
@@ -7119,44 +7128,40 @@
         <v>79</v>
       </c>
       <c r="C229" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D229" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="E229" s="8" t="s">
-        <v>200</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D229" s="8"/>
+      <c r="E229" s="8"/>
       <c r="F229" s="8" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G229" s="9">
-        <v>109.6</v>
+        <v>22.4</v>
       </c>
       <c r="H229" s="8" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="I229" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A230" s="7">
-        <v>45747</v>
+        <v>45748</v>
       </c>
       <c r="B230" s="8" t="s">
-        <v>79</v>
+        <v>207</v>
       </c>
       <c r="C230" s="8" t="s">
-        <v>15</v>
+        <v>143</v>
       </c>
       <c r="D230" s="8"/>
       <c r="E230" s="8"/>
       <c r="F230" s="8" t="s">
-        <v>201</v>
+        <v>143</v>
       </c>
       <c r="G230" s="9">
-        <v>22.4</v>
+        <v>34.520000000000003</v>
       </c>
       <c r="H230" s="8" t="s">
         <v>10</v>
@@ -7165,7 +7170,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A231" s="7">
         <v>45748</v>
       </c>
@@ -7173,15 +7178,15 @@
         <v>207</v>
       </c>
       <c r="C231" s="8" t="s">
-        <v>143</v>
+        <v>39</v>
       </c>
       <c r="D231" s="8"/>
       <c r="E231" s="8"/>
       <c r="F231" s="8" t="s">
-        <v>143</v>
+        <v>202</v>
       </c>
       <c r="G231" s="9">
-        <v>34.520000000000003</v>
+        <v>3.85</v>
       </c>
       <c r="H231" s="8" t="s">
         <v>10</v>
@@ -7190,7 +7195,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A232" s="7">
         <v>45748</v>
       </c>
@@ -7198,15 +7203,15 @@
         <v>207</v>
       </c>
       <c r="C232" s="8" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="D232" s="8"/>
       <c r="E232" s="8"/>
       <c r="F232" s="8" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G232" s="9">
-        <v>3.85</v>
+        <v>44</v>
       </c>
       <c r="H232" s="8" t="s">
         <v>10</v>
@@ -7215,7 +7220,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A233" s="7">
         <v>45748</v>
       </c>
@@ -7223,15 +7228,15 @@
         <v>207</v>
       </c>
       <c r="C233" s="8" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D233" s="8"/>
       <c r="E233" s="8"/>
       <c r="F233" s="8" t="s">
-        <v>203</v>
+        <v>59</v>
       </c>
       <c r="G233" s="9">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H233" s="8" t="s">
         <v>10</v>
@@ -7240,7 +7245,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A234" s="7">
         <v>45748</v>
       </c>
@@ -7248,15 +7253,15 @@
         <v>207</v>
       </c>
       <c r="C234" s="8" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D234" s="8"/>
       <c r="E234" s="8"/>
       <c r="F234" s="8" t="s">
-        <v>59</v>
+        <v>204</v>
       </c>
       <c r="G234" s="9">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="H234" s="8" t="s">
         <v>10</v>
@@ -7265,9 +7270,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A235" s="7">
-        <v>45748</v>
+        <v>45749</v>
       </c>
       <c r="B235" s="8" t="s">
         <v>207</v>
@@ -7278,19 +7283,19 @@
       <c r="D235" s="8"/>
       <c r="E235" s="8"/>
       <c r="F235" s="8" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G235" s="9">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="H235" s="8" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="I235" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A236" s="7">
         <v>45749</v>
       </c>
@@ -7298,15 +7303,19 @@
         <v>207</v>
       </c>
       <c r="C236" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D236" s="8"/>
-      <c r="E236" s="8"/>
+        <v>29</v>
+      </c>
+      <c r="D236" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E236" s="8" t="s">
+        <v>200</v>
+      </c>
       <c r="F236" s="8" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G236" s="9">
-        <v>7.5</v>
+        <v>16.48</v>
       </c>
       <c r="H236" s="8" t="s">
         <v>22</v>
@@ -7315,7 +7324,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A237" s="7">
         <v>45749</v>
       </c>
@@ -7323,19 +7332,15 @@
         <v>207</v>
       </c>
       <c r="C237" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D237" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="E237" s="8" t="s">
-        <v>200</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="D237" s="8"/>
+      <c r="E237" s="8"/>
       <c r="F237" s="8" t="s">
-        <v>206</v>
+        <v>27</v>
       </c>
       <c r="G237" s="9">
-        <v>16.48</v>
+        <v>4.2</v>
       </c>
       <c r="H237" s="8" t="s">
         <v>22</v>
@@ -7345,29 +7350,15 @@
       </c>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A238" s="7">
-        <v>45749</v>
-      </c>
-      <c r="B238" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="C238" s="8" t="s">
-        <v>23</v>
-      </c>
+      <c r="A238" s="8"/>
+      <c r="B238" s="8"/>
+      <c r="C238" s="8"/>
       <c r="D238" s="8"/>
       <c r="E238" s="8"/>
-      <c r="F238" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G238" s="9">
-        <v>4.2</v>
-      </c>
-      <c r="H238" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="I238" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="F238" s="8"/>
+      <c r="G238" s="9"/>
+      <c r="H238" s="8"/>
+      <c r="I238" s="8"/>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A239" s="8"/>
@@ -11846,38 +11837,33 @@
       <c r="H645" s="8"/>
       <c r="I645" s="8"/>
     </row>
-    <row r="646" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A646" s="8"/>
-      <c r="B646" s="8"/>
-      <c r="C646" s="8"/>
-      <c r="D646" s="8"/>
-      <c r="E646" s="8"/>
-      <c r="F646" s="8"/>
-      <c r="G646" s="9"/>
-      <c r="H646" s="8"/>
-      <c r="I646" s="8"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:I238" xr:uid="{73D03841-840F-48EF-840B-36FDA2E59E7D}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I176">
-    <sortCondition ref="A109:A176"/>
+  <autoFilter ref="A1:I237" xr:uid="{73D03841-840F-48EF-840B-36FDA2E59E7D}">
+    <filterColumn colId="8">
+      <filters>
+        <filter val="CC"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I175">
+    <sortCondition ref="A109:A175"/>
   </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{790B5306-A74C-4E52-BB85-C4249CF769EB}">
+          <x14:formula1>
+            <xm:f>lists!$C$1:$C$11</xm:f>
+          </x14:formula1>
+          <xm:sqref>D2:D13</xm:sqref>
+        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{77508706-FF64-4936-A3A6-4F0639AF6AF4}">
           <x14:formula1>
             <xm:f>lists!$A$1:$A$6</xm:f>
           </x14:formula1>
           <xm:sqref>B2:B1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{790B5306-A74C-4E52-BB85-C4249CF769EB}">
-          <x14:formula1>
-            <xm:f>lists!$C$1:$C$11</xm:f>
-          </x14:formula1>
-          <xm:sqref>D2:D13</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E87165FA-15D3-4B9C-BFC7-CBABAFD0C4D5}">
           <x14:formula1>

--- a/assets/cost_sheet.xlsx
+++ b/assets/cost_sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/56C9449150E6BC49/Documentos/FEARP/Intercambio/spendure_app/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1521" documentId="8_{697955BF-7644-43E6-B102-A5718628249A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B76592F7-4DA2-42B5-88CA-9E2FB9A7D61B}"/>
+  <xr:revisionPtr revIDLastSave="1858" documentId="8_{697955BF-7644-43E6-B102-A5718628249A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2CC9C139-CFAC-45B0-8BCF-90089197AECD}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{3A902579-E7D0-4425-859E-D7B710BECD9D}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1374" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1612" uniqueCount="226">
   <si>
     <t>Data</t>
   </si>
@@ -664,6 +664,60 @@
   </si>
   <si>
     <t>Abril</t>
+  </si>
+  <si>
+    <t>Toalha academia</t>
+  </si>
+  <si>
+    <t>100 Montaditos</t>
+  </si>
+  <si>
+    <t>Lady Dumpling</t>
+  </si>
+  <si>
+    <t>Passagem avião</t>
+  </si>
+  <si>
+    <t>Vivari</t>
+  </si>
+  <si>
+    <t>Mercado Brasileiro</t>
+  </si>
+  <si>
+    <t>Impermeabilização tenis</t>
+  </si>
+  <si>
+    <t>ônibus aeroporto</t>
+  </si>
+  <si>
+    <t>Carrefour iogurte</t>
+  </si>
+  <si>
+    <t>Aperol</t>
+  </si>
+  <si>
+    <t>Passe metro</t>
+  </si>
+  <si>
+    <t>Osteria Milanese</t>
+  </si>
+  <si>
+    <t>Pizza Cibus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estacionamento </t>
+  </si>
+  <si>
+    <t>Banheiro</t>
+  </si>
+  <si>
+    <t>Mercado Perda Energia</t>
+  </si>
+  <si>
+    <t>Sagrada Família</t>
+  </si>
+  <si>
+    <t>Mercado + Carro + Gasolina</t>
   </si>
 </sst>
 </file>
@@ -1109,11 +1163,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73D03841-840F-48EF-840B-36FDA2E59E7D}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:I645"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K37" sqref="K37"/>
+    <sheetView tabSelected="1" topLeftCell="A268" workbookViewId="0">
+      <selection activeCell="I272" sqref="I272"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1157,7 +1210,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>45657</v>
       </c>
@@ -1182,7 +1235,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>45659</v>
       </c>
@@ -1207,7 +1260,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>45659</v>
       </c>
@@ -1232,7 +1285,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>45659</v>
       </c>
@@ -1257,7 +1310,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>45659</v>
       </c>
@@ -1282,7 +1335,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>45659</v>
       </c>
@@ -1307,7 +1360,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>45660</v>
       </c>
@@ -1332,7 +1385,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>45660</v>
       </c>
@@ -1357,7 +1410,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>45660</v>
       </c>
@@ -1382,7 +1435,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>45660</v>
       </c>
@@ -1407,7 +1460,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>45661</v>
       </c>
@@ -1432,7 +1485,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>45661</v>
       </c>
@@ -1457,7 +1510,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>45662</v>
       </c>
@@ -1486,7 +1539,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>45662</v>
       </c>
@@ -1511,7 +1564,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>45663</v>
       </c>
@@ -1536,7 +1589,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>45663</v>
       </c>
@@ -1561,7 +1614,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>45663</v>
       </c>
@@ -1586,7 +1639,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>45664</v>
       </c>
@@ -1611,7 +1664,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>45664</v>
       </c>
@@ -1636,7 +1689,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>45664</v>
       </c>
@@ -1661,7 +1714,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>45666</v>
       </c>
@@ -1684,7 +1737,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>45666</v>
       </c>
@@ -1709,7 +1762,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>45667</v>
       </c>
@@ -1734,7 +1787,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>45667</v>
       </c>
@@ -1759,7 +1812,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>45668</v>
       </c>
@@ -1784,7 +1837,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>45668</v>
       </c>
@@ -1809,7 +1862,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>45668</v>
       </c>
@@ -1834,7 +1887,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>45668</v>
       </c>
@@ -1859,7 +1912,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>45669</v>
       </c>
@@ -1884,7 +1937,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>45669</v>
       </c>
@@ -1909,7 +1962,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>45669</v>
       </c>
@@ -1934,7 +1987,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>45670</v>
       </c>
@@ -1959,7 +2012,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>45670</v>
       </c>
@@ -1984,7 +2037,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>45670</v>
       </c>
@@ -2059,7 +2112,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>45674</v>
       </c>
@@ -2084,7 +2137,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>45676</v>
       </c>
@@ -2109,7 +2162,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>45676</v>
       </c>
@@ -2134,7 +2187,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>45677</v>
       </c>
@@ -2163,7 +2216,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>45677</v>
       </c>
@@ -2188,7 +2241,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="43" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>45677</v>
       </c>
@@ -2213,7 +2266,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>45678</v>
       </c>
@@ -2238,7 +2291,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>45678</v>
       </c>
@@ -2263,7 +2316,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>45678</v>
       </c>
@@ -2288,7 +2341,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>45679</v>
       </c>
@@ -2313,7 +2366,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>45680</v>
       </c>
@@ -2338,7 +2391,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>45681</v>
       </c>
@@ -2363,7 +2416,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>45681</v>
       </c>
@@ -2388,7 +2441,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>45681</v>
       </c>
@@ -2413,7 +2466,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>45681</v>
       </c>
@@ -2438,7 +2491,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>45682</v>
       </c>
@@ -2463,7 +2516,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>45683</v>
       </c>
@@ -2488,7 +2541,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>45684</v>
       </c>
@@ -2513,7 +2566,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>45684</v>
       </c>
@@ -2538,7 +2591,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>45685</v>
       </c>
@@ -2563,7 +2616,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>45687</v>
       </c>
@@ -2588,7 +2641,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>45687</v>
       </c>
@@ -2613,7 +2666,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="60" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>45687</v>
       </c>
@@ -2638,7 +2691,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="61" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>45688</v>
       </c>
@@ -2663,7 +2716,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="62" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>45688</v>
       </c>
@@ -2688,7 +2741,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="63" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>45688</v>
       </c>
@@ -2713,7 +2766,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="64" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>45688</v>
       </c>
@@ -2738,7 +2791,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="65" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>45689</v>
       </c>
@@ -2767,7 +2820,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="66" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>45689</v>
       </c>
@@ -2792,7 +2845,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="67" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>45689</v>
       </c>
@@ -2817,7 +2870,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="68" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>45689</v>
       </c>
@@ -2842,7 +2895,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="69" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>45689</v>
       </c>
@@ -2867,7 +2920,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="70" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>45690</v>
       </c>
@@ -2896,7 +2949,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="71" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>45690</v>
       </c>
@@ -2921,7 +2974,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="72" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" s="7">
         <v>45690</v>
       </c>
@@ -2946,7 +2999,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="73" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>45690</v>
       </c>
@@ -2975,7 +3028,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="74" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" s="7">
         <v>45691</v>
       </c>
@@ -3000,7 +3053,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="75" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" s="7">
         <v>45691</v>
       </c>
@@ -3025,7 +3078,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="76" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" s="7">
         <v>45692</v>
       </c>
@@ -3048,7 +3101,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="77" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" s="7">
         <v>45692</v>
       </c>
@@ -3073,7 +3126,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="78" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78" s="7">
         <v>45693</v>
       </c>
@@ -3098,7 +3151,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="79" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79" s="7">
         <v>45693</v>
       </c>
@@ -3123,7 +3176,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="80" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80" s="7">
         <v>45694</v>
       </c>
@@ -3148,7 +3201,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="81" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A81" s="7">
         <v>45695</v>
       </c>
@@ -3177,7 +3230,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="82" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82" s="7">
         <v>45695</v>
       </c>
@@ -3206,7 +3259,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="83" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A83" s="7">
         <v>45695</v>
       </c>
@@ -3235,7 +3288,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="84" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A84" s="7">
         <v>45695</v>
       </c>
@@ -3264,7 +3317,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="85" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A85" s="7">
         <v>45695</v>
       </c>
@@ -3289,7 +3342,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="86" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A86" s="7">
         <v>45696</v>
       </c>
@@ -3318,7 +3371,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="87" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A87" s="7">
         <v>45696</v>
       </c>
@@ -3347,7 +3400,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="88" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A88" s="7">
         <v>45696</v>
       </c>
@@ -3376,7 +3429,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="89" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A89" s="7">
         <v>45696</v>
       </c>
@@ -3405,7 +3458,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="90" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A90" s="7">
         <v>45696</v>
       </c>
@@ -3434,7 +3487,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="91" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A91" s="7">
         <v>45696</v>
       </c>
@@ -3463,7 +3516,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="92" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A92" s="7">
         <v>45697</v>
       </c>
@@ -3492,7 +3545,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="93" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A93" s="7">
         <v>45697</v>
       </c>
@@ -3521,7 +3574,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="94" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A94" s="7">
         <v>45697</v>
       </c>
@@ -3550,7 +3603,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="95" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A95" s="7">
         <v>45697</v>
       </c>
@@ -3579,7 +3632,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="96" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A96" s="7">
         <v>45698</v>
       </c>
@@ -3608,7 +3661,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="97" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A97" s="7">
         <v>45698</v>
       </c>
@@ -3633,7 +3686,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="98" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A98" s="7">
         <v>45698</v>
       </c>
@@ -3658,7 +3711,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="99" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A99" s="7">
         <v>45698</v>
       </c>
@@ -3683,7 +3736,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="100" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A100" s="7">
         <v>45698</v>
       </c>
@@ -3708,7 +3761,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="101" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A101" s="7">
         <v>45698</v>
       </c>
@@ -3733,7 +3786,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="102" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A102" s="7">
         <v>45699</v>
       </c>
@@ -3758,7 +3811,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="103" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A103" s="7">
         <v>45699</v>
       </c>
@@ -3783,7 +3836,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="104" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A104" s="7">
         <v>45699</v>
       </c>
@@ -3808,7 +3861,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="105" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A105" s="7">
         <v>45700</v>
       </c>
@@ -3833,7 +3886,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="106" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A106" s="7">
         <v>45700</v>
       </c>
@@ -3858,7 +3911,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="107" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A107" s="7">
         <v>45700</v>
       </c>
@@ -3883,7 +3936,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="108" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A108" s="7">
         <v>45700</v>
       </c>
@@ -3908,7 +3961,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="109" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A109" s="7">
         <v>45701</v>
       </c>
@@ -3937,7 +3990,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="110" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A110" s="7">
         <v>45701</v>
       </c>
@@ -3962,7 +4015,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="111" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A111" s="7">
         <v>45702</v>
       </c>
@@ -3987,7 +4040,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="112" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A112" s="7">
         <v>45703</v>
       </c>
@@ -4012,7 +4065,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="113" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A113" s="7">
         <v>45703</v>
       </c>
@@ -4037,7 +4090,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="114" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A114" s="7">
         <v>45703</v>
       </c>
@@ -4062,7 +4115,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="115" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A115" s="7">
         <v>45704</v>
       </c>
@@ -4087,7 +4140,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="116" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A116" s="7">
         <v>45704</v>
       </c>
@@ -4112,7 +4165,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="117" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A117" s="7">
         <v>45704</v>
       </c>
@@ -4137,7 +4190,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="118" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A118" s="7">
         <v>45704</v>
       </c>
@@ -4162,7 +4215,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="119" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A119" s="7">
         <v>45704</v>
       </c>
@@ -4187,7 +4240,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="120" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A120" s="7">
         <v>45704</v>
       </c>
@@ -4212,7 +4265,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="121" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A121" s="7">
         <v>45704</v>
       </c>
@@ -4241,7 +4294,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="122" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A122" s="7">
         <v>45705</v>
       </c>
@@ -4266,7 +4319,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="123" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A123" s="7">
         <v>45706</v>
       </c>
@@ -4291,7 +4344,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="124" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A124" s="7">
         <v>45707</v>
       </c>
@@ -4316,7 +4369,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="125" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A125" s="7">
         <v>45707</v>
       </c>
@@ -4345,7 +4398,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="126" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A126" s="7">
         <v>45708</v>
       </c>
@@ -4370,7 +4423,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="127" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A127" s="7">
         <v>45708</v>
       </c>
@@ -4420,7 +4473,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="129" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A129" s="7">
         <v>45709</v>
       </c>
@@ -4445,7 +4498,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="130" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A130" s="7">
         <v>45709</v>
       </c>
@@ -4470,7 +4523,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="131" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A131" s="7">
         <v>45710</v>
       </c>
@@ -4499,7 +4552,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="132" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A132" s="7">
         <v>45710</v>
       </c>
@@ -4524,7 +4577,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="133" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A133" s="7">
         <v>45710</v>
       </c>
@@ -4549,7 +4602,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="134" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A134" s="7">
         <v>45710</v>
       </c>
@@ -4574,7 +4627,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="135" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A135" s="7">
         <v>45710</v>
       </c>
@@ -4624,7 +4677,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="137" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A137" s="7">
         <v>45711</v>
       </c>
@@ -4649,7 +4702,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="138" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A138" s="7">
         <v>45712</v>
       </c>
@@ -4674,7 +4727,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="139" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A139" s="7">
         <v>45712</v>
       </c>
@@ -4699,7 +4752,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="140" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A140" s="7">
         <v>45712</v>
       </c>
@@ -4724,7 +4777,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="141" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A141" s="7">
         <v>45713</v>
       </c>
@@ -4749,7 +4802,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="142" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A142" s="7">
         <v>45713</v>
       </c>
@@ -4774,7 +4827,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="143" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A143" s="7">
         <v>45714</v>
       </c>
@@ -4799,7 +4852,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="144" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A144" s="7">
         <v>45715</v>
       </c>
@@ -4824,7 +4877,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="145" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A145" s="7">
         <v>45715</v>
       </c>
@@ -4849,7 +4902,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="146" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A146" s="7">
         <v>45716</v>
       </c>
@@ -4878,7 +4931,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="147" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A147" s="7">
         <v>45716</v>
       </c>
@@ -4907,7 +4960,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="148" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A148" s="7">
         <v>45716</v>
       </c>
@@ -4936,7 +4989,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="149" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A149" s="7">
         <v>45716</v>
       </c>
@@ -4965,7 +5018,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="150" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A150" s="7">
         <v>45716</v>
       </c>
@@ -4994,7 +5047,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="151" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A151" s="7">
         <v>45716</v>
       </c>
@@ -5023,7 +5076,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="152" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A152" s="7">
         <v>45717</v>
       </c>
@@ -5052,7 +5105,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="153" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A153" s="7">
         <v>45717</v>
       </c>
@@ -5081,7 +5134,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="154" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A154" s="7">
         <v>45717</v>
       </c>
@@ -5110,7 +5163,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="155" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A155" s="7">
         <v>45717</v>
       </c>
@@ -5139,7 +5192,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="156" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A156" s="7">
         <v>45718</v>
       </c>
@@ -5164,7 +5217,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="157" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A157" s="7">
         <v>45718</v>
       </c>
@@ -5189,7 +5242,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="158" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A158" s="7">
         <v>45719</v>
       </c>
@@ -5218,7 +5271,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="159" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A159" s="7">
         <v>45719</v>
       </c>
@@ -5243,7 +5296,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="160" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A160" s="7">
         <v>45720</v>
       </c>
@@ -5272,7 +5325,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="161" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A161" s="7">
         <v>45720</v>
       </c>
@@ -5301,7 +5354,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="162" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A162" s="7">
         <v>45721</v>
       </c>
@@ -5330,7 +5383,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="163" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A163" s="7">
         <v>45721</v>
       </c>
@@ -5355,7 +5408,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="164" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A164" s="7">
         <v>45721</v>
       </c>
@@ -5380,7 +5433,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="165" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A165" s="7">
         <v>45722</v>
       </c>
@@ -5405,7 +5458,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="166" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A166" s="7">
         <v>45722</v>
       </c>
@@ -5430,7 +5483,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="167" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A167" s="7">
         <v>45722</v>
       </c>
@@ -5455,7 +5508,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="168" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A168" s="7">
         <v>45723</v>
       </c>
@@ -5480,7 +5533,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="169" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A169" s="7">
         <v>45723</v>
       </c>
@@ -5505,7 +5558,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="170" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A170" s="7">
         <v>45724</v>
       </c>
@@ -5534,7 +5587,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="171" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A171" s="7">
         <v>45724</v>
       </c>
@@ -5563,7 +5616,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="172" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A172" s="7">
         <v>45724</v>
       </c>
@@ -5592,7 +5645,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="173" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A173" s="7">
         <v>45724</v>
       </c>
@@ -5621,7 +5674,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="174" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A174" s="7">
         <v>45724</v>
       </c>
@@ -5650,7 +5703,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="175" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A175" s="7">
         <v>45724</v>
       </c>
@@ -5679,7 +5732,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="176" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A176" s="7">
         <v>45725</v>
       </c>
@@ -5708,7 +5761,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="177" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A177" s="7">
         <v>45725</v>
       </c>
@@ -5737,7 +5790,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="178" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A178" s="7">
         <v>45725</v>
       </c>
@@ -5766,7 +5819,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="179" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A179" s="7">
         <v>45725</v>
       </c>
@@ -5795,7 +5848,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="180" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A180" s="7">
         <v>45725</v>
       </c>
@@ -5824,7 +5877,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="181" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A181" s="7">
         <v>45725</v>
       </c>
@@ -5853,7 +5906,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="182" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A182" s="7">
         <v>45726</v>
       </c>
@@ -5882,7 +5935,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="183" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A183" s="7">
         <v>45726</v>
       </c>
@@ -5911,7 +5964,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="184" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A184" s="7">
         <v>45726</v>
       </c>
@@ -5940,7 +5993,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="185" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A185" s="7">
         <v>45726</v>
       </c>
@@ -5969,7 +6022,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="186" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A186" s="7">
         <v>45726</v>
       </c>
@@ -5998,7 +6051,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="187" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A187" s="7">
         <v>45727</v>
       </c>
@@ -6027,7 +6080,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="188" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A188" s="7">
         <v>45727</v>
       </c>
@@ -6056,7 +6109,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="189" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A189" s="7">
         <v>45727</v>
       </c>
@@ -6085,7 +6138,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="190" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A190" s="7">
         <v>45727</v>
       </c>
@@ -6114,7 +6167,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="191" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A191" s="7">
         <v>45727</v>
       </c>
@@ -6143,7 +6196,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="192" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A192" s="7">
         <v>45727</v>
       </c>
@@ -6172,7 +6225,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="193" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A193" s="7">
         <v>45727</v>
       </c>
@@ -6201,7 +6254,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="194" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A194" s="7">
         <v>45728</v>
       </c>
@@ -6226,7 +6279,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="195" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A195" s="7">
         <v>45728</v>
       </c>
@@ -6251,7 +6304,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="196" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A196" s="7">
         <v>45729</v>
       </c>
@@ -6280,7 +6333,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="197" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A197" s="7">
         <v>45729</v>
       </c>
@@ -6309,7 +6362,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="198" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A198" s="7">
         <v>45730</v>
       </c>
@@ -6334,7 +6387,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="199" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A199" s="7">
         <v>45730</v>
       </c>
@@ -6359,7 +6412,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="200" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A200" s="7">
         <v>45731</v>
       </c>
@@ -6384,7 +6437,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="201" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A201" s="7">
         <v>45731</v>
       </c>
@@ -6409,7 +6462,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="202" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A202" s="7">
         <v>45732</v>
       </c>
@@ -6434,7 +6487,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="203" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A203" s="7">
         <v>45732</v>
       </c>
@@ -6459,7 +6512,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="204" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A204" s="7">
         <v>45732</v>
       </c>
@@ -6484,7 +6537,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="205" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A205" s="7">
         <v>45732</v>
       </c>
@@ -6509,7 +6562,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="206" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A206" s="7">
         <v>45732</v>
       </c>
@@ -6534,7 +6587,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="207" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A207" s="7">
         <v>45733</v>
       </c>
@@ -6559,7 +6612,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="208" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A208" s="7">
         <v>45735</v>
       </c>
@@ -6584,7 +6637,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="209" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A209" s="7">
         <v>45735</v>
       </c>
@@ -6609,7 +6662,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="210" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A210" s="7">
         <v>45736</v>
       </c>
@@ -6638,7 +6691,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="211" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A211" s="7">
         <v>45736</v>
       </c>
@@ -6667,7 +6720,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="212" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A212" s="7">
         <v>45736</v>
       </c>
@@ -6696,7 +6749,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="213" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A213" s="7">
         <v>45737</v>
       </c>
@@ -6725,7 +6778,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="214" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A214" s="7">
         <v>45737</v>
       </c>
@@ -6754,7 +6807,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="215" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A215" s="7">
         <v>45738</v>
       </c>
@@ -6783,7 +6836,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="216" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A216" s="7">
         <v>45738</v>
       </c>
@@ -6808,7 +6861,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="217" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A217" s="7">
         <v>45739</v>
       </c>
@@ -6833,7 +6886,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="218" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A218" s="7">
         <v>45740</v>
       </c>
@@ -6862,7 +6915,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="219" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A219" s="7">
         <v>45740</v>
       </c>
@@ -6891,7 +6944,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="220" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A220" s="7">
         <v>45741</v>
       </c>
@@ -6916,7 +6969,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="221" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A221" s="7">
         <v>45742</v>
       </c>
@@ -6941,7 +6994,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="222" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A222" s="7">
         <v>45742</v>
       </c>
@@ -6966,7 +7019,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="223" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A223" s="7">
         <v>45743</v>
       </c>
@@ -6991,7 +7044,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="224" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A224" s="7">
         <v>45743</v>
       </c>
@@ -7016,7 +7069,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="225" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A225" s="7">
         <v>45744</v>
       </c>
@@ -7041,7 +7094,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="226" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A226" s="7">
         <v>45746</v>
       </c>
@@ -7066,7 +7119,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="227" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A227" s="7">
         <v>45747</v>
       </c>
@@ -7091,7 +7144,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="228" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A228" s="7">
         <v>45747</v>
       </c>
@@ -7120,7 +7173,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="229" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A229" s="7">
         <v>45747</v>
       </c>
@@ -7145,7 +7198,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="230" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A230" s="7">
         <v>45748</v>
       </c>
@@ -7170,7 +7223,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="231" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A231" s="7">
         <v>45748</v>
       </c>
@@ -7195,7 +7248,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="232" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A232" s="7">
         <v>45748</v>
       </c>
@@ -7220,7 +7273,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="233" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A233" s="7">
         <v>45748</v>
       </c>
@@ -7245,7 +7298,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="234" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A234" s="7">
         <v>45748</v>
       </c>
@@ -7270,7 +7323,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="235" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A235" s="7">
         <v>45749</v>
       </c>
@@ -7295,7 +7348,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="236" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A236" s="7">
         <v>45749</v>
       </c>
@@ -7324,7 +7377,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="237" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A237" s="7">
         <v>45749</v>
       </c>
@@ -7350,466 +7403,1110 @@
       </c>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A238" s="8"/>
-      <c r="B238" s="8"/>
-      <c r="C238" s="8"/>
+      <c r="A238" s="7">
+        <v>45753</v>
+      </c>
+      <c r="B238" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="C238" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="D238" s="8"/>
       <c r="E238" s="8"/>
-      <c r="F238" s="8"/>
-      <c r="G238" s="9"/>
-      <c r="H238" s="8"/>
-      <c r="I238" s="8"/>
+      <c r="F238" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G238" s="9">
+        <v>9</v>
+      </c>
+      <c r="H238" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I238" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A239" s="8"/>
-      <c r="B239" s="8"/>
-      <c r="C239" s="8"/>
+      <c r="A239" s="7">
+        <v>45755</v>
+      </c>
+      <c r="B239" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="C239" s="8" t="s">
+        <v>143</v>
+      </c>
       <c r="D239" s="8"/>
       <c r="E239" s="8"/>
-      <c r="F239" s="8"/>
-      <c r="G239" s="9"/>
-      <c r="H239" s="8"/>
-      <c r="I239" s="8"/>
+      <c r="F239" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="G239" s="9">
+        <v>2</v>
+      </c>
+      <c r="H239" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I239" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A240" s="8"/>
-      <c r="B240" s="8"/>
-      <c r="C240" s="8"/>
+      <c r="A240" s="7">
+        <v>45755</v>
+      </c>
+      <c r="B240" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="C240" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="D240" s="8"/>
       <c r="E240" s="8"/>
-      <c r="F240" s="8"/>
-      <c r="G240" s="9"/>
-      <c r="H240" s="8"/>
-      <c r="I240" s="8"/>
+      <c r="F240" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G240" s="9">
+        <v>25</v>
+      </c>
+      <c r="H240" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I240" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A241" s="8"/>
-      <c r="B241" s="8"/>
-      <c r="C241" s="8"/>
+      <c r="A241" s="7">
+        <v>45757</v>
+      </c>
+      <c r="B241" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="C241" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="D241" s="8"/>
       <c r="E241" s="8"/>
-      <c r="F241" s="8"/>
-      <c r="G241" s="9"/>
-      <c r="H241" s="8"/>
-      <c r="I241" s="8"/>
+      <c r="F241" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="G241" s="9">
+        <v>4.5</v>
+      </c>
+      <c r="H241" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I241" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A242" s="8"/>
-      <c r="B242" s="8"/>
-      <c r="C242" s="8"/>
+      <c r="A242" s="7">
+        <v>45759</v>
+      </c>
+      <c r="B242" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="C242" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="D242" s="8"/>
       <c r="E242" s="8"/>
-      <c r="F242" s="8"/>
-      <c r="G242" s="9"/>
-      <c r="H242" s="8"/>
-      <c r="I242" s="8"/>
+      <c r="F242" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="G242" s="9">
+        <v>25.89</v>
+      </c>
+      <c r="H242" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I242" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A243" s="8"/>
-      <c r="B243" s="8"/>
-      <c r="C243" s="8"/>
+      <c r="A243" s="7">
+        <v>45759</v>
+      </c>
+      <c r="B243" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="C243" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="D243" s="8"/>
       <c r="E243" s="8"/>
-      <c r="F243" s="8"/>
-      <c r="G243" s="9"/>
-      <c r="H243" s="8"/>
-      <c r="I243" s="8"/>
+      <c r="F243" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="G243" s="9">
+        <v>11.4</v>
+      </c>
+      <c r="H243" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I243" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A244" s="8"/>
-      <c r="B244" s="8"/>
-      <c r="C244" s="8"/>
+      <c r="A244" s="7">
+        <v>45759</v>
+      </c>
+      <c r="B244" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="C244" s="8" t="s">
+        <v>39</v>
+      </c>
       <c r="D244" s="8"/>
       <c r="E244" s="8"/>
-      <c r="F244" s="8"/>
-      <c r="G244" s="9"/>
-      <c r="H244" s="8"/>
-      <c r="I244" s="8"/>
+      <c r="F244" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G244" s="9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H244" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I244" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A245" s="8"/>
-      <c r="B245" s="8"/>
-      <c r="C245" s="8"/>
-      <c r="D245" s="8"/>
-      <c r="E245" s="8"/>
-      <c r="F245" s="8"/>
-      <c r="G245" s="9"/>
-      <c r="H245" s="8"/>
-      <c r="I245" s="8"/>
+      <c r="A245" s="7">
+        <v>45761</v>
+      </c>
+      <c r="B245" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="C245" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D245" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E245" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="F245" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="G245" s="9">
+        <v>111.74</v>
+      </c>
+      <c r="H245" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I245" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A246" s="8"/>
-      <c r="B246" s="8"/>
-      <c r="C246" s="8"/>
+      <c r="A246" s="7">
+        <v>45761</v>
+      </c>
+      <c r="B246" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="C246" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="D246" s="8"/>
       <c r="E246" s="8"/>
-      <c r="F246" s="8"/>
-      <c r="G246" s="9"/>
-      <c r="H246" s="8"/>
-      <c r="I246" s="8"/>
+      <c r="F246" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="G246" s="9">
+        <v>7.96</v>
+      </c>
+      <c r="H246" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I246" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A247" s="8"/>
-      <c r="B247" s="8"/>
-      <c r="C247" s="8"/>
+      <c r="A247" s="7">
+        <v>45762</v>
+      </c>
+      <c r="B247" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="C247" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="D247" s="8"/>
       <c r="E247" s="8"/>
-      <c r="F247" s="8"/>
-      <c r="G247" s="9"/>
-      <c r="H247" s="8"/>
-      <c r="I247" s="8"/>
+      <c r="F247" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="G247" s="9">
+        <v>27.24</v>
+      </c>
+      <c r="H247" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I247" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A248" s="8"/>
-      <c r="B248" s="8"/>
-      <c r="C248" s="8"/>
+      <c r="A248" s="7">
+        <v>45763</v>
+      </c>
+      <c r="B248" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="C248" s="8" t="s">
+        <v>39</v>
+      </c>
       <c r="D248" s="8"/>
       <c r="E248" s="8"/>
-      <c r="F248" s="8"/>
-      <c r="G248" s="9"/>
-      <c r="H248" s="8"/>
-      <c r="I248" s="8"/>
+      <c r="F248" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="G248" s="9">
+        <v>3.55</v>
+      </c>
+      <c r="H248" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I248" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A249" s="8"/>
-      <c r="B249" s="8"/>
-      <c r="C249" s="8"/>
+      <c r="A249" s="7">
+        <v>45763</v>
+      </c>
+      <c r="B249" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="C249" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="D249" s="8"/>
       <c r="E249" s="8"/>
-      <c r="F249" s="8"/>
-      <c r="G249" s="9"/>
-      <c r="H249" s="8"/>
-      <c r="I249" s="8"/>
+      <c r="F249" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="G249" s="9">
+        <v>13</v>
+      </c>
+      <c r="H249" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I249" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A250" s="8"/>
-      <c r="B250" s="8"/>
-      <c r="C250" s="8"/>
+      <c r="A250" s="7">
+        <v>45763</v>
+      </c>
+      <c r="B250" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="C250" s="8" t="s">
+        <v>87</v>
+      </c>
       <c r="D250" s="8"/>
       <c r="E250" s="8"/>
-      <c r="F250" s="8"/>
-      <c r="G250" s="9"/>
-      <c r="H250" s="8"/>
-      <c r="I250" s="8"/>
+      <c r="F250" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="G250" s="9">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="H250" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I250" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A251" s="8"/>
-      <c r="B251" s="8"/>
-      <c r="C251" s="8"/>
+      <c r="A251" s="7">
+        <v>45764</v>
+      </c>
+      <c r="B251" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="C251" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="D251" s="8"/>
       <c r="E251" s="8"/>
-      <c r="F251" s="8"/>
-      <c r="G251" s="9"/>
-      <c r="H251" s="8"/>
-      <c r="I251" s="8"/>
+      <c r="F251" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="G251" s="9">
+        <v>12.2</v>
+      </c>
+      <c r="H251" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I251" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A252" s="8"/>
-      <c r="B252" s="8"/>
-      <c r="C252" s="8"/>
+      <c r="A252" s="7">
+        <v>45765</v>
+      </c>
+      <c r="B252" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="C252" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="D252" s="8"/>
       <c r="E252" s="8"/>
-      <c r="F252" s="8"/>
-      <c r="G252" s="9"/>
-      <c r="H252" s="8"/>
-      <c r="I252" s="8"/>
+      <c r="F252" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G252" s="9">
+        <v>9</v>
+      </c>
+      <c r="H252" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I252" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A253" s="8"/>
-      <c r="B253" s="8"/>
-      <c r="C253" s="8"/>
+      <c r="A253" s="7">
+        <v>45765</v>
+      </c>
+      <c r="B253" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="C253" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="D253" s="8"/>
       <c r="E253" s="8"/>
-      <c r="F253" s="8"/>
-      <c r="G253" s="9"/>
-      <c r="H253" s="8"/>
-      <c r="I253" s="8"/>
+      <c r="F253" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="G253" s="9">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="H253" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I253" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A254" s="8"/>
-      <c r="B254" s="8"/>
-      <c r="C254" s="8"/>
+      <c r="A254" s="7">
+        <v>45766</v>
+      </c>
+      <c r="B254" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="C254" s="8" t="s">
+        <v>39</v>
+      </c>
       <c r="D254" s="8"/>
       <c r="E254" s="8"/>
-      <c r="F254" s="8"/>
-      <c r="G254" s="9"/>
-      <c r="H254" s="8"/>
-      <c r="I254" s="8"/>
+      <c r="F254" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G254" s="9">
+        <v>4.7</v>
+      </c>
+      <c r="H254" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I254" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A255" s="8"/>
-      <c r="B255" s="8"/>
-      <c r="C255" s="8"/>
+      <c r="A255" s="7">
+        <v>45766</v>
+      </c>
+      <c r="B255" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="C255" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="D255" s="8"/>
       <c r="E255" s="8"/>
-      <c r="F255" s="8"/>
-      <c r="G255" s="9"/>
-      <c r="H255" s="8"/>
-      <c r="I255" s="8"/>
+      <c r="F255" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="G255" s="9">
+        <v>12</v>
+      </c>
+      <c r="H255" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I255" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A256" s="8"/>
-      <c r="B256" s="8"/>
-      <c r="C256" s="8"/>
+      <c r="A256" s="7">
+        <v>45766</v>
+      </c>
+      <c r="B256" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="C256" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="D256" s="8"/>
       <c r="E256" s="8"/>
-      <c r="F256" s="8"/>
-      <c r="G256" s="9"/>
-      <c r="H256" s="8"/>
-      <c r="I256" s="8"/>
+      <c r="F256" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="G256" s="9">
+        <v>6.99</v>
+      </c>
+      <c r="H256" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I256" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A257" s="8"/>
-      <c r="B257" s="8"/>
-      <c r="C257" s="8"/>
+      <c r="A257" s="7">
+        <v>45766</v>
+      </c>
+      <c r="B257" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="C257" s="8" t="s">
+        <v>39</v>
+      </c>
       <c r="D257" s="8"/>
       <c r="E257" s="8"/>
-      <c r="F257" s="8"/>
-      <c r="G257" s="9"/>
-      <c r="H257" s="8"/>
-      <c r="I257" s="8"/>
+      <c r="F257" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G257" s="9">
+        <v>6.95</v>
+      </c>
+      <c r="H257" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I257" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A258" s="8"/>
-      <c r="B258" s="8"/>
-      <c r="C258" s="8"/>
+      <c r="A258" s="7">
+        <v>45766</v>
+      </c>
+      <c r="B258" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="C258" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="D258" s="8"/>
       <c r="E258" s="8"/>
-      <c r="F258" s="8"/>
-      <c r="G258" s="9"/>
-      <c r="H258" s="8"/>
-      <c r="I258" s="8"/>
+      <c r="F258" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G258" s="9">
+        <v>3.9</v>
+      </c>
+      <c r="H258" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I258" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A259" s="8"/>
-      <c r="B259" s="8"/>
-      <c r="C259" s="8"/>
+      <c r="A259" s="7">
+        <v>45766</v>
+      </c>
+      <c r="B259" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="C259" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="D259" s="8"/>
       <c r="E259" s="8"/>
-      <c r="F259" s="8"/>
-      <c r="G259" s="9"/>
-      <c r="H259" s="8"/>
-      <c r="I259" s="8"/>
+      <c r="F259" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="G259" s="9">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="H259" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I259" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A260" s="8"/>
-      <c r="B260" s="8"/>
-      <c r="C260" s="8"/>
+      <c r="A260" s="7">
+        <v>45767</v>
+      </c>
+      <c r="B260" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="C260" s="8" t="s">
+        <v>39</v>
+      </c>
       <c r="D260" s="8"/>
       <c r="E260" s="8"/>
-      <c r="F260" s="8"/>
-      <c r="G260" s="9"/>
-      <c r="H260" s="8"/>
-      <c r="I260" s="8"/>
+      <c r="F260" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G260" s="9">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="H260" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I260" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A261" s="8"/>
-      <c r="B261" s="8"/>
-      <c r="C261" s="8"/>
+      <c r="A261" s="7">
+        <v>45767</v>
+      </c>
+      <c r="B261" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="C261" s="8" t="s">
+        <v>17</v>
+      </c>
       <c r="D261" s="8"/>
       <c r="E261" s="8"/>
-      <c r="F261" s="8"/>
-      <c r="G261" s="9"/>
-      <c r="H261" s="8"/>
-      <c r="I261" s="8"/>
+      <c r="F261" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="G261" s="9">
+        <v>20</v>
+      </c>
+      <c r="H261" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I261" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A262" s="8"/>
-      <c r="B262" s="8"/>
-      <c r="C262" s="8"/>
-      <c r="D262" s="8"/>
-      <c r="E262" s="8"/>
-      <c r="F262" s="8"/>
-      <c r="G262" s="9"/>
-      <c r="H262" s="8"/>
-      <c r="I262" s="8"/>
+      <c r="A262" s="7">
+        <v>45767</v>
+      </c>
+      <c r="B262" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="C262" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D262" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="E262" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="F262" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="G262" s="9">
+        <v>16</v>
+      </c>
+      <c r="H262" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I262" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A263" s="8"/>
-      <c r="B263" s="8"/>
-      <c r="C263" s="8"/>
-      <c r="D263" s="8"/>
-      <c r="E263" s="8"/>
-      <c r="F263" s="8"/>
-      <c r="G263" s="9"/>
-      <c r="H263" s="8"/>
-      <c r="I263" s="8"/>
+      <c r="A263" s="7">
+        <v>45767</v>
+      </c>
+      <c r="B263" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="C263" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D263" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E263" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="F263" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="G263" s="9">
+        <v>15.5</v>
+      </c>
+      <c r="H263" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I263" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A264" s="8"/>
-      <c r="B264" s="8"/>
-      <c r="C264" s="8"/>
-      <c r="D264" s="8"/>
-      <c r="E264" s="8"/>
-      <c r="F264" s="8"/>
-      <c r="G264" s="9"/>
-      <c r="H264" s="8"/>
-      <c r="I264" s="8"/>
+      <c r="A264" s="7">
+        <v>45767</v>
+      </c>
+      <c r="B264" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="C264" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D264" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E264" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="F264" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="G264" s="9">
+        <v>2.97</v>
+      </c>
+      <c r="H264" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I264" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A265" s="8"/>
-      <c r="B265" s="8"/>
-      <c r="C265" s="8"/>
-      <c r="D265" s="8"/>
-      <c r="E265" s="8"/>
-      <c r="F265" s="8"/>
-      <c r="G265" s="9"/>
-      <c r="H265" s="8"/>
-      <c r="I265" s="8"/>
+      <c r="A265" s="7">
+        <v>45767</v>
+      </c>
+      <c r="B265" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="C265" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D265" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E265" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="F265" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="G265" s="9">
+        <v>14</v>
+      </c>
+      <c r="H265" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I265" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A266" s="8"/>
-      <c r="B266" s="8"/>
-      <c r="C266" s="8"/>
-      <c r="D266" s="8"/>
-      <c r="E266" s="8"/>
-      <c r="F266" s="8"/>
-      <c r="G266" s="9"/>
-      <c r="H266" s="8"/>
-      <c r="I266" s="8"/>
+      <c r="A266" s="7">
+        <v>45768</v>
+      </c>
+      <c r="B266" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="C266" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D266" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="E266" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="F266" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="G266" s="9">
+        <v>7.6</v>
+      </c>
+      <c r="H266" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I266" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A267" s="8"/>
-      <c r="B267" s="8"/>
-      <c r="C267" s="8"/>
-      <c r="D267" s="8"/>
-      <c r="E267" s="8"/>
-      <c r="F267" s="8"/>
-      <c r="G267" s="9"/>
-      <c r="H267" s="8"/>
-      <c r="I267" s="8"/>
+      <c r="A267" s="7">
+        <v>45768</v>
+      </c>
+      <c r="B267" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="C267" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D267" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E267" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="F267" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="G267" s="9">
+        <v>24.5</v>
+      </c>
+      <c r="H267" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I267" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A268" s="8"/>
-      <c r="B268" s="8"/>
-      <c r="C268" s="8"/>
-      <c r="D268" s="8"/>
-      <c r="E268" s="8"/>
-      <c r="F268" s="8"/>
-      <c r="G268" s="9"/>
-      <c r="H268" s="8"/>
-      <c r="I268" s="8"/>
+      <c r="A268" s="7">
+        <v>45768</v>
+      </c>
+      <c r="B268" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="C268" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D268" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E268" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="F268" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="G268" s="9">
+        <v>16</v>
+      </c>
+      <c r="H268" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I268" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A269" s="8"/>
-      <c r="B269" s="8"/>
-      <c r="C269" s="8"/>
-      <c r="D269" s="8"/>
-      <c r="E269" s="8"/>
-      <c r="F269" s="8"/>
-      <c r="G269" s="9"/>
-      <c r="H269" s="8"/>
-      <c r="I269" s="8"/>
+      <c r="A269" s="7">
+        <v>45768</v>
+      </c>
+      <c r="B269" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="C269" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D269" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E269" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="F269" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="G269" s="9">
+        <v>16</v>
+      </c>
+      <c r="H269" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I269" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A270" s="8"/>
-      <c r="B270" s="8"/>
-      <c r="C270" s="8"/>
-      <c r="D270" s="8"/>
-      <c r="E270" s="8"/>
-      <c r="F270" s="8"/>
-      <c r="G270" s="9"/>
-      <c r="H270" s="8"/>
-      <c r="I270" s="8"/>
+      <c r="A270" s="7">
+        <v>45769</v>
+      </c>
+      <c r="B270" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="C270" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D270" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E270" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="F270" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="G270" s="9">
+        <v>11</v>
+      </c>
+      <c r="H270" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I270" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A271" s="8"/>
-      <c r="B271" s="8"/>
-      <c r="C271" s="8"/>
-      <c r="D271" s="8"/>
-      <c r="E271" s="8"/>
-      <c r="F271" s="8"/>
-      <c r="G271" s="9"/>
-      <c r="H271" s="8"/>
-      <c r="I271" s="8"/>
+      <c r="A271" s="7">
+        <v>45769</v>
+      </c>
+      <c r="B271" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="C271" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D271" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E271" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="F271" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="G271" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="H271" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I271" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A272" s="8"/>
-      <c r="B272" s="8"/>
-      <c r="C272" s="8"/>
-      <c r="D272" s="8"/>
-      <c r="E272" s="8"/>
-      <c r="F272" s="8"/>
-      <c r="G272" s="9"/>
-      <c r="H272" s="8"/>
-      <c r="I272" s="8"/>
+      <c r="A272" s="7">
+        <v>45770</v>
+      </c>
+      <c r="B272" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="C272" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D272" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E272" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="F272" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="G272" s="9">
+        <v>1</v>
+      </c>
+      <c r="H272" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I272" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A273" s="8"/>
-      <c r="B273" s="8"/>
-      <c r="C273" s="8"/>
-      <c r="D273" s="8"/>
-      <c r="E273" s="8"/>
-      <c r="F273" s="8"/>
-      <c r="G273" s="9"/>
-      <c r="H273" s="8"/>
-      <c r="I273" s="8"/>
+      <c r="A273" s="7">
+        <v>45773</v>
+      </c>
+      <c r="B273" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="C273" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D273" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="E273" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="F273" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="G273" s="9">
+        <v>20.6</v>
+      </c>
+      <c r="H273" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I273" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A274" s="8"/>
-      <c r="B274" s="8"/>
-      <c r="C274" s="8"/>
+      <c r="A274" s="7">
+        <v>45774</v>
+      </c>
+      <c r="B274" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="C274" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="D274" s="8"/>
       <c r="E274" s="8"/>
-      <c r="F274" s="8"/>
-      <c r="G274" s="9"/>
-      <c r="H274" s="8"/>
-      <c r="I274" s="8"/>
+      <c r="F274" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="G274" s="9">
+        <v>8</v>
+      </c>
+      <c r="H274" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I274" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A275" s="8"/>
-      <c r="B275" s="8"/>
-      <c r="C275" s="8"/>
+      <c r="A275" s="7">
+        <v>45775</v>
+      </c>
+      <c r="B275" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="C275" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="D275" s="8"/>
       <c r="E275" s="8"/>
-      <c r="F275" s="8"/>
-      <c r="G275" s="9"/>
-      <c r="H275" s="8"/>
-      <c r="I275" s="8"/>
+      <c r="F275" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="G275" s="9">
+        <v>11</v>
+      </c>
+      <c r="H275" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I275" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A276" s="8"/>
-      <c r="B276" s="8"/>
-      <c r="C276" s="8"/>
+      <c r="A276" s="7">
+        <v>45776</v>
+      </c>
+      <c r="B276" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="C276" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="D276" s="8"/>
       <c r="E276" s="8"/>
-      <c r="F276" s="8"/>
-      <c r="G276" s="9"/>
-      <c r="H276" s="8"/>
-      <c r="I276" s="8"/>
+      <c r="F276" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="G276" s="9">
+        <v>14.5</v>
+      </c>
+      <c r="H276" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I276" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A277" s="8"/>
-      <c r="B277" s="8"/>
-      <c r="C277" s="8"/>
+      <c r="A277" s="7">
+        <v>45776</v>
+      </c>
+      <c r="B277" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="C277" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="D277" s="8"/>
       <c r="E277" s="8"/>
-      <c r="F277" s="8"/>
-      <c r="G277" s="9"/>
-      <c r="H277" s="8"/>
-      <c r="I277" s="8"/>
+      <c r="F277" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="G277" s="9">
+        <v>25.83</v>
+      </c>
+      <c r="H277" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I277" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A278" s="8"/>
-      <c r="B278" s="8"/>
-      <c r="C278" s="8"/>
+      <c r="A278" s="7">
+        <v>45776</v>
+      </c>
+      <c r="B278" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="C278" s="8" t="s">
+        <v>87</v>
+      </c>
       <c r="D278" s="8"/>
       <c r="E278" s="8"/>
-      <c r="F278" s="8"/>
-      <c r="G278" s="9"/>
-      <c r="H278" s="8"/>
-      <c r="I278" s="8"/>
+      <c r="F278" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="G278" s="9">
+        <v>4</v>
+      </c>
+      <c r="H278" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I278" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A279" s="8"/>
-      <c r="B279" s="8"/>
-      <c r="C279" s="8"/>
-      <c r="D279" s="8"/>
-      <c r="E279" s="8"/>
-      <c r="F279" s="8"/>
-      <c r="G279" s="9"/>
-      <c r="H279" s="8"/>
-      <c r="I279" s="8"/>
+      <c r="A279" s="7">
+        <v>45777</v>
+      </c>
+      <c r="B279" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="C279" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D279" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E279" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="F279" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="G279" s="9">
+        <v>113.99</v>
+      </c>
+      <c r="H279" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I279" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A280" s="8"/>
@@ -11838,13 +12535,7 @@
       <c r="I645" s="8"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I237" xr:uid="{73D03841-840F-48EF-840B-36FDA2E59E7D}">
-    <filterColumn colId="8">
-      <filters>
-        <filter val="CC"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:I237" xr:uid="{73D03841-840F-48EF-840B-36FDA2E59E7D}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I175">
     <sortCondition ref="A109:A175"/>
   </sortState>

--- a/assets/cost_sheet.xlsx
+++ b/assets/cost_sheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/56C9449150E6BC49/Documentos/FEARP/Intercambio/spendure_app/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1858" documentId="8_{697955BF-7644-43E6-B102-A5718628249A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2CC9C139-CFAC-45B0-8BCF-90089197AECD}"/>
+  <xr:revisionPtr revIDLastSave="2032" documentId="8_{697955BF-7644-43E6-B102-A5718628249A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E4122D7B-DD75-4AC8-99FD-E2258C2F1B09}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{3A902579-E7D0-4425-859E-D7B710BECD9D}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1612" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1747" uniqueCount="235">
   <si>
     <t>Data</t>
   </si>
@@ -718,6 +718,33 @@
   </si>
   <si>
     <t>Mercado + Carro + Gasolina</t>
+  </si>
+  <si>
+    <t>Frozen Yogurt</t>
+  </si>
+  <si>
+    <t>Café Corgi</t>
+  </si>
+  <si>
+    <t>Lidl</t>
+  </si>
+  <si>
+    <t>Arcade</t>
+  </si>
+  <si>
+    <t>Festa Safari</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Churros  </t>
+  </si>
+  <si>
+    <t>Festa Safari Drink</t>
+  </si>
+  <si>
+    <t>Festa Fervo Fluxo</t>
+  </si>
+  <si>
+    <t>Costureira</t>
   </si>
 </sst>
 </file>
@@ -1165,8 +1192,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73D03841-840F-48EF-840B-36FDA2E59E7D}">
   <dimension ref="A1:I645"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A268" workbookViewId="0">
-      <selection activeCell="I272" sqref="I272"/>
+    <sheetView tabSelected="1" topLeftCell="A294" workbookViewId="0">
+      <selection activeCell="J305" sqref="J305"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8509,294 +8536,660 @@
       </c>
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A280" s="8"/>
-      <c r="B280" s="8"/>
-      <c r="C280" s="8"/>
+      <c r="A280" s="7">
+        <v>45778</v>
+      </c>
+      <c r="B280" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C280" s="8" t="s">
+        <v>143</v>
+      </c>
       <c r="D280" s="8"/>
       <c r="E280" s="8"/>
-      <c r="F280" s="8"/>
-      <c r="G280" s="9"/>
-      <c r="H280" s="8"/>
-      <c r="I280" s="8"/>
+      <c r="F280" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="G280" s="9">
+        <v>34.520000000000003</v>
+      </c>
+      <c r="H280" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I280" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A281" s="8"/>
-      <c r="B281" s="8"/>
-      <c r="C281" s="8"/>
+      <c r="A281" s="7">
+        <v>45778</v>
+      </c>
+      <c r="B281" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C281" s="8" t="s">
+        <v>39</v>
+      </c>
       <c r="D281" s="8"/>
       <c r="E281" s="8"/>
-      <c r="F281" s="8"/>
-      <c r="G281" s="9"/>
-      <c r="H281" s="8"/>
-      <c r="I281" s="8"/>
+      <c r="F281" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="G281" s="9">
+        <v>5.95</v>
+      </c>
+      <c r="H281" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I281" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A282" s="8"/>
-      <c r="B282" s="8"/>
-      <c r="C282" s="8"/>
+      <c r="A282" s="7">
+        <v>45778</v>
+      </c>
+      <c r="B282" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C282" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="D282" s="8"/>
       <c r="E282" s="8"/>
-      <c r="F282" s="8"/>
-      <c r="G282" s="9"/>
-      <c r="H282" s="8"/>
-      <c r="I282" s="8"/>
+      <c r="F282" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="G282" s="9">
+        <v>23.4</v>
+      </c>
+      <c r="H282" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I282" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A283" s="8"/>
-      <c r="B283" s="8"/>
-      <c r="C283" s="8"/>
+      <c r="A283" s="7">
+        <v>45779</v>
+      </c>
+      <c r="B283" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C283" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="D283" s="8"/>
       <c r="E283" s="8"/>
-      <c r="F283" s="8"/>
-      <c r="G283" s="9"/>
-      <c r="H283" s="8"/>
-      <c r="I283" s="8"/>
+      <c r="F283" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G283" s="9">
+        <v>16.739999999999998</v>
+      </c>
+      <c r="H283" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I283" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A284" s="8"/>
-      <c r="B284" s="8"/>
-      <c r="C284" s="8"/>
+      <c r="A284" s="7">
+        <v>45780</v>
+      </c>
+      <c r="B284" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C284" s="8" t="s">
+        <v>39</v>
+      </c>
       <c r="D284" s="8"/>
       <c r="E284" s="8"/>
-      <c r="F284" s="8"/>
-      <c r="G284" s="9"/>
-      <c r="H284" s="8"/>
-      <c r="I284" s="8"/>
+      <c r="F284" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="G284" s="9">
+        <v>8.35</v>
+      </c>
+      <c r="H284" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I284" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A285" s="8"/>
-      <c r="B285" s="8"/>
-      <c r="C285" s="8"/>
+      <c r="A285" s="7">
+        <v>45780</v>
+      </c>
+      <c r="B285" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C285" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="D285" s="8"/>
       <c r="E285" s="8"/>
-      <c r="F285" s="8"/>
-      <c r="G285" s="9"/>
-      <c r="H285" s="8"/>
-      <c r="I285" s="8"/>
+      <c r="F285" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="G285" s="9">
+        <v>10.25</v>
+      </c>
+      <c r="H285" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I285" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A286" s="8"/>
-      <c r="B286" s="8"/>
-      <c r="C286" s="8"/>
+      <c r="A286" s="7">
+        <v>45782</v>
+      </c>
+      <c r="B286" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C286" s="8" t="s">
+        <v>39</v>
+      </c>
       <c r="D286" s="8"/>
       <c r="E286" s="8"/>
-      <c r="F286" s="8"/>
-      <c r="G286" s="9"/>
-      <c r="H286" s="8"/>
-      <c r="I286" s="8"/>
+      <c r="F286" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G286" s="9">
+        <v>3.65</v>
+      </c>
+      <c r="H286" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I286" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A287" s="8"/>
-      <c r="B287" s="8"/>
-      <c r="C287" s="8"/>
+      <c r="A287" s="7">
+        <v>45783</v>
+      </c>
+      <c r="B287" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C287" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="D287" s="8"/>
       <c r="E287" s="8"/>
-      <c r="F287" s="8"/>
-      <c r="G287" s="9"/>
-      <c r="H287" s="8"/>
-      <c r="I287" s="8"/>
+      <c r="F287" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G287" s="9">
+        <v>9.4</v>
+      </c>
+      <c r="H287" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I287" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A288" s="8"/>
-      <c r="B288" s="8"/>
-      <c r="C288" s="8"/>
+      <c r="A288" s="7">
+        <v>45783</v>
+      </c>
+      <c r="B288" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C288" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="D288" s="8"/>
       <c r="E288" s="8"/>
-      <c r="F288" s="8"/>
-      <c r="G288" s="9"/>
-      <c r="H288" s="8"/>
-      <c r="I288" s="8"/>
+      <c r="F288" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G288" s="9">
+        <v>3.95</v>
+      </c>
+      <c r="H288" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I288" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="289" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A289" s="8"/>
-      <c r="B289" s="8"/>
-      <c r="C289" s="8"/>
+      <c r="A289" s="7">
+        <v>45784</v>
+      </c>
+      <c r="B289" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C289" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="D289" s="8"/>
       <c r="E289" s="8"/>
-      <c r="F289" s="8"/>
-      <c r="G289" s="9"/>
-      <c r="H289" s="8"/>
-      <c r="I289" s="8"/>
+      <c r="F289" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G289" s="9">
+        <v>11.71</v>
+      </c>
+      <c r="H289" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I289" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="290" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A290" s="8"/>
-      <c r="B290" s="8"/>
-      <c r="C290" s="8"/>
+      <c r="A290" s="7">
+        <v>45784</v>
+      </c>
+      <c r="B290" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C290" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="D290" s="8"/>
       <c r="E290" s="8"/>
-      <c r="F290" s="8"/>
-      <c r="G290" s="9"/>
-      <c r="H290" s="8"/>
-      <c r="I290" s="8"/>
+      <c r="F290" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G290" s="9">
+        <v>6.5</v>
+      </c>
+      <c r="H290" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I290" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="291" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A291" s="8"/>
-      <c r="B291" s="8"/>
-      <c r="C291" s="8"/>
+      <c r="A291" s="7">
+        <v>45785</v>
+      </c>
+      <c r="B291" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C291" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="D291" s="8"/>
       <c r="E291" s="8"/>
-      <c r="F291" s="8"/>
-      <c r="G291" s="9"/>
-      <c r="H291" s="8"/>
-      <c r="I291" s="8"/>
+      <c r="F291" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="G291" s="9">
+        <v>5.27</v>
+      </c>
+      <c r="H291" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I291" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="292" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A292" s="8"/>
-      <c r="B292" s="8"/>
-      <c r="C292" s="8"/>
+      <c r="A292" s="7">
+        <v>45785</v>
+      </c>
+      <c r="B292" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C292" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="D292" s="8"/>
       <c r="E292" s="8"/>
-      <c r="F292" s="8"/>
-      <c r="G292" s="9"/>
-      <c r="H292" s="8"/>
-      <c r="I292" s="8"/>
+      <c r="F292" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="G292" s="9">
+        <v>22</v>
+      </c>
+      <c r="H292" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I292" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="293" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A293" s="8"/>
-      <c r="B293" s="8"/>
-      <c r="C293" s="8"/>
+      <c r="A293" s="7">
+        <v>45786</v>
+      </c>
+      <c r="B293" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C293" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="D293" s="8"/>
       <c r="E293" s="8"/>
-      <c r="F293" s="8"/>
-      <c r="G293" s="9"/>
-      <c r="H293" s="8"/>
-      <c r="I293" s="8"/>
+      <c r="F293" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="G293" s="9">
+        <v>7</v>
+      </c>
+      <c r="H293" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I293" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="294" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A294" s="8"/>
-      <c r="B294" s="8"/>
-      <c r="C294" s="8"/>
+      <c r="A294" s="7">
+        <v>45786</v>
+      </c>
+      <c r="B294" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C294" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="D294" s="8"/>
       <c r="E294" s="8"/>
-      <c r="F294" s="8"/>
-      <c r="G294" s="9"/>
-      <c r="H294" s="8"/>
-      <c r="I294" s="8"/>
+      <c r="F294" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="G294" s="9">
+        <v>15.53</v>
+      </c>
+      <c r="H294" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I294" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="295" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A295" s="8"/>
-      <c r="B295" s="8"/>
-      <c r="C295" s="8"/>
+      <c r="A295" s="7">
+        <v>45787</v>
+      </c>
+      <c r="B295" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C295" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="D295" s="8"/>
       <c r="E295" s="8"/>
-      <c r="F295" s="8"/>
-      <c r="G295" s="9"/>
-      <c r="H295" s="8"/>
-      <c r="I295" s="8"/>
+      <c r="F295" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="G295" s="9">
+        <v>17.3</v>
+      </c>
+      <c r="H295" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I295" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="296" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A296" s="8"/>
-      <c r="B296" s="8"/>
-      <c r="C296" s="8"/>
+      <c r="A296" s="7">
+        <v>45787</v>
+      </c>
+      <c r="B296" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C296" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="D296" s="8"/>
       <c r="E296" s="8"/>
-      <c r="F296" s="8"/>
-      <c r="G296" s="9"/>
-      <c r="H296" s="8"/>
-      <c r="I296" s="8"/>
+      <c r="F296" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="G296" s="9">
+        <v>4.8</v>
+      </c>
+      <c r="H296" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I296" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="297" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A297" s="8"/>
-      <c r="B297" s="8"/>
-      <c r="C297" s="8"/>
+      <c r="A297" s="7">
+        <v>45787</v>
+      </c>
+      <c r="B297" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C297" s="8" t="s">
+        <v>39</v>
+      </c>
       <c r="D297" s="8"/>
       <c r="E297" s="8"/>
-      <c r="F297" s="8"/>
-      <c r="G297" s="9"/>
-      <c r="H297" s="8"/>
-      <c r="I297" s="8"/>
+      <c r="F297" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="G297" s="9">
+        <v>2.95</v>
+      </c>
+      <c r="H297" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I297" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="298" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A298" s="8"/>
-      <c r="B298" s="8"/>
-      <c r="C298" s="8"/>
+      <c r="A298" s="7">
+        <v>45787</v>
+      </c>
+      <c r="B298" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C298" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="D298" s="8"/>
       <c r="E298" s="8"/>
-      <c r="F298" s="8"/>
-      <c r="G298" s="9"/>
-      <c r="H298" s="8"/>
-      <c r="I298" s="8"/>
+      <c r="F298" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="G298" s="9">
+        <v>11</v>
+      </c>
+      <c r="H298" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I298" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="299" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A299" s="8"/>
-      <c r="B299" s="8"/>
-      <c r="C299" s="8"/>
+      <c r="A299" s="7">
+        <v>45788</v>
+      </c>
+      <c r="B299" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C299" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="D299" s="8"/>
       <c r="E299" s="8"/>
-      <c r="F299" s="8"/>
-      <c r="G299" s="9"/>
-      <c r="H299" s="8"/>
-      <c r="I299" s="8"/>
+      <c r="F299" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="G299" s="9">
+        <v>11</v>
+      </c>
+      <c r="H299" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I299" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="300" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A300" s="8"/>
-      <c r="B300" s="8"/>
-      <c r="C300" s="8"/>
+      <c r="A300" s="7">
+        <v>45789</v>
+      </c>
+      <c r="B300" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C300" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="D300" s="8"/>
       <c r="E300" s="8"/>
-      <c r="F300" s="8"/>
-      <c r="G300" s="9"/>
-      <c r="H300" s="8"/>
-      <c r="I300" s="8"/>
+      <c r="F300" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="G300" s="9">
+        <v>2.68</v>
+      </c>
+      <c r="H300" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I300" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="301" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A301" s="8"/>
-      <c r="B301" s="8"/>
-      <c r="C301" s="8"/>
+      <c r="A301" s="7">
+        <v>45789</v>
+      </c>
+      <c r="B301" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C301" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="D301" s="8"/>
       <c r="E301" s="8"/>
-      <c r="F301" s="8"/>
-      <c r="G301" s="9"/>
-      <c r="H301" s="8"/>
-      <c r="I301" s="8"/>
+      <c r="F301" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="G301" s="9">
+        <v>4.5</v>
+      </c>
+      <c r="H301" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I301" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="302" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A302" s="8"/>
-      <c r="B302" s="8"/>
-      <c r="C302" s="8"/>
+      <c r="A302" s="7">
+        <v>45789</v>
+      </c>
+      <c r="B302" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C302" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="D302" s="8"/>
       <c r="E302" s="8"/>
-      <c r="F302" s="8"/>
-      <c r="G302" s="9"/>
-      <c r="H302" s="8"/>
-      <c r="I302" s="8"/>
+      <c r="F302" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="G302" s="9">
+        <v>6</v>
+      </c>
+      <c r="H302" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I302" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="303" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A303" s="8"/>
-      <c r="B303" s="8"/>
-      <c r="C303" s="8"/>
+      <c r="A303" s="7">
+        <v>45791</v>
+      </c>
+      <c r="B303" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C303" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="D303" s="8"/>
       <c r="E303" s="8"/>
-      <c r="F303" s="8"/>
-      <c r="G303" s="9"/>
-      <c r="H303" s="8"/>
-      <c r="I303" s="8"/>
+      <c r="F303" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="G303" s="9">
+        <v>16.5</v>
+      </c>
+      <c r="H303" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I303" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="304" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A304" s="8"/>
-      <c r="B304" s="8"/>
-      <c r="C304" s="8"/>
+      <c r="A304" s="7">
+        <v>45791</v>
+      </c>
+      <c r="B304" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C304" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="D304" s="8"/>
       <c r="E304" s="8"/>
-      <c r="F304" s="8"/>
-      <c r="G304" s="9"/>
-      <c r="H304" s="8"/>
-      <c r="I304" s="8"/>
+      <c r="F304" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="G304" s="9">
+        <v>23.4</v>
+      </c>
+      <c r="H304" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I304" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="305" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A305" s="8"/>
-      <c r="B305" s="8"/>
-      <c r="C305" s="8"/>
+      <c r="A305" s="7">
+        <v>45791</v>
+      </c>
+      <c r="B305" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C305" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="D305" s="8"/>
       <c r="E305" s="8"/>
-      <c r="F305" s="8"/>
-      <c r="G305" s="9"/>
-      <c r="H305" s="8"/>
-      <c r="I305" s="8"/>
+      <c r="F305" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="G305" s="9">
+        <v>9</v>
+      </c>
+      <c r="H305" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I305" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="306" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A306" s="8"/>
-      <c r="B306" s="8"/>
+      <c r="B306" s="8" t="s">
+        <v>81</v>
+      </c>
       <c r="C306" s="8"/>
       <c r="D306" s="8"/>
       <c r="E306" s="8"/>
@@ -8807,7 +9200,9 @@
     </row>
     <row r="307" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A307" s="8"/>
-      <c r="B307" s="8"/>
+      <c r="B307" s="8" t="s">
+        <v>81</v>
+      </c>
       <c r="C307" s="8"/>
       <c r="D307" s="8"/>
       <c r="E307" s="8"/>
@@ -8818,7 +9213,9 @@
     </row>
     <row r="308" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A308" s="8"/>
-      <c r="B308" s="8"/>
+      <c r="B308" s="8" t="s">
+        <v>81</v>
+      </c>
       <c r="C308" s="8"/>
       <c r="D308" s="8"/>
       <c r="E308" s="8"/>
@@ -8829,7 +9226,9 @@
     </row>
     <row r="309" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A309" s="8"/>
-      <c r="B309" s="8"/>
+      <c r="B309" s="8" t="s">
+        <v>81</v>
+      </c>
       <c r="C309" s="8"/>
       <c r="D309" s="8"/>
       <c r="E309" s="8"/>
@@ -8840,7 +9239,9 @@
     </row>
     <row r="310" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A310" s="8"/>
-      <c r="B310" s="8"/>
+      <c r="B310" s="8" t="s">
+        <v>81</v>
+      </c>
       <c r="C310" s="8"/>
       <c r="D310" s="8"/>
       <c r="E310" s="8"/>

--- a/assets/cost_sheet.xlsx
+++ b/assets/cost_sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/56C9449150E6BC49/Documentos/FEARP/Intercambio/spendure_app/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2032" documentId="8_{697955BF-7644-43E6-B102-A5718628249A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E4122D7B-DD75-4AC8-99FD-E2258C2F1B09}"/>
+  <xr:revisionPtr revIDLastSave="2033" documentId="8_{697955BF-7644-43E6-B102-A5718628249A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{997B8911-8C56-4083-8081-6B94739D60A2}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{3A902579-E7D0-4425-859E-D7B710BECD9D}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1747" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1742" uniqueCount="235">
   <si>
     <t>Data</t>
   </si>
@@ -1193,7 +1193,7 @@
   <dimension ref="A1:I645"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A294" workbookViewId="0">
-      <selection activeCell="J305" sqref="J305"/>
+      <selection activeCell="B306" sqref="B306:B310"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9187,9 +9187,7 @@
     </row>
     <row r="306" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A306" s="8"/>
-      <c r="B306" s="8" t="s">
-        <v>81</v>
-      </c>
+      <c r="B306" s="8"/>
       <c r="C306" s="8"/>
       <c r="D306" s="8"/>
       <c r="E306" s="8"/>
@@ -9200,9 +9198,7 @@
     </row>
     <row r="307" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A307" s="8"/>
-      <c r="B307" s="8" t="s">
-        <v>81</v>
-      </c>
+      <c r="B307" s="8"/>
       <c r="C307" s="8"/>
       <c r="D307" s="8"/>
       <c r="E307" s="8"/>
@@ -9213,9 +9209,7 @@
     </row>
     <row r="308" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A308" s="8"/>
-      <c r="B308" s="8" t="s">
-        <v>81</v>
-      </c>
+      <c r="B308" s="8"/>
       <c r="C308" s="8"/>
       <c r="D308" s="8"/>
       <c r="E308" s="8"/>
@@ -9226,9 +9220,7 @@
     </row>
     <row r="309" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A309" s="8"/>
-      <c r="B309" s="8" t="s">
-        <v>81</v>
-      </c>
+      <c r="B309" s="8"/>
       <c r="C309" s="8"/>
       <c r="D309" s="8"/>
       <c r="E309" s="8"/>
@@ -9239,9 +9231,7 @@
     </row>
     <row r="310" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A310" s="8"/>
-      <c r="B310" s="8" t="s">
-        <v>81</v>
-      </c>
+      <c r="B310" s="8"/>
       <c r="C310" s="8"/>
       <c r="D310" s="8"/>
       <c r="E310" s="8"/>

--- a/assets/cost_sheet.xlsx
+++ b/assets/cost_sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/56C9449150E6BC49/Documentos/FEARP/Intercambio/spendure_app/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2033" documentId="8_{697955BF-7644-43E6-B102-A5718628249A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{997B8911-8C56-4083-8081-6B94739D60A2}"/>
+  <xr:revisionPtr revIDLastSave="2737" documentId="8_{697955BF-7644-43E6-B102-A5718628249A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{401B1775-816D-45BE-A4CE-4257D077BE05}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{3A902579-E7D0-4425-859E-D7B710BECD9D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{3A902579-E7D0-4425-859E-D7B710BECD9D}"/>
   </bookViews>
   <sheets>
     <sheet name="table" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1742" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2322" uniqueCount="288">
   <si>
     <t>Data</t>
   </si>
@@ -745,6 +745,165 @@
   </si>
   <si>
     <t>Costureira</t>
+  </si>
+  <si>
+    <t>Coral Lukas Palau</t>
+  </si>
+  <si>
+    <t>Lloret Del Mar</t>
+  </si>
+  <si>
+    <t>Airbnb Lloret</t>
+  </si>
+  <si>
+    <t>Tabacaria</t>
+  </si>
+  <si>
+    <t>Cadeiras na Praia</t>
+  </si>
+  <si>
+    <t>Mexicano</t>
+  </si>
+  <si>
+    <t>Shoulder Bag</t>
+  </si>
+  <si>
+    <t>Bacoa Burger</t>
+  </si>
+  <si>
+    <t>Lisboa</t>
+  </si>
+  <si>
+    <t>Hostel Lisboa</t>
+  </si>
+  <si>
+    <t>Pizza PicNic Sonja</t>
+  </si>
+  <si>
+    <t>Trêm Aeroporto</t>
+  </si>
+  <si>
+    <t>Maison Isabelle</t>
+  </si>
+  <si>
+    <t>Le Bistrot de la gare</t>
+  </si>
+  <si>
+    <t>Café Caillou</t>
+  </si>
+  <si>
+    <t>Vinho We Love Green</t>
+  </si>
+  <si>
+    <t>Uber We Love Green</t>
+  </si>
+  <si>
+    <t>Pret A Manger Aeroporto</t>
+  </si>
+  <si>
+    <t>Agua Aeroporto</t>
+  </si>
+  <si>
+    <t>Shorts Bershka</t>
+  </si>
+  <si>
+    <t>UniQlo</t>
+  </si>
+  <si>
+    <t>Birken</t>
+  </si>
+  <si>
+    <t>Matsuki</t>
+  </si>
+  <si>
+    <t>Café Pompeu</t>
+  </si>
+  <si>
+    <t>L'escala</t>
+  </si>
+  <si>
+    <t>Renfe</t>
+  </si>
+  <si>
+    <t>Airbnb</t>
+  </si>
+  <si>
+    <t>Voramar</t>
+  </si>
+  <si>
+    <t>Lembrancinha Bela</t>
+  </si>
+  <si>
+    <t>Bolsa Bela</t>
+  </si>
+  <si>
+    <t>Brunch</t>
+  </si>
+  <si>
+    <t>Indiano</t>
+  </si>
+  <si>
+    <t>Lembrancinha Fer</t>
+  </si>
+  <si>
+    <t>La Maison</t>
+  </si>
+  <si>
+    <t>Porto</t>
+  </si>
+  <si>
+    <t>Taberninha do Manel</t>
+  </si>
+  <si>
+    <t>Manteigaria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toalha </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tempero D Maria </t>
+  </si>
+  <si>
+    <t>Hostel Porto</t>
+  </si>
+  <si>
+    <t>Bolt Rodoviaria</t>
+  </si>
+  <si>
+    <t>Guia Jorge</t>
+  </si>
+  <si>
+    <t>Lisboa Tu e Eu</t>
+  </si>
+  <si>
+    <t>Guia Valeria</t>
+  </si>
+  <si>
+    <t>Pizzaria Zero Zero</t>
+  </si>
+  <si>
+    <t>Bar Sentido Proibido</t>
+  </si>
+  <si>
+    <t>Sardinha Luca</t>
+  </si>
+  <si>
+    <t>Livro Aeroporto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ônibus Belém </t>
+  </si>
+  <si>
+    <t>Chocolate mãe</t>
+  </si>
+  <si>
+    <t>Cafés</t>
+  </si>
+  <si>
+    <t>Pão Pão Queijo Queijo</t>
+  </si>
+  <si>
+    <t>Pastel de Belém</t>
   </si>
 </sst>
 </file>
@@ -1192,23 +1351,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73D03841-840F-48EF-840B-36FDA2E59E7D}">
   <dimension ref="A1:I645"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A294" workbookViewId="0">
-      <selection activeCell="B306" sqref="B306:B310"/>
+    <sheetView tabSelected="1" topLeftCell="A328" workbookViewId="0">
+      <selection activeCell="I338" sqref="I338"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.90625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.6328125" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1237,7 +1396,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>45657</v>
       </c>
@@ -1262,7 +1421,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>45659</v>
       </c>
@@ -1287,7 +1446,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>45659</v>
       </c>
@@ -1312,7 +1471,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>45659</v>
       </c>
@@ -1337,7 +1496,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>45659</v>
       </c>
@@ -1362,7 +1521,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>45659</v>
       </c>
@@ -1387,7 +1546,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>45660</v>
       </c>
@@ -1412,7 +1571,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>45660</v>
       </c>
@@ -1437,7 +1596,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>45660</v>
       </c>
@@ -1462,7 +1621,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>45660</v>
       </c>
@@ -1487,7 +1646,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>45661</v>
       </c>
@@ -1512,7 +1671,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>45661</v>
       </c>
@@ -1537,7 +1696,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>45662</v>
       </c>
@@ -1566,7 +1725,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>45662</v>
       </c>
@@ -1591,7 +1750,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>45663</v>
       </c>
@@ -1616,7 +1775,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>45663</v>
       </c>
@@ -1641,7 +1800,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>45663</v>
       </c>
@@ -1666,7 +1825,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>45664</v>
       </c>
@@ -1691,7 +1850,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>45664</v>
       </c>
@@ -1716,7 +1875,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>45664</v>
       </c>
@@ -1741,7 +1900,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>45666</v>
       </c>
@@ -1764,7 +1923,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>45666</v>
       </c>
@@ -1789,7 +1948,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>45667</v>
       </c>
@@ -1814,7 +1973,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>45667</v>
       </c>
@@ -1839,7 +1998,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>45668</v>
       </c>
@@ -1864,7 +2023,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>45668</v>
       </c>
@@ -1889,7 +2048,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>45668</v>
       </c>
@@ -1914,7 +2073,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>45668</v>
       </c>
@@ -1939,7 +2098,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>45669</v>
       </c>
@@ -1964,7 +2123,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>45669</v>
       </c>
@@ -1989,7 +2148,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>45669</v>
       </c>
@@ -2014,7 +2173,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>45670</v>
       </c>
@@ -2039,7 +2198,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>45670</v>
       </c>
@@ -2064,7 +2223,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>45670</v>
       </c>
@@ -2089,7 +2248,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>45671</v>
       </c>
@@ -2114,7 +2273,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>45672</v>
       </c>
@@ -2139,7 +2298,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>45674</v>
       </c>
@@ -2164,7 +2323,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>45676</v>
       </c>
@@ -2189,7 +2348,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>45676</v>
       </c>
@@ -2214,7 +2373,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>45677</v>
       </c>
@@ -2243,7 +2402,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>45677</v>
       </c>
@@ -2268,7 +2427,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>45677</v>
       </c>
@@ -2293,7 +2452,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>45678</v>
       </c>
@@ -2318,7 +2477,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>45678</v>
       </c>
@@ -2343,7 +2502,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45678</v>
       </c>
@@ -2368,7 +2527,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45679</v>
       </c>
@@ -2393,7 +2552,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>45680</v>
       </c>
@@ -2418,7 +2577,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>45681</v>
       </c>
@@ -2443,7 +2602,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>45681</v>
       </c>
@@ -2468,7 +2627,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>45681</v>
       </c>
@@ -2493,7 +2652,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>45681</v>
       </c>
@@ -2518,7 +2677,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>45682</v>
       </c>
@@ -2543,7 +2702,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>45683</v>
       </c>
@@ -2568,7 +2727,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>45684</v>
       </c>
@@ -2593,7 +2752,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>45684</v>
       </c>
@@ -2618,7 +2777,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>45685</v>
       </c>
@@ -2643,7 +2802,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>45687</v>
       </c>
@@ -2668,7 +2827,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>45687</v>
       </c>
@@ -2693,7 +2852,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>45687</v>
       </c>
@@ -2718,7 +2877,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>45688</v>
       </c>
@@ -2743,7 +2902,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>45688</v>
       </c>
@@ -2768,7 +2927,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>45688</v>
       </c>
@@ -2793,7 +2952,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>45688</v>
       </c>
@@ -2818,7 +2977,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>45689</v>
       </c>
@@ -2847,7 +3006,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>45689</v>
       </c>
@@ -2872,7 +3031,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>45689</v>
       </c>
@@ -2897,7 +3056,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>45689</v>
       </c>
@@ -2922,7 +3081,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>45689</v>
       </c>
@@ -2947,7 +3106,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>45690</v>
       </c>
@@ -2976,7 +3135,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>45690</v>
       </c>
@@ -3001,7 +3160,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="7">
         <v>45690</v>
       </c>
@@ -3026,7 +3185,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>45690</v>
       </c>
@@ -3055,7 +3214,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="7">
         <v>45691</v>
       </c>
@@ -3080,7 +3239,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="7">
         <v>45691</v>
       </c>
@@ -3105,7 +3264,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="7">
         <v>45692</v>
       </c>
@@ -3128,7 +3287,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="7">
         <v>45692</v>
       </c>
@@ -3153,7 +3312,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="7">
         <v>45693</v>
       </c>
@@ -3178,7 +3337,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="7">
         <v>45693</v>
       </c>
@@ -3203,7 +3362,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="7">
         <v>45694</v>
       </c>
@@ -3228,7 +3387,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="7">
         <v>45695</v>
       </c>
@@ -3257,7 +3416,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="7">
         <v>45695</v>
       </c>
@@ -3286,7 +3445,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="7">
         <v>45695</v>
       </c>
@@ -3315,7 +3474,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="7">
         <v>45695</v>
       </c>
@@ -3344,7 +3503,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="7">
         <v>45695</v>
       </c>
@@ -3369,7 +3528,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="7">
         <v>45696</v>
       </c>
@@ -3398,7 +3557,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="7">
         <v>45696</v>
       </c>
@@ -3427,7 +3586,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="7">
         <v>45696</v>
       </c>
@@ -3456,7 +3615,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="7">
         <v>45696</v>
       </c>
@@ -3485,7 +3644,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="7">
         <v>45696</v>
       </c>
@@ -3514,7 +3673,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="7">
         <v>45696</v>
       </c>
@@ -3543,7 +3702,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="7">
         <v>45697</v>
       </c>
@@ -3572,7 +3731,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="7">
         <v>45697</v>
       </c>
@@ -3601,7 +3760,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="7">
         <v>45697</v>
       </c>
@@ -3630,7 +3789,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="7">
         <v>45697</v>
       </c>
@@ -3659,7 +3818,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="7">
         <v>45698</v>
       </c>
@@ -3688,7 +3847,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="7">
         <v>45698</v>
       </c>
@@ -3713,7 +3872,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="7">
         <v>45698</v>
       </c>
@@ -3738,7 +3897,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="7">
         <v>45698</v>
       </c>
@@ -3763,7 +3922,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="7">
         <v>45698</v>
       </c>
@@ -3788,7 +3947,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="7">
         <v>45698</v>
       </c>
@@ -3813,7 +3972,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="7">
         <v>45699</v>
       </c>
@@ -3838,7 +3997,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="7">
         <v>45699</v>
       </c>
@@ -3863,7 +4022,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="7">
         <v>45699</v>
       </c>
@@ -3888,7 +4047,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="7">
         <v>45700</v>
       </c>
@@ -3913,7 +4072,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="7">
         <v>45700</v>
       </c>
@@ -3938,7 +4097,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="7">
         <v>45700</v>
       </c>
@@ -3963,7 +4122,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="7">
         <v>45700</v>
       </c>
@@ -3988,7 +4147,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="7">
         <v>45701</v>
       </c>
@@ -4017,7 +4176,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="7">
         <v>45701</v>
       </c>
@@ -4042,7 +4201,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="7">
         <v>45702</v>
       </c>
@@ -4067,7 +4226,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="7">
         <v>45703</v>
       </c>
@@ -4092,7 +4251,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="7">
         <v>45703</v>
       </c>
@@ -4117,7 +4276,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="7">
         <v>45703</v>
       </c>
@@ -4142,7 +4301,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="7">
         <v>45704</v>
       </c>
@@ -4167,7 +4326,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="7">
         <v>45704</v>
       </c>
@@ -4192,7 +4351,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="7">
         <v>45704</v>
       </c>
@@ -4217,7 +4376,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="7">
         <v>45704</v>
       </c>
@@ -4242,7 +4401,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" s="7">
         <v>45704</v>
       </c>
@@ -4267,7 +4426,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" s="7">
         <v>45704</v>
       </c>
@@ -4292,7 +4451,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="7">
         <v>45704</v>
       </c>
@@ -4321,7 +4480,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" s="7">
         <v>45705</v>
       </c>
@@ -4346,7 +4505,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="7">
         <v>45706</v>
       </c>
@@ -4371,7 +4530,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="7">
         <v>45707</v>
       </c>
@@ -4396,7 +4555,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="7">
         <v>45707</v>
       </c>
@@ -4425,7 +4584,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" s="7">
         <v>45708</v>
       </c>
@@ -4450,7 +4609,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" s="7">
         <v>45708</v>
       </c>
@@ -4475,7 +4634,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" s="7">
         <v>45709</v>
       </c>
@@ -4500,7 +4659,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" s="7">
         <v>45709</v>
       </c>
@@ -4525,7 +4684,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" s="7">
         <v>45709</v>
       </c>
@@ -4550,7 +4709,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" s="7">
         <v>45710</v>
       </c>
@@ -4579,7 +4738,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" s="7">
         <v>45710</v>
       </c>
@@ -4604,7 +4763,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" s="7">
         <v>45710</v>
       </c>
@@ -4629,7 +4788,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" s="7">
         <v>45710</v>
       </c>
@@ -4654,7 +4813,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" s="7">
         <v>45710</v>
       </c>
@@ -4679,7 +4838,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" s="7">
         <v>45711</v>
       </c>
@@ -4704,7 +4863,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" s="7">
         <v>45711</v>
       </c>
@@ -4729,7 +4888,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" s="7">
         <v>45712</v>
       </c>
@@ -4754,7 +4913,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" s="7">
         <v>45712</v>
       </c>
@@ -4779,7 +4938,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" s="7">
         <v>45712</v>
       </c>
@@ -4804,7 +4963,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" s="7">
         <v>45713</v>
       </c>
@@ -4829,7 +4988,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" s="7">
         <v>45713</v>
       </c>
@@ -4854,7 +5013,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" s="7">
         <v>45714</v>
       </c>
@@ -4879,7 +5038,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" s="7">
         <v>45715</v>
       </c>
@@ -4904,7 +5063,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" s="7">
         <v>45715</v>
       </c>
@@ -4929,7 +5088,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" s="7">
         <v>45716</v>
       </c>
@@ -4958,7 +5117,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" s="7">
         <v>45716</v>
       </c>
@@ -4987,7 +5146,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" s="7">
         <v>45716</v>
       </c>
@@ -5016,7 +5175,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" s="7">
         <v>45716</v>
       </c>
@@ -5045,7 +5204,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" s="7">
         <v>45716</v>
       </c>
@@ -5074,7 +5233,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" s="7">
         <v>45716</v>
       </c>
@@ -5103,7 +5262,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" s="7">
         <v>45717</v>
       </c>
@@ -5132,7 +5291,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" s="7">
         <v>45717</v>
       </c>
@@ -5161,7 +5320,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" s="7">
         <v>45717</v>
       </c>
@@ -5190,7 +5349,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" s="7">
         <v>45717</v>
       </c>
@@ -5219,7 +5378,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" s="7">
         <v>45718</v>
       </c>
@@ -5244,7 +5403,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" s="7">
         <v>45718</v>
       </c>
@@ -5269,7 +5428,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" s="7">
         <v>45719</v>
       </c>
@@ -5298,7 +5457,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" s="7">
         <v>45719</v>
       </c>
@@ -5323,7 +5482,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" s="7">
         <v>45720</v>
       </c>
@@ -5352,7 +5511,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" s="7">
         <v>45720</v>
       </c>
@@ -5381,7 +5540,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" s="7">
         <v>45721</v>
       </c>
@@ -5410,7 +5569,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" s="7">
         <v>45721</v>
       </c>
@@ -5435,7 +5594,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" s="7">
         <v>45721</v>
       </c>
@@ -5460,7 +5619,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" s="7">
         <v>45722</v>
       </c>
@@ -5485,7 +5644,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" s="7">
         <v>45722</v>
       </c>
@@ -5510,7 +5669,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" s="7">
         <v>45722</v>
       </c>
@@ -5535,7 +5694,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" s="7">
         <v>45723</v>
       </c>
@@ -5560,7 +5719,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" s="7">
         <v>45723</v>
       </c>
@@ -5585,7 +5744,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" s="7">
         <v>45724</v>
       </c>
@@ -5614,7 +5773,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" s="7">
         <v>45724</v>
       </c>
@@ -5643,7 +5802,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" s="7">
         <v>45724</v>
       </c>
@@ -5672,7 +5831,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" s="7">
         <v>45724</v>
       </c>
@@ -5701,7 +5860,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" s="7">
         <v>45724</v>
       </c>
@@ -5730,7 +5889,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" s="7">
         <v>45724</v>
       </c>
@@ -5759,7 +5918,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" s="7">
         <v>45725</v>
       </c>
@@ -5788,7 +5947,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" s="7">
         <v>45725</v>
       </c>
@@ -5817,7 +5976,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" s="7">
         <v>45725</v>
       </c>
@@ -5846,7 +6005,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" s="7">
         <v>45725</v>
       </c>
@@ -5875,7 +6034,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" s="7">
         <v>45725</v>
       </c>
@@ -5904,7 +6063,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" s="7">
         <v>45725</v>
       </c>
@@ -5933,7 +6092,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" s="7">
         <v>45726</v>
       </c>
@@ -5962,7 +6121,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" s="7">
         <v>45726</v>
       </c>
@@ -5991,7 +6150,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" s="7">
         <v>45726</v>
       </c>
@@ -6020,7 +6179,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" s="7">
         <v>45726</v>
       </c>
@@ -6049,7 +6208,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" s="7">
         <v>45726</v>
       </c>
@@ -6078,7 +6237,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" s="7">
         <v>45727</v>
       </c>
@@ -6107,7 +6266,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" s="7">
         <v>45727</v>
       </c>
@@ -6136,7 +6295,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" s="7">
         <v>45727</v>
       </c>
@@ -6165,7 +6324,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" s="7">
         <v>45727</v>
       </c>
@@ -6194,7 +6353,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" s="7">
         <v>45727</v>
       </c>
@@ -6223,7 +6382,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" s="7">
         <v>45727</v>
       </c>
@@ -6252,7 +6411,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" s="7">
         <v>45727</v>
       </c>
@@ -6281,7 +6440,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" s="7">
         <v>45728</v>
       </c>
@@ -6306,7 +6465,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" s="7">
         <v>45728</v>
       </c>
@@ -6331,7 +6490,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" s="7">
         <v>45729</v>
       </c>
@@ -6360,7 +6519,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" s="7">
         <v>45729</v>
       </c>
@@ -6389,7 +6548,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" s="7">
         <v>45730</v>
       </c>
@@ -6414,7 +6573,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" s="7">
         <v>45730</v>
       </c>
@@ -6439,7 +6598,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" s="7">
         <v>45731</v>
       </c>
@@ -6464,7 +6623,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" s="7">
         <v>45731</v>
       </c>
@@ -6489,7 +6648,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" s="7">
         <v>45732</v>
       </c>
@@ -6514,7 +6673,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" s="7">
         <v>45732</v>
       </c>
@@ -6539,7 +6698,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" s="7">
         <v>45732</v>
       </c>
@@ -6564,7 +6723,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" s="7">
         <v>45732</v>
       </c>
@@ -6589,7 +6748,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" s="7">
         <v>45732</v>
       </c>
@@ -6614,7 +6773,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" s="7">
         <v>45733</v>
       </c>
@@ -6639,7 +6798,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" s="7">
         <v>45735</v>
       </c>
@@ -6664,7 +6823,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" s="7">
         <v>45735</v>
       </c>
@@ -6689,7 +6848,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" s="7">
         <v>45736</v>
       </c>
@@ -6718,7 +6877,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" s="7">
         <v>45736</v>
       </c>
@@ -6747,7 +6906,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212" s="7">
         <v>45736</v>
       </c>
@@ -6776,7 +6935,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" s="7">
         <v>45737</v>
       </c>
@@ -6805,7 +6964,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214" s="7">
         <v>45737</v>
       </c>
@@ -6834,7 +6993,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" s="7">
         <v>45738</v>
       </c>
@@ -6863,7 +7022,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216" s="7">
         <v>45738</v>
       </c>
@@ -6888,7 +7047,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217" s="7">
         <v>45739</v>
       </c>
@@ -6913,7 +7072,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218" s="7">
         <v>45740</v>
       </c>
@@ -6942,7 +7101,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219" s="7">
         <v>45740</v>
       </c>
@@ -6971,7 +7130,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220" s="7">
         <v>45741</v>
       </c>
@@ -6996,7 +7155,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" s="7">
         <v>45742</v>
       </c>
@@ -7021,7 +7180,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" s="7">
         <v>45742</v>
       </c>
@@ -7046,7 +7205,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" s="7">
         <v>45743</v>
       </c>
@@ -7071,7 +7230,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" s="7">
         <v>45743</v>
       </c>
@@ -7096,7 +7255,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225" s="7">
         <v>45744</v>
       </c>
@@ -7121,7 +7280,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226" s="7">
         <v>45746</v>
       </c>
@@ -7146,7 +7305,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227" s="7">
         <v>45747</v>
       </c>
@@ -7171,7 +7330,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228" s="7">
         <v>45747</v>
       </c>
@@ -7200,7 +7359,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229" s="7">
         <v>45747</v>
       </c>
@@ -7225,7 +7384,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230" s="7">
         <v>45748</v>
       </c>
@@ -7250,7 +7409,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231" s="7">
         <v>45748</v>
       </c>
@@ -7275,7 +7434,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232" s="7">
         <v>45748</v>
       </c>
@@ -7300,7 +7459,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233" s="7">
         <v>45748</v>
       </c>
@@ -7325,7 +7484,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234" s="7">
         <v>45748</v>
       </c>
@@ -7350,7 +7509,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235" s="7">
         <v>45749</v>
       </c>
@@ -7375,7 +7534,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236" s="7">
         <v>45749</v>
       </c>
@@ -7404,7 +7563,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237" s="7">
         <v>45749</v>
       </c>
@@ -7429,7 +7588,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238" s="7">
         <v>45753</v>
       </c>
@@ -7454,7 +7613,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239" s="7">
         <v>45755</v>
       </c>
@@ -7479,7 +7638,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240" s="7">
         <v>45755</v>
       </c>
@@ -7504,7 +7663,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241" s="7">
         <v>45757</v>
       </c>
@@ -7529,7 +7688,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A242" s="7">
         <v>45759</v>
       </c>
@@ -7554,7 +7713,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A243" s="7">
         <v>45759</v>
       </c>
@@ -7579,7 +7738,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244" s="7">
         <v>45759</v>
       </c>
@@ -7604,7 +7763,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A245" s="7">
         <v>45761</v>
       </c>
@@ -7633,7 +7792,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A246" s="7">
         <v>45761</v>
       </c>
@@ -7658,7 +7817,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247" s="7">
         <v>45762</v>
       </c>
@@ -7683,7 +7842,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248" s="7">
         <v>45763</v>
       </c>
@@ -7708,7 +7867,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249" s="7">
         <v>45763</v>
       </c>
@@ -7733,7 +7892,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250" s="7">
         <v>45763</v>
       </c>
@@ -7758,7 +7917,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A251" s="7">
         <v>45764</v>
       </c>
@@ -7783,7 +7942,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A252" s="7">
         <v>45765</v>
       </c>
@@ -7808,7 +7967,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A253" s="7">
         <v>45765</v>
       </c>
@@ -7833,7 +7992,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A254" s="7">
         <v>45766</v>
       </c>
@@ -7858,7 +8017,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A255" s="7">
         <v>45766</v>
       </c>
@@ -7883,7 +8042,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A256" s="7">
         <v>45766</v>
       </c>
@@ -7908,7 +8067,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A257" s="7">
         <v>45766</v>
       </c>
@@ -7933,7 +8092,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A258" s="7">
         <v>45766</v>
       </c>
@@ -7958,7 +8117,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A259" s="7">
         <v>45766</v>
       </c>
@@ -7983,7 +8142,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A260" s="7">
         <v>45767</v>
       </c>
@@ -8008,7 +8167,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A261" s="7">
         <v>45767</v>
       </c>
@@ -8033,7 +8192,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A262" s="7">
         <v>45767</v>
       </c>
@@ -8062,7 +8221,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A263" s="7">
         <v>45767</v>
       </c>
@@ -8091,7 +8250,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A264" s="7">
         <v>45767</v>
       </c>
@@ -8120,7 +8279,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A265" s="7">
         <v>45767</v>
       </c>
@@ -8149,7 +8308,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A266" s="7">
         <v>45768</v>
       </c>
@@ -8178,7 +8337,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A267" s="7">
         <v>45768</v>
       </c>
@@ -8207,7 +8366,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A268" s="7">
         <v>45768</v>
       </c>
@@ -8236,7 +8395,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A269" s="7">
         <v>45768</v>
       </c>
@@ -8265,7 +8424,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A270" s="7">
         <v>45769</v>
       </c>
@@ -8294,7 +8453,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A271" s="7">
         <v>45769</v>
       </c>
@@ -8323,7 +8482,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A272" s="7">
         <v>45770</v>
       </c>
@@ -8352,7 +8511,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A273" s="7">
         <v>45773</v>
       </c>
@@ -8381,7 +8540,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A274" s="7">
         <v>45774</v>
       </c>
@@ -8406,7 +8565,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A275" s="7">
         <v>45775</v>
       </c>
@@ -8431,7 +8590,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A276" s="7">
         <v>45776</v>
       </c>
@@ -8456,7 +8615,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A277" s="7">
         <v>45776</v>
       </c>
@@ -8481,7 +8640,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A278" s="7">
         <v>45776</v>
       </c>
@@ -8506,7 +8665,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A279" s="7">
         <v>45777</v>
       </c>
@@ -8535,7 +8694,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A280" s="7">
         <v>45778</v>
       </c>
@@ -8560,7 +8719,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A281" s="7">
         <v>45778</v>
       </c>
@@ -8585,7 +8744,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A282" s="7">
         <v>45778</v>
       </c>
@@ -8610,7 +8769,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A283" s="7">
         <v>45779</v>
       </c>
@@ -8635,7 +8794,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A284" s="7">
         <v>45780</v>
       </c>
@@ -8660,7 +8819,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A285" s="7">
         <v>45780</v>
       </c>
@@ -8685,7 +8844,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A286" s="7">
         <v>45782</v>
       </c>
@@ -8710,7 +8869,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A287" s="7">
         <v>45783</v>
       </c>
@@ -8735,7 +8894,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A288" s="7">
         <v>45783</v>
       </c>
@@ -8760,7 +8919,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A289" s="7">
         <v>45784</v>
       </c>
@@ -8785,7 +8944,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A290" s="7">
         <v>45784</v>
       </c>
@@ -8810,7 +8969,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A291" s="7">
         <v>45785</v>
       </c>
@@ -8835,7 +8994,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A292" s="7">
         <v>45785</v>
       </c>
@@ -8860,7 +9019,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A293" s="7">
         <v>45786</v>
       </c>
@@ -8885,7 +9044,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A294" s="7">
         <v>45786</v>
       </c>
@@ -8910,7 +9069,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A295" s="7">
         <v>45787</v>
       </c>
@@ -8935,7 +9094,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A296" s="7">
         <v>45787</v>
       </c>
@@ -8960,7 +9119,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A297" s="7">
         <v>45787</v>
       </c>
@@ -8985,7 +9144,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A298" s="7">
         <v>45787</v>
       </c>
@@ -9010,7 +9169,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A299" s="7">
         <v>45788</v>
       </c>
@@ -9035,7 +9194,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A300" s="7">
         <v>45789</v>
       </c>
@@ -9060,7 +9219,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A301" s="7">
         <v>45789</v>
       </c>
@@ -9085,7 +9244,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A302" s="7">
         <v>45789</v>
       </c>
@@ -9110,7 +9269,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A303" s="7">
         <v>45791</v>
       </c>
@@ -9135,7 +9294,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A304" s="7">
         <v>45791</v>
       </c>
@@ -9160,7 +9319,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A305" s="7">
         <v>45791</v>
       </c>
@@ -9185,1063 +9344,2606 @@
         <v>11</v>
       </c>
     </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A306" s="8"/>
-      <c r="B306" s="8"/>
-      <c r="C306" s="8"/>
+    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A306" s="7">
+        <v>45792</v>
+      </c>
+      <c r="B306" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C306" s="8" t="s">
+        <v>87</v>
+      </c>
       <c r="D306" s="8"/>
       <c r="E306" s="8"/>
-      <c r="F306" s="8"/>
-      <c r="G306" s="9"/>
-      <c r="H306" s="8"/>
-      <c r="I306" s="8"/>
-    </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A307" s="8"/>
-      <c r="B307" s="8"/>
-      <c r="C307" s="8"/>
-      <c r="D307" s="8"/>
-      <c r="E307" s="8"/>
-      <c r="F307" s="8"/>
-      <c r="G307" s="9"/>
-      <c r="H307" s="8"/>
-      <c r="I307" s="8"/>
-    </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A308" s="8"/>
-      <c r="B308" s="8"/>
-      <c r="C308" s="8"/>
-      <c r="D308" s="8"/>
-      <c r="E308" s="8"/>
-      <c r="F308" s="8"/>
-      <c r="G308" s="9"/>
-      <c r="H308" s="8"/>
-      <c r="I308" s="8"/>
-    </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A309" s="8"/>
-      <c r="B309" s="8"/>
-      <c r="C309" s="8"/>
-      <c r="D309" s="8"/>
-      <c r="E309" s="8"/>
-      <c r="F309" s="8"/>
-      <c r="G309" s="9"/>
-      <c r="H309" s="8"/>
-      <c r="I309" s="8"/>
-    </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A310" s="8"/>
-      <c r="B310" s="8"/>
-      <c r="C310" s="8"/>
-      <c r="D310" s="8"/>
-      <c r="E310" s="8"/>
-      <c r="F310" s="8"/>
-      <c r="G310" s="9"/>
-      <c r="H310" s="8"/>
-      <c r="I310" s="8"/>
-    </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A311" s="8"/>
-      <c r="B311" s="8"/>
-      <c r="C311" s="8"/>
-      <c r="D311" s="8"/>
-      <c r="E311" s="8"/>
-      <c r="F311" s="8"/>
-      <c r="G311" s="9"/>
-      <c r="H311" s="8"/>
-      <c r="I311" s="8"/>
-    </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A312" s="8"/>
-      <c r="B312" s="8"/>
-      <c r="C312" s="8"/>
-      <c r="D312" s="8"/>
-      <c r="E312" s="8"/>
-      <c r="F312" s="8"/>
-      <c r="G312" s="9"/>
-      <c r="H312" s="8"/>
-      <c r="I312" s="8"/>
-    </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A313" s="8"/>
-      <c r="B313" s="8"/>
-      <c r="C313" s="8"/>
-      <c r="D313" s="8"/>
-      <c r="E313" s="8"/>
-      <c r="F313" s="8"/>
-      <c r="G313" s="9"/>
-      <c r="H313" s="8"/>
-      <c r="I313" s="8"/>
-    </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A314" s="8"/>
-      <c r="B314" s="8"/>
-      <c r="C314" s="8"/>
+      <c r="F306" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="G306" s="9">
+        <v>15</v>
+      </c>
+      <c r="H306" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I306" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A307" s="7">
+        <v>45794</v>
+      </c>
+      <c r="B307" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C307" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D307" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E307" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="F307" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="G307" s="9">
+        <v>56.2</v>
+      </c>
+      <c r="H307" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I307" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A308" s="7">
+        <v>45794</v>
+      </c>
+      <c r="B308" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C308" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D308" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E308" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="F308" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G308" s="9">
+        <v>7.7</v>
+      </c>
+      <c r="H308" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I308" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A309" s="7">
+        <v>45794</v>
+      </c>
+      <c r="B309" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C309" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D309" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E309" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="F309" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="G309" s="9">
+        <v>10</v>
+      </c>
+      <c r="H309" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I309" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A310" s="7">
+        <v>45794</v>
+      </c>
+      <c r="B310" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C310" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D310" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E310" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="F310" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G310" s="9">
+        <v>25.91</v>
+      </c>
+      <c r="H310" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I310" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A311" s="7">
+        <v>45794</v>
+      </c>
+      <c r="B311" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C311" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D311" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E311" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="F311" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G311" s="9">
+        <v>20.9</v>
+      </c>
+      <c r="H311" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I311" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A312" s="7">
+        <v>45794</v>
+      </c>
+      <c r="B312" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C312" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D312" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E312" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="F312" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="G312" s="9">
+        <v>10</v>
+      </c>
+      <c r="H312" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I312" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A313" s="7">
+        <v>45794</v>
+      </c>
+      <c r="B313" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C313" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D313" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E313" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="F313" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="G313" s="9">
+        <v>17.649999999999999</v>
+      </c>
+      <c r="H313" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I313" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A314" s="7">
+        <v>45795</v>
+      </c>
+      <c r="B314" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C314" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="D314" s="8"/>
       <c r="E314" s="8"/>
-      <c r="F314" s="8"/>
-      <c r="G314" s="9"/>
-      <c r="H314" s="8"/>
-      <c r="I314" s="8"/>
-    </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A315" s="8"/>
-      <c r="B315" s="8"/>
-      <c r="C315" s="8"/>
+      <c r="F314" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="G314" s="9">
+        <v>23.9</v>
+      </c>
+      <c r="H314" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I314" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A315" s="7">
+        <v>45796</v>
+      </c>
+      <c r="B315" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C315" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="D315" s="8"/>
       <c r="E315" s="8"/>
-      <c r="F315" s="8"/>
-      <c r="G315" s="9"/>
-      <c r="H315" s="8"/>
-      <c r="I315" s="8"/>
-    </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A316" s="8"/>
-      <c r="B316" s="8"/>
-      <c r="C316" s="8"/>
+      <c r="F315" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="G315" s="9">
+        <v>4.2</v>
+      </c>
+      <c r="H315" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I315" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A316" s="7">
+        <v>45796</v>
+      </c>
+      <c r="B316" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C316" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="D316" s="8"/>
-      <c r="E316" s="8"/>
-      <c r="F316" s="8"/>
-      <c r="G316" s="9"/>
-      <c r="H316" s="8"/>
-      <c r="I316" s="8"/>
-    </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A317" s="8"/>
-      <c r="B317" s="8"/>
-      <c r="C317" s="8"/>
+      <c r="F316" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="G316" s="9">
+        <v>31.35</v>
+      </c>
+      <c r="H316" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I316" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A317" s="7">
+        <v>45798</v>
+      </c>
+      <c r="B317" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C317" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="D317" s="8"/>
       <c r="E317" s="8"/>
-      <c r="F317" s="8"/>
-      <c r="G317" s="9"/>
-      <c r="H317" s="8"/>
-      <c r="I317" s="8"/>
-    </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A318" s="8"/>
-      <c r="B318" s="8"/>
-      <c r="C318" s="8"/>
+      <c r="F317" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G317" s="9">
+        <v>6.78</v>
+      </c>
+      <c r="H317" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I317" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A318" s="7">
+        <v>45799</v>
+      </c>
+      <c r="B318" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C318" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="D318" s="8"/>
       <c r="E318" s="8"/>
-      <c r="F318" s="8"/>
-      <c r="G318" s="9"/>
-      <c r="H318" s="8"/>
-      <c r="I318" s="8"/>
-    </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A319" s="8"/>
-      <c r="B319" s="8"/>
-      <c r="C319" s="8"/>
+      <c r="F318" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="G318" s="9">
+        <v>4.12</v>
+      </c>
+      <c r="H318" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I318" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A319" s="7">
+        <v>45799</v>
+      </c>
+      <c r="B319" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C319" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="D319" s="8"/>
       <c r="E319" s="8"/>
-      <c r="F319" s="8"/>
-      <c r="G319" s="9"/>
-      <c r="H319" s="8"/>
-      <c r="I319" s="8"/>
-    </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A320" s="8"/>
-      <c r="B320" s="8"/>
-      <c r="C320" s="8"/>
+      <c r="F319" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G319" s="9">
+        <v>7.3</v>
+      </c>
+      <c r="H319" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I319" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A320" s="7">
+        <v>45801</v>
+      </c>
+      <c r="B320" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C320" s="8" t="s">
+        <v>17</v>
+      </c>
       <c r="D320" s="8"/>
       <c r="E320" s="8"/>
-      <c r="F320" s="8"/>
-      <c r="G320" s="9"/>
-      <c r="H320" s="8"/>
-      <c r="I320" s="8"/>
-    </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A321" s="8"/>
-      <c r="B321" s="8"/>
-      <c r="C321" s="8"/>
+      <c r="F320" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="G320" s="9">
+        <v>10</v>
+      </c>
+      <c r="H320" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I320" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A321" s="7">
+        <v>45811</v>
+      </c>
+      <c r="B321" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C321" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="D321" s="8"/>
       <c r="E321" s="8"/>
-      <c r="F321" s="8"/>
-      <c r="G321" s="9"/>
-      <c r="H321" s="8"/>
-      <c r="I321" s="8"/>
-    </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A322" s="8"/>
-      <c r="B322" s="8"/>
-      <c r="C322" s="8"/>
+      <c r="F321" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="G321" s="9">
+        <v>10.75</v>
+      </c>
+      <c r="H321" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I321" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A322" s="7">
+        <v>45811</v>
+      </c>
+      <c r="B322" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C322" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="D322" s="8"/>
       <c r="E322" s="8"/>
-      <c r="F322" s="8"/>
-      <c r="G322" s="9"/>
-      <c r="H322" s="8"/>
-      <c r="I322" s="8"/>
-    </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A323" s="8"/>
-      <c r="B323" s="8"/>
-      <c r="C323" s="8"/>
-      <c r="D323" s="8"/>
-      <c r="E323" s="8"/>
-      <c r="F323" s="8"/>
-      <c r="G323" s="9"/>
-      <c r="H323" s="8"/>
-      <c r="I323" s="8"/>
-    </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A324" s="8"/>
-      <c r="B324" s="8"/>
-      <c r="C324" s="8"/>
+      <c r="F322" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="G322" s="9">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="H322" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I322" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A323" s="7">
+        <v>45812</v>
+      </c>
+      <c r="B323" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C323" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D323" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E323" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="F323" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="G323" s="9">
+        <v>89</v>
+      </c>
+      <c r="H323" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I323" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A324" s="7">
+        <v>45812</v>
+      </c>
+      <c r="B324" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C324" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="D324" s="8"/>
       <c r="E324" s="8"/>
-      <c r="F324" s="8"/>
-      <c r="G324" s="9"/>
-      <c r="H324" s="8"/>
-      <c r="I324" s="8"/>
-    </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A325" s="8"/>
-      <c r="B325" s="8"/>
-      <c r="C325" s="8"/>
+      <c r="F324" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="G324" s="9">
+        <v>12</v>
+      </c>
+      <c r="H324" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I324" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A325" s="7">
+        <v>45813</v>
+      </c>
+      <c r="B325" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C325" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="D325" s="8"/>
       <c r="E325" s="8"/>
-      <c r="F325" s="8"/>
-      <c r="G325" s="9"/>
-      <c r="H325" s="8"/>
-      <c r="I325" s="8"/>
-    </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A326" s="8"/>
-      <c r="B326" s="8"/>
-      <c r="C326" s="8"/>
-      <c r="D326" s="8"/>
-      <c r="E326" s="8"/>
-      <c r="F326" s="8"/>
-      <c r="G326" s="9"/>
-      <c r="H326" s="8"/>
-      <c r="I326" s="8"/>
-    </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A327" s="8"/>
-      <c r="B327" s="8"/>
-      <c r="C327" s="8"/>
-      <c r="D327" s="8"/>
-      <c r="E327" s="8"/>
-      <c r="F327" s="8"/>
-      <c r="G327" s="9"/>
-      <c r="H327" s="8"/>
-      <c r="I327" s="8"/>
-    </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A328" s="8"/>
-      <c r="B328" s="8"/>
-      <c r="C328" s="8"/>
-      <c r="D328" s="8"/>
-      <c r="E328" s="8"/>
-      <c r="F328" s="8"/>
-      <c r="G328" s="9"/>
-      <c r="H328" s="8"/>
-      <c r="I328" s="8"/>
-    </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A329" s="8"/>
-      <c r="B329" s="8"/>
-      <c r="C329" s="8"/>
-      <c r="D329" s="8"/>
-      <c r="E329" s="8"/>
-      <c r="F329" s="8"/>
-      <c r="G329" s="9"/>
-      <c r="H329" s="8"/>
-      <c r="I329" s="8"/>
-    </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A330" s="8"/>
-      <c r="B330" s="8"/>
-      <c r="C330" s="8"/>
-      <c r="D330" s="8"/>
-      <c r="E330" s="8"/>
-      <c r="F330" s="8"/>
-      <c r="G330" s="9"/>
-      <c r="H330" s="8"/>
-      <c r="I330" s="8"/>
-    </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A331" s="8"/>
-      <c r="B331" s="8"/>
-      <c r="C331" s="8"/>
-      <c r="D331" s="8"/>
-      <c r="E331" s="8"/>
-      <c r="F331" s="8"/>
-      <c r="G331" s="9"/>
-      <c r="H331" s="8"/>
-      <c r="I331" s="8"/>
-    </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A332" s="8"/>
-      <c r="B332" s="8"/>
-      <c r="C332" s="8"/>
-      <c r="D332" s="8"/>
-      <c r="E332" s="8"/>
-      <c r="F332" s="8"/>
-      <c r="G332" s="9"/>
-      <c r="H332" s="8"/>
-      <c r="I332" s="8"/>
-    </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A333" s="8"/>
-      <c r="B333" s="8"/>
-      <c r="C333" s="8"/>
-      <c r="D333" s="8"/>
-      <c r="E333" s="8"/>
-      <c r="F333" s="8"/>
-      <c r="G333" s="9"/>
-      <c r="H333" s="8"/>
-      <c r="I333" s="8"/>
-    </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A334" s="8"/>
-      <c r="B334" s="8"/>
-      <c r="C334" s="8"/>
-      <c r="D334" s="8"/>
-      <c r="E334" s="8"/>
-      <c r="F334" s="8"/>
-      <c r="G334" s="9"/>
-      <c r="H334" s="8"/>
-      <c r="I334" s="8"/>
-    </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A335" s="8"/>
-      <c r="B335" s="8"/>
-      <c r="C335" s="8"/>
-      <c r="D335" s="8"/>
-      <c r="E335" s="8"/>
-      <c r="F335" s="8"/>
-      <c r="G335" s="9"/>
-      <c r="H335" s="8"/>
-      <c r="I335" s="8"/>
-    </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A336" s="8"/>
-      <c r="B336" s="8"/>
-      <c r="C336" s="8"/>
-      <c r="D336" s="8"/>
-      <c r="E336" s="8"/>
-      <c r="F336" s="8"/>
-      <c r="G336" s="9"/>
-      <c r="H336" s="8"/>
-      <c r="I336" s="8"/>
-    </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A337" s="8"/>
-      <c r="B337" s="8"/>
-      <c r="C337" s="8"/>
-      <c r="D337" s="8"/>
-      <c r="E337" s="8"/>
-      <c r="F337" s="8"/>
-      <c r="G337" s="9"/>
-      <c r="H337" s="8"/>
-      <c r="I337" s="8"/>
-    </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A338" s="8"/>
-      <c r="B338" s="8"/>
-      <c r="C338" s="8"/>
+      <c r="F325" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="G325" s="9">
+        <v>2</v>
+      </c>
+      <c r="H325" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I325" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A326" s="7">
+        <v>45813</v>
+      </c>
+      <c r="B326" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C326" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D326" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="E326" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="F326" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="G326" s="9">
+        <v>15</v>
+      </c>
+      <c r="H326" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I326" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A327" s="7">
+        <v>45814</v>
+      </c>
+      <c r="B327" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C327" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D327" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="E327" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="F327" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="G327" s="9">
+        <v>5</v>
+      </c>
+      <c r="H327" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I327" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A328" s="7">
+        <v>45814</v>
+      </c>
+      <c r="B328" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C328" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D328" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E328" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="F328" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="G328" s="9">
+        <v>9.6</v>
+      </c>
+      <c r="H328" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I328" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A329" s="7">
+        <v>45814</v>
+      </c>
+      <c r="B329" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C329" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D329" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E329" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="F329" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="G329" s="9">
+        <v>20.6</v>
+      </c>
+      <c r="H329" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I329" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A330" s="7">
+        <v>45814</v>
+      </c>
+      <c r="B330" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C330" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D330" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E330" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="F330" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="G330" s="9">
+        <v>20.5</v>
+      </c>
+      <c r="H330" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I330" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A331" s="7">
+        <v>45814</v>
+      </c>
+      <c r="B331" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C331" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D331" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="E331" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="F331" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="G331" s="9">
+        <v>5</v>
+      </c>
+      <c r="H331" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I331" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A332" s="7">
+        <v>45815</v>
+      </c>
+      <c r="B332" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C332" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D332" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E332" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="F332" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="G332" s="9">
+        <v>31.5</v>
+      </c>
+      <c r="H332" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I332" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A333" s="7">
+        <v>45815</v>
+      </c>
+      <c r="B333" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C333" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D333" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="E333" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="F333" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="G333" s="9">
+        <v>14</v>
+      </c>
+      <c r="H333" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I333" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A334" s="7">
+        <v>45815</v>
+      </c>
+      <c r="B334" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C334" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D334" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="E334" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="F334" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="G334" s="9">
+        <v>14.82</v>
+      </c>
+      <c r="H334" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I334" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A335" s="7">
+        <v>45816</v>
+      </c>
+      <c r="B335" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C335" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D335" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="E335" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="F335" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="G335" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="H335" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I335" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A336" s="7">
+        <v>45817</v>
+      </c>
+      <c r="B336" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C336" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D336" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E336" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="F336" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="G336" s="9">
+        <v>8.5</v>
+      </c>
+      <c r="H336" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I336" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A337" s="7">
+        <v>45817</v>
+      </c>
+      <c r="B337" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C337" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D337" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E337" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="F337" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="G337" s="9">
+        <v>2.7</v>
+      </c>
+      <c r="H337" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I337" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A338" s="7">
+        <v>45817</v>
+      </c>
+      <c r="B338" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C338" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="D338" s="8"/>
       <c r="E338" s="8"/>
-      <c r="F338" s="8"/>
-      <c r="G338" s="9"/>
-      <c r="H338" s="8"/>
-      <c r="I338" s="8"/>
-    </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A339" s="8"/>
-      <c r="B339" s="8"/>
-      <c r="C339" s="8"/>
+      <c r="F338" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G338" s="9">
+        <v>6.6</v>
+      </c>
+      <c r="H338" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I338" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A339" s="7">
+        <v>45818</v>
+      </c>
+      <c r="B339" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C339" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="D339" s="8"/>
       <c r="E339" s="8"/>
-      <c r="F339" s="8"/>
-      <c r="G339" s="9"/>
-      <c r="H339" s="8"/>
-      <c r="I339" s="8"/>
-    </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A340" s="8"/>
-      <c r="B340" s="8"/>
-      <c r="C340" s="8"/>
+      <c r="F339" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G339" s="9">
+        <v>15.19</v>
+      </c>
+      <c r="H339" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I339" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="340" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A340" s="7">
+        <v>45818</v>
+      </c>
+      <c r="B340" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C340" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="D340" s="8"/>
       <c r="E340" s="8"/>
-      <c r="F340" s="8"/>
-      <c r="G340" s="9"/>
-      <c r="H340" s="8"/>
-      <c r="I340" s="8"/>
-    </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A341" s="8"/>
-      <c r="B341" s="8"/>
-      <c r="C341" s="8"/>
+      <c r="F340" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="G340" s="9">
+        <v>7.73</v>
+      </c>
+      <c r="H340" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I340" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="341" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A341" s="7">
+        <v>45819</v>
+      </c>
+      <c r="B341" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C341" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="D341" s="8"/>
       <c r="E341" s="8"/>
-      <c r="F341" s="8"/>
-      <c r="G341" s="9"/>
-      <c r="H341" s="8"/>
-      <c r="I341" s="8"/>
-    </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A342" s="8"/>
-      <c r="B342" s="8"/>
-      <c r="C342" s="8"/>
+      <c r="F341" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G341" s="9">
+        <v>12</v>
+      </c>
+      <c r="H341" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I341" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="342" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A342" s="7">
+        <v>45819</v>
+      </c>
+      <c r="B342" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C342" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="D342" s="8"/>
       <c r="E342" s="8"/>
-      <c r="F342" s="8"/>
-      <c r="G342" s="9"/>
-      <c r="H342" s="8"/>
-      <c r="I342" s="8"/>
-    </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A343" s="8"/>
-      <c r="B343" s="8"/>
-      <c r="C343" s="8"/>
+      <c r="F342" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="G342" s="9">
+        <v>17.989999999999998</v>
+      </c>
+      <c r="H342" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I342" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="343" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A343" s="7">
+        <v>45820</v>
+      </c>
+      <c r="B343" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C343" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="D343" s="8"/>
       <c r="E343" s="8"/>
-      <c r="F343" s="8"/>
-      <c r="G343" s="9"/>
-      <c r="H343" s="8"/>
-      <c r="I343" s="8"/>
-    </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A344" s="8"/>
-      <c r="B344" s="8"/>
-      <c r="C344" s="8"/>
+      <c r="F343" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G343" s="9">
+        <v>12.54</v>
+      </c>
+      <c r="H343" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I343" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="344" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A344" s="7">
+        <v>45820</v>
+      </c>
+      <c r="B344" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C344" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="D344" s="8"/>
       <c r="E344" s="8"/>
-      <c r="F344" s="8"/>
-      <c r="G344" s="9"/>
-      <c r="H344" s="8"/>
-      <c r="I344" s="8"/>
-    </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A345" s="8"/>
-      <c r="B345" s="8"/>
-      <c r="C345" s="8"/>
+      <c r="F344" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G344" s="9">
+        <v>17.28</v>
+      </c>
+      <c r="H344" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I344" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="345" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A345" s="7">
+        <v>45821</v>
+      </c>
+      <c r="B345" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C345" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="D345" s="8"/>
       <c r="E345" s="8"/>
-      <c r="F345" s="8"/>
-      <c r="G345" s="9"/>
-      <c r="H345" s="8"/>
-      <c r="I345" s="8"/>
-    </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A346" s="8"/>
-      <c r="B346" s="8"/>
-      <c r="C346" s="8"/>
+      <c r="F345" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="G345" s="9">
+        <v>15</v>
+      </c>
+      <c r="H345" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I345" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="346" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A346" s="7">
+        <v>45823</v>
+      </c>
+      <c r="B346" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C346" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="D346" s="8"/>
       <c r="E346" s="8"/>
-      <c r="F346" s="8"/>
-      <c r="G346" s="9"/>
-      <c r="H346" s="8"/>
-      <c r="I346" s="8"/>
-    </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A347" s="8"/>
-      <c r="B347" s="8"/>
-      <c r="C347" s="8"/>
+      <c r="F346" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="G346" s="9">
+        <v>6.5</v>
+      </c>
+      <c r="H346" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I346" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="347" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A347" s="7">
+        <v>45823</v>
+      </c>
+      <c r="B347" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C347" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="D347" s="8"/>
       <c r="E347" s="8"/>
-      <c r="F347" s="8"/>
-      <c r="G347" s="9"/>
-      <c r="H347" s="8"/>
-      <c r="I347" s="8"/>
-    </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A348" s="8"/>
-      <c r="B348" s="8"/>
-      <c r="C348" s="8"/>
+      <c r="F347" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="G347" s="9">
+        <v>17.2</v>
+      </c>
+      <c r="H347" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I347" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="348" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A348" s="7">
+        <v>45825</v>
+      </c>
+      <c r="B348" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C348" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="D348" s="8"/>
       <c r="E348" s="8"/>
-      <c r="F348" s="8"/>
-      <c r="G348" s="9"/>
-      <c r="H348" s="8"/>
-      <c r="I348" s="8"/>
-    </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A349" s="8"/>
-      <c r="B349" s="8"/>
-      <c r="C349" s="8"/>
+      <c r="F348" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G348" s="9">
+        <v>3.65</v>
+      </c>
+      <c r="H348" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I348" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="349" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A349" s="7">
+        <v>45825</v>
+      </c>
+      <c r="B349" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C349" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="D349" s="8"/>
       <c r="E349" s="8"/>
-      <c r="F349" s="8"/>
-      <c r="G349" s="9"/>
-      <c r="H349" s="8"/>
-      <c r="I349" s="8"/>
-    </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A350" s="8"/>
-      <c r="B350" s="8"/>
-      <c r="C350" s="8"/>
+      <c r="F349" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G349" s="9">
+        <v>10.01</v>
+      </c>
+      <c r="H349" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I349" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="350" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A350" s="7">
+        <v>45826</v>
+      </c>
+      <c r="B350" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C350" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="D350" s="8"/>
       <c r="E350" s="8"/>
-      <c r="F350" s="8"/>
-      <c r="G350" s="9"/>
-      <c r="H350" s="8"/>
-      <c r="I350" s="8"/>
-    </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A351" s="8"/>
-      <c r="B351" s="8"/>
-      <c r="C351" s="8"/>
+      <c r="F350" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="G350" s="9">
+        <v>11.49</v>
+      </c>
+      <c r="H350" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I350" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="351" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A351" s="7">
+        <v>45826</v>
+      </c>
+      <c r="B351" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C351" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="D351" s="8"/>
       <c r="E351" s="8"/>
-      <c r="F351" s="8"/>
-      <c r="G351" s="9"/>
-      <c r="H351" s="8"/>
-      <c r="I351" s="8"/>
-    </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A352" s="8"/>
-      <c r="B352" s="8"/>
-      <c r="C352" s="8"/>
+      <c r="F351" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="G351" s="9">
+        <v>10.94</v>
+      </c>
+      <c r="H351" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I351" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="352" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A352" s="7">
+        <v>45826</v>
+      </c>
+      <c r="B352" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C352" s="8" t="s">
+        <v>39</v>
+      </c>
       <c r="D352" s="8"/>
       <c r="E352" s="8"/>
-      <c r="F352" s="8"/>
-      <c r="G352" s="9"/>
-      <c r="H352" s="8"/>
-      <c r="I352" s="8"/>
-    </row>
-    <row r="353" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A353" s="8"/>
-      <c r="B353" s="8"/>
-      <c r="C353" s="8"/>
+      <c r="F352" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="G352" s="9">
+        <v>5.95</v>
+      </c>
+      <c r="H352" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I352" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="353" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A353" s="7">
+        <v>45826</v>
+      </c>
+      <c r="B353" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C353" s="8" t="s">
+        <v>39</v>
+      </c>
       <c r="D353" s="8"/>
       <c r="E353" s="8"/>
-      <c r="F353" s="8"/>
-      <c r="G353" s="9"/>
-      <c r="H353" s="8"/>
-      <c r="I353" s="8"/>
-    </row>
-    <row r="354" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A354" s="8"/>
-      <c r="B354" s="8"/>
-      <c r="C354" s="8"/>
+      <c r="F353" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G353" s="9">
+        <v>2.95</v>
+      </c>
+      <c r="H353" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I353" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="354" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A354" s="7">
+        <v>45827</v>
+      </c>
+      <c r="B354" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C354" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="D354" s="8"/>
       <c r="E354" s="8"/>
-      <c r="F354" s="8"/>
-      <c r="G354" s="9"/>
-      <c r="H354" s="8"/>
-      <c r="I354" s="8"/>
-    </row>
-    <row r="355" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A355" s="8"/>
-      <c r="B355" s="8"/>
-      <c r="C355" s="8"/>
+      <c r="F354" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="G354" s="9">
+        <v>44.9</v>
+      </c>
+      <c r="H354" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I354" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="355" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A355" s="7">
+        <v>45827</v>
+      </c>
+      <c r="B355" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C355" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="D355" s="8"/>
       <c r="E355" s="8"/>
-      <c r="F355" s="8"/>
-      <c r="G355" s="9"/>
-      <c r="H355" s="8"/>
-      <c r="I355" s="8"/>
-    </row>
-    <row r="356" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A356" s="8"/>
-      <c r="B356" s="8"/>
-      <c r="C356" s="8"/>
+      <c r="F355" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="G355" s="9">
+        <v>100</v>
+      </c>
+      <c r="H355" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I355" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="356" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A356" s="7">
+        <v>45827</v>
+      </c>
+      <c r="B356" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C356" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="D356" s="8"/>
       <c r="E356" s="8"/>
-      <c r="F356" s="8"/>
-      <c r="G356" s="9"/>
-      <c r="H356" s="8"/>
-      <c r="I356" s="8"/>
-    </row>
-    <row r="357" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A357" s="8"/>
-      <c r="B357" s="8"/>
-      <c r="C357" s="8"/>
+      <c r="F356" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G356" s="9">
+        <v>10.15</v>
+      </c>
+      <c r="H356" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I356" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="357" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A357" s="7">
+        <v>45827</v>
+      </c>
+      <c r="B357" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C357" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="D357" s="8"/>
       <c r="E357" s="8"/>
-      <c r="F357" s="8"/>
-      <c r="G357" s="9"/>
-      <c r="H357" s="8"/>
-      <c r="I357" s="8"/>
-    </row>
-    <row r="358" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A358" s="8"/>
-      <c r="B358" s="8"/>
-      <c r="C358" s="8"/>
+      <c r="F357" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="G357" s="9">
+        <v>23.4</v>
+      </c>
+      <c r="H357" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I357" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="358" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A358" s="7">
+        <v>45828</v>
+      </c>
+      <c r="B358" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C358" s="8" t="s">
+        <v>39</v>
+      </c>
       <c r="D358" s="8"/>
       <c r="E358" s="8"/>
-      <c r="F358" s="8"/>
-      <c r="G358" s="9"/>
-      <c r="H358" s="8"/>
-      <c r="I358" s="8"/>
-    </row>
-    <row r="359" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A359" s="8"/>
-      <c r="B359" s="8"/>
-      <c r="C359" s="8"/>
+      <c r="F358" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="G358" s="9">
+        <v>5.05</v>
+      </c>
+      <c r="H358" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I358" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="359" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A359" s="7">
+        <v>45828</v>
+      </c>
+      <c r="B359" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C359" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="D359" s="8"/>
       <c r="E359" s="8"/>
-      <c r="F359" s="8"/>
-      <c r="G359" s="9"/>
-      <c r="H359" s="8"/>
-      <c r="I359" s="8"/>
-    </row>
-    <row r="360" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A360" s="8"/>
-      <c r="B360" s="8"/>
-      <c r="C360" s="8"/>
-      <c r="D360" s="8"/>
-      <c r="E360" s="8"/>
-      <c r="F360" s="8"/>
-      <c r="G360" s="9"/>
-      <c r="H360" s="8"/>
-      <c r="I360" s="8"/>
-    </row>
-    <row r="361" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A361" s="8"/>
-      <c r="B361" s="8"/>
-      <c r="C361" s="8"/>
-      <c r="D361" s="8"/>
-      <c r="E361" s="8"/>
-      <c r="F361" s="8"/>
-      <c r="G361" s="9"/>
-      <c r="H361" s="8"/>
-      <c r="I361" s="8"/>
-    </row>
-    <row r="362" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A362" s="8"/>
-      <c r="B362" s="8"/>
-      <c r="C362" s="8"/>
+      <c r="F359" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="G359" s="9">
+        <v>5.36</v>
+      </c>
+      <c r="H359" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I359" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="360" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A360" s="7">
+        <v>45828</v>
+      </c>
+      <c r="B360" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C360" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D360" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E360" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="F360" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="G360" s="9">
+        <v>4.5</v>
+      </c>
+      <c r="H360" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I360" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="361" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A361" s="7">
+        <v>45828</v>
+      </c>
+      <c r="B361" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C361" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D361" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E361" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="F361" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="G361" s="9">
+        <v>50</v>
+      </c>
+      <c r="H361" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I361" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="362" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A362" s="7">
+        <v>45828</v>
+      </c>
+      <c r="B362" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C362" s="8" t="s">
+        <v>17</v>
+      </c>
       <c r="D362" s="8"/>
       <c r="E362" s="8"/>
-      <c r="F362" s="8"/>
-      <c r="G362" s="9"/>
-      <c r="H362" s="8"/>
-      <c r="I362" s="8"/>
-    </row>
-    <row r="363" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A363" s="8"/>
-      <c r="B363" s="8"/>
-      <c r="C363" s="8"/>
-      <c r="D363" s="8"/>
-      <c r="E363" s="8"/>
-      <c r="F363" s="8"/>
-      <c r="G363" s="9"/>
-      <c r="H363" s="8"/>
-      <c r="I363" s="8"/>
-    </row>
-    <row r="364" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A364" s="8"/>
-      <c r="B364" s="8"/>
-      <c r="C364" s="8"/>
-      <c r="D364" s="8"/>
-      <c r="E364" s="8"/>
-      <c r="F364" s="8"/>
-      <c r="G364" s="9"/>
-      <c r="H364" s="8"/>
-      <c r="I364" s="8"/>
-    </row>
-    <row r="365" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A365" s="8"/>
-      <c r="B365" s="8"/>
-      <c r="C365" s="8"/>
-      <c r="D365" s="8"/>
-      <c r="E365" s="8"/>
-      <c r="F365" s="8"/>
-      <c r="G365" s="9"/>
-      <c r="H365" s="8"/>
-      <c r="I365" s="8"/>
-    </row>
-    <row r="366" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A366" s="8"/>
-      <c r="B366" s="8"/>
-      <c r="C366" s="8"/>
-      <c r="D366" s="8"/>
-      <c r="E366" s="8"/>
-      <c r="F366" s="8"/>
-      <c r="G366" s="9"/>
-      <c r="H366" s="8"/>
-      <c r="I366" s="8"/>
-    </row>
-    <row r="367" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A367" s="8"/>
-      <c r="B367" s="8"/>
-      <c r="C367" s="8"/>
+      <c r="F362" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="G362" s="9">
+        <v>10</v>
+      </c>
+      <c r="H362" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I362" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="363" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A363" s="7">
+        <v>45828</v>
+      </c>
+      <c r="B363" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C363" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D363" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E363" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="F363" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="G363" s="9">
+        <v>30</v>
+      </c>
+      <c r="H363" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I363" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="364" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A364" s="7">
+        <v>45829</v>
+      </c>
+      <c r="B364" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C364" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D364" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E364" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="F364" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G364" s="9">
+        <v>3</v>
+      </c>
+      <c r="H364" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I364" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="365" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A365" s="7">
+        <v>45830</v>
+      </c>
+      <c r="B365" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C365" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D365" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E365" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="F365" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="G365" s="9">
+        <v>23.6</v>
+      </c>
+      <c r="H365" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I365" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="366" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A366" s="7">
+        <v>45830</v>
+      </c>
+      <c r="B366" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C366" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D366" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E366" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="F366" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G366" s="9">
+        <v>12</v>
+      </c>
+      <c r="H366" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I366" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="367" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A367" s="7">
+        <v>45831</v>
+      </c>
+      <c r="B367" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C367" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="D367" s="8"/>
       <c r="E367" s="8"/>
-      <c r="F367" s="8"/>
-      <c r="G367" s="9"/>
-      <c r="H367" s="8"/>
-      <c r="I367" s="8"/>
-    </row>
-    <row r="368" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A368" s="8"/>
-      <c r="B368" s="8"/>
-      <c r="C368" s="8"/>
+      <c r="F367" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="G367" s="9">
+        <v>29.8</v>
+      </c>
+      <c r="H367" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I367" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="368" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A368" s="7">
+        <v>45831</v>
+      </c>
+      <c r="B368" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C368" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="D368" s="8"/>
       <c r="E368" s="8"/>
-      <c r="F368" s="8"/>
-      <c r="G368" s="9"/>
-      <c r="H368" s="8"/>
-      <c r="I368" s="8"/>
-    </row>
-    <row r="369" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A369" s="8"/>
-      <c r="B369" s="8"/>
-      <c r="C369" s="8"/>
+      <c r="F368" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="G368" s="9">
+        <v>12</v>
+      </c>
+      <c r="H368" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I368" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="369" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A369" s="7">
+        <v>45831</v>
+      </c>
+      <c r="B369" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C369" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="D369" s="8"/>
       <c r="E369" s="8"/>
-      <c r="F369" s="8"/>
-      <c r="G369" s="9"/>
-      <c r="H369" s="8"/>
-      <c r="I369" s="8"/>
-    </row>
-    <row r="370" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A370" s="8"/>
-      <c r="B370" s="8"/>
-      <c r="C370" s="8"/>
+      <c r="F369" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="G369" s="9">
+        <v>5.98</v>
+      </c>
+      <c r="H369" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I369" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="370" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A370" s="7">
+        <v>45831</v>
+      </c>
+      <c r="B370" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C370" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="D370" s="8"/>
       <c r="E370" s="8"/>
-      <c r="F370" s="8"/>
-      <c r="G370" s="9"/>
-      <c r="H370" s="8"/>
-      <c r="I370" s="8"/>
-    </row>
-    <row r="371" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A371" s="8"/>
-      <c r="B371" s="8"/>
-      <c r="C371" s="8"/>
+      <c r="F370" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="G370" s="9">
+        <v>13</v>
+      </c>
+      <c r="H370" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I370" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="371" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A371" s="7">
+        <v>45831</v>
+      </c>
+      <c r="B371" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C371" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="D371" s="8"/>
       <c r="E371" s="8"/>
-      <c r="F371" s="8"/>
-      <c r="G371" s="9"/>
-      <c r="H371" s="8"/>
-      <c r="I371" s="8"/>
-    </row>
-    <row r="372" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A372" s="8"/>
-      <c r="B372" s="8"/>
-      <c r="C372" s="8"/>
+      <c r="F371" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="G371" s="9">
+        <v>6.9</v>
+      </c>
+      <c r="H371" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I371" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="372" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A372" s="7">
+        <v>45833</v>
+      </c>
+      <c r="B372" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C372" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="D372" s="8"/>
       <c r="E372" s="8"/>
-      <c r="F372" s="8"/>
-      <c r="G372" s="9"/>
-      <c r="H372" s="8"/>
-      <c r="I372" s="8"/>
-    </row>
-    <row r="373" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A373" s="8"/>
-      <c r="B373" s="8"/>
-      <c r="C373" s="8"/>
+      <c r="F372" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="G372" s="9">
+        <v>25.73</v>
+      </c>
+      <c r="H372" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I372" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="373" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A373" s="7">
+        <v>45833</v>
+      </c>
+      <c r="B373" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C373" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="D373" s="8"/>
       <c r="E373" s="8"/>
-      <c r="F373" s="8"/>
-      <c r="G373" s="9"/>
-      <c r="H373" s="8"/>
-      <c r="I373" s="8"/>
-    </row>
-    <row r="374" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A374" s="8"/>
-      <c r="B374" s="8"/>
-      <c r="C374" s="8"/>
+      <c r="F373" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="G373" s="9">
+        <v>15.25</v>
+      </c>
+      <c r="H373" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I373" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="374" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A374" s="7">
+        <v>45833</v>
+      </c>
+      <c r="B374" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C374" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="D374" s="8"/>
       <c r="E374" s="8"/>
-      <c r="F374" s="8"/>
-      <c r="G374" s="9"/>
-      <c r="H374" s="8"/>
-      <c r="I374" s="8"/>
-    </row>
-    <row r="375" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A375" s="8"/>
-      <c r="B375" s="8"/>
-      <c r="C375" s="8"/>
+      <c r="F374" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="G374" s="9">
+        <v>1.2</v>
+      </c>
+      <c r="H374" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I374" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="375" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A375" s="7">
+        <v>45833</v>
+      </c>
+      <c r="B375" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C375" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="D375" s="8"/>
       <c r="E375" s="8"/>
-      <c r="F375" s="8"/>
-      <c r="G375" s="9"/>
-      <c r="H375" s="8"/>
-      <c r="I375" s="8"/>
-    </row>
-    <row r="376" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A376" s="8"/>
-      <c r="B376" s="8"/>
-      <c r="C376" s="8"/>
+      <c r="F375" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="G375" s="9">
+        <v>7</v>
+      </c>
+      <c r="H375" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I375" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="376" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A376" s="7">
+        <v>45834</v>
+      </c>
+      <c r="B376" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C376" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="D376" s="8"/>
       <c r="E376" s="8"/>
-      <c r="F376" s="8"/>
-      <c r="G376" s="9"/>
-      <c r="H376" s="8"/>
-      <c r="I376" s="8"/>
-    </row>
-    <row r="377" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A377" s="8"/>
-      <c r="B377" s="8"/>
-      <c r="C377" s="8"/>
-      <c r="D377" s="8"/>
-      <c r="E377" s="8"/>
-      <c r="F377" s="8"/>
-      <c r="G377" s="9"/>
-      <c r="H377" s="8"/>
-      <c r="I377" s="8"/>
-    </row>
-    <row r="378" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A378" s="8"/>
-      <c r="B378" s="8"/>
-      <c r="C378" s="8"/>
-      <c r="D378" s="8"/>
-      <c r="E378" s="8"/>
-      <c r="F378" s="8"/>
-      <c r="G378" s="9"/>
-      <c r="H378" s="8"/>
-      <c r="I378" s="8"/>
-    </row>
-    <row r="379" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A379" s="8"/>
-      <c r="B379" s="8"/>
-      <c r="C379" s="8"/>
-      <c r="D379" s="8"/>
-      <c r="E379" s="8"/>
-      <c r="F379" s="8"/>
-      <c r="G379" s="9"/>
-      <c r="H379" s="8"/>
-      <c r="I379" s="8"/>
-    </row>
-    <row r="380" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A380" s="8"/>
-      <c r="B380" s="8"/>
-      <c r="C380" s="8"/>
-      <c r="D380" s="8"/>
-      <c r="E380" s="8"/>
-      <c r="F380" s="8"/>
-      <c r="G380" s="9"/>
-      <c r="H380" s="8"/>
-      <c r="I380" s="8"/>
-    </row>
-    <row r="381" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A381" s="8"/>
-      <c r="B381" s="8"/>
-      <c r="C381" s="8"/>
-      <c r="D381" s="8"/>
-      <c r="E381" s="8"/>
-      <c r="F381" s="8"/>
-      <c r="G381" s="9"/>
-      <c r="H381" s="8"/>
-      <c r="I381" s="8"/>
-    </row>
-    <row r="382" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A382" s="8"/>
-      <c r="B382" s="8"/>
-      <c r="C382" s="8"/>
-      <c r="D382" s="8"/>
-      <c r="E382" s="8"/>
-      <c r="F382" s="8"/>
-      <c r="G382" s="9"/>
-      <c r="H382" s="8"/>
-      <c r="I382" s="8"/>
-    </row>
-    <row r="383" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A383" s="8"/>
-      <c r="B383" s="8"/>
-      <c r="C383" s="8"/>
-      <c r="D383" s="8"/>
-      <c r="E383" s="8"/>
-      <c r="F383" s="8"/>
-      <c r="G383" s="9"/>
-      <c r="H383" s="8"/>
-      <c r="I383" s="8"/>
-    </row>
-    <row r="384" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A384" s="8"/>
-      <c r="B384" s="8"/>
-      <c r="C384" s="8"/>
-      <c r="D384" s="8"/>
-      <c r="E384" s="8"/>
-      <c r="F384" s="8"/>
-      <c r="G384" s="9"/>
-      <c r="H384" s="8"/>
-      <c r="I384" s="8"/>
-    </row>
-    <row r="385" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A385" s="8"/>
-      <c r="B385" s="8"/>
-      <c r="C385" s="8"/>
-      <c r="D385" s="8"/>
-      <c r="E385" s="8"/>
-      <c r="F385" s="8"/>
-      <c r="G385" s="9"/>
-      <c r="H385" s="8"/>
-      <c r="I385" s="8"/>
-    </row>
-    <row r="386" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A386" s="8"/>
-      <c r="B386" s="8"/>
-      <c r="C386" s="8"/>
-      <c r="D386" s="8"/>
-      <c r="E386" s="8"/>
-      <c r="F386" s="8"/>
-      <c r="G386" s="9"/>
-      <c r="H386" s="8"/>
-      <c r="I386" s="8"/>
-    </row>
-    <row r="387" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A387" s="8"/>
-      <c r="B387" s="8"/>
-      <c r="C387" s="8"/>
-      <c r="D387" s="8"/>
-      <c r="E387" s="8"/>
-      <c r="F387" s="8"/>
-      <c r="G387" s="9"/>
-      <c r="H387" s="8"/>
-      <c r="I387" s="8"/>
-    </row>
-    <row r="388" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A388" s="8"/>
-      <c r="B388" s="8"/>
-      <c r="C388" s="8"/>
-      <c r="D388" s="8"/>
-      <c r="E388" s="8"/>
-      <c r="F388" s="8"/>
-      <c r="G388" s="9"/>
-      <c r="H388" s="8"/>
-      <c r="I388" s="8"/>
-    </row>
-    <row r="389" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A389" s="8"/>
-      <c r="B389" s="8"/>
-      <c r="C389" s="8"/>
-      <c r="D389" s="8"/>
-      <c r="E389" s="8"/>
-      <c r="F389" s="8"/>
-      <c r="G389" s="9"/>
-      <c r="H389" s="8"/>
-      <c r="I389" s="8"/>
-    </row>
-    <row r="390" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A390" s="8"/>
-      <c r="B390" s="8"/>
-      <c r="C390" s="8"/>
-      <c r="D390" s="8"/>
-      <c r="E390" s="8"/>
-      <c r="F390" s="8"/>
-      <c r="G390" s="9"/>
-      <c r="H390" s="8"/>
-      <c r="I390" s="8"/>
-    </row>
-    <row r="391" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A391" s="8"/>
-      <c r="B391" s="8"/>
-      <c r="C391" s="8"/>
-      <c r="D391" s="8"/>
-      <c r="E391" s="8"/>
-      <c r="F391" s="8"/>
-      <c r="G391" s="9"/>
-      <c r="H391" s="8"/>
-      <c r="I391" s="8"/>
-    </row>
-    <row r="392" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A392" s="8"/>
-      <c r="B392" s="8"/>
-      <c r="C392" s="8"/>
-      <c r="D392" s="8"/>
-      <c r="E392" s="8"/>
-      <c r="F392" s="8"/>
-      <c r="G392" s="9"/>
-      <c r="H392" s="8"/>
-      <c r="I392" s="8"/>
-    </row>
-    <row r="393" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A393" s="8"/>
-      <c r="B393" s="8"/>
-      <c r="C393" s="8"/>
-      <c r="D393" s="8"/>
-      <c r="E393" s="8"/>
-      <c r="F393" s="8"/>
-      <c r="G393" s="9"/>
-      <c r="H393" s="8"/>
-      <c r="I393" s="8"/>
-    </row>
-    <row r="394" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A394" s="8"/>
-      <c r="B394" s="8"/>
-      <c r="C394" s="8"/>
-      <c r="D394" s="8"/>
-      <c r="E394" s="8"/>
-      <c r="F394" s="8"/>
-      <c r="G394" s="9"/>
-      <c r="H394" s="8"/>
-      <c r="I394" s="8"/>
-    </row>
-    <row r="395" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A395" s="8"/>
-      <c r="B395" s="8"/>
-      <c r="C395" s="8"/>
-      <c r="D395" s="8"/>
-      <c r="E395" s="8"/>
-      <c r="F395" s="8"/>
-      <c r="G395" s="9"/>
-      <c r="H395" s="8"/>
-      <c r="I395" s="8"/>
-    </row>
-    <row r="396" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A396" s="8"/>
-      <c r="B396" s="8"/>
-      <c r="C396" s="8"/>
-      <c r="D396" s="8"/>
-      <c r="E396" s="8"/>
-      <c r="F396" s="8"/>
-      <c r="G396" s="9"/>
-      <c r="H396" s="8"/>
-      <c r="I396" s="8"/>
-    </row>
-    <row r="397" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A397" s="8"/>
-      <c r="B397" s="8"/>
-      <c r="C397" s="8"/>
+      <c r="F376" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="G376" s="9">
+        <v>11.9</v>
+      </c>
+      <c r="H376" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I376" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="377" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A377" s="7">
+        <v>45834</v>
+      </c>
+      <c r="B377" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C377" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D377" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E377" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="F377" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G377" s="9">
+        <v>38.43</v>
+      </c>
+      <c r="H377" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I377" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="378" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A378" s="7">
+        <v>45834</v>
+      </c>
+      <c r="B378" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C378" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D378" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E378" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="F378" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="G378" s="9">
+        <v>13.75</v>
+      </c>
+      <c r="H378" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I378" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="379" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A379" s="7">
+        <v>45834</v>
+      </c>
+      <c r="B379" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C379" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D379" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E379" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="F379" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="G379" s="9">
+        <v>1.4</v>
+      </c>
+      <c r="H379" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I379" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="380" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A380" s="7">
+        <v>45834</v>
+      </c>
+      <c r="B380" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C380" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D380" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E380" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="F380" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="G380" s="9">
+        <v>2</v>
+      </c>
+      <c r="H380" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I380" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="381" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A381" s="7">
+        <v>45835</v>
+      </c>
+      <c r="B381" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C381" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D381" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E381" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="F381" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G381" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="H381" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I381" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="382" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A382" s="7">
+        <v>45835</v>
+      </c>
+      <c r="B382" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C382" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D382" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E382" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="F382" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="G382" s="9">
+        <v>13.25</v>
+      </c>
+      <c r="H382" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I382" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="383" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A383" s="7">
+        <v>45835</v>
+      </c>
+      <c r="B383" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C383" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D383" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E383" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="F383" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="G383" s="9">
+        <v>1.4</v>
+      </c>
+      <c r="H383" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I383" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="384" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A384" s="7">
+        <v>45835</v>
+      </c>
+      <c r="B384" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C384" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D384" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E384" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="F384" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="G384" s="9">
+        <v>34.4</v>
+      </c>
+      <c r="H384" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I384" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="385" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A385" s="7">
+        <v>45835</v>
+      </c>
+      <c r="B385" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C385" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D385" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="E385" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="F385" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="G385" s="9">
+        <v>3.46</v>
+      </c>
+      <c r="H385" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I385" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="386" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A386" s="7">
+        <v>45836</v>
+      </c>
+      <c r="B386" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C386" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D386" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E386" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="F386" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G386" s="9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H386" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I386" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="387" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A387" s="7">
+        <v>45836</v>
+      </c>
+      <c r="B387" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C387" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D387" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E387" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="F387" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="G387" s="9">
+        <v>7</v>
+      </c>
+      <c r="H387" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I387" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="388" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A388" s="7">
+        <v>45836</v>
+      </c>
+      <c r="B388" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C388" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D388" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E388" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="F388" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="G388" s="9">
+        <v>16.2</v>
+      </c>
+      <c r="H388" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I388" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="389" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A389" s="7">
+        <v>45836</v>
+      </c>
+      <c r="B389" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C389" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D389" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E389" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="F389" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="G389" s="9">
+        <v>8</v>
+      </c>
+      <c r="H389" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I389" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="390" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A390" s="7">
+        <v>45836</v>
+      </c>
+      <c r="B390" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C390" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D390" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E390" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="F390" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="G390" s="9">
+        <v>17</v>
+      </c>
+      <c r="H390" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I390" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="391" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A391" s="7">
+        <v>45836</v>
+      </c>
+      <c r="B391" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C391" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D391" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E391" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="F391" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="G391" s="9">
+        <v>6</v>
+      </c>
+      <c r="H391" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I391" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="392" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A392" s="7">
+        <v>45837</v>
+      </c>
+      <c r="B392" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C392" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D392" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E392" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="F392" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="G392" s="9">
+        <v>6</v>
+      </c>
+      <c r="H392" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I392" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="393" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A393" s="7">
+        <v>45838</v>
+      </c>
+      <c r="B393" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C393" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D393" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E393" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="F393" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="G393" s="9">
+        <v>8.25</v>
+      </c>
+      <c r="H393" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I393" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="394" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A394" s="7">
+        <v>45838</v>
+      </c>
+      <c r="B394" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C394" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D394" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="E394" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="F394" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="G394" s="9">
+        <v>3.2</v>
+      </c>
+      <c r="H394" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I394" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="395" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A395" s="7">
+        <v>45838</v>
+      </c>
+      <c r="B395" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C395" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D395" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E395" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="F395" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="G395" s="9">
+        <v>5.44</v>
+      </c>
+      <c r="H395" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I395" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="396" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A396" s="7">
+        <v>45838</v>
+      </c>
+      <c r="B396" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C396" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D396" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E396" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="F396" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="G396" s="9">
+        <v>14</v>
+      </c>
+      <c r="H396" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I396" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="397" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A397" s="7">
+        <v>45833</v>
+      </c>
+      <c r="B397" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C397" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="D397" s="8"/>
       <c r="E397" s="8"/>
-      <c r="F397" s="8"/>
-      <c r="G397" s="9"/>
-      <c r="H397" s="8"/>
-      <c r="I397" s="8"/>
-    </row>
-    <row r="398" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A398" s="8"/>
-      <c r="B398" s="8"/>
-      <c r="C398" s="8"/>
-      <c r="D398" s="8"/>
-      <c r="E398" s="8"/>
-      <c r="F398" s="8"/>
-      <c r="G398" s="9"/>
-      <c r="H398" s="8"/>
-      <c r="I398" s="8"/>
-    </row>
-    <row r="399" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A399" s="8"/>
-      <c r="B399" s="8"/>
-      <c r="C399" s="8"/>
-      <c r="D399" s="8"/>
-      <c r="E399" s="8"/>
-      <c r="F399" s="8"/>
-      <c r="G399" s="9"/>
-      <c r="H399" s="8"/>
-      <c r="I399" s="8"/>
-    </row>
-    <row r="400" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A400" s="8"/>
-      <c r="B400" s="8"/>
-      <c r="C400" s="8"/>
-      <c r="D400" s="8"/>
-      <c r="E400" s="8"/>
-      <c r="F400" s="8"/>
-      <c r="G400" s="9"/>
-      <c r="H400" s="8"/>
-      <c r="I400" s="8"/>
-    </row>
-    <row r="401" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A401" s="8"/>
-      <c r="B401" s="8"/>
-      <c r="C401" s="8"/>
-      <c r="D401" s="8"/>
-      <c r="E401" s="8"/>
-      <c r="F401" s="8"/>
-      <c r="G401" s="9"/>
-      <c r="H401" s="8"/>
-      <c r="I401" s="8"/>
-    </row>
-    <row r="402" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="F397" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="G397" s="9">
+        <v>18.239999999999998</v>
+      </c>
+      <c r="H397" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I397" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="398" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A398" s="7">
+        <v>45836</v>
+      </c>
+      <c r="B398" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C398" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D398" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E398" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="F398" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="G398" s="9">
+        <v>12</v>
+      </c>
+      <c r="H398" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I398" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="399" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A399" s="7">
+        <v>45837</v>
+      </c>
+      <c r="B399" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C399" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D399" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E399" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="F399" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="G399" s="9">
+        <v>10.65</v>
+      </c>
+      <c r="H399" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I399" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="400" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A400" s="7">
+        <v>45837</v>
+      </c>
+      <c r="B400" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C400" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D400" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E400" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="F400" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="G400" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="H400" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I400" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="401" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A401" s="7">
+        <v>45838</v>
+      </c>
+      <c r="B401" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C401" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D401" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="E401" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="F401" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="G401" s="9">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="H401" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I401" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="402" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A402" s="8"/>
       <c r="B402" s="8"/>
       <c r="C402" s="8"/>
@@ -10252,7 +11954,7 @@
       <c r="H402" s="8"/>
       <c r="I402" s="8"/>
     </row>
-    <row r="403" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A403" s="8"/>
       <c r="B403" s="8"/>
       <c r="C403" s="8"/>
@@ -10263,7 +11965,7 @@
       <c r="H403" s="8"/>
       <c r="I403" s="8"/>
     </row>
-    <row r="404" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A404" s="8"/>
       <c r="B404" s="8"/>
       <c r="C404" s="8"/>
@@ -10274,7 +11976,7 @@
       <c r="H404" s="8"/>
       <c r="I404" s="8"/>
     </row>
-    <row r="405" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A405" s="8"/>
       <c r="B405" s="8"/>
       <c r="C405" s="8"/>
@@ -10285,7 +11987,7 @@
       <c r="H405" s="8"/>
       <c r="I405" s="8"/>
     </row>
-    <row r="406" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A406" s="8"/>
       <c r="B406" s="8"/>
       <c r="C406" s="8"/>
@@ -10296,7 +11998,7 @@
       <c r="H406" s="8"/>
       <c r="I406" s="8"/>
     </row>
-    <row r="407" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A407" s="8"/>
       <c r="B407" s="8"/>
       <c r="C407" s="8"/>
@@ -10307,7 +12009,7 @@
       <c r="H407" s="8"/>
       <c r="I407" s="8"/>
     </row>
-    <row r="408" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A408" s="8"/>
       <c r="B408" s="8"/>
       <c r="C408" s="8"/>
@@ -10318,7 +12020,7 @@
       <c r="H408" s="8"/>
       <c r="I408" s="8"/>
     </row>
-    <row r="409" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A409" s="8"/>
       <c r="B409" s="8"/>
       <c r="C409" s="8"/>
@@ -10329,7 +12031,7 @@
       <c r="H409" s="8"/>
       <c r="I409" s="8"/>
     </row>
-    <row r="410" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A410" s="8"/>
       <c r="B410" s="8"/>
       <c r="C410" s="8"/>
@@ -10340,7 +12042,7 @@
       <c r="H410" s="8"/>
       <c r="I410" s="8"/>
     </row>
-    <row r="411" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A411" s="8"/>
       <c r="B411" s="8"/>
       <c r="C411" s="8"/>
@@ -10351,7 +12053,7 @@
       <c r="H411" s="8"/>
       <c r="I411" s="8"/>
     </row>
-    <row r="412" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A412" s="8"/>
       <c r="B412" s="8"/>
       <c r="C412" s="8"/>
@@ -10362,7 +12064,7 @@
       <c r="H412" s="8"/>
       <c r="I412" s="8"/>
     </row>
-    <row r="413" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A413" s="8"/>
       <c r="B413" s="8"/>
       <c r="C413" s="8"/>
@@ -10373,7 +12075,7 @@
       <c r="H413" s="8"/>
       <c r="I413" s="8"/>
     </row>
-    <row r="414" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A414" s="8"/>
       <c r="B414" s="8"/>
       <c r="C414" s="8"/>
@@ -10384,7 +12086,7 @@
       <c r="H414" s="8"/>
       <c r="I414" s="8"/>
     </row>
-    <row r="415" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A415" s="8"/>
       <c r="B415" s="8"/>
       <c r="C415" s="8"/>
@@ -10395,7 +12097,7 @@
       <c r="H415" s="8"/>
       <c r="I415" s="8"/>
     </row>
-    <row r="416" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A416" s="8"/>
       <c r="B416" s="8"/>
       <c r="C416" s="8"/>
@@ -10406,7 +12108,7 @@
       <c r="H416" s="8"/>
       <c r="I416" s="8"/>
     </row>
-    <row r="417" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A417" s="8"/>
       <c r="B417" s="8"/>
       <c r="C417" s="8"/>
@@ -10417,7 +12119,7 @@
       <c r="H417" s="8"/>
       <c r="I417" s="8"/>
     </row>
-    <row r="418" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A418" s="8"/>
       <c r="B418" s="8"/>
       <c r="C418" s="8"/>
@@ -10428,7 +12130,7 @@
       <c r="H418" s="8"/>
       <c r="I418" s="8"/>
     </row>
-    <row r="419" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A419" s="8"/>
       <c r="B419" s="8"/>
       <c r="C419" s="8"/>
@@ -10439,7 +12141,7 @@
       <c r="H419" s="8"/>
       <c r="I419" s="8"/>
     </row>
-    <row r="420" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A420" s="8"/>
       <c r="B420" s="8"/>
       <c r="C420" s="8"/>
@@ -10450,7 +12152,7 @@
       <c r="H420" s="8"/>
       <c r="I420" s="8"/>
     </row>
-    <row r="421" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A421" s="8"/>
       <c r="B421" s="8"/>
       <c r="C421" s="8"/>
@@ -10461,7 +12163,7 @@
       <c r="H421" s="8"/>
       <c r="I421" s="8"/>
     </row>
-    <row r="422" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A422" s="8"/>
       <c r="B422" s="8"/>
       <c r="C422" s="8"/>
@@ -10472,7 +12174,7 @@
       <c r="H422" s="8"/>
       <c r="I422" s="8"/>
     </row>
-    <row r="423" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A423" s="8"/>
       <c r="B423" s="8"/>
       <c r="C423" s="8"/>
@@ -10483,7 +12185,7 @@
       <c r="H423" s="8"/>
       <c r="I423" s="8"/>
     </row>
-    <row r="424" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A424" s="8"/>
       <c r="B424" s="8"/>
       <c r="C424" s="8"/>
@@ -10494,7 +12196,7 @@
       <c r="H424" s="8"/>
       <c r="I424" s="8"/>
     </row>
-    <row r="425" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A425" s="8"/>
       <c r="B425" s="8"/>
       <c r="C425" s="8"/>
@@ -10505,7 +12207,7 @@
       <c r="H425" s="8"/>
       <c r="I425" s="8"/>
     </row>
-    <row r="426" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A426" s="8"/>
       <c r="B426" s="8"/>
       <c r="C426" s="8"/>
@@ -10516,7 +12218,7 @@
       <c r="H426" s="8"/>
       <c r="I426" s="8"/>
     </row>
-    <row r="427" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A427" s="8"/>
       <c r="B427" s="8"/>
       <c r="C427" s="8"/>
@@ -10527,7 +12229,7 @@
       <c r="H427" s="8"/>
       <c r="I427" s="8"/>
     </row>
-    <row r="428" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A428" s="8"/>
       <c r="B428" s="8"/>
       <c r="C428" s="8"/>
@@ -10538,7 +12240,7 @@
       <c r="H428" s="8"/>
       <c r="I428" s="8"/>
     </row>
-    <row r="429" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A429" s="8"/>
       <c r="B429" s="8"/>
       <c r="C429" s="8"/>
@@ -10549,7 +12251,7 @@
       <c r="H429" s="8"/>
       <c r="I429" s="8"/>
     </row>
-    <row r="430" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A430" s="8"/>
       <c r="B430" s="8"/>
       <c r="C430" s="8"/>
@@ -10560,7 +12262,7 @@
       <c r="H430" s="8"/>
       <c r="I430" s="8"/>
     </row>
-    <row r="431" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A431" s="8"/>
       <c r="B431" s="8"/>
       <c r="C431" s="8"/>
@@ -10571,7 +12273,7 @@
       <c r="H431" s="8"/>
       <c r="I431" s="8"/>
     </row>
-    <row r="432" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A432" s="8"/>
       <c r="B432" s="8"/>
       <c r="C432" s="8"/>
@@ -10582,7 +12284,7 @@
       <c r="H432" s="8"/>
       <c r="I432" s="8"/>
     </row>
-    <row r="433" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A433" s="8"/>
       <c r="B433" s="8"/>
       <c r="C433" s="8"/>
@@ -10593,7 +12295,7 @@
       <c r="H433" s="8"/>
       <c r="I433" s="8"/>
     </row>
-    <row r="434" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A434" s="8"/>
       <c r="B434" s="8"/>
       <c r="C434" s="8"/>
@@ -10604,7 +12306,7 @@
       <c r="H434" s="8"/>
       <c r="I434" s="8"/>
     </row>
-    <row r="435" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A435" s="8"/>
       <c r="B435" s="8"/>
       <c r="C435" s="8"/>
@@ -10615,7 +12317,7 @@
       <c r="H435" s="8"/>
       <c r="I435" s="8"/>
     </row>
-    <row r="436" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A436" s="8"/>
       <c r="B436" s="8"/>
       <c r="C436" s="8"/>
@@ -10626,7 +12328,7 @@
       <c r="H436" s="8"/>
       <c r="I436" s="8"/>
     </row>
-    <row r="437" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A437" s="8"/>
       <c r="B437" s="8"/>
       <c r="C437" s="8"/>
@@ -10637,7 +12339,7 @@
       <c r="H437" s="8"/>
       <c r="I437" s="8"/>
     </row>
-    <row r="438" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A438" s="8"/>
       <c r="B438" s="8"/>
       <c r="C438" s="8"/>
@@ -10648,7 +12350,7 @@
       <c r="H438" s="8"/>
       <c r="I438" s="8"/>
     </row>
-    <row r="439" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A439" s="8"/>
       <c r="B439" s="8"/>
       <c r="C439" s="8"/>
@@ -10659,7 +12361,7 @@
       <c r="H439" s="8"/>
       <c r="I439" s="8"/>
     </row>
-    <row r="440" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A440" s="8"/>
       <c r="B440" s="8"/>
       <c r="C440" s="8"/>
@@ -10670,7 +12372,7 @@
       <c r="H440" s="8"/>
       <c r="I440" s="8"/>
     </row>
-    <row r="441" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A441" s="8"/>
       <c r="B441" s="8"/>
       <c r="C441" s="8"/>
@@ -10681,7 +12383,7 @@
       <c r="H441" s="8"/>
       <c r="I441" s="8"/>
     </row>
-    <row r="442" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A442" s="8"/>
       <c r="B442" s="8"/>
       <c r="C442" s="8"/>
@@ -10692,7 +12394,7 @@
       <c r="H442" s="8"/>
       <c r="I442" s="8"/>
     </row>
-    <row r="443" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A443" s="8"/>
       <c r="B443" s="8"/>
       <c r="C443" s="8"/>
@@ -10703,7 +12405,7 @@
       <c r="H443" s="8"/>
       <c r="I443" s="8"/>
     </row>
-    <row r="444" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A444" s="8"/>
       <c r="B444" s="8"/>
       <c r="C444" s="8"/>
@@ -10714,7 +12416,7 @@
       <c r="H444" s="8"/>
       <c r="I444" s="8"/>
     </row>
-    <row r="445" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A445" s="8"/>
       <c r="B445" s="8"/>
       <c r="C445" s="8"/>
@@ -10725,7 +12427,7 @@
       <c r="H445" s="8"/>
       <c r="I445" s="8"/>
     </row>
-    <row r="446" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A446" s="8"/>
       <c r="B446" s="8"/>
       <c r="C446" s="8"/>
@@ -10736,7 +12438,7 @@
       <c r="H446" s="8"/>
       <c r="I446" s="8"/>
     </row>
-    <row r="447" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A447" s="8"/>
       <c r="B447" s="8"/>
       <c r="C447" s="8"/>
@@ -10747,7 +12449,7 @@
       <c r="H447" s="8"/>
       <c r="I447" s="8"/>
     </row>
-    <row r="448" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A448" s="8"/>
       <c r="B448" s="8"/>
       <c r="C448" s="8"/>
@@ -10758,7 +12460,7 @@
       <c r="H448" s="8"/>
       <c r="I448" s="8"/>
     </row>
-    <row r="449" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A449" s="8"/>
       <c r="B449" s="8"/>
       <c r="C449" s="8"/>
@@ -10769,7 +12471,7 @@
       <c r="H449" s="8"/>
       <c r="I449" s="8"/>
     </row>
-    <row r="450" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A450" s="8"/>
       <c r="B450" s="8"/>
       <c r="C450" s="8"/>
@@ -10780,7 +12482,7 @@
       <c r="H450" s="8"/>
       <c r="I450" s="8"/>
     </row>
-    <row r="451" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A451" s="8"/>
       <c r="B451" s="8"/>
       <c r="C451" s="8"/>
@@ -10791,7 +12493,7 @@
       <c r="H451" s="8"/>
       <c r="I451" s="8"/>
     </row>
-    <row r="452" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A452" s="8"/>
       <c r="B452" s="8"/>
       <c r="C452" s="8"/>
@@ -10802,7 +12504,7 @@
       <c r="H452" s="8"/>
       <c r="I452" s="8"/>
     </row>
-    <row r="453" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A453" s="8"/>
       <c r="B453" s="8"/>
       <c r="C453" s="8"/>
@@ -10813,7 +12515,7 @@
       <c r="H453" s="8"/>
       <c r="I453" s="8"/>
     </row>
-    <row r="454" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A454" s="8"/>
       <c r="B454" s="8"/>
       <c r="C454" s="8"/>
@@ -10824,7 +12526,7 @@
       <c r="H454" s="8"/>
       <c r="I454" s="8"/>
     </row>
-    <row r="455" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A455" s="8"/>
       <c r="B455" s="8"/>
       <c r="C455" s="8"/>
@@ -10835,7 +12537,7 @@
       <c r="H455" s="8"/>
       <c r="I455" s="8"/>
     </row>
-    <row r="456" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A456" s="8"/>
       <c r="B456" s="8"/>
       <c r="C456" s="8"/>
@@ -10846,7 +12548,7 @@
       <c r="H456" s="8"/>
       <c r="I456" s="8"/>
     </row>
-    <row r="457" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A457" s="8"/>
       <c r="B457" s="8"/>
       <c r="C457" s="8"/>
@@ -10857,7 +12559,7 @@
       <c r="H457" s="8"/>
       <c r="I457" s="8"/>
     </row>
-    <row r="458" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A458" s="8"/>
       <c r="B458" s="8"/>
       <c r="C458" s="8"/>
@@ -10868,7 +12570,7 @@
       <c r="H458" s="8"/>
       <c r="I458" s="8"/>
     </row>
-    <row r="459" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A459" s="8"/>
       <c r="B459" s="8"/>
       <c r="C459" s="8"/>
@@ -10879,7 +12581,7 @@
       <c r="H459" s="8"/>
       <c r="I459" s="8"/>
     </row>
-    <row r="460" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A460" s="8"/>
       <c r="B460" s="8"/>
       <c r="C460" s="8"/>
@@ -10890,7 +12592,7 @@
       <c r="H460" s="8"/>
       <c r="I460" s="8"/>
     </row>
-    <row r="461" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A461" s="8"/>
       <c r="B461" s="8"/>
       <c r="C461" s="8"/>
@@ -10901,7 +12603,7 @@
       <c r="H461" s="8"/>
       <c r="I461" s="8"/>
     </row>
-    <row r="462" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A462" s="8"/>
       <c r="B462" s="8"/>
       <c r="C462" s="8"/>
@@ -10912,7 +12614,7 @@
       <c r="H462" s="8"/>
       <c r="I462" s="8"/>
     </row>
-    <row r="463" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A463" s="8"/>
       <c r="B463" s="8"/>
       <c r="C463" s="8"/>
@@ -10923,7 +12625,7 @@
       <c r="H463" s="8"/>
       <c r="I463" s="8"/>
     </row>
-    <row r="464" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A464" s="8"/>
       <c r="B464" s="8"/>
       <c r="C464" s="8"/>
@@ -10934,7 +12636,7 @@
       <c r="H464" s="8"/>
       <c r="I464" s="8"/>
     </row>
-    <row r="465" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A465" s="8"/>
       <c r="B465" s="8"/>
       <c r="C465" s="8"/>
@@ -10945,7 +12647,7 @@
       <c r="H465" s="8"/>
       <c r="I465" s="8"/>
     </row>
-    <row r="466" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A466" s="8"/>
       <c r="B466" s="8"/>
       <c r="C466" s="8"/>
@@ -10956,7 +12658,7 @@
       <c r="H466" s="8"/>
       <c r="I466" s="8"/>
     </row>
-    <row r="467" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A467" s="8"/>
       <c r="B467" s="8"/>
       <c r="C467" s="8"/>
@@ -10967,7 +12669,7 @@
       <c r="H467" s="8"/>
       <c r="I467" s="8"/>
     </row>
-    <row r="468" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A468" s="8"/>
       <c r="B468" s="8"/>
       <c r="C468" s="8"/>
@@ -10978,7 +12680,7 @@
       <c r="H468" s="8"/>
       <c r="I468" s="8"/>
     </row>
-    <row r="469" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A469" s="8"/>
       <c r="B469" s="8"/>
       <c r="C469" s="8"/>
@@ -10989,7 +12691,7 @@
       <c r="H469" s="8"/>
       <c r="I469" s="8"/>
     </row>
-    <row r="470" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A470" s="8"/>
       <c r="B470" s="8"/>
       <c r="C470" s="8"/>
@@ -11000,7 +12702,7 @@
       <c r="H470" s="8"/>
       <c r="I470" s="8"/>
     </row>
-    <row r="471" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A471" s="8"/>
       <c r="B471" s="8"/>
       <c r="C471" s="8"/>
@@ -11011,7 +12713,7 @@
       <c r="H471" s="8"/>
       <c r="I471" s="8"/>
     </row>
-    <row r="472" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A472" s="8"/>
       <c r="B472" s="8"/>
       <c r="C472" s="8"/>
@@ -11022,7 +12724,7 @@
       <c r="H472" s="8"/>
       <c r="I472" s="8"/>
     </row>
-    <row r="473" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A473" s="8"/>
       <c r="B473" s="8"/>
       <c r="C473" s="8"/>
@@ -11033,7 +12735,7 @@
       <c r="H473" s="8"/>
       <c r="I473" s="8"/>
     </row>
-    <row r="474" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A474" s="8"/>
       <c r="B474" s="8"/>
       <c r="C474" s="8"/>
@@ -11044,7 +12746,7 @@
       <c r="H474" s="8"/>
       <c r="I474" s="8"/>
     </row>
-    <row r="475" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A475" s="8"/>
       <c r="B475" s="8"/>
       <c r="C475" s="8"/>
@@ -11055,7 +12757,7 @@
       <c r="H475" s="8"/>
       <c r="I475" s="8"/>
     </row>
-    <row r="476" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A476" s="8"/>
       <c r="B476" s="8"/>
       <c r="C476" s="8"/>
@@ -11066,7 +12768,7 @@
       <c r="H476" s="8"/>
       <c r="I476" s="8"/>
     </row>
-    <row r="477" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A477" s="8"/>
       <c r="B477" s="8"/>
       <c r="C477" s="8"/>
@@ -11077,7 +12779,7 @@
       <c r="H477" s="8"/>
       <c r="I477" s="8"/>
     </row>
-    <row r="478" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A478" s="8"/>
       <c r="B478" s="8"/>
       <c r="C478" s="8"/>
@@ -11088,7 +12790,7 @@
       <c r="H478" s="8"/>
       <c r="I478" s="8"/>
     </row>
-    <row r="479" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A479" s="8"/>
       <c r="B479" s="8"/>
       <c r="C479" s="8"/>
@@ -11099,7 +12801,7 @@
       <c r="H479" s="8"/>
       <c r="I479" s="8"/>
     </row>
-    <row r="480" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A480" s="8"/>
       <c r="B480" s="8"/>
       <c r="C480" s="8"/>
@@ -11110,7 +12812,7 @@
       <c r="H480" s="8"/>
       <c r="I480" s="8"/>
     </row>
-    <row r="481" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A481" s="8"/>
       <c r="B481" s="8"/>
       <c r="C481" s="8"/>
@@ -11121,7 +12823,7 @@
       <c r="H481" s="8"/>
       <c r="I481" s="8"/>
     </row>
-    <row r="482" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A482" s="8"/>
       <c r="B482" s="8"/>
       <c r="C482" s="8"/>
@@ -11132,7 +12834,7 @@
       <c r="H482" s="8"/>
       <c r="I482" s="8"/>
     </row>
-    <row r="483" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A483" s="8"/>
       <c r="B483" s="8"/>
       <c r="C483" s="8"/>
@@ -11143,7 +12845,7 @@
       <c r="H483" s="8"/>
       <c r="I483" s="8"/>
     </row>
-    <row r="484" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A484" s="8"/>
       <c r="B484" s="8"/>
       <c r="C484" s="8"/>
@@ -11154,7 +12856,7 @@
       <c r="H484" s="8"/>
       <c r="I484" s="8"/>
     </row>
-    <row r="485" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A485" s="8"/>
       <c r="B485" s="8"/>
       <c r="C485" s="8"/>
@@ -11165,7 +12867,7 @@
       <c r="H485" s="8"/>
       <c r="I485" s="8"/>
     </row>
-    <row r="486" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A486" s="8"/>
       <c r="B486" s="8"/>
       <c r="C486" s="8"/>
@@ -11176,7 +12878,7 @@
       <c r="H486" s="8"/>
       <c r="I486" s="8"/>
     </row>
-    <row r="487" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A487" s="8"/>
       <c r="B487" s="8"/>
       <c r="C487" s="8"/>
@@ -11187,7 +12889,7 @@
       <c r="H487" s="8"/>
       <c r="I487" s="8"/>
     </row>
-    <row r="488" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A488" s="8"/>
       <c r="B488" s="8"/>
       <c r="C488" s="8"/>
@@ -11198,7 +12900,7 @@
       <c r="H488" s="8"/>
       <c r="I488" s="8"/>
     </row>
-    <row r="489" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A489" s="8"/>
       <c r="B489" s="8"/>
       <c r="C489" s="8"/>
@@ -11209,7 +12911,7 @@
       <c r="H489" s="8"/>
       <c r="I489" s="8"/>
     </row>
-    <row r="490" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A490" s="8"/>
       <c r="B490" s="8"/>
       <c r="C490" s="8"/>
@@ -11220,7 +12922,7 @@
       <c r="H490" s="8"/>
       <c r="I490" s="8"/>
     </row>
-    <row r="491" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A491" s="8"/>
       <c r="B491" s="8"/>
       <c r="C491" s="8"/>
@@ -11231,7 +12933,7 @@
       <c r="H491" s="8"/>
       <c r="I491" s="8"/>
     </row>
-    <row r="492" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A492" s="8"/>
       <c r="B492" s="8"/>
       <c r="C492" s="8"/>
@@ -11242,7 +12944,7 @@
       <c r="H492" s="8"/>
       <c r="I492" s="8"/>
     </row>
-    <row r="493" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A493" s="8"/>
       <c r="B493" s="8"/>
       <c r="C493" s="8"/>
@@ -11253,7 +12955,7 @@
       <c r="H493" s="8"/>
       <c r="I493" s="8"/>
     </row>
-    <row r="494" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A494" s="8"/>
       <c r="B494" s="8"/>
       <c r="C494" s="8"/>
@@ -11264,7 +12966,7 @@
       <c r="H494" s="8"/>
       <c r="I494" s="8"/>
     </row>
-    <row r="495" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A495" s="8"/>
       <c r="B495" s="8"/>
       <c r="C495" s="8"/>
@@ -11275,7 +12977,7 @@
       <c r="H495" s="8"/>
       <c r="I495" s="8"/>
     </row>
-    <row r="496" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A496" s="8"/>
       <c r="B496" s="8"/>
       <c r="C496" s="8"/>
@@ -11286,7 +12988,7 @@
       <c r="H496" s="8"/>
       <c r="I496" s="8"/>
     </row>
-    <row r="497" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A497" s="8"/>
       <c r="B497" s="8"/>
       <c r="C497" s="8"/>
@@ -11297,7 +12999,7 @@
       <c r="H497" s="8"/>
       <c r="I497" s="8"/>
     </row>
-    <row r="498" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A498" s="8"/>
       <c r="B498" s="8"/>
       <c r="C498" s="8"/>
@@ -11308,7 +13010,7 @@
       <c r="H498" s="8"/>
       <c r="I498" s="8"/>
     </row>
-    <row r="499" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A499" s="8"/>
       <c r="B499" s="8"/>
       <c r="C499" s="8"/>
@@ -11319,7 +13021,7 @@
       <c r="H499" s="8"/>
       <c r="I499" s="8"/>
     </row>
-    <row r="500" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A500" s="8"/>
       <c r="B500" s="8"/>
       <c r="C500" s="8"/>
@@ -11330,7 +13032,7 @@
       <c r="H500" s="8"/>
       <c r="I500" s="8"/>
     </row>
-    <row r="501" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A501" s="8"/>
       <c r="B501" s="8"/>
       <c r="C501" s="8"/>
@@ -11341,7 +13043,7 @@
       <c r="H501" s="8"/>
       <c r="I501" s="8"/>
     </row>
-    <row r="502" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A502" s="8"/>
       <c r="B502" s="8"/>
       <c r="C502" s="8"/>
@@ -11352,7 +13054,7 @@
       <c r="H502" s="8"/>
       <c r="I502" s="8"/>
     </row>
-    <row r="503" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A503" s="8"/>
       <c r="B503" s="8"/>
       <c r="C503" s="8"/>
@@ -11363,7 +13065,7 @@
       <c r="H503" s="8"/>
       <c r="I503" s="8"/>
     </row>
-    <row r="504" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A504" s="8"/>
       <c r="B504" s="8"/>
       <c r="C504" s="8"/>
@@ -11374,7 +13076,7 @@
       <c r="H504" s="8"/>
       <c r="I504" s="8"/>
     </row>
-    <row r="505" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A505" s="8"/>
       <c r="B505" s="8"/>
       <c r="C505" s="8"/>
@@ -11385,7 +13087,7 @@
       <c r="H505" s="8"/>
       <c r="I505" s="8"/>
     </row>
-    <row r="506" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A506" s="8"/>
       <c r="B506" s="8"/>
       <c r="C506" s="8"/>
@@ -11396,7 +13098,7 @@
       <c r="H506" s="8"/>
       <c r="I506" s="8"/>
     </row>
-    <row r="507" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A507" s="8"/>
       <c r="B507" s="8"/>
       <c r="C507" s="8"/>
@@ -11407,7 +13109,7 @@
       <c r="H507" s="8"/>
       <c r="I507" s="8"/>
     </row>
-    <row r="508" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="508" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A508" s="8"/>
       <c r="B508" s="8"/>
       <c r="C508" s="8"/>
@@ -11418,7 +13120,7 @@
       <c r="H508" s="8"/>
       <c r="I508" s="8"/>
     </row>
-    <row r="509" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="509" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A509" s="8"/>
       <c r="B509" s="8"/>
       <c r="C509" s="8"/>
@@ -11429,7 +13131,7 @@
       <c r="H509" s="8"/>
       <c r="I509" s="8"/>
     </row>
-    <row r="510" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="510" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A510" s="8"/>
       <c r="B510" s="8"/>
       <c r="C510" s="8"/>
@@ -11440,7 +13142,7 @@
       <c r="H510" s="8"/>
       <c r="I510" s="8"/>
     </row>
-    <row r="511" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A511" s="8"/>
       <c r="B511" s="8"/>
       <c r="C511" s="8"/>
@@ -11451,7 +13153,7 @@
       <c r="H511" s="8"/>
       <c r="I511" s="8"/>
     </row>
-    <row r="512" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A512" s="8"/>
       <c r="B512" s="8"/>
       <c r="C512" s="8"/>
@@ -11462,7 +13164,7 @@
       <c r="H512" s="8"/>
       <c r="I512" s="8"/>
     </row>
-    <row r="513" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="513" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A513" s="8"/>
       <c r="B513" s="8"/>
       <c r="C513" s="8"/>
@@ -11473,7 +13175,7 @@
       <c r="H513" s="8"/>
       <c r="I513" s="8"/>
     </row>
-    <row r="514" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="514" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A514" s="8"/>
       <c r="B514" s="8"/>
       <c r="C514" s="8"/>
@@ -11484,7 +13186,7 @@
       <c r="H514" s="8"/>
       <c r="I514" s="8"/>
     </row>
-    <row r="515" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="515" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A515" s="8"/>
       <c r="B515" s="8"/>
       <c r="C515" s="8"/>
@@ -11495,7 +13197,7 @@
       <c r="H515" s="8"/>
       <c r="I515" s="8"/>
     </row>
-    <row r="516" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="516" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A516" s="8"/>
       <c r="B516" s="8"/>
       <c r="C516" s="8"/>
@@ -11506,7 +13208,7 @@
       <c r="H516" s="8"/>
       <c r="I516" s="8"/>
     </row>
-    <row r="517" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="517" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A517" s="8"/>
       <c r="B517" s="8"/>
       <c r="C517" s="8"/>
@@ -11517,7 +13219,7 @@
       <c r="H517" s="8"/>
       <c r="I517" s="8"/>
     </row>
-    <row r="518" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="518" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A518" s="8"/>
       <c r="B518" s="8"/>
       <c r="C518" s="8"/>
@@ -11528,7 +13230,7 @@
       <c r="H518" s="8"/>
       <c r="I518" s="8"/>
     </row>
-    <row r="519" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="519" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A519" s="8"/>
       <c r="B519" s="8"/>
       <c r="C519" s="8"/>
@@ -11539,7 +13241,7 @@
       <c r="H519" s="8"/>
       <c r="I519" s="8"/>
     </row>
-    <row r="520" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="520" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A520" s="8"/>
       <c r="B520" s="8"/>
       <c r="C520" s="8"/>
@@ -11550,7 +13252,7 @@
       <c r="H520" s="8"/>
       <c r="I520" s="8"/>
     </row>
-    <row r="521" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="521" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A521" s="8"/>
       <c r="B521" s="8"/>
       <c r="C521" s="8"/>
@@ -11561,7 +13263,7 @@
       <c r="H521" s="8"/>
       <c r="I521" s="8"/>
     </row>
-    <row r="522" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="522" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A522" s="8"/>
       <c r="B522" s="8"/>
       <c r="C522" s="8"/>
@@ -11572,7 +13274,7 @@
       <c r="H522" s="8"/>
       <c r="I522" s="8"/>
     </row>
-    <row r="523" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="523" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A523" s="8"/>
       <c r="B523" s="8"/>
       <c r="C523" s="8"/>
@@ -11583,7 +13285,7 @@
       <c r="H523" s="8"/>
       <c r="I523" s="8"/>
     </row>
-    <row r="524" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="524" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A524" s="8"/>
       <c r="B524" s="8"/>
       <c r="C524" s="8"/>
@@ -11594,7 +13296,7 @@
       <c r="H524" s="8"/>
       <c r="I524" s="8"/>
     </row>
-    <row r="525" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="525" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A525" s="8"/>
       <c r="B525" s="8"/>
       <c r="C525" s="8"/>
@@ -11605,7 +13307,7 @@
       <c r="H525" s="8"/>
       <c r="I525" s="8"/>
     </row>
-    <row r="526" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="526" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A526" s="8"/>
       <c r="B526" s="8"/>
       <c r="C526" s="8"/>
@@ -11616,7 +13318,7 @@
       <c r="H526" s="8"/>
       <c r="I526" s="8"/>
     </row>
-    <row r="527" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="527" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A527" s="8"/>
       <c r="B527" s="8"/>
       <c r="C527" s="8"/>
@@ -11627,7 +13329,7 @@
       <c r="H527" s="8"/>
       <c r="I527" s="8"/>
     </row>
-    <row r="528" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="528" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A528" s="8"/>
       <c r="B528" s="8"/>
       <c r="C528" s="8"/>
@@ -11638,7 +13340,7 @@
       <c r="H528" s="8"/>
       <c r="I528" s="8"/>
     </row>
-    <row r="529" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="529" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A529" s="8"/>
       <c r="B529" s="8"/>
       <c r="C529" s="8"/>
@@ -11649,7 +13351,7 @@
       <c r="H529" s="8"/>
       <c r="I529" s="8"/>
     </row>
-    <row r="530" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="530" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A530" s="8"/>
       <c r="B530" s="8"/>
       <c r="C530" s="8"/>
@@ -11660,7 +13362,7 @@
       <c r="H530" s="8"/>
       <c r="I530" s="8"/>
     </row>
-    <row r="531" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="531" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A531" s="8"/>
       <c r="B531" s="8"/>
       <c r="C531" s="8"/>
@@ -11671,7 +13373,7 @@
       <c r="H531" s="8"/>
       <c r="I531" s="8"/>
     </row>
-    <row r="532" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="532" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A532" s="8"/>
       <c r="B532" s="8"/>
       <c r="C532" s="8"/>
@@ -11682,7 +13384,7 @@
       <c r="H532" s="8"/>
       <c r="I532" s="8"/>
     </row>
-    <row r="533" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="533" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A533" s="8"/>
       <c r="B533" s="8"/>
       <c r="C533" s="8"/>
@@ -11693,7 +13395,7 @@
       <c r="H533" s="8"/>
       <c r="I533" s="8"/>
     </row>
-    <row r="534" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="534" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A534" s="8"/>
       <c r="B534" s="8"/>
       <c r="C534" s="8"/>
@@ -11704,7 +13406,7 @@
       <c r="H534" s="8"/>
       <c r="I534" s="8"/>
     </row>
-    <row r="535" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="535" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A535" s="8"/>
       <c r="B535" s="8"/>
       <c r="C535" s="8"/>
@@ -11715,7 +13417,7 @@
       <c r="H535" s="8"/>
       <c r="I535" s="8"/>
     </row>
-    <row r="536" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="536" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A536" s="8"/>
       <c r="B536" s="8"/>
       <c r="C536" s="8"/>
@@ -11726,7 +13428,7 @@
       <c r="H536" s="8"/>
       <c r="I536" s="8"/>
     </row>
-    <row r="537" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="537" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A537" s="8"/>
       <c r="B537" s="8"/>
       <c r="C537" s="8"/>
@@ -11737,7 +13439,7 @@
       <c r="H537" s="8"/>
       <c r="I537" s="8"/>
     </row>
-    <row r="538" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="538" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A538" s="8"/>
       <c r="B538" s="8"/>
       <c r="C538" s="8"/>
@@ -11748,7 +13450,7 @@
       <c r="H538" s="8"/>
       <c r="I538" s="8"/>
     </row>
-    <row r="539" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="539" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A539" s="8"/>
       <c r="B539" s="8"/>
       <c r="C539" s="8"/>
@@ -11759,7 +13461,7 @@
       <c r="H539" s="8"/>
       <c r="I539" s="8"/>
     </row>
-    <row r="540" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="540" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A540" s="8"/>
       <c r="B540" s="8"/>
       <c r="C540" s="8"/>
@@ -11770,7 +13472,7 @@
       <c r="H540" s="8"/>
       <c r="I540" s="8"/>
     </row>
-    <row r="541" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="541" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A541" s="8"/>
       <c r="B541" s="8"/>
       <c r="C541" s="8"/>
@@ -11781,7 +13483,7 @@
       <c r="H541" s="8"/>
       <c r="I541" s="8"/>
     </row>
-    <row r="542" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="542" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A542" s="8"/>
       <c r="B542" s="8"/>
       <c r="C542" s="8"/>
@@ -11792,7 +13494,7 @@
       <c r="H542" s="8"/>
       <c r="I542" s="8"/>
     </row>
-    <row r="543" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="543" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A543" s="8"/>
       <c r="B543" s="8"/>
       <c r="C543" s="8"/>
@@ -11803,7 +13505,7 @@
       <c r="H543" s="8"/>
       <c r="I543" s="8"/>
     </row>
-    <row r="544" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="544" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A544" s="8"/>
       <c r="B544" s="8"/>
       <c r="C544" s="8"/>
@@ -11814,7 +13516,7 @@
       <c r="H544" s="8"/>
       <c r="I544" s="8"/>
     </row>
-    <row r="545" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="545" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A545" s="8"/>
       <c r="B545" s="8"/>
       <c r="C545" s="8"/>
@@ -11825,7 +13527,7 @@
       <c r="H545" s="8"/>
       <c r="I545" s="8"/>
     </row>
-    <row r="546" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="546" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A546" s="8"/>
       <c r="B546" s="8"/>
       <c r="C546" s="8"/>
@@ -11836,7 +13538,7 @@
       <c r="H546" s="8"/>
       <c r="I546" s="8"/>
     </row>
-    <row r="547" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="547" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A547" s="8"/>
       <c r="B547" s="8"/>
       <c r="C547" s="8"/>
@@ -11847,7 +13549,7 @@
       <c r="H547" s="8"/>
       <c r="I547" s="8"/>
     </row>
-    <row r="548" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="548" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A548" s="8"/>
       <c r="B548" s="8"/>
       <c r="C548" s="8"/>
@@ -11858,7 +13560,7 @@
       <c r="H548" s="8"/>
       <c r="I548" s="8"/>
     </row>
-    <row r="549" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="549" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A549" s="8"/>
       <c r="B549" s="8"/>
       <c r="C549" s="8"/>
@@ -11869,7 +13571,7 @@
       <c r="H549" s="8"/>
       <c r="I549" s="8"/>
     </row>
-    <row r="550" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="550" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A550" s="8"/>
       <c r="B550" s="8"/>
       <c r="C550" s="8"/>
@@ -11880,7 +13582,7 @@
       <c r="H550" s="8"/>
       <c r="I550" s="8"/>
     </row>
-    <row r="551" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="551" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A551" s="8"/>
       <c r="B551" s="8"/>
       <c r="C551" s="8"/>
@@ -11891,7 +13593,7 @@
       <c r="H551" s="8"/>
       <c r="I551" s="8"/>
     </row>
-    <row r="552" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="552" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A552" s="8"/>
       <c r="B552" s="8"/>
       <c r="C552" s="8"/>
@@ -11902,7 +13604,7 @@
       <c r="H552" s="8"/>
       <c r="I552" s="8"/>
     </row>
-    <row r="553" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="553" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A553" s="8"/>
       <c r="B553" s="8"/>
       <c r="C553" s="8"/>
@@ -11913,7 +13615,7 @@
       <c r="H553" s="8"/>
       <c r="I553" s="8"/>
     </row>
-    <row r="554" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="554" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A554" s="8"/>
       <c r="B554" s="8"/>
       <c r="C554" s="8"/>
@@ -11924,7 +13626,7 @@
       <c r="H554" s="8"/>
       <c r="I554" s="8"/>
     </row>
-    <row r="555" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="555" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A555" s="8"/>
       <c r="B555" s="8"/>
       <c r="C555" s="8"/>
@@ -11935,7 +13637,7 @@
       <c r="H555" s="8"/>
       <c r="I555" s="8"/>
     </row>
-    <row r="556" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="556" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A556" s="8"/>
       <c r="B556" s="8"/>
       <c r="C556" s="8"/>
@@ -11946,7 +13648,7 @@
       <c r="H556" s="8"/>
       <c r="I556" s="8"/>
     </row>
-    <row r="557" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="557" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A557" s="8"/>
       <c r="B557" s="8"/>
       <c r="C557" s="8"/>
@@ -11957,7 +13659,7 @@
       <c r="H557" s="8"/>
       <c r="I557" s="8"/>
     </row>
-    <row r="558" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="558" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A558" s="8"/>
       <c r="B558" s="8"/>
       <c r="C558" s="8"/>
@@ -11968,7 +13670,7 @@
       <c r="H558" s="8"/>
       <c r="I558" s="8"/>
     </row>
-    <row r="559" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="559" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A559" s="8"/>
       <c r="B559" s="8"/>
       <c r="C559" s="8"/>
@@ -11979,7 +13681,7 @@
       <c r="H559" s="8"/>
       <c r="I559" s="8"/>
     </row>
-    <row r="560" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="560" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A560" s="8"/>
       <c r="B560" s="8"/>
       <c r="C560" s="8"/>
@@ -11990,7 +13692,7 @@
       <c r="H560" s="8"/>
       <c r="I560" s="8"/>
     </row>
-    <row r="561" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="561" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A561" s="8"/>
       <c r="B561" s="8"/>
       <c r="C561" s="8"/>
@@ -12001,7 +13703,7 @@
       <c r="H561" s="8"/>
       <c r="I561" s="8"/>
     </row>
-    <row r="562" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="562" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A562" s="8"/>
       <c r="B562" s="8"/>
       <c r="C562" s="8"/>
@@ -12012,7 +13714,7 @@
       <c r="H562" s="8"/>
       <c r="I562" s="8"/>
     </row>
-    <row r="563" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="563" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A563" s="8"/>
       <c r="B563" s="8"/>
       <c r="C563" s="8"/>
@@ -12023,7 +13725,7 @@
       <c r="H563" s="8"/>
       <c r="I563" s="8"/>
     </row>
-    <row r="564" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="564" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A564" s="8"/>
       <c r="B564" s="8"/>
       <c r="C564" s="8"/>
@@ -12034,7 +13736,7 @@
       <c r="H564" s="8"/>
       <c r="I564" s="8"/>
     </row>
-    <row r="565" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="565" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A565" s="8"/>
       <c r="B565" s="8"/>
       <c r="C565" s="8"/>
@@ -12045,7 +13747,7 @@
       <c r="H565" s="8"/>
       <c r="I565" s="8"/>
     </row>
-    <row r="566" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="566" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A566" s="8"/>
       <c r="B566" s="8"/>
       <c r="C566" s="8"/>
@@ -12056,7 +13758,7 @@
       <c r="H566" s="8"/>
       <c r="I566" s="8"/>
     </row>
-    <row r="567" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="567" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A567" s="8"/>
       <c r="B567" s="8"/>
       <c r="C567" s="8"/>
@@ -12067,7 +13769,7 @@
       <c r="H567" s="8"/>
       <c r="I567" s="8"/>
     </row>
-    <row r="568" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="568" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A568" s="8"/>
       <c r="B568" s="8"/>
       <c r="C568" s="8"/>
@@ -12078,7 +13780,7 @@
       <c r="H568" s="8"/>
       <c r="I568" s="8"/>
     </row>
-    <row r="569" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="569" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A569" s="8"/>
       <c r="B569" s="8"/>
       <c r="C569" s="8"/>
@@ -12089,7 +13791,7 @@
       <c r="H569" s="8"/>
       <c r="I569" s="8"/>
     </row>
-    <row r="570" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="570" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A570" s="8"/>
       <c r="B570" s="8"/>
       <c r="C570" s="8"/>
@@ -12100,7 +13802,7 @@
       <c r="H570" s="8"/>
       <c r="I570" s="8"/>
     </row>
-    <row r="571" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="571" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A571" s="8"/>
       <c r="B571" s="8"/>
       <c r="C571" s="8"/>
@@ -12111,7 +13813,7 @@
       <c r="H571" s="8"/>
       <c r="I571" s="8"/>
     </row>
-    <row r="572" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="572" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A572" s="8"/>
       <c r="B572" s="8"/>
       <c r="C572" s="8"/>
@@ -12122,7 +13824,7 @@
       <c r="H572" s="8"/>
       <c r="I572" s="8"/>
     </row>
-    <row r="573" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="573" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A573" s="8"/>
       <c r="B573" s="8"/>
       <c r="C573" s="8"/>
@@ -12133,7 +13835,7 @@
       <c r="H573" s="8"/>
       <c r="I573" s="8"/>
     </row>
-    <row r="574" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="574" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A574" s="8"/>
       <c r="B574" s="8"/>
       <c r="C574" s="8"/>
@@ -12144,7 +13846,7 @@
       <c r="H574" s="8"/>
       <c r="I574" s="8"/>
     </row>
-    <row r="575" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="575" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A575" s="8"/>
       <c r="B575" s="8"/>
       <c r="C575" s="8"/>
@@ -12155,7 +13857,7 @@
       <c r="H575" s="8"/>
       <c r="I575" s="8"/>
     </row>
-    <row r="576" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="576" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A576" s="8"/>
       <c r="B576" s="8"/>
       <c r="C576" s="8"/>
@@ -12166,7 +13868,7 @@
       <c r="H576" s="8"/>
       <c r="I576" s="8"/>
     </row>
-    <row r="577" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="577" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A577" s="8"/>
       <c r="B577" s="8"/>
       <c r="C577" s="8"/>
@@ -12177,7 +13879,7 @@
       <c r="H577" s="8"/>
       <c r="I577" s="8"/>
     </row>
-    <row r="578" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="578" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A578" s="8"/>
       <c r="B578" s="8"/>
       <c r="C578" s="8"/>
@@ -12188,7 +13890,7 @@
       <c r="H578" s="8"/>
       <c r="I578" s="8"/>
     </row>
-    <row r="579" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="579" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A579" s="8"/>
       <c r="B579" s="8"/>
       <c r="C579" s="8"/>
@@ -12199,7 +13901,7 @@
       <c r="H579" s="8"/>
       <c r="I579" s="8"/>
     </row>
-    <row r="580" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="580" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A580" s="8"/>
       <c r="B580" s="8"/>
       <c r="C580" s="8"/>
@@ -12210,7 +13912,7 @@
       <c r="H580" s="8"/>
       <c r="I580" s="8"/>
     </row>
-    <row r="581" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="581" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A581" s="8"/>
       <c r="B581" s="8"/>
       <c r="C581" s="8"/>
@@ -12221,7 +13923,7 @@
       <c r="H581" s="8"/>
       <c r="I581" s="8"/>
     </row>
-    <row r="582" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="582" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A582" s="8"/>
       <c r="B582" s="8"/>
       <c r="C582" s="8"/>
@@ -12232,7 +13934,7 @@
       <c r="H582" s="8"/>
       <c r="I582" s="8"/>
     </row>
-    <row r="583" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="583" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A583" s="8"/>
       <c r="B583" s="8"/>
       <c r="C583" s="8"/>
@@ -12243,7 +13945,7 @@
       <c r="H583" s="8"/>
       <c r="I583" s="8"/>
     </row>
-    <row r="584" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="584" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A584" s="8"/>
       <c r="B584" s="8"/>
       <c r="C584" s="8"/>
@@ -12254,7 +13956,7 @@
       <c r="H584" s="8"/>
       <c r="I584" s="8"/>
     </row>
-    <row r="585" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="585" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A585" s="8"/>
       <c r="B585" s="8"/>
       <c r="C585" s="8"/>
@@ -12265,7 +13967,7 @@
       <c r="H585" s="8"/>
       <c r="I585" s="8"/>
     </row>
-    <row r="586" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="586" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A586" s="8"/>
       <c r="B586" s="8"/>
       <c r="C586" s="8"/>
@@ -12276,7 +13978,7 @@
       <c r="H586" s="8"/>
       <c r="I586" s="8"/>
     </row>
-    <row r="587" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="587" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A587" s="8"/>
       <c r="B587" s="8"/>
       <c r="C587" s="8"/>
@@ -12287,7 +13989,7 @@
       <c r="H587" s="8"/>
       <c r="I587" s="8"/>
     </row>
-    <row r="588" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="588" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A588" s="8"/>
       <c r="B588" s="8"/>
       <c r="C588" s="8"/>
@@ -12298,7 +14000,7 @@
       <c r="H588" s="8"/>
       <c r="I588" s="8"/>
     </row>
-    <row r="589" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="589" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A589" s="8"/>
       <c r="B589" s="8"/>
       <c r="C589" s="8"/>
@@ -12309,7 +14011,7 @@
       <c r="H589" s="8"/>
       <c r="I589" s="8"/>
     </row>
-    <row r="590" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="590" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A590" s="8"/>
       <c r="B590" s="8"/>
       <c r="C590" s="8"/>
@@ -12320,7 +14022,7 @@
       <c r="H590" s="8"/>
       <c r="I590" s="8"/>
     </row>
-    <row r="591" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="591" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A591" s="8"/>
       <c r="B591" s="8"/>
       <c r="C591" s="8"/>
@@ -12331,7 +14033,7 @@
       <c r="H591" s="8"/>
       <c r="I591" s="8"/>
     </row>
-    <row r="592" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="592" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A592" s="8"/>
       <c r="B592" s="8"/>
       <c r="C592" s="8"/>
@@ -12342,7 +14044,7 @@
       <c r="H592" s="8"/>
       <c r="I592" s="8"/>
     </row>
-    <row r="593" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="593" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A593" s="8"/>
       <c r="B593" s="8"/>
       <c r="C593" s="8"/>
@@ -12353,7 +14055,7 @@
       <c r="H593" s="8"/>
       <c r="I593" s="8"/>
     </row>
-    <row r="594" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="594" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A594" s="8"/>
       <c r="B594" s="8"/>
       <c r="C594" s="8"/>
@@ -12364,7 +14066,7 @@
       <c r="H594" s="8"/>
       <c r="I594" s="8"/>
     </row>
-    <row r="595" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="595" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A595" s="8"/>
       <c r="B595" s="8"/>
       <c r="C595" s="8"/>
@@ -12375,7 +14077,7 @@
       <c r="H595" s="8"/>
       <c r="I595" s="8"/>
     </row>
-    <row r="596" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="596" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A596" s="8"/>
       <c r="B596" s="8"/>
       <c r="C596" s="8"/>
@@ -12386,7 +14088,7 @@
       <c r="H596" s="8"/>
       <c r="I596" s="8"/>
     </row>
-    <row r="597" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="597" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A597" s="8"/>
       <c r="B597" s="8"/>
       <c r="C597" s="8"/>
@@ -12397,7 +14099,7 @@
       <c r="H597" s="8"/>
       <c r="I597" s="8"/>
     </row>
-    <row r="598" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="598" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A598" s="8"/>
       <c r="B598" s="8"/>
       <c r="C598" s="8"/>
@@ -12408,7 +14110,7 @@
       <c r="H598" s="8"/>
       <c r="I598" s="8"/>
     </row>
-    <row r="599" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="599" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A599" s="8"/>
       <c r="B599" s="8"/>
       <c r="C599" s="8"/>
@@ -12419,7 +14121,7 @@
       <c r="H599" s="8"/>
       <c r="I599" s="8"/>
     </row>
-    <row r="600" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="600" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A600" s="8"/>
       <c r="B600" s="8"/>
       <c r="C600" s="8"/>
@@ -12430,7 +14132,7 @@
       <c r="H600" s="8"/>
       <c r="I600" s="8"/>
     </row>
-    <row r="601" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="601" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A601" s="8"/>
       <c r="B601" s="8"/>
       <c r="C601" s="8"/>
@@ -12441,7 +14143,7 @@
       <c r="H601" s="8"/>
       <c r="I601" s="8"/>
     </row>
-    <row r="602" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="602" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A602" s="8"/>
       <c r="B602" s="8"/>
       <c r="C602" s="8"/>
@@ -12452,7 +14154,7 @@
       <c r="H602" s="8"/>
       <c r="I602" s="8"/>
     </row>
-    <row r="603" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="603" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A603" s="8"/>
       <c r="B603" s="8"/>
       <c r="C603" s="8"/>
@@ -12463,7 +14165,7 @@
       <c r="H603" s="8"/>
       <c r="I603" s="8"/>
     </row>
-    <row r="604" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="604" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A604" s="8"/>
       <c r="B604" s="8"/>
       <c r="C604" s="8"/>
@@ -12474,7 +14176,7 @@
       <c r="H604" s="8"/>
       <c r="I604" s="8"/>
     </row>
-    <row r="605" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="605" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A605" s="8"/>
       <c r="B605" s="8"/>
       <c r="C605" s="8"/>
@@ -12485,7 +14187,7 @@
       <c r="H605" s="8"/>
       <c r="I605" s="8"/>
     </row>
-    <row r="606" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="606" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A606" s="8"/>
       <c r="B606" s="8"/>
       <c r="C606" s="8"/>
@@ -12496,7 +14198,7 @@
       <c r="H606" s="8"/>
       <c r="I606" s="8"/>
     </row>
-    <row r="607" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="607" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A607" s="8"/>
       <c r="B607" s="8"/>
       <c r="C607" s="8"/>
@@ -12507,7 +14209,7 @@
       <c r="H607" s="8"/>
       <c r="I607" s="8"/>
     </row>
-    <row r="608" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="608" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A608" s="8"/>
       <c r="B608" s="8"/>
       <c r="C608" s="8"/>
@@ -12518,7 +14220,7 @@
       <c r="H608" s="8"/>
       <c r="I608" s="8"/>
     </row>
-    <row r="609" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="609" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A609" s="8"/>
       <c r="B609" s="8"/>
       <c r="C609" s="8"/>
@@ -12529,7 +14231,7 @@
       <c r="H609" s="8"/>
       <c r="I609" s="8"/>
     </row>
-    <row r="610" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="610" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A610" s="8"/>
       <c r="B610" s="8"/>
       <c r="C610" s="8"/>
@@ -12540,7 +14242,7 @@
       <c r="H610" s="8"/>
       <c r="I610" s="8"/>
     </row>
-    <row r="611" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="611" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A611" s="8"/>
       <c r="B611" s="8"/>
       <c r="C611" s="8"/>
@@ -12551,7 +14253,7 @@
       <c r="H611" s="8"/>
       <c r="I611" s="8"/>
     </row>
-    <row r="612" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="612" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A612" s="8"/>
       <c r="B612" s="8"/>
       <c r="C612" s="8"/>
@@ -12562,7 +14264,7 @@
       <c r="H612" s="8"/>
       <c r="I612" s="8"/>
     </row>
-    <row r="613" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="613" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A613" s="8"/>
       <c r="B613" s="8"/>
       <c r="C613" s="8"/>
@@ -12573,7 +14275,7 @@
       <c r="H613" s="8"/>
       <c r="I613" s="8"/>
     </row>
-    <row r="614" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="614" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A614" s="8"/>
       <c r="B614" s="8"/>
       <c r="C614" s="8"/>
@@ -12584,7 +14286,7 @@
       <c r="H614" s="8"/>
       <c r="I614" s="8"/>
     </row>
-    <row r="615" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="615" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A615" s="8"/>
       <c r="B615" s="8"/>
       <c r="C615" s="8"/>
@@ -12595,7 +14297,7 @@
       <c r="H615" s="8"/>
       <c r="I615" s="8"/>
     </row>
-    <row r="616" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="616" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A616" s="8"/>
       <c r="B616" s="8"/>
       <c r="C616" s="8"/>
@@ -12606,7 +14308,7 @@
       <c r="H616" s="8"/>
       <c r="I616" s="8"/>
     </row>
-    <row r="617" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="617" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A617" s="8"/>
       <c r="B617" s="8"/>
       <c r="C617" s="8"/>
@@ -12617,7 +14319,7 @@
       <c r="H617" s="8"/>
       <c r="I617" s="8"/>
     </row>
-    <row r="618" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="618" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A618" s="8"/>
       <c r="B618" s="8"/>
       <c r="C618" s="8"/>
@@ -12628,7 +14330,7 @@
       <c r="H618" s="8"/>
       <c r="I618" s="8"/>
     </row>
-    <row r="619" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="619" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A619" s="8"/>
       <c r="B619" s="8"/>
       <c r="C619" s="8"/>
@@ -12639,7 +14341,7 @@
       <c r="H619" s="8"/>
       <c r="I619" s="8"/>
     </row>
-    <row r="620" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="620" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A620" s="8"/>
       <c r="B620" s="8"/>
       <c r="C620" s="8"/>
@@ -12650,7 +14352,7 @@
       <c r="H620" s="8"/>
       <c r="I620" s="8"/>
     </row>
-    <row r="621" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="621" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A621" s="8"/>
       <c r="B621" s="8"/>
       <c r="C621" s="8"/>
@@ -12661,7 +14363,7 @@
       <c r="H621" s="8"/>
       <c r="I621" s="8"/>
     </row>
-    <row r="622" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="622" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A622" s="8"/>
       <c r="B622" s="8"/>
       <c r="C622" s="8"/>
@@ -12672,7 +14374,7 @@
       <c r="H622" s="8"/>
       <c r="I622" s="8"/>
     </row>
-    <row r="623" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="623" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A623" s="8"/>
       <c r="B623" s="8"/>
       <c r="C623" s="8"/>
@@ -12683,7 +14385,7 @@
       <c r="H623" s="8"/>
       <c r="I623" s="8"/>
     </row>
-    <row r="624" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="624" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A624" s="8"/>
       <c r="B624" s="8"/>
       <c r="C624" s="8"/>
@@ -12694,7 +14396,7 @@
       <c r="H624" s="8"/>
       <c r="I624" s="8"/>
     </row>
-    <row r="625" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="625" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A625" s="8"/>
       <c r="B625" s="8"/>
       <c r="C625" s="8"/>
@@ -12705,7 +14407,7 @@
       <c r="H625" s="8"/>
       <c r="I625" s="8"/>
     </row>
-    <row r="626" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="626" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A626" s="8"/>
       <c r="B626" s="8"/>
       <c r="C626" s="8"/>
@@ -12716,7 +14418,7 @@
       <c r="H626" s="8"/>
       <c r="I626" s="8"/>
     </row>
-    <row r="627" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="627" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A627" s="8"/>
       <c r="B627" s="8"/>
       <c r="C627" s="8"/>
@@ -12727,7 +14429,7 @@
       <c r="H627" s="8"/>
       <c r="I627" s="8"/>
     </row>
-    <row r="628" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="628" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A628" s="8"/>
       <c r="B628" s="8"/>
       <c r="C628" s="8"/>
@@ -12738,7 +14440,7 @@
       <c r="H628" s="8"/>
       <c r="I628" s="8"/>
     </row>
-    <row r="629" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="629" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A629" s="8"/>
       <c r="B629" s="8"/>
       <c r="C629" s="8"/>
@@ -12749,7 +14451,7 @@
       <c r="H629" s="8"/>
       <c r="I629" s="8"/>
     </row>
-    <row r="630" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="630" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A630" s="8"/>
       <c r="B630" s="8"/>
       <c r="C630" s="8"/>
@@ -12760,7 +14462,7 @@
       <c r="H630" s="8"/>
       <c r="I630" s="8"/>
     </row>
-    <row r="631" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="631" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A631" s="8"/>
       <c r="B631" s="8"/>
       <c r="C631" s="8"/>
@@ -12771,7 +14473,7 @@
       <c r="H631" s="8"/>
       <c r="I631" s="8"/>
     </row>
-    <row r="632" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="632" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A632" s="8"/>
       <c r="B632" s="8"/>
       <c r="C632" s="8"/>
@@ -12782,7 +14484,7 @@
       <c r="H632" s="8"/>
       <c r="I632" s="8"/>
     </row>
-    <row r="633" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="633" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A633" s="8"/>
       <c r="B633" s="8"/>
       <c r="C633" s="8"/>
@@ -12793,7 +14495,7 @@
       <c r="H633" s="8"/>
       <c r="I633" s="8"/>
     </row>
-    <row r="634" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="634" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A634" s="8"/>
       <c r="B634" s="8"/>
       <c r="C634" s="8"/>
@@ -12804,7 +14506,7 @@
       <c r="H634" s="8"/>
       <c r="I634" s="8"/>
     </row>
-    <row r="635" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="635" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A635" s="8"/>
       <c r="B635" s="8"/>
       <c r="C635" s="8"/>
@@ -12815,7 +14517,7 @@
       <c r="H635" s="8"/>
       <c r="I635" s="8"/>
     </row>
-    <row r="636" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="636" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A636" s="8"/>
       <c r="B636" s="8"/>
       <c r="C636" s="8"/>
@@ -12826,7 +14528,7 @@
       <c r="H636" s="8"/>
       <c r="I636" s="8"/>
     </row>
-    <row r="637" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="637" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A637" s="8"/>
       <c r="B637" s="8"/>
       <c r="C637" s="8"/>
@@ -12837,7 +14539,7 @@
       <c r="H637" s="8"/>
       <c r="I637" s="8"/>
     </row>
-    <row r="638" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="638" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A638" s="8"/>
       <c r="B638" s="8"/>
       <c r="C638" s="8"/>
@@ -12848,7 +14550,7 @@
       <c r="H638" s="8"/>
       <c r="I638" s="8"/>
     </row>
-    <row r="639" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="639" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A639" s="8"/>
       <c r="B639" s="8"/>
       <c r="C639" s="8"/>
@@ -12859,7 +14561,7 @@
       <c r="H639" s="8"/>
       <c r="I639" s="8"/>
     </row>
-    <row r="640" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="640" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A640" s="8"/>
       <c r="B640" s="8"/>
       <c r="C640" s="8"/>
@@ -12870,7 +14572,7 @@
       <c r="H640" s="8"/>
       <c r="I640" s="8"/>
     </row>
-    <row r="641" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="641" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A641" s="8"/>
       <c r="B641" s="8"/>
       <c r="C641" s="8"/>
@@ -12881,7 +14583,7 @@
       <c r="H641" s="8"/>
       <c r="I641" s="8"/>
     </row>
-    <row r="642" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="642" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A642" s="8"/>
       <c r="B642" s="8"/>
       <c r="C642" s="8"/>
@@ -12892,7 +14594,7 @@
       <c r="H642" s="8"/>
       <c r="I642" s="8"/>
     </row>
-    <row r="643" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="643" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A643" s="8"/>
       <c r="B643" s="8"/>
       <c r="C643" s="8"/>
@@ -12903,7 +14605,7 @@
       <c r="H643" s="8"/>
       <c r="I643" s="8"/>
     </row>
-    <row r="644" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="644" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A644" s="8"/>
       <c r="B644" s="8"/>
       <c r="C644" s="8"/>
@@ -12914,7 +14616,7 @@
       <c r="H644" s="8"/>
       <c r="I644" s="8"/>
     </row>
-    <row r="645" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="645" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A645" s="8"/>
       <c r="B645" s="8"/>
       <c r="C645" s="8"/>
@@ -12985,13 +14687,13 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -13008,7 +14710,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>74</v>
       </c>
@@ -13025,7 +14727,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>79</v>
       </c>
@@ -13039,7 +14741,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>207</v>
       </c>
@@ -13053,7 +14755,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>81</v>
       </c>
@@ -13067,7 +14769,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>82</v>
       </c>
@@ -13078,7 +14780,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>8</v>
       </c>
@@ -13086,7 +14788,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>17</v>
       </c>
@@ -13094,7 +14796,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>35</v>
       </c>
@@ -13102,7 +14804,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>72</v>
       </c>
@@ -13110,7 +14812,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>87</v>
       </c>
@@ -13118,7 +14820,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>143</v>
       </c>
@@ -13126,12 +14828,12 @@
         <v>134</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>92</v>
       </c>

--- a/assets/cost_sheet.xlsx
+++ b/assets/cost_sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/56C9449150E6BC49/Documentos/FEARP/Intercambio/spendure_app/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2737" documentId="8_{697955BF-7644-43E6-B102-A5718628249A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{401B1775-816D-45BE-A4CE-4257D077BE05}"/>
+  <xr:revisionPtr revIDLastSave="2738" documentId="8_{697955BF-7644-43E6-B102-A5718628249A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{82D312D0-60F9-4884-9558-50F27081423E}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{3A902579-E7D0-4425-859E-D7B710BECD9D}"/>
   </bookViews>
@@ -957,7 +957,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -991,12 +991,25 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1010,6 +1023,11 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -1349,10 +1367,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73D03841-840F-48EF-840B-36FDA2E59E7D}">
-  <dimension ref="A1:I645"/>
+  <dimension ref="A1:I751"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A328" workbookViewId="0">
-      <selection activeCell="I338" sqref="I338"/>
+    <sheetView tabSelected="1" topLeftCell="A374" workbookViewId="0">
+      <selection activeCell="D394" sqref="D394"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11915,2717 +11933,3883 @@
       </c>
     </row>
     <row r="401" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A401" s="7">
+      <c r="A401" s="13">
         <v>45838</v>
       </c>
-      <c r="B401" s="8" t="s">
+      <c r="B401" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="C401" s="8" t="s">
+      <c r="C401" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="D401" s="8" t="s">
+      <c r="D401" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="E401" s="8" t="s">
+      <c r="E401" s="14" t="s">
         <v>243</v>
       </c>
-      <c r="F401" s="8" t="s">
+      <c r="F401" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="G401" s="9">
+      <c r="G401" s="15">
         <v>4.4000000000000004</v>
       </c>
-      <c r="H401" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="I401" s="8" t="s">
+      <c r="H401" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="I401" s="14" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="402" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A402" s="8"/>
-      <c r="B402" s="8"/>
-      <c r="C402" s="8"/>
-      <c r="D402" s="8"/>
-      <c r="E402" s="8"/>
-      <c r="F402" s="8"/>
-      <c r="G402" s="9"/>
-      <c r="H402" s="8"/>
-      <c r="I402" s="8"/>
+      <c r="A402" s="16"/>
+      <c r="B402" s="16"/>
+      <c r="C402" s="16"/>
+      <c r="D402" s="16"/>
+      <c r="E402" s="16"/>
+      <c r="F402" s="16"/>
+      <c r="G402" s="17"/>
+      <c r="H402" s="16"/>
+      <c r="I402" s="16"/>
     </row>
     <row r="403" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A403" s="8"/>
-      <c r="B403" s="8"/>
-      <c r="C403" s="8"/>
-      <c r="D403" s="8"/>
-      <c r="E403" s="8"/>
-      <c r="F403" s="8"/>
-      <c r="G403" s="9"/>
-      <c r="H403" s="8"/>
-      <c r="I403" s="8"/>
+      <c r="A403" s="16"/>
+      <c r="B403" s="16"/>
+      <c r="C403" s="16"/>
+      <c r="D403" s="16"/>
+      <c r="E403" s="16"/>
+      <c r="F403" s="16"/>
+      <c r="G403" s="17"/>
+      <c r="H403" s="16"/>
+      <c r="I403" s="16"/>
     </row>
     <row r="404" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A404" s="8"/>
-      <c r="B404" s="8"/>
-      <c r="C404" s="8"/>
-      <c r="D404" s="8"/>
-      <c r="E404" s="8"/>
-      <c r="F404" s="8"/>
-      <c r="G404" s="9"/>
-      <c r="H404" s="8"/>
-      <c r="I404" s="8"/>
+      <c r="A404" s="16"/>
+      <c r="B404" s="16"/>
+      <c r="C404" s="16"/>
+      <c r="D404" s="16"/>
+      <c r="E404" s="16"/>
+      <c r="F404" s="16"/>
+      <c r="G404" s="17"/>
+      <c r="H404" s="16"/>
+      <c r="I404" s="16"/>
     </row>
     <row r="405" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A405" s="8"/>
-      <c r="B405" s="8"/>
-      <c r="C405" s="8"/>
-      <c r="D405" s="8"/>
-      <c r="E405" s="8"/>
-      <c r="F405" s="8"/>
-      <c r="G405" s="9"/>
-      <c r="H405" s="8"/>
-      <c r="I405" s="8"/>
+      <c r="A405" s="16"/>
+      <c r="B405" s="16"/>
+      <c r="C405" s="16"/>
+      <c r="D405" s="16"/>
+      <c r="E405" s="16"/>
+      <c r="F405" s="16"/>
+      <c r="G405" s="17"/>
+      <c r="H405" s="16"/>
+      <c r="I405" s="16"/>
     </row>
     <row r="406" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A406" s="8"/>
-      <c r="B406" s="8"/>
-      <c r="C406" s="8"/>
-      <c r="D406" s="8"/>
-      <c r="E406" s="8"/>
-      <c r="F406" s="8"/>
-      <c r="G406" s="9"/>
-      <c r="H406" s="8"/>
-      <c r="I406" s="8"/>
+      <c r="A406" s="16"/>
+      <c r="B406" s="16"/>
+      <c r="C406" s="16"/>
+      <c r="D406" s="16"/>
+      <c r="E406" s="16"/>
+      <c r="F406" s="16"/>
+      <c r="G406" s="17"/>
+      <c r="H406" s="16"/>
+      <c r="I406" s="16"/>
     </row>
     <row r="407" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A407" s="8"/>
-      <c r="B407" s="8"/>
-      <c r="C407" s="8"/>
-      <c r="D407" s="8"/>
-      <c r="E407" s="8"/>
-      <c r="F407" s="8"/>
-      <c r="G407" s="9"/>
-      <c r="H407" s="8"/>
-      <c r="I407" s="8"/>
+      <c r="A407" s="16"/>
+      <c r="B407" s="16"/>
+      <c r="C407" s="16"/>
+      <c r="D407" s="16"/>
+      <c r="E407" s="16"/>
+      <c r="F407" s="16"/>
+      <c r="G407" s="17"/>
+      <c r="H407" s="16"/>
+      <c r="I407" s="16"/>
     </row>
     <row r="408" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A408" s="8"/>
-      <c r="B408" s="8"/>
-      <c r="C408" s="8"/>
-      <c r="D408" s="8"/>
-      <c r="E408" s="8"/>
-      <c r="F408" s="8"/>
-      <c r="G408" s="9"/>
-      <c r="H408" s="8"/>
-      <c r="I408" s="8"/>
+      <c r="A408" s="16"/>
+      <c r="B408" s="16"/>
+      <c r="C408" s="16"/>
+      <c r="D408" s="16"/>
+      <c r="E408" s="16"/>
+      <c r="F408" s="16"/>
+      <c r="G408" s="17"/>
+      <c r="H408" s="16"/>
+      <c r="I408" s="16"/>
     </row>
     <row r="409" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A409" s="8"/>
-      <c r="B409" s="8"/>
-      <c r="C409" s="8"/>
-      <c r="D409" s="8"/>
-      <c r="E409" s="8"/>
-      <c r="F409" s="8"/>
-      <c r="G409" s="9"/>
-      <c r="H409" s="8"/>
-      <c r="I409" s="8"/>
+      <c r="A409" s="16"/>
+      <c r="B409" s="16"/>
+      <c r="C409" s="16"/>
+      <c r="D409" s="16"/>
+      <c r="E409" s="16"/>
+      <c r="F409" s="16"/>
+      <c r="G409" s="17"/>
+      <c r="H409" s="16"/>
+      <c r="I409" s="16"/>
     </row>
     <row r="410" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A410" s="8"/>
-      <c r="B410" s="8"/>
-      <c r="C410" s="8"/>
-      <c r="D410" s="8"/>
-      <c r="E410" s="8"/>
-      <c r="F410" s="8"/>
-      <c r="G410" s="9"/>
-      <c r="H410" s="8"/>
-      <c r="I410" s="8"/>
+      <c r="A410" s="16"/>
+      <c r="B410" s="16"/>
+      <c r="C410" s="16"/>
+      <c r="D410" s="16"/>
+      <c r="E410" s="16"/>
+      <c r="F410" s="16"/>
+      <c r="G410" s="17"/>
+      <c r="H410" s="16"/>
+      <c r="I410" s="16"/>
     </row>
     <row r="411" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A411" s="8"/>
-      <c r="B411" s="8"/>
-      <c r="C411" s="8"/>
-      <c r="D411" s="8"/>
-      <c r="E411" s="8"/>
-      <c r="F411" s="8"/>
-      <c r="G411" s="9"/>
-      <c r="H411" s="8"/>
-      <c r="I411" s="8"/>
+      <c r="A411" s="16"/>
+      <c r="B411" s="16"/>
+      <c r="C411" s="16"/>
+      <c r="D411" s="16"/>
+      <c r="E411" s="16"/>
+      <c r="F411" s="16"/>
+      <c r="G411" s="17"/>
+      <c r="H411" s="16"/>
+      <c r="I411" s="16"/>
     </row>
     <row r="412" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A412" s="8"/>
-      <c r="B412" s="8"/>
-      <c r="C412" s="8"/>
-      <c r="D412" s="8"/>
-      <c r="E412" s="8"/>
-      <c r="F412" s="8"/>
-      <c r="G412" s="9"/>
-      <c r="H412" s="8"/>
-      <c r="I412" s="8"/>
+      <c r="A412" s="16"/>
+      <c r="B412" s="16"/>
+      <c r="C412" s="16"/>
+      <c r="D412" s="16"/>
+      <c r="E412" s="16"/>
+      <c r="F412" s="16"/>
+      <c r="G412" s="17"/>
+      <c r="H412" s="16"/>
+      <c r="I412" s="16"/>
     </row>
     <row r="413" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A413" s="8"/>
-      <c r="B413" s="8"/>
-      <c r="C413" s="8"/>
-      <c r="D413" s="8"/>
-      <c r="E413" s="8"/>
-      <c r="F413" s="8"/>
-      <c r="G413" s="9"/>
-      <c r="H413" s="8"/>
-      <c r="I413" s="8"/>
+      <c r="A413" s="16"/>
+      <c r="B413" s="16"/>
+      <c r="C413" s="16"/>
+      <c r="D413" s="16"/>
+      <c r="E413" s="16"/>
+      <c r="F413" s="16"/>
+      <c r="G413" s="17"/>
+      <c r="H413" s="16"/>
+      <c r="I413" s="16"/>
     </row>
     <row r="414" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A414" s="8"/>
-      <c r="B414" s="8"/>
-      <c r="C414" s="8"/>
-      <c r="D414" s="8"/>
-      <c r="E414" s="8"/>
-      <c r="F414" s="8"/>
-      <c r="G414" s="9"/>
-      <c r="H414" s="8"/>
-      <c r="I414" s="8"/>
+      <c r="A414" s="16"/>
+      <c r="B414" s="16"/>
+      <c r="C414" s="16"/>
+      <c r="D414" s="16"/>
+      <c r="E414" s="16"/>
+      <c r="F414" s="16"/>
+      <c r="G414" s="17"/>
+      <c r="H414" s="16"/>
+      <c r="I414" s="16"/>
     </row>
     <row r="415" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A415" s="8"/>
-      <c r="B415" s="8"/>
-      <c r="C415" s="8"/>
-      <c r="D415" s="8"/>
-      <c r="E415" s="8"/>
-      <c r="F415" s="8"/>
-      <c r="G415" s="9"/>
-      <c r="H415" s="8"/>
-      <c r="I415" s="8"/>
+      <c r="A415" s="16"/>
+      <c r="B415" s="16"/>
+      <c r="C415" s="16"/>
+      <c r="D415" s="16"/>
+      <c r="E415" s="16"/>
+      <c r="F415" s="16"/>
+      <c r="G415" s="17"/>
+      <c r="H415" s="16"/>
+      <c r="I415" s="16"/>
     </row>
     <row r="416" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A416" s="8"/>
-      <c r="B416" s="8"/>
-      <c r="C416" s="8"/>
-      <c r="D416" s="8"/>
-      <c r="E416" s="8"/>
-      <c r="F416" s="8"/>
-      <c r="G416" s="9"/>
-      <c r="H416" s="8"/>
-      <c r="I416" s="8"/>
+      <c r="A416" s="16"/>
+      <c r="B416" s="16"/>
+      <c r="C416" s="16"/>
+      <c r="D416" s="16"/>
+      <c r="E416" s="16"/>
+      <c r="F416" s="16"/>
+      <c r="G416" s="17"/>
+      <c r="H416" s="16"/>
+      <c r="I416" s="16"/>
     </row>
     <row r="417" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A417" s="8"/>
-      <c r="B417" s="8"/>
-      <c r="C417" s="8"/>
-      <c r="D417" s="8"/>
-      <c r="E417" s="8"/>
-      <c r="F417" s="8"/>
-      <c r="G417" s="9"/>
-      <c r="H417" s="8"/>
-      <c r="I417" s="8"/>
+      <c r="A417" s="16"/>
+      <c r="B417" s="16"/>
+      <c r="C417" s="16"/>
+      <c r="D417" s="16"/>
+      <c r="E417" s="16"/>
+      <c r="F417" s="16"/>
+      <c r="G417" s="17"/>
+      <c r="H417" s="16"/>
+      <c r="I417" s="16"/>
     </row>
     <row r="418" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A418" s="8"/>
-      <c r="B418" s="8"/>
-      <c r="C418" s="8"/>
-      <c r="D418" s="8"/>
-      <c r="E418" s="8"/>
-      <c r="F418" s="8"/>
-      <c r="G418" s="9"/>
-      <c r="H418" s="8"/>
-      <c r="I418" s="8"/>
+      <c r="A418" s="16"/>
+      <c r="B418" s="16"/>
+      <c r="C418" s="16"/>
+      <c r="D418" s="16"/>
+      <c r="E418" s="16"/>
+      <c r="F418" s="16"/>
+      <c r="G418" s="17"/>
+      <c r="H418" s="16"/>
+      <c r="I418" s="16"/>
     </row>
     <row r="419" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A419" s="8"/>
-      <c r="B419" s="8"/>
-      <c r="C419" s="8"/>
-      <c r="D419" s="8"/>
-      <c r="E419" s="8"/>
-      <c r="F419" s="8"/>
-      <c r="G419" s="9"/>
-      <c r="H419" s="8"/>
-      <c r="I419" s="8"/>
+      <c r="A419" s="16"/>
+      <c r="B419" s="16"/>
+      <c r="C419" s="16"/>
+      <c r="D419" s="16"/>
+      <c r="E419" s="16"/>
+      <c r="F419" s="16"/>
+      <c r="G419" s="17"/>
+      <c r="H419" s="16"/>
+      <c r="I419" s="16"/>
     </row>
     <row r="420" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A420" s="8"/>
-      <c r="B420" s="8"/>
-      <c r="C420" s="8"/>
-      <c r="D420" s="8"/>
-      <c r="E420" s="8"/>
-      <c r="F420" s="8"/>
-      <c r="G420" s="9"/>
-      <c r="H420" s="8"/>
-      <c r="I420" s="8"/>
+      <c r="A420" s="16"/>
+      <c r="B420" s="16"/>
+      <c r="C420" s="16"/>
+      <c r="D420" s="16"/>
+      <c r="E420" s="16"/>
+      <c r="F420" s="16"/>
+      <c r="G420" s="17"/>
+      <c r="H420" s="16"/>
+      <c r="I420" s="16"/>
     </row>
     <row r="421" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A421" s="8"/>
-      <c r="B421" s="8"/>
-      <c r="C421" s="8"/>
-      <c r="D421" s="8"/>
-      <c r="E421" s="8"/>
-      <c r="F421" s="8"/>
-      <c r="G421" s="9"/>
-      <c r="H421" s="8"/>
-      <c r="I421" s="8"/>
+      <c r="A421" s="16"/>
+      <c r="B421" s="16"/>
+      <c r="C421" s="16"/>
+      <c r="D421" s="16"/>
+      <c r="E421" s="16"/>
+      <c r="F421" s="16"/>
+      <c r="G421" s="17"/>
+      <c r="H421" s="16"/>
+      <c r="I421" s="16"/>
     </row>
     <row r="422" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A422" s="8"/>
-      <c r="B422" s="8"/>
-      <c r="C422" s="8"/>
-      <c r="D422" s="8"/>
-      <c r="E422" s="8"/>
-      <c r="F422" s="8"/>
-      <c r="G422" s="9"/>
-      <c r="H422" s="8"/>
-      <c r="I422" s="8"/>
+      <c r="A422" s="16"/>
+      <c r="B422" s="16"/>
+      <c r="C422" s="16"/>
+      <c r="D422" s="16"/>
+      <c r="E422" s="16"/>
+      <c r="F422" s="16"/>
+      <c r="G422" s="17"/>
+      <c r="H422" s="16"/>
+      <c r="I422" s="16"/>
     </row>
     <row r="423" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A423" s="8"/>
-      <c r="B423" s="8"/>
-      <c r="C423" s="8"/>
-      <c r="D423" s="8"/>
-      <c r="E423" s="8"/>
-      <c r="F423" s="8"/>
-      <c r="G423" s="9"/>
-      <c r="H423" s="8"/>
-      <c r="I423" s="8"/>
+      <c r="A423" s="16"/>
+      <c r="B423" s="16"/>
+      <c r="C423" s="16"/>
+      <c r="D423" s="16"/>
+      <c r="E423" s="16"/>
+      <c r="F423" s="16"/>
+      <c r="G423" s="17"/>
+      <c r="H423" s="16"/>
+      <c r="I423" s="16"/>
     </row>
     <row r="424" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A424" s="8"/>
-      <c r="B424" s="8"/>
-      <c r="C424" s="8"/>
-      <c r="D424" s="8"/>
-      <c r="E424" s="8"/>
-      <c r="F424" s="8"/>
-      <c r="G424" s="9"/>
-      <c r="H424" s="8"/>
-      <c r="I424" s="8"/>
+      <c r="A424" s="16"/>
+      <c r="B424" s="16"/>
+      <c r="C424" s="16"/>
+      <c r="D424" s="16"/>
+      <c r="E424" s="16"/>
+      <c r="F424" s="16"/>
+      <c r="G424" s="17"/>
+      <c r="H424" s="16"/>
+      <c r="I424" s="16"/>
     </row>
     <row r="425" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A425" s="8"/>
-      <c r="B425" s="8"/>
-      <c r="C425" s="8"/>
-      <c r="D425" s="8"/>
-      <c r="E425" s="8"/>
-      <c r="F425" s="8"/>
-      <c r="G425" s="9"/>
-      <c r="H425" s="8"/>
-      <c r="I425" s="8"/>
+      <c r="A425" s="16"/>
+      <c r="B425" s="16"/>
+      <c r="C425" s="16"/>
+      <c r="D425" s="16"/>
+      <c r="E425" s="16"/>
+      <c r="F425" s="16"/>
+      <c r="G425" s="17"/>
+      <c r="H425" s="16"/>
+      <c r="I425" s="16"/>
     </row>
     <row r="426" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A426" s="8"/>
-      <c r="B426" s="8"/>
-      <c r="C426" s="8"/>
-      <c r="D426" s="8"/>
-      <c r="E426" s="8"/>
-      <c r="F426" s="8"/>
-      <c r="G426" s="9"/>
-      <c r="H426" s="8"/>
-      <c r="I426" s="8"/>
+      <c r="A426" s="16"/>
+      <c r="B426" s="16"/>
+      <c r="C426" s="16"/>
+      <c r="D426" s="16"/>
+      <c r="E426" s="16"/>
+      <c r="F426" s="16"/>
+      <c r="G426" s="17"/>
+      <c r="H426" s="16"/>
+      <c r="I426" s="16"/>
     </row>
     <row r="427" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A427" s="8"/>
-      <c r="B427" s="8"/>
-      <c r="C427" s="8"/>
-      <c r="D427" s="8"/>
-      <c r="E427" s="8"/>
-      <c r="F427" s="8"/>
-      <c r="G427" s="9"/>
-      <c r="H427" s="8"/>
-      <c r="I427" s="8"/>
+      <c r="A427" s="16"/>
+      <c r="B427" s="16"/>
+      <c r="C427" s="16"/>
+      <c r="D427" s="16"/>
+      <c r="E427" s="16"/>
+      <c r="F427" s="16"/>
+      <c r="G427" s="17"/>
+      <c r="H427" s="16"/>
+      <c r="I427" s="16"/>
     </row>
     <row r="428" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A428" s="8"/>
-      <c r="B428" s="8"/>
-      <c r="C428" s="8"/>
-      <c r="D428" s="8"/>
-      <c r="E428" s="8"/>
-      <c r="F428" s="8"/>
-      <c r="G428" s="9"/>
-      <c r="H428" s="8"/>
-      <c r="I428" s="8"/>
+      <c r="A428" s="16"/>
+      <c r="B428" s="16"/>
+      <c r="C428" s="16"/>
+      <c r="D428" s="16"/>
+      <c r="E428" s="16"/>
+      <c r="F428" s="16"/>
+      <c r="G428" s="17"/>
+      <c r="H428" s="16"/>
+      <c r="I428" s="16"/>
     </row>
     <row r="429" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A429" s="8"/>
-      <c r="B429" s="8"/>
-      <c r="C429" s="8"/>
-      <c r="D429" s="8"/>
-      <c r="E429" s="8"/>
-      <c r="F429" s="8"/>
-      <c r="G429" s="9"/>
-      <c r="H429" s="8"/>
-      <c r="I429" s="8"/>
+      <c r="A429" s="16"/>
+      <c r="B429" s="16"/>
+      <c r="C429" s="16"/>
+      <c r="D429" s="16"/>
+      <c r="E429" s="16"/>
+      <c r="F429" s="16"/>
+      <c r="G429" s="17"/>
+      <c r="H429" s="16"/>
+      <c r="I429" s="16"/>
     </row>
     <row r="430" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A430" s="8"/>
-      <c r="B430" s="8"/>
-      <c r="C430" s="8"/>
-      <c r="D430" s="8"/>
-      <c r="E430" s="8"/>
-      <c r="F430" s="8"/>
-      <c r="G430" s="9"/>
-      <c r="H430" s="8"/>
-      <c r="I430" s="8"/>
+      <c r="A430" s="16"/>
+      <c r="B430" s="16"/>
+      <c r="C430" s="16"/>
+      <c r="D430" s="16"/>
+      <c r="E430" s="16"/>
+      <c r="F430" s="16"/>
+      <c r="G430" s="17"/>
+      <c r="H430" s="16"/>
+      <c r="I430" s="16"/>
     </row>
     <row r="431" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A431" s="8"/>
-      <c r="B431" s="8"/>
-      <c r="C431" s="8"/>
-      <c r="D431" s="8"/>
-      <c r="E431" s="8"/>
-      <c r="F431" s="8"/>
-      <c r="G431" s="9"/>
-      <c r="H431" s="8"/>
-      <c r="I431" s="8"/>
+      <c r="A431" s="16"/>
+      <c r="B431" s="16"/>
+      <c r="C431" s="16"/>
+      <c r="D431" s="16"/>
+      <c r="E431" s="16"/>
+      <c r="F431" s="16"/>
+      <c r="G431" s="17"/>
+      <c r="H431" s="16"/>
+      <c r="I431" s="16"/>
     </row>
     <row r="432" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A432" s="8"/>
-      <c r="B432" s="8"/>
-      <c r="C432" s="8"/>
-      <c r="D432" s="8"/>
-      <c r="E432" s="8"/>
-      <c r="F432" s="8"/>
-      <c r="G432" s="9"/>
-      <c r="H432" s="8"/>
-      <c r="I432" s="8"/>
+      <c r="A432" s="16"/>
+      <c r="B432" s="16"/>
+      <c r="C432" s="16"/>
+      <c r="D432" s="16"/>
+      <c r="E432" s="16"/>
+      <c r="F432" s="16"/>
+      <c r="G432" s="17"/>
+      <c r="H432" s="16"/>
+      <c r="I432" s="16"/>
     </row>
     <row r="433" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A433" s="8"/>
-      <c r="B433" s="8"/>
-      <c r="C433" s="8"/>
-      <c r="D433" s="8"/>
-      <c r="E433" s="8"/>
-      <c r="F433" s="8"/>
-      <c r="G433" s="9"/>
-      <c r="H433" s="8"/>
-      <c r="I433" s="8"/>
+      <c r="A433" s="16"/>
+      <c r="B433" s="16"/>
+      <c r="C433" s="16"/>
+      <c r="D433" s="16"/>
+      <c r="E433" s="16"/>
+      <c r="F433" s="16"/>
+      <c r="G433" s="17"/>
+      <c r="H433" s="16"/>
+      <c r="I433" s="16"/>
     </row>
     <row r="434" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A434" s="8"/>
-      <c r="B434" s="8"/>
-      <c r="C434" s="8"/>
-      <c r="D434" s="8"/>
-      <c r="E434" s="8"/>
-      <c r="F434" s="8"/>
-      <c r="G434" s="9"/>
-      <c r="H434" s="8"/>
-      <c r="I434" s="8"/>
+      <c r="A434" s="16"/>
+      <c r="B434" s="16"/>
+      <c r="C434" s="16"/>
+      <c r="D434" s="16"/>
+      <c r="E434" s="16"/>
+      <c r="F434" s="16"/>
+      <c r="G434" s="17"/>
+      <c r="H434" s="16"/>
+      <c r="I434" s="16"/>
     </row>
     <row r="435" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A435" s="8"/>
-      <c r="B435" s="8"/>
-      <c r="C435" s="8"/>
-      <c r="D435" s="8"/>
-      <c r="E435" s="8"/>
-      <c r="F435" s="8"/>
-      <c r="G435" s="9"/>
-      <c r="H435" s="8"/>
-      <c r="I435" s="8"/>
+      <c r="A435" s="16"/>
+      <c r="B435" s="16"/>
+      <c r="C435" s="16"/>
+      <c r="D435" s="16"/>
+      <c r="E435" s="16"/>
+      <c r="F435" s="16"/>
+      <c r="G435" s="17"/>
+      <c r="H435" s="16"/>
+      <c r="I435" s="16"/>
     </row>
     <row r="436" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A436" s="8"/>
-      <c r="B436" s="8"/>
-      <c r="C436" s="8"/>
-      <c r="D436" s="8"/>
-      <c r="E436" s="8"/>
-      <c r="F436" s="8"/>
-      <c r="G436" s="9"/>
-      <c r="H436" s="8"/>
-      <c r="I436" s="8"/>
+      <c r="A436" s="16"/>
+      <c r="B436" s="16"/>
+      <c r="C436" s="16"/>
+      <c r="D436" s="16"/>
+      <c r="E436" s="16"/>
+      <c r="F436" s="16"/>
+      <c r="G436" s="17"/>
+      <c r="H436" s="16"/>
+      <c r="I436" s="16"/>
     </row>
     <row r="437" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A437" s="8"/>
-      <c r="B437" s="8"/>
-      <c r="C437" s="8"/>
-      <c r="D437" s="8"/>
-      <c r="E437" s="8"/>
-      <c r="F437" s="8"/>
-      <c r="G437" s="9"/>
-      <c r="H437" s="8"/>
-      <c r="I437" s="8"/>
+      <c r="A437" s="16"/>
+      <c r="B437" s="16"/>
+      <c r="C437" s="16"/>
+      <c r="D437" s="16"/>
+      <c r="E437" s="16"/>
+      <c r="F437" s="16"/>
+      <c r="G437" s="17"/>
+      <c r="H437" s="16"/>
+      <c r="I437" s="16"/>
     </row>
     <row r="438" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A438" s="8"/>
-      <c r="B438" s="8"/>
-      <c r="C438" s="8"/>
-      <c r="D438" s="8"/>
-      <c r="E438" s="8"/>
-      <c r="F438" s="8"/>
-      <c r="G438" s="9"/>
-      <c r="H438" s="8"/>
-      <c r="I438" s="8"/>
+      <c r="A438" s="16"/>
+      <c r="B438" s="16"/>
+      <c r="C438" s="16"/>
+      <c r="D438" s="16"/>
+      <c r="E438" s="16"/>
+      <c r="F438" s="16"/>
+      <c r="G438" s="17"/>
+      <c r="H438" s="16"/>
+      <c r="I438" s="16"/>
     </row>
     <row r="439" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A439" s="8"/>
-      <c r="B439" s="8"/>
-      <c r="C439" s="8"/>
-      <c r="D439" s="8"/>
-      <c r="E439" s="8"/>
-      <c r="F439" s="8"/>
-      <c r="G439" s="9"/>
-      <c r="H439" s="8"/>
-      <c r="I439" s="8"/>
+      <c r="A439" s="16"/>
+      <c r="B439" s="16"/>
+      <c r="C439" s="16"/>
+      <c r="D439" s="16"/>
+      <c r="E439" s="16"/>
+      <c r="F439" s="16"/>
+      <c r="G439" s="17"/>
+      <c r="H439" s="16"/>
+      <c r="I439" s="16"/>
     </row>
     <row r="440" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A440" s="8"/>
-      <c r="B440" s="8"/>
-      <c r="C440" s="8"/>
-      <c r="D440" s="8"/>
-      <c r="E440" s="8"/>
-      <c r="F440" s="8"/>
-      <c r="G440" s="9"/>
-      <c r="H440" s="8"/>
-      <c r="I440" s="8"/>
+      <c r="A440" s="16"/>
+      <c r="B440" s="16"/>
+      <c r="C440" s="16"/>
+      <c r="D440" s="16"/>
+      <c r="E440" s="16"/>
+      <c r="F440" s="16"/>
+      <c r="G440" s="17"/>
+      <c r="H440" s="16"/>
+      <c r="I440" s="16"/>
     </row>
     <row r="441" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A441" s="8"/>
-      <c r="B441" s="8"/>
-      <c r="C441" s="8"/>
-      <c r="D441" s="8"/>
-      <c r="E441" s="8"/>
-      <c r="F441" s="8"/>
-      <c r="G441" s="9"/>
-      <c r="H441" s="8"/>
-      <c r="I441" s="8"/>
+      <c r="A441" s="16"/>
+      <c r="B441" s="16"/>
+      <c r="C441" s="16"/>
+      <c r="D441" s="16"/>
+      <c r="E441" s="16"/>
+      <c r="F441" s="16"/>
+      <c r="G441" s="17"/>
+      <c r="H441" s="16"/>
+      <c r="I441" s="16"/>
     </row>
     <row r="442" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A442" s="8"/>
-      <c r="B442" s="8"/>
-      <c r="C442" s="8"/>
-      <c r="D442" s="8"/>
-      <c r="E442" s="8"/>
-      <c r="F442" s="8"/>
-      <c r="G442" s="9"/>
-      <c r="H442" s="8"/>
-      <c r="I442" s="8"/>
+      <c r="A442" s="16"/>
+      <c r="B442" s="16"/>
+      <c r="C442" s="16"/>
+      <c r="D442" s="16"/>
+      <c r="E442" s="16"/>
+      <c r="F442" s="16"/>
+      <c r="G442" s="17"/>
+      <c r="H442" s="16"/>
+      <c r="I442" s="16"/>
     </row>
     <row r="443" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A443" s="8"/>
-      <c r="B443" s="8"/>
-      <c r="C443" s="8"/>
-      <c r="D443" s="8"/>
-      <c r="E443" s="8"/>
-      <c r="F443" s="8"/>
-      <c r="G443" s="9"/>
-      <c r="H443" s="8"/>
-      <c r="I443" s="8"/>
+      <c r="A443" s="16"/>
+      <c r="B443" s="16"/>
+      <c r="C443" s="16"/>
+      <c r="D443" s="16"/>
+      <c r="E443" s="16"/>
+      <c r="F443" s="16"/>
+      <c r="G443" s="17"/>
+      <c r="H443" s="16"/>
+      <c r="I443" s="16"/>
     </row>
     <row r="444" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A444" s="8"/>
-      <c r="B444" s="8"/>
-      <c r="C444" s="8"/>
-      <c r="D444" s="8"/>
-      <c r="E444" s="8"/>
-      <c r="F444" s="8"/>
-      <c r="G444" s="9"/>
-      <c r="H444" s="8"/>
-      <c r="I444" s="8"/>
+      <c r="A444" s="16"/>
+      <c r="B444" s="16"/>
+      <c r="C444" s="16"/>
+      <c r="D444" s="16"/>
+      <c r="E444" s="16"/>
+      <c r="F444" s="16"/>
+      <c r="G444" s="17"/>
+      <c r="H444" s="16"/>
+      <c r="I444" s="16"/>
     </row>
     <row r="445" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A445" s="8"/>
-      <c r="B445" s="8"/>
-      <c r="C445" s="8"/>
-      <c r="D445" s="8"/>
-      <c r="E445" s="8"/>
-      <c r="F445" s="8"/>
-      <c r="G445" s="9"/>
-      <c r="H445" s="8"/>
-      <c r="I445" s="8"/>
+      <c r="A445" s="16"/>
+      <c r="B445" s="16"/>
+      <c r="C445" s="16"/>
+      <c r="D445" s="16"/>
+      <c r="E445" s="16"/>
+      <c r="F445" s="16"/>
+      <c r="G445" s="17"/>
+      <c r="H445" s="16"/>
+      <c r="I445" s="16"/>
     </row>
     <row r="446" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A446" s="8"/>
-      <c r="B446" s="8"/>
-      <c r="C446" s="8"/>
-      <c r="D446" s="8"/>
-      <c r="E446" s="8"/>
-      <c r="F446" s="8"/>
-      <c r="G446" s="9"/>
-      <c r="H446" s="8"/>
-      <c r="I446" s="8"/>
+      <c r="A446" s="16"/>
+      <c r="B446" s="16"/>
+      <c r="C446" s="16"/>
+      <c r="D446" s="16"/>
+      <c r="E446" s="16"/>
+      <c r="F446" s="16"/>
+      <c r="G446" s="17"/>
+      <c r="H446" s="16"/>
+      <c r="I446" s="16"/>
     </row>
     <row r="447" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A447" s="8"/>
-      <c r="B447" s="8"/>
-      <c r="C447" s="8"/>
-      <c r="D447" s="8"/>
-      <c r="E447" s="8"/>
-      <c r="F447" s="8"/>
-      <c r="G447" s="9"/>
-      <c r="H447" s="8"/>
-      <c r="I447" s="8"/>
+      <c r="A447" s="16"/>
+      <c r="B447" s="16"/>
+      <c r="C447" s="16"/>
+      <c r="D447" s="16"/>
+      <c r="E447" s="16"/>
+      <c r="F447" s="16"/>
+      <c r="G447" s="17"/>
+      <c r="H447" s="16"/>
+      <c r="I447" s="16"/>
     </row>
     <row r="448" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A448" s="8"/>
-      <c r="B448" s="8"/>
-      <c r="C448" s="8"/>
-      <c r="D448" s="8"/>
-      <c r="E448" s="8"/>
-      <c r="F448" s="8"/>
-      <c r="G448" s="9"/>
-      <c r="H448" s="8"/>
-      <c r="I448" s="8"/>
+      <c r="A448" s="16"/>
+      <c r="B448" s="16"/>
+      <c r="C448" s="16"/>
+      <c r="D448" s="16"/>
+      <c r="E448" s="16"/>
+      <c r="F448" s="16"/>
+      <c r="G448" s="17"/>
+      <c r="H448" s="16"/>
+      <c r="I448" s="16"/>
     </row>
     <row r="449" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A449" s="8"/>
-      <c r="B449" s="8"/>
-      <c r="C449" s="8"/>
-      <c r="D449" s="8"/>
-      <c r="E449" s="8"/>
-      <c r="F449" s="8"/>
-      <c r="G449" s="9"/>
-      <c r="H449" s="8"/>
-      <c r="I449" s="8"/>
+      <c r="A449" s="16"/>
+      <c r="B449" s="16"/>
+      <c r="C449" s="16"/>
+      <c r="D449" s="16"/>
+      <c r="E449" s="16"/>
+      <c r="F449" s="16"/>
+      <c r="G449" s="17"/>
+      <c r="H449" s="16"/>
+      <c r="I449" s="16"/>
     </row>
     <row r="450" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A450" s="8"/>
-      <c r="B450" s="8"/>
-      <c r="C450" s="8"/>
-      <c r="D450" s="8"/>
-      <c r="E450" s="8"/>
-      <c r="F450" s="8"/>
-      <c r="G450" s="9"/>
-      <c r="H450" s="8"/>
-      <c r="I450" s="8"/>
+      <c r="A450" s="16"/>
+      <c r="B450" s="16"/>
+      <c r="C450" s="16"/>
+      <c r="D450" s="16"/>
+      <c r="E450" s="16"/>
+      <c r="F450" s="16"/>
+      <c r="G450" s="17"/>
+      <c r="H450" s="16"/>
+      <c r="I450" s="16"/>
     </row>
     <row r="451" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A451" s="8"/>
-      <c r="B451" s="8"/>
-      <c r="C451" s="8"/>
-      <c r="D451" s="8"/>
-      <c r="E451" s="8"/>
-      <c r="F451" s="8"/>
-      <c r="G451" s="9"/>
-      <c r="H451" s="8"/>
-      <c r="I451" s="8"/>
+      <c r="A451" s="16"/>
+      <c r="B451" s="16"/>
+      <c r="C451" s="16"/>
+      <c r="D451" s="16"/>
+      <c r="E451" s="16"/>
+      <c r="F451" s="16"/>
+      <c r="G451" s="17"/>
+      <c r="H451" s="16"/>
+      <c r="I451" s="16"/>
     </row>
     <row r="452" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A452" s="8"/>
-      <c r="B452" s="8"/>
-      <c r="C452" s="8"/>
-      <c r="D452" s="8"/>
-      <c r="E452" s="8"/>
-      <c r="F452" s="8"/>
-      <c r="G452" s="9"/>
-      <c r="H452" s="8"/>
-      <c r="I452" s="8"/>
+      <c r="A452" s="16"/>
+      <c r="B452" s="16"/>
+      <c r="C452" s="16"/>
+      <c r="D452" s="16"/>
+      <c r="E452" s="16"/>
+      <c r="F452" s="16"/>
+      <c r="G452" s="17"/>
+      <c r="H452" s="16"/>
+      <c r="I452" s="16"/>
     </row>
     <row r="453" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A453" s="8"/>
-      <c r="B453" s="8"/>
-      <c r="C453" s="8"/>
-      <c r="D453" s="8"/>
-      <c r="E453" s="8"/>
-      <c r="F453" s="8"/>
-      <c r="G453" s="9"/>
-      <c r="H453" s="8"/>
-      <c r="I453" s="8"/>
+      <c r="A453" s="16"/>
+      <c r="B453" s="16"/>
+      <c r="C453" s="16"/>
+      <c r="D453" s="16"/>
+      <c r="E453" s="16"/>
+      <c r="F453" s="16"/>
+      <c r="G453" s="17"/>
+      <c r="H453" s="16"/>
+      <c r="I453" s="16"/>
     </row>
     <row r="454" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A454" s="8"/>
-      <c r="B454" s="8"/>
-      <c r="C454" s="8"/>
-      <c r="D454" s="8"/>
-      <c r="E454" s="8"/>
-      <c r="F454" s="8"/>
-      <c r="G454" s="9"/>
-      <c r="H454" s="8"/>
-      <c r="I454" s="8"/>
+      <c r="A454" s="16"/>
+      <c r="B454" s="16"/>
+      <c r="C454" s="16"/>
+      <c r="D454" s="16"/>
+      <c r="E454" s="16"/>
+      <c r="F454" s="16"/>
+      <c r="G454" s="17"/>
+      <c r="H454" s="16"/>
+      <c r="I454" s="16"/>
     </row>
     <row r="455" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A455" s="8"/>
-      <c r="B455" s="8"/>
-      <c r="C455" s="8"/>
-      <c r="D455" s="8"/>
-      <c r="E455" s="8"/>
-      <c r="F455" s="8"/>
-      <c r="G455" s="9"/>
-      <c r="H455" s="8"/>
-      <c r="I455" s="8"/>
+      <c r="A455" s="16"/>
+      <c r="B455" s="16"/>
+      <c r="C455" s="16"/>
+      <c r="D455" s="16"/>
+      <c r="E455" s="16"/>
+      <c r="F455" s="16"/>
+      <c r="G455" s="17"/>
+      <c r="H455" s="16"/>
+      <c r="I455" s="16"/>
     </row>
     <row r="456" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A456" s="8"/>
-      <c r="B456" s="8"/>
-      <c r="C456" s="8"/>
-      <c r="D456" s="8"/>
-      <c r="E456" s="8"/>
-      <c r="F456" s="8"/>
-      <c r="G456" s="9"/>
-      <c r="H456" s="8"/>
-      <c r="I456" s="8"/>
+      <c r="A456" s="16"/>
+      <c r="B456" s="16"/>
+      <c r="C456" s="16"/>
+      <c r="D456" s="16"/>
+      <c r="E456" s="16"/>
+      <c r="F456" s="16"/>
+      <c r="G456" s="17"/>
+      <c r="H456" s="16"/>
+      <c r="I456" s="16"/>
     </row>
     <row r="457" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A457" s="8"/>
-      <c r="B457" s="8"/>
-      <c r="C457" s="8"/>
-      <c r="D457" s="8"/>
-      <c r="E457" s="8"/>
-      <c r="F457" s="8"/>
-      <c r="G457" s="9"/>
-      <c r="H457" s="8"/>
-      <c r="I457" s="8"/>
+      <c r="A457" s="16"/>
+      <c r="B457" s="16"/>
+      <c r="C457" s="16"/>
+      <c r="D457" s="16"/>
+      <c r="E457" s="16"/>
+      <c r="F457" s="16"/>
+      <c r="G457" s="17"/>
+      <c r="H457" s="16"/>
+      <c r="I457" s="16"/>
     </row>
     <row r="458" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A458" s="8"/>
-      <c r="B458" s="8"/>
-      <c r="C458" s="8"/>
-      <c r="D458" s="8"/>
-      <c r="E458" s="8"/>
-      <c r="F458" s="8"/>
-      <c r="G458" s="9"/>
-      <c r="H458" s="8"/>
-      <c r="I458" s="8"/>
+      <c r="A458" s="16"/>
+      <c r="B458" s="16"/>
+      <c r="C458" s="16"/>
+      <c r="D458" s="16"/>
+      <c r="E458" s="16"/>
+      <c r="F458" s="16"/>
+      <c r="G458" s="17"/>
+      <c r="H458" s="16"/>
+      <c r="I458" s="16"/>
     </row>
     <row r="459" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A459" s="8"/>
-      <c r="B459" s="8"/>
-      <c r="C459" s="8"/>
-      <c r="D459" s="8"/>
-      <c r="E459" s="8"/>
-      <c r="F459" s="8"/>
-      <c r="G459" s="9"/>
-      <c r="H459" s="8"/>
-      <c r="I459" s="8"/>
+      <c r="A459" s="16"/>
+      <c r="B459" s="16"/>
+      <c r="C459" s="16"/>
+      <c r="D459" s="16"/>
+      <c r="E459" s="16"/>
+      <c r="F459" s="16"/>
+      <c r="G459" s="17"/>
+      <c r="H459" s="16"/>
+      <c r="I459" s="16"/>
     </row>
     <row r="460" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A460" s="8"/>
-      <c r="B460" s="8"/>
-      <c r="C460" s="8"/>
-      <c r="D460" s="8"/>
-      <c r="E460" s="8"/>
-      <c r="F460" s="8"/>
-      <c r="G460" s="9"/>
-      <c r="H460" s="8"/>
-      <c r="I460" s="8"/>
+      <c r="A460" s="16"/>
+      <c r="B460" s="16"/>
+      <c r="C460" s="16"/>
+      <c r="D460" s="16"/>
+      <c r="E460" s="16"/>
+      <c r="F460" s="16"/>
+      <c r="G460" s="17"/>
+      <c r="H460" s="16"/>
+      <c r="I460" s="16"/>
     </row>
     <row r="461" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A461" s="8"/>
-      <c r="B461" s="8"/>
-      <c r="C461" s="8"/>
-      <c r="D461" s="8"/>
-      <c r="E461" s="8"/>
-      <c r="F461" s="8"/>
-      <c r="G461" s="9"/>
-      <c r="H461" s="8"/>
-      <c r="I461" s="8"/>
+      <c r="A461" s="16"/>
+      <c r="B461" s="16"/>
+      <c r="C461" s="16"/>
+      <c r="D461" s="16"/>
+      <c r="E461" s="16"/>
+      <c r="F461" s="16"/>
+      <c r="G461" s="17"/>
+      <c r="H461" s="16"/>
+      <c r="I461" s="16"/>
     </row>
     <row r="462" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A462" s="8"/>
-      <c r="B462" s="8"/>
-      <c r="C462" s="8"/>
-      <c r="D462" s="8"/>
-      <c r="E462" s="8"/>
-      <c r="F462" s="8"/>
-      <c r="G462" s="9"/>
-      <c r="H462" s="8"/>
-      <c r="I462" s="8"/>
+      <c r="A462" s="16"/>
+      <c r="B462" s="16"/>
+      <c r="C462" s="16"/>
+      <c r="D462" s="16"/>
+      <c r="E462" s="16"/>
+      <c r="F462" s="16"/>
+      <c r="G462" s="17"/>
+      <c r="H462" s="16"/>
+      <c r="I462" s="16"/>
     </row>
     <row r="463" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A463" s="8"/>
-      <c r="B463" s="8"/>
-      <c r="C463" s="8"/>
-      <c r="D463" s="8"/>
-      <c r="E463" s="8"/>
-      <c r="F463" s="8"/>
-      <c r="G463" s="9"/>
-      <c r="H463" s="8"/>
-      <c r="I463" s="8"/>
+      <c r="A463" s="16"/>
+      <c r="B463" s="16"/>
+      <c r="C463" s="16"/>
+      <c r="D463" s="16"/>
+      <c r="E463" s="16"/>
+      <c r="F463" s="16"/>
+      <c r="G463" s="17"/>
+      <c r="H463" s="16"/>
+      <c r="I463" s="16"/>
     </row>
     <row r="464" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A464" s="8"/>
-      <c r="B464" s="8"/>
-      <c r="C464" s="8"/>
-      <c r="D464" s="8"/>
-      <c r="E464" s="8"/>
-      <c r="F464" s="8"/>
-      <c r="G464" s="9"/>
-      <c r="H464" s="8"/>
-      <c r="I464" s="8"/>
+      <c r="A464" s="16"/>
+      <c r="B464" s="16"/>
+      <c r="C464" s="16"/>
+      <c r="D464" s="16"/>
+      <c r="E464" s="16"/>
+      <c r="F464" s="16"/>
+      <c r="G464" s="17"/>
+      <c r="H464" s="16"/>
+      <c r="I464" s="16"/>
     </row>
     <row r="465" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A465" s="8"/>
-      <c r="B465" s="8"/>
-      <c r="C465" s="8"/>
-      <c r="D465" s="8"/>
-      <c r="E465" s="8"/>
-      <c r="F465" s="8"/>
-      <c r="G465" s="9"/>
-      <c r="H465" s="8"/>
-      <c r="I465" s="8"/>
+      <c r="A465" s="16"/>
+      <c r="B465" s="16"/>
+      <c r="C465" s="16"/>
+      <c r="D465" s="16"/>
+      <c r="E465" s="16"/>
+      <c r="F465" s="16"/>
+      <c r="G465" s="17"/>
+      <c r="H465" s="16"/>
+      <c r="I465" s="16"/>
     </row>
     <row r="466" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A466" s="8"/>
-      <c r="B466" s="8"/>
-      <c r="C466" s="8"/>
-      <c r="D466" s="8"/>
-      <c r="E466" s="8"/>
-      <c r="F466" s="8"/>
-      <c r="G466" s="9"/>
-      <c r="H466" s="8"/>
-      <c r="I466" s="8"/>
+      <c r="A466" s="16"/>
+      <c r="B466" s="16"/>
+      <c r="C466" s="16"/>
+      <c r="D466" s="16"/>
+      <c r="E466" s="16"/>
+      <c r="F466" s="16"/>
+      <c r="G466" s="17"/>
+      <c r="H466" s="16"/>
+      <c r="I466" s="16"/>
     </row>
     <row r="467" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A467" s="8"/>
-      <c r="B467" s="8"/>
-      <c r="C467" s="8"/>
-      <c r="D467" s="8"/>
-      <c r="E467" s="8"/>
-      <c r="F467" s="8"/>
-      <c r="G467" s="9"/>
-      <c r="H467" s="8"/>
-      <c r="I467" s="8"/>
+      <c r="A467" s="16"/>
+      <c r="B467" s="16"/>
+      <c r="C467" s="16"/>
+      <c r="D467" s="16"/>
+      <c r="E467" s="16"/>
+      <c r="F467" s="16"/>
+      <c r="G467" s="17"/>
+      <c r="H467" s="16"/>
+      <c r="I467" s="16"/>
     </row>
     <row r="468" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A468" s="8"/>
-      <c r="B468" s="8"/>
-      <c r="C468" s="8"/>
-      <c r="D468" s="8"/>
-      <c r="E468" s="8"/>
-      <c r="F468" s="8"/>
-      <c r="G468" s="9"/>
-      <c r="H468" s="8"/>
-      <c r="I468" s="8"/>
+      <c r="A468" s="16"/>
+      <c r="B468" s="16"/>
+      <c r="C468" s="16"/>
+      <c r="D468" s="16"/>
+      <c r="E468" s="16"/>
+      <c r="F468" s="16"/>
+      <c r="G468" s="17"/>
+      <c r="H468" s="16"/>
+      <c r="I468" s="16"/>
     </row>
     <row r="469" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A469" s="8"/>
-      <c r="B469" s="8"/>
-      <c r="C469" s="8"/>
-      <c r="D469" s="8"/>
-      <c r="E469" s="8"/>
-      <c r="F469" s="8"/>
-      <c r="G469" s="9"/>
-      <c r="H469" s="8"/>
-      <c r="I469" s="8"/>
+      <c r="A469" s="16"/>
+      <c r="B469" s="16"/>
+      <c r="C469" s="16"/>
+      <c r="D469" s="16"/>
+      <c r="E469" s="16"/>
+      <c r="F469" s="16"/>
+      <c r="G469" s="17"/>
+      <c r="H469" s="16"/>
+      <c r="I469" s="16"/>
     </row>
     <row r="470" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A470" s="8"/>
-      <c r="B470" s="8"/>
-      <c r="C470" s="8"/>
-      <c r="D470" s="8"/>
-      <c r="E470" s="8"/>
-      <c r="F470" s="8"/>
-      <c r="G470" s="9"/>
-      <c r="H470" s="8"/>
-      <c r="I470" s="8"/>
+      <c r="A470" s="16"/>
+      <c r="B470" s="16"/>
+      <c r="C470" s="16"/>
+      <c r="D470" s="16"/>
+      <c r="E470" s="16"/>
+      <c r="F470" s="16"/>
+      <c r="G470" s="17"/>
+      <c r="H470" s="16"/>
+      <c r="I470" s="16"/>
     </row>
     <row r="471" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A471" s="8"/>
-      <c r="B471" s="8"/>
-      <c r="C471" s="8"/>
-      <c r="D471" s="8"/>
-      <c r="E471" s="8"/>
-      <c r="F471" s="8"/>
-      <c r="G471" s="9"/>
-      <c r="H471" s="8"/>
-      <c r="I471" s="8"/>
+      <c r="A471" s="16"/>
+      <c r="B471" s="16"/>
+      <c r="C471" s="16"/>
+      <c r="D471" s="16"/>
+      <c r="E471" s="16"/>
+      <c r="F471" s="16"/>
+      <c r="G471" s="17"/>
+      <c r="H471" s="16"/>
+      <c r="I471" s="16"/>
     </row>
     <row r="472" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A472" s="8"/>
-      <c r="B472" s="8"/>
-      <c r="C472" s="8"/>
-      <c r="D472" s="8"/>
-      <c r="E472" s="8"/>
-      <c r="F472" s="8"/>
-      <c r="G472" s="9"/>
-      <c r="H472" s="8"/>
-      <c r="I472" s="8"/>
+      <c r="A472" s="16"/>
+      <c r="B472" s="16"/>
+      <c r="C472" s="16"/>
+      <c r="D472" s="16"/>
+      <c r="E472" s="16"/>
+      <c r="F472" s="16"/>
+      <c r="G472" s="17"/>
+      <c r="H472" s="16"/>
+      <c r="I472" s="16"/>
     </row>
     <row r="473" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A473" s="8"/>
-      <c r="B473" s="8"/>
-      <c r="C473" s="8"/>
-      <c r="D473" s="8"/>
-      <c r="E473" s="8"/>
-      <c r="F473" s="8"/>
-      <c r="G473" s="9"/>
-      <c r="H473" s="8"/>
-      <c r="I473" s="8"/>
+      <c r="A473" s="16"/>
+      <c r="B473" s="16"/>
+      <c r="C473" s="16"/>
+      <c r="D473" s="16"/>
+      <c r="E473" s="16"/>
+      <c r="F473" s="16"/>
+      <c r="G473" s="17"/>
+      <c r="H473" s="16"/>
+      <c r="I473" s="16"/>
     </row>
     <row r="474" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A474" s="8"/>
-      <c r="B474" s="8"/>
-      <c r="C474" s="8"/>
-      <c r="D474" s="8"/>
-      <c r="E474" s="8"/>
-      <c r="F474" s="8"/>
-      <c r="G474" s="9"/>
-      <c r="H474" s="8"/>
-      <c r="I474" s="8"/>
+      <c r="A474" s="16"/>
+      <c r="B474" s="16"/>
+      <c r="C474" s="16"/>
+      <c r="D474" s="16"/>
+      <c r="E474" s="16"/>
+      <c r="F474" s="16"/>
+      <c r="G474" s="17"/>
+      <c r="H474" s="16"/>
+      <c r="I474" s="16"/>
     </row>
     <row r="475" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A475" s="8"/>
-      <c r="B475" s="8"/>
-      <c r="C475" s="8"/>
-      <c r="D475" s="8"/>
-      <c r="E475" s="8"/>
-      <c r="F475" s="8"/>
-      <c r="G475" s="9"/>
-      <c r="H475" s="8"/>
-      <c r="I475" s="8"/>
+      <c r="A475" s="16"/>
+      <c r="B475" s="16"/>
+      <c r="C475" s="16"/>
+      <c r="D475" s="16"/>
+      <c r="E475" s="16"/>
+      <c r="F475" s="16"/>
+      <c r="G475" s="17"/>
+      <c r="H475" s="16"/>
+      <c r="I475" s="16"/>
     </row>
     <row r="476" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A476" s="8"/>
-      <c r="B476" s="8"/>
-      <c r="C476" s="8"/>
-      <c r="D476" s="8"/>
-      <c r="E476" s="8"/>
-      <c r="F476" s="8"/>
-      <c r="G476" s="9"/>
-      <c r="H476" s="8"/>
-      <c r="I476" s="8"/>
+      <c r="A476" s="16"/>
+      <c r="B476" s="16"/>
+      <c r="C476" s="16"/>
+      <c r="D476" s="16"/>
+      <c r="E476" s="16"/>
+      <c r="F476" s="16"/>
+      <c r="G476" s="17"/>
+      <c r="H476" s="16"/>
+      <c r="I476" s="16"/>
     </row>
     <row r="477" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A477" s="8"/>
-      <c r="B477" s="8"/>
-      <c r="C477" s="8"/>
-      <c r="D477" s="8"/>
-      <c r="E477" s="8"/>
-      <c r="F477" s="8"/>
-      <c r="G477" s="9"/>
-      <c r="H477" s="8"/>
-      <c r="I477" s="8"/>
+      <c r="A477" s="16"/>
+      <c r="B477" s="16"/>
+      <c r="C477" s="16"/>
+      <c r="D477" s="16"/>
+      <c r="E477" s="16"/>
+      <c r="F477" s="16"/>
+      <c r="G477" s="17"/>
+      <c r="H477" s="16"/>
+      <c r="I477" s="16"/>
     </row>
     <row r="478" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A478" s="8"/>
-      <c r="B478" s="8"/>
-      <c r="C478" s="8"/>
-      <c r="D478" s="8"/>
-      <c r="E478" s="8"/>
-      <c r="F478" s="8"/>
-      <c r="G478" s="9"/>
-      <c r="H478" s="8"/>
-      <c r="I478" s="8"/>
+      <c r="A478" s="16"/>
+      <c r="B478" s="16"/>
+      <c r="C478" s="16"/>
+      <c r="D478" s="16"/>
+      <c r="E478" s="16"/>
+      <c r="F478" s="16"/>
+      <c r="G478" s="17"/>
+      <c r="H478" s="16"/>
+      <c r="I478" s="16"/>
     </row>
     <row r="479" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A479" s="8"/>
-      <c r="B479" s="8"/>
-      <c r="C479" s="8"/>
-      <c r="D479" s="8"/>
-      <c r="E479" s="8"/>
-      <c r="F479" s="8"/>
-      <c r="G479" s="9"/>
-      <c r="H479" s="8"/>
-      <c r="I479" s="8"/>
+      <c r="A479" s="16"/>
+      <c r="B479" s="16"/>
+      <c r="C479" s="16"/>
+      <c r="D479" s="16"/>
+      <c r="E479" s="16"/>
+      <c r="F479" s="16"/>
+      <c r="G479" s="17"/>
+      <c r="H479" s="16"/>
+      <c r="I479" s="16"/>
     </row>
     <row r="480" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A480" s="8"/>
-      <c r="B480" s="8"/>
-      <c r="C480" s="8"/>
-      <c r="D480" s="8"/>
-      <c r="E480" s="8"/>
-      <c r="F480" s="8"/>
-      <c r="G480" s="9"/>
-      <c r="H480" s="8"/>
-      <c r="I480" s="8"/>
+      <c r="A480" s="16"/>
+      <c r="B480" s="16"/>
+      <c r="C480" s="16"/>
+      <c r="D480" s="16"/>
+      <c r="E480" s="16"/>
+      <c r="F480" s="16"/>
+      <c r="G480" s="17"/>
+      <c r="H480" s="16"/>
+      <c r="I480" s="16"/>
     </row>
     <row r="481" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A481" s="8"/>
-      <c r="B481" s="8"/>
-      <c r="C481" s="8"/>
-      <c r="D481" s="8"/>
-      <c r="E481" s="8"/>
-      <c r="F481" s="8"/>
-      <c r="G481" s="9"/>
-      <c r="H481" s="8"/>
-      <c r="I481" s="8"/>
+      <c r="A481" s="16"/>
+      <c r="B481" s="16"/>
+      <c r="C481" s="16"/>
+      <c r="D481" s="16"/>
+      <c r="E481" s="16"/>
+      <c r="F481" s="16"/>
+      <c r="G481" s="17"/>
+      <c r="H481" s="16"/>
+      <c r="I481" s="16"/>
     </row>
     <row r="482" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A482" s="8"/>
-      <c r="B482" s="8"/>
-      <c r="C482" s="8"/>
-      <c r="D482" s="8"/>
-      <c r="E482" s="8"/>
-      <c r="F482" s="8"/>
-      <c r="G482" s="9"/>
-      <c r="H482" s="8"/>
-      <c r="I482" s="8"/>
+      <c r="A482" s="16"/>
+      <c r="B482" s="16"/>
+      <c r="C482" s="16"/>
+      <c r="D482" s="16"/>
+      <c r="E482" s="16"/>
+      <c r="F482" s="16"/>
+      <c r="G482" s="17"/>
+      <c r="H482" s="16"/>
+      <c r="I482" s="16"/>
     </row>
     <row r="483" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A483" s="8"/>
-      <c r="B483" s="8"/>
-      <c r="C483" s="8"/>
-      <c r="D483" s="8"/>
-      <c r="E483" s="8"/>
-      <c r="F483" s="8"/>
-      <c r="G483" s="9"/>
-      <c r="H483" s="8"/>
-      <c r="I483" s="8"/>
+      <c r="A483" s="16"/>
+      <c r="B483" s="16"/>
+      <c r="C483" s="16"/>
+      <c r="D483" s="16"/>
+      <c r="E483" s="16"/>
+      <c r="F483" s="16"/>
+      <c r="G483" s="17"/>
+      <c r="H483" s="16"/>
+      <c r="I483" s="16"/>
     </row>
     <row r="484" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A484" s="8"/>
-      <c r="B484" s="8"/>
-      <c r="C484" s="8"/>
-      <c r="D484" s="8"/>
-      <c r="E484" s="8"/>
-      <c r="F484" s="8"/>
-      <c r="G484" s="9"/>
-      <c r="H484" s="8"/>
-      <c r="I484" s="8"/>
+      <c r="A484" s="16"/>
+      <c r="B484" s="16"/>
+      <c r="C484" s="16"/>
+      <c r="D484" s="16"/>
+      <c r="E484" s="16"/>
+      <c r="F484" s="16"/>
+      <c r="G484" s="17"/>
+      <c r="H484" s="16"/>
+      <c r="I484" s="16"/>
     </row>
     <row r="485" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A485" s="8"/>
-      <c r="B485" s="8"/>
-      <c r="C485" s="8"/>
-      <c r="D485" s="8"/>
-      <c r="E485" s="8"/>
-      <c r="F485" s="8"/>
-      <c r="G485" s="9"/>
-      <c r="H485" s="8"/>
-      <c r="I485" s="8"/>
+      <c r="A485" s="16"/>
+      <c r="B485" s="16"/>
+      <c r="C485" s="16"/>
+      <c r="D485" s="16"/>
+      <c r="E485" s="16"/>
+      <c r="F485" s="16"/>
+      <c r="G485" s="17"/>
+      <c r="H485" s="16"/>
+      <c r="I485" s="16"/>
     </row>
     <row r="486" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A486" s="8"/>
-      <c r="B486" s="8"/>
-      <c r="C486" s="8"/>
-      <c r="D486" s="8"/>
-      <c r="E486" s="8"/>
-      <c r="F486" s="8"/>
-      <c r="G486" s="9"/>
-      <c r="H486" s="8"/>
-      <c r="I486" s="8"/>
+      <c r="A486" s="16"/>
+      <c r="B486" s="16"/>
+      <c r="C486" s="16"/>
+      <c r="D486" s="16"/>
+      <c r="E486" s="16"/>
+      <c r="F486" s="16"/>
+      <c r="G486" s="17"/>
+      <c r="H486" s="16"/>
+      <c r="I486" s="16"/>
     </row>
     <row r="487" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A487" s="8"/>
-      <c r="B487" s="8"/>
-      <c r="C487" s="8"/>
-      <c r="D487" s="8"/>
-      <c r="E487" s="8"/>
-      <c r="F487" s="8"/>
-      <c r="G487" s="9"/>
-      <c r="H487" s="8"/>
-      <c r="I487" s="8"/>
+      <c r="A487" s="16"/>
+      <c r="B487" s="16"/>
+      <c r="C487" s="16"/>
+      <c r="D487" s="16"/>
+      <c r="E487" s="16"/>
+      <c r="F487" s="16"/>
+      <c r="G487" s="17"/>
+      <c r="H487" s="16"/>
+      <c r="I487" s="16"/>
     </row>
     <row r="488" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A488" s="8"/>
-      <c r="B488" s="8"/>
-      <c r="C488" s="8"/>
-      <c r="D488" s="8"/>
-      <c r="E488" s="8"/>
-      <c r="F488" s="8"/>
-      <c r="G488" s="9"/>
-      <c r="H488" s="8"/>
-      <c r="I488" s="8"/>
+      <c r="A488" s="16"/>
+      <c r="B488" s="16"/>
+      <c r="C488" s="16"/>
+      <c r="D488" s="16"/>
+      <c r="E488" s="16"/>
+      <c r="F488" s="16"/>
+      <c r="G488" s="17"/>
+      <c r="H488" s="16"/>
+      <c r="I488" s="16"/>
     </row>
     <row r="489" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A489" s="8"/>
-      <c r="B489" s="8"/>
-      <c r="C489" s="8"/>
-      <c r="D489" s="8"/>
-      <c r="E489" s="8"/>
-      <c r="F489" s="8"/>
-      <c r="G489" s="9"/>
-      <c r="H489" s="8"/>
-      <c r="I489" s="8"/>
+      <c r="A489" s="16"/>
+      <c r="B489" s="16"/>
+      <c r="C489" s="16"/>
+      <c r="D489" s="16"/>
+      <c r="E489" s="16"/>
+      <c r="F489" s="16"/>
+      <c r="G489" s="17"/>
+      <c r="H489" s="16"/>
+      <c r="I489" s="16"/>
     </row>
     <row r="490" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A490" s="8"/>
-      <c r="B490" s="8"/>
-      <c r="C490" s="8"/>
-      <c r="D490" s="8"/>
-      <c r="E490" s="8"/>
-      <c r="F490" s="8"/>
-      <c r="G490" s="9"/>
-      <c r="H490" s="8"/>
-      <c r="I490" s="8"/>
+      <c r="A490" s="16"/>
+      <c r="B490" s="16"/>
+      <c r="C490" s="16"/>
+      <c r="D490" s="16"/>
+      <c r="E490" s="16"/>
+      <c r="F490" s="16"/>
+      <c r="G490" s="17"/>
+      <c r="H490" s="16"/>
+      <c r="I490" s="16"/>
     </row>
     <row r="491" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A491" s="8"/>
-      <c r="B491" s="8"/>
-      <c r="C491" s="8"/>
-      <c r="D491" s="8"/>
-      <c r="E491" s="8"/>
-      <c r="F491" s="8"/>
-      <c r="G491" s="9"/>
-      <c r="H491" s="8"/>
-      <c r="I491" s="8"/>
+      <c r="A491" s="16"/>
+      <c r="B491" s="16"/>
+      <c r="C491" s="16"/>
+      <c r="D491" s="16"/>
+      <c r="E491" s="16"/>
+      <c r="F491" s="16"/>
+      <c r="G491" s="17"/>
+      <c r="H491" s="16"/>
+      <c r="I491" s="16"/>
     </row>
     <row r="492" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A492" s="8"/>
-      <c r="B492" s="8"/>
-      <c r="C492" s="8"/>
-      <c r="D492" s="8"/>
-      <c r="E492" s="8"/>
-      <c r="F492" s="8"/>
-      <c r="G492" s="9"/>
-      <c r="H492" s="8"/>
-      <c r="I492" s="8"/>
+      <c r="A492" s="16"/>
+      <c r="B492" s="16"/>
+      <c r="C492" s="16"/>
+      <c r="D492" s="16"/>
+      <c r="E492" s="16"/>
+      <c r="F492" s="16"/>
+      <c r="G492" s="17"/>
+      <c r="H492" s="16"/>
+      <c r="I492" s="16"/>
     </row>
     <row r="493" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A493" s="8"/>
-      <c r="B493" s="8"/>
-      <c r="C493" s="8"/>
-      <c r="D493" s="8"/>
-      <c r="E493" s="8"/>
-      <c r="F493" s="8"/>
-      <c r="G493" s="9"/>
-      <c r="H493" s="8"/>
-      <c r="I493" s="8"/>
+      <c r="A493" s="16"/>
+      <c r="B493" s="16"/>
+      <c r="C493" s="16"/>
+      <c r="D493" s="16"/>
+      <c r="E493" s="16"/>
+      <c r="F493" s="16"/>
+      <c r="G493" s="17"/>
+      <c r="H493" s="16"/>
+      <c r="I493" s="16"/>
     </row>
     <row r="494" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A494" s="8"/>
-      <c r="B494" s="8"/>
-      <c r="C494" s="8"/>
-      <c r="D494" s="8"/>
-      <c r="E494" s="8"/>
-      <c r="F494" s="8"/>
-      <c r="G494" s="9"/>
-      <c r="H494" s="8"/>
-      <c r="I494" s="8"/>
+      <c r="A494" s="16"/>
+      <c r="B494" s="16"/>
+      <c r="C494" s="16"/>
+      <c r="D494" s="16"/>
+      <c r="E494" s="16"/>
+      <c r="F494" s="16"/>
+      <c r="G494" s="17"/>
+      <c r="H494" s="16"/>
+      <c r="I494" s="16"/>
     </row>
     <row r="495" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A495" s="8"/>
-      <c r="B495" s="8"/>
-      <c r="C495" s="8"/>
-      <c r="D495" s="8"/>
-      <c r="E495" s="8"/>
-      <c r="F495" s="8"/>
-      <c r="G495" s="9"/>
-      <c r="H495" s="8"/>
-      <c r="I495" s="8"/>
+      <c r="A495" s="16"/>
+      <c r="B495" s="16"/>
+      <c r="C495" s="16"/>
+      <c r="D495" s="16"/>
+      <c r="E495" s="16"/>
+      <c r="F495" s="16"/>
+      <c r="G495" s="17"/>
+      <c r="H495" s="16"/>
+      <c r="I495" s="16"/>
     </row>
     <row r="496" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A496" s="8"/>
-      <c r="B496" s="8"/>
-      <c r="C496" s="8"/>
-      <c r="D496" s="8"/>
-      <c r="E496" s="8"/>
-      <c r="F496" s="8"/>
-      <c r="G496" s="9"/>
-      <c r="H496" s="8"/>
-      <c r="I496" s="8"/>
+      <c r="A496" s="16"/>
+      <c r="B496" s="16"/>
+      <c r="C496" s="16"/>
+      <c r="D496" s="16"/>
+      <c r="E496" s="16"/>
+      <c r="F496" s="16"/>
+      <c r="G496" s="17"/>
+      <c r="H496" s="16"/>
+      <c r="I496" s="16"/>
     </row>
     <row r="497" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A497" s="8"/>
-      <c r="B497" s="8"/>
-      <c r="C497" s="8"/>
-      <c r="D497" s="8"/>
-      <c r="E497" s="8"/>
-      <c r="F497" s="8"/>
-      <c r="G497" s="9"/>
-      <c r="H497" s="8"/>
-      <c r="I497" s="8"/>
+      <c r="A497" s="16"/>
+      <c r="B497" s="16"/>
+      <c r="C497" s="16"/>
+      <c r="D497" s="16"/>
+      <c r="E497" s="16"/>
+      <c r="F497" s="16"/>
+      <c r="G497" s="17"/>
+      <c r="H497" s="16"/>
+      <c r="I497" s="16"/>
     </row>
     <row r="498" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A498" s="8"/>
-      <c r="B498" s="8"/>
-      <c r="C498" s="8"/>
-      <c r="D498" s="8"/>
-      <c r="E498" s="8"/>
-      <c r="F498" s="8"/>
-      <c r="G498" s="9"/>
-      <c r="H498" s="8"/>
-      <c r="I498" s="8"/>
+      <c r="A498" s="16"/>
+      <c r="B498" s="16"/>
+      <c r="C498" s="16"/>
+      <c r="D498" s="16"/>
+      <c r="E498" s="16"/>
+      <c r="F498" s="16"/>
+      <c r="G498" s="17"/>
+      <c r="H498" s="16"/>
+      <c r="I498" s="16"/>
     </row>
     <row r="499" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A499" s="8"/>
-      <c r="B499" s="8"/>
-      <c r="C499" s="8"/>
-      <c r="D499" s="8"/>
-      <c r="E499" s="8"/>
-      <c r="F499" s="8"/>
-      <c r="G499" s="9"/>
-      <c r="H499" s="8"/>
-      <c r="I499" s="8"/>
+      <c r="A499" s="16"/>
+      <c r="B499" s="16"/>
+      <c r="C499" s="16"/>
+      <c r="D499" s="16"/>
+      <c r="E499" s="16"/>
+      <c r="F499" s="16"/>
+      <c r="G499" s="17"/>
+      <c r="H499" s="16"/>
+      <c r="I499" s="16"/>
     </row>
     <row r="500" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A500" s="8"/>
-      <c r="B500" s="8"/>
-      <c r="C500" s="8"/>
-      <c r="D500" s="8"/>
-      <c r="E500" s="8"/>
-      <c r="F500" s="8"/>
-      <c r="G500" s="9"/>
-      <c r="H500" s="8"/>
-      <c r="I500" s="8"/>
+      <c r="A500" s="16"/>
+      <c r="B500" s="16"/>
+      <c r="C500" s="16"/>
+      <c r="D500" s="16"/>
+      <c r="E500" s="16"/>
+      <c r="F500" s="16"/>
+      <c r="G500" s="17"/>
+      <c r="H500" s="16"/>
+      <c r="I500" s="16"/>
     </row>
     <row r="501" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A501" s="8"/>
-      <c r="B501" s="8"/>
-      <c r="C501" s="8"/>
-      <c r="D501" s="8"/>
-      <c r="E501" s="8"/>
-      <c r="F501" s="8"/>
-      <c r="G501" s="9"/>
-      <c r="H501" s="8"/>
-      <c r="I501" s="8"/>
+      <c r="A501" s="16"/>
+      <c r="B501" s="16"/>
+      <c r="C501" s="16"/>
+      <c r="D501" s="16"/>
+      <c r="E501" s="16"/>
+      <c r="F501" s="16"/>
+      <c r="G501" s="17"/>
+      <c r="H501" s="16"/>
+      <c r="I501" s="16"/>
     </row>
     <row r="502" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A502" s="8"/>
-      <c r="B502" s="8"/>
-      <c r="C502" s="8"/>
-      <c r="D502" s="8"/>
-      <c r="E502" s="8"/>
-      <c r="F502" s="8"/>
-      <c r="G502" s="9"/>
-      <c r="H502" s="8"/>
-      <c r="I502" s="8"/>
+      <c r="A502" s="16"/>
+      <c r="B502" s="16"/>
+      <c r="C502" s="16"/>
+      <c r="D502" s="16"/>
+      <c r="E502" s="16"/>
+      <c r="F502" s="16"/>
+      <c r="G502" s="17"/>
+      <c r="H502" s="16"/>
+      <c r="I502" s="16"/>
     </row>
     <row r="503" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A503" s="8"/>
-      <c r="B503" s="8"/>
-      <c r="C503" s="8"/>
-      <c r="D503" s="8"/>
-      <c r="E503" s="8"/>
-      <c r="F503" s="8"/>
-      <c r="G503" s="9"/>
-      <c r="H503" s="8"/>
-      <c r="I503" s="8"/>
+      <c r="A503" s="16"/>
+      <c r="B503" s="16"/>
+      <c r="C503" s="16"/>
+      <c r="D503" s="16"/>
+      <c r="E503" s="16"/>
+      <c r="F503" s="16"/>
+      <c r="G503" s="17"/>
+      <c r="H503" s="16"/>
+      <c r="I503" s="16"/>
     </row>
     <row r="504" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A504" s="8"/>
-      <c r="B504" s="8"/>
-      <c r="C504" s="8"/>
-      <c r="D504" s="8"/>
-      <c r="E504" s="8"/>
-      <c r="F504" s="8"/>
-      <c r="G504" s="9"/>
-      <c r="H504" s="8"/>
-      <c r="I504" s="8"/>
+      <c r="A504" s="16"/>
+      <c r="B504" s="16"/>
+      <c r="C504" s="16"/>
+      <c r="D504" s="16"/>
+      <c r="E504" s="16"/>
+      <c r="F504" s="16"/>
+      <c r="G504" s="17"/>
+      <c r="H504" s="16"/>
+      <c r="I504" s="16"/>
     </row>
     <row r="505" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A505" s="8"/>
-      <c r="B505" s="8"/>
-      <c r="C505" s="8"/>
-      <c r="D505" s="8"/>
-      <c r="E505" s="8"/>
-      <c r="F505" s="8"/>
-      <c r="G505" s="9"/>
-      <c r="H505" s="8"/>
-      <c r="I505" s="8"/>
+      <c r="A505" s="16"/>
+      <c r="B505" s="16"/>
+      <c r="C505" s="16"/>
+      <c r="D505" s="16"/>
+      <c r="E505" s="16"/>
+      <c r="F505" s="16"/>
+      <c r="G505" s="17"/>
+      <c r="H505" s="16"/>
+      <c r="I505" s="16"/>
     </row>
     <row r="506" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A506" s="8"/>
-      <c r="B506" s="8"/>
-      <c r="C506" s="8"/>
-      <c r="D506" s="8"/>
-      <c r="E506" s="8"/>
-      <c r="F506" s="8"/>
-      <c r="G506" s="9"/>
-      <c r="H506" s="8"/>
-      <c r="I506" s="8"/>
+      <c r="A506" s="16"/>
+      <c r="B506" s="16"/>
+      <c r="C506" s="16"/>
+      <c r="D506" s="16"/>
+      <c r="E506" s="16"/>
+      <c r="F506" s="16"/>
+      <c r="G506" s="17"/>
+      <c r="H506" s="16"/>
+      <c r="I506" s="16"/>
     </row>
     <row r="507" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A507" s="8"/>
-      <c r="B507" s="8"/>
-      <c r="C507" s="8"/>
-      <c r="D507" s="8"/>
-      <c r="E507" s="8"/>
-      <c r="F507" s="8"/>
-      <c r="G507" s="9"/>
-      <c r="H507" s="8"/>
-      <c r="I507" s="8"/>
+      <c r="A507" s="16"/>
+      <c r="B507" s="16"/>
+      <c r="C507" s="16"/>
+      <c r="D507" s="16"/>
+      <c r="E507" s="16"/>
+      <c r="F507" s="16"/>
+      <c r="G507" s="17"/>
+      <c r="H507" s="16"/>
+      <c r="I507" s="16"/>
     </row>
     <row r="508" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A508" s="8"/>
-      <c r="B508" s="8"/>
-      <c r="C508" s="8"/>
-      <c r="D508" s="8"/>
-      <c r="E508" s="8"/>
-      <c r="F508" s="8"/>
-      <c r="G508" s="9"/>
-      <c r="H508" s="8"/>
-      <c r="I508" s="8"/>
+      <c r="A508" s="16"/>
+      <c r="B508" s="16"/>
+      <c r="C508" s="16"/>
+      <c r="D508" s="16"/>
+      <c r="E508" s="16"/>
+      <c r="F508" s="16"/>
+      <c r="G508" s="17"/>
+      <c r="H508" s="16"/>
+      <c r="I508" s="16"/>
     </row>
     <row r="509" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A509" s="8"/>
-      <c r="B509" s="8"/>
-      <c r="C509" s="8"/>
-      <c r="D509" s="8"/>
-      <c r="E509" s="8"/>
-      <c r="F509" s="8"/>
-      <c r="G509" s="9"/>
-      <c r="H509" s="8"/>
-      <c r="I509" s="8"/>
+      <c r="A509" s="16"/>
+      <c r="B509" s="16"/>
+      <c r="C509" s="16"/>
+      <c r="D509" s="16"/>
+      <c r="E509" s="16"/>
+      <c r="F509" s="16"/>
+      <c r="G509" s="17"/>
+      <c r="H509" s="16"/>
+      <c r="I509" s="16"/>
     </row>
     <row r="510" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A510" s="8"/>
-      <c r="B510" s="8"/>
-      <c r="C510" s="8"/>
-      <c r="D510" s="8"/>
-      <c r="E510" s="8"/>
-      <c r="F510" s="8"/>
-      <c r="G510" s="9"/>
-      <c r="H510" s="8"/>
-      <c r="I510" s="8"/>
+      <c r="A510" s="16"/>
+      <c r="B510" s="16"/>
+      <c r="C510" s="16"/>
+      <c r="D510" s="16"/>
+      <c r="E510" s="16"/>
+      <c r="F510" s="16"/>
+      <c r="G510" s="17"/>
+      <c r="H510" s="16"/>
+      <c r="I510" s="16"/>
     </row>
     <row r="511" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A511" s="8"/>
-      <c r="B511" s="8"/>
-      <c r="C511" s="8"/>
-      <c r="D511" s="8"/>
-      <c r="E511" s="8"/>
-      <c r="F511" s="8"/>
-      <c r="G511" s="9"/>
-      <c r="H511" s="8"/>
-      <c r="I511" s="8"/>
+      <c r="A511" s="16"/>
+      <c r="B511" s="16"/>
+      <c r="C511" s="16"/>
+      <c r="D511" s="16"/>
+      <c r="E511" s="16"/>
+      <c r="F511" s="16"/>
+      <c r="G511" s="17"/>
+      <c r="H511" s="16"/>
+      <c r="I511" s="16"/>
     </row>
     <row r="512" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A512" s="8"/>
-      <c r="B512" s="8"/>
-      <c r="C512" s="8"/>
-      <c r="D512" s="8"/>
-      <c r="E512" s="8"/>
-      <c r="F512" s="8"/>
-      <c r="G512" s="9"/>
-      <c r="H512" s="8"/>
-      <c r="I512" s="8"/>
+      <c r="A512" s="16"/>
+      <c r="B512" s="16"/>
+      <c r="C512" s="16"/>
+      <c r="D512" s="16"/>
+      <c r="E512" s="16"/>
+      <c r="F512" s="16"/>
+      <c r="G512" s="17"/>
+      <c r="H512" s="16"/>
+      <c r="I512" s="16"/>
     </row>
     <row r="513" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A513" s="8"/>
-      <c r="B513" s="8"/>
-      <c r="C513" s="8"/>
-      <c r="D513" s="8"/>
-      <c r="E513" s="8"/>
-      <c r="F513" s="8"/>
-      <c r="G513" s="9"/>
-      <c r="H513" s="8"/>
-      <c r="I513" s="8"/>
+      <c r="A513" s="16"/>
+      <c r="B513" s="16"/>
+      <c r="C513" s="16"/>
+      <c r="D513" s="16"/>
+      <c r="E513" s="16"/>
+      <c r="F513" s="16"/>
+      <c r="G513" s="17"/>
+      <c r="H513" s="16"/>
+      <c r="I513" s="16"/>
     </row>
     <row r="514" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A514" s="8"/>
-      <c r="B514" s="8"/>
-      <c r="C514" s="8"/>
-      <c r="D514" s="8"/>
-      <c r="E514" s="8"/>
-      <c r="F514" s="8"/>
-      <c r="G514" s="9"/>
-      <c r="H514" s="8"/>
-      <c r="I514" s="8"/>
+      <c r="A514" s="16"/>
+      <c r="B514" s="16"/>
+      <c r="C514" s="16"/>
+      <c r="D514" s="16"/>
+      <c r="E514" s="16"/>
+      <c r="F514" s="16"/>
+      <c r="G514" s="17"/>
+      <c r="H514" s="16"/>
+      <c r="I514" s="16"/>
     </row>
     <row r="515" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A515" s="8"/>
-      <c r="B515" s="8"/>
-      <c r="C515" s="8"/>
-      <c r="D515" s="8"/>
-      <c r="E515" s="8"/>
-      <c r="F515" s="8"/>
-      <c r="G515" s="9"/>
-      <c r="H515" s="8"/>
-      <c r="I515" s="8"/>
+      <c r="A515" s="16"/>
+      <c r="B515" s="16"/>
+      <c r="C515" s="16"/>
+      <c r="D515" s="16"/>
+      <c r="E515" s="16"/>
+      <c r="F515" s="16"/>
+      <c r="G515" s="17"/>
+      <c r="H515" s="16"/>
+      <c r="I515" s="16"/>
     </row>
     <row r="516" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A516" s="8"/>
-      <c r="B516" s="8"/>
-      <c r="C516" s="8"/>
-      <c r="D516" s="8"/>
-      <c r="E516" s="8"/>
-      <c r="F516" s="8"/>
-      <c r="G516" s="9"/>
-      <c r="H516" s="8"/>
-      <c r="I516" s="8"/>
+      <c r="A516" s="16"/>
+      <c r="B516" s="16"/>
+      <c r="C516" s="16"/>
+      <c r="D516" s="16"/>
+      <c r="E516" s="16"/>
+      <c r="F516" s="16"/>
+      <c r="G516" s="17"/>
+      <c r="H516" s="16"/>
+      <c r="I516" s="16"/>
     </row>
     <row r="517" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A517" s="8"/>
-      <c r="B517" s="8"/>
-      <c r="C517" s="8"/>
-      <c r="D517" s="8"/>
-      <c r="E517" s="8"/>
-      <c r="F517" s="8"/>
-      <c r="G517" s="9"/>
-      <c r="H517" s="8"/>
-      <c r="I517" s="8"/>
+      <c r="A517" s="16"/>
+      <c r="B517" s="16"/>
+      <c r="C517" s="16"/>
+      <c r="D517" s="16"/>
+      <c r="E517" s="16"/>
+      <c r="F517" s="16"/>
+      <c r="G517" s="17"/>
+      <c r="H517" s="16"/>
+      <c r="I517" s="16"/>
     </row>
     <row r="518" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A518" s="8"/>
-      <c r="B518" s="8"/>
-      <c r="C518" s="8"/>
-      <c r="D518" s="8"/>
-      <c r="E518" s="8"/>
-      <c r="F518" s="8"/>
-      <c r="G518" s="9"/>
-      <c r="H518" s="8"/>
-      <c r="I518" s="8"/>
+      <c r="A518" s="16"/>
+      <c r="B518" s="16"/>
+      <c r="C518" s="16"/>
+      <c r="D518" s="16"/>
+      <c r="E518" s="16"/>
+      <c r="F518" s="16"/>
+      <c r="G518" s="17"/>
+      <c r="H518" s="16"/>
+      <c r="I518" s="16"/>
     </row>
     <row r="519" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A519" s="8"/>
-      <c r="B519" s="8"/>
-      <c r="C519" s="8"/>
-      <c r="D519" s="8"/>
-      <c r="E519" s="8"/>
-      <c r="F519" s="8"/>
-      <c r="G519" s="9"/>
-      <c r="H519" s="8"/>
-      <c r="I519" s="8"/>
+      <c r="A519" s="16"/>
+      <c r="B519" s="16"/>
+      <c r="C519" s="16"/>
+      <c r="D519" s="16"/>
+      <c r="E519" s="16"/>
+      <c r="F519" s="16"/>
+      <c r="G519" s="17"/>
+      <c r="H519" s="16"/>
+      <c r="I519" s="16"/>
     </row>
     <row r="520" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A520" s="8"/>
-      <c r="B520" s="8"/>
-      <c r="C520" s="8"/>
-      <c r="D520" s="8"/>
-      <c r="E520" s="8"/>
-      <c r="F520" s="8"/>
-      <c r="G520" s="9"/>
-      <c r="H520" s="8"/>
-      <c r="I520" s="8"/>
+      <c r="A520" s="16"/>
+      <c r="B520" s="16"/>
+      <c r="C520" s="16"/>
+      <c r="D520" s="16"/>
+      <c r="E520" s="16"/>
+      <c r="F520" s="16"/>
+      <c r="G520" s="17"/>
+      <c r="H520" s="16"/>
+      <c r="I520" s="16"/>
     </row>
     <row r="521" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A521" s="8"/>
-      <c r="B521" s="8"/>
-      <c r="C521" s="8"/>
-      <c r="D521" s="8"/>
-      <c r="E521" s="8"/>
-      <c r="F521" s="8"/>
-      <c r="G521" s="9"/>
-      <c r="H521" s="8"/>
-      <c r="I521" s="8"/>
+      <c r="A521" s="16"/>
+      <c r="B521" s="16"/>
+      <c r="C521" s="16"/>
+      <c r="D521" s="16"/>
+      <c r="E521" s="16"/>
+      <c r="F521" s="16"/>
+      <c r="G521" s="17"/>
+      <c r="H521" s="16"/>
+      <c r="I521" s="16"/>
     </row>
     <row r="522" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A522" s="8"/>
-      <c r="B522" s="8"/>
-      <c r="C522" s="8"/>
-      <c r="D522" s="8"/>
-      <c r="E522" s="8"/>
-      <c r="F522" s="8"/>
-      <c r="G522" s="9"/>
-      <c r="H522" s="8"/>
-      <c r="I522" s="8"/>
+      <c r="A522" s="16"/>
+      <c r="B522" s="16"/>
+      <c r="C522" s="16"/>
+      <c r="D522" s="16"/>
+      <c r="E522" s="16"/>
+      <c r="F522" s="16"/>
+      <c r="G522" s="17"/>
+      <c r="H522" s="16"/>
+      <c r="I522" s="16"/>
     </row>
     <row r="523" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A523" s="8"/>
-      <c r="B523" s="8"/>
-      <c r="C523" s="8"/>
-      <c r="D523" s="8"/>
-      <c r="E523" s="8"/>
-      <c r="F523" s="8"/>
-      <c r="G523" s="9"/>
-      <c r="H523" s="8"/>
-      <c r="I523" s="8"/>
+      <c r="A523" s="16"/>
+      <c r="B523" s="16"/>
+      <c r="C523" s="16"/>
+      <c r="D523" s="16"/>
+      <c r="E523" s="16"/>
+      <c r="F523" s="16"/>
+      <c r="G523" s="17"/>
+      <c r="H523" s="16"/>
+      <c r="I523" s="16"/>
     </row>
     <row r="524" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A524" s="8"/>
-      <c r="B524" s="8"/>
-      <c r="C524" s="8"/>
-      <c r="D524" s="8"/>
-      <c r="E524" s="8"/>
-      <c r="F524" s="8"/>
-      <c r="G524" s="9"/>
-      <c r="H524" s="8"/>
-      <c r="I524" s="8"/>
+      <c r="A524" s="16"/>
+      <c r="B524" s="16"/>
+      <c r="C524" s="16"/>
+      <c r="D524" s="16"/>
+      <c r="E524" s="16"/>
+      <c r="F524" s="16"/>
+      <c r="G524" s="17"/>
+      <c r="H524" s="16"/>
+      <c r="I524" s="16"/>
     </row>
     <row r="525" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A525" s="8"/>
-      <c r="B525" s="8"/>
-      <c r="C525" s="8"/>
-      <c r="D525" s="8"/>
-      <c r="E525" s="8"/>
-      <c r="F525" s="8"/>
-      <c r="G525" s="9"/>
-      <c r="H525" s="8"/>
-      <c r="I525" s="8"/>
+      <c r="A525" s="16"/>
+      <c r="B525" s="16"/>
+      <c r="C525" s="16"/>
+      <c r="D525" s="16"/>
+      <c r="E525" s="16"/>
+      <c r="F525" s="16"/>
+      <c r="G525" s="17"/>
+      <c r="H525" s="16"/>
+      <c r="I525" s="16"/>
     </row>
     <row r="526" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A526" s="8"/>
-      <c r="B526" s="8"/>
-      <c r="C526" s="8"/>
-      <c r="D526" s="8"/>
-      <c r="E526" s="8"/>
-      <c r="F526" s="8"/>
-      <c r="G526" s="9"/>
-      <c r="H526" s="8"/>
-      <c r="I526" s="8"/>
+      <c r="A526" s="16"/>
+      <c r="B526" s="16"/>
+      <c r="C526" s="16"/>
+      <c r="D526" s="16"/>
+      <c r="E526" s="16"/>
+      <c r="F526" s="16"/>
+      <c r="G526" s="17"/>
+      <c r="H526" s="16"/>
+      <c r="I526" s="16"/>
     </row>
     <row r="527" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A527" s="8"/>
-      <c r="B527" s="8"/>
-      <c r="C527" s="8"/>
-      <c r="D527" s="8"/>
-      <c r="E527" s="8"/>
-      <c r="F527" s="8"/>
-      <c r="G527" s="9"/>
-      <c r="H527" s="8"/>
-      <c r="I527" s="8"/>
+      <c r="A527" s="16"/>
+      <c r="B527" s="16"/>
+      <c r="C527" s="16"/>
+      <c r="D527" s="16"/>
+      <c r="E527" s="16"/>
+      <c r="F527" s="16"/>
+      <c r="G527" s="17"/>
+      <c r="H527" s="16"/>
+      <c r="I527" s="16"/>
     </row>
     <row r="528" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A528" s="8"/>
-      <c r="B528" s="8"/>
-      <c r="C528" s="8"/>
-      <c r="D528" s="8"/>
-      <c r="E528" s="8"/>
-      <c r="F528" s="8"/>
-      <c r="G528" s="9"/>
-      <c r="H528" s="8"/>
-      <c r="I528" s="8"/>
+      <c r="A528" s="16"/>
+      <c r="B528" s="16"/>
+      <c r="C528" s="16"/>
+      <c r="D528" s="16"/>
+      <c r="E528" s="16"/>
+      <c r="F528" s="16"/>
+      <c r="G528" s="17"/>
+      <c r="H528" s="16"/>
+      <c r="I528" s="16"/>
     </row>
     <row r="529" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A529" s="8"/>
-      <c r="B529" s="8"/>
-      <c r="C529" s="8"/>
-      <c r="D529" s="8"/>
-      <c r="E529" s="8"/>
-      <c r="F529" s="8"/>
-      <c r="G529" s="9"/>
-      <c r="H529" s="8"/>
-      <c r="I529" s="8"/>
+      <c r="A529" s="16"/>
+      <c r="B529" s="16"/>
+      <c r="C529" s="16"/>
+      <c r="D529" s="16"/>
+      <c r="E529" s="16"/>
+      <c r="F529" s="16"/>
+      <c r="G529" s="17"/>
+      <c r="H529" s="16"/>
+      <c r="I529" s="16"/>
     </row>
     <row r="530" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A530" s="8"/>
-      <c r="B530" s="8"/>
-      <c r="C530" s="8"/>
-      <c r="D530" s="8"/>
-      <c r="E530" s="8"/>
-      <c r="F530" s="8"/>
-      <c r="G530" s="9"/>
-      <c r="H530" s="8"/>
-      <c r="I530" s="8"/>
+      <c r="A530" s="16"/>
+      <c r="B530" s="16"/>
+      <c r="C530" s="16"/>
+      <c r="D530" s="16"/>
+      <c r="E530" s="16"/>
+      <c r="F530" s="16"/>
+      <c r="G530" s="17"/>
+      <c r="H530" s="16"/>
+      <c r="I530" s="16"/>
     </row>
     <row r="531" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A531" s="8"/>
-      <c r="B531" s="8"/>
-      <c r="C531" s="8"/>
-      <c r="D531" s="8"/>
-      <c r="E531" s="8"/>
-      <c r="F531" s="8"/>
-      <c r="G531" s="9"/>
-      <c r="H531" s="8"/>
-      <c r="I531" s="8"/>
+      <c r="A531" s="16"/>
+      <c r="B531" s="16"/>
+      <c r="C531" s="16"/>
+      <c r="D531" s="16"/>
+      <c r="E531" s="16"/>
+      <c r="F531" s="16"/>
+      <c r="G531" s="17"/>
+      <c r="H531" s="16"/>
+      <c r="I531" s="16"/>
     </row>
     <row r="532" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A532" s="8"/>
-      <c r="B532" s="8"/>
-      <c r="C532" s="8"/>
-      <c r="D532" s="8"/>
-      <c r="E532" s="8"/>
-      <c r="F532" s="8"/>
-      <c r="G532" s="9"/>
-      <c r="H532" s="8"/>
-      <c r="I532" s="8"/>
+      <c r="A532" s="16"/>
+      <c r="B532" s="16"/>
+      <c r="C532" s="16"/>
+      <c r="D532" s="16"/>
+      <c r="E532" s="16"/>
+      <c r="F532" s="16"/>
+      <c r="G532" s="17"/>
+      <c r="H532" s="16"/>
+      <c r="I532" s="16"/>
     </row>
     <row r="533" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A533" s="8"/>
-      <c r="B533" s="8"/>
-      <c r="C533" s="8"/>
-      <c r="D533" s="8"/>
-      <c r="E533" s="8"/>
-      <c r="F533" s="8"/>
-      <c r="G533" s="9"/>
-      <c r="H533" s="8"/>
-      <c r="I533" s="8"/>
+      <c r="A533" s="16"/>
+      <c r="B533" s="16"/>
+      <c r="C533" s="16"/>
+      <c r="D533" s="16"/>
+      <c r="E533" s="16"/>
+      <c r="F533" s="16"/>
+      <c r="G533" s="17"/>
+      <c r="H533" s="16"/>
+      <c r="I533" s="16"/>
     </row>
     <row r="534" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A534" s="8"/>
-      <c r="B534" s="8"/>
-      <c r="C534" s="8"/>
-      <c r="D534" s="8"/>
-      <c r="E534" s="8"/>
-      <c r="F534" s="8"/>
-      <c r="G534" s="9"/>
-      <c r="H534" s="8"/>
-      <c r="I534" s="8"/>
+      <c r="A534" s="16"/>
+      <c r="B534" s="16"/>
+      <c r="C534" s="16"/>
+      <c r="D534" s="16"/>
+      <c r="E534" s="16"/>
+      <c r="F534" s="16"/>
+      <c r="G534" s="17"/>
+      <c r="H534" s="16"/>
+      <c r="I534" s="16"/>
     </row>
     <row r="535" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A535" s="8"/>
-      <c r="B535" s="8"/>
-      <c r="C535" s="8"/>
-      <c r="D535" s="8"/>
-      <c r="E535" s="8"/>
-      <c r="F535" s="8"/>
-      <c r="G535" s="9"/>
-      <c r="H535" s="8"/>
-      <c r="I535" s="8"/>
+      <c r="A535" s="16"/>
+      <c r="B535" s="16"/>
+      <c r="C535" s="16"/>
+      <c r="D535" s="16"/>
+      <c r="E535" s="16"/>
+      <c r="F535" s="16"/>
+      <c r="G535" s="17"/>
+      <c r="H535" s="16"/>
+      <c r="I535" s="16"/>
     </row>
     <row r="536" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A536" s="8"/>
-      <c r="B536" s="8"/>
-      <c r="C536" s="8"/>
-      <c r="D536" s="8"/>
-      <c r="E536" s="8"/>
-      <c r="F536" s="8"/>
-      <c r="G536" s="9"/>
-      <c r="H536" s="8"/>
-      <c r="I536" s="8"/>
+      <c r="A536" s="16"/>
+      <c r="B536" s="16"/>
+      <c r="C536" s="16"/>
+      <c r="D536" s="16"/>
+      <c r="E536" s="16"/>
+      <c r="F536" s="16"/>
+      <c r="G536" s="17"/>
+      <c r="H536" s="16"/>
+      <c r="I536" s="16"/>
     </row>
     <row r="537" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A537" s="8"/>
-      <c r="B537" s="8"/>
-      <c r="C537" s="8"/>
-      <c r="D537" s="8"/>
-      <c r="E537" s="8"/>
-      <c r="F537" s="8"/>
-      <c r="G537" s="9"/>
-      <c r="H537" s="8"/>
-      <c r="I537" s="8"/>
+      <c r="A537" s="16"/>
+      <c r="B537" s="16"/>
+      <c r="C537" s="16"/>
+      <c r="D537" s="16"/>
+      <c r="E537" s="16"/>
+      <c r="F537" s="16"/>
+      <c r="G537" s="17"/>
+      <c r="H537" s="16"/>
+      <c r="I537" s="16"/>
     </row>
     <row r="538" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A538" s="8"/>
-      <c r="B538" s="8"/>
-      <c r="C538" s="8"/>
-      <c r="D538" s="8"/>
-      <c r="E538" s="8"/>
-      <c r="F538" s="8"/>
-      <c r="G538" s="9"/>
-      <c r="H538" s="8"/>
-      <c r="I538" s="8"/>
+      <c r="A538" s="16"/>
+      <c r="B538" s="16"/>
+      <c r="C538" s="16"/>
+      <c r="D538" s="16"/>
+      <c r="E538" s="16"/>
+      <c r="F538" s="16"/>
+      <c r="G538" s="17"/>
+      <c r="H538" s="16"/>
+      <c r="I538" s="16"/>
     </row>
     <row r="539" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A539" s="8"/>
-      <c r="B539" s="8"/>
-      <c r="C539" s="8"/>
-      <c r="D539" s="8"/>
-      <c r="E539" s="8"/>
-      <c r="F539" s="8"/>
-      <c r="G539" s="9"/>
-      <c r="H539" s="8"/>
-      <c r="I539" s="8"/>
+      <c r="A539" s="16"/>
+      <c r="B539" s="16"/>
+      <c r="C539" s="16"/>
+      <c r="D539" s="16"/>
+      <c r="E539" s="16"/>
+      <c r="F539" s="16"/>
+      <c r="G539" s="17"/>
+      <c r="H539" s="16"/>
+      <c r="I539" s="16"/>
     </row>
     <row r="540" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A540" s="8"/>
-      <c r="B540" s="8"/>
-      <c r="C540" s="8"/>
-      <c r="D540" s="8"/>
-      <c r="E540" s="8"/>
-      <c r="F540" s="8"/>
-      <c r="G540" s="9"/>
-      <c r="H540" s="8"/>
-      <c r="I540" s="8"/>
+      <c r="A540" s="16"/>
+      <c r="B540" s="16"/>
+      <c r="C540" s="16"/>
+      <c r="D540" s="16"/>
+      <c r="E540" s="16"/>
+      <c r="F540" s="16"/>
+      <c r="G540" s="17"/>
+      <c r="H540" s="16"/>
+      <c r="I540" s="16"/>
     </row>
     <row r="541" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A541" s="8"/>
-      <c r="B541" s="8"/>
-      <c r="C541" s="8"/>
-      <c r="D541" s="8"/>
-      <c r="E541" s="8"/>
-      <c r="F541" s="8"/>
-      <c r="G541" s="9"/>
-      <c r="H541" s="8"/>
-      <c r="I541" s="8"/>
+      <c r="A541" s="16"/>
+      <c r="B541" s="16"/>
+      <c r="C541" s="16"/>
+      <c r="D541" s="16"/>
+      <c r="E541" s="16"/>
+      <c r="F541" s="16"/>
+      <c r="G541" s="17"/>
+      <c r="H541" s="16"/>
+      <c r="I541" s="16"/>
     </row>
     <row r="542" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A542" s="8"/>
-      <c r="B542" s="8"/>
-      <c r="C542" s="8"/>
-      <c r="D542" s="8"/>
-      <c r="E542" s="8"/>
-      <c r="F542" s="8"/>
-      <c r="G542" s="9"/>
-      <c r="H542" s="8"/>
-      <c r="I542" s="8"/>
+      <c r="A542" s="16"/>
+      <c r="B542" s="16"/>
+      <c r="C542" s="16"/>
+      <c r="D542" s="16"/>
+      <c r="E542" s="16"/>
+      <c r="F542" s="16"/>
+      <c r="G542" s="17"/>
+      <c r="H542" s="16"/>
+      <c r="I542" s="16"/>
     </row>
     <row r="543" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A543" s="8"/>
-      <c r="B543" s="8"/>
-      <c r="C543" s="8"/>
-      <c r="D543" s="8"/>
-      <c r="E543" s="8"/>
-      <c r="F543" s="8"/>
-      <c r="G543" s="9"/>
-      <c r="H543" s="8"/>
-      <c r="I543" s="8"/>
+      <c r="A543" s="16"/>
+      <c r="B543" s="16"/>
+      <c r="C543" s="16"/>
+      <c r="D543" s="16"/>
+      <c r="E543" s="16"/>
+      <c r="F543" s="16"/>
+      <c r="G543" s="17"/>
+      <c r="H543" s="16"/>
+      <c r="I543" s="16"/>
     </row>
     <row r="544" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A544" s="8"/>
-      <c r="B544" s="8"/>
-      <c r="C544" s="8"/>
-      <c r="D544" s="8"/>
-      <c r="E544" s="8"/>
-      <c r="F544" s="8"/>
-      <c r="G544" s="9"/>
-      <c r="H544" s="8"/>
-      <c r="I544" s="8"/>
+      <c r="A544" s="16"/>
+      <c r="B544" s="16"/>
+      <c r="C544" s="16"/>
+      <c r="D544" s="16"/>
+      <c r="E544" s="16"/>
+      <c r="F544" s="16"/>
+      <c r="G544" s="17"/>
+      <c r="H544" s="16"/>
+      <c r="I544" s="16"/>
     </row>
     <row r="545" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A545" s="8"/>
-      <c r="B545" s="8"/>
-      <c r="C545" s="8"/>
-      <c r="D545" s="8"/>
-      <c r="E545" s="8"/>
-      <c r="F545" s="8"/>
-      <c r="G545" s="9"/>
-      <c r="H545" s="8"/>
-      <c r="I545" s="8"/>
+      <c r="A545" s="16"/>
+      <c r="B545" s="16"/>
+      <c r="C545" s="16"/>
+      <c r="D545" s="16"/>
+      <c r="E545" s="16"/>
+      <c r="F545" s="16"/>
+      <c r="G545" s="17"/>
+      <c r="H545" s="16"/>
+      <c r="I545" s="16"/>
     </row>
     <row r="546" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A546" s="8"/>
-      <c r="B546" s="8"/>
-      <c r="C546" s="8"/>
-      <c r="D546" s="8"/>
-      <c r="E546" s="8"/>
-      <c r="F546" s="8"/>
-      <c r="G546" s="9"/>
-      <c r="H546" s="8"/>
-      <c r="I546" s="8"/>
+      <c r="A546" s="16"/>
+      <c r="B546" s="16"/>
+      <c r="C546" s="16"/>
+      <c r="D546" s="16"/>
+      <c r="E546" s="16"/>
+      <c r="F546" s="16"/>
+      <c r="G546" s="17"/>
+      <c r="H546" s="16"/>
+      <c r="I546" s="16"/>
     </row>
     <row r="547" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A547" s="8"/>
-      <c r="B547" s="8"/>
-      <c r="C547" s="8"/>
-      <c r="D547" s="8"/>
-      <c r="E547" s="8"/>
-      <c r="F547" s="8"/>
-      <c r="G547" s="9"/>
-      <c r="H547" s="8"/>
-      <c r="I547" s="8"/>
+      <c r="A547" s="16"/>
+      <c r="B547" s="16"/>
+      <c r="C547" s="16"/>
+      <c r="D547" s="16"/>
+      <c r="E547" s="16"/>
+      <c r="F547" s="16"/>
+      <c r="G547" s="17"/>
+      <c r="H547" s="16"/>
+      <c r="I547" s="16"/>
     </row>
     <row r="548" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A548" s="8"/>
-      <c r="B548" s="8"/>
-      <c r="C548" s="8"/>
-      <c r="D548" s="8"/>
-      <c r="E548" s="8"/>
-      <c r="F548" s="8"/>
-      <c r="G548" s="9"/>
-      <c r="H548" s="8"/>
-      <c r="I548" s="8"/>
+      <c r="A548" s="16"/>
+      <c r="B548" s="16"/>
+      <c r="C548" s="16"/>
+      <c r="D548" s="16"/>
+      <c r="E548" s="16"/>
+      <c r="F548" s="16"/>
+      <c r="G548" s="17"/>
+      <c r="H548" s="16"/>
+      <c r="I548" s="16"/>
     </row>
     <row r="549" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A549" s="8"/>
-      <c r="B549" s="8"/>
-      <c r="C549" s="8"/>
-      <c r="D549" s="8"/>
-      <c r="E549" s="8"/>
-      <c r="F549" s="8"/>
-      <c r="G549" s="9"/>
-      <c r="H549" s="8"/>
-      <c r="I549" s="8"/>
+      <c r="A549" s="16"/>
+      <c r="B549" s="16"/>
+      <c r="C549" s="16"/>
+      <c r="D549" s="16"/>
+      <c r="E549" s="16"/>
+      <c r="F549" s="16"/>
+      <c r="G549" s="17"/>
+      <c r="H549" s="16"/>
+      <c r="I549" s="16"/>
     </row>
     <row r="550" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A550" s="8"/>
-      <c r="B550" s="8"/>
-      <c r="C550" s="8"/>
-      <c r="D550" s="8"/>
-      <c r="E550" s="8"/>
-      <c r="F550" s="8"/>
-      <c r="G550" s="9"/>
-      <c r="H550" s="8"/>
-      <c r="I550" s="8"/>
+      <c r="A550" s="16"/>
+      <c r="B550" s="16"/>
+      <c r="C550" s="16"/>
+      <c r="D550" s="16"/>
+      <c r="E550" s="16"/>
+      <c r="F550" s="16"/>
+      <c r="G550" s="17"/>
+      <c r="H550" s="16"/>
+      <c r="I550" s="16"/>
     </row>
     <row r="551" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A551" s="8"/>
-      <c r="B551" s="8"/>
-      <c r="C551" s="8"/>
-      <c r="D551" s="8"/>
-      <c r="E551" s="8"/>
-      <c r="F551" s="8"/>
-      <c r="G551" s="9"/>
-      <c r="H551" s="8"/>
-      <c r="I551" s="8"/>
+      <c r="A551" s="16"/>
+      <c r="B551" s="16"/>
+      <c r="C551" s="16"/>
+      <c r="D551" s="16"/>
+      <c r="E551" s="16"/>
+      <c r="F551" s="16"/>
+      <c r="G551" s="17"/>
+      <c r="H551" s="16"/>
+      <c r="I551" s="16"/>
     </row>
     <row r="552" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A552" s="8"/>
-      <c r="B552" s="8"/>
-      <c r="C552" s="8"/>
-      <c r="D552" s="8"/>
-      <c r="E552" s="8"/>
-      <c r="F552" s="8"/>
-      <c r="G552" s="9"/>
-      <c r="H552" s="8"/>
-      <c r="I552" s="8"/>
+      <c r="A552" s="16"/>
+      <c r="B552" s="16"/>
+      <c r="C552" s="16"/>
+      <c r="D552" s="16"/>
+      <c r="E552" s="16"/>
+      <c r="F552" s="16"/>
+      <c r="G552" s="17"/>
+      <c r="H552" s="16"/>
+      <c r="I552" s="16"/>
     </row>
     <row r="553" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A553" s="8"/>
-      <c r="B553" s="8"/>
-      <c r="C553" s="8"/>
-      <c r="D553" s="8"/>
-      <c r="E553" s="8"/>
-      <c r="F553" s="8"/>
-      <c r="G553" s="9"/>
-      <c r="H553" s="8"/>
-      <c r="I553" s="8"/>
+      <c r="A553" s="16"/>
+      <c r="B553" s="16"/>
+      <c r="C553" s="16"/>
+      <c r="D553" s="16"/>
+      <c r="E553" s="16"/>
+      <c r="F553" s="16"/>
+      <c r="G553" s="17"/>
+      <c r="H553" s="16"/>
+      <c r="I553" s="16"/>
     </row>
     <row r="554" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A554" s="8"/>
-      <c r="B554" s="8"/>
-      <c r="C554" s="8"/>
-      <c r="D554" s="8"/>
-      <c r="E554" s="8"/>
-      <c r="F554" s="8"/>
-      <c r="G554" s="9"/>
-      <c r="H554" s="8"/>
-      <c r="I554" s="8"/>
+      <c r="A554" s="16"/>
+      <c r="B554" s="16"/>
+      <c r="C554" s="16"/>
+      <c r="D554" s="16"/>
+      <c r="E554" s="16"/>
+      <c r="F554" s="16"/>
+      <c r="G554" s="17"/>
+      <c r="H554" s="16"/>
+      <c r="I554" s="16"/>
     </row>
     <row r="555" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A555" s="8"/>
-      <c r="B555" s="8"/>
-      <c r="C555" s="8"/>
-      <c r="D555" s="8"/>
-      <c r="E555" s="8"/>
-      <c r="F555" s="8"/>
-      <c r="G555" s="9"/>
-      <c r="H555" s="8"/>
-      <c r="I555" s="8"/>
+      <c r="A555" s="16"/>
+      <c r="B555" s="16"/>
+      <c r="C555" s="16"/>
+      <c r="D555" s="16"/>
+      <c r="E555" s="16"/>
+      <c r="F555" s="16"/>
+      <c r="G555" s="17"/>
+      <c r="H555" s="16"/>
+      <c r="I555" s="16"/>
     </row>
     <row r="556" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A556" s="8"/>
-      <c r="B556" s="8"/>
-      <c r="C556" s="8"/>
-      <c r="D556" s="8"/>
-      <c r="E556" s="8"/>
-      <c r="F556" s="8"/>
-      <c r="G556" s="9"/>
-      <c r="H556" s="8"/>
-      <c r="I556" s="8"/>
+      <c r="A556" s="16"/>
+      <c r="B556" s="16"/>
+      <c r="C556" s="16"/>
+      <c r="D556" s="16"/>
+      <c r="E556" s="16"/>
+      <c r="F556" s="16"/>
+      <c r="G556" s="17"/>
+      <c r="H556" s="16"/>
+      <c r="I556" s="16"/>
     </row>
     <row r="557" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A557" s="8"/>
-      <c r="B557" s="8"/>
-      <c r="C557" s="8"/>
-      <c r="D557" s="8"/>
-      <c r="E557" s="8"/>
-      <c r="F557" s="8"/>
-      <c r="G557" s="9"/>
-      <c r="H557" s="8"/>
-      <c r="I557" s="8"/>
+      <c r="A557" s="16"/>
+      <c r="B557" s="16"/>
+      <c r="C557" s="16"/>
+      <c r="D557" s="16"/>
+      <c r="E557" s="16"/>
+      <c r="F557" s="16"/>
+      <c r="G557" s="17"/>
+      <c r="H557" s="16"/>
+      <c r="I557" s="16"/>
     </row>
     <row r="558" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A558" s="8"/>
-      <c r="B558" s="8"/>
-      <c r="C558" s="8"/>
-      <c r="D558" s="8"/>
-      <c r="E558" s="8"/>
-      <c r="F558" s="8"/>
-      <c r="G558" s="9"/>
-      <c r="H558" s="8"/>
-      <c r="I558" s="8"/>
+      <c r="A558" s="16"/>
+      <c r="B558" s="16"/>
+      <c r="C558" s="16"/>
+      <c r="D558" s="16"/>
+      <c r="E558" s="16"/>
+      <c r="F558" s="16"/>
+      <c r="G558" s="17"/>
+      <c r="H558" s="16"/>
+      <c r="I558" s="16"/>
     </row>
     <row r="559" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A559" s="8"/>
-      <c r="B559" s="8"/>
-      <c r="C559" s="8"/>
-      <c r="D559" s="8"/>
-      <c r="E559" s="8"/>
-      <c r="F559" s="8"/>
-      <c r="G559" s="9"/>
-      <c r="H559" s="8"/>
-      <c r="I559" s="8"/>
+      <c r="A559" s="16"/>
+      <c r="B559" s="16"/>
+      <c r="C559" s="16"/>
+      <c r="D559" s="16"/>
+      <c r="E559" s="16"/>
+      <c r="F559" s="16"/>
+      <c r="G559" s="17"/>
+      <c r="H559" s="16"/>
+      <c r="I559" s="16"/>
     </row>
     <row r="560" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A560" s="8"/>
-      <c r="B560" s="8"/>
-      <c r="C560" s="8"/>
-      <c r="D560" s="8"/>
-      <c r="E560" s="8"/>
-      <c r="F560" s="8"/>
-      <c r="G560" s="9"/>
-      <c r="H560" s="8"/>
-      <c r="I560" s="8"/>
+      <c r="A560" s="16"/>
+      <c r="B560" s="16"/>
+      <c r="C560" s="16"/>
+      <c r="D560" s="16"/>
+      <c r="E560" s="16"/>
+      <c r="F560" s="16"/>
+      <c r="G560" s="17"/>
+      <c r="H560" s="16"/>
+      <c r="I560" s="16"/>
     </row>
     <row r="561" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A561" s="8"/>
-      <c r="B561" s="8"/>
-      <c r="C561" s="8"/>
-      <c r="D561" s="8"/>
-      <c r="E561" s="8"/>
-      <c r="F561" s="8"/>
-      <c r="G561" s="9"/>
-      <c r="H561" s="8"/>
-      <c r="I561" s="8"/>
+      <c r="A561" s="16"/>
+      <c r="B561" s="16"/>
+      <c r="C561" s="16"/>
+      <c r="D561" s="16"/>
+      <c r="E561" s="16"/>
+      <c r="F561" s="16"/>
+      <c r="G561" s="17"/>
+      <c r="H561" s="16"/>
+      <c r="I561" s="16"/>
     </row>
     <row r="562" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A562" s="8"/>
-      <c r="B562" s="8"/>
-      <c r="C562" s="8"/>
-      <c r="D562" s="8"/>
-      <c r="E562" s="8"/>
-      <c r="F562" s="8"/>
-      <c r="G562" s="9"/>
-      <c r="H562" s="8"/>
-      <c r="I562" s="8"/>
+      <c r="A562" s="16"/>
+      <c r="B562" s="16"/>
+      <c r="C562" s="16"/>
+      <c r="D562" s="16"/>
+      <c r="E562" s="16"/>
+      <c r="F562" s="16"/>
+      <c r="G562" s="17"/>
+      <c r="H562" s="16"/>
+      <c r="I562" s="16"/>
     </row>
     <row r="563" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A563" s="8"/>
-      <c r="B563" s="8"/>
-      <c r="C563" s="8"/>
-      <c r="D563" s="8"/>
-      <c r="E563" s="8"/>
-      <c r="F563" s="8"/>
-      <c r="G563" s="9"/>
-      <c r="H563" s="8"/>
-      <c r="I563" s="8"/>
+      <c r="A563" s="16"/>
+      <c r="B563" s="16"/>
+      <c r="C563" s="16"/>
+      <c r="D563" s="16"/>
+      <c r="E563" s="16"/>
+      <c r="F563" s="16"/>
+      <c r="G563" s="17"/>
+      <c r="H563" s="16"/>
+      <c r="I563" s="16"/>
     </row>
     <row r="564" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A564" s="8"/>
-      <c r="B564" s="8"/>
-      <c r="C564" s="8"/>
-      <c r="D564" s="8"/>
-      <c r="E564" s="8"/>
-      <c r="F564" s="8"/>
-      <c r="G564" s="9"/>
-      <c r="H564" s="8"/>
-      <c r="I564" s="8"/>
+      <c r="A564" s="16"/>
+      <c r="B564" s="16"/>
+      <c r="C564" s="16"/>
+      <c r="D564" s="16"/>
+      <c r="E564" s="16"/>
+      <c r="F564" s="16"/>
+      <c r="G564" s="17"/>
+      <c r="H564" s="16"/>
+      <c r="I564" s="16"/>
     </row>
     <row r="565" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A565" s="8"/>
-      <c r="B565" s="8"/>
-      <c r="C565" s="8"/>
-      <c r="D565" s="8"/>
-      <c r="E565" s="8"/>
-      <c r="F565" s="8"/>
-      <c r="G565" s="9"/>
-      <c r="H565" s="8"/>
-      <c r="I565" s="8"/>
+      <c r="A565" s="16"/>
+      <c r="B565" s="16"/>
+      <c r="C565" s="16"/>
+      <c r="D565" s="16"/>
+      <c r="E565" s="16"/>
+      <c r="F565" s="16"/>
+      <c r="G565" s="17"/>
+      <c r="H565" s="16"/>
+      <c r="I565" s="16"/>
     </row>
     <row r="566" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A566" s="8"/>
-      <c r="B566" s="8"/>
-      <c r="C566" s="8"/>
-      <c r="D566" s="8"/>
-      <c r="E566" s="8"/>
-      <c r="F566" s="8"/>
-      <c r="G566" s="9"/>
-      <c r="H566" s="8"/>
-      <c r="I566" s="8"/>
+      <c r="A566" s="16"/>
+      <c r="B566" s="16"/>
+      <c r="C566" s="16"/>
+      <c r="D566" s="16"/>
+      <c r="E566" s="16"/>
+      <c r="F566" s="16"/>
+      <c r="G566" s="17"/>
+      <c r="H566" s="16"/>
+      <c r="I566" s="16"/>
     </row>
     <row r="567" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A567" s="8"/>
-      <c r="B567" s="8"/>
-      <c r="C567" s="8"/>
-      <c r="D567" s="8"/>
-      <c r="E567" s="8"/>
-      <c r="F567" s="8"/>
-      <c r="G567" s="9"/>
-      <c r="H567" s="8"/>
-      <c r="I567" s="8"/>
+      <c r="A567" s="16"/>
+      <c r="B567" s="16"/>
+      <c r="C567" s="16"/>
+      <c r="D567" s="16"/>
+      <c r="E567" s="16"/>
+      <c r="F567" s="16"/>
+      <c r="G567" s="17"/>
+      <c r="H567" s="16"/>
+      <c r="I567" s="16"/>
     </row>
     <row r="568" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A568" s="8"/>
-      <c r="B568" s="8"/>
-      <c r="C568" s="8"/>
-      <c r="D568" s="8"/>
-      <c r="E568" s="8"/>
-      <c r="F568" s="8"/>
-      <c r="G568" s="9"/>
-      <c r="H568" s="8"/>
-      <c r="I568" s="8"/>
+      <c r="A568" s="16"/>
+      <c r="B568" s="16"/>
+      <c r="C568" s="16"/>
+      <c r="D568" s="16"/>
+      <c r="E568" s="16"/>
+      <c r="F568" s="16"/>
+      <c r="G568" s="17"/>
+      <c r="H568" s="16"/>
+      <c r="I568" s="16"/>
     </row>
     <row r="569" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A569" s="8"/>
-      <c r="B569" s="8"/>
-      <c r="C569" s="8"/>
-      <c r="D569" s="8"/>
-      <c r="E569" s="8"/>
-      <c r="F569" s="8"/>
-      <c r="G569" s="9"/>
-      <c r="H569" s="8"/>
-      <c r="I569" s="8"/>
+      <c r="A569" s="16"/>
+      <c r="B569" s="16"/>
+      <c r="C569" s="16"/>
+      <c r="D569" s="16"/>
+      <c r="E569" s="16"/>
+      <c r="F569" s="16"/>
+      <c r="G569" s="17"/>
+      <c r="H569" s="16"/>
+      <c r="I569" s="16"/>
     </row>
     <row r="570" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A570" s="8"/>
-      <c r="B570" s="8"/>
-      <c r="C570" s="8"/>
-      <c r="D570" s="8"/>
-      <c r="E570" s="8"/>
-      <c r="F570" s="8"/>
-      <c r="G570" s="9"/>
-      <c r="H570" s="8"/>
-      <c r="I570" s="8"/>
+      <c r="A570" s="16"/>
+      <c r="B570" s="16"/>
+      <c r="C570" s="16"/>
+      <c r="D570" s="16"/>
+      <c r="E570" s="16"/>
+      <c r="F570" s="16"/>
+      <c r="G570" s="17"/>
+      <c r="H570" s="16"/>
+      <c r="I570" s="16"/>
     </row>
     <row r="571" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A571" s="8"/>
-      <c r="B571" s="8"/>
-      <c r="C571" s="8"/>
-      <c r="D571" s="8"/>
-      <c r="E571" s="8"/>
-      <c r="F571" s="8"/>
-      <c r="G571" s="9"/>
-      <c r="H571" s="8"/>
-      <c r="I571" s="8"/>
+      <c r="A571" s="16"/>
+      <c r="B571" s="16"/>
+      <c r="C571" s="16"/>
+      <c r="D571" s="16"/>
+      <c r="E571" s="16"/>
+      <c r="F571" s="16"/>
+      <c r="G571" s="17"/>
+      <c r="H571" s="16"/>
+      <c r="I571" s="16"/>
     </row>
     <row r="572" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A572" s="8"/>
-      <c r="B572" s="8"/>
-      <c r="C572" s="8"/>
-      <c r="D572" s="8"/>
-      <c r="E572" s="8"/>
-      <c r="F572" s="8"/>
-      <c r="G572" s="9"/>
-      <c r="H572" s="8"/>
-      <c r="I572" s="8"/>
+      <c r="A572" s="16"/>
+      <c r="B572" s="16"/>
+      <c r="C572" s="16"/>
+      <c r="D572" s="16"/>
+      <c r="E572" s="16"/>
+      <c r="F572" s="16"/>
+      <c r="G572" s="17"/>
+      <c r="H572" s="16"/>
+      <c r="I572" s="16"/>
     </row>
     <row r="573" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A573" s="8"/>
-      <c r="B573" s="8"/>
-      <c r="C573" s="8"/>
-      <c r="D573" s="8"/>
-      <c r="E573" s="8"/>
-      <c r="F573" s="8"/>
-      <c r="G573" s="9"/>
-      <c r="H573" s="8"/>
-      <c r="I573" s="8"/>
+      <c r="A573" s="16"/>
+      <c r="B573" s="16"/>
+      <c r="C573" s="16"/>
+      <c r="D573" s="16"/>
+      <c r="E573" s="16"/>
+      <c r="F573" s="16"/>
+      <c r="G573" s="17"/>
+      <c r="H573" s="16"/>
+      <c r="I573" s="16"/>
     </row>
     <row r="574" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A574" s="8"/>
-      <c r="B574" s="8"/>
-      <c r="C574" s="8"/>
-      <c r="D574" s="8"/>
-      <c r="E574" s="8"/>
-      <c r="F574" s="8"/>
-      <c r="G574" s="9"/>
-      <c r="H574" s="8"/>
-      <c r="I574" s="8"/>
+      <c r="A574" s="16"/>
+      <c r="B574" s="16"/>
+      <c r="C574" s="16"/>
+      <c r="D574" s="16"/>
+      <c r="E574" s="16"/>
+      <c r="F574" s="16"/>
+      <c r="G574" s="17"/>
+      <c r="H574" s="16"/>
+      <c r="I574" s="16"/>
     </row>
     <row r="575" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A575" s="8"/>
-      <c r="B575" s="8"/>
-      <c r="C575" s="8"/>
-      <c r="D575" s="8"/>
-      <c r="E575" s="8"/>
-      <c r="F575" s="8"/>
-      <c r="G575" s="9"/>
-      <c r="H575" s="8"/>
-      <c r="I575" s="8"/>
+      <c r="A575" s="16"/>
+      <c r="B575" s="16"/>
+      <c r="C575" s="16"/>
+      <c r="D575" s="16"/>
+      <c r="E575" s="16"/>
+      <c r="F575" s="16"/>
+      <c r="G575" s="17"/>
+      <c r="H575" s="16"/>
+      <c r="I575" s="16"/>
     </row>
     <row r="576" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A576" s="8"/>
-      <c r="B576" s="8"/>
-      <c r="C576" s="8"/>
-      <c r="D576" s="8"/>
-      <c r="E576" s="8"/>
-      <c r="F576" s="8"/>
-      <c r="G576" s="9"/>
-      <c r="H576" s="8"/>
-      <c r="I576" s="8"/>
+      <c r="A576" s="16"/>
+      <c r="B576" s="16"/>
+      <c r="C576" s="16"/>
+      <c r="D576" s="16"/>
+      <c r="E576" s="16"/>
+      <c r="F576" s="16"/>
+      <c r="G576" s="17"/>
+      <c r="H576" s="16"/>
+      <c r="I576" s="16"/>
     </row>
     <row r="577" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A577" s="8"/>
-      <c r="B577" s="8"/>
-      <c r="C577" s="8"/>
-      <c r="D577" s="8"/>
-      <c r="E577" s="8"/>
-      <c r="F577" s="8"/>
-      <c r="G577" s="9"/>
-      <c r="H577" s="8"/>
-      <c r="I577" s="8"/>
+      <c r="A577" s="16"/>
+      <c r="B577" s="16"/>
+      <c r="C577" s="16"/>
+      <c r="D577" s="16"/>
+      <c r="E577" s="16"/>
+      <c r="F577" s="16"/>
+      <c r="G577" s="17"/>
+      <c r="H577" s="16"/>
+      <c r="I577" s="16"/>
     </row>
     <row r="578" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A578" s="8"/>
-      <c r="B578" s="8"/>
-      <c r="C578" s="8"/>
-      <c r="D578" s="8"/>
-      <c r="E578" s="8"/>
-      <c r="F578" s="8"/>
-      <c r="G578" s="9"/>
-      <c r="H578" s="8"/>
-      <c r="I578" s="8"/>
+      <c r="A578" s="16"/>
+      <c r="B578" s="16"/>
+      <c r="C578" s="16"/>
+      <c r="D578" s="16"/>
+      <c r="E578" s="16"/>
+      <c r="F578" s="16"/>
+      <c r="G578" s="17"/>
+      <c r="H578" s="16"/>
+      <c r="I578" s="16"/>
     </row>
     <row r="579" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A579" s="8"/>
-      <c r="B579" s="8"/>
-      <c r="C579" s="8"/>
-      <c r="D579" s="8"/>
-      <c r="E579" s="8"/>
-      <c r="F579" s="8"/>
-      <c r="G579" s="9"/>
-      <c r="H579" s="8"/>
-      <c r="I579" s="8"/>
+      <c r="A579" s="16"/>
+      <c r="B579" s="16"/>
+      <c r="C579" s="16"/>
+      <c r="D579" s="16"/>
+      <c r="E579" s="16"/>
+      <c r="F579" s="16"/>
+      <c r="G579" s="17"/>
+      <c r="H579" s="16"/>
+      <c r="I579" s="16"/>
     </row>
     <row r="580" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A580" s="8"/>
-      <c r="B580" s="8"/>
-      <c r="C580" s="8"/>
-      <c r="D580" s="8"/>
-      <c r="E580" s="8"/>
-      <c r="F580" s="8"/>
-      <c r="G580" s="9"/>
-      <c r="H580" s="8"/>
-      <c r="I580" s="8"/>
+      <c r="A580" s="16"/>
+      <c r="B580" s="16"/>
+      <c r="C580" s="16"/>
+      <c r="D580" s="16"/>
+      <c r="E580" s="16"/>
+      <c r="F580" s="16"/>
+      <c r="G580" s="17"/>
+      <c r="H580" s="16"/>
+      <c r="I580" s="16"/>
     </row>
     <row r="581" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A581" s="8"/>
-      <c r="B581" s="8"/>
-      <c r="C581" s="8"/>
-      <c r="D581" s="8"/>
-      <c r="E581" s="8"/>
-      <c r="F581" s="8"/>
-      <c r="G581" s="9"/>
-      <c r="H581" s="8"/>
-      <c r="I581" s="8"/>
+      <c r="A581" s="16"/>
+      <c r="B581" s="16"/>
+      <c r="C581" s="16"/>
+      <c r="D581" s="16"/>
+      <c r="E581" s="16"/>
+      <c r="F581" s="16"/>
+      <c r="G581" s="17"/>
+      <c r="H581" s="16"/>
+      <c r="I581" s="16"/>
     </row>
     <row r="582" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A582" s="8"/>
-      <c r="B582" s="8"/>
-      <c r="C582" s="8"/>
-      <c r="D582" s="8"/>
-      <c r="E582" s="8"/>
-      <c r="F582" s="8"/>
-      <c r="G582" s="9"/>
-      <c r="H582" s="8"/>
-      <c r="I582" s="8"/>
+      <c r="A582" s="16"/>
+      <c r="B582" s="16"/>
+      <c r="C582" s="16"/>
+      <c r="D582" s="16"/>
+      <c r="E582" s="16"/>
+      <c r="F582" s="16"/>
+      <c r="G582" s="17"/>
+      <c r="H582" s="16"/>
+      <c r="I582" s="16"/>
     </row>
     <row r="583" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A583" s="8"/>
-      <c r="B583" s="8"/>
-      <c r="C583" s="8"/>
-      <c r="D583" s="8"/>
-      <c r="E583" s="8"/>
-      <c r="F583" s="8"/>
-      <c r="G583" s="9"/>
-      <c r="H583" s="8"/>
-      <c r="I583" s="8"/>
+      <c r="A583" s="16"/>
+      <c r="B583" s="16"/>
+      <c r="C583" s="16"/>
+      <c r="D583" s="16"/>
+      <c r="E583" s="16"/>
+      <c r="F583" s="16"/>
+      <c r="G583" s="17"/>
+      <c r="H583" s="16"/>
+      <c r="I583" s="16"/>
     </row>
     <row r="584" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A584" s="8"/>
-      <c r="B584" s="8"/>
-      <c r="C584" s="8"/>
-      <c r="D584" s="8"/>
-      <c r="E584" s="8"/>
-      <c r="F584" s="8"/>
-      <c r="G584" s="9"/>
-      <c r="H584" s="8"/>
-      <c r="I584" s="8"/>
+      <c r="A584" s="16"/>
+      <c r="B584" s="16"/>
+      <c r="C584" s="16"/>
+      <c r="D584" s="16"/>
+      <c r="E584" s="16"/>
+      <c r="F584" s="16"/>
+      <c r="G584" s="17"/>
+      <c r="H584" s="16"/>
+      <c r="I584" s="16"/>
     </row>
     <row r="585" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A585" s="8"/>
-      <c r="B585" s="8"/>
-      <c r="C585" s="8"/>
-      <c r="D585" s="8"/>
-      <c r="E585" s="8"/>
-      <c r="F585" s="8"/>
-      <c r="G585" s="9"/>
-      <c r="H585" s="8"/>
-      <c r="I585" s="8"/>
+      <c r="A585" s="16"/>
+      <c r="B585" s="16"/>
+      <c r="C585" s="16"/>
+      <c r="D585" s="16"/>
+      <c r="E585" s="16"/>
+      <c r="F585" s="16"/>
+      <c r="G585" s="17"/>
+      <c r="H585" s="16"/>
+      <c r="I585" s="16"/>
     </row>
     <row r="586" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A586" s="8"/>
-      <c r="B586" s="8"/>
-      <c r="C586" s="8"/>
-      <c r="D586" s="8"/>
-      <c r="E586" s="8"/>
-      <c r="F586" s="8"/>
-      <c r="G586" s="9"/>
-      <c r="H586" s="8"/>
-      <c r="I586" s="8"/>
+      <c r="A586" s="16"/>
+      <c r="B586" s="16"/>
+      <c r="C586" s="16"/>
+      <c r="D586" s="16"/>
+      <c r="E586" s="16"/>
+      <c r="F586" s="16"/>
+      <c r="G586" s="17"/>
+      <c r="H586" s="16"/>
+      <c r="I586" s="16"/>
     </row>
     <row r="587" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A587" s="8"/>
-      <c r="B587" s="8"/>
-      <c r="C587" s="8"/>
-      <c r="D587" s="8"/>
-      <c r="E587" s="8"/>
-      <c r="F587" s="8"/>
-      <c r="G587" s="9"/>
-      <c r="H587" s="8"/>
-      <c r="I587" s="8"/>
+      <c r="A587" s="16"/>
+      <c r="B587" s="16"/>
+      <c r="C587" s="16"/>
+      <c r="D587" s="16"/>
+      <c r="E587" s="16"/>
+      <c r="F587" s="16"/>
+      <c r="G587" s="17"/>
+      <c r="H587" s="16"/>
+      <c r="I587" s="16"/>
     </row>
     <row r="588" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A588" s="8"/>
-      <c r="B588" s="8"/>
-      <c r="C588" s="8"/>
-      <c r="D588" s="8"/>
-      <c r="E588" s="8"/>
-      <c r="F588" s="8"/>
-      <c r="G588" s="9"/>
-      <c r="H588" s="8"/>
-      <c r="I588" s="8"/>
+      <c r="A588" s="16"/>
+      <c r="B588" s="16"/>
+      <c r="C588" s="16"/>
+      <c r="D588" s="16"/>
+      <c r="E588" s="16"/>
+      <c r="F588" s="16"/>
+      <c r="G588" s="17"/>
+      <c r="H588" s="16"/>
+      <c r="I588" s="16"/>
     </row>
     <row r="589" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A589" s="8"/>
-      <c r="B589" s="8"/>
-      <c r="C589" s="8"/>
-      <c r="D589" s="8"/>
-      <c r="E589" s="8"/>
-      <c r="F589" s="8"/>
-      <c r="G589" s="9"/>
-      <c r="H589" s="8"/>
-      <c r="I589" s="8"/>
+      <c r="A589" s="16"/>
+      <c r="B589" s="16"/>
+      <c r="C589" s="16"/>
+      <c r="D589" s="16"/>
+      <c r="E589" s="16"/>
+      <c r="F589" s="16"/>
+      <c r="G589" s="17"/>
+      <c r="H589" s="16"/>
+      <c r="I589" s="16"/>
     </row>
     <row r="590" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A590" s="8"/>
-      <c r="B590" s="8"/>
-      <c r="C590" s="8"/>
-      <c r="D590" s="8"/>
-      <c r="E590" s="8"/>
-      <c r="F590" s="8"/>
-      <c r="G590" s="9"/>
-      <c r="H590" s="8"/>
-      <c r="I590" s="8"/>
+      <c r="A590" s="16"/>
+      <c r="B590" s="16"/>
+      <c r="C590" s="16"/>
+      <c r="D590" s="16"/>
+      <c r="E590" s="16"/>
+      <c r="F590" s="16"/>
+      <c r="G590" s="17"/>
+      <c r="H590" s="16"/>
+      <c r="I590" s="16"/>
     </row>
     <row r="591" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A591" s="8"/>
-      <c r="B591" s="8"/>
-      <c r="C591" s="8"/>
-      <c r="D591" s="8"/>
-      <c r="E591" s="8"/>
-      <c r="F591" s="8"/>
-      <c r="G591" s="9"/>
-      <c r="H591" s="8"/>
-      <c r="I591" s="8"/>
+      <c r="A591" s="16"/>
+      <c r="B591" s="16"/>
+      <c r="C591" s="16"/>
+      <c r="D591" s="16"/>
+      <c r="E591" s="16"/>
+      <c r="F591" s="16"/>
+      <c r="G591" s="17"/>
+      <c r="H591" s="16"/>
+      <c r="I591" s="16"/>
     </row>
     <row r="592" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A592" s="8"/>
-      <c r="B592" s="8"/>
-      <c r="C592" s="8"/>
-      <c r="D592" s="8"/>
-      <c r="E592" s="8"/>
-      <c r="F592" s="8"/>
-      <c r="G592" s="9"/>
-      <c r="H592" s="8"/>
-      <c r="I592" s="8"/>
+      <c r="A592" s="16"/>
+      <c r="B592" s="16"/>
+      <c r="C592" s="16"/>
+      <c r="D592" s="16"/>
+      <c r="E592" s="16"/>
+      <c r="F592" s="16"/>
+      <c r="G592" s="17"/>
+      <c r="H592" s="16"/>
+      <c r="I592" s="16"/>
     </row>
     <row r="593" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A593" s="8"/>
-      <c r="B593" s="8"/>
-      <c r="C593" s="8"/>
-      <c r="D593" s="8"/>
-      <c r="E593" s="8"/>
-      <c r="F593" s="8"/>
-      <c r="G593" s="9"/>
-      <c r="H593" s="8"/>
-      <c r="I593" s="8"/>
+      <c r="A593" s="16"/>
+      <c r="B593" s="16"/>
+      <c r="C593" s="16"/>
+      <c r="D593" s="16"/>
+      <c r="E593" s="16"/>
+      <c r="F593" s="16"/>
+      <c r="G593" s="17"/>
+      <c r="H593" s="16"/>
+      <c r="I593" s="16"/>
     </row>
     <row r="594" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A594" s="8"/>
-      <c r="B594" s="8"/>
-      <c r="C594" s="8"/>
-      <c r="D594" s="8"/>
-      <c r="E594" s="8"/>
-      <c r="F594" s="8"/>
-      <c r="G594" s="9"/>
-      <c r="H594" s="8"/>
-      <c r="I594" s="8"/>
+      <c r="A594" s="16"/>
+      <c r="B594" s="16"/>
+      <c r="C594" s="16"/>
+      <c r="D594" s="16"/>
+      <c r="E594" s="16"/>
+      <c r="F594" s="16"/>
+      <c r="G594" s="17"/>
+      <c r="H594" s="16"/>
+      <c r="I594" s="16"/>
     </row>
     <row r="595" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A595" s="8"/>
-      <c r="B595" s="8"/>
-      <c r="C595" s="8"/>
-      <c r="D595" s="8"/>
-      <c r="E595" s="8"/>
-      <c r="F595" s="8"/>
-      <c r="G595" s="9"/>
-      <c r="H595" s="8"/>
-      <c r="I595" s="8"/>
+      <c r="A595" s="16"/>
+      <c r="B595" s="16"/>
+      <c r="C595" s="16"/>
+      <c r="D595" s="16"/>
+      <c r="E595" s="16"/>
+      <c r="F595" s="16"/>
+      <c r="G595" s="17"/>
+      <c r="H595" s="16"/>
+      <c r="I595" s="16"/>
     </row>
     <row r="596" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A596" s="8"/>
-      <c r="B596" s="8"/>
-      <c r="C596" s="8"/>
-      <c r="D596" s="8"/>
-      <c r="E596" s="8"/>
-      <c r="F596" s="8"/>
-      <c r="G596" s="9"/>
-      <c r="H596" s="8"/>
-      <c r="I596" s="8"/>
+      <c r="A596" s="16"/>
+      <c r="B596" s="16"/>
+      <c r="C596" s="16"/>
+      <c r="D596" s="16"/>
+      <c r="E596" s="16"/>
+      <c r="F596" s="16"/>
+      <c r="G596" s="17"/>
+      <c r="H596" s="16"/>
+      <c r="I596" s="16"/>
     </row>
     <row r="597" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A597" s="8"/>
-      <c r="B597" s="8"/>
-      <c r="C597" s="8"/>
-      <c r="D597" s="8"/>
-      <c r="E597" s="8"/>
-      <c r="F597" s="8"/>
-      <c r="G597" s="9"/>
-      <c r="H597" s="8"/>
-      <c r="I597" s="8"/>
+      <c r="A597" s="16"/>
+      <c r="B597" s="16"/>
+      <c r="C597" s="16"/>
+      <c r="D597" s="16"/>
+      <c r="E597" s="16"/>
+      <c r="F597" s="16"/>
+      <c r="G597" s="17"/>
+      <c r="H597" s="16"/>
+      <c r="I597" s="16"/>
     </row>
     <row r="598" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A598" s="8"/>
-      <c r="B598" s="8"/>
-      <c r="C598" s="8"/>
-      <c r="D598" s="8"/>
-      <c r="E598" s="8"/>
-      <c r="F598" s="8"/>
-      <c r="G598" s="9"/>
-      <c r="H598" s="8"/>
-      <c r="I598" s="8"/>
+      <c r="A598" s="16"/>
+      <c r="B598" s="16"/>
+      <c r="C598" s="16"/>
+      <c r="D598" s="16"/>
+      <c r="E598" s="16"/>
+      <c r="F598" s="16"/>
+      <c r="G598" s="17"/>
+      <c r="H598" s="16"/>
+      <c r="I598" s="16"/>
     </row>
     <row r="599" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A599" s="8"/>
-      <c r="B599" s="8"/>
-      <c r="C599" s="8"/>
-      <c r="D599" s="8"/>
-      <c r="E599" s="8"/>
-      <c r="F599" s="8"/>
-      <c r="G599" s="9"/>
-      <c r="H599" s="8"/>
-      <c r="I599" s="8"/>
+      <c r="A599" s="16"/>
+      <c r="B599" s="16"/>
+      <c r="C599" s="16"/>
+      <c r="D599" s="16"/>
+      <c r="E599" s="16"/>
+      <c r="F599" s="16"/>
+      <c r="G599" s="17"/>
+      <c r="H599" s="16"/>
+      <c r="I599" s="16"/>
     </row>
     <row r="600" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A600" s="8"/>
-      <c r="B600" s="8"/>
-      <c r="C600" s="8"/>
-      <c r="D600" s="8"/>
-      <c r="E600" s="8"/>
-      <c r="F600" s="8"/>
-      <c r="G600" s="9"/>
-      <c r="H600" s="8"/>
-      <c r="I600" s="8"/>
+      <c r="A600" s="16"/>
+      <c r="B600" s="16"/>
+      <c r="C600" s="16"/>
+      <c r="D600" s="16"/>
+      <c r="E600" s="16"/>
+      <c r="F600" s="16"/>
+      <c r="G600" s="17"/>
+      <c r="H600" s="16"/>
+      <c r="I600" s="16"/>
     </row>
     <row r="601" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A601" s="8"/>
-      <c r="B601" s="8"/>
-      <c r="C601" s="8"/>
-      <c r="D601" s="8"/>
-      <c r="E601" s="8"/>
-      <c r="F601" s="8"/>
-      <c r="G601" s="9"/>
-      <c r="H601" s="8"/>
-      <c r="I601" s="8"/>
+      <c r="A601" s="16"/>
+      <c r="B601" s="16"/>
+      <c r="C601" s="16"/>
+      <c r="D601" s="16"/>
+      <c r="E601" s="16"/>
+      <c r="F601" s="16"/>
+      <c r="G601" s="17"/>
+      <c r="H601" s="16"/>
+      <c r="I601" s="16"/>
     </row>
     <row r="602" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A602" s="8"/>
-      <c r="B602" s="8"/>
-      <c r="C602" s="8"/>
-      <c r="D602" s="8"/>
-      <c r="E602" s="8"/>
-      <c r="F602" s="8"/>
-      <c r="G602" s="9"/>
-      <c r="H602" s="8"/>
-      <c r="I602" s="8"/>
+      <c r="A602" s="16"/>
+      <c r="B602" s="16"/>
+      <c r="C602" s="16"/>
+      <c r="D602" s="16"/>
+      <c r="E602" s="16"/>
+      <c r="F602" s="16"/>
+      <c r="G602" s="17"/>
+      <c r="H602" s="16"/>
+      <c r="I602" s="16"/>
     </row>
     <row r="603" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A603" s="8"/>
-      <c r="B603" s="8"/>
-      <c r="C603" s="8"/>
-      <c r="D603" s="8"/>
-      <c r="E603" s="8"/>
-      <c r="F603" s="8"/>
-      <c r="G603" s="9"/>
-      <c r="H603" s="8"/>
-      <c r="I603" s="8"/>
+      <c r="A603" s="16"/>
+      <c r="B603" s="16"/>
+      <c r="C603" s="16"/>
+      <c r="D603" s="16"/>
+      <c r="E603" s="16"/>
+      <c r="F603" s="16"/>
+      <c r="G603" s="17"/>
+      <c r="H603" s="16"/>
+      <c r="I603" s="16"/>
     </row>
     <row r="604" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A604" s="8"/>
-      <c r="B604" s="8"/>
-      <c r="C604" s="8"/>
-      <c r="D604" s="8"/>
-      <c r="E604" s="8"/>
-      <c r="F604" s="8"/>
-      <c r="G604" s="9"/>
-      <c r="H604" s="8"/>
-      <c r="I604" s="8"/>
+      <c r="A604" s="16"/>
+      <c r="B604" s="16"/>
+      <c r="C604" s="16"/>
+      <c r="D604" s="16"/>
+      <c r="E604" s="16"/>
+      <c r="F604" s="16"/>
+      <c r="G604" s="17"/>
+      <c r="H604" s="16"/>
+      <c r="I604" s="16"/>
     </row>
     <row r="605" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A605" s="8"/>
-      <c r="B605" s="8"/>
-      <c r="C605" s="8"/>
-      <c r="D605" s="8"/>
-      <c r="E605" s="8"/>
-      <c r="F605" s="8"/>
-      <c r="G605" s="9"/>
-      <c r="H605" s="8"/>
-      <c r="I605" s="8"/>
+      <c r="A605" s="16"/>
+      <c r="B605" s="16"/>
+      <c r="C605" s="16"/>
+      <c r="D605" s="16"/>
+      <c r="E605" s="16"/>
+      <c r="F605" s="16"/>
+      <c r="G605" s="17"/>
+      <c r="H605" s="16"/>
+      <c r="I605" s="16"/>
     </row>
     <row r="606" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A606" s="8"/>
-      <c r="B606" s="8"/>
-      <c r="C606" s="8"/>
-      <c r="D606" s="8"/>
-      <c r="E606" s="8"/>
-      <c r="F606" s="8"/>
-      <c r="G606" s="9"/>
-      <c r="H606" s="8"/>
-      <c r="I606" s="8"/>
+      <c r="A606" s="16"/>
+      <c r="B606" s="16"/>
+      <c r="C606" s="16"/>
+      <c r="D606" s="16"/>
+      <c r="E606" s="16"/>
+      <c r="F606" s="16"/>
+      <c r="G606" s="17"/>
+      <c r="H606" s="16"/>
+      <c r="I606" s="16"/>
     </row>
     <row r="607" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A607" s="8"/>
-      <c r="B607" s="8"/>
-      <c r="C607" s="8"/>
-      <c r="D607" s="8"/>
-      <c r="E607" s="8"/>
-      <c r="F607" s="8"/>
-      <c r="G607" s="9"/>
-      <c r="H607" s="8"/>
-      <c r="I607" s="8"/>
+      <c r="A607" s="16"/>
+      <c r="B607" s="16"/>
+      <c r="C607" s="16"/>
+      <c r="D607" s="16"/>
+      <c r="E607" s="16"/>
+      <c r="F607" s="16"/>
+      <c r="G607" s="17"/>
+      <c r="H607" s="16"/>
+      <c r="I607" s="16"/>
     </row>
     <row r="608" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A608" s="8"/>
-      <c r="B608" s="8"/>
-      <c r="C608" s="8"/>
-      <c r="D608" s="8"/>
-      <c r="E608" s="8"/>
-      <c r="F608" s="8"/>
-      <c r="G608" s="9"/>
-      <c r="H608" s="8"/>
-      <c r="I608" s="8"/>
+      <c r="A608" s="16"/>
+      <c r="B608" s="16"/>
+      <c r="C608" s="16"/>
+      <c r="D608" s="16"/>
+      <c r="E608" s="16"/>
+      <c r="F608" s="16"/>
+      <c r="G608" s="17"/>
+      <c r="H608" s="16"/>
+      <c r="I608" s="16"/>
     </row>
     <row r="609" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A609" s="8"/>
-      <c r="B609" s="8"/>
-      <c r="C609" s="8"/>
-      <c r="D609" s="8"/>
-      <c r="E609" s="8"/>
-      <c r="F609" s="8"/>
-      <c r="G609" s="9"/>
-      <c r="H609" s="8"/>
-      <c r="I609" s="8"/>
+      <c r="A609" s="16"/>
+      <c r="B609" s="16"/>
+      <c r="C609" s="16"/>
+      <c r="D609" s="16"/>
+      <c r="E609" s="16"/>
+      <c r="F609" s="16"/>
+      <c r="G609" s="17"/>
+      <c r="H609" s="16"/>
+      <c r="I609" s="16"/>
     </row>
     <row r="610" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A610" s="8"/>
-      <c r="B610" s="8"/>
-      <c r="C610" s="8"/>
-      <c r="D610" s="8"/>
-      <c r="E610" s="8"/>
-      <c r="F610" s="8"/>
-      <c r="G610" s="9"/>
-      <c r="H610" s="8"/>
-      <c r="I610" s="8"/>
+      <c r="A610" s="16"/>
+      <c r="B610" s="16"/>
+      <c r="C610" s="16"/>
+      <c r="D610" s="16"/>
+      <c r="E610" s="16"/>
+      <c r="F610" s="16"/>
+      <c r="G610" s="17"/>
+      <c r="H610" s="16"/>
+      <c r="I610" s="16"/>
     </row>
     <row r="611" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A611" s="8"/>
-      <c r="B611" s="8"/>
-      <c r="C611" s="8"/>
-      <c r="D611" s="8"/>
-      <c r="E611" s="8"/>
-      <c r="F611" s="8"/>
-      <c r="G611" s="9"/>
-      <c r="H611" s="8"/>
-      <c r="I611" s="8"/>
+      <c r="A611" s="16"/>
+      <c r="B611" s="16"/>
+      <c r="C611" s="16"/>
+      <c r="D611" s="16"/>
+      <c r="E611" s="16"/>
+      <c r="F611" s="16"/>
+      <c r="G611" s="17"/>
+      <c r="H611" s="16"/>
+      <c r="I611" s="16"/>
     </row>
     <row r="612" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A612" s="8"/>
-      <c r="B612" s="8"/>
-      <c r="C612" s="8"/>
-      <c r="D612" s="8"/>
-      <c r="E612" s="8"/>
-      <c r="F612" s="8"/>
-      <c r="G612" s="9"/>
-      <c r="H612" s="8"/>
-      <c r="I612" s="8"/>
+      <c r="A612" s="16"/>
+      <c r="B612" s="16"/>
+      <c r="C612" s="16"/>
+      <c r="D612" s="16"/>
+      <c r="E612" s="16"/>
+      <c r="F612" s="16"/>
+      <c r="G612" s="17"/>
+      <c r="H612" s="16"/>
+      <c r="I612" s="16"/>
     </row>
     <row r="613" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A613" s="8"/>
-      <c r="B613" s="8"/>
-      <c r="C613" s="8"/>
-      <c r="D613" s="8"/>
-      <c r="E613" s="8"/>
-      <c r="F613" s="8"/>
-      <c r="G613" s="9"/>
-      <c r="H613" s="8"/>
-      <c r="I613" s="8"/>
+      <c r="A613" s="16"/>
+      <c r="B613" s="16"/>
+      <c r="C613" s="16"/>
+      <c r="D613" s="16"/>
+      <c r="E613" s="16"/>
+      <c r="F613" s="16"/>
+      <c r="G613" s="17"/>
+      <c r="H613" s="16"/>
+      <c r="I613" s="16"/>
     </row>
     <row r="614" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A614" s="8"/>
-      <c r="B614" s="8"/>
-      <c r="C614" s="8"/>
-      <c r="D614" s="8"/>
-      <c r="E614" s="8"/>
-      <c r="F614" s="8"/>
-      <c r="G614" s="9"/>
-      <c r="H614" s="8"/>
-      <c r="I614" s="8"/>
+      <c r="A614" s="16"/>
+      <c r="B614" s="16"/>
+      <c r="C614" s="16"/>
+      <c r="D614" s="16"/>
+      <c r="E614" s="16"/>
+      <c r="F614" s="16"/>
+      <c r="G614" s="17"/>
+      <c r="H614" s="16"/>
+      <c r="I614" s="16"/>
     </row>
     <row r="615" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A615" s="8"/>
-      <c r="B615" s="8"/>
-      <c r="C615" s="8"/>
-      <c r="D615" s="8"/>
-      <c r="E615" s="8"/>
-      <c r="F615" s="8"/>
-      <c r="G615" s="9"/>
-      <c r="H615" s="8"/>
-      <c r="I615" s="8"/>
+      <c r="A615" s="16"/>
+      <c r="B615" s="16"/>
+      <c r="C615" s="16"/>
+      <c r="D615" s="16"/>
+      <c r="E615" s="16"/>
+      <c r="F615" s="16"/>
+      <c r="G615" s="17"/>
+      <c r="H615" s="16"/>
+      <c r="I615" s="16"/>
     </row>
     <row r="616" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A616" s="8"/>
-      <c r="B616" s="8"/>
-      <c r="C616" s="8"/>
-      <c r="D616" s="8"/>
-      <c r="E616" s="8"/>
-      <c r="F616" s="8"/>
-      <c r="G616" s="9"/>
-      <c r="H616" s="8"/>
-      <c r="I616" s="8"/>
+      <c r="A616" s="16"/>
+      <c r="B616" s="16"/>
+      <c r="C616" s="16"/>
+      <c r="D616" s="16"/>
+      <c r="E616" s="16"/>
+      <c r="F616" s="16"/>
+      <c r="G616" s="17"/>
+      <c r="H616" s="16"/>
+      <c r="I616" s="16"/>
     </row>
     <row r="617" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A617" s="8"/>
-      <c r="B617" s="8"/>
-      <c r="C617" s="8"/>
-      <c r="D617" s="8"/>
-      <c r="E617" s="8"/>
-      <c r="F617" s="8"/>
-      <c r="G617" s="9"/>
-      <c r="H617" s="8"/>
-      <c r="I617" s="8"/>
+      <c r="A617" s="16"/>
+      <c r="B617" s="16"/>
+      <c r="C617" s="16"/>
+      <c r="D617" s="16"/>
+      <c r="E617" s="16"/>
+      <c r="F617" s="16"/>
+      <c r="G617" s="17"/>
+      <c r="H617" s="16"/>
+      <c r="I617" s="16"/>
     </row>
     <row r="618" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A618" s="8"/>
-      <c r="B618" s="8"/>
-      <c r="C618" s="8"/>
-      <c r="D618" s="8"/>
-      <c r="E618" s="8"/>
-      <c r="F618" s="8"/>
-      <c r="G618" s="9"/>
-      <c r="H618" s="8"/>
-      <c r="I618" s="8"/>
+      <c r="A618" s="16"/>
+      <c r="B618" s="16"/>
+      <c r="C618" s="16"/>
+      <c r="D618" s="16"/>
+      <c r="E618" s="16"/>
+      <c r="F618" s="16"/>
+      <c r="G618" s="17"/>
+      <c r="H618" s="16"/>
+      <c r="I618" s="16"/>
     </row>
     <row r="619" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A619" s="8"/>
-      <c r="B619" s="8"/>
-      <c r="C619" s="8"/>
-      <c r="D619" s="8"/>
-      <c r="E619" s="8"/>
-      <c r="F619" s="8"/>
-      <c r="G619" s="9"/>
-      <c r="H619" s="8"/>
-      <c r="I619" s="8"/>
+      <c r="A619" s="16"/>
+      <c r="B619" s="16"/>
+      <c r="C619" s="16"/>
+      <c r="D619" s="16"/>
+      <c r="E619" s="16"/>
+      <c r="F619" s="16"/>
+      <c r="G619" s="17"/>
+      <c r="H619" s="16"/>
+      <c r="I619" s="16"/>
     </row>
     <row r="620" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A620" s="8"/>
-      <c r="B620" s="8"/>
-      <c r="C620" s="8"/>
-      <c r="D620" s="8"/>
-      <c r="E620" s="8"/>
-      <c r="F620" s="8"/>
-      <c r="G620" s="9"/>
-      <c r="H620" s="8"/>
-      <c r="I620" s="8"/>
+      <c r="A620" s="16"/>
+      <c r="B620" s="16"/>
+      <c r="C620" s="16"/>
+      <c r="D620" s="16"/>
+      <c r="E620" s="16"/>
+      <c r="F620" s="16"/>
+      <c r="G620" s="17"/>
+      <c r="H620" s="16"/>
+      <c r="I620" s="16"/>
     </row>
     <row r="621" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A621" s="8"/>
-      <c r="B621" s="8"/>
-      <c r="C621" s="8"/>
-      <c r="D621" s="8"/>
-      <c r="E621" s="8"/>
-      <c r="F621" s="8"/>
-      <c r="G621" s="9"/>
-      <c r="H621" s="8"/>
-      <c r="I621" s="8"/>
+      <c r="A621" s="16"/>
+      <c r="B621" s="16"/>
+      <c r="C621" s="16"/>
+      <c r="D621" s="16"/>
+      <c r="E621" s="16"/>
+      <c r="F621" s="16"/>
+      <c r="G621" s="17"/>
+      <c r="H621" s="16"/>
+      <c r="I621" s="16"/>
     </row>
     <row r="622" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A622" s="8"/>
-      <c r="B622" s="8"/>
-      <c r="C622" s="8"/>
-      <c r="D622" s="8"/>
-      <c r="E622" s="8"/>
-      <c r="F622" s="8"/>
-      <c r="G622" s="9"/>
-      <c r="H622" s="8"/>
-      <c r="I622" s="8"/>
+      <c r="A622" s="16"/>
+      <c r="B622" s="16"/>
+      <c r="C622" s="16"/>
+      <c r="D622" s="16"/>
+      <c r="E622" s="16"/>
+      <c r="F622" s="16"/>
+      <c r="G622" s="17"/>
+      <c r="H622" s="16"/>
+      <c r="I622" s="16"/>
     </row>
     <row r="623" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A623" s="8"/>
-      <c r="B623" s="8"/>
-      <c r="C623" s="8"/>
-      <c r="D623" s="8"/>
-      <c r="E623" s="8"/>
-      <c r="F623" s="8"/>
-      <c r="G623" s="9"/>
-      <c r="H623" s="8"/>
-      <c r="I623" s="8"/>
+      <c r="A623" s="16"/>
+      <c r="B623" s="16"/>
+      <c r="C623" s="16"/>
+      <c r="D623" s="16"/>
+      <c r="E623" s="16"/>
+      <c r="F623" s="16"/>
+      <c r="G623" s="17"/>
+      <c r="H623" s="16"/>
+      <c r="I623" s="16"/>
     </row>
     <row r="624" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A624" s="8"/>
-      <c r="B624" s="8"/>
-      <c r="C624" s="8"/>
-      <c r="D624" s="8"/>
-      <c r="E624" s="8"/>
-      <c r="F624" s="8"/>
-      <c r="G624" s="9"/>
-      <c r="H624" s="8"/>
-      <c r="I624" s="8"/>
+      <c r="A624" s="16"/>
+      <c r="B624" s="16"/>
+      <c r="C624" s="16"/>
+      <c r="D624" s="16"/>
+      <c r="E624" s="16"/>
+      <c r="F624" s="16"/>
+      <c r="G624" s="17"/>
+      <c r="H624" s="16"/>
+      <c r="I624" s="16"/>
     </row>
     <row r="625" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A625" s="8"/>
-      <c r="B625" s="8"/>
-      <c r="C625" s="8"/>
-      <c r="D625" s="8"/>
-      <c r="E625" s="8"/>
-      <c r="F625" s="8"/>
-      <c r="G625" s="9"/>
-      <c r="H625" s="8"/>
-      <c r="I625" s="8"/>
+      <c r="A625" s="16"/>
+      <c r="B625" s="16"/>
+      <c r="C625" s="16"/>
+      <c r="D625" s="16"/>
+      <c r="E625" s="16"/>
+      <c r="F625" s="16"/>
+      <c r="G625" s="17"/>
+      <c r="H625" s="16"/>
+      <c r="I625" s="16"/>
     </row>
     <row r="626" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A626" s="8"/>
-      <c r="B626" s="8"/>
-      <c r="C626" s="8"/>
-      <c r="D626" s="8"/>
-      <c r="E626" s="8"/>
-      <c r="F626" s="8"/>
-      <c r="G626" s="9"/>
-      <c r="H626" s="8"/>
-      <c r="I626" s="8"/>
+      <c r="A626" s="16"/>
+      <c r="B626" s="16"/>
+      <c r="C626" s="16"/>
+      <c r="D626" s="16"/>
+      <c r="E626" s="16"/>
+      <c r="F626" s="16"/>
+      <c r="G626" s="17"/>
+      <c r="H626" s="16"/>
+      <c r="I626" s="16"/>
     </row>
     <row r="627" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A627" s="8"/>
-      <c r="B627" s="8"/>
-      <c r="C627" s="8"/>
-      <c r="D627" s="8"/>
-      <c r="E627" s="8"/>
-      <c r="F627" s="8"/>
-      <c r="G627" s="9"/>
-      <c r="H627" s="8"/>
-      <c r="I627" s="8"/>
+      <c r="A627" s="16"/>
+      <c r="B627" s="16"/>
+      <c r="C627" s="16"/>
+      <c r="D627" s="16"/>
+      <c r="E627" s="16"/>
+      <c r="F627" s="16"/>
+      <c r="G627" s="17"/>
+      <c r="H627" s="16"/>
+      <c r="I627" s="16"/>
     </row>
     <row r="628" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A628" s="8"/>
-      <c r="B628" s="8"/>
-      <c r="C628" s="8"/>
-      <c r="D628" s="8"/>
-      <c r="E628" s="8"/>
-      <c r="F628" s="8"/>
-      <c r="G628" s="9"/>
-      <c r="H628" s="8"/>
-      <c r="I628" s="8"/>
+      <c r="A628" s="16"/>
+      <c r="B628" s="16"/>
+      <c r="C628" s="16"/>
+      <c r="D628" s="16"/>
+      <c r="E628" s="16"/>
+      <c r="F628" s="16"/>
+      <c r="G628" s="17"/>
+      <c r="H628" s="16"/>
+      <c r="I628" s="16"/>
     </row>
     <row r="629" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A629" s="8"/>
-      <c r="B629" s="8"/>
-      <c r="C629" s="8"/>
-      <c r="D629" s="8"/>
-      <c r="E629" s="8"/>
-      <c r="F629" s="8"/>
-      <c r="G629" s="9"/>
-      <c r="H629" s="8"/>
-      <c r="I629" s="8"/>
+      <c r="A629" s="16"/>
+      <c r="B629" s="16"/>
+      <c r="C629" s="16"/>
+      <c r="D629" s="16"/>
+      <c r="E629" s="16"/>
+      <c r="F629" s="16"/>
+      <c r="G629" s="17"/>
+      <c r="H629" s="16"/>
+      <c r="I629" s="16"/>
     </row>
     <row r="630" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A630" s="8"/>
-      <c r="B630" s="8"/>
-      <c r="C630" s="8"/>
-      <c r="D630" s="8"/>
-      <c r="E630" s="8"/>
-      <c r="F630" s="8"/>
-      <c r="G630" s="9"/>
-      <c r="H630" s="8"/>
-      <c r="I630" s="8"/>
+      <c r="A630" s="16"/>
+      <c r="B630" s="16"/>
+      <c r="C630" s="16"/>
+      <c r="D630" s="16"/>
+      <c r="E630" s="16"/>
+      <c r="F630" s="16"/>
+      <c r="G630" s="17"/>
+      <c r="H630" s="16"/>
+      <c r="I630" s="16"/>
     </row>
     <row r="631" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A631" s="8"/>
-      <c r="B631" s="8"/>
-      <c r="C631" s="8"/>
-      <c r="D631" s="8"/>
-      <c r="E631" s="8"/>
-      <c r="F631" s="8"/>
-      <c r="G631" s="9"/>
-      <c r="H631" s="8"/>
-      <c r="I631" s="8"/>
+      <c r="A631" s="16"/>
+      <c r="B631" s="16"/>
+      <c r="C631" s="16"/>
+      <c r="D631" s="16"/>
+      <c r="E631" s="16"/>
+      <c r="F631" s="16"/>
+      <c r="G631" s="17"/>
+      <c r="H631" s="16"/>
+      <c r="I631" s="16"/>
     </row>
     <row r="632" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A632" s="8"/>
-      <c r="B632" s="8"/>
-      <c r="C632" s="8"/>
-      <c r="D632" s="8"/>
-      <c r="E632" s="8"/>
-      <c r="F632" s="8"/>
-      <c r="G632" s="9"/>
-      <c r="H632" s="8"/>
-      <c r="I632" s="8"/>
+      <c r="A632" s="16"/>
+      <c r="B632" s="16"/>
+      <c r="C632" s="16"/>
+      <c r="D632" s="16"/>
+      <c r="E632" s="16"/>
+      <c r="F632" s="16"/>
+      <c r="G632" s="17"/>
+      <c r="H632" s="16"/>
+      <c r="I632" s="16"/>
     </row>
     <row r="633" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A633" s="8"/>
-      <c r="B633" s="8"/>
-      <c r="C633" s="8"/>
-      <c r="D633" s="8"/>
-      <c r="E633" s="8"/>
-      <c r="F633" s="8"/>
-      <c r="G633" s="9"/>
-      <c r="H633" s="8"/>
-      <c r="I633" s="8"/>
+      <c r="A633" s="16"/>
+      <c r="B633" s="16"/>
+      <c r="C633" s="16"/>
+      <c r="D633" s="16"/>
+      <c r="E633" s="16"/>
+      <c r="F633" s="16"/>
+      <c r="G633" s="17"/>
+      <c r="H633" s="16"/>
+      <c r="I633" s="16"/>
     </row>
     <row r="634" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A634" s="8"/>
-      <c r="B634" s="8"/>
-      <c r="C634" s="8"/>
-      <c r="D634" s="8"/>
-      <c r="E634" s="8"/>
-      <c r="F634" s="8"/>
-      <c r="G634" s="9"/>
-      <c r="H634" s="8"/>
-      <c r="I634" s="8"/>
+      <c r="A634" s="16"/>
+      <c r="B634" s="16"/>
+      <c r="C634" s="16"/>
+      <c r="D634" s="16"/>
+      <c r="E634" s="16"/>
+      <c r="F634" s="16"/>
+      <c r="G634" s="17"/>
+      <c r="H634" s="16"/>
+      <c r="I634" s="16"/>
     </row>
     <row r="635" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A635" s="8"/>
-      <c r="B635" s="8"/>
-      <c r="C635" s="8"/>
-      <c r="D635" s="8"/>
-      <c r="E635" s="8"/>
-      <c r="F635" s="8"/>
-      <c r="G635" s="9"/>
-      <c r="H635" s="8"/>
-      <c r="I635" s="8"/>
+      <c r="A635" s="16"/>
+      <c r="B635" s="16"/>
+      <c r="C635" s="16"/>
+      <c r="D635" s="16"/>
+      <c r="E635" s="16"/>
+      <c r="F635" s="16"/>
+      <c r="G635" s="17"/>
+      <c r="H635" s="16"/>
+      <c r="I635" s="16"/>
     </row>
     <row r="636" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A636" s="8"/>
-      <c r="B636" s="8"/>
-      <c r="C636" s="8"/>
-      <c r="D636" s="8"/>
-      <c r="E636" s="8"/>
-      <c r="F636" s="8"/>
-      <c r="G636" s="9"/>
-      <c r="H636" s="8"/>
-      <c r="I636" s="8"/>
+      <c r="A636" s="16"/>
+      <c r="B636" s="16"/>
+      <c r="C636" s="16"/>
+      <c r="D636" s="16"/>
+      <c r="E636" s="16"/>
+      <c r="F636" s="16"/>
+      <c r="G636" s="17"/>
+      <c r="H636" s="16"/>
+      <c r="I636" s="16"/>
     </row>
     <row r="637" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A637" s="8"/>
-      <c r="B637" s="8"/>
-      <c r="C637" s="8"/>
-      <c r="D637" s="8"/>
-      <c r="E637" s="8"/>
-      <c r="F637" s="8"/>
-      <c r="G637" s="9"/>
-      <c r="H637" s="8"/>
-      <c r="I637" s="8"/>
+      <c r="A637" s="16"/>
+      <c r="B637" s="16"/>
+      <c r="C637" s="16"/>
+      <c r="D637" s="16"/>
+      <c r="E637" s="16"/>
+      <c r="F637" s="16"/>
+      <c r="G637" s="17"/>
+      <c r="H637" s="16"/>
+      <c r="I637" s="16"/>
     </row>
     <row r="638" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A638" s="8"/>
-      <c r="B638" s="8"/>
-      <c r="C638" s="8"/>
-      <c r="D638" s="8"/>
-      <c r="E638" s="8"/>
-      <c r="F638" s="8"/>
-      <c r="G638" s="9"/>
-      <c r="H638" s="8"/>
-      <c r="I638" s="8"/>
+      <c r="A638" s="16"/>
+      <c r="B638" s="16"/>
+      <c r="C638" s="16"/>
+      <c r="D638" s="16"/>
+      <c r="E638" s="16"/>
+      <c r="F638" s="16"/>
+      <c r="G638" s="17"/>
+      <c r="H638" s="16"/>
+      <c r="I638" s="16"/>
     </row>
     <row r="639" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A639" s="8"/>
-      <c r="B639" s="8"/>
-      <c r="C639" s="8"/>
-      <c r="D639" s="8"/>
-      <c r="E639" s="8"/>
-      <c r="F639" s="8"/>
-      <c r="G639" s="9"/>
-      <c r="H639" s="8"/>
-      <c r="I639" s="8"/>
+      <c r="A639" s="16"/>
+      <c r="B639" s="16"/>
+      <c r="C639" s="16"/>
+      <c r="D639" s="16"/>
+      <c r="E639" s="16"/>
+      <c r="F639" s="16"/>
+      <c r="G639" s="17"/>
+      <c r="H639" s="16"/>
+      <c r="I639" s="16"/>
     </row>
     <row r="640" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A640" s="8"/>
-      <c r="B640" s="8"/>
-      <c r="C640" s="8"/>
-      <c r="D640" s="8"/>
-      <c r="E640" s="8"/>
-      <c r="F640" s="8"/>
-      <c r="G640" s="9"/>
-      <c r="H640" s="8"/>
-      <c r="I640" s="8"/>
+      <c r="A640" s="16"/>
+      <c r="B640" s="16"/>
+      <c r="C640" s="16"/>
+      <c r="D640" s="16"/>
+      <c r="E640" s="16"/>
+      <c r="F640" s="16"/>
+      <c r="G640" s="17"/>
+      <c r="H640" s="16"/>
+      <c r="I640" s="16"/>
     </row>
     <row r="641" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A641" s="8"/>
-      <c r="B641" s="8"/>
-      <c r="C641" s="8"/>
-      <c r="D641" s="8"/>
-      <c r="E641" s="8"/>
-      <c r="F641" s="8"/>
-      <c r="G641" s="9"/>
-      <c r="H641" s="8"/>
-      <c r="I641" s="8"/>
+      <c r="A641" s="16"/>
+      <c r="B641" s="16"/>
+      <c r="C641" s="16"/>
+      <c r="D641" s="16"/>
+      <c r="E641" s="16"/>
+      <c r="F641" s="16"/>
+      <c r="G641" s="17"/>
+      <c r="H641" s="16"/>
+      <c r="I641" s="16"/>
     </row>
     <row r="642" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A642" s="8"/>
-      <c r="B642" s="8"/>
-      <c r="C642" s="8"/>
-      <c r="D642" s="8"/>
-      <c r="E642" s="8"/>
-      <c r="F642" s="8"/>
-      <c r="G642" s="9"/>
-      <c r="H642" s="8"/>
-      <c r="I642" s="8"/>
+      <c r="A642" s="16"/>
+      <c r="B642" s="16"/>
+      <c r="C642" s="16"/>
+      <c r="D642" s="16"/>
+      <c r="E642" s="16"/>
+      <c r="F642" s="16"/>
+      <c r="G642" s="17"/>
+      <c r="H642" s="16"/>
+      <c r="I642" s="16"/>
     </row>
     <row r="643" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A643" s="8"/>
-      <c r="B643" s="8"/>
-      <c r="C643" s="8"/>
-      <c r="D643" s="8"/>
-      <c r="E643" s="8"/>
-      <c r="F643" s="8"/>
-      <c r="G643" s="9"/>
-      <c r="H643" s="8"/>
-      <c r="I643" s="8"/>
+      <c r="A643" s="16"/>
+      <c r="B643" s="16"/>
+      <c r="C643" s="16"/>
+      <c r="D643" s="16"/>
+      <c r="E643" s="16"/>
+      <c r="F643" s="16"/>
+      <c r="G643" s="17"/>
+      <c r="H643" s="16"/>
+      <c r="I643" s="16"/>
     </row>
     <row r="644" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A644" s="8"/>
-      <c r="B644" s="8"/>
-      <c r="C644" s="8"/>
-      <c r="D644" s="8"/>
-      <c r="E644" s="8"/>
-      <c r="F644" s="8"/>
-      <c r="G644" s="9"/>
-      <c r="H644" s="8"/>
-      <c r="I644" s="8"/>
+      <c r="A644" s="16"/>
+      <c r="B644" s="16"/>
+      <c r="C644" s="16"/>
+      <c r="D644" s="16"/>
+      <c r="E644" s="16"/>
+      <c r="F644" s="16"/>
+      <c r="G644" s="17"/>
+      <c r="H644" s="16"/>
+      <c r="I644" s="16"/>
     </row>
     <row r="645" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A645" s="8"/>
-      <c r="B645" s="8"/>
-      <c r="C645" s="8"/>
-      <c r="D645" s="8"/>
-      <c r="E645" s="8"/>
-      <c r="F645" s="8"/>
-      <c r="G645" s="9"/>
-      <c r="H645" s="8"/>
-      <c r="I645" s="8"/>
+      <c r="A645" s="16"/>
+      <c r="B645" s="16"/>
+      <c r="C645" s="16"/>
+      <c r="D645" s="16"/>
+      <c r="E645" s="16"/>
+      <c r="F645" s="16"/>
+      <c r="G645" s="17"/>
+      <c r="H645" s="16"/>
+      <c r="I645" s="16"/>
+    </row>
+    <row r="646" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A646" s="16"/>
+      <c r="B646" s="16"/>
+      <c r="C646" s="16"/>
+      <c r="D646" s="16"/>
+      <c r="E646" s="16"/>
+      <c r="F646" s="16"/>
+      <c r="G646" s="17"/>
+      <c r="H646" s="16"/>
+      <c r="I646" s="16"/>
+    </row>
+    <row r="647" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A647" s="16"/>
+      <c r="B647" s="16"/>
+      <c r="C647" s="16"/>
+      <c r="D647" s="16"/>
+      <c r="E647" s="16"/>
+      <c r="F647" s="16"/>
+      <c r="G647" s="17"/>
+      <c r="H647" s="16"/>
+      <c r="I647" s="16"/>
+    </row>
+    <row r="648" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A648" s="16"/>
+      <c r="B648" s="16"/>
+      <c r="C648" s="16"/>
+      <c r="D648" s="16"/>
+      <c r="E648" s="16"/>
+      <c r="F648" s="16"/>
+      <c r="G648" s="17"/>
+      <c r="H648" s="16"/>
+      <c r="I648" s="16"/>
+    </row>
+    <row r="649" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A649" s="16"/>
+      <c r="B649" s="16"/>
+      <c r="C649" s="16"/>
+      <c r="D649" s="16"/>
+      <c r="E649" s="16"/>
+      <c r="F649" s="16"/>
+      <c r="G649" s="17"/>
+      <c r="H649" s="16"/>
+      <c r="I649" s="16"/>
+    </row>
+    <row r="650" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A650" s="16"/>
+      <c r="B650" s="16"/>
+      <c r="C650" s="16"/>
+      <c r="D650" s="16"/>
+      <c r="E650" s="16"/>
+      <c r="F650" s="16"/>
+      <c r="G650" s="17"/>
+      <c r="H650" s="16"/>
+      <c r="I650" s="16"/>
+    </row>
+    <row r="651" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A651" s="16"/>
+      <c r="B651" s="16"/>
+      <c r="C651" s="16"/>
+      <c r="D651" s="16"/>
+      <c r="E651" s="16"/>
+      <c r="F651" s="16"/>
+      <c r="G651" s="17"/>
+      <c r="H651" s="16"/>
+      <c r="I651" s="16"/>
+    </row>
+    <row r="652" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A652" s="16"/>
+      <c r="B652" s="16"/>
+      <c r="C652" s="16"/>
+      <c r="D652" s="16"/>
+      <c r="E652" s="16"/>
+      <c r="F652" s="16"/>
+      <c r="G652" s="17"/>
+      <c r="H652" s="16"/>
+      <c r="I652" s="16"/>
+    </row>
+    <row r="653" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A653" s="16"/>
+      <c r="B653" s="16"/>
+      <c r="C653" s="16"/>
+      <c r="D653" s="16"/>
+      <c r="E653" s="16"/>
+      <c r="F653" s="16"/>
+      <c r="G653" s="17"/>
+      <c r="H653" s="16"/>
+      <c r="I653" s="16"/>
+    </row>
+    <row r="654" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A654" s="16"/>
+      <c r="B654" s="16"/>
+      <c r="C654" s="16"/>
+      <c r="D654" s="16"/>
+      <c r="E654" s="16"/>
+      <c r="F654" s="16"/>
+      <c r="G654" s="17"/>
+      <c r="H654" s="16"/>
+      <c r="I654" s="16"/>
+    </row>
+    <row r="655" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A655" s="16"/>
+      <c r="B655" s="16"/>
+      <c r="C655" s="16"/>
+      <c r="D655" s="16"/>
+      <c r="E655" s="16"/>
+      <c r="F655" s="16"/>
+      <c r="G655" s="17"/>
+      <c r="H655" s="16"/>
+      <c r="I655" s="16"/>
+    </row>
+    <row r="656" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A656" s="16"/>
+      <c r="B656" s="16"/>
+      <c r="C656" s="16"/>
+      <c r="D656" s="16"/>
+      <c r="E656" s="16"/>
+      <c r="F656" s="16"/>
+      <c r="G656" s="17"/>
+      <c r="H656" s="16"/>
+      <c r="I656" s="16"/>
+    </row>
+    <row r="657" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A657" s="16"/>
+      <c r="B657" s="16"/>
+      <c r="C657" s="16"/>
+      <c r="D657" s="16"/>
+      <c r="E657" s="16"/>
+      <c r="F657" s="16"/>
+      <c r="G657" s="17"/>
+      <c r="H657" s="16"/>
+      <c r="I657" s="16"/>
+    </row>
+    <row r="658" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A658" s="16"/>
+      <c r="B658" s="16"/>
+      <c r="C658" s="16"/>
+      <c r="D658" s="16"/>
+      <c r="E658" s="16"/>
+      <c r="F658" s="16"/>
+      <c r="G658" s="17"/>
+      <c r="H658" s="16"/>
+      <c r="I658" s="16"/>
+    </row>
+    <row r="659" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A659" s="16"/>
+      <c r="B659" s="16"/>
+      <c r="C659" s="16"/>
+      <c r="D659" s="16"/>
+      <c r="E659" s="16"/>
+      <c r="F659" s="16"/>
+      <c r="G659" s="17"/>
+      <c r="H659" s="16"/>
+      <c r="I659" s="16"/>
+    </row>
+    <row r="660" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A660" s="16"/>
+      <c r="B660" s="16"/>
+      <c r="C660" s="16"/>
+      <c r="D660" s="16"/>
+      <c r="E660" s="16"/>
+      <c r="F660" s="16"/>
+      <c r="G660" s="17"/>
+      <c r="H660" s="16"/>
+      <c r="I660" s="16"/>
+    </row>
+    <row r="661" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A661" s="16"/>
+      <c r="B661" s="16"/>
+      <c r="C661" s="16"/>
+      <c r="D661" s="16"/>
+      <c r="E661" s="16"/>
+      <c r="F661" s="16"/>
+      <c r="G661" s="17"/>
+      <c r="H661" s="16"/>
+      <c r="I661" s="16"/>
+    </row>
+    <row r="662" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A662" s="16"/>
+      <c r="B662" s="16"/>
+      <c r="C662" s="16"/>
+      <c r="D662" s="16"/>
+      <c r="E662" s="16"/>
+      <c r="F662" s="16"/>
+      <c r="G662" s="17"/>
+      <c r="H662" s="16"/>
+      <c r="I662" s="16"/>
+    </row>
+    <row r="663" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A663" s="16"/>
+      <c r="B663" s="16"/>
+      <c r="C663" s="16"/>
+      <c r="D663" s="16"/>
+      <c r="E663" s="16"/>
+      <c r="F663" s="16"/>
+      <c r="G663" s="17"/>
+      <c r="H663" s="16"/>
+      <c r="I663" s="16"/>
+    </row>
+    <row r="664" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A664" s="16"/>
+      <c r="B664" s="16"/>
+      <c r="C664" s="16"/>
+      <c r="D664" s="16"/>
+      <c r="E664" s="16"/>
+      <c r="F664" s="16"/>
+      <c r="G664" s="17"/>
+      <c r="H664" s="16"/>
+      <c r="I664" s="16"/>
+    </row>
+    <row r="665" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A665" s="16"/>
+      <c r="B665" s="16"/>
+      <c r="C665" s="16"/>
+      <c r="D665" s="16"/>
+      <c r="E665" s="16"/>
+      <c r="F665" s="16"/>
+      <c r="G665" s="17"/>
+      <c r="H665" s="16"/>
+      <c r="I665" s="16"/>
+    </row>
+    <row r="666" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A666" s="16"/>
+      <c r="B666" s="16"/>
+      <c r="C666" s="16"/>
+      <c r="D666" s="16"/>
+      <c r="E666" s="16"/>
+      <c r="F666" s="16"/>
+      <c r="G666" s="17"/>
+      <c r="H666" s="16"/>
+      <c r="I666" s="16"/>
+    </row>
+    <row r="667" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A667" s="16"/>
+      <c r="B667" s="16"/>
+      <c r="C667" s="16"/>
+      <c r="D667" s="16"/>
+      <c r="E667" s="16"/>
+      <c r="F667" s="16"/>
+      <c r="G667" s="17"/>
+      <c r="H667" s="16"/>
+      <c r="I667" s="16"/>
+    </row>
+    <row r="668" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A668" s="16"/>
+      <c r="B668" s="16"/>
+      <c r="C668" s="16"/>
+      <c r="D668" s="16"/>
+      <c r="E668" s="16"/>
+      <c r="F668" s="16"/>
+      <c r="G668" s="17"/>
+      <c r="H668" s="16"/>
+      <c r="I668" s="16"/>
+    </row>
+    <row r="669" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A669" s="16"/>
+      <c r="B669" s="16"/>
+      <c r="C669" s="16"/>
+      <c r="D669" s="16"/>
+      <c r="E669" s="16"/>
+      <c r="F669" s="16"/>
+      <c r="G669" s="17"/>
+      <c r="H669" s="16"/>
+      <c r="I669" s="16"/>
+    </row>
+    <row r="670" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A670" s="16"/>
+      <c r="B670" s="16"/>
+      <c r="C670" s="16"/>
+      <c r="D670" s="16"/>
+      <c r="E670" s="16"/>
+      <c r="F670" s="16"/>
+      <c r="G670" s="17"/>
+      <c r="H670" s="16"/>
+      <c r="I670" s="16"/>
+    </row>
+    <row r="671" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A671" s="16"/>
+      <c r="B671" s="16"/>
+      <c r="C671" s="16"/>
+      <c r="D671" s="16"/>
+      <c r="E671" s="16"/>
+      <c r="F671" s="16"/>
+      <c r="G671" s="17"/>
+      <c r="H671" s="16"/>
+      <c r="I671" s="16"/>
+    </row>
+    <row r="672" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A672" s="16"/>
+      <c r="B672" s="16"/>
+      <c r="C672" s="16"/>
+      <c r="D672" s="16"/>
+      <c r="E672" s="16"/>
+      <c r="F672" s="16"/>
+      <c r="G672" s="17"/>
+      <c r="H672" s="16"/>
+      <c r="I672" s="16"/>
+    </row>
+    <row r="673" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A673" s="16"/>
+      <c r="B673" s="16"/>
+      <c r="C673" s="16"/>
+      <c r="D673" s="16"/>
+      <c r="E673" s="16"/>
+      <c r="F673" s="16"/>
+      <c r="G673" s="17"/>
+      <c r="H673" s="16"/>
+      <c r="I673" s="16"/>
+    </row>
+    <row r="674" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A674" s="16"/>
+      <c r="B674" s="16"/>
+      <c r="C674" s="16"/>
+      <c r="D674" s="16"/>
+      <c r="E674" s="16"/>
+      <c r="F674" s="16"/>
+      <c r="G674" s="17"/>
+      <c r="H674" s="16"/>
+      <c r="I674" s="16"/>
+    </row>
+    <row r="675" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A675" s="16"/>
+      <c r="B675" s="16"/>
+      <c r="C675" s="16"/>
+      <c r="D675" s="16"/>
+      <c r="E675" s="16"/>
+      <c r="F675" s="16"/>
+      <c r="G675" s="17"/>
+      <c r="H675" s="16"/>
+      <c r="I675" s="16"/>
+    </row>
+    <row r="676" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A676" s="16"/>
+      <c r="B676" s="16"/>
+      <c r="C676" s="16"/>
+      <c r="D676" s="16"/>
+      <c r="E676" s="16"/>
+      <c r="F676" s="16"/>
+      <c r="G676" s="17"/>
+      <c r="H676" s="16"/>
+      <c r="I676" s="16"/>
+    </row>
+    <row r="677" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A677" s="16"/>
+      <c r="B677" s="16"/>
+      <c r="C677" s="16"/>
+      <c r="D677" s="16"/>
+      <c r="E677" s="16"/>
+      <c r="F677" s="16"/>
+      <c r="G677" s="17"/>
+      <c r="H677" s="16"/>
+      <c r="I677" s="16"/>
+    </row>
+    <row r="678" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A678" s="16"/>
+      <c r="B678" s="16"/>
+      <c r="C678" s="16"/>
+      <c r="D678" s="16"/>
+      <c r="E678" s="16"/>
+      <c r="F678" s="16"/>
+      <c r="G678" s="17"/>
+      <c r="H678" s="16"/>
+      <c r="I678" s="16"/>
+    </row>
+    <row r="679" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A679" s="16"/>
+      <c r="B679" s="16"/>
+      <c r="C679" s="16"/>
+      <c r="D679" s="16"/>
+      <c r="E679" s="16"/>
+      <c r="F679" s="16"/>
+      <c r="G679" s="17"/>
+      <c r="H679" s="16"/>
+      <c r="I679" s="16"/>
+    </row>
+    <row r="680" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A680" s="16"/>
+      <c r="B680" s="16"/>
+      <c r="C680" s="16"/>
+      <c r="D680" s="16"/>
+      <c r="E680" s="16"/>
+      <c r="F680" s="16"/>
+      <c r="G680" s="17"/>
+      <c r="H680" s="16"/>
+      <c r="I680" s="16"/>
+    </row>
+    <row r="681" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A681" s="16"/>
+      <c r="B681" s="16"/>
+      <c r="C681" s="16"/>
+      <c r="D681" s="16"/>
+      <c r="E681" s="16"/>
+      <c r="F681" s="16"/>
+      <c r="G681" s="17"/>
+      <c r="H681" s="16"/>
+      <c r="I681" s="16"/>
+    </row>
+    <row r="682" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A682" s="16"/>
+      <c r="B682" s="16"/>
+      <c r="C682" s="16"/>
+      <c r="D682" s="16"/>
+      <c r="E682" s="16"/>
+      <c r="F682" s="16"/>
+      <c r="G682" s="17"/>
+      <c r="H682" s="16"/>
+      <c r="I682" s="16"/>
+    </row>
+    <row r="683" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A683" s="16"/>
+      <c r="B683" s="16"/>
+      <c r="C683" s="16"/>
+      <c r="D683" s="16"/>
+      <c r="E683" s="16"/>
+      <c r="F683" s="16"/>
+      <c r="G683" s="17"/>
+      <c r="H683" s="16"/>
+      <c r="I683" s="16"/>
+    </row>
+    <row r="684" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A684" s="16"/>
+      <c r="B684" s="16"/>
+      <c r="C684" s="16"/>
+      <c r="D684" s="16"/>
+      <c r="E684" s="16"/>
+      <c r="F684" s="16"/>
+      <c r="G684" s="17"/>
+      <c r="H684" s="16"/>
+      <c r="I684" s="16"/>
+    </row>
+    <row r="685" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A685" s="16"/>
+      <c r="B685" s="16"/>
+      <c r="C685" s="16"/>
+      <c r="D685" s="16"/>
+      <c r="E685" s="16"/>
+      <c r="F685" s="16"/>
+      <c r="G685" s="17"/>
+      <c r="H685" s="16"/>
+      <c r="I685" s="16"/>
+    </row>
+    <row r="686" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A686" s="16"/>
+      <c r="B686" s="16"/>
+      <c r="C686" s="16"/>
+      <c r="D686" s="16"/>
+      <c r="E686" s="16"/>
+      <c r="F686" s="16"/>
+      <c r="G686" s="17"/>
+      <c r="H686" s="16"/>
+      <c r="I686" s="16"/>
+    </row>
+    <row r="687" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A687" s="16"/>
+      <c r="B687" s="16"/>
+      <c r="C687" s="16"/>
+      <c r="D687" s="16"/>
+      <c r="E687" s="16"/>
+      <c r="F687" s="16"/>
+      <c r="G687" s="17"/>
+      <c r="H687" s="16"/>
+      <c r="I687" s="16"/>
+    </row>
+    <row r="688" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A688" s="16"/>
+      <c r="B688" s="16"/>
+      <c r="C688" s="16"/>
+      <c r="D688" s="16"/>
+      <c r="E688" s="16"/>
+      <c r="F688" s="16"/>
+      <c r="G688" s="17"/>
+      <c r="H688" s="16"/>
+      <c r="I688" s="16"/>
+    </row>
+    <row r="689" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A689" s="16"/>
+      <c r="B689" s="16"/>
+      <c r="C689" s="16"/>
+      <c r="D689" s="16"/>
+      <c r="E689" s="16"/>
+      <c r="F689" s="16"/>
+      <c r="G689" s="17"/>
+      <c r="H689" s="16"/>
+      <c r="I689" s="16"/>
+    </row>
+    <row r="690" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A690" s="16"/>
+      <c r="B690" s="16"/>
+      <c r="C690" s="16"/>
+      <c r="D690" s="16"/>
+      <c r="E690" s="16"/>
+      <c r="F690" s="16"/>
+      <c r="G690" s="17"/>
+      <c r="H690" s="16"/>
+      <c r="I690" s="16"/>
+    </row>
+    <row r="691" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A691" s="16"/>
+      <c r="B691" s="16"/>
+      <c r="C691" s="16"/>
+      <c r="D691" s="16"/>
+      <c r="E691" s="16"/>
+      <c r="F691" s="16"/>
+      <c r="G691" s="17"/>
+      <c r="H691" s="16"/>
+      <c r="I691" s="16"/>
+    </row>
+    <row r="692" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A692" s="16"/>
+      <c r="B692" s="16"/>
+      <c r="C692" s="16"/>
+      <c r="D692" s="16"/>
+      <c r="E692" s="16"/>
+      <c r="F692" s="16"/>
+      <c r="G692" s="17"/>
+      <c r="H692" s="16"/>
+      <c r="I692" s="16"/>
+    </row>
+    <row r="693" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A693" s="16"/>
+      <c r="B693" s="16"/>
+      <c r="C693" s="16"/>
+      <c r="D693" s="16"/>
+      <c r="E693" s="16"/>
+      <c r="F693" s="16"/>
+      <c r="G693" s="17"/>
+      <c r="H693" s="16"/>
+      <c r="I693" s="16"/>
+    </row>
+    <row r="694" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A694" s="16"/>
+      <c r="B694" s="16"/>
+      <c r="C694" s="16"/>
+      <c r="D694" s="16"/>
+      <c r="E694" s="16"/>
+      <c r="F694" s="16"/>
+      <c r="G694" s="17"/>
+      <c r="H694" s="16"/>
+      <c r="I694" s="16"/>
+    </row>
+    <row r="695" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A695" s="16"/>
+      <c r="B695" s="16"/>
+      <c r="C695" s="16"/>
+      <c r="D695" s="16"/>
+      <c r="E695" s="16"/>
+      <c r="F695" s="16"/>
+      <c r="G695" s="17"/>
+      <c r="H695" s="16"/>
+      <c r="I695" s="16"/>
+    </row>
+    <row r="696" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A696" s="16"/>
+      <c r="B696" s="16"/>
+      <c r="C696" s="16"/>
+      <c r="D696" s="16"/>
+      <c r="E696" s="16"/>
+      <c r="F696" s="16"/>
+      <c r="G696" s="17"/>
+      <c r="H696" s="16"/>
+      <c r="I696" s="16"/>
+    </row>
+    <row r="697" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A697" s="16"/>
+      <c r="B697" s="16"/>
+      <c r="C697" s="16"/>
+      <c r="D697" s="16"/>
+      <c r="E697" s="16"/>
+      <c r="F697" s="16"/>
+      <c r="G697" s="17"/>
+      <c r="H697" s="16"/>
+      <c r="I697" s="16"/>
+    </row>
+    <row r="698" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A698" s="16"/>
+      <c r="B698" s="16"/>
+      <c r="C698" s="16"/>
+      <c r="D698" s="16"/>
+      <c r="E698" s="16"/>
+      <c r="F698" s="16"/>
+      <c r="G698" s="17"/>
+      <c r="H698" s="16"/>
+      <c r="I698" s="16"/>
+    </row>
+    <row r="699" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A699" s="16"/>
+      <c r="B699" s="16"/>
+      <c r="C699" s="16"/>
+      <c r="D699" s="16"/>
+      <c r="E699" s="16"/>
+      <c r="F699" s="16"/>
+      <c r="G699" s="17"/>
+      <c r="H699" s="16"/>
+      <c r="I699" s="16"/>
+    </row>
+    <row r="700" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A700" s="16"/>
+      <c r="B700" s="16"/>
+      <c r="C700" s="16"/>
+      <c r="D700" s="16"/>
+      <c r="E700" s="16"/>
+      <c r="F700" s="16"/>
+      <c r="G700" s="17"/>
+      <c r="H700" s="16"/>
+      <c r="I700" s="16"/>
+    </row>
+    <row r="701" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A701" s="16"/>
+      <c r="B701" s="16"/>
+      <c r="C701" s="16"/>
+      <c r="D701" s="16"/>
+      <c r="E701" s="16"/>
+      <c r="F701" s="16"/>
+      <c r="G701" s="17"/>
+      <c r="H701" s="16"/>
+      <c r="I701" s="16"/>
+    </row>
+    <row r="702" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A702" s="16"/>
+      <c r="B702" s="16"/>
+      <c r="C702" s="16"/>
+      <c r="D702" s="16"/>
+      <c r="E702" s="16"/>
+      <c r="F702" s="16"/>
+      <c r="G702" s="17"/>
+      <c r="H702" s="16"/>
+      <c r="I702" s="16"/>
+    </row>
+    <row r="703" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A703" s="16"/>
+      <c r="B703" s="16"/>
+      <c r="C703" s="16"/>
+      <c r="D703" s="16"/>
+      <c r="E703" s="16"/>
+      <c r="F703" s="16"/>
+      <c r="G703" s="17"/>
+      <c r="H703" s="16"/>
+      <c r="I703" s="16"/>
+    </row>
+    <row r="704" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A704" s="16"/>
+      <c r="B704" s="16"/>
+      <c r="C704" s="16"/>
+      <c r="D704" s="16"/>
+      <c r="E704" s="16"/>
+      <c r="F704" s="16"/>
+      <c r="G704" s="17"/>
+      <c r="H704" s="16"/>
+      <c r="I704" s="16"/>
+    </row>
+    <row r="705" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A705" s="16"/>
+      <c r="B705" s="16"/>
+      <c r="C705" s="16"/>
+      <c r="D705" s="16"/>
+      <c r="E705" s="16"/>
+      <c r="F705" s="16"/>
+      <c r="G705" s="17"/>
+      <c r="H705" s="16"/>
+      <c r="I705" s="16"/>
+    </row>
+    <row r="706" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A706" s="16"/>
+      <c r="B706" s="16"/>
+      <c r="C706" s="16"/>
+      <c r="D706" s="16"/>
+      <c r="E706" s="16"/>
+      <c r="F706" s="16"/>
+      <c r="G706" s="17"/>
+      <c r="H706" s="16"/>
+      <c r="I706" s="16"/>
+    </row>
+    <row r="707" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A707" s="16"/>
+      <c r="B707" s="16"/>
+      <c r="C707" s="16"/>
+      <c r="D707" s="16"/>
+      <c r="E707" s="16"/>
+      <c r="F707" s="16"/>
+      <c r="G707" s="17"/>
+      <c r="H707" s="16"/>
+      <c r="I707" s="16"/>
+    </row>
+    <row r="708" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A708" s="16"/>
+      <c r="B708" s="16"/>
+      <c r="C708" s="16"/>
+      <c r="D708" s="16"/>
+      <c r="E708" s="16"/>
+      <c r="F708" s="16"/>
+      <c r="G708" s="17"/>
+      <c r="H708" s="16"/>
+      <c r="I708" s="16"/>
+    </row>
+    <row r="709" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A709" s="16"/>
+      <c r="B709" s="16"/>
+      <c r="C709" s="16"/>
+      <c r="D709" s="16"/>
+      <c r="E709" s="16"/>
+      <c r="F709" s="16"/>
+      <c r="G709" s="17"/>
+      <c r="H709" s="16"/>
+      <c r="I709" s="16"/>
+    </row>
+    <row r="710" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A710" s="16"/>
+      <c r="B710" s="16"/>
+      <c r="C710" s="16"/>
+      <c r="D710" s="16"/>
+      <c r="E710" s="16"/>
+      <c r="F710" s="16"/>
+      <c r="G710" s="17"/>
+      <c r="H710" s="16"/>
+      <c r="I710" s="16"/>
+    </row>
+    <row r="711" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A711" s="16"/>
+      <c r="B711" s="16"/>
+      <c r="C711" s="16"/>
+      <c r="D711" s="16"/>
+      <c r="E711" s="16"/>
+      <c r="F711" s="16"/>
+      <c r="G711" s="17"/>
+      <c r="H711" s="16"/>
+      <c r="I711" s="16"/>
+    </row>
+    <row r="712" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A712" s="16"/>
+      <c r="B712" s="16"/>
+      <c r="C712" s="16"/>
+      <c r="D712" s="16"/>
+      <c r="E712" s="16"/>
+      <c r="F712" s="16"/>
+      <c r="G712" s="17"/>
+      <c r="H712" s="16"/>
+      <c r="I712" s="16"/>
+    </row>
+    <row r="713" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A713" s="16"/>
+      <c r="B713" s="16"/>
+      <c r="C713" s="16"/>
+      <c r="D713" s="16"/>
+      <c r="E713" s="16"/>
+      <c r="F713" s="16"/>
+      <c r="G713" s="17"/>
+      <c r="H713" s="16"/>
+      <c r="I713" s="16"/>
+    </row>
+    <row r="714" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A714" s="16"/>
+      <c r="B714" s="16"/>
+      <c r="C714" s="16"/>
+      <c r="D714" s="16"/>
+      <c r="E714" s="16"/>
+      <c r="F714" s="16"/>
+      <c r="G714" s="17"/>
+      <c r="H714" s="16"/>
+      <c r="I714" s="16"/>
+    </row>
+    <row r="715" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A715" s="16"/>
+      <c r="B715" s="16"/>
+      <c r="C715" s="16"/>
+      <c r="D715" s="16"/>
+      <c r="E715" s="16"/>
+      <c r="F715" s="16"/>
+      <c r="G715" s="17"/>
+      <c r="H715" s="16"/>
+      <c r="I715" s="16"/>
+    </row>
+    <row r="716" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A716" s="16"/>
+      <c r="B716" s="16"/>
+      <c r="C716" s="16"/>
+      <c r="D716" s="16"/>
+      <c r="E716" s="16"/>
+      <c r="F716" s="16"/>
+      <c r="G716" s="17"/>
+      <c r="H716" s="16"/>
+      <c r="I716" s="16"/>
+    </row>
+    <row r="717" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A717" s="16"/>
+      <c r="B717" s="16"/>
+      <c r="C717" s="16"/>
+      <c r="D717" s="16"/>
+      <c r="E717" s="16"/>
+      <c r="F717" s="16"/>
+      <c r="G717" s="17"/>
+      <c r="H717" s="16"/>
+      <c r="I717" s="16"/>
+    </row>
+    <row r="718" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A718" s="16"/>
+      <c r="B718" s="16"/>
+      <c r="C718" s="16"/>
+      <c r="D718" s="16"/>
+      <c r="E718" s="16"/>
+      <c r="F718" s="16"/>
+      <c r="G718" s="17"/>
+      <c r="H718" s="16"/>
+      <c r="I718" s="16"/>
+    </row>
+    <row r="719" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A719" s="16"/>
+      <c r="B719" s="16"/>
+      <c r="C719" s="16"/>
+      <c r="D719" s="16"/>
+      <c r="E719" s="16"/>
+      <c r="F719" s="16"/>
+      <c r="G719" s="17"/>
+      <c r="H719" s="16"/>
+      <c r="I719" s="16"/>
+    </row>
+    <row r="720" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A720" s="16"/>
+      <c r="B720" s="16"/>
+      <c r="C720" s="16"/>
+      <c r="D720" s="16"/>
+      <c r="E720" s="16"/>
+      <c r="F720" s="16"/>
+      <c r="G720" s="17"/>
+      <c r="H720" s="16"/>
+      <c r="I720" s="16"/>
+    </row>
+    <row r="721" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A721" s="16"/>
+      <c r="B721" s="16"/>
+      <c r="C721" s="16"/>
+      <c r="D721" s="16"/>
+      <c r="E721" s="16"/>
+      <c r="F721" s="16"/>
+      <c r="G721" s="17"/>
+      <c r="H721" s="16"/>
+      <c r="I721" s="16"/>
+    </row>
+    <row r="722" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A722" s="16"/>
+      <c r="B722" s="16"/>
+      <c r="C722" s="16"/>
+      <c r="D722" s="16"/>
+      <c r="E722" s="16"/>
+      <c r="F722" s="16"/>
+      <c r="G722" s="17"/>
+      <c r="H722" s="16"/>
+      <c r="I722" s="16"/>
+    </row>
+    <row r="723" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A723" s="16"/>
+      <c r="B723" s="16"/>
+      <c r="C723" s="16"/>
+      <c r="D723" s="16"/>
+      <c r="E723" s="16"/>
+      <c r="F723" s="16"/>
+      <c r="G723" s="17"/>
+      <c r="H723" s="16"/>
+      <c r="I723" s="16"/>
+    </row>
+    <row r="724" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A724" s="16"/>
+      <c r="B724" s="16"/>
+      <c r="C724" s="16"/>
+      <c r="D724" s="16"/>
+      <c r="E724" s="16"/>
+      <c r="F724" s="16"/>
+      <c r="G724" s="17"/>
+      <c r="H724" s="16"/>
+      <c r="I724" s="16"/>
+    </row>
+    <row r="725" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A725" s="16"/>
+      <c r="B725" s="16"/>
+      <c r="C725" s="16"/>
+      <c r="D725" s="16"/>
+      <c r="E725" s="16"/>
+      <c r="F725" s="16"/>
+      <c r="G725" s="17"/>
+      <c r="H725" s="16"/>
+      <c r="I725" s="16"/>
+    </row>
+    <row r="726" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A726" s="16"/>
+      <c r="B726" s="16"/>
+      <c r="C726" s="16"/>
+      <c r="D726" s="16"/>
+      <c r="E726" s="16"/>
+      <c r="F726" s="16"/>
+      <c r="G726" s="17"/>
+      <c r="H726" s="16"/>
+      <c r="I726" s="16"/>
+    </row>
+    <row r="727" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A727" s="16"/>
+      <c r="B727" s="16"/>
+      <c r="C727" s="16"/>
+      <c r="D727" s="16"/>
+      <c r="E727" s="16"/>
+      <c r="F727" s="16"/>
+      <c r="G727" s="17"/>
+      <c r="H727" s="16"/>
+      <c r="I727" s="16"/>
+    </row>
+    <row r="728" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A728" s="16"/>
+      <c r="B728" s="16"/>
+      <c r="C728" s="16"/>
+      <c r="D728" s="16"/>
+      <c r="E728" s="16"/>
+      <c r="F728" s="16"/>
+      <c r="G728" s="17"/>
+      <c r="H728" s="16"/>
+      <c r="I728" s="16"/>
+    </row>
+    <row r="729" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A729" s="16"/>
+      <c r="B729" s="16"/>
+      <c r="C729" s="16"/>
+      <c r="D729" s="16"/>
+      <c r="E729" s="16"/>
+      <c r="F729" s="16"/>
+      <c r="G729" s="17"/>
+      <c r="H729" s="16"/>
+      <c r="I729" s="16"/>
+    </row>
+    <row r="730" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A730" s="16"/>
+      <c r="B730" s="16"/>
+      <c r="C730" s="16"/>
+      <c r="D730" s="16"/>
+      <c r="E730" s="16"/>
+      <c r="F730" s="16"/>
+      <c r="G730" s="17"/>
+      <c r="H730" s="16"/>
+      <c r="I730" s="16"/>
+    </row>
+    <row r="731" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A731" s="16"/>
+      <c r="B731" s="16"/>
+      <c r="C731" s="16"/>
+      <c r="D731" s="16"/>
+      <c r="E731" s="16"/>
+      <c r="F731" s="16"/>
+      <c r="G731" s="17"/>
+      <c r="H731" s="16"/>
+      <c r="I731" s="16"/>
+    </row>
+    <row r="732" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A732" s="16"/>
+      <c r="B732" s="16"/>
+      <c r="C732" s="16"/>
+      <c r="D732" s="16"/>
+      <c r="E732" s="16"/>
+      <c r="F732" s="16"/>
+      <c r="G732" s="17"/>
+      <c r="H732" s="16"/>
+      <c r="I732" s="16"/>
+    </row>
+    <row r="733" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A733" s="16"/>
+      <c r="B733" s="16"/>
+      <c r="C733" s="16"/>
+      <c r="D733" s="16"/>
+      <c r="E733" s="16"/>
+      <c r="F733" s="16"/>
+      <c r="G733" s="17"/>
+      <c r="H733" s="16"/>
+      <c r="I733" s="16"/>
+    </row>
+    <row r="734" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A734" s="16"/>
+      <c r="B734" s="16"/>
+      <c r="C734" s="16"/>
+      <c r="D734" s="16"/>
+      <c r="E734" s="16"/>
+      <c r="F734" s="16"/>
+      <c r="G734" s="17"/>
+      <c r="H734" s="16"/>
+      <c r="I734" s="16"/>
+    </row>
+    <row r="735" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A735" s="16"/>
+      <c r="B735" s="16"/>
+      <c r="C735" s="16"/>
+      <c r="D735" s="16"/>
+      <c r="E735" s="16"/>
+      <c r="F735" s="16"/>
+      <c r="G735" s="17"/>
+      <c r="H735" s="16"/>
+      <c r="I735" s="16"/>
+    </row>
+    <row r="736" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A736" s="16"/>
+      <c r="B736" s="16"/>
+      <c r="C736" s="16"/>
+      <c r="D736" s="16"/>
+      <c r="E736" s="16"/>
+      <c r="F736" s="16"/>
+      <c r="G736" s="17"/>
+      <c r="H736" s="16"/>
+      <c r="I736" s="16"/>
+    </row>
+    <row r="737" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A737" s="16"/>
+      <c r="B737" s="16"/>
+      <c r="C737" s="16"/>
+      <c r="D737" s="16"/>
+      <c r="E737" s="16"/>
+      <c r="F737" s="16"/>
+      <c r="G737" s="17"/>
+      <c r="H737" s="16"/>
+      <c r="I737" s="16"/>
+    </row>
+    <row r="738" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A738" s="16"/>
+      <c r="B738" s="16"/>
+      <c r="C738" s="16"/>
+      <c r="D738" s="16"/>
+      <c r="E738" s="16"/>
+      <c r="F738" s="16"/>
+      <c r="G738" s="17"/>
+      <c r="H738" s="16"/>
+      <c r="I738" s="16"/>
+    </row>
+    <row r="739" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A739" s="16"/>
+      <c r="B739" s="16"/>
+      <c r="C739" s="16"/>
+      <c r="D739" s="16"/>
+      <c r="E739" s="16"/>
+      <c r="F739" s="16"/>
+      <c r="G739" s="17"/>
+      <c r="H739" s="16"/>
+      <c r="I739" s="16"/>
+    </row>
+    <row r="740" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A740" s="16"/>
+      <c r="B740" s="16"/>
+      <c r="C740" s="16"/>
+      <c r="D740" s="16"/>
+      <c r="E740" s="16"/>
+      <c r="F740" s="16"/>
+      <c r="G740" s="17"/>
+      <c r="H740" s="16"/>
+      <c r="I740" s="16"/>
+    </row>
+    <row r="741" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A741" s="16"/>
+      <c r="B741" s="16"/>
+      <c r="C741" s="16"/>
+      <c r="D741" s="16"/>
+      <c r="E741" s="16"/>
+      <c r="F741" s="16"/>
+      <c r="G741" s="17"/>
+      <c r="H741" s="16"/>
+      <c r="I741" s="16"/>
+    </row>
+    <row r="742" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A742" s="16"/>
+      <c r="B742" s="16"/>
+      <c r="C742" s="16"/>
+      <c r="D742" s="16"/>
+      <c r="E742" s="16"/>
+      <c r="F742" s="16"/>
+      <c r="G742" s="17"/>
+      <c r="H742" s="16"/>
+      <c r="I742" s="16"/>
+    </row>
+    <row r="743" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A743" s="16"/>
+      <c r="B743" s="16"/>
+      <c r="C743" s="16"/>
+      <c r="D743" s="16"/>
+      <c r="E743" s="16"/>
+      <c r="F743" s="16"/>
+      <c r="G743" s="17"/>
+      <c r="H743" s="16"/>
+      <c r="I743" s="16"/>
+    </row>
+    <row r="744" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A744" s="16"/>
+      <c r="B744" s="16"/>
+      <c r="C744" s="16"/>
+      <c r="D744" s="16"/>
+      <c r="E744" s="16"/>
+      <c r="F744" s="16"/>
+      <c r="G744" s="17"/>
+      <c r="H744" s="16"/>
+      <c r="I744" s="16"/>
+    </row>
+    <row r="745" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A745" s="16"/>
+      <c r="B745" s="16"/>
+      <c r="C745" s="16"/>
+      <c r="D745" s="16"/>
+      <c r="E745" s="16"/>
+      <c r="F745" s="16"/>
+      <c r="G745" s="17"/>
+      <c r="H745" s="16"/>
+      <c r="I745" s="16"/>
+    </row>
+    <row r="746" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A746" s="16"/>
+      <c r="B746" s="16"/>
+      <c r="C746" s="16"/>
+      <c r="D746" s="16"/>
+      <c r="E746" s="16"/>
+      <c r="F746" s="16"/>
+      <c r="G746" s="17"/>
+      <c r="H746" s="16"/>
+      <c r="I746" s="16"/>
+    </row>
+    <row r="747" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A747" s="16"/>
+      <c r="B747" s="16"/>
+      <c r="C747" s="16"/>
+      <c r="D747" s="16"/>
+      <c r="E747" s="16"/>
+      <c r="F747" s="16"/>
+      <c r="G747" s="17"/>
+      <c r="H747" s="16"/>
+      <c r="I747" s="16"/>
+    </row>
+    <row r="748" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A748" s="16"/>
+      <c r="B748" s="16"/>
+      <c r="C748" s="16"/>
+      <c r="D748" s="16"/>
+      <c r="E748" s="16"/>
+      <c r="F748" s="16"/>
+      <c r="G748" s="17"/>
+      <c r="H748" s="16"/>
+      <c r="I748" s="16"/>
+    </row>
+    <row r="749" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A749" s="16"/>
+      <c r="B749" s="16"/>
+      <c r="C749" s="16"/>
+      <c r="D749" s="16"/>
+      <c r="E749" s="16"/>
+      <c r="F749" s="16"/>
+      <c r="G749" s="17"/>
+      <c r="H749" s="16"/>
+      <c r="I749" s="16"/>
+    </row>
+    <row r="750" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A750" s="16"/>
+      <c r="B750" s="16"/>
+      <c r="C750" s="16"/>
+      <c r="D750" s="16"/>
+      <c r="E750" s="16"/>
+      <c r="F750" s="16"/>
+      <c r="G750" s="17"/>
+      <c r="H750" s="16"/>
+      <c r="I750" s="16"/>
+    </row>
+    <row r="751" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A751" s="16"/>
+      <c r="B751" s="16"/>
+      <c r="C751" s="16"/>
+      <c r="D751" s="16"/>
+      <c r="E751" s="16"/>
+      <c r="F751" s="16"/>
+      <c r="G751" s="17"/>
+      <c r="H751" s="16"/>
+      <c r="I751" s="16"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:I237" xr:uid="{73D03841-840F-48EF-840B-36FDA2E59E7D}"/>
